--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="285" windowWidth="9630" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="9585" yWindow="285" windowWidth="9630" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Logs" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="421">
   <si>
     <t>DAY</t>
   </si>
@@ -1366,6 +1366,18 @@
   </si>
   <si>
     <t>Bug Fix, v2.xlsm]ClsDevelopmentPlan.PrintForm() - Check if DP worksheet is already open</t>
+  </si>
+  <si>
+    <t>v2.018</t>
+  </si>
+  <si>
+    <t>Bug Fix - FrmEditAssessment.BtnUpdate_Click(), Error 13: Type mismatch.  Checked for ""</t>
+  </si>
+  <si>
+    <t>6523</t>
+  </si>
+  <si>
+    <t>0231</t>
   </si>
 </sst>
 </file>
@@ -4646,23 +4658,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -4687,15 +4687,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4736,9 +4730,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4805,6 +4796,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="20" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="20" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="20" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4838,6 +4850,162 @@
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="166" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="22" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4853,161 +5021,14 @@
     <xf numFmtId="0" fontId="32" fillId="21" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="166" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,15 +5057,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5081,6 +5093,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5114,14 +5132,12 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
@@ -5185,10 +5201,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5198,7 +5210,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
     <dxf>
       <font>
         <color theme="0"/>
@@ -5546,6 +5558,59 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5998,54 +6063,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -8091,7 +8108,7 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8494,10 +8511,10 @@
       </c>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="210">
-        <v>6523</v>
-      </c>
-      <c r="C6" s="211" t="s">
+      <c r="B6" s="264" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="210" t="s">
         <v>409</v>
       </c>
       <c r="D6" s="189"/>
@@ -8535,10 +8552,10 @@
       <c r="AJ6" s="169"/>
     </row>
     <row r="7" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="212">
-        <v>231</v>
-      </c>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="265" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="211" t="s">
         <v>410</v>
       </c>
       <c r="D7" s="196"/>
@@ -8579,8 +8596,8 @@
       </c>
     </row>
     <row r="8" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="211"/>
       <c r="D8" s="196"/>
       <c r="E8" s="197"/>
       <c r="F8" s="198"/>
@@ -8619,8 +8636,8 @@
       </c>
     </row>
     <row r="9" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="212"/>
-      <c r="C9" s="213"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="211"/>
       <c r="D9" s="196"/>
       <c r="E9" s="197"/>
       <c r="F9" s="198"/>
@@ -8659,8 +8676,8 @@
       </c>
     </row>
     <row r="10" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="211"/>
       <c r="D10" s="196"/>
       <c r="E10" s="197"/>
       <c r="F10" s="198"/>
@@ -8697,8 +8714,8 @@
       <c r="AM10" s="170"/>
     </row>
     <row r="11" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="211"/>
       <c r="D11" s="196"/>
       <c r="E11" s="197"/>
       <c r="F11" s="198"/>
@@ -8735,8 +8752,8 @@
       <c r="AM11" s="170"/>
     </row>
     <row r="12" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="211"/>
       <c r="D12" s="196"/>
       <c r="E12" s="197"/>
       <c r="F12" s="198"/>
@@ -8773,8 +8790,8 @@
       <c r="AM12" s="170"/>
     </row>
     <row r="13" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
+      <c r="B13" s="265"/>
+      <c r="C13" s="211"/>
       <c r="D13" s="196"/>
       <c r="E13" s="197"/>
       <c r="F13" s="198"/>
@@ -8811,8 +8828,8 @@
       <c r="AM13" s="170"/>
     </row>
     <row r="14" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
+      <c r="B14" s="265"/>
+      <c r="C14" s="211"/>
       <c r="D14" s="196"/>
       <c r="E14" s="197"/>
       <c r="F14" s="198"/>
@@ -8849,8 +8866,8 @@
       <c r="AM14" s="170"/>
     </row>
     <row r="15" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="211"/>
       <c r="D15" s="196"/>
       <c r="E15" s="197"/>
       <c r="F15" s="198"/>
@@ -8887,8 +8904,8 @@
       <c r="AM15" s="170"/>
     </row>
     <row r="16" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
+      <c r="B16" s="265"/>
+      <c r="C16" s="211"/>
       <c r="D16" s="196"/>
       <c r="E16" s="197"/>
       <c r="F16" s="198"/>
@@ -8925,8 +8942,8 @@
       <c r="AM16" s="170"/>
     </row>
     <row r="17" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="211"/>
       <c r="D17" s="196"/>
       <c r="E17" s="197"/>
       <c r="F17" s="198"/>
@@ -8963,8 +8980,8 @@
       <c r="AM17" s="170"/>
     </row>
     <row r="18" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="211"/>
       <c r="D18" s="196"/>
       <c r="E18" s="197"/>
       <c r="F18" s="198"/>
@@ -9001,8 +9018,8 @@
       <c r="AM18" s="170"/>
     </row>
     <row r="19" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="211"/>
       <c r="D19" s="196"/>
       <c r="E19" s="197"/>
       <c r="F19" s="198"/>
@@ -9039,8 +9056,8 @@
       <c r="AM19" s="170"/>
     </row>
     <row r="20" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="196"/>
       <c r="E20" s="197"/>
       <c r="F20" s="198"/>
@@ -9077,8 +9094,8 @@
       <c r="AM20" s="170"/>
     </row>
     <row r="21" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="196"/>
       <c r="E21" s="197"/>
       <c r="F21" s="198"/>
@@ -9115,8 +9132,8 @@
       <c r="AM21" s="170"/>
     </row>
     <row r="22" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
+      <c r="B22" s="265"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="196"/>
       <c r="E22" s="197"/>
       <c r="F22" s="198"/>
@@ -9153,8 +9170,8 @@
       <c r="AM22" s="170"/>
     </row>
     <row r="23" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="196"/>
       <c r="E23" s="197"/>
       <c r="F23" s="198"/>
@@ -9191,8 +9208,8 @@
       <c r="AM23" s="170"/>
     </row>
     <row r="24" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="196"/>
       <c r="E24" s="197"/>
       <c r="F24" s="198"/>
@@ -9229,8 +9246,8 @@
       <c r="AM24" s="170"/>
     </row>
     <row r="25" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="196"/>
       <c r="E25" s="197"/>
       <c r="F25" s="198"/>
@@ -9267,8 +9284,8 @@
       <c r="AM25" s="170"/>
     </row>
     <row r="26" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
+      <c r="B26" s="265"/>
+      <c r="C26" s="211"/>
       <c r="D26" s="196"/>
       <c r="E26" s="197"/>
       <c r="F26" s="198"/>
@@ -9305,8 +9322,8 @@
       <c r="AM26" s="170"/>
     </row>
     <row r="27" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
+      <c r="B27" s="265"/>
+      <c r="C27" s="211"/>
       <c r="D27" s="196"/>
       <c r="E27" s="197"/>
       <c r="F27" s="198"/>
@@ -9343,8 +9360,8 @@
       <c r="AM27" s="170"/>
     </row>
     <row r="28" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
+      <c r="B28" s="265"/>
+      <c r="C28" s="211"/>
       <c r="D28" s="196"/>
       <c r="E28" s="197"/>
       <c r="F28" s="198"/>
@@ -9383,8 +9400,8 @@
       </c>
     </row>
     <row r="29" spans="2:39" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
+      <c r="B29" s="265"/>
+      <c r="C29" s="211"/>
       <c r="D29" s="196"/>
       <c r="E29" s="197"/>
       <c r="F29" s="198"/>
@@ -9423,8 +9440,8 @@
       </c>
     </row>
     <row r="30" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
+      <c r="B30" s="265"/>
+      <c r="C30" s="211"/>
       <c r="D30" s="196"/>
       <c r="E30" s="197"/>
       <c r="F30" s="198"/>
@@ -9460,8 +9477,8 @@
       <c r="AJ30" s="169"/>
     </row>
     <row r="31" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
+      <c r="B31" s="265"/>
+      <c r="C31" s="211"/>
       <c r="D31" s="196"/>
       <c r="E31" s="197"/>
       <c r="F31" s="198"/>
@@ -9497,8 +9514,8 @@
       <c r="AJ31" s="169"/>
     </row>
     <row r="32" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="196"/>
       <c r="E32" s="197"/>
       <c r="F32" s="198"/>
@@ -9534,8 +9551,8 @@
       <c r="AJ32" s="169"/>
     </row>
     <row r="33" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="196"/>
       <c r="E33" s="197"/>
       <c r="F33" s="198"/>
@@ -9571,8 +9588,8 @@
       <c r="AJ33" s="169"/>
     </row>
     <row r="34" spans="1:36" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
+      <c r="B34" s="266"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="203"/>
       <c r="E34" s="204"/>
       <c r="F34" s="205"/>
@@ -9608,7 +9625,7 @@
       <c r="AJ34" s="169"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AH37" s="221" t="s">
+      <c r="AH37" s="218" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9678,26 +9695,26 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D6:AI34">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>1.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="between">
       <formula>4</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9717,27 +9734,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9767,27 +9784,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9826,30 +9843,30 @@
       <c r="C4" s="132">
         <v>9</v>
       </c>
-      <c r="D4" s="389">
+      <c r="D4" s="373">
         <v>11</v>
       </c>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389">
+      <c r="E4" s="373"/>
+      <c r="F4" s="373">
         <v>17</v>
       </c>
-      <c r="G4" s="389"/>
-      <c r="H4" s="389">
+      <c r="G4" s="373"/>
+      <c r="H4" s="373">
         <v>20</v>
       </c>
-      <c r="I4" s="389"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389">
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="373">
         <v>27</v>
       </c>
-      <c r="M4" s="389"/>
-      <c r="N4" s="389">
+      <c r="M4" s="373"/>
+      <c r="N4" s="373">
         <v>28</v>
       </c>
-      <c r="O4" s="389"/>
-      <c r="P4" s="389"/>
-      <c r="Q4" s="389"/>
+      <c r="O4" s="373"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="373"/>
       <c r="R4" s="133"/>
     </row>
     <row r="5" spans="1:84" s="118" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9860,30 +9877,30 @@
       <c r="C5" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="387" t="s">
+      <c r="D5" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="388"/>
-      <c r="F5" s="373" t="s">
+      <c r="E5" s="389"/>
+      <c r="F5" s="374" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="375"/>
-      <c r="H5" s="373" t="s">
+      <c r="G5" s="376"/>
+      <c r="H5" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="374"/>
-      <c r="J5" s="374"/>
-      <c r="K5" s="375"/>
-      <c r="L5" s="376" t="s">
+      <c r="I5" s="375"/>
+      <c r="J5" s="375"/>
+      <c r="K5" s="376"/>
+      <c r="L5" s="377" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="378"/>
-      <c r="N5" s="376" t="s">
+      <c r="M5" s="379"/>
+      <c r="N5" s="377" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="377"/>
-      <c r="P5" s="377"/>
-      <c r="Q5" s="377"/>
+      <c r="O5" s="378"/>
+      <c r="P5" s="378"/>
+      <c r="Q5" s="378"/>
       <c r="R5" s="138"/>
     </row>
     <row r="6" spans="1:84" s="118" customFormat="1" ht="104.25" x14ac:dyDescent="0.2">
@@ -9894,30 +9911,30 @@
       <c r="C6" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="379" t="s">
+      <c r="D6" s="380" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="380"/>
-      <c r="F6" s="381" t="s">
+      <c r="E6" s="381"/>
+      <c r="F6" s="382" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="382"/>
-      <c r="H6" s="381" t="s">
+      <c r="G6" s="383"/>
+      <c r="H6" s="382" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="382"/>
-      <c r="L6" s="384" t="s">
+      <c r="I6" s="384"/>
+      <c r="J6" s="384"/>
+      <c r="K6" s="383"/>
+      <c r="L6" s="385" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="385"/>
-      <c r="N6" s="384" t="s">
+      <c r="M6" s="386"/>
+      <c r="N6" s="385" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="386"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="386"/>
+      <c r="O6" s="387"/>
+      <c r="P6" s="387"/>
+      <c r="Q6" s="387"/>
       <c r="R6" s="139"/>
     </row>
     <row r="7" spans="1:84" s="118" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10663,11 +10680,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -10678,6 +10690,11 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D13 C8:J8 B8:C12 F8:J12 L8:Q12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
@@ -10782,11 +10799,11 @@
   </sheetPr>
   <dimension ref="A1:DL53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10795,7 +10812,7 @@
     <col min="2" max="2" width="6.7109375" style="164" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="164" customWidth="1"/>
     <col min="4" max="88" width="3.28515625" style="164" customWidth="1"/>
-    <col min="89" max="89" width="9" style="237" customWidth="1"/>
+    <col min="89" max="89" width="9" style="232" customWidth="1"/>
     <col min="90" max="90" width="9" style="161" customWidth="1"/>
     <col min="91" max="91" width="9.140625" style="161"/>
     <col min="92" max="92" width="0" style="161" hidden="1" customWidth="1"/>
@@ -10892,14 +10909,14 @@
       <c r="CJ1" s="163"/>
     </row>
     <row r="2" spans="2:98" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="222" t="s">
+      <c r="P2" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="223"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
       <c r="X2" s="275" t="s">
         <v>76</v>
       </c>
@@ -10923,3206 +10940,3226 @@
       <c r="AP2" s="275"/>
       <c r="AQ2" s="275"/>
       <c r="AR2" s="275"/>
-      <c r="AS2" s="278" t="str">
+      <c r="AS2" s="330" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - 12/2</v>
       </c>
-      <c r="AT2" s="278"/>
-      <c r="AU2" s="278"/>
-      <c r="AV2" s="278"/>
-      <c r="AW2" s="278"/>
-      <c r="AX2" s="278"/>
-      <c r="AY2" s="278"/>
-      <c r="AZ2" s="278"/>
-      <c r="BA2" s="278"/>
-      <c r="BB2" s="278"/>
-      <c r="BC2" s="278"/>
-      <c r="BD2" s="278"/>
-      <c r="BE2" s="224"/>
-      <c r="BF2" s="224"/>
-      <c r="BG2" s="224"/>
-      <c r="BH2" s="224"/>
-      <c r="BI2" s="224"/>
-      <c r="BJ2" s="224"/>
-      <c r="BK2" s="224"/>
-      <c r="BL2" s="224"/>
-      <c r="BM2" s="224"/>
-      <c r="BN2" s="224"/>
-      <c r="BO2" s="224"/>
-      <c r="BP2" s="224"/>
-      <c r="BQ2" s="224"/>
-      <c r="BR2" s="224"/>
-      <c r="BS2" s="224"/>
-      <c r="BT2" s="224"/>
-      <c r="BU2" s="224"/>
-      <c r="BV2" s="224"/>
-      <c r="BW2" s="224"/>
-      <c r="BX2" s="224"/>
-      <c r="BY2" s="224"/>
-      <c r="BZ2" s="224"/>
-      <c r="CA2" s="224"/>
-      <c r="CB2" s="224"/>
-      <c r="CC2" s="224"/>
-      <c r="CD2" s="224"/>
-      <c r="CE2" s="224"/>
-      <c r="CF2" s="224"/>
-      <c r="CG2" s="224"/>
-      <c r="CH2" s="224"/>
-      <c r="CI2" s="224"/>
-      <c r="CJ2" s="224"/>
+      <c r="AT2" s="330"/>
+      <c r="AU2" s="330"/>
+      <c r="AV2" s="330"/>
+      <c r="AW2" s="330"/>
+      <c r="AX2" s="330"/>
+      <c r="AY2" s="330"/>
+      <c r="AZ2" s="330"/>
+      <c r="BA2" s="330"/>
+      <c r="BB2" s="330"/>
+      <c r="BC2" s="330"/>
+      <c r="BD2" s="330"/>
+      <c r="BE2" s="221"/>
+      <c r="BF2" s="221"/>
+      <c r="BG2" s="221"/>
+      <c r="BH2" s="221"/>
+      <c r="BI2" s="221"/>
+      <c r="BJ2" s="221"/>
+      <c r="BK2" s="221"/>
+      <c r="BL2" s="221"/>
+      <c r="BM2" s="221"/>
+      <c r="BN2" s="221"/>
+      <c r="BO2" s="221"/>
+      <c r="BP2" s="221"/>
+      <c r="BQ2" s="221"/>
+      <c r="BR2" s="221"/>
+      <c r="BS2" s="221"/>
+      <c r="BT2" s="221"/>
+      <c r="BU2" s="221"/>
+      <c r="BV2" s="221"/>
+      <c r="BW2" s="221"/>
+      <c r="BX2" s="221"/>
+      <c r="BY2" s="221"/>
+      <c r="BZ2" s="221"/>
+      <c r="CA2" s="221"/>
+      <c r="CB2" s="221"/>
+      <c r="CC2" s="221"/>
+      <c r="CD2" s="221"/>
+      <c r="CE2" s="221"/>
+      <c r="CF2" s="221"/>
+      <c r="CG2" s="221"/>
+      <c r="CH2" s="221"/>
+      <c r="CI2" s="221"/>
+      <c r="CJ2" s="221"/>
     </row>
     <row r="3" spans="2:98" s="162" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281">
+      <c r="C3" s="332"/>
+      <c r="D3" s="333">
         <v>3</v>
       </c>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="283">
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="312">
         <v>9</v>
       </c>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="283">
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="312">
         <v>11</v>
       </c>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="283">
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333"/>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="333"/>
+      <c r="U3" s="333"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="312">
         <v>17</v>
       </c>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="281"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="281"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="281"/>
-      <c r="AE3" s="281"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283">
+      <c r="Y3" s="333"/>
+      <c r="Z3" s="333"/>
+      <c r="AA3" s="333"/>
+      <c r="AB3" s="333"/>
+      <c r="AC3" s="333"/>
+      <c r="AD3" s="333"/>
+      <c r="AE3" s="333"/>
+      <c r="AF3" s="333"/>
+      <c r="AG3" s="334"/>
+      <c r="AH3" s="312">
         <v>20</v>
       </c>
-      <c r="AI3" s="281"/>
-      <c r="AJ3" s="281"/>
-      <c r="AK3" s="281"/>
-      <c r="AL3" s="281"/>
-      <c r="AM3" s="281"/>
-      <c r="AN3" s="281"/>
-      <c r="AO3" s="281"/>
-      <c r="AP3" s="281"/>
-      <c r="AQ3" s="281"/>
-      <c r="AR3" s="281"/>
-      <c r="AS3" s="281"/>
-      <c r="AT3" s="281"/>
-      <c r="AU3" s="281"/>
-      <c r="AV3" s="281"/>
-      <c r="AW3" s="281"/>
-      <c r="AX3" s="281"/>
-      <c r="AY3" s="281"/>
-      <c r="AZ3" s="281"/>
-      <c r="BA3" s="282"/>
-      <c r="BB3" s="283">
+      <c r="AI3" s="333"/>
+      <c r="AJ3" s="333"/>
+      <c r="AK3" s="333"/>
+      <c r="AL3" s="333"/>
+      <c r="AM3" s="333"/>
+      <c r="AN3" s="333"/>
+      <c r="AO3" s="333"/>
+      <c r="AP3" s="333"/>
+      <c r="AQ3" s="333"/>
+      <c r="AR3" s="333"/>
+      <c r="AS3" s="333"/>
+      <c r="AT3" s="333"/>
+      <c r="AU3" s="333"/>
+      <c r="AV3" s="333"/>
+      <c r="AW3" s="333"/>
+      <c r="AX3" s="333"/>
+      <c r="AY3" s="333"/>
+      <c r="AZ3" s="333"/>
+      <c r="BA3" s="334"/>
+      <c r="BB3" s="312">
         <v>27</v>
       </c>
-      <c r="BC3" s="281"/>
-      <c r="BD3" s="281"/>
-      <c r="BE3" s="281"/>
-      <c r="BF3" s="281"/>
-      <c r="BG3" s="281"/>
-      <c r="BH3" s="281"/>
-      <c r="BI3" s="281"/>
-      <c r="BJ3" s="281"/>
-      <c r="BK3" s="282"/>
-      <c r="BL3" s="284">
+      <c r="BC3" s="333"/>
+      <c r="BD3" s="333"/>
+      <c r="BE3" s="333"/>
+      <c r="BF3" s="333"/>
+      <c r="BG3" s="333"/>
+      <c r="BH3" s="333"/>
+      <c r="BI3" s="333"/>
+      <c r="BJ3" s="333"/>
+      <c r="BK3" s="334"/>
+      <c r="BL3" s="311">
         <v>28</v>
       </c>
-      <c r="BM3" s="284"/>
-      <c r="BN3" s="283"/>
-      <c r="BO3" s="283"/>
-      <c r="BP3" s="283"/>
-      <c r="BQ3" s="283"/>
-      <c r="BR3" s="283"/>
-      <c r="BS3" s="283"/>
-      <c r="BT3" s="283"/>
-      <c r="BU3" s="283"/>
-      <c r="BV3" s="283"/>
-      <c r="BW3" s="283"/>
-      <c r="BX3" s="283"/>
-      <c r="BY3" s="283"/>
-      <c r="BZ3" s="283"/>
-      <c r="CA3" s="283"/>
-      <c r="CB3" s="283"/>
-      <c r="CC3" s="283"/>
-      <c r="CD3" s="283"/>
-      <c r="CE3" s="283"/>
-      <c r="CF3" s="326">
+      <c r="BM3" s="311"/>
+      <c r="BN3" s="312"/>
+      <c r="BO3" s="312"/>
+      <c r="BP3" s="312"/>
+      <c r="BQ3" s="312"/>
+      <c r="BR3" s="312"/>
+      <c r="BS3" s="312"/>
+      <c r="BT3" s="312"/>
+      <c r="BU3" s="312"/>
+      <c r="BV3" s="312"/>
+      <c r="BW3" s="312"/>
+      <c r="BX3" s="312"/>
+      <c r="BY3" s="312"/>
+      <c r="BZ3" s="312"/>
+      <c r="CA3" s="312"/>
+      <c r="CB3" s="312"/>
+      <c r="CC3" s="312"/>
+      <c r="CD3" s="312"/>
+      <c r="CE3" s="312"/>
+      <c r="CF3" s="287">
         <v>29</v>
       </c>
-      <c r="CG3" s="327"/>
-      <c r="CH3" s="327"/>
-      <c r="CI3" s="327"/>
-      <c r="CJ3" s="328"/>
-      <c r="CK3" s="238"/>
-      <c r="CL3" s="231"/>
+      <c r="CG3" s="288"/>
+      <c r="CH3" s="288"/>
+      <c r="CI3" s="288"/>
+      <c r="CJ3" s="289"/>
+      <c r="CK3" s="233"/>
+      <c r="CL3" s="226"/>
     </row>
     <row r="4" spans="2:98" s="160" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="313" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="286"/>
-      <c r="D4" s="287" t="s">
+      <c r="C4" s="314"/>
+      <c r="D4" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="289"/>
-      <c r="I4" s="290" t="s">
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="318" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="293" t="s">
+      <c r="J4" s="319"/>
+      <c r="K4" s="319"/>
+      <c r="L4" s="319"/>
+      <c r="M4" s="320"/>
+      <c r="N4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="295"/>
-      <c r="X4" s="296" t="s">
+      <c r="O4" s="322"/>
+      <c r="P4" s="322"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="322"/>
+      <c r="S4" s="322"/>
+      <c r="T4" s="322"/>
+      <c r="U4" s="322"/>
+      <c r="V4" s="322"/>
+      <c r="W4" s="323"/>
+      <c r="X4" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="296" t="s">
+      <c r="Y4" s="325"/>
+      <c r="Z4" s="325"/>
+      <c r="AA4" s="325"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="325"/>
+      <c r="AD4" s="325"/>
+      <c r="AE4" s="325"/>
+      <c r="AF4" s="325"/>
+      <c r="AG4" s="326"/>
+      <c r="AH4" s="324" t="s">
         <v>18</v>
       </c>
-      <c r="AI4" s="297"/>
-      <c r="AJ4" s="297"/>
-      <c r="AK4" s="297"/>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
-      <c r="AO4" s="297"/>
-      <c r="AP4" s="297"/>
-      <c r="AQ4" s="297"/>
-      <c r="AR4" s="297"/>
-      <c r="AS4" s="297"/>
-      <c r="AT4" s="297"/>
-      <c r="AU4" s="297"/>
-      <c r="AV4" s="297"/>
-      <c r="AW4" s="297"/>
-      <c r="AX4" s="297"/>
-      <c r="AY4" s="297"/>
-      <c r="AZ4" s="297"/>
-      <c r="BA4" s="298"/>
-      <c r="BB4" s="299" t="s">
+      <c r="AI4" s="325"/>
+      <c r="AJ4" s="325"/>
+      <c r="AK4" s="325"/>
+      <c r="AL4" s="325"/>
+      <c r="AM4" s="325"/>
+      <c r="AN4" s="325"/>
+      <c r="AO4" s="325"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" s="325"/>
+      <c r="AR4" s="325"/>
+      <c r="AS4" s="325"/>
+      <c r="AT4" s="325"/>
+      <c r="AU4" s="325"/>
+      <c r="AV4" s="325"/>
+      <c r="AW4" s="325"/>
+      <c r="AX4" s="325"/>
+      <c r="AY4" s="325"/>
+      <c r="AZ4" s="325"/>
+      <c r="BA4" s="326"/>
+      <c r="BB4" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="BC4" s="300"/>
-      <c r="BD4" s="300"/>
-      <c r="BE4" s="300"/>
-      <c r="BF4" s="300"/>
-      <c r="BG4" s="300"/>
-      <c r="BH4" s="300"/>
-      <c r="BI4" s="300"/>
-      <c r="BJ4" s="300"/>
-      <c r="BK4" s="301"/>
-      <c r="BL4" s="299" t="s">
+      <c r="BC4" s="328"/>
+      <c r="BD4" s="328"/>
+      <c r="BE4" s="328"/>
+      <c r="BF4" s="328"/>
+      <c r="BG4" s="328"/>
+      <c r="BH4" s="328"/>
+      <c r="BI4" s="328"/>
+      <c r="BJ4" s="328"/>
+      <c r="BK4" s="329"/>
+      <c r="BL4" s="327" t="s">
         <v>23</v>
       </c>
-      <c r="BM4" s="300"/>
-      <c r="BN4" s="300"/>
-      <c r="BO4" s="300"/>
-      <c r="BP4" s="300"/>
-      <c r="BQ4" s="300"/>
-      <c r="BR4" s="300"/>
-      <c r="BS4" s="300"/>
-      <c r="BT4" s="300"/>
-      <c r="BU4" s="300"/>
-      <c r="BV4" s="300"/>
-      <c r="BW4" s="300"/>
-      <c r="BX4" s="300"/>
-      <c r="BY4" s="300"/>
-      <c r="BZ4" s="300"/>
-      <c r="CA4" s="300"/>
-      <c r="CB4" s="300"/>
-      <c r="CC4" s="300"/>
-      <c r="CD4" s="300"/>
-      <c r="CE4" s="301"/>
-      <c r="CF4" s="313" t="s">
+      <c r="BM4" s="328"/>
+      <c r="BN4" s="328"/>
+      <c r="BO4" s="328"/>
+      <c r="BP4" s="328"/>
+      <c r="BQ4" s="328"/>
+      <c r="BR4" s="328"/>
+      <c r="BS4" s="328"/>
+      <c r="BT4" s="328"/>
+      <c r="BU4" s="328"/>
+      <c r="BV4" s="328"/>
+      <c r="BW4" s="328"/>
+      <c r="BX4" s="328"/>
+      <c r="BY4" s="328"/>
+      <c r="BZ4" s="328"/>
+      <c r="CA4" s="328"/>
+      <c r="CB4" s="328"/>
+      <c r="CC4" s="328"/>
+      <c r="CD4" s="328"/>
+      <c r="CE4" s="329"/>
+      <c r="CF4" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="CG4" s="314"/>
-      <c r="CH4" s="314"/>
-      <c r="CI4" s="314"/>
-      <c r="CJ4" s="315"/>
-      <c r="CK4" s="239"/>
-      <c r="CL4" s="232"/>
+      <c r="CG4" s="279"/>
+      <c r="CH4" s="279"/>
+      <c r="CI4" s="279"/>
+      <c r="CJ4" s="280"/>
+      <c r="CK4" s="234"/>
+      <c r="CL4" s="227"/>
     </row>
     <row r="5" spans="2:98" s="160" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="302" t="s">
+      <c r="B5" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="303"/>
-      <c r="D5" s="304" t="s">
+      <c r="C5" s="301"/>
+      <c r="D5" s="302" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="305"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="307" t="s">
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="305" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="310" t="s">
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="307"/>
+      <c r="N5" s="308" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="311"/>
-      <c r="P5" s="311"/>
-      <c r="Q5" s="311"/>
-      <c r="R5" s="311"/>
-      <c r="S5" s="311"/>
-      <c r="T5" s="311"/>
-      <c r="U5" s="311"/>
-      <c r="V5" s="311"/>
-      <c r="W5" s="312"/>
-      <c r="X5" s="313" t="s">
+      <c r="O5" s="309"/>
+      <c r="P5" s="309"/>
+      <c r="Q5" s="309"/>
+      <c r="R5" s="309"/>
+      <c r="S5" s="309"/>
+      <c r="T5" s="309"/>
+      <c r="U5" s="309"/>
+      <c r="V5" s="309"/>
+      <c r="W5" s="310"/>
+      <c r="X5" s="278" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="314"/>
-      <c r="Z5" s="314"/>
-      <c r="AA5" s="314"/>
-      <c r="AB5" s="314"/>
-      <c r="AC5" s="314"/>
-      <c r="AD5" s="314"/>
-      <c r="AE5" s="314"/>
-      <c r="AF5" s="314"/>
-      <c r="AG5" s="315"/>
-      <c r="AH5" s="313" t="s">
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="279"/>
+      <c r="AG5" s="280"/>
+      <c r="AH5" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" s="314"/>
-      <c r="AJ5" s="314"/>
-      <c r="AK5" s="314"/>
-      <c r="AL5" s="314"/>
-      <c r="AM5" s="314"/>
-      <c r="AN5" s="314"/>
-      <c r="AO5" s="314"/>
-      <c r="AP5" s="314"/>
-      <c r="AQ5" s="314"/>
-      <c r="AR5" s="314"/>
-      <c r="AS5" s="314"/>
-      <c r="AT5" s="314"/>
-      <c r="AU5" s="314"/>
-      <c r="AV5" s="314"/>
-      <c r="AW5" s="314"/>
-      <c r="AX5" s="314"/>
-      <c r="AY5" s="314"/>
-      <c r="AZ5" s="314"/>
-      <c r="BA5" s="315"/>
-      <c r="BB5" s="317" t="s">
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="279"/>
+      <c r="AK5" s="279"/>
+      <c r="AL5" s="279"/>
+      <c r="AM5" s="279"/>
+      <c r="AN5" s="279"/>
+      <c r="AO5" s="279"/>
+      <c r="AP5" s="279"/>
+      <c r="AQ5" s="279"/>
+      <c r="AR5" s="279"/>
+      <c r="AS5" s="279"/>
+      <c r="AT5" s="279"/>
+      <c r="AU5" s="279"/>
+      <c r="AV5" s="279"/>
+      <c r="AW5" s="279"/>
+      <c r="AX5" s="279"/>
+      <c r="AY5" s="279"/>
+      <c r="AZ5" s="279"/>
+      <c r="BA5" s="280"/>
+      <c r="BB5" s="297" t="s">
         <v>54</v>
       </c>
-      <c r="BC5" s="318"/>
-      <c r="BD5" s="318"/>
-      <c r="BE5" s="318"/>
-      <c r="BF5" s="318"/>
-      <c r="BG5" s="318"/>
-      <c r="BH5" s="318"/>
-      <c r="BI5" s="318"/>
-      <c r="BJ5" s="318"/>
-      <c r="BK5" s="319"/>
-      <c r="BL5" s="317" t="s">
+      <c r="BC5" s="298"/>
+      <c r="BD5" s="298"/>
+      <c r="BE5" s="298"/>
+      <c r="BF5" s="298"/>
+      <c r="BG5" s="298"/>
+      <c r="BH5" s="298"/>
+      <c r="BI5" s="298"/>
+      <c r="BJ5" s="298"/>
+      <c r="BK5" s="299"/>
+      <c r="BL5" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="BM5" s="318"/>
-      <c r="BN5" s="318"/>
-      <c r="BO5" s="318"/>
-      <c r="BP5" s="318"/>
-      <c r="BQ5" s="318"/>
-      <c r="BR5" s="318"/>
-      <c r="BS5" s="318"/>
-      <c r="BT5" s="318"/>
-      <c r="BU5" s="318"/>
-      <c r="BV5" s="318"/>
-      <c r="BW5" s="318"/>
-      <c r="BX5" s="318"/>
-      <c r="BY5" s="318"/>
-      <c r="BZ5" s="318"/>
-      <c r="CA5" s="318"/>
-      <c r="CB5" s="318"/>
-      <c r="CC5" s="318"/>
-      <c r="CD5" s="318"/>
-      <c r="CE5" s="319"/>
-      <c r="CF5" s="320" t="s">
+      <c r="BM5" s="298"/>
+      <c r="BN5" s="298"/>
+      <c r="BO5" s="298"/>
+      <c r="BP5" s="298"/>
+      <c r="BQ5" s="298"/>
+      <c r="BR5" s="298"/>
+      <c r="BS5" s="298"/>
+      <c r="BT5" s="298"/>
+      <c r="BU5" s="298"/>
+      <c r="BV5" s="298"/>
+      <c r="BW5" s="298"/>
+      <c r="BX5" s="298"/>
+      <c r="BY5" s="298"/>
+      <c r="BZ5" s="298"/>
+      <c r="CA5" s="298"/>
+      <c r="CB5" s="298"/>
+      <c r="CC5" s="298"/>
+      <c r="CD5" s="298"/>
+      <c r="CE5" s="299"/>
+      <c r="CF5" s="281" t="s">
         <v>315</v>
       </c>
-      <c r="CG5" s="321"/>
-      <c r="CH5" s="321"/>
-      <c r="CI5" s="321"/>
-      <c r="CJ5" s="322"/>
-      <c r="CK5" s="240"/>
-      <c r="CL5" s="233"/>
-    </row>
-    <row r="6" spans="2:98" s="225" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="248"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="329" t="s">
+      <c r="CG5" s="282"/>
+      <c r="CH5" s="282"/>
+      <c r="CI5" s="282"/>
+      <c r="CJ5" s="283"/>
+      <c r="CK5" s="235"/>
+      <c r="CL5" s="228"/>
+    </row>
+    <row r="6" spans="2:98" s="222" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="330" t="s">
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="291" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="331"/>
-      <c r="K6" s="331"/>
-      <c r="L6" s="331"/>
-      <c r="M6" s="332"/>
-      <c r="N6" s="333" t="s">
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="293"/>
+      <c r="N6" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="333"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="333"/>
-      <c r="R6" s="333"/>
-      <c r="S6" s="333" t="s">
+      <c r="O6" s="294"/>
+      <c r="P6" s="294"/>
+      <c r="Q6" s="294"/>
+      <c r="R6" s="294"/>
+      <c r="S6" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="T6" s="333"/>
-      <c r="U6" s="333"/>
-      <c r="V6" s="333"/>
-      <c r="W6" s="333"/>
-      <c r="X6" s="334" t="s">
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="295" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" s="334"/>
-      <c r="Z6" s="334"/>
-      <c r="AA6" s="334"/>
-      <c r="AB6" s="334"/>
-      <c r="AC6" s="334" t="s">
+      <c r="Y6" s="295"/>
+      <c r="Z6" s="295"/>
+      <c r="AA6" s="295"/>
+      <c r="AB6" s="295"/>
+      <c r="AC6" s="295" t="s">
         <v>88</v>
       </c>
-      <c r="AD6" s="334"/>
-      <c r="AE6" s="334"/>
-      <c r="AF6" s="334"/>
-      <c r="AG6" s="334"/>
-      <c r="AH6" s="334" t="s">
+      <c r="AD6" s="295"/>
+      <c r="AE6" s="295"/>
+      <c r="AF6" s="295"/>
+      <c r="AG6" s="295"/>
+      <c r="AH6" s="295" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="334"/>
-      <c r="AJ6" s="334"/>
-      <c r="AK6" s="334"/>
-      <c r="AL6" s="334"/>
-      <c r="AM6" s="334" t="s">
+      <c r="AI6" s="295"/>
+      <c r="AJ6" s="295"/>
+      <c r="AK6" s="295"/>
+      <c r="AL6" s="295"/>
+      <c r="AM6" s="295" t="s">
         <v>88</v>
       </c>
-      <c r="AN6" s="334"/>
-      <c r="AO6" s="334"/>
-      <c r="AP6" s="334"/>
-      <c r="AQ6" s="334"/>
-      <c r="AR6" s="334" t="s">
+      <c r="AN6" s="295"/>
+      <c r="AO6" s="295"/>
+      <c r="AP6" s="295"/>
+      <c r="AQ6" s="295"/>
+      <c r="AR6" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="334"/>
-      <c r="AT6" s="334"/>
-      <c r="AU6" s="334"/>
-      <c r="AV6" s="334"/>
-      <c r="AW6" s="334" t="s">
+      <c r="AS6" s="295"/>
+      <c r="AT6" s="295"/>
+      <c r="AU6" s="295"/>
+      <c r="AV6" s="295"/>
+      <c r="AW6" s="295" t="s">
         <v>90</v>
       </c>
-      <c r="AX6" s="334"/>
-      <c r="AY6" s="334"/>
-      <c r="AZ6" s="334"/>
-      <c r="BA6" s="334"/>
-      <c r="BB6" s="316" t="s">
+      <c r="AX6" s="295"/>
+      <c r="AY6" s="295"/>
+      <c r="AZ6" s="295"/>
+      <c r="BA6" s="295"/>
+      <c r="BB6" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="BC6" s="316"/>
-      <c r="BD6" s="316"/>
-      <c r="BE6" s="316"/>
-      <c r="BF6" s="316"/>
-      <c r="BG6" s="316" t="s">
+      <c r="BC6" s="296"/>
+      <c r="BD6" s="296"/>
+      <c r="BE6" s="296"/>
+      <c r="BF6" s="296"/>
+      <c r="BG6" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="BH6" s="316"/>
-      <c r="BI6" s="316"/>
-      <c r="BJ6" s="316"/>
-      <c r="BK6" s="316"/>
-      <c r="BL6" s="316" t="s">
+      <c r="BH6" s="296"/>
+      <c r="BI6" s="296"/>
+      <c r="BJ6" s="296"/>
+      <c r="BK6" s="296"/>
+      <c r="BL6" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="BM6" s="316"/>
-      <c r="BN6" s="316"/>
-      <c r="BO6" s="316"/>
-      <c r="BP6" s="316"/>
-      <c r="BQ6" s="316" t="s">
+      <c r="BM6" s="296"/>
+      <c r="BN6" s="296"/>
+      <c r="BO6" s="296"/>
+      <c r="BP6" s="296"/>
+      <c r="BQ6" s="296" t="s">
         <v>91</v>
       </c>
-      <c r="BR6" s="316"/>
-      <c r="BS6" s="316"/>
-      <c r="BT6" s="316"/>
-      <c r="BU6" s="316"/>
-      <c r="BV6" s="316" t="s">
+      <c r="BR6" s="296"/>
+      <c r="BS6" s="296"/>
+      <c r="BT6" s="296"/>
+      <c r="BU6" s="296"/>
+      <c r="BV6" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="BW6" s="316"/>
-      <c r="BX6" s="316"/>
-      <c r="BY6" s="316"/>
-      <c r="BZ6" s="316"/>
-      <c r="CA6" s="316" t="s">
+      <c r="BW6" s="296"/>
+      <c r="BX6" s="296"/>
+      <c r="BY6" s="296"/>
+      <c r="BZ6" s="296"/>
+      <c r="CA6" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="CB6" s="316"/>
-      <c r="CC6" s="316"/>
-      <c r="CD6" s="316"/>
-      <c r="CE6" s="316"/>
-      <c r="CF6" s="323" t="s">
+      <c r="CB6" s="296"/>
+      <c r="CC6" s="296"/>
+      <c r="CD6" s="296"/>
+      <c r="CE6" s="296"/>
+      <c r="CF6" s="284" t="s">
         <v>87</v>
       </c>
-      <c r="CG6" s="324"/>
-      <c r="CH6" s="324"/>
-      <c r="CI6" s="324"/>
-      <c r="CJ6" s="325"/>
-      <c r="CK6" s="250" t="s">
+      <c r="CG6" s="285"/>
+      <c r="CH6" s="285"/>
+      <c r="CI6" s="285"/>
+      <c r="CJ6" s="286"/>
+      <c r="CK6" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="CL6" s="251" t="s">
+      <c r="CL6" s="245" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="244">
-        <v>6523</v>
-      </c>
-      <c r="C7" s="245" t="s">
+      <c r="B7" s="261" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="239" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="246"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="247"/>
+      <c r="P7" s="247"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="247"/>
+      <c r="S7" s="248"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="249"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="248"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="249"/>
+      <c r="AH7" s="247">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
+      <c r="AL7" s="247"/>
+      <c r="AM7" s="248">
+        <v>87</v>
+      </c>
+      <c r="AN7" s="247"/>
+      <c r="AO7" s="247"/>
+      <c r="AP7" s="247"/>
+      <c r="AQ7" s="249"/>
+      <c r="AR7" s="247">
+        <v>88</v>
+      </c>
+      <c r="AS7" s="247"/>
+      <c r="AT7" s="247"/>
+      <c r="AU7" s="247"/>
+      <c r="AV7" s="247"/>
+      <c r="AW7" s="248">
+        <v>90</v>
+      </c>
+      <c r="AX7" s="247"/>
+      <c r="AY7" s="247"/>
+      <c r="AZ7" s="247"/>
+      <c r="BA7" s="249"/>
+      <c r="BB7" s="247">
+        <v>45</v>
+      </c>
+      <c r="BC7" s="247"/>
+      <c r="BD7" s="247"/>
+      <c r="BE7" s="247"/>
+      <c r="BF7" s="247"/>
+      <c r="BG7" s="248">
+        <v>78</v>
+      </c>
+      <c r="BH7" s="247"/>
+      <c r="BI7" s="247"/>
+      <c r="BJ7" s="247"/>
+      <c r="BK7" s="249"/>
+      <c r="BL7" s="247"/>
+      <c r="BM7" s="247"/>
+      <c r="BN7" s="247"/>
+      <c r="BO7" s="247"/>
+      <c r="BP7" s="247"/>
+      <c r="BQ7" s="248"/>
+      <c r="BR7" s="247"/>
+      <c r="BS7" s="247"/>
+      <c r="BT7" s="247"/>
+      <c r="BU7" s="249"/>
+      <c r="BV7" s="247"/>
+      <c r="BW7" s="247"/>
+      <c r="BX7" s="247"/>
+      <c r="BY7" s="247"/>
+      <c r="BZ7" s="247"/>
+      <c r="CA7" s="248"/>
+      <c r="CB7" s="247"/>
+      <c r="CC7" s="247"/>
+      <c r="CD7" s="247"/>
+      <c r="CE7" s="249"/>
+      <c r="CF7" s="247"/>
+      <c r="CG7" s="247"/>
+      <c r="CH7" s="247"/>
+      <c r="CI7" s="247"/>
+      <c r="CJ7" s="247"/>
+      <c r="CK7" s="240">
+        <v>70.333335876464844</v>
+      </c>
+      <c r="CL7" s="241">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="223"/>
+    </row>
+    <row r="8" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="262" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="224" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="253">
+      <c r="D8" s="250"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="251">
         <v>0</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254">
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="252">
         <v>0</v>
       </c>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="254"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="253"/>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="253"/>
-      <c r="AI7" s="253"/>
-      <c r="AJ7" s="253"/>
-      <c r="AK7" s="253"/>
-      <c r="AL7" s="253"/>
-      <c r="AM7" s="254"/>
-      <c r="AN7" s="253"/>
-      <c r="AO7" s="253"/>
-      <c r="AP7" s="253"/>
-      <c r="AQ7" s="255"/>
-      <c r="AR7" s="253"/>
-      <c r="AS7" s="253"/>
-      <c r="AT7" s="253"/>
-      <c r="AU7" s="253"/>
-      <c r="AV7" s="253"/>
-      <c r="AW7" s="254"/>
-      <c r="AX7" s="253"/>
-      <c r="AY7" s="253"/>
-      <c r="AZ7" s="253"/>
-      <c r="BA7" s="255"/>
-      <c r="BB7" s="253"/>
-      <c r="BC7" s="253"/>
-      <c r="BD7" s="253"/>
-      <c r="BE7" s="253"/>
-      <c r="BF7" s="253"/>
-      <c r="BG7" s="254"/>
-      <c r="BH7" s="253"/>
-      <c r="BI7" s="253"/>
-      <c r="BJ7" s="253"/>
-      <c r="BK7" s="255"/>
-      <c r="BL7" s="253"/>
-      <c r="BM7" s="253"/>
-      <c r="BN7" s="253"/>
-      <c r="BO7" s="253"/>
-      <c r="BP7" s="253"/>
-      <c r="BQ7" s="254"/>
-      <c r="BR7" s="253"/>
-      <c r="BS7" s="253"/>
-      <c r="BT7" s="253"/>
-      <c r="BU7" s="255"/>
-      <c r="BV7" s="253"/>
-      <c r="BW7" s="253"/>
-      <c r="BX7" s="253"/>
-      <c r="BY7" s="253"/>
-      <c r="BZ7" s="253"/>
-      <c r="CA7" s="254"/>
-      <c r="CB7" s="253"/>
-      <c r="CC7" s="253"/>
-      <c r="CD7" s="253"/>
-      <c r="CE7" s="255"/>
-      <c r="CF7" s="253"/>
-      <c r="CG7" s="253"/>
-      <c r="CH7" s="253"/>
-      <c r="CI7" s="253"/>
-      <c r="CJ7" s="253"/>
-      <c r="CK7" s="246">
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="251">
         <v>0</v>
       </c>
-      <c r="CL7" s="247">
+      <c r="Y8" s="251">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="252">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="251">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="251"/>
+      <c r="AL8" s="251"/>
+      <c r="AM8" s="252"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="253"/>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="252"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251"/>
+      <c r="AZ8" s="251"/>
+      <c r="BA8" s="253"/>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="251"/>
+      <c r="BF8" s="251"/>
+      <c r="BG8" s="252"/>
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="251"/>
+      <c r="BK8" s="253"/>
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="251"/>
+      <c r="BP8" s="251"/>
+      <c r="BQ8" s="252"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="251"/>
+      <c r="BT8" s="251"/>
+      <c r="BU8" s="253"/>
+      <c r="BV8" s="251"/>
+      <c r="BW8" s="251"/>
+      <c r="BX8" s="251"/>
+      <c r="BY8" s="251"/>
+      <c r="BZ8" s="251"/>
+      <c r="CA8" s="252"/>
+      <c r="CB8" s="251"/>
+      <c r="CC8" s="251"/>
+      <c r="CD8" s="251"/>
+      <c r="CE8" s="253"/>
+      <c r="CF8" s="251"/>
+      <c r="CG8" s="251"/>
+      <c r="CH8" s="251"/>
+      <c r="CI8" s="251"/>
+      <c r="CJ8" s="251"/>
+      <c r="CK8" s="236">
+        <v>8.5</v>
+      </c>
+      <c r="CL8" s="229">
         <v>1</v>
       </c>
-      <c r="CT7" s="226"/>
-    </row>
-    <row r="8" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="227">
-        <v>231</v>
-      </c>
-      <c r="C8" s="228" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="259"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="258"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="259"/>
-      <c r="AH8" s="257"/>
-      <c r="AI8" s="257"/>
-      <c r="AJ8" s="257"/>
-      <c r="AK8" s="257"/>
-      <c r="AL8" s="257"/>
-      <c r="AM8" s="258"/>
-      <c r="AN8" s="257"/>
-      <c r="AO8" s="257"/>
-      <c r="AP8" s="257"/>
-      <c r="AQ8" s="259"/>
-      <c r="AR8" s="257"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="257"/>
-      <c r="AU8" s="257"/>
-      <c r="AV8" s="257"/>
-      <c r="AW8" s="258"/>
-      <c r="AX8" s="257"/>
-      <c r="AY8" s="257"/>
-      <c r="AZ8" s="257"/>
-      <c r="BA8" s="259"/>
-      <c r="BB8" s="257"/>
-      <c r="BC8" s="257"/>
-      <c r="BD8" s="257"/>
-      <c r="BE8" s="257"/>
-      <c r="BF8" s="257"/>
-      <c r="BG8" s="258"/>
-      <c r="BH8" s="257"/>
-      <c r="BI8" s="257"/>
-      <c r="BJ8" s="257"/>
-      <c r="BK8" s="259"/>
-      <c r="BL8" s="257"/>
-      <c r="BM8" s="257"/>
-      <c r="BN8" s="257"/>
-      <c r="BO8" s="257"/>
-      <c r="BP8" s="257"/>
-      <c r="BQ8" s="258"/>
-      <c r="BR8" s="257"/>
-      <c r="BS8" s="257"/>
-      <c r="BT8" s="257"/>
-      <c r="BU8" s="259"/>
-      <c r="BV8" s="257"/>
-      <c r="BW8" s="257"/>
-      <c r="BX8" s="257"/>
-      <c r="BY8" s="257"/>
-      <c r="BZ8" s="257"/>
-      <c r="CA8" s="258"/>
-      <c r="CB8" s="257"/>
-      <c r="CC8" s="257"/>
-      <c r="CD8" s="257"/>
-      <c r="CE8" s="259"/>
-      <c r="CF8" s="257"/>
-      <c r="CG8" s="257"/>
-      <c r="CH8" s="257"/>
-      <c r="CI8" s="257"/>
-      <c r="CJ8" s="257"/>
-      <c r="CK8" s="241">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="234">
-        <v>0</v>
-      </c>
       <c r="CN8" s="170"/>
-      <c r="CT8" s="226"/>
+      <c r="CT8" s="223"/>
     </row>
     <row r="9" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="259"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="258"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="259"/>
-      <c r="AH9" s="257"/>
-      <c r="AI9" s="257"/>
-      <c r="AJ9" s="257"/>
-      <c r="AK9" s="257"/>
-      <c r="AL9" s="257"/>
-      <c r="AM9" s="258"/>
-      <c r="AN9" s="257"/>
-      <c r="AO9" s="257"/>
-      <c r="AP9" s="257"/>
-      <c r="AQ9" s="259"/>
-      <c r="AR9" s="257"/>
-      <c r="AS9" s="257"/>
-      <c r="AT9" s="257"/>
-      <c r="AU9" s="257"/>
-      <c r="AV9" s="257"/>
-      <c r="AW9" s="258"/>
-      <c r="AX9" s="257"/>
-      <c r="AY9" s="257"/>
-      <c r="AZ9" s="257"/>
-      <c r="BA9" s="259"/>
-      <c r="BB9" s="257"/>
-      <c r="BC9" s="257"/>
-      <c r="BD9" s="257"/>
-      <c r="BE9" s="257"/>
-      <c r="BF9" s="257"/>
-      <c r="BG9" s="258"/>
-      <c r="BH9" s="257"/>
-      <c r="BI9" s="257"/>
-      <c r="BJ9" s="257"/>
-      <c r="BK9" s="259"/>
-      <c r="BL9" s="257"/>
-      <c r="BM9" s="257"/>
-      <c r="BN9" s="257"/>
-      <c r="BO9" s="257"/>
-      <c r="BP9" s="257"/>
-      <c r="BQ9" s="258"/>
-      <c r="BR9" s="257"/>
-      <c r="BS9" s="257"/>
-      <c r="BT9" s="257"/>
-      <c r="BU9" s="259"/>
-      <c r="BV9" s="257"/>
-      <c r="BW9" s="257"/>
-      <c r="BX9" s="257"/>
-      <c r="BY9" s="257"/>
-      <c r="BZ9" s="257"/>
-      <c r="CA9" s="258"/>
-      <c r="CB9" s="257"/>
-      <c r="CC9" s="257"/>
-      <c r="CD9" s="257"/>
-      <c r="CE9" s="259"/>
-      <c r="CF9" s="257"/>
-      <c r="CG9" s="257"/>
-      <c r="CH9" s="257"/>
-      <c r="CI9" s="257"/>
-      <c r="CJ9" s="257"/>
-      <c r="CK9" s="241"/>
-      <c r="CL9" s="234"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="251"/>
+      <c r="R9" s="251"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="252"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="251"/>
+      <c r="AJ9" s="251"/>
+      <c r="AK9" s="251"/>
+      <c r="AL9" s="251"/>
+      <c r="AM9" s="252"/>
+      <c r="AN9" s="251"/>
+      <c r="AO9" s="251"/>
+      <c r="AP9" s="251"/>
+      <c r="AQ9" s="253"/>
+      <c r="AR9" s="251"/>
+      <c r="AS9" s="251"/>
+      <c r="AT9" s="251"/>
+      <c r="AU9" s="251"/>
+      <c r="AV9" s="251"/>
+      <c r="AW9" s="252"/>
+      <c r="AX9" s="251"/>
+      <c r="AY9" s="251"/>
+      <c r="AZ9" s="251"/>
+      <c r="BA9" s="253"/>
+      <c r="BB9" s="251"/>
+      <c r="BC9" s="251"/>
+      <c r="BD9" s="251"/>
+      <c r="BE9" s="251"/>
+      <c r="BF9" s="251"/>
+      <c r="BG9" s="252"/>
+      <c r="BH9" s="251"/>
+      <c r="BI9" s="251"/>
+      <c r="BJ9" s="251"/>
+      <c r="BK9" s="253"/>
+      <c r="BL9" s="251"/>
+      <c r="BM9" s="251"/>
+      <c r="BN9" s="251"/>
+      <c r="BO9" s="251"/>
+      <c r="BP9" s="251"/>
+      <c r="BQ9" s="252"/>
+      <c r="BR9" s="251"/>
+      <c r="BS9" s="251"/>
+      <c r="BT9" s="251"/>
+      <c r="BU9" s="253"/>
+      <c r="BV9" s="251"/>
+      <c r="BW9" s="251"/>
+      <c r="BX9" s="251"/>
+      <c r="BY9" s="251"/>
+      <c r="BZ9" s="251"/>
+      <c r="CA9" s="252"/>
+      <c r="CB9" s="251"/>
+      <c r="CC9" s="251"/>
+      <c r="CD9" s="251"/>
+      <c r="CE9" s="253"/>
+      <c r="CF9" s="251"/>
+      <c r="CG9" s="251"/>
+      <c r="CH9" s="251"/>
+      <c r="CI9" s="251"/>
+      <c r="CJ9" s="251"/>
+      <c r="CK9" s="236"/>
+      <c r="CL9" s="229"/>
       <c r="CN9" s="170"/>
-      <c r="CT9" s="226"/>
+      <c r="CT9" s="223"/>
     </row>
     <row r="10" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="259"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="257"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="257"/>
-      <c r="V10" s="257"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="257"/>
-      <c r="Y10" s="257"/>
-      <c r="Z10" s="257"/>
-      <c r="AA10" s="257"/>
-      <c r="AB10" s="257"/>
-      <c r="AC10" s="258"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="257"/>
-      <c r="AF10" s="257"/>
-      <c r="AG10" s="259"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="257"/>
-      <c r="AJ10" s="257"/>
-      <c r="AK10" s="257"/>
-      <c r="AL10" s="257"/>
-      <c r="AM10" s="258"/>
-      <c r="AN10" s="257"/>
-      <c r="AO10" s="257"/>
-      <c r="AP10" s="257"/>
-      <c r="AQ10" s="259"/>
-      <c r="AR10" s="257"/>
-      <c r="AS10" s="257"/>
-      <c r="AT10" s="257"/>
-      <c r="AU10" s="257"/>
-      <c r="AV10" s="257"/>
-      <c r="AW10" s="258"/>
-      <c r="AX10" s="257"/>
-      <c r="AY10" s="257"/>
-      <c r="AZ10" s="257"/>
-      <c r="BA10" s="259"/>
-      <c r="BB10" s="257"/>
-      <c r="BC10" s="257"/>
-      <c r="BD10" s="257"/>
-      <c r="BE10" s="257"/>
-      <c r="BF10" s="257"/>
-      <c r="BG10" s="258"/>
-      <c r="BH10" s="257"/>
-      <c r="BI10" s="257"/>
-      <c r="BJ10" s="257"/>
-      <c r="BK10" s="259"/>
-      <c r="BL10" s="257"/>
-      <c r="BM10" s="257"/>
-      <c r="BN10" s="257"/>
-      <c r="BO10" s="257"/>
-      <c r="BP10" s="257"/>
-      <c r="BQ10" s="258"/>
-      <c r="BR10" s="257"/>
-      <c r="BS10" s="257"/>
-      <c r="BT10" s="257"/>
-      <c r="BU10" s="259"/>
-      <c r="BV10" s="257"/>
-      <c r="BW10" s="257"/>
-      <c r="BX10" s="257"/>
-      <c r="BY10" s="257"/>
-      <c r="BZ10" s="257"/>
-      <c r="CA10" s="258"/>
-      <c r="CB10" s="257"/>
-      <c r="CC10" s="257"/>
-      <c r="CD10" s="257"/>
-      <c r="CE10" s="259"/>
-      <c r="CF10" s="257"/>
-      <c r="CG10" s="257"/>
-      <c r="CH10" s="257"/>
-      <c r="CI10" s="257"/>
-      <c r="CJ10" s="257"/>
-      <c r="CK10" s="241"/>
-      <c r="CL10" s="234"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="250"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="252"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="251"/>
+      <c r="AF10" s="251"/>
+      <c r="AG10" s="253"/>
+      <c r="AH10" s="251"/>
+      <c r="AI10" s="251"/>
+      <c r="AJ10" s="251"/>
+      <c r="AK10" s="251"/>
+      <c r="AL10" s="251"/>
+      <c r="AM10" s="252"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="253"/>
+      <c r="AR10" s="251"/>
+      <c r="AS10" s="251"/>
+      <c r="AT10" s="251"/>
+      <c r="AU10" s="251"/>
+      <c r="AV10" s="251"/>
+      <c r="AW10" s="252"/>
+      <c r="AX10" s="251"/>
+      <c r="AY10" s="251"/>
+      <c r="AZ10" s="251"/>
+      <c r="BA10" s="253"/>
+      <c r="BB10" s="251"/>
+      <c r="BC10" s="251"/>
+      <c r="BD10" s="251"/>
+      <c r="BE10" s="251"/>
+      <c r="BF10" s="251"/>
+      <c r="BG10" s="252"/>
+      <c r="BH10" s="251"/>
+      <c r="BI10" s="251"/>
+      <c r="BJ10" s="251"/>
+      <c r="BK10" s="253"/>
+      <c r="BL10" s="251"/>
+      <c r="BM10" s="251"/>
+      <c r="BN10" s="251"/>
+      <c r="BO10" s="251"/>
+      <c r="BP10" s="251"/>
+      <c r="BQ10" s="252"/>
+      <c r="BR10" s="251"/>
+      <c r="BS10" s="251"/>
+      <c r="BT10" s="251"/>
+      <c r="BU10" s="253"/>
+      <c r="BV10" s="251"/>
+      <c r="BW10" s="251"/>
+      <c r="BX10" s="251"/>
+      <c r="BY10" s="251"/>
+      <c r="BZ10" s="251"/>
+      <c r="CA10" s="252"/>
+      <c r="CB10" s="251"/>
+      <c r="CC10" s="251"/>
+      <c r="CD10" s="251"/>
+      <c r="CE10" s="253"/>
+      <c r="CF10" s="251"/>
+      <c r="CG10" s="251"/>
+      <c r="CH10" s="251"/>
+      <c r="CI10" s="251"/>
+      <c r="CJ10" s="251"/>
+      <c r="CK10" s="236"/>
+      <c r="CL10" s="229"/>
       <c r="CN10" s="170"/>
-      <c r="CT10" s="226"/>
+      <c r="CT10" s="223"/>
     </row>
     <row r="11" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="257"/>
-      <c r="Y11" s="257"/>
-      <c r="Z11" s="257"/>
-      <c r="AA11" s="257"/>
-      <c r="AB11" s="257"/>
-      <c r="AC11" s="258"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="257"/>
-      <c r="AF11" s="257"/>
-      <c r="AG11" s="259"/>
-      <c r="AH11" s="257"/>
-      <c r="AI11" s="257"/>
-      <c r="AJ11" s="257"/>
-      <c r="AK11" s="257"/>
-      <c r="AL11" s="257"/>
-      <c r="AM11" s="258"/>
-      <c r="AN11" s="257"/>
-      <c r="AO11" s="257"/>
-      <c r="AP11" s="257"/>
-      <c r="AQ11" s="259"/>
-      <c r="AR11" s="257"/>
-      <c r="AS11" s="257"/>
-      <c r="AT11" s="257"/>
-      <c r="AU11" s="257"/>
-      <c r="AV11" s="257"/>
-      <c r="AW11" s="258"/>
-      <c r="AX11" s="257"/>
-      <c r="AY11" s="257"/>
-      <c r="AZ11" s="257"/>
-      <c r="BA11" s="259"/>
-      <c r="BB11" s="257"/>
-      <c r="BC11" s="257"/>
-      <c r="BD11" s="257"/>
-      <c r="BE11" s="257"/>
-      <c r="BF11" s="257"/>
-      <c r="BG11" s="258"/>
-      <c r="BH11" s="257"/>
-      <c r="BI11" s="257"/>
-      <c r="BJ11" s="257"/>
-      <c r="BK11" s="259"/>
-      <c r="BL11" s="257"/>
-      <c r="BM11" s="257"/>
-      <c r="BN11" s="257"/>
-      <c r="BO11" s="257"/>
-      <c r="BP11" s="257"/>
-      <c r="BQ11" s="258"/>
-      <c r="BR11" s="257"/>
-      <c r="BS11" s="257"/>
-      <c r="BT11" s="257"/>
-      <c r="BU11" s="259"/>
-      <c r="BV11" s="257"/>
-      <c r="BW11" s="257"/>
-      <c r="BX11" s="257"/>
-      <c r="BY11" s="257"/>
-      <c r="BZ11" s="257"/>
-      <c r="CA11" s="258"/>
-      <c r="CB11" s="257"/>
-      <c r="CC11" s="257"/>
-      <c r="CD11" s="257"/>
-      <c r="CE11" s="259"/>
-      <c r="CF11" s="257"/>
-      <c r="CG11" s="257"/>
-      <c r="CH11" s="257"/>
-      <c r="CI11" s="257"/>
-      <c r="CJ11" s="257"/>
-      <c r="CK11" s="241"/>
-      <c r="CL11" s="234"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="251"/>
+      <c r="Z11" s="251"/>
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="251"/>
+      <c r="AC11" s="252"/>
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="251"/>
+      <c r="AF11" s="251"/>
+      <c r="AG11" s="253"/>
+      <c r="AH11" s="251"/>
+      <c r="AI11" s="251"/>
+      <c r="AJ11" s="251"/>
+      <c r="AK11" s="251"/>
+      <c r="AL11" s="251"/>
+      <c r="AM11" s="252"/>
+      <c r="AN11" s="251"/>
+      <c r="AO11" s="251"/>
+      <c r="AP11" s="251"/>
+      <c r="AQ11" s="253"/>
+      <c r="AR11" s="251"/>
+      <c r="AS11" s="251"/>
+      <c r="AT11" s="251"/>
+      <c r="AU11" s="251"/>
+      <c r="AV11" s="251"/>
+      <c r="AW11" s="252"/>
+      <c r="AX11" s="251"/>
+      <c r="AY11" s="251"/>
+      <c r="AZ11" s="251"/>
+      <c r="BA11" s="253"/>
+      <c r="BB11" s="251"/>
+      <c r="BC11" s="251"/>
+      <c r="BD11" s="251"/>
+      <c r="BE11" s="251"/>
+      <c r="BF11" s="251"/>
+      <c r="BG11" s="252"/>
+      <c r="BH11" s="251"/>
+      <c r="BI11" s="251"/>
+      <c r="BJ11" s="251"/>
+      <c r="BK11" s="253"/>
+      <c r="BL11" s="251"/>
+      <c r="BM11" s="251"/>
+      <c r="BN11" s="251"/>
+      <c r="BO11" s="251"/>
+      <c r="BP11" s="251"/>
+      <c r="BQ11" s="252"/>
+      <c r="BR11" s="251"/>
+      <c r="BS11" s="251"/>
+      <c r="BT11" s="251"/>
+      <c r="BU11" s="253"/>
+      <c r="BV11" s="251"/>
+      <c r="BW11" s="251"/>
+      <c r="BX11" s="251"/>
+      <c r="BY11" s="251"/>
+      <c r="BZ11" s="251"/>
+      <c r="CA11" s="252"/>
+      <c r="CB11" s="251"/>
+      <c r="CC11" s="251"/>
+      <c r="CD11" s="251"/>
+      <c r="CE11" s="253"/>
+      <c r="CF11" s="251"/>
+      <c r="CG11" s="251"/>
+      <c r="CH11" s="251"/>
+      <c r="CI11" s="251"/>
+      <c r="CJ11" s="251"/>
+      <c r="CK11" s="236"/>
+      <c r="CL11" s="229"/>
       <c r="CN11" s="170"/>
-      <c r="CT11" s="226"/>
+      <c r="CT11" s="223"/>
     </row>
     <row r="12" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="258"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="257"/>
-      <c r="Z12" s="257"/>
-      <c r="AA12" s="257"/>
-      <c r="AB12" s="257"/>
-      <c r="AC12" s="258"/>
-      <c r="AD12" s="257"/>
-      <c r="AE12" s="257"/>
-      <c r="AF12" s="257"/>
-      <c r="AG12" s="259"/>
-      <c r="AH12" s="257"/>
-      <c r="AI12" s="257"/>
-      <c r="AJ12" s="257"/>
-      <c r="AK12" s="257"/>
-      <c r="AL12" s="257"/>
-      <c r="AM12" s="258"/>
-      <c r="AN12" s="257"/>
-      <c r="AO12" s="257"/>
-      <c r="AP12" s="257"/>
-      <c r="AQ12" s="259"/>
-      <c r="AR12" s="257"/>
-      <c r="AS12" s="257"/>
-      <c r="AT12" s="257"/>
-      <c r="AU12" s="257"/>
-      <c r="AV12" s="257"/>
-      <c r="AW12" s="258"/>
-      <c r="AX12" s="257"/>
-      <c r="AY12" s="257"/>
-      <c r="AZ12" s="257"/>
-      <c r="BA12" s="259"/>
-      <c r="BB12" s="257"/>
-      <c r="BC12" s="257"/>
-      <c r="BD12" s="257"/>
-      <c r="BE12" s="257"/>
-      <c r="BF12" s="257"/>
-      <c r="BG12" s="258"/>
-      <c r="BH12" s="257"/>
-      <c r="BI12" s="257"/>
-      <c r="BJ12" s="257"/>
-      <c r="BK12" s="259"/>
-      <c r="BL12" s="257"/>
-      <c r="BM12" s="257"/>
-      <c r="BN12" s="257"/>
-      <c r="BO12" s="257"/>
-      <c r="BP12" s="257"/>
-      <c r="BQ12" s="258"/>
-      <c r="BR12" s="257"/>
-      <c r="BS12" s="257"/>
-      <c r="BT12" s="257"/>
-      <c r="BU12" s="259"/>
-      <c r="BV12" s="257"/>
-      <c r="BW12" s="257"/>
-      <c r="BX12" s="257"/>
-      <c r="BY12" s="257"/>
-      <c r="BZ12" s="257"/>
-      <c r="CA12" s="258"/>
-      <c r="CB12" s="257"/>
-      <c r="CC12" s="257"/>
-      <c r="CD12" s="257"/>
-      <c r="CE12" s="259"/>
-      <c r="CF12" s="257"/>
-      <c r="CG12" s="257"/>
-      <c r="CH12" s="257"/>
-      <c r="CI12" s="257"/>
-      <c r="CJ12" s="257"/>
-      <c r="CK12" s="241"/>
-      <c r="CL12" s="234"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="251"/>
+      <c r="AC12" s="252"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="251"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="251"/>
+      <c r="AI12" s="251"/>
+      <c r="AJ12" s="251"/>
+      <c r="AK12" s="251"/>
+      <c r="AL12" s="251"/>
+      <c r="AM12" s="252"/>
+      <c r="AN12" s="251"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="251"/>
+      <c r="AQ12" s="253"/>
+      <c r="AR12" s="251"/>
+      <c r="AS12" s="251"/>
+      <c r="AT12" s="251"/>
+      <c r="AU12" s="251"/>
+      <c r="AV12" s="251"/>
+      <c r="AW12" s="252"/>
+      <c r="AX12" s="251"/>
+      <c r="AY12" s="251"/>
+      <c r="AZ12" s="251"/>
+      <c r="BA12" s="253"/>
+      <c r="BB12" s="251"/>
+      <c r="BC12" s="251"/>
+      <c r="BD12" s="251"/>
+      <c r="BE12" s="251"/>
+      <c r="BF12" s="251"/>
+      <c r="BG12" s="252"/>
+      <c r="BH12" s="251"/>
+      <c r="BI12" s="251"/>
+      <c r="BJ12" s="251"/>
+      <c r="BK12" s="253"/>
+      <c r="BL12" s="251"/>
+      <c r="BM12" s="251"/>
+      <c r="BN12" s="251"/>
+      <c r="BO12" s="251"/>
+      <c r="BP12" s="251"/>
+      <c r="BQ12" s="252"/>
+      <c r="BR12" s="251"/>
+      <c r="BS12" s="251"/>
+      <c r="BT12" s="251"/>
+      <c r="BU12" s="253"/>
+      <c r="BV12" s="251"/>
+      <c r="BW12" s="251"/>
+      <c r="BX12" s="251"/>
+      <c r="BY12" s="251"/>
+      <c r="BZ12" s="251"/>
+      <c r="CA12" s="252"/>
+      <c r="CB12" s="251"/>
+      <c r="CC12" s="251"/>
+      <c r="CD12" s="251"/>
+      <c r="CE12" s="253"/>
+      <c r="CF12" s="251"/>
+      <c r="CG12" s="251"/>
+      <c r="CH12" s="251"/>
+      <c r="CI12" s="251"/>
+      <c r="CJ12" s="251"/>
+      <c r="CK12" s="236"/>
+      <c r="CL12" s="229"/>
       <c r="CN12" s="170"/>
-      <c r="CT12" s="226"/>
+      <c r="CT12" s="223"/>
     </row>
     <row r="13" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="259"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="259"/>
-      <c r="X13" s="257"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="257"/>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="257"/>
-      <c r="AC13" s="258"/>
-      <c r="AD13" s="257"/>
-      <c r="AE13" s="257"/>
-      <c r="AF13" s="257"/>
-      <c r="AG13" s="259"/>
-      <c r="AH13" s="257"/>
-      <c r="AI13" s="257"/>
-      <c r="AJ13" s="257"/>
-      <c r="AK13" s="257"/>
-      <c r="AL13" s="257"/>
-      <c r="AM13" s="258"/>
-      <c r="AN13" s="257"/>
-      <c r="AO13" s="257"/>
-      <c r="AP13" s="257"/>
-      <c r="AQ13" s="259"/>
-      <c r="AR13" s="257"/>
-      <c r="AS13" s="257"/>
-      <c r="AT13" s="257"/>
-      <c r="AU13" s="257"/>
-      <c r="AV13" s="257"/>
-      <c r="AW13" s="258"/>
-      <c r="AX13" s="257"/>
-      <c r="AY13" s="257"/>
-      <c r="AZ13" s="257"/>
-      <c r="BA13" s="259"/>
-      <c r="BB13" s="257"/>
-      <c r="BC13" s="257"/>
-      <c r="BD13" s="257"/>
-      <c r="BE13" s="257"/>
-      <c r="BF13" s="257"/>
-      <c r="BG13" s="258"/>
-      <c r="BH13" s="257"/>
-      <c r="BI13" s="257"/>
-      <c r="BJ13" s="257"/>
-      <c r="BK13" s="259"/>
-      <c r="BL13" s="257"/>
-      <c r="BM13" s="257"/>
-      <c r="BN13" s="257"/>
-      <c r="BO13" s="257"/>
-      <c r="BP13" s="257"/>
-      <c r="BQ13" s="258"/>
-      <c r="BR13" s="257"/>
-      <c r="BS13" s="257"/>
-      <c r="BT13" s="257"/>
-      <c r="BU13" s="259"/>
-      <c r="BV13" s="257"/>
-      <c r="BW13" s="257"/>
-      <c r="BX13" s="257"/>
-      <c r="BY13" s="257"/>
-      <c r="BZ13" s="257"/>
-      <c r="CA13" s="258"/>
-      <c r="CB13" s="257"/>
-      <c r="CC13" s="257"/>
-      <c r="CD13" s="257"/>
-      <c r="CE13" s="259"/>
-      <c r="CF13" s="257"/>
-      <c r="CG13" s="257"/>
-      <c r="CH13" s="257"/>
-      <c r="CI13" s="257"/>
-      <c r="CJ13" s="257"/>
-      <c r="CK13" s="241"/>
-      <c r="CL13" s="234"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="251"/>
+      <c r="AC13" s="252"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="251"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="251"/>
+      <c r="AJ13" s="251"/>
+      <c r="AK13" s="251"/>
+      <c r="AL13" s="251"/>
+      <c r="AM13" s="252"/>
+      <c r="AN13" s="251"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="251"/>
+      <c r="AQ13" s="253"/>
+      <c r="AR13" s="251"/>
+      <c r="AS13" s="251"/>
+      <c r="AT13" s="251"/>
+      <c r="AU13" s="251"/>
+      <c r="AV13" s="251"/>
+      <c r="AW13" s="252"/>
+      <c r="AX13" s="251"/>
+      <c r="AY13" s="251"/>
+      <c r="AZ13" s="251"/>
+      <c r="BA13" s="253"/>
+      <c r="BB13" s="251"/>
+      <c r="BC13" s="251"/>
+      <c r="BD13" s="251"/>
+      <c r="BE13" s="251"/>
+      <c r="BF13" s="251"/>
+      <c r="BG13" s="252"/>
+      <c r="BH13" s="251"/>
+      <c r="BI13" s="251"/>
+      <c r="BJ13" s="251"/>
+      <c r="BK13" s="253"/>
+      <c r="BL13" s="251"/>
+      <c r="BM13" s="251"/>
+      <c r="BN13" s="251"/>
+      <c r="BO13" s="251"/>
+      <c r="BP13" s="251"/>
+      <c r="BQ13" s="252"/>
+      <c r="BR13" s="251"/>
+      <c r="BS13" s="251"/>
+      <c r="BT13" s="251"/>
+      <c r="BU13" s="253"/>
+      <c r="BV13" s="251"/>
+      <c r="BW13" s="251"/>
+      <c r="BX13" s="251"/>
+      <c r="BY13" s="251"/>
+      <c r="BZ13" s="251"/>
+      <c r="CA13" s="252"/>
+      <c r="CB13" s="251"/>
+      <c r="CC13" s="251"/>
+      <c r="CD13" s="251"/>
+      <c r="CE13" s="253"/>
+      <c r="CF13" s="251"/>
+      <c r="CG13" s="251"/>
+      <c r="CH13" s="251"/>
+      <c r="CI13" s="251"/>
+      <c r="CJ13" s="251"/>
+      <c r="CK13" s="236"/>
+      <c r="CL13" s="229"/>
       <c r="CN13" s="170"/>
-      <c r="CT13" s="226"/>
+      <c r="CT13" s="223"/>
     </row>
     <row r="14" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="257"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="257"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="259"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="257"/>
-      <c r="AC14" s="258"/>
-      <c r="AD14" s="257"/>
-      <c r="AE14" s="257"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="259"/>
-      <c r="AH14" s="257"/>
-      <c r="AI14" s="257"/>
-      <c r="AJ14" s="257"/>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="258"/>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="257"/>
-      <c r="AP14" s="257"/>
-      <c r="AQ14" s="259"/>
-      <c r="AR14" s="257"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="257"/>
-      <c r="AU14" s="257"/>
-      <c r="AV14" s="257"/>
-      <c r="AW14" s="258"/>
-      <c r="AX14" s="257"/>
-      <c r="AY14" s="257"/>
-      <c r="AZ14" s="257"/>
-      <c r="BA14" s="259"/>
-      <c r="BB14" s="257"/>
-      <c r="BC14" s="257"/>
-      <c r="BD14" s="257"/>
-      <c r="BE14" s="257"/>
-      <c r="BF14" s="257"/>
-      <c r="BG14" s="258"/>
-      <c r="BH14" s="257"/>
-      <c r="BI14" s="257"/>
-      <c r="BJ14" s="257"/>
-      <c r="BK14" s="259"/>
-      <c r="BL14" s="257"/>
-      <c r="BM14" s="257"/>
-      <c r="BN14" s="257"/>
-      <c r="BO14" s="257"/>
-      <c r="BP14" s="257"/>
-      <c r="BQ14" s="258"/>
-      <c r="BR14" s="257"/>
-      <c r="BS14" s="257"/>
-      <c r="BT14" s="257"/>
-      <c r="BU14" s="259"/>
-      <c r="BV14" s="257"/>
-      <c r="BW14" s="257"/>
-      <c r="BX14" s="257"/>
-      <c r="BY14" s="257"/>
-      <c r="BZ14" s="257"/>
-      <c r="CA14" s="258"/>
-      <c r="CB14" s="257"/>
-      <c r="CC14" s="257"/>
-      <c r="CD14" s="257"/>
-      <c r="CE14" s="259"/>
-      <c r="CF14" s="257"/>
-      <c r="CG14" s="257"/>
-      <c r="CH14" s="257"/>
-      <c r="CI14" s="257"/>
-      <c r="CJ14" s="257"/>
-      <c r="CK14" s="241"/>
-      <c r="CL14" s="234"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="251"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="251"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="251"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="251"/>
+      <c r="Z14" s="251"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="251"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="251"/>
+      <c r="AE14" s="251"/>
+      <c r="AF14" s="251"/>
+      <c r="AG14" s="253"/>
+      <c r="AH14" s="251"/>
+      <c r="AI14" s="251"/>
+      <c r="AJ14" s="251"/>
+      <c r="AK14" s="251"/>
+      <c r="AL14" s="251"/>
+      <c r="AM14" s="252"/>
+      <c r="AN14" s="251"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="251"/>
+      <c r="AQ14" s="253"/>
+      <c r="AR14" s="251"/>
+      <c r="AS14" s="251"/>
+      <c r="AT14" s="251"/>
+      <c r="AU14" s="251"/>
+      <c r="AV14" s="251"/>
+      <c r="AW14" s="252"/>
+      <c r="AX14" s="251"/>
+      <c r="AY14" s="251"/>
+      <c r="AZ14" s="251"/>
+      <c r="BA14" s="253"/>
+      <c r="BB14" s="251"/>
+      <c r="BC14" s="251"/>
+      <c r="BD14" s="251"/>
+      <c r="BE14" s="251"/>
+      <c r="BF14" s="251"/>
+      <c r="BG14" s="252"/>
+      <c r="BH14" s="251"/>
+      <c r="BI14" s="251"/>
+      <c r="BJ14" s="251"/>
+      <c r="BK14" s="253"/>
+      <c r="BL14" s="251"/>
+      <c r="BM14" s="251"/>
+      <c r="BN14" s="251"/>
+      <c r="BO14" s="251"/>
+      <c r="BP14" s="251"/>
+      <c r="BQ14" s="252"/>
+      <c r="BR14" s="251"/>
+      <c r="BS14" s="251"/>
+      <c r="BT14" s="251"/>
+      <c r="BU14" s="253"/>
+      <c r="BV14" s="251"/>
+      <c r="BW14" s="251"/>
+      <c r="BX14" s="251"/>
+      <c r="BY14" s="251"/>
+      <c r="BZ14" s="251"/>
+      <c r="CA14" s="252"/>
+      <c r="CB14" s="251"/>
+      <c r="CC14" s="251"/>
+      <c r="CD14" s="251"/>
+      <c r="CE14" s="253"/>
+      <c r="CF14" s="251"/>
+      <c r="CG14" s="251"/>
+      <c r="CH14" s="251"/>
+      <c r="CI14" s="251"/>
+      <c r="CJ14" s="251"/>
+      <c r="CK14" s="236"/>
+      <c r="CL14" s="229"/>
       <c r="CN14" s="170"/>
-      <c r="CT14" s="226"/>
+      <c r="CT14" s="223"/>
     </row>
     <row r="15" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="259"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="257"/>
-      <c r="Q15" s="257"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="257"/>
-      <c r="U15" s="257"/>
-      <c r="V15" s="257"/>
-      <c r="W15" s="259"/>
-      <c r="X15" s="257"/>
-      <c r="Y15" s="257"/>
-      <c r="Z15" s="257"/>
-      <c r="AA15" s="257"/>
-      <c r="AB15" s="257"/>
-      <c r="AC15" s="258"/>
-      <c r="AD15" s="257"/>
-      <c r="AE15" s="257"/>
-      <c r="AF15" s="257"/>
-      <c r="AG15" s="259"/>
-      <c r="AH15" s="257"/>
-      <c r="AI15" s="257"/>
-      <c r="AJ15" s="257"/>
-      <c r="AK15" s="257"/>
-      <c r="AL15" s="257"/>
-      <c r="AM15" s="258"/>
-      <c r="AN15" s="257"/>
-      <c r="AO15" s="257"/>
-      <c r="AP15" s="257"/>
-      <c r="AQ15" s="259"/>
-      <c r="AR15" s="257"/>
-      <c r="AS15" s="257"/>
-      <c r="AT15" s="257"/>
-      <c r="AU15" s="257"/>
-      <c r="AV15" s="257"/>
-      <c r="AW15" s="258"/>
-      <c r="AX15" s="257"/>
-      <c r="AY15" s="257"/>
-      <c r="AZ15" s="257"/>
-      <c r="BA15" s="259"/>
-      <c r="BB15" s="257"/>
-      <c r="BC15" s="257"/>
-      <c r="BD15" s="257"/>
-      <c r="BE15" s="257"/>
-      <c r="BF15" s="257"/>
-      <c r="BG15" s="258"/>
-      <c r="BH15" s="257"/>
-      <c r="BI15" s="257"/>
-      <c r="BJ15" s="257"/>
-      <c r="BK15" s="259"/>
-      <c r="BL15" s="257"/>
-      <c r="BM15" s="257"/>
-      <c r="BN15" s="257"/>
-      <c r="BO15" s="257"/>
-      <c r="BP15" s="257"/>
-      <c r="BQ15" s="258"/>
-      <c r="BR15" s="257"/>
-      <c r="BS15" s="257"/>
-      <c r="BT15" s="257"/>
-      <c r="BU15" s="259"/>
-      <c r="BV15" s="257"/>
-      <c r="BW15" s="257"/>
-      <c r="BX15" s="257"/>
-      <c r="BY15" s="257"/>
-      <c r="BZ15" s="257"/>
-      <c r="CA15" s="258"/>
-      <c r="CB15" s="257"/>
-      <c r="CC15" s="257"/>
-      <c r="CD15" s="257"/>
-      <c r="CE15" s="259"/>
-      <c r="CF15" s="257"/>
-      <c r="CG15" s="257"/>
-      <c r="CH15" s="257"/>
-      <c r="CI15" s="257"/>
-      <c r="CJ15" s="257"/>
-      <c r="CK15" s="241"/>
-      <c r="CL15" s="234"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="251"/>
+      <c r="Q15" s="251"/>
+      <c r="R15" s="251"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="251"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="251"/>
+      <c r="Z15" s="251"/>
+      <c r="AA15" s="251"/>
+      <c r="AB15" s="251"/>
+      <c r="AC15" s="252"/>
+      <c r="AD15" s="251"/>
+      <c r="AE15" s="251"/>
+      <c r="AF15" s="251"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="251"/>
+      <c r="AI15" s="251"/>
+      <c r="AJ15" s="251"/>
+      <c r="AK15" s="251"/>
+      <c r="AL15" s="251"/>
+      <c r="AM15" s="252"/>
+      <c r="AN15" s="251"/>
+      <c r="AO15" s="251"/>
+      <c r="AP15" s="251"/>
+      <c r="AQ15" s="253"/>
+      <c r="AR15" s="251"/>
+      <c r="AS15" s="251"/>
+      <c r="AT15" s="251"/>
+      <c r="AU15" s="251"/>
+      <c r="AV15" s="251"/>
+      <c r="AW15" s="252"/>
+      <c r="AX15" s="251"/>
+      <c r="AY15" s="251"/>
+      <c r="AZ15" s="251"/>
+      <c r="BA15" s="253"/>
+      <c r="BB15" s="251"/>
+      <c r="BC15" s="251"/>
+      <c r="BD15" s="251"/>
+      <c r="BE15" s="251"/>
+      <c r="BF15" s="251"/>
+      <c r="BG15" s="252"/>
+      <c r="BH15" s="251"/>
+      <c r="BI15" s="251"/>
+      <c r="BJ15" s="251"/>
+      <c r="BK15" s="253"/>
+      <c r="BL15" s="251"/>
+      <c r="BM15" s="251"/>
+      <c r="BN15" s="251"/>
+      <c r="BO15" s="251"/>
+      <c r="BP15" s="251"/>
+      <c r="BQ15" s="252"/>
+      <c r="BR15" s="251"/>
+      <c r="BS15" s="251"/>
+      <c r="BT15" s="251"/>
+      <c r="BU15" s="253"/>
+      <c r="BV15" s="251"/>
+      <c r="BW15" s="251"/>
+      <c r="BX15" s="251"/>
+      <c r="BY15" s="251"/>
+      <c r="BZ15" s="251"/>
+      <c r="CA15" s="252"/>
+      <c r="CB15" s="251"/>
+      <c r="CC15" s="251"/>
+      <c r="CD15" s="251"/>
+      <c r="CE15" s="253"/>
+      <c r="CF15" s="251"/>
+      <c r="CG15" s="251"/>
+      <c r="CH15" s="251"/>
+      <c r="CI15" s="251"/>
+      <c r="CJ15" s="251"/>
+      <c r="CK15" s="236"/>
+      <c r="CL15" s="229"/>
       <c r="CN15" s="170"/>
-      <c r="CT15" s="226"/>
+      <c r="CT15" s="223"/>
     </row>
     <row r="16" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="257"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="257"/>
-      <c r="Y16" s="257"/>
-      <c r="Z16" s="257"/>
-      <c r="AA16" s="257"/>
-      <c r="AB16" s="257"/>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="257"/>
-      <c r="AE16" s="257"/>
-      <c r="AF16" s="257"/>
-      <c r="AG16" s="259"/>
-      <c r="AH16" s="257"/>
-      <c r="AI16" s="257"/>
-      <c r="AJ16" s="257"/>
-      <c r="AK16" s="257"/>
-      <c r="AL16" s="257"/>
-      <c r="AM16" s="258"/>
-      <c r="AN16" s="257"/>
-      <c r="AO16" s="257"/>
-      <c r="AP16" s="257"/>
-      <c r="AQ16" s="259"/>
-      <c r="AR16" s="257"/>
-      <c r="AS16" s="257"/>
-      <c r="AT16" s="257"/>
-      <c r="AU16" s="257"/>
-      <c r="AV16" s="257"/>
-      <c r="AW16" s="258"/>
-      <c r="AX16" s="257"/>
-      <c r="AY16" s="257"/>
-      <c r="AZ16" s="257"/>
-      <c r="BA16" s="259"/>
-      <c r="BB16" s="257"/>
-      <c r="BC16" s="257"/>
-      <c r="BD16" s="257"/>
-      <c r="BE16" s="257"/>
-      <c r="BF16" s="257"/>
-      <c r="BG16" s="258"/>
-      <c r="BH16" s="257"/>
-      <c r="BI16" s="257"/>
-      <c r="BJ16" s="257"/>
-      <c r="BK16" s="259"/>
-      <c r="BL16" s="257"/>
-      <c r="BM16" s="257"/>
-      <c r="BN16" s="257"/>
-      <c r="BO16" s="257"/>
-      <c r="BP16" s="257"/>
-      <c r="BQ16" s="258"/>
-      <c r="BR16" s="257"/>
-      <c r="BS16" s="257"/>
-      <c r="BT16" s="257"/>
-      <c r="BU16" s="259"/>
-      <c r="BV16" s="257"/>
-      <c r="BW16" s="257"/>
-      <c r="BX16" s="257"/>
-      <c r="BY16" s="257"/>
-      <c r="BZ16" s="257"/>
-      <c r="CA16" s="258"/>
-      <c r="CB16" s="257"/>
-      <c r="CC16" s="257"/>
-      <c r="CD16" s="257"/>
-      <c r="CE16" s="259"/>
-      <c r="CF16" s="257"/>
-      <c r="CG16" s="257"/>
-      <c r="CH16" s="257"/>
-      <c r="CI16" s="257"/>
-      <c r="CJ16" s="257"/>
-      <c r="CK16" s="241"/>
-      <c r="CL16" s="234"/>
+      <c r="B16" s="262"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="253"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="251"/>
+      <c r="Q16" s="251"/>
+      <c r="R16" s="251"/>
+      <c r="S16" s="252"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
+      <c r="AA16" s="251"/>
+      <c r="AB16" s="251"/>
+      <c r="AC16" s="252"/>
+      <c r="AD16" s="251"/>
+      <c r="AE16" s="251"/>
+      <c r="AF16" s="251"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="251"/>
+      <c r="AI16" s="251"/>
+      <c r="AJ16" s="251"/>
+      <c r="AK16" s="251"/>
+      <c r="AL16" s="251"/>
+      <c r="AM16" s="252"/>
+      <c r="AN16" s="251"/>
+      <c r="AO16" s="251"/>
+      <c r="AP16" s="251"/>
+      <c r="AQ16" s="253"/>
+      <c r="AR16" s="251"/>
+      <c r="AS16" s="251"/>
+      <c r="AT16" s="251"/>
+      <c r="AU16" s="251"/>
+      <c r="AV16" s="251"/>
+      <c r="AW16" s="252"/>
+      <c r="AX16" s="251"/>
+      <c r="AY16" s="251"/>
+      <c r="AZ16" s="251"/>
+      <c r="BA16" s="253"/>
+      <c r="BB16" s="251"/>
+      <c r="BC16" s="251"/>
+      <c r="BD16" s="251"/>
+      <c r="BE16" s="251"/>
+      <c r="BF16" s="251"/>
+      <c r="BG16" s="252"/>
+      <c r="BH16" s="251"/>
+      <c r="BI16" s="251"/>
+      <c r="BJ16" s="251"/>
+      <c r="BK16" s="253"/>
+      <c r="BL16" s="251"/>
+      <c r="BM16" s="251"/>
+      <c r="BN16" s="251"/>
+      <c r="BO16" s="251"/>
+      <c r="BP16" s="251"/>
+      <c r="BQ16" s="252"/>
+      <c r="BR16" s="251"/>
+      <c r="BS16" s="251"/>
+      <c r="BT16" s="251"/>
+      <c r="BU16" s="253"/>
+      <c r="BV16" s="251"/>
+      <c r="BW16" s="251"/>
+      <c r="BX16" s="251"/>
+      <c r="BY16" s="251"/>
+      <c r="BZ16" s="251"/>
+      <c r="CA16" s="252"/>
+      <c r="CB16" s="251"/>
+      <c r="CC16" s="251"/>
+      <c r="CD16" s="251"/>
+      <c r="CE16" s="253"/>
+      <c r="CF16" s="251"/>
+      <c r="CG16" s="251"/>
+      <c r="CH16" s="251"/>
+      <c r="CI16" s="251"/>
+      <c r="CJ16" s="251"/>
+      <c r="CK16" s="236"/>
+      <c r="CL16" s="229"/>
       <c r="CN16" s="170"/>
-      <c r="CT16" s="226"/>
+      <c r="CT16" s="223"/>
     </row>
     <row r="17" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="257"/>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="259"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="258"/>
-      <c r="T17" s="257"/>
-      <c r="U17" s="257"/>
-      <c r="V17" s="257"/>
-      <c r="W17" s="259"/>
-      <c r="X17" s="257"/>
-      <c r="Y17" s="257"/>
-      <c r="Z17" s="257"/>
-      <c r="AA17" s="257"/>
-      <c r="AB17" s="257"/>
-      <c r="AC17" s="258"/>
-      <c r="AD17" s="257"/>
-      <c r="AE17" s="257"/>
-      <c r="AF17" s="257"/>
-      <c r="AG17" s="259"/>
-      <c r="AH17" s="257"/>
-      <c r="AI17" s="257"/>
-      <c r="AJ17" s="257"/>
-      <c r="AK17" s="257"/>
-      <c r="AL17" s="257"/>
-      <c r="AM17" s="258"/>
-      <c r="AN17" s="257"/>
-      <c r="AO17" s="257"/>
-      <c r="AP17" s="257"/>
-      <c r="AQ17" s="259"/>
-      <c r="AR17" s="257"/>
-      <c r="AS17" s="257"/>
-      <c r="AT17" s="257"/>
-      <c r="AU17" s="257"/>
-      <c r="AV17" s="257"/>
-      <c r="AW17" s="258"/>
-      <c r="AX17" s="257"/>
-      <c r="AY17" s="257"/>
-      <c r="AZ17" s="257"/>
-      <c r="BA17" s="259"/>
-      <c r="BB17" s="257"/>
-      <c r="BC17" s="257"/>
-      <c r="BD17" s="257"/>
-      <c r="BE17" s="257"/>
-      <c r="BF17" s="257"/>
-      <c r="BG17" s="258"/>
-      <c r="BH17" s="257"/>
-      <c r="BI17" s="257"/>
-      <c r="BJ17" s="257"/>
-      <c r="BK17" s="259"/>
-      <c r="BL17" s="257"/>
-      <c r="BM17" s="257"/>
-      <c r="BN17" s="257"/>
-      <c r="BO17" s="257"/>
-      <c r="BP17" s="257"/>
-      <c r="BQ17" s="258"/>
-      <c r="BR17" s="257"/>
-      <c r="BS17" s="257"/>
-      <c r="BT17" s="257"/>
-      <c r="BU17" s="259"/>
-      <c r="BV17" s="257"/>
-      <c r="BW17" s="257"/>
-      <c r="BX17" s="257"/>
-      <c r="BY17" s="257"/>
-      <c r="BZ17" s="257"/>
-      <c r="CA17" s="258"/>
-      <c r="CB17" s="257"/>
-      <c r="CC17" s="257"/>
-      <c r="CD17" s="257"/>
-      <c r="CE17" s="259"/>
-      <c r="CF17" s="257"/>
-      <c r="CG17" s="257"/>
-      <c r="CH17" s="257"/>
-      <c r="CI17" s="257"/>
-      <c r="CJ17" s="257"/>
-      <c r="CK17" s="241"/>
-      <c r="CL17" s="234"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
+      <c r="Q17" s="251"/>
+      <c r="R17" s="251"/>
+      <c r="S17" s="252"/>
+      <c r="T17" s="251"/>
+      <c r="U17" s="251"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="251"/>
+      <c r="Z17" s="251"/>
+      <c r="AA17" s="251"/>
+      <c r="AB17" s="251"/>
+      <c r="AC17" s="252"/>
+      <c r="AD17" s="251"/>
+      <c r="AE17" s="251"/>
+      <c r="AF17" s="251"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="251"/>
+      <c r="AI17" s="251"/>
+      <c r="AJ17" s="251"/>
+      <c r="AK17" s="251"/>
+      <c r="AL17" s="251"/>
+      <c r="AM17" s="252"/>
+      <c r="AN17" s="251"/>
+      <c r="AO17" s="251"/>
+      <c r="AP17" s="251"/>
+      <c r="AQ17" s="253"/>
+      <c r="AR17" s="251"/>
+      <c r="AS17" s="251"/>
+      <c r="AT17" s="251"/>
+      <c r="AU17" s="251"/>
+      <c r="AV17" s="251"/>
+      <c r="AW17" s="252"/>
+      <c r="AX17" s="251"/>
+      <c r="AY17" s="251"/>
+      <c r="AZ17" s="251"/>
+      <c r="BA17" s="253"/>
+      <c r="BB17" s="251"/>
+      <c r="BC17" s="251"/>
+      <c r="BD17" s="251"/>
+      <c r="BE17" s="251"/>
+      <c r="BF17" s="251"/>
+      <c r="BG17" s="252"/>
+      <c r="BH17" s="251"/>
+      <c r="BI17" s="251"/>
+      <c r="BJ17" s="251"/>
+      <c r="BK17" s="253"/>
+      <c r="BL17" s="251"/>
+      <c r="BM17" s="251"/>
+      <c r="BN17" s="251"/>
+      <c r="BO17" s="251"/>
+      <c r="BP17" s="251"/>
+      <c r="BQ17" s="252"/>
+      <c r="BR17" s="251"/>
+      <c r="BS17" s="251"/>
+      <c r="BT17" s="251"/>
+      <c r="BU17" s="253"/>
+      <c r="BV17" s="251"/>
+      <c r="BW17" s="251"/>
+      <c r="BX17" s="251"/>
+      <c r="BY17" s="251"/>
+      <c r="BZ17" s="251"/>
+      <c r="CA17" s="252"/>
+      <c r="CB17" s="251"/>
+      <c r="CC17" s="251"/>
+      <c r="CD17" s="251"/>
+      <c r="CE17" s="253"/>
+      <c r="CF17" s="251"/>
+      <c r="CG17" s="251"/>
+      <c r="CH17" s="251"/>
+      <c r="CI17" s="251"/>
+      <c r="CJ17" s="251"/>
+      <c r="CK17" s="236"/>
+      <c r="CL17" s="229"/>
       <c r="CN17" s="170"/>
-      <c r="CT17" s="226"/>
+      <c r="CT17" s="223"/>
     </row>
     <row r="18" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="259"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="257"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="257"/>
-      <c r="U18" s="257"/>
-      <c r="V18" s="257"/>
-      <c r="W18" s="259"/>
-      <c r="X18" s="257"/>
-      <c r="Y18" s="257"/>
-      <c r="Z18" s="257"/>
-      <c r="AA18" s="257"/>
-      <c r="AB18" s="257"/>
-      <c r="AC18" s="258"/>
-      <c r="AD18" s="257"/>
-      <c r="AE18" s="257"/>
-      <c r="AF18" s="257"/>
-      <c r="AG18" s="259"/>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="257"/>
-      <c r="AJ18" s="257"/>
-      <c r="AK18" s="257"/>
-      <c r="AL18" s="257"/>
-      <c r="AM18" s="258"/>
-      <c r="AN18" s="257"/>
-      <c r="AO18" s="257"/>
-      <c r="AP18" s="257"/>
-      <c r="AQ18" s="259"/>
-      <c r="AR18" s="257"/>
-      <c r="AS18" s="257"/>
-      <c r="AT18" s="257"/>
-      <c r="AU18" s="257"/>
-      <c r="AV18" s="257"/>
-      <c r="AW18" s="258"/>
-      <c r="AX18" s="257"/>
-      <c r="AY18" s="257"/>
-      <c r="AZ18" s="257"/>
-      <c r="BA18" s="259"/>
-      <c r="BB18" s="257"/>
-      <c r="BC18" s="257"/>
-      <c r="BD18" s="257"/>
-      <c r="BE18" s="257"/>
-      <c r="BF18" s="257"/>
-      <c r="BG18" s="258"/>
-      <c r="BH18" s="257"/>
-      <c r="BI18" s="257"/>
-      <c r="BJ18" s="257"/>
-      <c r="BK18" s="259"/>
-      <c r="BL18" s="257"/>
-      <c r="BM18" s="257"/>
-      <c r="BN18" s="257"/>
-      <c r="BO18" s="257"/>
-      <c r="BP18" s="257"/>
-      <c r="BQ18" s="258"/>
-      <c r="BR18" s="257"/>
-      <c r="BS18" s="257"/>
-      <c r="BT18" s="257"/>
-      <c r="BU18" s="259"/>
-      <c r="BV18" s="257"/>
-      <c r="BW18" s="257"/>
-      <c r="BX18" s="257"/>
-      <c r="BY18" s="257"/>
-      <c r="BZ18" s="257"/>
-      <c r="CA18" s="258"/>
-      <c r="CB18" s="257"/>
-      <c r="CC18" s="257"/>
-      <c r="CD18" s="257"/>
-      <c r="CE18" s="259"/>
-      <c r="CF18" s="257"/>
-      <c r="CG18" s="257"/>
-      <c r="CH18" s="257"/>
-      <c r="CI18" s="257"/>
-      <c r="CJ18" s="257"/>
-      <c r="CK18" s="241"/>
-      <c r="CL18" s="235"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="251"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
+      <c r="AA18" s="251"/>
+      <c r="AB18" s="251"/>
+      <c r="AC18" s="252"/>
+      <c r="AD18" s="251"/>
+      <c r="AE18" s="251"/>
+      <c r="AF18" s="251"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="251"/>
+      <c r="AI18" s="251"/>
+      <c r="AJ18" s="251"/>
+      <c r="AK18" s="251"/>
+      <c r="AL18" s="251"/>
+      <c r="AM18" s="252"/>
+      <c r="AN18" s="251"/>
+      <c r="AO18" s="251"/>
+      <c r="AP18" s="251"/>
+      <c r="AQ18" s="253"/>
+      <c r="AR18" s="251"/>
+      <c r="AS18" s="251"/>
+      <c r="AT18" s="251"/>
+      <c r="AU18" s="251"/>
+      <c r="AV18" s="251"/>
+      <c r="AW18" s="252"/>
+      <c r="AX18" s="251"/>
+      <c r="AY18" s="251"/>
+      <c r="AZ18" s="251"/>
+      <c r="BA18" s="253"/>
+      <c r="BB18" s="251"/>
+      <c r="BC18" s="251"/>
+      <c r="BD18" s="251"/>
+      <c r="BE18" s="251"/>
+      <c r="BF18" s="251"/>
+      <c r="BG18" s="252"/>
+      <c r="BH18" s="251"/>
+      <c r="BI18" s="251"/>
+      <c r="BJ18" s="251"/>
+      <c r="BK18" s="253"/>
+      <c r="BL18" s="251"/>
+      <c r="BM18" s="251"/>
+      <c r="BN18" s="251"/>
+      <c r="BO18" s="251"/>
+      <c r="BP18" s="251"/>
+      <c r="BQ18" s="252"/>
+      <c r="BR18" s="251"/>
+      <c r="BS18" s="251"/>
+      <c r="BT18" s="251"/>
+      <c r="BU18" s="253"/>
+      <c r="BV18" s="251"/>
+      <c r="BW18" s="251"/>
+      <c r="BX18" s="251"/>
+      <c r="BY18" s="251"/>
+      <c r="BZ18" s="251"/>
+      <c r="CA18" s="252"/>
+      <c r="CB18" s="251"/>
+      <c r="CC18" s="251"/>
+      <c r="CD18" s="251"/>
+      <c r="CE18" s="253"/>
+      <c r="CF18" s="251"/>
+      <c r="CG18" s="251"/>
+      <c r="CH18" s="251"/>
+      <c r="CI18" s="251"/>
+      <c r="CJ18" s="251"/>
+      <c r="CK18" s="236"/>
+      <c r="CL18" s="230"/>
       <c r="CN18" s="170"/>
     </row>
     <row r="19" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="227"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="257"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="258"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="259"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="257"/>
-      <c r="Q19" s="257"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="257"/>
-      <c r="U19" s="257"/>
-      <c r="V19" s="257"/>
-      <c r="W19" s="259"/>
-      <c r="X19" s="257"/>
-      <c r="Y19" s="257"/>
-      <c r="Z19" s="257"/>
-      <c r="AA19" s="257"/>
-      <c r="AB19" s="257"/>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="257"/>
-      <c r="AE19" s="257"/>
-      <c r="AF19" s="257"/>
-      <c r="AG19" s="259"/>
-      <c r="AH19" s="257"/>
-      <c r="AI19" s="257"/>
-      <c r="AJ19" s="257"/>
-      <c r="AK19" s="257"/>
-      <c r="AL19" s="257"/>
-      <c r="AM19" s="258"/>
-      <c r="AN19" s="257"/>
-      <c r="AO19" s="257"/>
-      <c r="AP19" s="257"/>
-      <c r="AQ19" s="259"/>
-      <c r="AR19" s="257"/>
-      <c r="AS19" s="257"/>
-      <c r="AT19" s="257"/>
-      <c r="AU19" s="257"/>
-      <c r="AV19" s="257"/>
-      <c r="AW19" s="258"/>
-      <c r="AX19" s="257"/>
-      <c r="AY19" s="257"/>
-      <c r="AZ19" s="257"/>
-      <c r="BA19" s="259"/>
-      <c r="BB19" s="257"/>
-      <c r="BC19" s="257"/>
-      <c r="BD19" s="257"/>
-      <c r="BE19" s="257"/>
-      <c r="BF19" s="257"/>
-      <c r="BG19" s="258"/>
-      <c r="BH19" s="257"/>
-      <c r="BI19" s="257"/>
-      <c r="BJ19" s="257"/>
-      <c r="BK19" s="259"/>
-      <c r="BL19" s="257"/>
-      <c r="BM19" s="257"/>
-      <c r="BN19" s="257"/>
-      <c r="BO19" s="257"/>
-      <c r="BP19" s="257"/>
-      <c r="BQ19" s="258"/>
-      <c r="BR19" s="257"/>
-      <c r="BS19" s="257"/>
-      <c r="BT19" s="257"/>
-      <c r="BU19" s="259"/>
-      <c r="BV19" s="257"/>
-      <c r="BW19" s="257"/>
-      <c r="BX19" s="257"/>
-      <c r="BY19" s="257"/>
-      <c r="BZ19" s="257"/>
-      <c r="CA19" s="258"/>
-      <c r="CB19" s="257"/>
-      <c r="CC19" s="257"/>
-      <c r="CD19" s="257"/>
-      <c r="CE19" s="259"/>
-      <c r="CF19" s="257"/>
-      <c r="CG19" s="257"/>
-      <c r="CH19" s="257"/>
-      <c r="CI19" s="257"/>
-      <c r="CJ19" s="257"/>
-      <c r="CK19" s="241"/>
-      <c r="CL19" s="235"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="251"/>
+      <c r="AC19" s="252"/>
+      <c r="AD19" s="251"/>
+      <c r="AE19" s="251"/>
+      <c r="AF19" s="251"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="251"/>
+      <c r="AI19" s="251"/>
+      <c r="AJ19" s="251"/>
+      <c r="AK19" s="251"/>
+      <c r="AL19" s="251"/>
+      <c r="AM19" s="252"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="251"/>
+      <c r="AQ19" s="253"/>
+      <c r="AR19" s="251"/>
+      <c r="AS19" s="251"/>
+      <c r="AT19" s="251"/>
+      <c r="AU19" s="251"/>
+      <c r="AV19" s="251"/>
+      <c r="AW19" s="252"/>
+      <c r="AX19" s="251"/>
+      <c r="AY19" s="251"/>
+      <c r="AZ19" s="251"/>
+      <c r="BA19" s="253"/>
+      <c r="BB19" s="251"/>
+      <c r="BC19" s="251"/>
+      <c r="BD19" s="251"/>
+      <c r="BE19" s="251"/>
+      <c r="BF19" s="251"/>
+      <c r="BG19" s="252"/>
+      <c r="BH19" s="251"/>
+      <c r="BI19" s="251"/>
+      <c r="BJ19" s="251"/>
+      <c r="BK19" s="253"/>
+      <c r="BL19" s="251"/>
+      <c r="BM19" s="251"/>
+      <c r="BN19" s="251"/>
+      <c r="BO19" s="251"/>
+      <c r="BP19" s="251"/>
+      <c r="BQ19" s="252"/>
+      <c r="BR19" s="251"/>
+      <c r="BS19" s="251"/>
+      <c r="BT19" s="251"/>
+      <c r="BU19" s="253"/>
+      <c r="BV19" s="251"/>
+      <c r="BW19" s="251"/>
+      <c r="BX19" s="251"/>
+      <c r="BY19" s="251"/>
+      <c r="BZ19" s="251"/>
+      <c r="CA19" s="252"/>
+      <c r="CB19" s="251"/>
+      <c r="CC19" s="251"/>
+      <c r="CD19" s="251"/>
+      <c r="CE19" s="253"/>
+      <c r="CF19" s="251"/>
+      <c r="CG19" s="251"/>
+      <c r="CH19" s="251"/>
+      <c r="CI19" s="251"/>
+      <c r="CJ19" s="251"/>
+      <c r="CK19" s="236"/>
+      <c r="CL19" s="230"/>
       <c r="CN19" s="170"/>
     </row>
     <row r="20" spans="2:98" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="227"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="258"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="257"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="259"/>
-      <c r="N20" s="257"/>
-      <c r="O20" s="257"/>
-      <c r="P20" s="257"/>
-      <c r="Q20" s="257"/>
-      <c r="R20" s="257"/>
-      <c r="S20" s="258"/>
-      <c r="T20" s="257"/>
-      <c r="U20" s="257"/>
-      <c r="V20" s="257"/>
-      <c r="W20" s="259"/>
-      <c r="X20" s="257"/>
-      <c r="Y20" s="257"/>
-      <c r="Z20" s="257"/>
-      <c r="AA20" s="257"/>
-      <c r="AB20" s="257"/>
-      <c r="AC20" s="258"/>
-      <c r="AD20" s="257"/>
-      <c r="AE20" s="257"/>
-      <c r="AF20" s="257"/>
-      <c r="AG20" s="259"/>
-      <c r="AH20" s="257"/>
-      <c r="AI20" s="257"/>
-      <c r="AJ20" s="257"/>
-      <c r="AK20" s="257"/>
-      <c r="AL20" s="257"/>
-      <c r="AM20" s="258"/>
-      <c r="AN20" s="257"/>
-      <c r="AO20" s="257"/>
-      <c r="AP20" s="257"/>
-      <c r="AQ20" s="259"/>
-      <c r="AR20" s="257"/>
-      <c r="AS20" s="257"/>
-      <c r="AT20" s="257"/>
-      <c r="AU20" s="257"/>
-      <c r="AV20" s="257"/>
-      <c r="AW20" s="258"/>
-      <c r="AX20" s="257"/>
-      <c r="AY20" s="257"/>
-      <c r="AZ20" s="257"/>
-      <c r="BA20" s="259"/>
-      <c r="BB20" s="257"/>
-      <c r="BC20" s="257"/>
-      <c r="BD20" s="257"/>
-      <c r="BE20" s="257"/>
-      <c r="BF20" s="257"/>
-      <c r="BG20" s="258"/>
-      <c r="BH20" s="257"/>
-      <c r="BI20" s="257"/>
-      <c r="BJ20" s="257"/>
-      <c r="BK20" s="259"/>
-      <c r="BL20" s="257"/>
-      <c r="BM20" s="257"/>
-      <c r="BN20" s="257"/>
-      <c r="BO20" s="257"/>
-      <c r="BP20" s="257"/>
-      <c r="BQ20" s="258"/>
-      <c r="BR20" s="257"/>
-      <c r="BS20" s="257"/>
-      <c r="BT20" s="257"/>
-      <c r="BU20" s="259"/>
-      <c r="BV20" s="257"/>
-      <c r="BW20" s="257"/>
-      <c r="BX20" s="257"/>
-      <c r="BY20" s="257"/>
-      <c r="BZ20" s="257"/>
-      <c r="CA20" s="258"/>
-      <c r="CB20" s="257"/>
-      <c r="CC20" s="257"/>
-      <c r="CD20" s="257"/>
-      <c r="CE20" s="259"/>
-      <c r="CF20" s="257"/>
-      <c r="CG20" s="257"/>
-      <c r="CH20" s="257"/>
-      <c r="CI20" s="257"/>
-      <c r="CJ20" s="257"/>
-      <c r="CK20" s="241"/>
-      <c r="CL20" s="235"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="253"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="251"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="251"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="251"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="251"/>
+      <c r="AC20" s="252"/>
+      <c r="AD20" s="251"/>
+      <c r="AE20" s="251"/>
+      <c r="AF20" s="251"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="251"/>
+      <c r="AI20" s="251"/>
+      <c r="AJ20" s="251"/>
+      <c r="AK20" s="251"/>
+      <c r="AL20" s="251"/>
+      <c r="AM20" s="252"/>
+      <c r="AN20" s="251"/>
+      <c r="AO20" s="251"/>
+      <c r="AP20" s="251"/>
+      <c r="AQ20" s="253"/>
+      <c r="AR20" s="251"/>
+      <c r="AS20" s="251"/>
+      <c r="AT20" s="251"/>
+      <c r="AU20" s="251"/>
+      <c r="AV20" s="251"/>
+      <c r="AW20" s="252"/>
+      <c r="AX20" s="251"/>
+      <c r="AY20" s="251"/>
+      <c r="AZ20" s="251"/>
+      <c r="BA20" s="253"/>
+      <c r="BB20" s="251"/>
+      <c r="BC20" s="251"/>
+      <c r="BD20" s="251"/>
+      <c r="BE20" s="251"/>
+      <c r="BF20" s="251"/>
+      <c r="BG20" s="252"/>
+      <c r="BH20" s="251"/>
+      <c r="BI20" s="251"/>
+      <c r="BJ20" s="251"/>
+      <c r="BK20" s="253"/>
+      <c r="BL20" s="251"/>
+      <c r="BM20" s="251"/>
+      <c r="BN20" s="251"/>
+      <c r="BO20" s="251"/>
+      <c r="BP20" s="251"/>
+      <c r="BQ20" s="252"/>
+      <c r="BR20" s="251"/>
+      <c r="BS20" s="251"/>
+      <c r="BT20" s="251"/>
+      <c r="BU20" s="253"/>
+      <c r="BV20" s="251"/>
+      <c r="BW20" s="251"/>
+      <c r="BX20" s="251"/>
+      <c r="BY20" s="251"/>
+      <c r="BZ20" s="251"/>
+      <c r="CA20" s="252"/>
+      <c r="CB20" s="251"/>
+      <c r="CC20" s="251"/>
+      <c r="CD20" s="251"/>
+      <c r="CE20" s="253"/>
+      <c r="CF20" s="251"/>
+      <c r="CG20" s="251"/>
+      <c r="CH20" s="251"/>
+      <c r="CI20" s="251"/>
+      <c r="CJ20" s="251"/>
+      <c r="CK20" s="236"/>
+      <c r="CL20" s="230"/>
       <c r="CN20" s="170"/>
     </row>
     <row r="21" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="227"/>
-      <c r="C21" s="228"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="259"/>
-      <c r="N21" s="257"/>
-      <c r="O21" s="257"/>
-      <c r="P21" s="257"/>
-      <c r="Q21" s="257"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="257"/>
-      <c r="U21" s="257"/>
-      <c r="V21" s="257"/>
-      <c r="W21" s="259"/>
-      <c r="X21" s="257"/>
-      <c r="Y21" s="257"/>
-      <c r="Z21" s="257"/>
-      <c r="AA21" s="257"/>
-      <c r="AB21" s="257"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="257"/>
-      <c r="AE21" s="257"/>
-      <c r="AF21" s="257"/>
-      <c r="AG21" s="259"/>
-      <c r="AH21" s="257"/>
-      <c r="AI21" s="257"/>
-      <c r="AJ21" s="257"/>
-      <c r="AK21" s="257"/>
-      <c r="AL21" s="257"/>
-      <c r="AM21" s="258"/>
-      <c r="AN21" s="257"/>
-      <c r="AO21" s="257"/>
-      <c r="AP21" s="257"/>
-      <c r="AQ21" s="259"/>
-      <c r="AR21" s="257"/>
-      <c r="AS21" s="257"/>
-      <c r="AT21" s="257"/>
-      <c r="AU21" s="257"/>
-      <c r="AV21" s="257"/>
-      <c r="AW21" s="258"/>
-      <c r="AX21" s="257"/>
-      <c r="AY21" s="257"/>
-      <c r="AZ21" s="257"/>
-      <c r="BA21" s="259"/>
-      <c r="BB21" s="257"/>
-      <c r="BC21" s="257"/>
-      <c r="BD21" s="257"/>
-      <c r="BE21" s="257"/>
-      <c r="BF21" s="257"/>
-      <c r="BG21" s="258"/>
-      <c r="BH21" s="257"/>
-      <c r="BI21" s="257"/>
-      <c r="BJ21" s="257"/>
-      <c r="BK21" s="259"/>
-      <c r="BL21" s="257"/>
-      <c r="BM21" s="257"/>
-      <c r="BN21" s="257"/>
-      <c r="BO21" s="257"/>
-      <c r="BP21" s="257"/>
-      <c r="BQ21" s="258"/>
-      <c r="BR21" s="257"/>
-      <c r="BS21" s="257"/>
-      <c r="BT21" s="257"/>
-      <c r="BU21" s="259"/>
-      <c r="BV21" s="257"/>
-      <c r="BW21" s="257"/>
-      <c r="BX21" s="257"/>
-      <c r="BY21" s="257"/>
-      <c r="BZ21" s="257"/>
-      <c r="CA21" s="258"/>
-      <c r="CB21" s="257"/>
-      <c r="CC21" s="257"/>
-      <c r="CD21" s="257"/>
-      <c r="CE21" s="259"/>
-      <c r="CF21" s="257"/>
-      <c r="CG21" s="257"/>
-      <c r="CH21" s="257"/>
-      <c r="CI21" s="257"/>
-      <c r="CJ21" s="257"/>
-      <c r="CK21" s="241"/>
-      <c r="CL21" s="235"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="253"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="251"/>
+      <c r="Q21" s="251"/>
+      <c r="R21" s="251"/>
+      <c r="S21" s="252"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="251"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="251"/>
+      <c r="Z21" s="251"/>
+      <c r="AA21" s="251"/>
+      <c r="AB21" s="251"/>
+      <c r="AC21" s="252"/>
+      <c r="AD21" s="251"/>
+      <c r="AE21" s="251"/>
+      <c r="AF21" s="251"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="251"/>
+      <c r="AI21" s="251"/>
+      <c r="AJ21" s="251"/>
+      <c r="AK21" s="251"/>
+      <c r="AL21" s="251"/>
+      <c r="AM21" s="252"/>
+      <c r="AN21" s="251"/>
+      <c r="AO21" s="251"/>
+      <c r="AP21" s="251"/>
+      <c r="AQ21" s="253"/>
+      <c r="AR21" s="251"/>
+      <c r="AS21" s="251"/>
+      <c r="AT21" s="251"/>
+      <c r="AU21" s="251"/>
+      <c r="AV21" s="251"/>
+      <c r="AW21" s="252"/>
+      <c r="AX21" s="251"/>
+      <c r="AY21" s="251"/>
+      <c r="AZ21" s="251"/>
+      <c r="BA21" s="253"/>
+      <c r="BB21" s="251"/>
+      <c r="BC21" s="251"/>
+      <c r="BD21" s="251"/>
+      <c r="BE21" s="251"/>
+      <c r="BF21" s="251"/>
+      <c r="BG21" s="252"/>
+      <c r="BH21" s="251"/>
+      <c r="BI21" s="251"/>
+      <c r="BJ21" s="251"/>
+      <c r="BK21" s="253"/>
+      <c r="BL21" s="251"/>
+      <c r="BM21" s="251"/>
+      <c r="BN21" s="251"/>
+      <c r="BO21" s="251"/>
+      <c r="BP21" s="251"/>
+      <c r="BQ21" s="252"/>
+      <c r="BR21" s="251"/>
+      <c r="BS21" s="251"/>
+      <c r="BT21" s="251"/>
+      <c r="BU21" s="253"/>
+      <c r="BV21" s="251"/>
+      <c r="BW21" s="251"/>
+      <c r="BX21" s="251"/>
+      <c r="BY21" s="251"/>
+      <c r="BZ21" s="251"/>
+      <c r="CA21" s="252"/>
+      <c r="CB21" s="251"/>
+      <c r="CC21" s="251"/>
+      <c r="CD21" s="251"/>
+      <c r="CE21" s="253"/>
+      <c r="CF21" s="251"/>
+      <c r="CG21" s="251"/>
+      <c r="CH21" s="251"/>
+      <c r="CI21" s="251"/>
+      <c r="CJ21" s="251"/>
+      <c r="CK21" s="236"/>
+      <c r="CL21" s="230"/>
       <c r="CN21" s="170"/>
     </row>
     <row r="22" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="227"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="258"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="257"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="259"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="257"/>
-      <c r="Q22" s="257"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="257"/>
-      <c r="U22" s="257"/>
-      <c r="V22" s="257"/>
-      <c r="W22" s="259"/>
-      <c r="X22" s="257"/>
-      <c r="Y22" s="257"/>
-      <c r="Z22" s="257"/>
-      <c r="AA22" s="257"/>
-      <c r="AB22" s="257"/>
-      <c r="AC22" s="258"/>
-      <c r="AD22" s="257"/>
-      <c r="AE22" s="257"/>
-      <c r="AF22" s="257"/>
-      <c r="AG22" s="259"/>
-      <c r="AH22" s="257"/>
-      <c r="AI22" s="257"/>
-      <c r="AJ22" s="257"/>
-      <c r="AK22" s="257"/>
-      <c r="AL22" s="257"/>
-      <c r="AM22" s="258"/>
-      <c r="AN22" s="257"/>
-      <c r="AO22" s="257"/>
-      <c r="AP22" s="257"/>
-      <c r="AQ22" s="259"/>
-      <c r="AR22" s="257"/>
-      <c r="AS22" s="257"/>
-      <c r="AT22" s="257"/>
-      <c r="AU22" s="257"/>
-      <c r="AV22" s="257"/>
-      <c r="AW22" s="258"/>
-      <c r="AX22" s="257"/>
-      <c r="AY22" s="257"/>
-      <c r="AZ22" s="257"/>
-      <c r="BA22" s="259"/>
-      <c r="BB22" s="257"/>
-      <c r="BC22" s="257"/>
-      <c r="BD22" s="257"/>
-      <c r="BE22" s="257"/>
-      <c r="BF22" s="257"/>
-      <c r="BG22" s="258"/>
-      <c r="BH22" s="257"/>
-      <c r="BI22" s="257"/>
-      <c r="BJ22" s="257"/>
-      <c r="BK22" s="259"/>
-      <c r="BL22" s="257"/>
-      <c r="BM22" s="257"/>
-      <c r="BN22" s="257"/>
-      <c r="BO22" s="257"/>
-      <c r="BP22" s="257"/>
-      <c r="BQ22" s="258"/>
-      <c r="BR22" s="257"/>
-      <c r="BS22" s="257"/>
-      <c r="BT22" s="257"/>
-      <c r="BU22" s="259"/>
-      <c r="BV22" s="257"/>
-      <c r="BW22" s="257"/>
-      <c r="BX22" s="257"/>
-      <c r="BY22" s="257"/>
-      <c r="BZ22" s="257"/>
-      <c r="CA22" s="258"/>
-      <c r="CB22" s="257"/>
-      <c r="CC22" s="257"/>
-      <c r="CD22" s="257"/>
-      <c r="CE22" s="259"/>
-      <c r="CF22" s="257"/>
-      <c r="CG22" s="257"/>
-      <c r="CH22" s="257"/>
-      <c r="CI22" s="257"/>
-      <c r="CJ22" s="257"/>
-      <c r="CK22" s="241"/>
-      <c r="CL22" s="235"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="251"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="251"/>
+      <c r="Q22" s="251"/>
+      <c r="R22" s="251"/>
+      <c r="S22" s="252"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="251"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
+      <c r="AA22" s="251"/>
+      <c r="AB22" s="251"/>
+      <c r="AC22" s="252"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="251"/>
+      <c r="AF22" s="251"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="251"/>
+      <c r="AI22" s="251"/>
+      <c r="AJ22" s="251"/>
+      <c r="AK22" s="251"/>
+      <c r="AL22" s="251"/>
+      <c r="AM22" s="252"/>
+      <c r="AN22" s="251"/>
+      <c r="AO22" s="251"/>
+      <c r="AP22" s="251"/>
+      <c r="AQ22" s="253"/>
+      <c r="AR22" s="251"/>
+      <c r="AS22" s="251"/>
+      <c r="AT22" s="251"/>
+      <c r="AU22" s="251"/>
+      <c r="AV22" s="251"/>
+      <c r="AW22" s="252"/>
+      <c r="AX22" s="251"/>
+      <c r="AY22" s="251"/>
+      <c r="AZ22" s="251"/>
+      <c r="BA22" s="253"/>
+      <c r="BB22" s="251"/>
+      <c r="BC22" s="251"/>
+      <c r="BD22" s="251"/>
+      <c r="BE22" s="251"/>
+      <c r="BF22" s="251"/>
+      <c r="BG22" s="252"/>
+      <c r="BH22" s="251"/>
+      <c r="BI22" s="251"/>
+      <c r="BJ22" s="251"/>
+      <c r="BK22" s="253"/>
+      <c r="BL22" s="251"/>
+      <c r="BM22" s="251"/>
+      <c r="BN22" s="251"/>
+      <c r="BO22" s="251"/>
+      <c r="BP22" s="251"/>
+      <c r="BQ22" s="252"/>
+      <c r="BR22" s="251"/>
+      <c r="BS22" s="251"/>
+      <c r="BT22" s="251"/>
+      <c r="BU22" s="253"/>
+      <c r="BV22" s="251"/>
+      <c r="BW22" s="251"/>
+      <c r="BX22" s="251"/>
+      <c r="BY22" s="251"/>
+      <c r="BZ22" s="251"/>
+      <c r="CA22" s="252"/>
+      <c r="CB22" s="251"/>
+      <c r="CC22" s="251"/>
+      <c r="CD22" s="251"/>
+      <c r="CE22" s="253"/>
+      <c r="CF22" s="251"/>
+      <c r="CG22" s="251"/>
+      <c r="CH22" s="251"/>
+      <c r="CI22" s="251"/>
+      <c r="CJ22" s="251"/>
+      <c r="CK22" s="236"/>
+      <c r="CL22" s="230"/>
       <c r="CN22" s="170"/>
     </row>
     <row r="23" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="227"/>
-      <c r="C23" s="228"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="258"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="257"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="259"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="257"/>
-      <c r="U23" s="257"/>
-      <c r="V23" s="257"/>
-      <c r="W23" s="259"/>
-      <c r="X23" s="257"/>
-      <c r="Y23" s="257"/>
-      <c r="Z23" s="257"/>
-      <c r="AA23" s="257"/>
-      <c r="AB23" s="257"/>
-      <c r="AC23" s="258"/>
-      <c r="AD23" s="257"/>
-      <c r="AE23" s="257"/>
-      <c r="AF23" s="257"/>
-      <c r="AG23" s="259"/>
-      <c r="AH23" s="257"/>
-      <c r="AI23" s="257"/>
-      <c r="AJ23" s="257"/>
-      <c r="AK23" s="257"/>
-      <c r="AL23" s="257"/>
-      <c r="AM23" s="258"/>
-      <c r="AN23" s="257"/>
-      <c r="AO23" s="257"/>
-      <c r="AP23" s="257"/>
-      <c r="AQ23" s="259"/>
-      <c r="AR23" s="257"/>
-      <c r="AS23" s="257"/>
-      <c r="AT23" s="257"/>
-      <c r="AU23" s="257"/>
-      <c r="AV23" s="257"/>
-      <c r="AW23" s="258"/>
-      <c r="AX23" s="257"/>
-      <c r="AY23" s="257"/>
-      <c r="AZ23" s="257"/>
-      <c r="BA23" s="259"/>
-      <c r="BB23" s="257"/>
-      <c r="BC23" s="257"/>
-      <c r="BD23" s="257"/>
-      <c r="BE23" s="257"/>
-      <c r="BF23" s="257"/>
-      <c r="BG23" s="258"/>
-      <c r="BH23" s="257"/>
-      <c r="BI23" s="257"/>
-      <c r="BJ23" s="257"/>
-      <c r="BK23" s="259"/>
-      <c r="BL23" s="257"/>
-      <c r="BM23" s="257"/>
-      <c r="BN23" s="257"/>
-      <c r="BO23" s="257"/>
-      <c r="BP23" s="257"/>
-      <c r="BQ23" s="258"/>
-      <c r="BR23" s="257"/>
-      <c r="BS23" s="257"/>
-      <c r="BT23" s="257"/>
-      <c r="BU23" s="259"/>
-      <c r="BV23" s="257"/>
-      <c r="BW23" s="257"/>
-      <c r="BX23" s="257"/>
-      <c r="BY23" s="257"/>
-      <c r="BZ23" s="257"/>
-      <c r="CA23" s="258"/>
-      <c r="CB23" s="257"/>
-      <c r="CC23" s="257"/>
-      <c r="CD23" s="257"/>
-      <c r="CE23" s="259"/>
-      <c r="CF23" s="257"/>
-      <c r="CG23" s="257"/>
-      <c r="CH23" s="257"/>
-      <c r="CI23" s="257"/>
-      <c r="CJ23" s="257"/>
-      <c r="CK23" s="241"/>
-      <c r="CL23" s="235"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="252"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="251"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="251"/>
+      <c r="AC23" s="252"/>
+      <c r="AD23" s="251"/>
+      <c r="AE23" s="251"/>
+      <c r="AF23" s="251"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="251"/>
+      <c r="AI23" s="251"/>
+      <c r="AJ23" s="251"/>
+      <c r="AK23" s="251"/>
+      <c r="AL23" s="251"/>
+      <c r="AM23" s="252"/>
+      <c r="AN23" s="251"/>
+      <c r="AO23" s="251"/>
+      <c r="AP23" s="251"/>
+      <c r="AQ23" s="253"/>
+      <c r="AR23" s="251"/>
+      <c r="AS23" s="251"/>
+      <c r="AT23" s="251"/>
+      <c r="AU23" s="251"/>
+      <c r="AV23" s="251"/>
+      <c r="AW23" s="252"/>
+      <c r="AX23" s="251"/>
+      <c r="AY23" s="251"/>
+      <c r="AZ23" s="251"/>
+      <c r="BA23" s="253"/>
+      <c r="BB23" s="251"/>
+      <c r="BC23" s="251"/>
+      <c r="BD23" s="251"/>
+      <c r="BE23" s="251"/>
+      <c r="BF23" s="251"/>
+      <c r="BG23" s="252"/>
+      <c r="BH23" s="251"/>
+      <c r="BI23" s="251"/>
+      <c r="BJ23" s="251"/>
+      <c r="BK23" s="253"/>
+      <c r="BL23" s="251"/>
+      <c r="BM23" s="251"/>
+      <c r="BN23" s="251"/>
+      <c r="BO23" s="251"/>
+      <c r="BP23" s="251"/>
+      <c r="BQ23" s="252"/>
+      <c r="BR23" s="251"/>
+      <c r="BS23" s="251"/>
+      <c r="BT23" s="251"/>
+      <c r="BU23" s="253"/>
+      <c r="BV23" s="251"/>
+      <c r="BW23" s="251"/>
+      <c r="BX23" s="251"/>
+      <c r="BY23" s="251"/>
+      <c r="BZ23" s="251"/>
+      <c r="CA23" s="252"/>
+      <c r="CB23" s="251"/>
+      <c r="CC23" s="251"/>
+      <c r="CD23" s="251"/>
+      <c r="CE23" s="253"/>
+      <c r="CF23" s="251"/>
+      <c r="CG23" s="251"/>
+      <c r="CH23" s="251"/>
+      <c r="CI23" s="251"/>
+      <c r="CJ23" s="251"/>
+      <c r="CK23" s="236"/>
+      <c r="CL23" s="230"/>
       <c r="CN23" s="170"/>
     </row>
     <row r="24" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="227"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="257"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="257"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="257"/>
-      <c r="U24" s="257"/>
-      <c r="V24" s="257"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="257"/>
-      <c r="Y24" s="257"/>
-      <c r="Z24" s="257"/>
-      <c r="AA24" s="257"/>
-      <c r="AB24" s="257"/>
-      <c r="AC24" s="258"/>
-      <c r="AD24" s="257"/>
-      <c r="AE24" s="257"/>
-      <c r="AF24" s="257"/>
-      <c r="AG24" s="259"/>
-      <c r="AH24" s="257"/>
-      <c r="AI24" s="257"/>
-      <c r="AJ24" s="257"/>
-      <c r="AK24" s="257"/>
-      <c r="AL24" s="257"/>
-      <c r="AM24" s="258"/>
-      <c r="AN24" s="257"/>
-      <c r="AO24" s="257"/>
-      <c r="AP24" s="257"/>
-      <c r="AQ24" s="259"/>
-      <c r="AR24" s="257"/>
-      <c r="AS24" s="257"/>
-      <c r="AT24" s="257"/>
-      <c r="AU24" s="257"/>
-      <c r="AV24" s="257"/>
-      <c r="AW24" s="258"/>
-      <c r="AX24" s="257"/>
-      <c r="AY24" s="257"/>
-      <c r="AZ24" s="257"/>
-      <c r="BA24" s="259"/>
-      <c r="BB24" s="257"/>
-      <c r="BC24" s="257"/>
-      <c r="BD24" s="257"/>
-      <c r="BE24" s="257"/>
-      <c r="BF24" s="257"/>
-      <c r="BG24" s="258"/>
-      <c r="BH24" s="257"/>
-      <c r="BI24" s="257"/>
-      <c r="BJ24" s="257"/>
-      <c r="BK24" s="259"/>
-      <c r="BL24" s="257"/>
-      <c r="BM24" s="257"/>
-      <c r="BN24" s="257"/>
-      <c r="BO24" s="257"/>
-      <c r="BP24" s="257"/>
-      <c r="BQ24" s="258"/>
-      <c r="BR24" s="257"/>
-      <c r="BS24" s="257"/>
-      <c r="BT24" s="257"/>
-      <c r="BU24" s="259"/>
-      <c r="BV24" s="257"/>
-      <c r="BW24" s="257"/>
-      <c r="BX24" s="257"/>
-      <c r="BY24" s="257"/>
-      <c r="BZ24" s="257"/>
-      <c r="CA24" s="258"/>
-      <c r="CB24" s="257"/>
-      <c r="CC24" s="257"/>
-      <c r="CD24" s="257"/>
-      <c r="CE24" s="259"/>
-      <c r="CF24" s="257"/>
-      <c r="CG24" s="257"/>
-      <c r="CH24" s="257"/>
-      <c r="CI24" s="257"/>
-      <c r="CJ24" s="257"/>
-      <c r="CK24" s="241"/>
-      <c r="CL24" s="235"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="253"/>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="251"/>
+      <c r="Q24" s="251"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="251"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="251"/>
+      <c r="AC24" s="252"/>
+      <c r="AD24" s="251"/>
+      <c r="AE24" s="251"/>
+      <c r="AF24" s="251"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="251"/>
+      <c r="AI24" s="251"/>
+      <c r="AJ24" s="251"/>
+      <c r="AK24" s="251"/>
+      <c r="AL24" s="251"/>
+      <c r="AM24" s="252"/>
+      <c r="AN24" s="251"/>
+      <c r="AO24" s="251"/>
+      <c r="AP24" s="251"/>
+      <c r="AQ24" s="253"/>
+      <c r="AR24" s="251"/>
+      <c r="AS24" s="251"/>
+      <c r="AT24" s="251"/>
+      <c r="AU24" s="251"/>
+      <c r="AV24" s="251"/>
+      <c r="AW24" s="252"/>
+      <c r="AX24" s="251"/>
+      <c r="AY24" s="251"/>
+      <c r="AZ24" s="251"/>
+      <c r="BA24" s="253"/>
+      <c r="BB24" s="251"/>
+      <c r="BC24" s="251"/>
+      <c r="BD24" s="251"/>
+      <c r="BE24" s="251"/>
+      <c r="BF24" s="251"/>
+      <c r="BG24" s="252"/>
+      <c r="BH24" s="251"/>
+      <c r="BI24" s="251"/>
+      <c r="BJ24" s="251"/>
+      <c r="BK24" s="253"/>
+      <c r="BL24" s="251"/>
+      <c r="BM24" s="251"/>
+      <c r="BN24" s="251"/>
+      <c r="BO24" s="251"/>
+      <c r="BP24" s="251"/>
+      <c r="BQ24" s="252"/>
+      <c r="BR24" s="251"/>
+      <c r="BS24" s="251"/>
+      <c r="BT24" s="251"/>
+      <c r="BU24" s="253"/>
+      <c r="BV24" s="251"/>
+      <c r="BW24" s="251"/>
+      <c r="BX24" s="251"/>
+      <c r="BY24" s="251"/>
+      <c r="BZ24" s="251"/>
+      <c r="CA24" s="252"/>
+      <c r="CB24" s="251"/>
+      <c r="CC24" s="251"/>
+      <c r="CD24" s="251"/>
+      <c r="CE24" s="253"/>
+      <c r="CF24" s="251"/>
+      <c r="CG24" s="251"/>
+      <c r="CH24" s="251"/>
+      <c r="CI24" s="251"/>
+      <c r="CJ24" s="251"/>
+      <c r="CK24" s="236"/>
+      <c r="CL24" s="230"/>
       <c r="CN24" s="170"/>
     </row>
     <row r="25" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="227"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="257"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="259"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
-      <c r="V25" s="257"/>
-      <c r="W25" s="259"/>
-      <c r="X25" s="257"/>
-      <c r="Y25" s="257"/>
-      <c r="Z25" s="257"/>
-      <c r="AA25" s="257"/>
-      <c r="AB25" s="257"/>
-      <c r="AC25" s="258"/>
-      <c r="AD25" s="257"/>
-      <c r="AE25" s="257"/>
-      <c r="AF25" s="257"/>
-      <c r="AG25" s="259"/>
-      <c r="AH25" s="257"/>
-      <c r="AI25" s="257"/>
-      <c r="AJ25" s="257"/>
-      <c r="AK25" s="257"/>
-      <c r="AL25" s="257"/>
-      <c r="AM25" s="258"/>
-      <c r="AN25" s="257"/>
-      <c r="AO25" s="257"/>
-      <c r="AP25" s="257"/>
-      <c r="AQ25" s="259"/>
-      <c r="AR25" s="257"/>
-      <c r="AS25" s="257"/>
-      <c r="AT25" s="257"/>
-      <c r="AU25" s="257"/>
-      <c r="AV25" s="257"/>
-      <c r="AW25" s="258"/>
-      <c r="AX25" s="257"/>
-      <c r="AY25" s="257"/>
-      <c r="AZ25" s="257"/>
-      <c r="BA25" s="259"/>
-      <c r="BB25" s="257"/>
-      <c r="BC25" s="257"/>
-      <c r="BD25" s="257"/>
-      <c r="BE25" s="257"/>
-      <c r="BF25" s="257"/>
-      <c r="BG25" s="258"/>
-      <c r="BH25" s="257"/>
-      <c r="BI25" s="257"/>
-      <c r="BJ25" s="257"/>
-      <c r="BK25" s="259"/>
-      <c r="BL25" s="257"/>
-      <c r="BM25" s="257"/>
-      <c r="BN25" s="257"/>
-      <c r="BO25" s="257"/>
-      <c r="BP25" s="257"/>
-      <c r="BQ25" s="258"/>
-      <c r="BR25" s="257"/>
-      <c r="BS25" s="257"/>
-      <c r="BT25" s="257"/>
-      <c r="BU25" s="259"/>
-      <c r="BV25" s="257"/>
-      <c r="BW25" s="257"/>
-      <c r="BX25" s="257"/>
-      <c r="BY25" s="257"/>
-      <c r="BZ25" s="257"/>
-      <c r="CA25" s="258"/>
-      <c r="CB25" s="257"/>
-      <c r="CC25" s="257"/>
-      <c r="CD25" s="257"/>
-      <c r="CE25" s="259"/>
-      <c r="CF25" s="257"/>
-      <c r="CG25" s="257"/>
-      <c r="CH25" s="257"/>
-      <c r="CI25" s="257"/>
-      <c r="CJ25" s="257"/>
-      <c r="CK25" s="241"/>
-      <c r="CL25" s="235"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="253"/>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
+      <c r="P25" s="251"/>
+      <c r="Q25" s="251"/>
+      <c r="R25" s="251"/>
+      <c r="S25" s="252"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="251"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="251"/>
+      <c r="Z25" s="251"/>
+      <c r="AA25" s="251"/>
+      <c r="AB25" s="251"/>
+      <c r="AC25" s="252"/>
+      <c r="AD25" s="251"/>
+      <c r="AE25" s="251"/>
+      <c r="AF25" s="251"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="251"/>
+      <c r="AI25" s="251"/>
+      <c r="AJ25" s="251"/>
+      <c r="AK25" s="251"/>
+      <c r="AL25" s="251"/>
+      <c r="AM25" s="252"/>
+      <c r="AN25" s="251"/>
+      <c r="AO25" s="251"/>
+      <c r="AP25" s="251"/>
+      <c r="AQ25" s="253"/>
+      <c r="AR25" s="251"/>
+      <c r="AS25" s="251"/>
+      <c r="AT25" s="251"/>
+      <c r="AU25" s="251"/>
+      <c r="AV25" s="251"/>
+      <c r="AW25" s="252"/>
+      <c r="AX25" s="251"/>
+      <c r="AY25" s="251"/>
+      <c r="AZ25" s="251"/>
+      <c r="BA25" s="253"/>
+      <c r="BB25" s="251"/>
+      <c r="BC25" s="251"/>
+      <c r="BD25" s="251"/>
+      <c r="BE25" s="251"/>
+      <c r="BF25" s="251"/>
+      <c r="BG25" s="252"/>
+      <c r="BH25" s="251"/>
+      <c r="BI25" s="251"/>
+      <c r="BJ25" s="251"/>
+      <c r="BK25" s="253"/>
+      <c r="BL25" s="251"/>
+      <c r="BM25" s="251"/>
+      <c r="BN25" s="251"/>
+      <c r="BO25" s="251"/>
+      <c r="BP25" s="251"/>
+      <c r="BQ25" s="252"/>
+      <c r="BR25" s="251"/>
+      <c r="BS25" s="251"/>
+      <c r="BT25" s="251"/>
+      <c r="BU25" s="253"/>
+      <c r="BV25" s="251"/>
+      <c r="BW25" s="251"/>
+      <c r="BX25" s="251"/>
+      <c r="BY25" s="251"/>
+      <c r="BZ25" s="251"/>
+      <c r="CA25" s="252"/>
+      <c r="CB25" s="251"/>
+      <c r="CC25" s="251"/>
+      <c r="CD25" s="251"/>
+      <c r="CE25" s="253"/>
+      <c r="CF25" s="251"/>
+      <c r="CG25" s="251"/>
+      <c r="CH25" s="251"/>
+      <c r="CI25" s="251"/>
+      <c r="CJ25" s="251"/>
+      <c r="CK25" s="236"/>
+      <c r="CL25" s="230"/>
       <c r="CN25" s="170"/>
     </row>
     <row r="26" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="227"/>
-      <c r="C26" s="228"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="257"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="257"/>
-      <c r="Q26" s="257"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="257"/>
-      <c r="U26" s="257"/>
-      <c r="V26" s="257"/>
-      <c r="W26" s="259"/>
-      <c r="X26" s="257"/>
-      <c r="Y26" s="257"/>
-      <c r="Z26" s="257"/>
-      <c r="AA26" s="257"/>
-      <c r="AB26" s="257"/>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="257"/>
-      <c r="AE26" s="257"/>
-      <c r="AF26" s="257"/>
-      <c r="AG26" s="259"/>
-      <c r="AH26" s="257"/>
-      <c r="AI26" s="257"/>
-      <c r="AJ26" s="257"/>
-      <c r="AK26" s="257"/>
-      <c r="AL26" s="257"/>
-      <c r="AM26" s="258"/>
-      <c r="AN26" s="257"/>
-      <c r="AO26" s="257"/>
-      <c r="AP26" s="257"/>
-      <c r="AQ26" s="259"/>
-      <c r="AR26" s="257"/>
-      <c r="AS26" s="257"/>
-      <c r="AT26" s="257"/>
-      <c r="AU26" s="257"/>
-      <c r="AV26" s="257"/>
-      <c r="AW26" s="258"/>
-      <c r="AX26" s="257"/>
-      <c r="AY26" s="257"/>
-      <c r="AZ26" s="257"/>
-      <c r="BA26" s="259"/>
-      <c r="BB26" s="257"/>
-      <c r="BC26" s="257"/>
-      <c r="BD26" s="257"/>
-      <c r="BE26" s="257"/>
-      <c r="BF26" s="257"/>
-      <c r="BG26" s="258"/>
-      <c r="BH26" s="257"/>
-      <c r="BI26" s="257"/>
-      <c r="BJ26" s="257"/>
-      <c r="BK26" s="259"/>
-      <c r="BL26" s="257"/>
-      <c r="BM26" s="257"/>
-      <c r="BN26" s="257"/>
-      <c r="BO26" s="257"/>
-      <c r="BP26" s="257"/>
-      <c r="BQ26" s="258"/>
-      <c r="BR26" s="257"/>
-      <c r="BS26" s="257"/>
-      <c r="BT26" s="257"/>
-      <c r="BU26" s="259"/>
-      <c r="BV26" s="257"/>
-      <c r="BW26" s="257"/>
-      <c r="BX26" s="257"/>
-      <c r="BY26" s="257"/>
-      <c r="BZ26" s="257"/>
-      <c r="CA26" s="258"/>
-      <c r="CB26" s="257"/>
-      <c r="CC26" s="257"/>
-      <c r="CD26" s="257"/>
-      <c r="CE26" s="259"/>
-      <c r="CF26" s="257"/>
-      <c r="CG26" s="257"/>
-      <c r="CH26" s="257"/>
-      <c r="CI26" s="257"/>
-      <c r="CJ26" s="257"/>
-      <c r="CK26" s="241"/>
-      <c r="CL26" s="235"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="253"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="251"/>
+      <c r="P26" s="251"/>
+      <c r="Q26" s="251"/>
+      <c r="R26" s="251"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="251"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
+      <c r="AA26" s="251"/>
+      <c r="AB26" s="251"/>
+      <c r="AC26" s="252"/>
+      <c r="AD26" s="251"/>
+      <c r="AE26" s="251"/>
+      <c r="AF26" s="251"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="251"/>
+      <c r="AI26" s="251"/>
+      <c r="AJ26" s="251"/>
+      <c r="AK26" s="251"/>
+      <c r="AL26" s="251"/>
+      <c r="AM26" s="252"/>
+      <c r="AN26" s="251"/>
+      <c r="AO26" s="251"/>
+      <c r="AP26" s="251"/>
+      <c r="AQ26" s="253"/>
+      <c r="AR26" s="251"/>
+      <c r="AS26" s="251"/>
+      <c r="AT26" s="251"/>
+      <c r="AU26" s="251"/>
+      <c r="AV26" s="251"/>
+      <c r="AW26" s="252"/>
+      <c r="AX26" s="251"/>
+      <c r="AY26" s="251"/>
+      <c r="AZ26" s="251"/>
+      <c r="BA26" s="253"/>
+      <c r="BB26" s="251"/>
+      <c r="BC26" s="251"/>
+      <c r="BD26" s="251"/>
+      <c r="BE26" s="251"/>
+      <c r="BF26" s="251"/>
+      <c r="BG26" s="252"/>
+      <c r="BH26" s="251"/>
+      <c r="BI26" s="251"/>
+      <c r="BJ26" s="251"/>
+      <c r="BK26" s="253"/>
+      <c r="BL26" s="251"/>
+      <c r="BM26" s="251"/>
+      <c r="BN26" s="251"/>
+      <c r="BO26" s="251"/>
+      <c r="BP26" s="251"/>
+      <c r="BQ26" s="252"/>
+      <c r="BR26" s="251"/>
+      <c r="BS26" s="251"/>
+      <c r="BT26" s="251"/>
+      <c r="BU26" s="253"/>
+      <c r="BV26" s="251"/>
+      <c r="BW26" s="251"/>
+      <c r="BX26" s="251"/>
+      <c r="BY26" s="251"/>
+      <c r="BZ26" s="251"/>
+      <c r="CA26" s="252"/>
+      <c r="CB26" s="251"/>
+      <c r="CC26" s="251"/>
+      <c r="CD26" s="251"/>
+      <c r="CE26" s="253"/>
+      <c r="CF26" s="251"/>
+      <c r="CG26" s="251"/>
+      <c r="CH26" s="251"/>
+      <c r="CI26" s="251"/>
+      <c r="CJ26" s="251"/>
+      <c r="CK26" s="236"/>
+      <c r="CL26" s="230"/>
       <c r="CN26" s="170"/>
     </row>
     <row r="27" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="227"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="257"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="259"/>
-      <c r="N27" s="257"/>
-      <c r="O27" s="257"/>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="257"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="259"/>
-      <c r="X27" s="257"/>
-      <c r="Y27" s="257"/>
-      <c r="Z27" s="257"/>
-      <c r="AA27" s="257"/>
-      <c r="AB27" s="257"/>
-      <c r="AC27" s="258"/>
-      <c r="AD27" s="257"/>
-      <c r="AE27" s="257"/>
-      <c r="AF27" s="257"/>
-      <c r="AG27" s="259"/>
-      <c r="AH27" s="257"/>
-      <c r="AI27" s="257"/>
-      <c r="AJ27" s="257"/>
-      <c r="AK27" s="257"/>
-      <c r="AL27" s="257"/>
-      <c r="AM27" s="258"/>
-      <c r="AN27" s="257"/>
-      <c r="AO27" s="257"/>
-      <c r="AP27" s="257"/>
-      <c r="AQ27" s="259"/>
-      <c r="AR27" s="257"/>
-      <c r="AS27" s="257"/>
-      <c r="AT27" s="257"/>
-      <c r="AU27" s="257"/>
-      <c r="AV27" s="257"/>
-      <c r="AW27" s="258"/>
-      <c r="AX27" s="257"/>
-      <c r="AY27" s="257"/>
-      <c r="AZ27" s="257"/>
-      <c r="BA27" s="259"/>
-      <c r="BB27" s="257"/>
-      <c r="BC27" s="257"/>
-      <c r="BD27" s="257"/>
-      <c r="BE27" s="257"/>
-      <c r="BF27" s="257"/>
-      <c r="BG27" s="258"/>
-      <c r="BH27" s="257"/>
-      <c r="BI27" s="257"/>
-      <c r="BJ27" s="257"/>
-      <c r="BK27" s="259"/>
-      <c r="BL27" s="257"/>
-      <c r="BM27" s="257"/>
-      <c r="BN27" s="257"/>
-      <c r="BO27" s="257"/>
-      <c r="BP27" s="257"/>
-      <c r="BQ27" s="258"/>
-      <c r="BR27" s="257"/>
-      <c r="BS27" s="257"/>
-      <c r="BT27" s="257"/>
-      <c r="BU27" s="259"/>
-      <c r="BV27" s="257"/>
-      <c r="BW27" s="257"/>
-      <c r="BX27" s="257"/>
-      <c r="BY27" s="257"/>
-      <c r="BZ27" s="257"/>
-      <c r="CA27" s="258"/>
-      <c r="CB27" s="257"/>
-      <c r="CC27" s="257"/>
-      <c r="CD27" s="257"/>
-      <c r="CE27" s="259"/>
-      <c r="CF27" s="257"/>
-      <c r="CG27" s="257"/>
-      <c r="CH27" s="257"/>
-      <c r="CI27" s="257"/>
-      <c r="CJ27" s="257"/>
-      <c r="CK27" s="241"/>
-      <c r="CL27" s="235"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="251"/>
+      <c r="M27" s="253"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="251"/>
+      <c r="Q27" s="251"/>
+      <c r="R27" s="251"/>
+      <c r="S27" s="252"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="251"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="251"/>
+      <c r="Y27" s="251"/>
+      <c r="Z27" s="251"/>
+      <c r="AA27" s="251"/>
+      <c r="AB27" s="251"/>
+      <c r="AC27" s="252"/>
+      <c r="AD27" s="251"/>
+      <c r="AE27" s="251"/>
+      <c r="AF27" s="251"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="251"/>
+      <c r="AI27" s="251"/>
+      <c r="AJ27" s="251"/>
+      <c r="AK27" s="251"/>
+      <c r="AL27" s="251"/>
+      <c r="AM27" s="252"/>
+      <c r="AN27" s="251"/>
+      <c r="AO27" s="251"/>
+      <c r="AP27" s="251"/>
+      <c r="AQ27" s="253"/>
+      <c r="AR27" s="251"/>
+      <c r="AS27" s="251"/>
+      <c r="AT27" s="251"/>
+      <c r="AU27" s="251"/>
+      <c r="AV27" s="251"/>
+      <c r="AW27" s="252"/>
+      <c r="AX27" s="251"/>
+      <c r="AY27" s="251"/>
+      <c r="AZ27" s="251"/>
+      <c r="BA27" s="253"/>
+      <c r="BB27" s="251"/>
+      <c r="BC27" s="251"/>
+      <c r="BD27" s="251"/>
+      <c r="BE27" s="251"/>
+      <c r="BF27" s="251"/>
+      <c r="BG27" s="252"/>
+      <c r="BH27" s="251"/>
+      <c r="BI27" s="251"/>
+      <c r="BJ27" s="251"/>
+      <c r="BK27" s="253"/>
+      <c r="BL27" s="251"/>
+      <c r="BM27" s="251"/>
+      <c r="BN27" s="251"/>
+      <c r="BO27" s="251"/>
+      <c r="BP27" s="251"/>
+      <c r="BQ27" s="252"/>
+      <c r="BR27" s="251"/>
+      <c r="BS27" s="251"/>
+      <c r="BT27" s="251"/>
+      <c r="BU27" s="253"/>
+      <c r="BV27" s="251"/>
+      <c r="BW27" s="251"/>
+      <c r="BX27" s="251"/>
+      <c r="BY27" s="251"/>
+      <c r="BZ27" s="251"/>
+      <c r="CA27" s="252"/>
+      <c r="CB27" s="251"/>
+      <c r="CC27" s="251"/>
+      <c r="CD27" s="251"/>
+      <c r="CE27" s="253"/>
+      <c r="CF27" s="251"/>
+      <c r="CG27" s="251"/>
+      <c r="CH27" s="251"/>
+      <c r="CI27" s="251"/>
+      <c r="CJ27" s="251"/>
+      <c r="CK27" s="236"/>
+      <c r="CL27" s="230"/>
       <c r="CN27" s="170"/>
     </row>
     <row r="28" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="227"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="257"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="259"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="257"/>
-      <c r="P28" s="257"/>
-      <c r="Q28" s="257"/>
-      <c r="R28" s="257"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="257"/>
-      <c r="U28" s="257"/>
-      <c r="V28" s="257"/>
-      <c r="W28" s="259"/>
-      <c r="X28" s="257"/>
-      <c r="Y28" s="257"/>
-      <c r="Z28" s="257"/>
-      <c r="AA28" s="257"/>
-      <c r="AB28" s="257"/>
-      <c r="AC28" s="258"/>
-      <c r="AD28" s="257"/>
-      <c r="AE28" s="257"/>
-      <c r="AF28" s="257"/>
-      <c r="AG28" s="259"/>
-      <c r="AH28" s="257"/>
-      <c r="AI28" s="257"/>
-      <c r="AJ28" s="257"/>
-      <c r="AK28" s="257"/>
-      <c r="AL28" s="257"/>
-      <c r="AM28" s="258"/>
-      <c r="AN28" s="257"/>
-      <c r="AO28" s="257"/>
-      <c r="AP28" s="257"/>
-      <c r="AQ28" s="259"/>
-      <c r="AR28" s="257"/>
-      <c r="AS28" s="257"/>
-      <c r="AT28" s="257"/>
-      <c r="AU28" s="257"/>
-      <c r="AV28" s="257"/>
-      <c r="AW28" s="258"/>
-      <c r="AX28" s="257"/>
-      <c r="AY28" s="257"/>
-      <c r="AZ28" s="257"/>
-      <c r="BA28" s="259"/>
-      <c r="BB28" s="257"/>
-      <c r="BC28" s="257"/>
-      <c r="BD28" s="257"/>
-      <c r="BE28" s="257"/>
-      <c r="BF28" s="257"/>
-      <c r="BG28" s="258"/>
-      <c r="BH28" s="257"/>
-      <c r="BI28" s="257"/>
-      <c r="BJ28" s="257"/>
-      <c r="BK28" s="259"/>
-      <c r="BL28" s="257"/>
-      <c r="BM28" s="257"/>
-      <c r="BN28" s="257"/>
-      <c r="BO28" s="257"/>
-      <c r="BP28" s="257"/>
-      <c r="BQ28" s="258"/>
-      <c r="BR28" s="257"/>
-      <c r="BS28" s="257"/>
-      <c r="BT28" s="257"/>
-      <c r="BU28" s="259"/>
-      <c r="BV28" s="257"/>
-      <c r="BW28" s="257"/>
-      <c r="BX28" s="257"/>
-      <c r="BY28" s="257"/>
-      <c r="BZ28" s="257"/>
-      <c r="CA28" s="258"/>
-      <c r="CB28" s="257"/>
-      <c r="CC28" s="257"/>
-      <c r="CD28" s="257"/>
-      <c r="CE28" s="259"/>
-      <c r="CF28" s="257"/>
-      <c r="CG28" s="257"/>
-      <c r="CH28" s="257"/>
-      <c r="CI28" s="257"/>
-      <c r="CJ28" s="257"/>
-      <c r="CK28" s="241"/>
-      <c r="CL28" s="235"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="253"/>
+      <c r="N28" s="251"/>
+      <c r="O28" s="251"/>
+      <c r="P28" s="251"/>
+      <c r="Q28" s="251"/>
+      <c r="R28" s="251"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="251"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="251"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
+      <c r="AB28" s="251"/>
+      <c r="AC28" s="252"/>
+      <c r="AD28" s="251"/>
+      <c r="AE28" s="251"/>
+      <c r="AF28" s="251"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="251"/>
+      <c r="AI28" s="251"/>
+      <c r="AJ28" s="251"/>
+      <c r="AK28" s="251"/>
+      <c r="AL28" s="251"/>
+      <c r="AM28" s="252"/>
+      <c r="AN28" s="251"/>
+      <c r="AO28" s="251"/>
+      <c r="AP28" s="251"/>
+      <c r="AQ28" s="253"/>
+      <c r="AR28" s="251"/>
+      <c r="AS28" s="251"/>
+      <c r="AT28" s="251"/>
+      <c r="AU28" s="251"/>
+      <c r="AV28" s="251"/>
+      <c r="AW28" s="252"/>
+      <c r="AX28" s="251"/>
+      <c r="AY28" s="251"/>
+      <c r="AZ28" s="251"/>
+      <c r="BA28" s="253"/>
+      <c r="BB28" s="251"/>
+      <c r="BC28" s="251"/>
+      <c r="BD28" s="251"/>
+      <c r="BE28" s="251"/>
+      <c r="BF28" s="251"/>
+      <c r="BG28" s="252"/>
+      <c r="BH28" s="251"/>
+      <c r="BI28" s="251"/>
+      <c r="BJ28" s="251"/>
+      <c r="BK28" s="253"/>
+      <c r="BL28" s="251"/>
+      <c r="BM28" s="251"/>
+      <c r="BN28" s="251"/>
+      <c r="BO28" s="251"/>
+      <c r="BP28" s="251"/>
+      <c r="BQ28" s="252"/>
+      <c r="BR28" s="251"/>
+      <c r="BS28" s="251"/>
+      <c r="BT28" s="251"/>
+      <c r="BU28" s="253"/>
+      <c r="BV28" s="251"/>
+      <c r="BW28" s="251"/>
+      <c r="BX28" s="251"/>
+      <c r="BY28" s="251"/>
+      <c r="BZ28" s="251"/>
+      <c r="CA28" s="252"/>
+      <c r="CB28" s="251"/>
+      <c r="CC28" s="251"/>
+      <c r="CD28" s="251"/>
+      <c r="CE28" s="253"/>
+      <c r="CF28" s="251"/>
+      <c r="CG28" s="251"/>
+      <c r="CH28" s="251"/>
+      <c r="CI28" s="251"/>
+      <c r="CJ28" s="251"/>
+      <c r="CK28" s="236"/>
+      <c r="CL28" s="230"/>
       <c r="CN28" s="170"/>
     </row>
     <row r="29" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="227"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="257"/>
-      <c r="I29" s="258"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="259"/>
-      <c r="N29" s="257"/>
-      <c r="O29" s="257"/>
-      <c r="P29" s="257"/>
-      <c r="Q29" s="257"/>
-      <c r="R29" s="257"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="257"/>
-      <c r="U29" s="257"/>
-      <c r="V29" s="257"/>
-      <c r="W29" s="259"/>
-      <c r="X29" s="257"/>
-      <c r="Y29" s="257"/>
-      <c r="Z29" s="257"/>
-      <c r="AA29" s="257"/>
-      <c r="AB29" s="257"/>
-      <c r="AC29" s="258"/>
-      <c r="AD29" s="257"/>
-      <c r="AE29" s="257"/>
-      <c r="AF29" s="257"/>
-      <c r="AG29" s="259"/>
-      <c r="AH29" s="257"/>
-      <c r="AI29" s="257"/>
-      <c r="AJ29" s="257"/>
-      <c r="AK29" s="257"/>
-      <c r="AL29" s="257"/>
-      <c r="AM29" s="258"/>
-      <c r="AN29" s="257"/>
-      <c r="AO29" s="257"/>
-      <c r="AP29" s="257"/>
-      <c r="AQ29" s="259"/>
-      <c r="AR29" s="257"/>
-      <c r="AS29" s="257"/>
-      <c r="AT29" s="257"/>
-      <c r="AU29" s="257"/>
-      <c r="AV29" s="257"/>
-      <c r="AW29" s="258"/>
-      <c r="AX29" s="257"/>
-      <c r="AY29" s="257"/>
-      <c r="AZ29" s="257"/>
-      <c r="BA29" s="259"/>
-      <c r="BB29" s="257"/>
-      <c r="BC29" s="257"/>
-      <c r="BD29" s="257"/>
-      <c r="BE29" s="257"/>
-      <c r="BF29" s="257"/>
-      <c r="BG29" s="258"/>
-      <c r="BH29" s="257"/>
-      <c r="BI29" s="257"/>
-      <c r="BJ29" s="257"/>
-      <c r="BK29" s="259"/>
-      <c r="BL29" s="257"/>
-      <c r="BM29" s="257"/>
-      <c r="BN29" s="257"/>
-      <c r="BO29" s="257"/>
-      <c r="BP29" s="257"/>
-      <c r="BQ29" s="258"/>
-      <c r="BR29" s="257"/>
-      <c r="BS29" s="257"/>
-      <c r="BT29" s="257"/>
-      <c r="BU29" s="259"/>
-      <c r="BV29" s="257"/>
-      <c r="BW29" s="257"/>
-      <c r="BX29" s="257"/>
-      <c r="BY29" s="257"/>
-      <c r="BZ29" s="257"/>
-      <c r="CA29" s="258"/>
-      <c r="CB29" s="257"/>
-      <c r="CC29" s="257"/>
-      <c r="CD29" s="257"/>
-      <c r="CE29" s="259"/>
-      <c r="CF29" s="257"/>
-      <c r="CG29" s="257"/>
-      <c r="CH29" s="257"/>
-      <c r="CI29" s="257"/>
-      <c r="CJ29" s="257"/>
-      <c r="CK29" s="241"/>
-      <c r="CL29" s="235"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="251"/>
+      <c r="M29" s="253"/>
+      <c r="N29" s="251"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="251"/>
+      <c r="Q29" s="251"/>
+      <c r="R29" s="251"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="251"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="251"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
+      <c r="AA29" s="251"/>
+      <c r="AB29" s="251"/>
+      <c r="AC29" s="252"/>
+      <c r="AD29" s="251"/>
+      <c r="AE29" s="251"/>
+      <c r="AF29" s="251"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="251"/>
+      <c r="AI29" s="251"/>
+      <c r="AJ29" s="251"/>
+      <c r="AK29" s="251"/>
+      <c r="AL29" s="251"/>
+      <c r="AM29" s="252"/>
+      <c r="AN29" s="251"/>
+      <c r="AO29" s="251"/>
+      <c r="AP29" s="251"/>
+      <c r="AQ29" s="253"/>
+      <c r="AR29" s="251"/>
+      <c r="AS29" s="251"/>
+      <c r="AT29" s="251"/>
+      <c r="AU29" s="251"/>
+      <c r="AV29" s="251"/>
+      <c r="AW29" s="252"/>
+      <c r="AX29" s="251"/>
+      <c r="AY29" s="251"/>
+      <c r="AZ29" s="251"/>
+      <c r="BA29" s="253"/>
+      <c r="BB29" s="251"/>
+      <c r="BC29" s="251"/>
+      <c r="BD29" s="251"/>
+      <c r="BE29" s="251"/>
+      <c r="BF29" s="251"/>
+      <c r="BG29" s="252"/>
+      <c r="BH29" s="251"/>
+      <c r="BI29" s="251"/>
+      <c r="BJ29" s="251"/>
+      <c r="BK29" s="253"/>
+      <c r="BL29" s="251"/>
+      <c r="BM29" s="251"/>
+      <c r="BN29" s="251"/>
+      <c r="BO29" s="251"/>
+      <c r="BP29" s="251"/>
+      <c r="BQ29" s="252"/>
+      <c r="BR29" s="251"/>
+      <c r="BS29" s="251"/>
+      <c r="BT29" s="251"/>
+      <c r="BU29" s="253"/>
+      <c r="BV29" s="251"/>
+      <c r="BW29" s="251"/>
+      <c r="BX29" s="251"/>
+      <c r="BY29" s="251"/>
+      <c r="BZ29" s="251"/>
+      <c r="CA29" s="252"/>
+      <c r="CB29" s="251"/>
+      <c r="CC29" s="251"/>
+      <c r="CD29" s="251"/>
+      <c r="CE29" s="253"/>
+      <c r="CF29" s="251"/>
+      <c r="CG29" s="251"/>
+      <c r="CH29" s="251"/>
+      <c r="CI29" s="251"/>
+      <c r="CJ29" s="251"/>
+      <c r="CK29" s="236"/>
+      <c r="CL29" s="230"/>
       <c r="CN29" s="170">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:98" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="227"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="257"/>
-      <c r="F30" s="257"/>
-      <c r="G30" s="257"/>
-      <c r="H30" s="257"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="257"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="259"/>
-      <c r="N30" s="257"/>
-      <c r="O30" s="257"/>
-      <c r="P30" s="257"/>
-      <c r="Q30" s="257"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="257"/>
-      <c r="U30" s="257"/>
-      <c r="V30" s="257"/>
-      <c r="W30" s="259"/>
-      <c r="X30" s="257"/>
-      <c r="Y30" s="257"/>
-      <c r="Z30" s="257"/>
-      <c r="AA30" s="257"/>
-      <c r="AB30" s="257"/>
-      <c r="AC30" s="258"/>
-      <c r="AD30" s="257"/>
-      <c r="AE30" s="257"/>
-      <c r="AF30" s="257"/>
-      <c r="AG30" s="259"/>
-      <c r="AH30" s="257"/>
-      <c r="AI30" s="257"/>
-      <c r="AJ30" s="257"/>
-      <c r="AK30" s="257"/>
-      <c r="AL30" s="257"/>
-      <c r="AM30" s="258"/>
-      <c r="AN30" s="257"/>
-      <c r="AO30" s="257"/>
-      <c r="AP30" s="257"/>
-      <c r="AQ30" s="259"/>
-      <c r="AR30" s="257"/>
-      <c r="AS30" s="257"/>
-      <c r="AT30" s="257"/>
-      <c r="AU30" s="257"/>
-      <c r="AV30" s="257"/>
-      <c r="AW30" s="258"/>
-      <c r="AX30" s="257"/>
-      <c r="AY30" s="257"/>
-      <c r="AZ30" s="257"/>
-      <c r="BA30" s="259"/>
-      <c r="BB30" s="257"/>
-      <c r="BC30" s="257"/>
-      <c r="BD30" s="257"/>
-      <c r="BE30" s="257"/>
-      <c r="BF30" s="257"/>
-      <c r="BG30" s="258"/>
-      <c r="BH30" s="257"/>
-      <c r="BI30" s="257"/>
-      <c r="BJ30" s="257"/>
-      <c r="BK30" s="259"/>
-      <c r="BL30" s="257"/>
-      <c r="BM30" s="257"/>
-      <c r="BN30" s="257"/>
-      <c r="BO30" s="257"/>
-      <c r="BP30" s="257"/>
-      <c r="BQ30" s="258"/>
-      <c r="BR30" s="257"/>
-      <c r="BS30" s="257"/>
-      <c r="BT30" s="257"/>
-      <c r="BU30" s="259"/>
-      <c r="BV30" s="257"/>
-      <c r="BW30" s="257"/>
-      <c r="BX30" s="257"/>
-      <c r="BY30" s="257"/>
-      <c r="BZ30" s="257"/>
-      <c r="CA30" s="258"/>
-      <c r="CB30" s="257"/>
-      <c r="CC30" s="257"/>
-      <c r="CD30" s="257"/>
-      <c r="CE30" s="259"/>
-      <c r="CF30" s="257"/>
-      <c r="CG30" s="257"/>
-      <c r="CH30" s="257"/>
-      <c r="CI30" s="257"/>
-      <c r="CJ30" s="257"/>
-      <c r="CK30" s="241"/>
-      <c r="CL30" s="235"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="251"/>
+      <c r="M30" s="253"/>
+      <c r="N30" s="251"/>
+      <c r="O30" s="251"/>
+      <c r="P30" s="251"/>
+      <c r="Q30" s="251"/>
+      <c r="R30" s="251"/>
+      <c r="S30" s="252"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="251"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
+      <c r="AA30" s="251"/>
+      <c r="AB30" s="251"/>
+      <c r="AC30" s="252"/>
+      <c r="AD30" s="251"/>
+      <c r="AE30" s="251"/>
+      <c r="AF30" s="251"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="251"/>
+      <c r="AI30" s="251"/>
+      <c r="AJ30" s="251"/>
+      <c r="AK30" s="251"/>
+      <c r="AL30" s="251"/>
+      <c r="AM30" s="252"/>
+      <c r="AN30" s="251"/>
+      <c r="AO30" s="251"/>
+      <c r="AP30" s="251"/>
+      <c r="AQ30" s="253"/>
+      <c r="AR30" s="251"/>
+      <c r="AS30" s="251"/>
+      <c r="AT30" s="251"/>
+      <c r="AU30" s="251"/>
+      <c r="AV30" s="251"/>
+      <c r="AW30" s="252"/>
+      <c r="AX30" s="251"/>
+      <c r="AY30" s="251"/>
+      <c r="AZ30" s="251"/>
+      <c r="BA30" s="253"/>
+      <c r="BB30" s="251"/>
+      <c r="BC30" s="251"/>
+      <c r="BD30" s="251"/>
+      <c r="BE30" s="251"/>
+      <c r="BF30" s="251"/>
+      <c r="BG30" s="252"/>
+      <c r="BH30" s="251"/>
+      <c r="BI30" s="251"/>
+      <c r="BJ30" s="251"/>
+      <c r="BK30" s="253"/>
+      <c r="BL30" s="251"/>
+      <c r="BM30" s="251"/>
+      <c r="BN30" s="251"/>
+      <c r="BO30" s="251"/>
+      <c r="BP30" s="251"/>
+      <c r="BQ30" s="252"/>
+      <c r="BR30" s="251"/>
+      <c r="BS30" s="251"/>
+      <c r="BT30" s="251"/>
+      <c r="BU30" s="253"/>
+      <c r="BV30" s="251"/>
+      <c r="BW30" s="251"/>
+      <c r="BX30" s="251"/>
+      <c r="BY30" s="251"/>
+      <c r="BZ30" s="251"/>
+      <c r="CA30" s="252"/>
+      <c r="CB30" s="251"/>
+      <c r="CC30" s="251"/>
+      <c r="CD30" s="251"/>
+      <c r="CE30" s="253"/>
+      <c r="CF30" s="251"/>
+      <c r="CG30" s="251"/>
+      <c r="CH30" s="251"/>
+      <c r="CI30" s="251"/>
+      <c r="CJ30" s="251"/>
+      <c r="CK30" s="236"/>
+      <c r="CL30" s="230"/>
       <c r="CN30" s="170">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:98" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="227"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="256"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="259"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="257"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="259"/>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="257"/>
-      <c r="AC31" s="258"/>
-      <c r="AD31" s="257"/>
-      <c r="AE31" s="257"/>
-      <c r="AF31" s="257"/>
-      <c r="AG31" s="259"/>
-      <c r="AH31" s="257"/>
-      <c r="AI31" s="257"/>
-      <c r="AJ31" s="257"/>
-      <c r="AK31" s="257"/>
-      <c r="AL31" s="257"/>
-      <c r="AM31" s="258"/>
-      <c r="AN31" s="257"/>
-      <c r="AO31" s="257"/>
-      <c r="AP31" s="257"/>
-      <c r="AQ31" s="259"/>
-      <c r="AR31" s="257"/>
-      <c r="AS31" s="257"/>
-      <c r="AT31" s="257"/>
-      <c r="AU31" s="257"/>
-      <c r="AV31" s="257"/>
-      <c r="AW31" s="258"/>
-      <c r="AX31" s="257"/>
-      <c r="AY31" s="257"/>
-      <c r="AZ31" s="257"/>
-      <c r="BA31" s="259"/>
-      <c r="BB31" s="257"/>
-      <c r="BC31" s="257"/>
-      <c r="BD31" s="257"/>
-      <c r="BE31" s="257"/>
-      <c r="BF31" s="257"/>
-      <c r="BG31" s="258"/>
-      <c r="BH31" s="257"/>
-      <c r="BI31" s="257"/>
-      <c r="BJ31" s="257"/>
-      <c r="BK31" s="259"/>
-      <c r="BL31" s="257"/>
-      <c r="BM31" s="257"/>
-      <c r="BN31" s="257"/>
-      <c r="BO31" s="257"/>
-      <c r="BP31" s="257"/>
-      <c r="BQ31" s="258"/>
-      <c r="BR31" s="257"/>
-      <c r="BS31" s="257"/>
-      <c r="BT31" s="257"/>
-      <c r="BU31" s="259"/>
-      <c r="BV31" s="257"/>
-      <c r="BW31" s="257"/>
-      <c r="BX31" s="257"/>
-      <c r="BY31" s="257"/>
-      <c r="BZ31" s="257"/>
-      <c r="CA31" s="258"/>
-      <c r="CB31" s="257"/>
-      <c r="CC31" s="257"/>
-      <c r="CD31" s="257"/>
-      <c r="CE31" s="259"/>
-      <c r="CF31" s="257"/>
-      <c r="CG31" s="257"/>
-      <c r="CH31" s="257"/>
-      <c r="CI31" s="257"/>
-      <c r="CJ31" s="257"/>
-      <c r="CK31" s="241"/>
-      <c r="CL31" s="235"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="251"/>
+      <c r="M31" s="253"/>
+      <c r="N31" s="251"/>
+      <c r="O31" s="251"/>
+      <c r="P31" s="251"/>
+      <c r="Q31" s="251"/>
+      <c r="R31" s="251"/>
+      <c r="S31" s="252"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="251"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="251"/>
+      <c r="Y31" s="251"/>
+      <c r="Z31" s="251"/>
+      <c r="AA31" s="251"/>
+      <c r="AB31" s="251"/>
+      <c r="AC31" s="252"/>
+      <c r="AD31" s="251"/>
+      <c r="AE31" s="251"/>
+      <c r="AF31" s="251"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="251"/>
+      <c r="AI31" s="251"/>
+      <c r="AJ31" s="251"/>
+      <c r="AK31" s="251"/>
+      <c r="AL31" s="251"/>
+      <c r="AM31" s="252"/>
+      <c r="AN31" s="251"/>
+      <c r="AO31" s="251"/>
+      <c r="AP31" s="251"/>
+      <c r="AQ31" s="253"/>
+      <c r="AR31" s="251"/>
+      <c r="AS31" s="251"/>
+      <c r="AT31" s="251"/>
+      <c r="AU31" s="251"/>
+      <c r="AV31" s="251"/>
+      <c r="AW31" s="252"/>
+      <c r="AX31" s="251"/>
+      <c r="AY31" s="251"/>
+      <c r="AZ31" s="251"/>
+      <c r="BA31" s="253"/>
+      <c r="BB31" s="251"/>
+      <c r="BC31" s="251"/>
+      <c r="BD31" s="251"/>
+      <c r="BE31" s="251"/>
+      <c r="BF31" s="251"/>
+      <c r="BG31" s="252"/>
+      <c r="BH31" s="251"/>
+      <c r="BI31" s="251"/>
+      <c r="BJ31" s="251"/>
+      <c r="BK31" s="253"/>
+      <c r="BL31" s="251"/>
+      <c r="BM31" s="251"/>
+      <c r="BN31" s="251"/>
+      <c r="BO31" s="251"/>
+      <c r="BP31" s="251"/>
+      <c r="BQ31" s="252"/>
+      <c r="BR31" s="251"/>
+      <c r="BS31" s="251"/>
+      <c r="BT31" s="251"/>
+      <c r="BU31" s="253"/>
+      <c r="BV31" s="251"/>
+      <c r="BW31" s="251"/>
+      <c r="BX31" s="251"/>
+      <c r="BY31" s="251"/>
+      <c r="BZ31" s="251"/>
+      <c r="CA31" s="252"/>
+      <c r="CB31" s="251"/>
+      <c r="CC31" s="251"/>
+      <c r="CD31" s="251"/>
+      <c r="CE31" s="253"/>
+      <c r="CF31" s="251"/>
+      <c r="CG31" s="251"/>
+      <c r="CH31" s="251"/>
+      <c r="CI31" s="251"/>
+      <c r="CJ31" s="251"/>
+      <c r="CK31" s="236"/>
+      <c r="CL31" s="230"/>
     </row>
     <row r="32" spans="2:98" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="227"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="257"/>
-      <c r="G32" s="257"/>
-      <c r="H32" s="257"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="257"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="259"/>
-      <c r="N32" s="257"/>
-      <c r="O32" s="257"/>
-      <c r="P32" s="257"/>
-      <c r="Q32" s="257"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="257"/>
-      <c r="U32" s="257"/>
-      <c r="V32" s="257"/>
-      <c r="W32" s="259"/>
-      <c r="X32" s="257"/>
-      <c r="Y32" s="257"/>
-      <c r="Z32" s="257"/>
-      <c r="AA32" s="257"/>
-      <c r="AB32" s="257"/>
-      <c r="AC32" s="258"/>
-      <c r="AD32" s="257"/>
-      <c r="AE32" s="257"/>
-      <c r="AF32" s="257"/>
-      <c r="AG32" s="259"/>
-      <c r="AH32" s="257"/>
-      <c r="AI32" s="257"/>
-      <c r="AJ32" s="257"/>
-      <c r="AK32" s="257"/>
-      <c r="AL32" s="257"/>
-      <c r="AM32" s="258"/>
-      <c r="AN32" s="257"/>
-      <c r="AO32" s="257"/>
-      <c r="AP32" s="257"/>
-      <c r="AQ32" s="259"/>
-      <c r="AR32" s="257"/>
-      <c r="AS32" s="257"/>
-      <c r="AT32" s="257"/>
-      <c r="AU32" s="257"/>
-      <c r="AV32" s="257"/>
-      <c r="AW32" s="258"/>
-      <c r="AX32" s="257"/>
-      <c r="AY32" s="257"/>
-      <c r="AZ32" s="257"/>
-      <c r="BA32" s="259"/>
-      <c r="BB32" s="257"/>
-      <c r="BC32" s="257"/>
-      <c r="BD32" s="257"/>
-      <c r="BE32" s="257"/>
-      <c r="BF32" s="257"/>
-      <c r="BG32" s="258"/>
-      <c r="BH32" s="257"/>
-      <c r="BI32" s="257"/>
-      <c r="BJ32" s="257"/>
-      <c r="BK32" s="259"/>
-      <c r="BL32" s="257"/>
-      <c r="BM32" s="257"/>
-      <c r="BN32" s="257"/>
-      <c r="BO32" s="257"/>
-      <c r="BP32" s="257"/>
-      <c r="BQ32" s="258"/>
-      <c r="BR32" s="257"/>
-      <c r="BS32" s="257"/>
-      <c r="BT32" s="257"/>
-      <c r="BU32" s="259"/>
-      <c r="BV32" s="257"/>
-      <c r="BW32" s="257"/>
-      <c r="BX32" s="257"/>
-      <c r="BY32" s="257"/>
-      <c r="BZ32" s="257"/>
-      <c r="CA32" s="258"/>
-      <c r="CB32" s="257"/>
-      <c r="CC32" s="257"/>
-      <c r="CD32" s="257"/>
-      <c r="CE32" s="259"/>
-      <c r="CF32" s="257"/>
-      <c r="CG32" s="257"/>
-      <c r="CH32" s="257"/>
-      <c r="CI32" s="257"/>
-      <c r="CJ32" s="257"/>
-      <c r="CK32" s="241"/>
-      <c r="CL32" s="235"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="253"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="251"/>
+      <c r="P32" s="251"/>
+      <c r="Q32" s="251"/>
+      <c r="R32" s="251"/>
+      <c r="S32" s="252"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="251"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="252"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="251"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="251"/>
+      <c r="AI32" s="251"/>
+      <c r="AJ32" s="251"/>
+      <c r="AK32" s="251"/>
+      <c r="AL32" s="251"/>
+      <c r="AM32" s="252"/>
+      <c r="AN32" s="251"/>
+      <c r="AO32" s="251"/>
+      <c r="AP32" s="251"/>
+      <c r="AQ32" s="253"/>
+      <c r="AR32" s="251"/>
+      <c r="AS32" s="251"/>
+      <c r="AT32" s="251"/>
+      <c r="AU32" s="251"/>
+      <c r="AV32" s="251"/>
+      <c r="AW32" s="252"/>
+      <c r="AX32" s="251"/>
+      <c r="AY32" s="251"/>
+      <c r="AZ32" s="251"/>
+      <c r="BA32" s="253"/>
+      <c r="BB32" s="251"/>
+      <c r="BC32" s="251"/>
+      <c r="BD32" s="251"/>
+      <c r="BE32" s="251"/>
+      <c r="BF32" s="251"/>
+      <c r="BG32" s="252"/>
+      <c r="BH32" s="251"/>
+      <c r="BI32" s="251"/>
+      <c r="BJ32" s="251"/>
+      <c r="BK32" s="253"/>
+      <c r="BL32" s="251"/>
+      <c r="BM32" s="251"/>
+      <c r="BN32" s="251"/>
+      <c r="BO32" s="251"/>
+      <c r="BP32" s="251"/>
+      <c r="BQ32" s="252"/>
+      <c r="BR32" s="251"/>
+      <c r="BS32" s="251"/>
+      <c r="BT32" s="251"/>
+      <c r="BU32" s="253"/>
+      <c r="BV32" s="251"/>
+      <c r="BW32" s="251"/>
+      <c r="BX32" s="251"/>
+      <c r="BY32" s="251"/>
+      <c r="BZ32" s="251"/>
+      <c r="CA32" s="252"/>
+      <c r="CB32" s="251"/>
+      <c r="CC32" s="251"/>
+      <c r="CD32" s="251"/>
+      <c r="CE32" s="253"/>
+      <c r="CF32" s="251"/>
+      <c r="CG32" s="251"/>
+      <c r="CH32" s="251"/>
+      <c r="CI32" s="251"/>
+      <c r="CJ32" s="251"/>
+      <c r="CK32" s="236"/>
+      <c r="CL32" s="230"/>
     </row>
     <row r="33" spans="1:90" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="227"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="257"/>
-      <c r="I33" s="258"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="259"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="257"/>
-      <c r="P33" s="257"/>
-      <c r="Q33" s="257"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="257"/>
-      <c r="U33" s="257"/>
-      <c r="V33" s="257"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="257"/>
-      <c r="Y33" s="257"/>
-      <c r="Z33" s="257"/>
-      <c r="AA33" s="257"/>
-      <c r="AB33" s="257"/>
-      <c r="AC33" s="258"/>
-      <c r="AD33" s="257"/>
-      <c r="AE33" s="257"/>
-      <c r="AF33" s="257"/>
-      <c r="AG33" s="259"/>
-      <c r="AH33" s="257"/>
-      <c r="AI33" s="257"/>
-      <c r="AJ33" s="257"/>
-      <c r="AK33" s="257"/>
-      <c r="AL33" s="257"/>
-      <c r="AM33" s="258"/>
-      <c r="AN33" s="257"/>
-      <c r="AO33" s="257"/>
-      <c r="AP33" s="257"/>
-      <c r="AQ33" s="259"/>
-      <c r="AR33" s="257"/>
-      <c r="AS33" s="257"/>
-      <c r="AT33" s="257"/>
-      <c r="AU33" s="257"/>
-      <c r="AV33" s="257"/>
-      <c r="AW33" s="258"/>
-      <c r="AX33" s="257"/>
-      <c r="AY33" s="257"/>
-      <c r="AZ33" s="257"/>
-      <c r="BA33" s="259"/>
-      <c r="BB33" s="257"/>
-      <c r="BC33" s="257"/>
-      <c r="BD33" s="257"/>
-      <c r="BE33" s="257"/>
-      <c r="BF33" s="257"/>
-      <c r="BG33" s="258"/>
-      <c r="BH33" s="257"/>
-      <c r="BI33" s="257"/>
-      <c r="BJ33" s="257"/>
-      <c r="BK33" s="259"/>
-      <c r="BL33" s="257"/>
-      <c r="BM33" s="257"/>
-      <c r="BN33" s="257"/>
-      <c r="BO33" s="257"/>
-      <c r="BP33" s="257"/>
-      <c r="BQ33" s="258"/>
-      <c r="BR33" s="257"/>
-      <c r="BS33" s="257"/>
-      <c r="BT33" s="257"/>
-      <c r="BU33" s="259"/>
-      <c r="BV33" s="257"/>
-      <c r="BW33" s="257"/>
-      <c r="BX33" s="257"/>
-      <c r="BY33" s="257"/>
-      <c r="BZ33" s="257"/>
-      <c r="CA33" s="258"/>
-      <c r="CB33" s="257"/>
-      <c r="CC33" s="257"/>
-      <c r="CD33" s="257"/>
-      <c r="CE33" s="259"/>
-      <c r="CF33" s="257"/>
-      <c r="CG33" s="257"/>
-      <c r="CH33" s="257"/>
-      <c r="CI33" s="257"/>
-      <c r="CJ33" s="257"/>
-      <c r="CK33" s="241"/>
-      <c r="CL33" s="235"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="251"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="251"/>
+      <c r="M33" s="253"/>
+      <c r="N33" s="251"/>
+      <c r="O33" s="251"/>
+      <c r="P33" s="251"/>
+      <c r="Q33" s="251"/>
+      <c r="R33" s="251"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="251"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="251"/>
+      <c r="AA33" s="251"/>
+      <c r="AB33" s="251"/>
+      <c r="AC33" s="252"/>
+      <c r="AD33" s="251"/>
+      <c r="AE33" s="251"/>
+      <c r="AF33" s="251"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="251"/>
+      <c r="AI33" s="251"/>
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="252"/>
+      <c r="AN33" s="251"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="253"/>
+      <c r="AR33" s="251"/>
+      <c r="AS33" s="251"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="252"/>
+      <c r="AX33" s="251"/>
+      <c r="AY33" s="251"/>
+      <c r="AZ33" s="251"/>
+      <c r="BA33" s="253"/>
+      <c r="BB33" s="251"/>
+      <c r="BC33" s="251"/>
+      <c r="BD33" s="251"/>
+      <c r="BE33" s="251"/>
+      <c r="BF33" s="251"/>
+      <c r="BG33" s="252"/>
+      <c r="BH33" s="251"/>
+      <c r="BI33" s="251"/>
+      <c r="BJ33" s="251"/>
+      <c r="BK33" s="253"/>
+      <c r="BL33" s="251"/>
+      <c r="BM33" s="251"/>
+      <c r="BN33" s="251"/>
+      <c r="BO33" s="251"/>
+      <c r="BP33" s="251"/>
+      <c r="BQ33" s="252"/>
+      <c r="BR33" s="251"/>
+      <c r="BS33" s="251"/>
+      <c r="BT33" s="251"/>
+      <c r="BU33" s="253"/>
+      <c r="BV33" s="251"/>
+      <c r="BW33" s="251"/>
+      <c r="BX33" s="251"/>
+      <c r="BY33" s="251"/>
+      <c r="BZ33" s="251"/>
+      <c r="CA33" s="252"/>
+      <c r="CB33" s="251"/>
+      <c r="CC33" s="251"/>
+      <c r="CD33" s="251"/>
+      <c r="CE33" s="253"/>
+      <c r="CF33" s="251"/>
+      <c r="CG33" s="251"/>
+      <c r="CH33" s="251"/>
+      <c r="CI33" s="251"/>
+      <c r="CJ33" s="251"/>
+      <c r="CK33" s="236"/>
+      <c r="CL33" s="230"/>
     </row>
     <row r="34" spans="1:90" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="227"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="257"/>
-      <c r="F34" s="257"/>
-      <c r="G34" s="257"/>
-      <c r="H34" s="257"/>
-      <c r="I34" s="258"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="257"/>
-      <c r="L34" s="257"/>
-      <c r="M34" s="259"/>
-      <c r="N34" s="257"/>
-      <c r="O34" s="257"/>
-      <c r="P34" s="257"/>
-      <c r="Q34" s="257"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="257"/>
-      <c r="U34" s="257"/>
-      <c r="V34" s="257"/>
-      <c r="W34" s="259"/>
-      <c r="X34" s="257"/>
-      <c r="Y34" s="257"/>
-      <c r="Z34" s="257"/>
-      <c r="AA34" s="257"/>
-      <c r="AB34" s="257"/>
-      <c r="AC34" s="258"/>
-      <c r="AD34" s="257"/>
-      <c r="AE34" s="257"/>
-      <c r="AF34" s="257"/>
-      <c r="AG34" s="259"/>
-      <c r="AH34" s="257"/>
-      <c r="AI34" s="257"/>
-      <c r="AJ34" s="257"/>
-      <c r="AK34" s="257"/>
-      <c r="AL34" s="257"/>
-      <c r="AM34" s="258"/>
-      <c r="AN34" s="257"/>
-      <c r="AO34" s="257"/>
-      <c r="AP34" s="257"/>
-      <c r="AQ34" s="259"/>
-      <c r="AR34" s="257"/>
-      <c r="AS34" s="257"/>
-      <c r="AT34" s="257"/>
-      <c r="AU34" s="257"/>
-      <c r="AV34" s="257"/>
-      <c r="AW34" s="258"/>
-      <c r="AX34" s="257"/>
-      <c r="AY34" s="257"/>
-      <c r="AZ34" s="257"/>
-      <c r="BA34" s="259"/>
-      <c r="BB34" s="257"/>
-      <c r="BC34" s="257"/>
-      <c r="BD34" s="257"/>
-      <c r="BE34" s="257"/>
-      <c r="BF34" s="257"/>
-      <c r="BG34" s="258"/>
-      <c r="BH34" s="257"/>
-      <c r="BI34" s="257"/>
-      <c r="BJ34" s="257"/>
-      <c r="BK34" s="259"/>
-      <c r="BL34" s="257"/>
-      <c r="BM34" s="257"/>
-      <c r="BN34" s="257"/>
-      <c r="BO34" s="257"/>
-      <c r="BP34" s="257"/>
-      <c r="BQ34" s="258"/>
-      <c r="BR34" s="257"/>
-      <c r="BS34" s="257"/>
-      <c r="BT34" s="257"/>
-      <c r="BU34" s="259"/>
-      <c r="BV34" s="257"/>
-      <c r="BW34" s="257"/>
-      <c r="BX34" s="257"/>
-      <c r="BY34" s="257"/>
-      <c r="BZ34" s="257"/>
-      <c r="CA34" s="258"/>
-      <c r="CB34" s="257"/>
-      <c r="CC34" s="257"/>
-      <c r="CD34" s="257"/>
-      <c r="CE34" s="259"/>
-      <c r="CF34" s="257"/>
-      <c r="CG34" s="257"/>
-      <c r="CH34" s="257"/>
-      <c r="CI34" s="257"/>
-      <c r="CJ34" s="257"/>
-      <c r="CK34" s="241"/>
-      <c r="CL34" s="235"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="253"/>
+      <c r="N34" s="251"/>
+      <c r="O34" s="251"/>
+      <c r="P34" s="251"/>
+      <c r="Q34" s="251"/>
+      <c r="R34" s="251"/>
+      <c r="S34" s="252"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="251"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
+      <c r="AA34" s="251"/>
+      <c r="AB34" s="251"/>
+      <c r="AC34" s="252"/>
+      <c r="AD34" s="251"/>
+      <c r="AE34" s="251"/>
+      <c r="AF34" s="251"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="251"/>
+      <c r="AI34" s="251"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="252"/>
+      <c r="AN34" s="251"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="253"/>
+      <c r="AR34" s="251"/>
+      <c r="AS34" s="251"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="252"/>
+      <c r="AX34" s="251"/>
+      <c r="AY34" s="251"/>
+      <c r="AZ34" s="251"/>
+      <c r="BA34" s="253"/>
+      <c r="BB34" s="251"/>
+      <c r="BC34" s="251"/>
+      <c r="BD34" s="251"/>
+      <c r="BE34" s="251"/>
+      <c r="BF34" s="251"/>
+      <c r="BG34" s="252"/>
+      <c r="BH34" s="251"/>
+      <c r="BI34" s="251"/>
+      <c r="BJ34" s="251"/>
+      <c r="BK34" s="253"/>
+      <c r="BL34" s="251"/>
+      <c r="BM34" s="251"/>
+      <c r="BN34" s="251"/>
+      <c r="BO34" s="251"/>
+      <c r="BP34" s="251"/>
+      <c r="BQ34" s="252"/>
+      <c r="BR34" s="251"/>
+      <c r="BS34" s="251"/>
+      <c r="BT34" s="251"/>
+      <c r="BU34" s="253"/>
+      <c r="BV34" s="251"/>
+      <c r="BW34" s="251"/>
+      <c r="BX34" s="251"/>
+      <c r="BY34" s="251"/>
+      <c r="BZ34" s="251"/>
+      <c r="CA34" s="252"/>
+      <c r="CB34" s="251"/>
+      <c r="CC34" s="251"/>
+      <c r="CD34" s="251"/>
+      <c r="CE34" s="253"/>
+      <c r="CF34" s="251"/>
+      <c r="CG34" s="251"/>
+      <c r="CH34" s="251"/>
+      <c r="CI34" s="251"/>
+      <c r="CJ34" s="251"/>
+      <c r="CK34" s="236"/>
+      <c r="CL34" s="230"/>
     </row>
     <row r="35" spans="1:90" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="262"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="263"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="262"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="263"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
-      <c r="AA35" s="261"/>
-      <c r="AB35" s="261"/>
-      <c r="AC35" s="262"/>
-      <c r="AD35" s="261"/>
-      <c r="AE35" s="261"/>
-      <c r="AF35" s="261"/>
-      <c r="AG35" s="263"/>
-      <c r="AH35" s="261"/>
-      <c r="AI35" s="261"/>
-      <c r="AJ35" s="261"/>
-      <c r="AK35" s="261"/>
-      <c r="AL35" s="261"/>
-      <c r="AM35" s="262"/>
-      <c r="AN35" s="261"/>
-      <c r="AO35" s="261"/>
-      <c r="AP35" s="261"/>
-      <c r="AQ35" s="263"/>
-      <c r="AR35" s="261"/>
-      <c r="AS35" s="261"/>
-      <c r="AT35" s="261"/>
-      <c r="AU35" s="261"/>
-      <c r="AV35" s="261"/>
-      <c r="AW35" s="262"/>
-      <c r="AX35" s="261"/>
-      <c r="AY35" s="261"/>
-      <c r="AZ35" s="261"/>
-      <c r="BA35" s="263"/>
-      <c r="BB35" s="261"/>
-      <c r="BC35" s="261"/>
-      <c r="BD35" s="261"/>
-      <c r="BE35" s="261"/>
-      <c r="BF35" s="261"/>
-      <c r="BG35" s="262"/>
-      <c r="BH35" s="261"/>
-      <c r="BI35" s="261"/>
-      <c r="BJ35" s="261"/>
-      <c r="BK35" s="263"/>
-      <c r="BL35" s="261"/>
-      <c r="BM35" s="261"/>
-      <c r="BN35" s="261"/>
-      <c r="BO35" s="261"/>
-      <c r="BP35" s="261"/>
-      <c r="BQ35" s="262"/>
-      <c r="BR35" s="261"/>
-      <c r="BS35" s="261"/>
-      <c r="BT35" s="261"/>
-      <c r="BU35" s="263"/>
-      <c r="BV35" s="261"/>
-      <c r="BW35" s="261"/>
-      <c r="BX35" s="261"/>
-      <c r="BY35" s="261"/>
-      <c r="BZ35" s="261"/>
-      <c r="CA35" s="262"/>
-      <c r="CB35" s="261"/>
-      <c r="CC35" s="261"/>
-      <c r="CD35" s="261"/>
-      <c r="CE35" s="263"/>
-      <c r="CF35" s="261"/>
-      <c r="CG35" s="261"/>
-      <c r="CH35" s="261"/>
-      <c r="CI35" s="261"/>
-      <c r="CJ35" s="261"/>
-      <c r="CK35" s="242"/>
-      <c r="CL35" s="236"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="254"/>
+      <c r="E35" s="255"/>
+      <c r="F35" s="255"/>
+      <c r="G35" s="255"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="255"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="255"/>
+      <c r="M35" s="257"/>
+      <c r="N35" s="255"/>
+      <c r="O35" s="255"/>
+      <c r="P35" s="255"/>
+      <c r="Q35" s="255"/>
+      <c r="R35" s="255"/>
+      <c r="S35" s="256"/>
+      <c r="T35" s="255"/>
+      <c r="U35" s="255"/>
+      <c r="V35" s="255"/>
+      <c r="W35" s="257"/>
+      <c r="X35" s="255"/>
+      <c r="Y35" s="255"/>
+      <c r="Z35" s="255"/>
+      <c r="AA35" s="255"/>
+      <c r="AB35" s="255"/>
+      <c r="AC35" s="256"/>
+      <c r="AD35" s="255"/>
+      <c r="AE35" s="255"/>
+      <c r="AF35" s="255"/>
+      <c r="AG35" s="257"/>
+      <c r="AH35" s="255"/>
+      <c r="AI35" s="255"/>
+      <c r="AJ35" s="255"/>
+      <c r="AK35" s="255"/>
+      <c r="AL35" s="255"/>
+      <c r="AM35" s="256"/>
+      <c r="AN35" s="255"/>
+      <c r="AO35" s="255"/>
+      <c r="AP35" s="255"/>
+      <c r="AQ35" s="257"/>
+      <c r="AR35" s="255"/>
+      <c r="AS35" s="255"/>
+      <c r="AT35" s="255"/>
+      <c r="AU35" s="255"/>
+      <c r="AV35" s="255"/>
+      <c r="AW35" s="256"/>
+      <c r="AX35" s="255"/>
+      <c r="AY35" s="255"/>
+      <c r="AZ35" s="255"/>
+      <c r="BA35" s="257"/>
+      <c r="BB35" s="255"/>
+      <c r="BC35" s="255"/>
+      <c r="BD35" s="255"/>
+      <c r="BE35" s="255"/>
+      <c r="BF35" s="255"/>
+      <c r="BG35" s="256"/>
+      <c r="BH35" s="255"/>
+      <c r="BI35" s="255"/>
+      <c r="BJ35" s="255"/>
+      <c r="BK35" s="257"/>
+      <c r="BL35" s="255"/>
+      <c r="BM35" s="255"/>
+      <c r="BN35" s="255"/>
+      <c r="BO35" s="255"/>
+      <c r="BP35" s="255"/>
+      <c r="BQ35" s="256"/>
+      <c r="BR35" s="255"/>
+      <c r="BS35" s="255"/>
+      <c r="BT35" s="255"/>
+      <c r="BU35" s="257"/>
+      <c r="BV35" s="255"/>
+      <c r="BW35" s="255"/>
+      <c r="BX35" s="255"/>
+      <c r="BY35" s="255"/>
+      <c r="BZ35" s="255"/>
+      <c r="CA35" s="256"/>
+      <c r="CB35" s="255"/>
+      <c r="CC35" s="255"/>
+      <c r="CD35" s="255"/>
+      <c r="CE35" s="257"/>
+      <c r="CF35" s="255"/>
+      <c r="CG35" s="255"/>
+      <c r="CH35" s="255"/>
+      <c r="CI35" s="255"/>
+      <c r="CJ35" s="255"/>
+      <c r="CK35" s="237"/>
+      <c r="CL35" s="231"/>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B36" s="161"/>
@@ -14212,7 +14249,7 @@
       <c r="CH36" s="161"/>
       <c r="CI36" s="161"/>
       <c r="CJ36" s="161"/>
-      <c r="CK36" s="243"/>
+      <c r="CK36" s="238"/>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.2">
       <c r="B38" s="161"/>
@@ -14340,7 +14377,7 @@
     </row>
     <row r="50" spans="1:116" s="164" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="168"/>
-      <c r="CK50" s="237"/>
+      <c r="CK50" s="232"/>
       <c r="CL50" s="161"/>
       <c r="CM50" s="161"/>
       <c r="CN50" s="161"/>
@@ -14371,7 +14408,7 @@
     </row>
     <row r="51" spans="1:116" s="164" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="168"/>
-      <c r="CK51" s="237"/>
+      <c r="CK51" s="232"/>
       <c r="CL51" s="161"/>
       <c r="CM51" s="161"/>
       <c r="CN51" s="161"/>
@@ -14402,7 +14439,7 @@
     </row>
     <row r="52" spans="1:116" s="164" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="168"/>
-      <c r="CK52" s="237"/>
+      <c r="CK52" s="232"/>
       <c r="CL52" s="161"/>
       <c r="CM52" s="161"/>
       <c r="CN52" s="161"/>
@@ -14432,7 +14469,7 @@
       <c r="DL52" s="161"/>
     </row>
     <row r="53" spans="1:116" s="164" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CK53" s="237"/>
+      <c r="CK53" s="232"/>
       <c r="CL53" s="161"/>
       <c r="CM53" s="161"/>
       <c r="CN53" s="161"/>
@@ -14468,6 +14505,36 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="46">
+    <mergeCell ref="AS2:BD2"/>
+    <mergeCell ref="X2:AR2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="X3:AG3"/>
+    <mergeCell ref="AH3:BA3"/>
+    <mergeCell ref="BB3:BK3"/>
+    <mergeCell ref="BL3:CE3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="X4:AG4"/>
+    <mergeCell ref="AH4:BA4"/>
+    <mergeCell ref="BB4:BK4"/>
+    <mergeCell ref="BL4:CE4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:AG5"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BB5:BK5"/>
+    <mergeCell ref="BL5:CE5"/>
+    <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="CF4:CJ4"/>
     <mergeCell ref="CF5:CJ5"/>
     <mergeCell ref="CF6:CJ6"/>
@@ -14484,127 +14551,100 @@
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="AR6:AV6"/>
     <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BB5:BK5"/>
-    <mergeCell ref="BL5:CE5"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:AG5"/>
-    <mergeCell ref="BL3:CE3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="X4:AG4"/>
-    <mergeCell ref="AH4:BA4"/>
-    <mergeCell ref="BB4:BK4"/>
-    <mergeCell ref="BL4:CE4"/>
-    <mergeCell ref="AS2:BD2"/>
-    <mergeCell ref="X2:AR2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:W3"/>
-    <mergeCell ref="X3:AG3"/>
-    <mergeCell ref="AH3:BA3"/>
-    <mergeCell ref="BB3:BK3"/>
   </mergeCells>
-  <conditionalFormatting sqref="BB7:BF35 D7:R35 AR7:AV35 CF7:CJ35 BV7:BZ35 BL7:BP35">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+  <conditionalFormatting sqref="CK35">
+    <cfRule type="top10" dxfId="36" priority="35" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="36" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:W35">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="between">
-      <formula>1</formula>
-      <formula>74</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CK35">
-    <cfRule type="top10" dxfId="33" priority="34" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="32" priority="35" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:W35">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
-      <formula>74</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7:AQ35">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AB35">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AL35">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AG35">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7:BA35">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BK35">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BU35">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:CE35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
+      <formula>1</formula>
+      <formula>74</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:CJ35">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="greaterThan">
+      <formula>74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
@@ -14618,8 +14658,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -14638,32 +14703,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14673,17 +14713,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="105" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="105" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="266" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="260" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14694,7 +14734,7 @@
       <c r="B1" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="264"/>
+      <c r="C1" s="258"/>
       <c r="F1" s="159" t="s">
         <v>299</v>
       </c>
@@ -14706,7 +14746,7 @@
       <c r="B2" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="259" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="156"/>
@@ -14714,7 +14754,7 @@
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="157"/>
       <c r="B3" s="157"/>
-      <c r="C3" s="265"/>
+      <c r="C3" s="259"/>
       <c r="F3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14724,7 +14764,7 @@
       <c r="B4" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="259" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="156"/>
@@ -14732,7 +14772,7 @@
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="259" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="156"/>
@@ -14740,7 +14780,7 @@
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="157"/>
       <c r="B6" s="157"/>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="259" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="156"/>
@@ -14748,7 +14788,7 @@
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="157"/>
       <c r="B7" s="157"/>
-      <c r="C7" s="265" t="s">
+      <c r="C7" s="259" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="156"/>
@@ -14756,7 +14796,7 @@
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="157"/>
       <c r="B8" s="157"/>
-      <c r="C8" s="265" t="s">
+      <c r="C8" s="259" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="156"/>
@@ -14764,7 +14804,7 @@
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="157"/>
       <c r="B9" s="157"/>
-      <c r="C9" s="265"/>
+      <c r="C9" s="259"/>
       <c r="F9" s="156"/>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14774,7 +14814,7 @@
       <c r="B10" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="265" t="s">
+      <c r="C10" s="259" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="156"/>
@@ -14782,7 +14822,7 @@
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="157"/>
       <c r="B11" s="157"/>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="259" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="156"/>
@@ -14790,7 +14830,7 @@
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="157"/>
       <c r="B12" s="157"/>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="259" t="s">
         <v>95</v>
       </c>
       <c r="F12" s="155"/>
@@ -14798,7 +14838,7 @@
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="157"/>
       <c r="B13" s="157"/>
-      <c r="C13" s="265" t="s">
+      <c r="C13" s="259" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="155"/>
@@ -14806,7 +14846,7 @@
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="157"/>
       <c r="B14" s="157"/>
-      <c r="C14" s="265" t="s">
+      <c r="C14" s="259" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="155"/>
@@ -14814,7 +14854,7 @@
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="157"/>
       <c r="B15" s="157"/>
-      <c r="C15" s="265"/>
+      <c r="C15" s="259"/>
       <c r="F15" s="155"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14824,7 +14864,7 @@
       <c r="B16" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="265" t="s">
+      <c r="C16" s="259" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="155"/>
@@ -14832,7 +14872,7 @@
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="157"/>
       <c r="B17" s="157"/>
-      <c r="C17" s="265" t="s">
+      <c r="C17" s="259" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="155"/>
@@ -14840,7 +14880,7 @@
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="157"/>
       <c r="B18" s="157"/>
-      <c r="C18" s="265"/>
+      <c r="C18" s="259"/>
       <c r="F18" s="155"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14850,7 +14890,7 @@
       <c r="B19" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="265" t="s">
+      <c r="C19" s="259" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="155"/>
@@ -14858,7 +14898,7 @@
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="157"/>
       <c r="B20" s="157"/>
-      <c r="C20" s="265"/>
+      <c r="C20" s="259"/>
       <c r="F20" s="155"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -14868,7 +14908,7 @@
       <c r="B21" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="265" t="s">
+      <c r="C21" s="259" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="155"/>
@@ -14876,14 +14916,14 @@
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="157"/>
       <c r="B22" s="157"/>
-      <c r="C22" s="265" t="s">
+      <c r="C22" s="259" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="157"/>
       <c r="B23" s="157"/>
-      <c r="C23" s="265"/>
+      <c r="C23" s="259"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="157" t="s">
@@ -14892,21 +14932,21 @@
       <c r="B24" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="265" t="s">
+      <c r="C24" s="259" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="157"/>
       <c r="B25" s="157"/>
-      <c r="C25" s="265" t="s">
+      <c r="C25" s="259" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="157"/>
       <c r="B26" s="157"/>
-      <c r="C26" s="265"/>
+      <c r="C26" s="259"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="157" t="s">
@@ -14915,21 +14955,21 @@
       <c r="B27" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="265" t="s">
+      <c r="C27" s="259" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="157"/>
       <c r="B28" s="157"/>
-      <c r="C28" s="265" t="s">
+      <c r="C28" s="259" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="157"/>
       <c r="B29" s="157"/>
-      <c r="C29" s="265"/>
+      <c r="C29" s="259"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="157" t="s">
@@ -14938,42 +14978,42 @@
       <c r="B30" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="265" t="s">
+      <c r="C30" s="259" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="157"/>
       <c r="B31" s="157"/>
-      <c r="C31" s="265" t="s">
+      <c r="C31" s="259" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="157"/>
       <c r="B32" s="157"/>
-      <c r="C32" s="265" t="s">
+      <c r="C32" s="259" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="157"/>
       <c r="B33" s="157"/>
-      <c r="C33" s="265" t="s">
+      <c r="C33" s="259" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="157"/>
       <c r="B34" s="157"/>
-      <c r="C34" s="265" t="s">
+      <c r="C34" s="259" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="157"/>
       <c r="B35" s="157"/>
-      <c r="C35" s="265"/>
+      <c r="C35" s="259"/>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="157" t="s">
@@ -14982,56 +15022,56 @@
       <c r="B36" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="265" t="s">
+      <c r="C36" s="259" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="157"/>
       <c r="B37" s="157"/>
-      <c r="C37" s="265" t="s">
+      <c r="C37" s="259" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="157"/>
       <c r="B38" s="157"/>
-      <c r="C38" s="265" t="s">
+      <c r="C38" s="259" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="157"/>
       <c r="B39" s="157"/>
-      <c r="C39" s="265" t="s">
+      <c r="C39" s="259" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="157"/>
       <c r="B40" s="157"/>
-      <c r="C40" s="265" t="s">
+      <c r="C40" s="259" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="157"/>
       <c r="B41" s="157"/>
-      <c r="C41" s="265" t="s">
+      <c r="C41" s="259" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="157"/>
       <c r="B42" s="157"/>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="259" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="157"/>
       <c r="B43" s="157"/>
-      <c r="C43" s="265"/>
+      <c r="C43" s="259"/>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="157" t="s">
@@ -15040,14 +15080,14 @@
       <c r="B44" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="265" t="s">
+      <c r="C44" s="259" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="157"/>
       <c r="B45" s="157"/>
-      <c r="C45" s="265"/>
+      <c r="C45" s="259"/>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="157" t="s">
@@ -15056,35 +15096,35 @@
       <c r="B46" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="265" t="s">
+      <c r="C46" s="259" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="157"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="265" t="s">
+      <c r="C47" s="259" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="157"/>
       <c r="B48" s="157"/>
-      <c r="C48" s="265" t="s">
+      <c r="C48" s="259" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="157"/>
       <c r="B49" s="157"/>
-      <c r="C49" s="265" t="s">
+      <c r="C49" s="259" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="157"/>
       <c r="B50" s="157"/>
-      <c r="C50" s="265"/>
+      <c r="C50" s="259"/>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="157" t="s">
@@ -15093,7 +15133,7 @@
       <c r="B51" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="265" t="s">
+      <c r="C51" s="259" t="s">
         <v>177</v>
       </c>
     </row>
@@ -15102,21 +15142,21 @@
       <c r="B52" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="265" t="s">
+      <c r="C52" s="259" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="157"/>
       <c r="B53" s="157"/>
-      <c r="C53" s="265" t="s">
+      <c r="C53" s="259" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="157"/>
       <c r="B54" s="157"/>
-      <c r="C54" s="265"/>
+      <c r="C54" s="259"/>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="157" t="s">
@@ -15125,21 +15165,21 @@
       <c r="B55" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="265" t="s">
+      <c r="C55" s="259" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="157"/>
       <c r="B56" s="157"/>
-      <c r="C56" s="265" t="s">
+      <c r="C56" s="259" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="157"/>
       <c r="B57" s="157"/>
-      <c r="C57" s="265"/>
+      <c r="C57" s="259"/>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="157" t="s">
@@ -15148,35 +15188,35 @@
       <c r="B58" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="265" t="s">
+      <c r="C58" s="259" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="157"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="265" t="s">
+      <c r="C59" s="259" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="157"/>
       <c r="B60" s="157"/>
-      <c r="C60" s="265" t="s">
+      <c r="C60" s="259" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="157"/>
       <c r="B61" s="157"/>
-      <c r="C61" s="265" t="s">
+      <c r="C61" s="259" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="157"/>
       <c r="B62" s="157"/>
-      <c r="C62" s="265"/>
+      <c r="C62" s="259"/>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="157" t="s">
@@ -15185,28 +15225,28 @@
       <c r="B63" s="157" t="s">
         <v>312</v>
       </c>
-      <c r="C63" s="265" t="s">
+      <c r="C63" s="259" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="157"/>
       <c r="B64" s="157"/>
-      <c r="C64" s="265" t="s">
+      <c r="C64" s="259" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="157"/>
       <c r="B65" s="157"/>
-      <c r="C65" s="265" t="s">
+      <c r="C65" s="259" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="157"/>
       <c r="B66" s="157"/>
-      <c r="C66" s="265"/>
+      <c r="C66" s="259"/>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="157" t="s">
@@ -15215,14 +15255,14 @@
       <c r="B67" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="265" t="s">
+      <c r="C67" s="259" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="157"/>
       <c r="B68" s="157"/>
-      <c r="C68" s="265"/>
+      <c r="C68" s="259"/>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="157" t="s">
@@ -15231,14 +15271,14 @@
       <c r="B69" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="C69" s="265" t="s">
+      <c r="C69" s="259" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="157"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="265" t="s">
+      <c r="C70" s="259" t="s">
         <v>319</v>
       </c>
     </row>
@@ -15249,7 +15289,7 @@
       <c r="B71" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="C71" s="265" t="s">
+      <c r="C71" s="259" t="s">
         <v>403</v>
       </c>
     </row>
@@ -15265,7 +15305,7 @@
       <c r="B73" s="105" t="s">
         <v>413</v>
       </c>
-      <c r="C73" s="265" t="s">
+      <c r="C73" s="259" t="s">
         <v>414</v>
       </c>
     </row>
@@ -15276,8 +15316,19 @@
       <c r="B74" s="105" t="s">
         <v>413</v>
       </c>
-      <c r="C74" s="265" t="s">
+      <c r="C74" s="259" t="s">
         <v>416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="105" t="s">
+        <v>417</v>
+      </c>
+      <c r="B75" s="105" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" s="260" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -15297,561 +15348,561 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="216"/>
-    <col min="2" max="2" width="12.140625" style="216" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="216" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="216" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="216" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="216" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="216" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="216" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="216" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="216" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="216" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="216"/>
+    <col min="1" max="1" width="9.140625" style="213"/>
+    <col min="2" max="2" width="12.140625" style="213" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="213" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="213" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="213" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="213" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="213" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="213" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="213" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="213" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="213" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="213" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="213" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="213" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="213"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="215" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="219" t="s">
+      <c r="C1" s="216" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="216" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="218" t="s">
+      <c r="F1" s="215" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="219" t="s">
+      <c r="G1" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="217"/>
-      <c r="I1" s="219" t="s">
+      <c r="H1" s="214"/>
+      <c r="I1" s="216" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="217"/>
-      <c r="K1" s="219" t="s">
+      <c r="J1" s="214"/>
+      <c r="K1" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="217"/>
-      <c r="M1" s="219" t="s">
+      <c r="L1" s="214"/>
+      <c r="M1" s="216" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="216" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="216" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="219" t="s">
+      <c r="D2" s="216" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="218" t="s">
+      <c r="F2" s="215" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="219" t="s">
+      <c r="G2" s="216" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="219" t="s">
+      <c r="H2" s="214"/>
+      <c r="I2" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="219" t="s">
+      <c r="J2" s="214"/>
+      <c r="K2" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="217"/>
-      <c r="M2" s="219" t="s">
+      <c r="L2" s="214"/>
+      <c r="M2" s="216" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="215" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="216" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="216" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="216" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="218" t="s">
+      <c r="F3" s="215" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="219" t="s">
+      <c r="G3" s="216" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="217"/>
-      <c r="I3" s="219" t="s">
+      <c r="H3" s="214"/>
+      <c r="I3" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="217"/>
-      <c r="K3" s="219" t="s">
+      <c r="J3" s="214"/>
+      <c r="K3" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="217"/>
-      <c r="M3" s="219" t="s">
+      <c r="L3" s="214"/>
+      <c r="M3" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="220" t="s">
+      <c r="O3" s="217" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="215" t="s">
         <v>342</v>
       </c>
-      <c r="G4" s="219" t="s">
+      <c r="G4" s="216" t="s">
         <v>343</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="219" t="s">
+      <c r="H4" s="214"/>
+      <c r="I4" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="217"/>
-      <c r="K4" s="219" t="s">
+      <c r="J4" s="214"/>
+      <c r="K4" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="217"/>
-      <c r="M4" s="219" t="s">
+      <c r="L4" s="214"/>
+      <c r="M4" s="216" t="s">
         <v>344</v>
       </c>
-      <c r="O4" s="220" t="s">
+      <c r="O4" s="217" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F5" s="218" t="s">
+      <c r="F5" s="215" t="s">
         <v>345</v>
       </c>
-      <c r="G5" s="219" t="s">
+      <c r="G5" s="216" t="s">
         <v>346</v>
       </c>
-      <c r="H5" s="217"/>
-      <c r="M5" s="219" t="s">
+      <c r="H5" s="214"/>
+      <c r="M5" s="216" t="s">
         <v>347</v>
       </c>
-      <c r="O5" s="218" t="s">
+      <c r="O5" s="215" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F6" s="218" t="s">
+      <c r="F6" s="215" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="219" t="s">
+      <c r="G6" s="216" t="s">
         <v>350</v>
       </c>
-      <c r="H6" s="217"/>
-      <c r="O6" s="218" t="s">
+      <c r="H6" s="214"/>
+      <c r="O6" s="215" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="213" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="216" t="s">
+      <c r="C7" s="213" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="216" t="s">
+      <c r="D7" s="213" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="219" t="s">
+      <c r="F7" s="216" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="219" t="s">
+      <c r="G7" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="217"/>
-      <c r="O7" s="218" t="s">
+      <c r="H7" s="214"/>
+      <c r="O7" s="215" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="213" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="213" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="216" t="s">
+      <c r="D8" s="213" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="215" t="s">
         <v>356</v>
       </c>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="216" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="O8" s="218" t="s">
+      <c r="H8" s="214"/>
+      <c r="O8" s="215" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="213" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="213" t="s">
         <v>339</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="215" t="s">
         <v>359</v>
       </c>
-      <c r="G9" s="219" t="s">
+      <c r="G9" s="216" t="s">
         <v>360</v>
       </c>
-      <c r="H9" s="217"/>
-      <c r="O9" s="218" t="s">
+      <c r="H9" s="214"/>
+      <c r="O9" s="215" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="215" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="219" t="s">
+      <c r="G10" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="O10" s="218" t="s">
+      <c r="O10" s="215" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="218" t="s">
+      <c r="F11" s="215" t="s">
         <v>363</v>
       </c>
-      <c r="G11" s="219" t="s">
+      <c r="G11" s="216" t="s">
         <v>364</v>
       </c>
-      <c r="O11" s="218" t="s">
+      <c r="O11" s="215" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="215" t="s">
         <v>366</v>
       </c>
-      <c r="G12" s="219" t="s">
+      <c r="G12" s="216" t="s">
         <v>367</v>
       </c>
-      <c r="O12" s="218" t="s">
+      <c r="O12" s="215" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="218" t="s">
+      <c r="F13" s="215" t="s">
         <v>368</v>
       </c>
-      <c r="G13" s="219" t="s">
+      <c r="G13" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="O13" s="218" t="s">
+      <c r="O13" s="215" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="218" t="s">
+      <c r="F14" s="215" t="s">
         <v>371</v>
       </c>
-      <c r="G14" s="219" t="s">
+      <c r="G14" s="216" t="s">
         <v>357</v>
       </c>
-      <c r="O14" s="218" t="s">
+      <c r="O14" s="215" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F15" s="218" t="s">
+      <c r="F15" s="215" t="s">
         <v>373</v>
       </c>
-      <c r="G15" s="219" t="s">
+      <c r="G15" s="216" t="s">
         <v>364</v>
       </c>
-      <c r="O15" s="218" t="s">
+      <c r="O15" s="215" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="218" t="s">
+      <c r="F16" s="215" t="s">
         <v>374</v>
       </c>
-      <c r="G16" s="219" t="s">
+      <c r="G16" s="216" t="s">
         <v>346</v>
       </c>
-      <c r="O16" s="218" t="s">
+      <c r="O16" s="215" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="215" t="s">
         <v>375</v>
       </c>
-      <c r="G17" s="219" t="s">
+      <c r="G17" s="216" t="s">
         <v>358</v>
       </c>
-      <c r="O17" s="218" t="s">
+      <c r="O17" s="215" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F18" s="218" t="s">
+      <c r="F18" s="215" t="s">
         <v>376</v>
       </c>
-      <c r="G18" s="219" t="s">
+      <c r="G18" s="216" t="s">
         <v>358</v>
       </c>
-      <c r="O18" s="218" t="s">
+      <c r="O18" s="215" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F19" s="218" t="s">
+      <c r="F19" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="G19" s="219" t="s">
+      <c r="G19" s="216" t="s">
         <v>351</v>
       </c>
-      <c r="O19" s="218" t="s">
+      <c r="O19" s="215" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="20" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F20" s="218" t="s">
+      <c r="F20" s="215" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="219" t="s">
+      <c r="G20" s="216" t="s">
         <v>334</v>
       </c>
-      <c r="O20" s="218" t="s">
+      <c r="O20" s="215" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F21" s="218" t="s">
+      <c r="F21" s="215" t="s">
         <v>380</v>
       </c>
-      <c r="G21" s="219" t="s">
+      <c r="G21" s="216" t="s">
         <v>364</v>
       </c>
-      <c r="O21" s="219" t="s">
+      <c r="O21" s="216" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F22" s="218" t="s">
+      <c r="F22" s="215" t="s">
         <v>382</v>
       </c>
-      <c r="G22" s="219" t="s">
+      <c r="G22" s="216" t="s">
         <v>383</v>
       </c>
-      <c r="O22" s="218" t="s">
+      <c r="O22" s="215" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F23" s="218" t="s">
+      <c r="F23" s="215" t="s">
         <v>385</v>
       </c>
-      <c r="G23" s="219" t="s">
+      <c r="G23" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="O23" s="218" t="s">
+      <c r="O23" s="215" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F24" s="218" t="s">
+      <c r="F24" s="215" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="219" t="s">
+      <c r="G24" s="216" t="s">
         <v>370</v>
       </c>
-      <c r="O24" s="218" t="s">
+      <c r="O24" s="215" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F25" s="218" t="s">
+      <c r="F25" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="G25" s="219" t="s">
+      <c r="G25" s="216" t="s">
         <v>381</v>
       </c>
-      <c r="O25" s="218" t="s">
+      <c r="O25" s="215" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F26" s="218" t="s">
+      <c r="F26" s="215" t="s">
         <v>389</v>
       </c>
-      <c r="G26" s="219" t="s">
+      <c r="G26" s="216" t="s">
         <v>369</v>
       </c>
-      <c r="O26" s="218" t="s">
+      <c r="O26" s="215" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="27" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F27" s="218" t="s">
+      <c r="F27" s="215" t="s">
         <v>391</v>
       </c>
-      <c r="G27" s="219" t="s">
+      <c r="G27" s="216" t="s">
         <v>360</v>
       </c>
-      <c r="O27" s="218" t="s">
+      <c r="O27" s="215" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F28" s="218" t="s">
+      <c r="F28" s="215" t="s">
         <v>392</v>
       </c>
-      <c r="G28" s="219" t="s">
+      <c r="G28" s="216" t="s">
         <v>383</v>
       </c>
-      <c r="O28" s="218" t="s">
+      <c r="O28" s="215" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="215" t="s">
         <v>393</v>
       </c>
-      <c r="G29" s="219" t="s">
+      <c r="G29" s="216" t="s">
         <v>351</v>
       </c>
-      <c r="O29" s="218" t="s">
+      <c r="O29" s="215" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="219" t="s">
+      <c r="G30" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="O30" s="218" t="s">
+      <c r="O30" s="215" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="215" t="s">
         <v>394</v>
       </c>
-      <c r="G31" s="219" t="s">
+      <c r="G31" s="216" t="s">
         <v>341</v>
       </c>
-      <c r="O31" s="218" t="s">
+      <c r="O31" s="215" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="32" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="215" t="s">
         <v>395</v>
       </c>
-      <c r="G32" s="219" t="s">
+      <c r="G32" s="216" t="s">
         <v>367</v>
       </c>
-      <c r="O32" s="218" t="s">
+      <c r="O32" s="215" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="33" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="215" t="s">
         <v>396</v>
       </c>
-      <c r="G33" s="219" t="s">
+      <c r="G33" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="O33" s="218" t="s">
+      <c r="O33" s="215" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="34" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="215" t="s">
         <v>397</v>
       </c>
-      <c r="G34" s="219" t="s">
+      <c r="G34" s="216" t="s">
         <v>370</v>
       </c>
-      <c r="O34" s="218" t="s">
+      <c r="O34" s="215" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="35" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="215" t="s">
         <v>398</v>
       </c>
-      <c r="G35" s="219" t="s">
+      <c r="G35" s="216" t="s">
         <v>343</v>
       </c>
-      <c r="O35" s="218" t="s">
+      <c r="O35" s="215" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="36" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="215" t="s">
         <v>399</v>
       </c>
-      <c r="G36" s="219" t="s">
+      <c r="G36" s="216" t="s">
         <v>350</v>
       </c>
-      <c r="O36" s="218" t="s">
+      <c r="O36" s="215" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F37" s="218" t="s">
+      <c r="F37" s="215" t="s">
         <v>400</v>
       </c>
-      <c r="G37" s="219" t="s">
+      <c r="G37" s="216" t="s">
         <v>346</v>
       </c>
-      <c r="O37" s="218" t="s">
+      <c r="O37" s="215" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="38" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="215" t="s">
         <v>401</v>
       </c>
-      <c r="G38" s="219" t="s">
+      <c r="G38" s="216" t="s">
         <v>381</v>
       </c>
-      <c r="O38" s="218" t="s">
+      <c r="O38" s="215" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="39" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="O39" s="218" t="s">
+      <c r="O39" s="215" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="40" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="O40" s="218" t="s">
+      <c r="O40" s="215" t="s">
         <v>381</v>
       </c>
     </row>
@@ -15903,14 +15954,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="338" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="337"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="340"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15955,14 +16006,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="338" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="340"/>
       <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15975,11 +16026,11 @@
       <c r="C8" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="338" t="s">
+      <c r="D8" s="341" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="339"/>
-      <c r="F8" s="340"/>
+      <c r="E8" s="342"/>
+      <c r="F8" s="343"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16003,27 +16054,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="335" t="s">
+      <c r="A11" s="338" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="337"/>
+      <c r="B11" s="339"/>
+      <c r="C11" s="339"/>
+      <c r="D11" s="339"/>
+      <c r="E11" s="339"/>
+      <c r="F11" s="340"/>
       <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="344" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="346"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16039,25 +16090,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="335" t="s">
+      <c r="A15" s="338" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="336"/>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="336"/>
-      <c r="F15" s="337"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="339"/>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="340"/>
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="344"/>
-      <c r="C16" s="345"/>
-      <c r="D16" s="345"/>
-      <c r="E16" s="345"/>
-      <c r="F16" s="346"/>
+      <c r="B16" s="335"/>
+      <c r="C16" s="336"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="337"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16073,25 +16124,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="335" t="s">
+      <c r="A19" s="338" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="336"/>
-      <c r="C19" s="336"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="336"/>
-      <c r="F19" s="337"/>
+      <c r="B19" s="339"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="340"/>
       <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="344"/>
-      <c r="C20" s="345"/>
-      <c r="D20" s="345"/>
-      <c r="E20" s="345"/>
-      <c r="F20" s="346"/>
+      <c r="B20" s="335"/>
+      <c r="C20" s="336"/>
+      <c r="D20" s="336"/>
+      <c r="E20" s="336"/>
+      <c r="F20" s="337"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16107,25 +16158,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="335" t="s">
+      <c r="A23" s="338" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="336"/>
-      <c r="C23" s="336"/>
-      <c r="D23" s="336"/>
-      <c r="E23" s="336"/>
-      <c r="F23" s="337"/>
+      <c r="B23" s="339"/>
+      <c r="C23" s="339"/>
+      <c r="D23" s="339"/>
+      <c r="E23" s="339"/>
+      <c r="F23" s="340"/>
       <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="344"/>
-      <c r="C24" s="345"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="345"/>
-      <c r="F24" s="346"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="337"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16141,25 +16192,25 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="335" t="s">
+      <c r="A27" s="338" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="336"/>
-      <c r="C27" s="336"/>
-      <c r="D27" s="336"/>
-      <c r="E27" s="336"/>
-      <c r="F27" s="337"/>
+      <c r="B27" s="339"/>
+      <c r="C27" s="339"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="340"/>
       <c r="H27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="344"/>
-      <c r="C28" s="345"/>
-      <c r="D28" s="345"/>
-      <c r="E28" s="345"/>
-      <c r="F28" s="346"/>
+      <c r="B28" s="335"/>
+      <c r="C28" s="336"/>
+      <c r="D28" s="336"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="337"/>
     </row>
     <row r="29" spans="1:8" s="68" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="67"/>
@@ -16172,6 +16223,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16179,12 +16236,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16387,30 +16438,30 @@
         <v>187</v>
       </c>
       <c r="C3" s="101"/>
-      <c r="E3" s="371">
+      <c r="E3" s="360">
         <v>5591</v>
       </c>
-      <c r="F3" s="371"/>
+      <c r="F3" s="360"/>
       <c r="G3" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="371" t="s">
+      <c r="I3" s="360" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="371"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="360"/>
       <c r="N3" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="371" t="s">
+      <c r="P3" s="360" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="371"/>
-      <c r="R3" s="371"/>
-      <c r="S3" s="371"/>
-      <c r="T3" s="371"/>
+      <c r="Q3" s="360"/>
+      <c r="R3" s="360"/>
+      <c r="S3" s="360"/>
+      <c r="T3" s="360"/>
       <c r="V3" s="97" t="s">
         <v>166</v>
       </c>
@@ -16421,10 +16472,10 @@
         <v>64</v>
       </c>
       <c r="AD3" s="100"/>
-      <c r="AF3" s="370" t="s">
+      <c r="AF3" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="AG3" s="370"/>
+      <c r="AG3" s="359"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
@@ -17277,153 +17328,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="362" t="s">
+      <c r="B18" s="364" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="363"/>
-      <c r="D18" s="359" t="s">
+      <c r="C18" s="365"/>
+      <c r="D18" s="361" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="360"/>
-      <c r="F18" s="360"/>
-      <c r="G18" s="360"/>
-      <c r="H18" s="360"/>
-      <c r="I18" s="360"/>
-      <c r="J18" s="360"/>
-      <c r="K18" s="360"/>
-      <c r="L18" s="360"/>
-      <c r="M18" s="360"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="360"/>
-      <c r="P18" s="360"/>
-      <c r="Q18" s="360"/>
-      <c r="R18" s="360"/>
-      <c r="S18" s="360"/>
-      <c r="T18" s="360"/>
-      <c r="U18" s="360"/>
-      <c r="V18" s="360"/>
-      <c r="W18" s="361"/>
+      <c r="E18" s="362"/>
+      <c r="F18" s="362"/>
+      <c r="G18" s="362"/>
+      <c r="H18" s="362"/>
+      <c r="I18" s="362"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="362"/>
+      <c r="L18" s="362"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="362"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="362"/>
+      <c r="U18" s="362"/>
+      <c r="V18" s="362"/>
+      <c r="W18" s="363"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="364">
+      <c r="B19" s="366">
         <v>2</v>
       </c>
-      <c r="C19" s="365"/>
-      <c r="D19" s="359" t="s">
+      <c r="C19" s="367"/>
+      <c r="D19" s="361" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="360"/>
-      <c r="F19" s="360"/>
-      <c r="G19" s="360"/>
-      <c r="H19" s="360"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="360"/>
-      <c r="K19" s="360"/>
-      <c r="L19" s="360"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="360"/>
-      <c r="P19" s="360"/>
-      <c r="Q19" s="360"/>
-      <c r="R19" s="360"/>
-      <c r="S19" s="360"/>
-      <c r="T19" s="360"/>
-      <c r="U19" s="360"/>
-      <c r="V19" s="360"/>
-      <c r="W19" s="361"/>
+      <c r="E19" s="362"/>
+      <c r="F19" s="362"/>
+      <c r="G19" s="362"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="362"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="362"/>
+      <c r="L19" s="362"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="362"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="362"/>
+      <c r="U19" s="362"/>
+      <c r="V19" s="362"/>
+      <c r="W19" s="363"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="366">
+      <c r="B20" s="368">
         <v>3</v>
       </c>
-      <c r="C20" s="367"/>
-      <c r="D20" s="359" t="s">
+      <c r="C20" s="369"/>
+      <c r="D20" s="361" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="360"/>
-      <c r="F20" s="360"/>
-      <c r="G20" s="360"/>
-      <c r="H20" s="360"/>
-      <c r="I20" s="360"/>
-      <c r="J20" s="360"/>
-      <c r="K20" s="360"/>
-      <c r="L20" s="360"/>
-      <c r="M20" s="360"/>
-      <c r="N20" s="360"/>
-      <c r="O20" s="360"/>
-      <c r="P20" s="360"/>
-      <c r="Q20" s="360"/>
-      <c r="R20" s="360"/>
-      <c r="S20" s="360"/>
-      <c r="T20" s="360"/>
-      <c r="U20" s="360"/>
-      <c r="V20" s="360"/>
-      <c r="W20" s="361"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="362"/>
+      <c r="G20" s="362"/>
+      <c r="H20" s="362"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="362"/>
+      <c r="L20" s="362"/>
+      <c r="M20" s="362"/>
+      <c r="N20" s="362"/>
+      <c r="O20" s="362"/>
+      <c r="P20" s="362"/>
+      <c r="Q20" s="362"/>
+      <c r="R20" s="362"/>
+      <c r="S20" s="362"/>
+      <c r="T20" s="362"/>
+      <c r="U20" s="362"/>
+      <c r="V20" s="362"/>
+      <c r="W20" s="363"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="368">
+      <c r="B21" s="370">
         <v>4</v>
       </c>
-      <c r="C21" s="369"/>
-      <c r="D21" s="359" t="s">
+      <c r="C21" s="371"/>
+      <c r="D21" s="361" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="360"/>
-      <c r="F21" s="360"/>
-      <c r="G21" s="360"/>
-      <c r="H21" s="360"/>
-      <c r="I21" s="360"/>
-      <c r="J21" s="360"/>
-      <c r="K21" s="360"/>
-      <c r="L21" s="360"/>
-      <c r="M21" s="360"/>
-      <c r="N21" s="360"/>
-      <c r="O21" s="360"/>
-      <c r="P21" s="360"/>
-      <c r="Q21" s="360"/>
-      <c r="R21" s="360"/>
-      <c r="S21" s="360"/>
-      <c r="T21" s="360"/>
-      <c r="U21" s="360"/>
-      <c r="V21" s="360"/>
-      <c r="W21" s="361"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="362"/>
+      <c r="G21" s="362"/>
+      <c r="H21" s="362"/>
+      <c r="I21" s="362"/>
+      <c r="J21" s="362"/>
+      <c r="K21" s="362"/>
+      <c r="L21" s="362"/>
+      <c r="M21" s="362"/>
+      <c r="N21" s="362"/>
+      <c r="O21" s="362"/>
+      <c r="P21" s="362"/>
+      <c r="Q21" s="362"/>
+      <c r="R21" s="362"/>
+      <c r="S21" s="362"/>
+      <c r="T21" s="362"/>
+      <c r="U21" s="362"/>
+      <c r="V21" s="362"/>
+      <c r="W21" s="363"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="368">
+      <c r="B22" s="370">
         <v>5</v>
       </c>
-      <c r="C22" s="369"/>
-      <c r="D22" s="359" t="s">
+      <c r="C22" s="371"/>
+      <c r="D22" s="361" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="360"/>
-      <c r="F22" s="360"/>
-      <c r="G22" s="360"/>
-      <c r="H22" s="360"/>
-      <c r="I22" s="360"/>
-      <c r="J22" s="360"/>
-      <c r="K22" s="360"/>
-      <c r="L22" s="360"/>
-      <c r="M22" s="360"/>
-      <c r="N22" s="360"/>
-      <c r="O22" s="360"/>
-      <c r="P22" s="360"/>
-      <c r="Q22" s="360"/>
-      <c r="R22" s="360"/>
-      <c r="S22" s="360"/>
-      <c r="T22" s="360"/>
-      <c r="U22" s="360"/>
-      <c r="V22" s="360"/>
-      <c r="W22" s="361"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="362"/>
+      <c r="H22" s="362"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="362"/>
+      <c r="L22" s="362"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="362"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="362"/>
+      <c r="U22" s="362"/>
+      <c r="V22" s="362"/>
+      <c r="W22" s="363"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17433,6 +17479,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="310">
   <si>
     <t>DAY</t>
   </si>
@@ -994,6 +994,90 @@
   </si>
   <si>
     <t>58 ,194, 146</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Health and Safety</t>
+  </si>
+  <si>
+    <t>Trauma</t>
+  </si>
+  <si>
+    <t>Hose - Day 1</t>
+  </si>
+  <si>
+    <t>Hose - Day 2</t>
+  </si>
+  <si>
+    <t>Hose - Day 3</t>
+  </si>
+  <si>
+    <t>HR Input</t>
+  </si>
+  <si>
+    <t>Ladders</t>
+  </si>
+  <si>
+    <t>Pumps - Day 1</t>
+  </si>
+  <si>
+    <t>Pumps - Day 2</t>
+  </si>
+  <si>
+    <t>Pumps - Day 3</t>
+  </si>
+  <si>
+    <t>BA - Day 1</t>
+  </si>
+  <si>
+    <t>BA - Day 2</t>
+  </si>
+  <si>
+    <t>BA - Day 3</t>
+  </si>
+  <si>
+    <t>BA - Day 4</t>
+  </si>
+  <si>
+    <t>Fire Science</t>
+  </si>
+  <si>
+    <t>BA Search and Rescue</t>
+  </si>
+  <si>
+    <t>BA Exercise</t>
+  </si>
+  <si>
+    <t>BA Board Assessment</t>
+  </si>
+  <si>
+    <t>BA Written Exam</t>
+  </si>
+  <si>
+    <t>RTC - Day 1</t>
+  </si>
+  <si>
+    <t>RTC - Day 2</t>
+  </si>
+  <si>
+    <t>RTC - Day 3</t>
+  </si>
+  <si>
+    <t>Consolidation Training</t>
+  </si>
+  <si>
+    <t>Tech Rope Rescue - Day 1</t>
+  </si>
+  <si>
+    <t>Tech Rope Rescue - Day 2</t>
+  </si>
+  <si>
+    <t>Tech Rope Rescue - Day 3</t>
   </si>
 </sst>
 </file>
@@ -3910,6 +3994,114 @@
     <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -3919,6 +4111,18 @@
     <xf numFmtId="0" fontId="32" fillId="23" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -3964,125 +4168,32 @@
     <xf numFmtId="0" fontId="32" fillId="23" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4093,33 +4204,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4156,68 +4240,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7787,7 +7871,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7847,7 +7931,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7907,7 +7991,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7967,7 +8051,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8027,7 +8111,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8087,7 +8171,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,7 +8231,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8207,7 +8291,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8267,7 +8351,7 @@
         <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8327,7 +8411,7 @@
         <xdr:cNvPr id="30" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8387,7 +8471,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8447,7 +8531,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8507,7 +8591,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14778,7 +14862,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15056,7 +15140,7 @@
       <c r="AZ4" s="235"/>
       <c r="BA4" s="235"/>
     </row>
-    <row r="5" spans="1:55" s="238" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="238" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="236"/>
       <c r="B5" s="236"/>
       <c r="C5" s="230">
@@ -15205,42 +15289,108 @@
       </c>
       <c r="AY5" s="237"/>
     </row>
-    <row r="6" spans="1:55" s="238" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="238" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A6" s="236"/>
       <c r="B6" s="236"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="232"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="232"/>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="232"/>
-      <c r="R6" s="233"/>
-      <c r="S6" s="233"/>
-      <c r="T6" s="233"/>
-      <c r="U6" s="233"/>
-      <c r="V6" s="233"/>
-      <c r="W6" s="232"/>
-      <c r="X6" s="232"/>
-      <c r="Y6" s="232"/>
-      <c r="Z6" s="232"/>
-      <c r="AA6" s="232"/>
-      <c r="AB6" s="233"/>
-      <c r="AC6" s="233"/>
-      <c r="AD6" s="233"/>
-      <c r="AE6" s="233"/>
-      <c r="AF6" s="233"/>
-      <c r="AG6" s="232"/>
-      <c r="AH6" s="232"/>
-      <c r="AI6" s="232"/>
+      <c r="C6" s="232" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="232" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="232" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="232" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="232" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="233" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="233" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" s="233" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="233" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="233" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="232" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="232" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="232" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q6" s="232" t="s">
+        <v>295</v>
+      </c>
+      <c r="R6" s="233" t="s">
+        <v>296</v>
+      </c>
+      <c r="S6" s="233" t="s">
+        <v>297</v>
+      </c>
+      <c r="T6" s="233" t="s">
+        <v>298</v>
+      </c>
+      <c r="U6" s="233" t="s">
+        <v>299</v>
+      </c>
+      <c r="V6" s="233" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="232" t="s">
+        <v>300</v>
+      </c>
+      <c r="X6" s="232" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="232" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z6" s="232" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA6" s="232" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB6" s="233" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC6" s="233" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD6" s="233" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE6" s="233" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF6" s="233" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG6" s="232" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH6" s="232" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI6" s="232" t="s">
+        <v>309</v>
+      </c>
       <c r="AJ6" s="232" t="s">
         <v>240</v>
       </c>
@@ -16935,7 +17085,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="55" fitToWidth="4" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToWidth="4" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17179,8 +17329,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15361" r:id="rId4" name="BtnDBConnect">
+        <control shapeId="15364" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId6" name="BtnDBConnect">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -17199,32 +17374,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15361" r:id="rId4" name="BtnDBConnect"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId6" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15364" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="15361" r:id="rId6" name="BtnDBConnect"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17730,44 +17880,44 @@
       <c r="U2" s="135"/>
       <c r="V2" s="135"/>
       <c r="W2" s="135"/>
-      <c r="X2" s="314" t="s">
+      <c r="X2" s="262" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="314"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="314"/>
-      <c r="AD2" s="314"/>
-      <c r="AE2" s="314"/>
-      <c r="AF2" s="314"/>
-      <c r="AG2" s="314"/>
-      <c r="AH2" s="314"/>
-      <c r="AI2" s="314"/>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="314"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="314"/>
-      <c r="AP2" s="314"/>
-      <c r="AQ2" s="314"/>
-      <c r="AR2" s="314"/>
-      <c r="AS2" s="313" t="str">
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
+      <c r="AC2" s="262"/>
+      <c r="AD2" s="262"/>
+      <c r="AE2" s="262"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="262"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="262"/>
+      <c r="AJ2" s="262"/>
+      <c r="AK2" s="262"/>
+      <c r="AL2" s="262"/>
+      <c r="AM2" s="262"/>
+      <c r="AN2" s="262"/>
+      <c r="AO2" s="262"/>
+      <c r="AP2" s="262"/>
+      <c r="AQ2" s="262"/>
+      <c r="AR2" s="262"/>
+      <c r="AS2" s="261" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v xml:space="preserve">Course No - </v>
       </c>
-      <c r="AT2" s="313"/>
-      <c r="AU2" s="313"/>
-      <c r="AV2" s="313"/>
-      <c r="AW2" s="313"/>
-      <c r="AX2" s="313"/>
-      <c r="AY2" s="313"/>
-      <c r="AZ2" s="313"/>
-      <c r="BA2" s="313"/>
-      <c r="BB2" s="313"/>
-      <c r="BC2" s="313"/>
-      <c r="BD2" s="313"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="261"/>
+      <c r="AV2" s="261"/>
+      <c r="AW2" s="261"/>
+      <c r="AX2" s="261"/>
+      <c r="AY2" s="261"/>
+      <c r="AZ2" s="261"/>
+      <c r="BA2" s="261"/>
+      <c r="BB2" s="261"/>
+      <c r="BC2" s="261"/>
+      <c r="BD2" s="261"/>
       <c r="BE2" s="136"/>
       <c r="BF2" s="136"/>
       <c r="BG2" s="136"/>
@@ -17802,454 +17952,454 @@
       <c r="CJ2" s="136"/>
     </row>
     <row r="3" spans="2:98" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="315" t="s">
+      <c r="B3" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="317">
+      <c r="C3" s="264"/>
+      <c r="D3" s="265">
         <v>3</v>
       </c>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="295">
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="267">
         <v>9</v>
       </c>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="295">
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="267">
         <v>11</v>
       </c>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="317"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="317"/>
-      <c r="T3" s="317"/>
-      <c r="U3" s="317"/>
-      <c r="V3" s="317"/>
-      <c r="W3" s="318"/>
-      <c r="X3" s="295">
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="267">
         <v>17</v>
       </c>
-      <c r="Y3" s="317"/>
-      <c r="Z3" s="317"/>
-      <c r="AA3" s="317"/>
-      <c r="AB3" s="317"/>
-      <c r="AC3" s="317"/>
-      <c r="AD3" s="317"/>
-      <c r="AE3" s="317"/>
-      <c r="AF3" s="317"/>
-      <c r="AG3" s="318"/>
-      <c r="AH3" s="295">
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
+      <c r="AC3" s="265"/>
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="265"/>
+      <c r="AF3" s="265"/>
+      <c r="AG3" s="266"/>
+      <c r="AH3" s="267">
         <v>20</v>
       </c>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="317"/>
-      <c r="AK3" s="317"/>
-      <c r="AL3" s="317"/>
-      <c r="AM3" s="317"/>
-      <c r="AN3" s="317"/>
-      <c r="AO3" s="317"/>
-      <c r="AP3" s="317"/>
-      <c r="AQ3" s="317"/>
-      <c r="AR3" s="317"/>
-      <c r="AS3" s="317"/>
-      <c r="AT3" s="317"/>
-      <c r="AU3" s="317"/>
-      <c r="AV3" s="317"/>
-      <c r="AW3" s="317"/>
-      <c r="AX3" s="317"/>
-      <c r="AY3" s="317"/>
-      <c r="AZ3" s="317"/>
-      <c r="BA3" s="318"/>
-      <c r="BB3" s="295">
+      <c r="AI3" s="265"/>
+      <c r="AJ3" s="265"/>
+      <c r="AK3" s="265"/>
+      <c r="AL3" s="265"/>
+      <c r="AM3" s="265"/>
+      <c r="AN3" s="265"/>
+      <c r="AO3" s="265"/>
+      <c r="AP3" s="265"/>
+      <c r="AQ3" s="265"/>
+      <c r="AR3" s="265"/>
+      <c r="AS3" s="265"/>
+      <c r="AT3" s="265"/>
+      <c r="AU3" s="265"/>
+      <c r="AV3" s="265"/>
+      <c r="AW3" s="265"/>
+      <c r="AX3" s="265"/>
+      <c r="AY3" s="265"/>
+      <c r="AZ3" s="265"/>
+      <c r="BA3" s="266"/>
+      <c r="BB3" s="267">
         <v>27</v>
       </c>
-      <c r="BC3" s="317"/>
-      <c r="BD3" s="317"/>
-      <c r="BE3" s="317"/>
-      <c r="BF3" s="317"/>
-      <c r="BG3" s="317"/>
-      <c r="BH3" s="317"/>
-      <c r="BI3" s="317"/>
-      <c r="BJ3" s="317"/>
-      <c r="BK3" s="318"/>
-      <c r="BL3" s="294">
+      <c r="BC3" s="265"/>
+      <c r="BD3" s="265"/>
+      <c r="BE3" s="265"/>
+      <c r="BF3" s="265"/>
+      <c r="BG3" s="265"/>
+      <c r="BH3" s="265"/>
+      <c r="BI3" s="265"/>
+      <c r="BJ3" s="265"/>
+      <c r="BK3" s="266"/>
+      <c r="BL3" s="268">
         <v>28</v>
       </c>
-      <c r="BM3" s="294"/>
-      <c r="BN3" s="295"/>
-      <c r="BO3" s="295"/>
-      <c r="BP3" s="295"/>
-      <c r="BQ3" s="295"/>
-      <c r="BR3" s="295"/>
-      <c r="BS3" s="295"/>
-      <c r="BT3" s="295"/>
-      <c r="BU3" s="295"/>
-      <c r="BV3" s="295"/>
-      <c r="BW3" s="295"/>
-      <c r="BX3" s="295"/>
-      <c r="BY3" s="295"/>
-      <c r="BZ3" s="295"/>
-      <c r="CA3" s="295"/>
-      <c r="CB3" s="295"/>
-      <c r="CC3" s="295"/>
-      <c r="CD3" s="295"/>
-      <c r="CE3" s="295"/>
-      <c r="CF3" s="270">
+      <c r="BM3" s="268"/>
+      <c r="BN3" s="267"/>
+      <c r="BO3" s="267"/>
+      <c r="BP3" s="267"/>
+      <c r="BQ3" s="267"/>
+      <c r="BR3" s="267"/>
+      <c r="BS3" s="267"/>
+      <c r="BT3" s="267"/>
+      <c r="BU3" s="267"/>
+      <c r="BV3" s="267"/>
+      <c r="BW3" s="267"/>
+      <c r="BX3" s="267"/>
+      <c r="BY3" s="267"/>
+      <c r="BZ3" s="267"/>
+      <c r="CA3" s="267"/>
+      <c r="CB3" s="267"/>
+      <c r="CC3" s="267"/>
+      <c r="CD3" s="267"/>
+      <c r="CE3" s="267"/>
+      <c r="CF3" s="310">
         <v>29</v>
       </c>
-      <c r="CG3" s="271"/>
-      <c r="CH3" s="271"/>
-      <c r="CI3" s="271"/>
-      <c r="CJ3" s="272"/>
+      <c r="CG3" s="311"/>
+      <c r="CH3" s="311"/>
+      <c r="CI3" s="311"/>
+      <c r="CJ3" s="312"/>
       <c r="CK3" s="148"/>
       <c r="CL3" s="141"/>
     </row>
     <row r="4" spans="2:98" s="122" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="269" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="298" t="s">
+      <c r="C4" s="270"/>
+      <c r="D4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301" t="s">
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="304" t="s">
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="305"/>
-      <c r="P4" s="305"/>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="305"/>
-      <c r="S4" s="305"/>
-      <c r="T4" s="305"/>
-      <c r="U4" s="305"/>
-      <c r="V4" s="305"/>
-      <c r="W4" s="306"/>
-      <c r="X4" s="307" t="s">
+      <c r="O4" s="278"/>
+      <c r="P4" s="278"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="278"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="279"/>
+      <c r="X4" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="308"/>
-      <c r="Z4" s="308"/>
-      <c r="AA4" s="308"/>
-      <c r="AB4" s="308"/>
-      <c r="AC4" s="308"/>
-      <c r="AD4" s="308"/>
-      <c r="AE4" s="308"/>
-      <c r="AF4" s="308"/>
-      <c r="AG4" s="309"/>
-      <c r="AH4" s="307" t="s">
+      <c r="Y4" s="281"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="281"/>
+      <c r="AD4" s="281"/>
+      <c r="AE4" s="281"/>
+      <c r="AF4" s="281"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="AI4" s="308"/>
-      <c r="AJ4" s="308"/>
-      <c r="AK4" s="308"/>
-      <c r="AL4" s="308"/>
-      <c r="AM4" s="308"/>
-      <c r="AN4" s="308"/>
-      <c r="AO4" s="308"/>
-      <c r="AP4" s="308"/>
-      <c r="AQ4" s="308"/>
-      <c r="AR4" s="308"/>
-      <c r="AS4" s="308"/>
-      <c r="AT4" s="308"/>
-      <c r="AU4" s="308"/>
-      <c r="AV4" s="308"/>
-      <c r="AW4" s="308"/>
-      <c r="AX4" s="308"/>
-      <c r="AY4" s="308"/>
-      <c r="AZ4" s="308"/>
-      <c r="BA4" s="309"/>
-      <c r="BB4" s="310" t="s">
+      <c r="AI4" s="281"/>
+      <c r="AJ4" s="281"/>
+      <c r="AK4" s="281"/>
+      <c r="AL4" s="281"/>
+      <c r="AM4" s="281"/>
+      <c r="AN4" s="281"/>
+      <c r="AO4" s="281"/>
+      <c r="AP4" s="281"/>
+      <c r="AQ4" s="281"/>
+      <c r="AR4" s="281"/>
+      <c r="AS4" s="281"/>
+      <c r="AT4" s="281"/>
+      <c r="AU4" s="281"/>
+      <c r="AV4" s="281"/>
+      <c r="AW4" s="281"/>
+      <c r="AX4" s="281"/>
+      <c r="AY4" s="281"/>
+      <c r="AZ4" s="281"/>
+      <c r="BA4" s="282"/>
+      <c r="BB4" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="BC4" s="311"/>
-      <c r="BD4" s="311"/>
-      <c r="BE4" s="311"/>
-      <c r="BF4" s="311"/>
-      <c r="BG4" s="311"/>
-      <c r="BH4" s="311"/>
-      <c r="BI4" s="311"/>
-      <c r="BJ4" s="311"/>
-      <c r="BK4" s="312"/>
-      <c r="BL4" s="310" t="s">
+      <c r="BC4" s="284"/>
+      <c r="BD4" s="284"/>
+      <c r="BE4" s="284"/>
+      <c r="BF4" s="284"/>
+      <c r="BG4" s="284"/>
+      <c r="BH4" s="284"/>
+      <c r="BI4" s="284"/>
+      <c r="BJ4" s="284"/>
+      <c r="BK4" s="285"/>
+      <c r="BL4" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="BM4" s="311"/>
-      <c r="BN4" s="311"/>
-      <c r="BO4" s="311"/>
-      <c r="BP4" s="311"/>
-      <c r="BQ4" s="311"/>
-      <c r="BR4" s="311"/>
-      <c r="BS4" s="311"/>
-      <c r="BT4" s="311"/>
-      <c r="BU4" s="311"/>
-      <c r="BV4" s="311"/>
-      <c r="BW4" s="311"/>
-      <c r="BX4" s="311"/>
-      <c r="BY4" s="311"/>
-      <c r="BZ4" s="311"/>
-      <c r="CA4" s="311"/>
-      <c r="CB4" s="311"/>
-      <c r="CC4" s="311"/>
-      <c r="CD4" s="311"/>
-      <c r="CE4" s="312"/>
-      <c r="CF4" s="261" t="s">
+      <c r="BM4" s="284"/>
+      <c r="BN4" s="284"/>
+      <c r="BO4" s="284"/>
+      <c r="BP4" s="284"/>
+      <c r="BQ4" s="284"/>
+      <c r="BR4" s="284"/>
+      <c r="BS4" s="284"/>
+      <c r="BT4" s="284"/>
+      <c r="BU4" s="284"/>
+      <c r="BV4" s="284"/>
+      <c r="BW4" s="284"/>
+      <c r="BX4" s="284"/>
+      <c r="BY4" s="284"/>
+      <c r="BZ4" s="284"/>
+      <c r="CA4" s="284"/>
+      <c r="CB4" s="284"/>
+      <c r="CC4" s="284"/>
+      <c r="CD4" s="284"/>
+      <c r="CE4" s="285"/>
+      <c r="CF4" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="CG4" s="262"/>
-      <c r="CH4" s="262"/>
-      <c r="CI4" s="262"/>
-      <c r="CJ4" s="263"/>
+      <c r="CG4" s="298"/>
+      <c r="CH4" s="298"/>
+      <c r="CI4" s="298"/>
+      <c r="CJ4" s="299"/>
       <c r="CK4" s="149"/>
       <c r="CL4" s="142"/>
     </row>
     <row r="5" spans="2:98" s="122" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="283" t="s">
+      <c r="B5" s="286" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="284"/>
-      <c r="D5" s="285" t="s">
+      <c r="C5" s="287"/>
+      <c r="D5" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="288" t="s">
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="289"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="291" t="s">
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="294" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="293"/>
-      <c r="X5" s="261" t="s">
+      <c r="O5" s="295"/>
+      <c r="P5" s="295"/>
+      <c r="Q5" s="295"/>
+      <c r="R5" s="295"/>
+      <c r="S5" s="295"/>
+      <c r="T5" s="295"/>
+      <c r="U5" s="295"/>
+      <c r="V5" s="295"/>
+      <c r="W5" s="296"/>
+      <c r="X5" s="297" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="262"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="262"/>
-      <c r="AG5" s="263"/>
-      <c r="AH5" s="261" t="s">
+      <c r="Y5" s="298"/>
+      <c r="Z5" s="298"/>
+      <c r="AA5" s="298"/>
+      <c r="AB5" s="298"/>
+      <c r="AC5" s="298"/>
+      <c r="AD5" s="298"/>
+      <c r="AE5" s="298"/>
+      <c r="AF5" s="298"/>
+      <c r="AG5" s="299"/>
+      <c r="AH5" s="297" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" s="262"/>
-      <c r="AJ5" s="262"/>
-      <c r="AK5" s="262"/>
-      <c r="AL5" s="262"/>
-      <c r="AM5" s="262"/>
-      <c r="AN5" s="262"/>
-      <c r="AO5" s="262"/>
-      <c r="AP5" s="262"/>
-      <c r="AQ5" s="262"/>
-      <c r="AR5" s="262"/>
-      <c r="AS5" s="262"/>
-      <c r="AT5" s="262"/>
-      <c r="AU5" s="262"/>
-      <c r="AV5" s="262"/>
-      <c r="AW5" s="262"/>
-      <c r="AX5" s="262"/>
-      <c r="AY5" s="262"/>
-      <c r="AZ5" s="262"/>
-      <c r="BA5" s="263"/>
-      <c r="BB5" s="280" t="s">
+      <c r="AI5" s="298"/>
+      <c r="AJ5" s="298"/>
+      <c r="AK5" s="298"/>
+      <c r="AL5" s="298"/>
+      <c r="AM5" s="298"/>
+      <c r="AN5" s="298"/>
+      <c r="AO5" s="298"/>
+      <c r="AP5" s="298"/>
+      <c r="AQ5" s="298"/>
+      <c r="AR5" s="298"/>
+      <c r="AS5" s="298"/>
+      <c r="AT5" s="298"/>
+      <c r="AU5" s="298"/>
+      <c r="AV5" s="298"/>
+      <c r="AW5" s="298"/>
+      <c r="AX5" s="298"/>
+      <c r="AY5" s="298"/>
+      <c r="AZ5" s="298"/>
+      <c r="BA5" s="299"/>
+      <c r="BB5" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="BC5" s="281"/>
-      <c r="BD5" s="281"/>
-      <c r="BE5" s="281"/>
-      <c r="BF5" s="281"/>
-      <c r="BG5" s="281"/>
-      <c r="BH5" s="281"/>
-      <c r="BI5" s="281"/>
-      <c r="BJ5" s="281"/>
-      <c r="BK5" s="282"/>
-      <c r="BL5" s="280" t="s">
+      <c r="BC5" s="302"/>
+      <c r="BD5" s="302"/>
+      <c r="BE5" s="302"/>
+      <c r="BF5" s="302"/>
+      <c r="BG5" s="302"/>
+      <c r="BH5" s="302"/>
+      <c r="BI5" s="302"/>
+      <c r="BJ5" s="302"/>
+      <c r="BK5" s="303"/>
+      <c r="BL5" s="301" t="s">
         <v>72</v>
       </c>
-      <c r="BM5" s="281"/>
-      <c r="BN5" s="281"/>
-      <c r="BO5" s="281"/>
-      <c r="BP5" s="281"/>
-      <c r="BQ5" s="281"/>
-      <c r="BR5" s="281"/>
-      <c r="BS5" s="281"/>
-      <c r="BT5" s="281"/>
-      <c r="BU5" s="281"/>
-      <c r="BV5" s="281"/>
-      <c r="BW5" s="281"/>
-      <c r="BX5" s="281"/>
-      <c r="BY5" s="281"/>
-      <c r="BZ5" s="281"/>
-      <c r="CA5" s="281"/>
-      <c r="CB5" s="281"/>
-      <c r="CC5" s="281"/>
-      <c r="CD5" s="281"/>
-      <c r="CE5" s="282"/>
-      <c r="CF5" s="264" t="s">
+      <c r="BM5" s="302"/>
+      <c r="BN5" s="302"/>
+      <c r="BO5" s="302"/>
+      <c r="BP5" s="302"/>
+      <c r="BQ5" s="302"/>
+      <c r="BR5" s="302"/>
+      <c r="BS5" s="302"/>
+      <c r="BT5" s="302"/>
+      <c r="BU5" s="302"/>
+      <c r="BV5" s="302"/>
+      <c r="BW5" s="302"/>
+      <c r="BX5" s="302"/>
+      <c r="BY5" s="302"/>
+      <c r="BZ5" s="302"/>
+      <c r="CA5" s="302"/>
+      <c r="CB5" s="302"/>
+      <c r="CC5" s="302"/>
+      <c r="CD5" s="302"/>
+      <c r="CE5" s="303"/>
+      <c r="CF5" s="304" t="s">
         <v>149</v>
       </c>
-      <c r="CG5" s="265"/>
-      <c r="CH5" s="265"/>
-      <c r="CI5" s="265"/>
-      <c r="CJ5" s="266"/>
+      <c r="CG5" s="305"/>
+      <c r="CH5" s="305"/>
+      <c r="CI5" s="305"/>
+      <c r="CJ5" s="306"/>
       <c r="CK5" s="150"/>
       <c r="CL5" s="143"/>
     </row>
     <row r="6" spans="2:98" s="137" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="156"/>
       <c r="C6" s="157"/>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="274" t="s">
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="314" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="275"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="275"/>
-      <c r="M6" s="276"/>
-      <c r="N6" s="277" t="s">
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="316"/>
+      <c r="N6" s="317" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="277"/>
-      <c r="P6" s="277"/>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="277" t="s">
+      <c r="O6" s="317"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="317"/>
+      <c r="R6" s="317"/>
+      <c r="S6" s="317" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="277"/>
-      <c r="U6" s="277"/>
-      <c r="V6" s="277"/>
-      <c r="W6" s="277"/>
-      <c r="X6" s="278" t="s">
+      <c r="T6" s="317"/>
+      <c r="U6" s="317"/>
+      <c r="V6" s="317"/>
+      <c r="W6" s="317"/>
+      <c r="X6" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="278"/>
-      <c r="AA6" s="278"/>
-      <c r="AB6" s="278"/>
-      <c r="AC6" s="278" t="s">
+      <c r="Y6" s="318"/>
+      <c r="Z6" s="318"/>
+      <c r="AA6" s="318"/>
+      <c r="AB6" s="318"/>
+      <c r="AC6" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="AD6" s="278"/>
-      <c r="AE6" s="278"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="278"/>
-      <c r="AH6" s="278" t="s">
+      <c r="AD6" s="318"/>
+      <c r="AE6" s="318"/>
+      <c r="AF6" s="318"/>
+      <c r="AG6" s="318"/>
+      <c r="AH6" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="AI6" s="278"/>
-      <c r="AJ6" s="278"/>
-      <c r="AK6" s="278"/>
-      <c r="AL6" s="278"/>
-      <c r="AM6" s="278" t="s">
+      <c r="AI6" s="318"/>
+      <c r="AJ6" s="318"/>
+      <c r="AK6" s="318"/>
+      <c r="AL6" s="318"/>
+      <c r="AM6" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="AN6" s="278"/>
-      <c r="AO6" s="278"/>
-      <c r="AP6" s="278"/>
-      <c r="AQ6" s="278"/>
-      <c r="AR6" s="278" t="s">
+      <c r="AN6" s="318"/>
+      <c r="AO6" s="318"/>
+      <c r="AP6" s="318"/>
+      <c r="AQ6" s="318"/>
+      <c r="AR6" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="AS6" s="278"/>
-      <c r="AT6" s="278"/>
-      <c r="AU6" s="278"/>
-      <c r="AV6" s="278"/>
-      <c r="AW6" s="278" t="s">
+      <c r="AS6" s="318"/>
+      <c r="AT6" s="318"/>
+      <c r="AU6" s="318"/>
+      <c r="AV6" s="318"/>
+      <c r="AW6" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="AX6" s="278"/>
-      <c r="AY6" s="278"/>
-      <c r="AZ6" s="278"/>
-      <c r="BA6" s="278"/>
-      <c r="BB6" s="279" t="s">
+      <c r="AX6" s="318"/>
+      <c r="AY6" s="318"/>
+      <c r="AZ6" s="318"/>
+      <c r="BA6" s="318"/>
+      <c r="BB6" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="BC6" s="279"/>
-      <c r="BD6" s="279"/>
-      <c r="BE6" s="279"/>
-      <c r="BF6" s="279"/>
-      <c r="BG6" s="279" t="s">
+      <c r="BC6" s="300"/>
+      <c r="BD6" s="300"/>
+      <c r="BE6" s="300"/>
+      <c r="BF6" s="300"/>
+      <c r="BG6" s="300" t="s">
         <v>79</v>
       </c>
-      <c r="BH6" s="279"/>
-      <c r="BI6" s="279"/>
-      <c r="BJ6" s="279"/>
-      <c r="BK6" s="279"/>
-      <c r="BL6" s="279" t="s">
+      <c r="BH6" s="300"/>
+      <c r="BI6" s="300"/>
+      <c r="BJ6" s="300"/>
+      <c r="BK6" s="300"/>
+      <c r="BL6" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="BM6" s="279"/>
-      <c r="BN6" s="279"/>
-      <c r="BO6" s="279"/>
-      <c r="BP6" s="279"/>
-      <c r="BQ6" s="279" t="s">
+      <c r="BM6" s="300"/>
+      <c r="BN6" s="300"/>
+      <c r="BO6" s="300"/>
+      <c r="BP6" s="300"/>
+      <c r="BQ6" s="300" t="s">
         <v>82</v>
       </c>
-      <c r="BR6" s="279"/>
-      <c r="BS6" s="279"/>
-      <c r="BT6" s="279"/>
-      <c r="BU6" s="279"/>
-      <c r="BV6" s="279" t="s">
+      <c r="BR6" s="300"/>
+      <c r="BS6" s="300"/>
+      <c r="BT6" s="300"/>
+      <c r="BU6" s="300"/>
+      <c r="BV6" s="300" t="s">
         <v>119</v>
       </c>
-      <c r="BW6" s="279"/>
-      <c r="BX6" s="279"/>
-      <c r="BY6" s="279"/>
-      <c r="BZ6" s="279"/>
-      <c r="CA6" s="279" t="s">
+      <c r="BW6" s="300"/>
+      <c r="BX6" s="300"/>
+      <c r="BY6" s="300"/>
+      <c r="BZ6" s="300"/>
+      <c r="CA6" s="300" t="s">
         <v>79</v>
       </c>
-      <c r="CB6" s="279"/>
-      <c r="CC6" s="279"/>
-      <c r="CD6" s="279"/>
-      <c r="CE6" s="279"/>
-      <c r="CF6" s="267" t="s">
+      <c r="CB6" s="300"/>
+      <c r="CC6" s="300"/>
+      <c r="CD6" s="300"/>
+      <c r="CE6" s="300"/>
+      <c r="CF6" s="307" t="s">
         <v>78</v>
       </c>
-      <c r="CG6" s="268"/>
-      <c r="CH6" s="268"/>
-      <c r="CI6" s="268"/>
-      <c r="CJ6" s="269"/>
+      <c r="CG6" s="308"/>
+      <c r="CH6" s="308"/>
+      <c r="CI6" s="308"/>
+      <c r="CJ6" s="309"/>
       <c r="CK6" s="158" t="s">
         <v>77</v>
       </c>
@@ -21484,36 +21634,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="46">
-    <mergeCell ref="AS2:BD2"/>
-    <mergeCell ref="X2:AR2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:W3"/>
-    <mergeCell ref="X3:AG3"/>
-    <mergeCell ref="AH3:BA3"/>
-    <mergeCell ref="BB3:BK3"/>
-    <mergeCell ref="BL3:CE3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="X4:AG4"/>
-    <mergeCell ref="AH4:BA4"/>
-    <mergeCell ref="BB4:BK4"/>
-    <mergeCell ref="BL4:CE4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:AG5"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BB5:BK5"/>
-    <mergeCell ref="BL5:CE5"/>
-    <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="CF4:CJ4"/>
     <mergeCell ref="CF5:CJ5"/>
     <mergeCell ref="CF6:CJ6"/>
@@ -21530,6 +21650,36 @@
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="AR6:AV6"/>
     <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BB5:BK5"/>
+    <mergeCell ref="BL5:CE5"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:AG5"/>
+    <mergeCell ref="BL3:CE3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="X4:AG4"/>
+    <mergeCell ref="AH4:BA4"/>
+    <mergeCell ref="BB4:BK4"/>
+    <mergeCell ref="BL4:CE4"/>
+    <mergeCell ref="AS2:BD2"/>
+    <mergeCell ref="X2:AR2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="X3:AG3"/>
+    <mergeCell ref="AH3:BA3"/>
+    <mergeCell ref="BB3:BK3"/>
   </mergeCells>
   <conditionalFormatting sqref="CK35">
     <cfRule type="top10" dxfId="40" priority="38" percent="1" bottom="1" rank="10"/>
@@ -21649,8 +21799,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -21669,32 +21844,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22318,14 +22468,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="319" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="324"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="321"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22370,14 +22520,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="319" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="324"/>
+      <c r="B7" s="320"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="321"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22390,11 +22540,11 @@
       <c r="C8" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="325" t="s">
+      <c r="D8" s="322" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="326"/>
-      <c r="F8" s="327"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -22418,27 +22568,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="322" t="s">
+      <c r="A11" s="319" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="324"/>
+      <c r="B11" s="320"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="321"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="328" t="s">
+      <c r="B12" s="325" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="330"/>
+      <c r="C12" s="326"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="326"/>
+      <c r="F12" s="327"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -22454,25 +22604,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="319" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="323"/>
-      <c r="C15" s="323"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="324"/>
+      <c r="B15" s="320"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="321"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="319"/>
-      <c r="C16" s="320"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="321"/>
+      <c r="B16" s="328"/>
+      <c r="C16" s="329"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="329"/>
+      <c r="F16" s="330"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -22488,25 +22638,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="322" t="s">
+      <c r="A19" s="319" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="323"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="323"/>
-      <c r="E19" s="323"/>
-      <c r="F19" s="324"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="320"/>
+      <c r="F19" s="321"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="319"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="321"/>
+      <c r="B20" s="328"/>
+      <c r="C20" s="329"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="330"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -22522,25 +22672,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="322" t="s">
+      <c r="A23" s="319" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="323"/>
-      <c r="C23" s="323"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="323"/>
-      <c r="F23" s="324"/>
+      <c r="B23" s="320"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="320"/>
+      <c r="F23" s="321"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="319"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="321"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="330"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -22556,27 +22706,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="322" t="s">
+      <c r="A27" s="319" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="323"/>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="323"/>
-      <c r="F27" s="324"/>
+      <c r="B27" s="320"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="320"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="321"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="328" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="321"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="330"/>
       <c r="H28" s="74" t="s">
         <v>238</v>
       </c>
@@ -22592,12 +22742,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -22605,6 +22749,12 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -22807,30 +22957,30 @@
         <v>120</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="344">
+      <c r="E3" s="355">
         <v>5665</v>
       </c>
-      <c r="F3" s="344"/>
+      <c r="F3" s="355"/>
       <c r="G3" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="344" t="s">
+      <c r="I3" s="355" t="s">
         <v>236</v>
       </c>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
       <c r="N3" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="344" t="s">
+      <c r="P3" s="355" t="s">
         <v>170</v>
       </c>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="344"/>
-      <c r="S3" s="344"/>
-      <c r="T3" s="344"/>
+      <c r="Q3" s="355"/>
+      <c r="R3" s="355"/>
+      <c r="S3" s="355"/>
+      <c r="T3" s="355"/>
       <c r="V3" s="96" t="s">
         <v>109</v>
       </c>
@@ -22841,10 +22991,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="343" t="s">
+      <c r="AF3" s="354" t="s">
         <v>234</v>
       </c>
-      <c r="AG3" s="343"/>
+      <c r="AG3" s="354"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -23437,148 +23587,153 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="348" t="s">
+      <c r="B18" s="346" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="349"/>
-      <c r="D18" s="345" t="s">
+      <c r="C18" s="347"/>
+      <c r="D18" s="343" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="346"/>
-      <c r="F18" s="346"/>
-      <c r="G18" s="346"/>
-      <c r="H18" s="346"/>
-      <c r="I18" s="346"/>
-      <c r="J18" s="346"/>
-      <c r="K18" s="346"/>
-      <c r="L18" s="346"/>
-      <c r="M18" s="346"/>
-      <c r="N18" s="346"/>
-      <c r="O18" s="346"/>
-      <c r="P18" s="346"/>
-      <c r="Q18" s="346"/>
-      <c r="R18" s="346"/>
-      <c r="S18" s="346"/>
-      <c r="T18" s="346"/>
-      <c r="U18" s="346"/>
-      <c r="V18" s="346"/>
-      <c r="W18" s="347"/>
+      <c r="E18" s="344"/>
+      <c r="F18" s="344"/>
+      <c r="G18" s="344"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="344"/>
+      <c r="K18" s="344"/>
+      <c r="L18" s="344"/>
+      <c r="M18" s="344"/>
+      <c r="N18" s="344"/>
+      <c r="O18" s="344"/>
+      <c r="P18" s="344"/>
+      <c r="Q18" s="344"/>
+      <c r="R18" s="344"/>
+      <c r="S18" s="344"/>
+      <c r="T18" s="344"/>
+      <c r="U18" s="344"/>
+      <c r="V18" s="344"/>
+      <c r="W18" s="345"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="350">
+      <c r="B19" s="348">
         <v>2</v>
       </c>
-      <c r="C19" s="351"/>
-      <c r="D19" s="345" t="s">
+      <c r="C19" s="349"/>
+      <c r="D19" s="343" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="346"/>
-      <c r="F19" s="346"/>
-      <c r="G19" s="346"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="346"/>
-      <c r="J19" s="346"/>
-      <c r="K19" s="346"/>
-      <c r="L19" s="346"/>
-      <c r="M19" s="346"/>
-      <c r="N19" s="346"/>
-      <c r="O19" s="346"/>
-      <c r="P19" s="346"/>
-      <c r="Q19" s="346"/>
-      <c r="R19" s="346"/>
-      <c r="S19" s="346"/>
-      <c r="T19" s="346"/>
-      <c r="U19" s="346"/>
-      <c r="V19" s="346"/>
-      <c r="W19" s="347"/>
+      <c r="E19" s="344"/>
+      <c r="F19" s="344"/>
+      <c r="G19" s="344"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="344"/>
+      <c r="J19" s="344"/>
+      <c r="K19" s="344"/>
+      <c r="L19" s="344"/>
+      <c r="M19" s="344"/>
+      <c r="N19" s="344"/>
+      <c r="O19" s="344"/>
+      <c r="P19" s="344"/>
+      <c r="Q19" s="344"/>
+      <c r="R19" s="344"/>
+      <c r="S19" s="344"/>
+      <c r="T19" s="344"/>
+      <c r="U19" s="344"/>
+      <c r="V19" s="344"/>
+      <c r="W19" s="345"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="352">
+      <c r="B20" s="350">
         <v>3</v>
       </c>
-      <c r="C20" s="353"/>
-      <c r="D20" s="345" t="s">
+      <c r="C20" s="351"/>
+      <c r="D20" s="343" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="346"/>
-      <c r="F20" s="346"/>
-      <c r="G20" s="346"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="346"/>
-      <c r="J20" s="346"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
-      <c r="P20" s="346"/>
-      <c r="Q20" s="346"/>
-      <c r="R20" s="346"/>
-      <c r="S20" s="346"/>
-      <c r="T20" s="346"/>
-      <c r="U20" s="346"/>
-      <c r="V20" s="346"/>
-      <c r="W20" s="347"/>
+      <c r="E20" s="344"/>
+      <c r="F20" s="344"/>
+      <c r="G20" s="344"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="344"/>
+      <c r="K20" s="344"/>
+      <c r="L20" s="344"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="344"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="344"/>
+      <c r="S20" s="344"/>
+      <c r="T20" s="344"/>
+      <c r="U20" s="344"/>
+      <c r="V20" s="344"/>
+      <c r="W20" s="345"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="354">
+      <c r="B21" s="352">
         <v>4</v>
       </c>
-      <c r="C21" s="355"/>
-      <c r="D21" s="345" t="s">
+      <c r="C21" s="353"/>
+      <c r="D21" s="343" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="346"/>
-      <c r="F21" s="346"/>
-      <c r="G21" s="346"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="346"/>
-      <c r="J21" s="346"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="346"/>
-      <c r="M21" s="346"/>
-      <c r="N21" s="346"/>
-      <c r="O21" s="346"/>
-      <c r="P21" s="346"/>
-      <c r="Q21" s="346"/>
-      <c r="R21" s="346"/>
-      <c r="S21" s="346"/>
-      <c r="T21" s="346"/>
-      <c r="U21" s="346"/>
-      <c r="V21" s="346"/>
-      <c r="W21" s="347"/>
+      <c r="E21" s="344"/>
+      <c r="F21" s="344"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
+      <c r="J21" s="344"/>
+      <c r="K21" s="344"/>
+      <c r="L21" s="344"/>
+      <c r="M21" s="344"/>
+      <c r="N21" s="344"/>
+      <c r="O21" s="344"/>
+      <c r="P21" s="344"/>
+      <c r="Q21" s="344"/>
+      <c r="R21" s="344"/>
+      <c r="S21" s="344"/>
+      <c r="T21" s="344"/>
+      <c r="U21" s="344"/>
+      <c r="V21" s="344"/>
+      <c r="W21" s="345"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="354">
+      <c r="B22" s="352">
         <v>5</v>
       </c>
-      <c r="C22" s="355"/>
-      <c r="D22" s="345" t="s">
+      <c r="C22" s="353"/>
+      <c r="D22" s="343" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="346"/>
-      <c r="F22" s="346"/>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
-      <c r="I22" s="346"/>
-      <c r="J22" s="346"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="346"/>
-      <c r="O22" s="346"/>
-      <c r="P22" s="346"/>
-      <c r="Q22" s="346"/>
-      <c r="R22" s="346"/>
-      <c r="S22" s="346"/>
-      <c r="T22" s="346"/>
-      <c r="U22" s="346"/>
-      <c r="V22" s="346"/>
-      <c r="W22" s="347"/>
+      <c r="E22" s="344"/>
+      <c r="F22" s="344"/>
+      <c r="G22" s="344"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="344"/>
+      <c r="K22" s="344"/>
+      <c r="L22" s="344"/>
+      <c r="M22" s="344"/>
+      <c r="N22" s="344"/>
+      <c r="O22" s="344"/>
+      <c r="P22" s="344"/>
+      <c r="Q22" s="344"/>
+      <c r="R22" s="344"/>
+      <c r="S22" s="344"/>
+      <c r="T22" s="344"/>
+      <c r="U22" s="344"/>
+      <c r="V22" s="344"/>
+      <c r="W22" s="345"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -23588,11 +23743,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -23927,30 +24077,30 @@
       <c r="C4" s="190">
         <v>9</v>
       </c>
-      <c r="D4" s="357">
+      <c r="D4" s="363">
         <v>11</v>
       </c>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357">
+      <c r="E4" s="363"/>
+      <c r="F4" s="363">
         <v>17</v>
       </c>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357">
+      <c r="G4" s="363"/>
+      <c r="H4" s="363">
         <v>20</v>
       </c>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363">
         <v>27</v>
       </c>
-      <c r="M4" s="357"/>
-      <c r="N4" s="357">
+      <c r="M4" s="363"/>
+      <c r="N4" s="363">
         <v>28</v>
       </c>
-      <c r="O4" s="357"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="357"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="363"/>
       <c r="R4" s="190">
         <v>29</v>
       </c>
@@ -23964,30 +24114,30 @@
       <c r="C5" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="363" t="s">
+      <c r="D5" s="362" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="363"/>
-      <c r="F5" s="358" t="s">
+      <c r="E5" s="362"/>
+      <c r="F5" s="357" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358" t="s">
+      <c r="G5" s="357"/>
+      <c r="H5" s="357" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="359" t="s">
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
+      <c r="K5" s="357"/>
+      <c r="L5" s="358" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359" t="s">
+      <c r="M5" s="358"/>
+      <c r="N5" s="358" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
+      <c r="O5" s="358"/>
+      <c r="P5" s="358"/>
+      <c r="Q5" s="358"/>
       <c r="R5" s="186" t="s">
         <v>17</v>
       </c>
@@ -24001,30 +24151,30 @@
       <c r="C6" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="360" t="s">
+      <c r="D6" s="359" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="360"/>
-      <c r="F6" s="361" t="s">
+      <c r="E6" s="359"/>
+      <c r="F6" s="360" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="361"/>
-      <c r="H6" s="361" t="s">
+      <c r="G6" s="360"/>
+      <c r="H6" s="360" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="361"/>
-      <c r="J6" s="361"/>
-      <c r="K6" s="361"/>
-      <c r="L6" s="362" t="s">
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="361" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="362"/>
-      <c r="N6" s="362" t="s">
+      <c r="M6" s="361"/>
+      <c r="N6" s="361" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="362"/>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="362"/>
+      <c r="O6" s="361"/>
+      <c r="P6" s="361"/>
+      <c r="Q6" s="361"/>
       <c r="R6" s="189" t="s">
         <v>149</v>
       </c>
@@ -24266,6 +24416,11 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -24276,11 +24431,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Logs" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="393">
   <si>
     <t>DAY</t>
   </si>
@@ -1288,6 +1288,12 @@
   </si>
   <si>
     <t>Jeff Bloom</t>
+  </si>
+  <si>
+    <t>5696</t>
+  </si>
+  <si>
+    <t>John Ashby</t>
   </si>
 </sst>
 </file>
@@ -3566,7 +3572,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
@@ -4425,6 +4431,123 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="31" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4434,161 +4557,17 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4617,15 +4596,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4662,6 +4632,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4695,15 +4671,12 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4722,8 +4695,95 @@
     <xf numFmtId="0" fontId="31" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5948,14 +6008,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCAE2BC"/>
       <color rgb="FFEFEAD1"/>
-      <color rgb="FFCAE2BC"/>
+      <color rgb="FFCB99B2"/>
+      <color rgb="FFD4C685"/>
       <color rgb="FF727571"/>
       <color rgb="FFAED9E0"/>
-      <color rgb="FFD4C685"/>
       <color rgb="FFB0B4B2"/>
       <color rgb="FFEAD7D1"/>
-      <color rgb="FFCB99B2"/>
       <color rgb="FF484A47"/>
       <color rgb="FFFBFEFB"/>
     </mruColors>
@@ -7788,8 +7848,8 @@
   </sheetPr>
   <dimension ref="A1:AY52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9998,27 +10058,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10048,27 +10108,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10193,30 +10253,30 @@
       <c r="C4" s="213">
         <v>9</v>
       </c>
-      <c r="D4" s="383">
+      <c r="D4" s="365">
         <v>11</v>
       </c>
-      <c r="E4" s="383"/>
-      <c r="F4" s="383">
+      <c r="E4" s="365"/>
+      <c r="F4" s="365">
         <v>17</v>
       </c>
-      <c r="G4" s="383"/>
-      <c r="H4" s="383">
+      <c r="G4" s="365"/>
+      <c r="H4" s="365">
         <v>20</v>
       </c>
-      <c r="I4" s="383"/>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383"/>
-      <c r="L4" s="383">
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="365"/>
+      <c r="L4" s="365">
         <v>27</v>
       </c>
-      <c r="M4" s="383"/>
-      <c r="N4" s="383">
+      <c r="M4" s="365"/>
+      <c r="N4" s="365">
         <v>28</v>
       </c>
-      <c r="O4" s="383"/>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="383"/>
+      <c r="O4" s="365"/>
+      <c r="P4" s="365"/>
+      <c r="Q4" s="365"/>
       <c r="R4" s="213">
         <v>29</v>
       </c>
@@ -10230,30 +10290,30 @@
       <c r="C5" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="382" t="s">
+      <c r="D5" s="371" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="382"/>
-      <c r="F5" s="377" t="s">
+      <c r="E5" s="371"/>
+      <c r="F5" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377" t="s">
+      <c r="G5" s="366"/>
+      <c r="H5" s="366" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377"/>
-      <c r="L5" s="378" t="s">
+      <c r="I5" s="366"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="366"/>
+      <c r="L5" s="367" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="378"/>
-      <c r="N5" s="378" t="s">
+      <c r="M5" s="367"/>
+      <c r="N5" s="367" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="378"/>
-      <c r="P5" s="378"/>
-      <c r="Q5" s="378"/>
+      <c r="O5" s="367"/>
+      <c r="P5" s="367"/>
+      <c r="Q5" s="367"/>
       <c r="R5" s="209" t="s">
         <v>17</v>
       </c>
@@ -10267,30 +10327,30 @@
       <c r="C6" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="379" t="s">
+      <c r="D6" s="368" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="379"/>
-      <c r="F6" s="380" t="s">
+      <c r="E6" s="368"/>
+      <c r="F6" s="369" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380" t="s">
+      <c r="G6" s="369"/>
+      <c r="H6" s="369" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="381" t="s">
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="370" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="381"/>
-      <c r="N6" s="381" t="s">
+      <c r="M6" s="370"/>
+      <c r="N6" s="370" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="381"/>
-      <c r="P6" s="381"/>
-      <c r="Q6" s="381"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="370"/>
       <c r="R6" s="212" t="s">
         <v>227</v>
       </c>
@@ -10532,11 +10592,6 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -10547,6 +10602,11 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
@@ -10651,11 +10711,11 @@
   </sheetPr>
   <dimension ref="A1:EJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:DA35"/>
+      <selection pane="bottomRight" activeCell="BM11" sqref="BM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10818,41 +10878,41 @@
       <c r="AU2" s="281"/>
       <c r="AV2" s="281"/>
       <c r="AW2" s="281"/>
-      <c r="AX2" s="284" t="str">
+      <c r="AX2" s="323" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2018</v>
       </c>
-      <c r="AY2" s="284"/>
-      <c r="AZ2" s="284"/>
-      <c r="BA2" s="284"/>
-      <c r="BB2" s="284"/>
-      <c r="BC2" s="284"/>
-      <c r="BD2" s="284"/>
-      <c r="BE2" s="284"/>
-      <c r="BF2" s="284"/>
-      <c r="BG2" s="284"/>
-      <c r="BH2" s="284"/>
-      <c r="BI2" s="284"/>
-      <c r="BJ2" s="284"/>
-      <c r="BK2" s="284"/>
-      <c r="BL2" s="284"/>
-      <c r="BM2" s="284"/>
-      <c r="BN2" s="284"/>
-      <c r="BO2" s="284"/>
-      <c r="BP2" s="284"/>
-      <c r="BQ2" s="284"/>
-      <c r="BR2" s="284"/>
-      <c r="BS2" s="284"/>
-      <c r="BT2" s="284"/>
-      <c r="BU2" s="284"/>
-      <c r="BV2" s="284"/>
-      <c r="BW2" s="284"/>
-      <c r="BX2" s="284"/>
-      <c r="BY2" s="284"/>
-      <c r="BZ2" s="284"/>
-      <c r="CA2" s="284"/>
-      <c r="CB2" s="284"/>
-      <c r="CC2" s="284"/>
+      <c r="AY2" s="323"/>
+      <c r="AZ2" s="323"/>
+      <c r="BA2" s="323"/>
+      <c r="BB2" s="323"/>
+      <c r="BC2" s="323"/>
+      <c r="BD2" s="323"/>
+      <c r="BE2" s="323"/>
+      <c r="BF2" s="323"/>
+      <c r="BG2" s="323"/>
+      <c r="BH2" s="323"/>
+      <c r="BI2" s="323"/>
+      <c r="BJ2" s="323"/>
+      <c r="BK2" s="323"/>
+      <c r="BL2" s="323"/>
+      <c r="BM2" s="323"/>
+      <c r="BN2" s="323"/>
+      <c r="BO2" s="323"/>
+      <c r="BP2" s="323"/>
+      <c r="BQ2" s="323"/>
+      <c r="BR2" s="323"/>
+      <c r="BS2" s="323"/>
+      <c r="BT2" s="323"/>
+      <c r="BU2" s="323"/>
+      <c r="BV2" s="323"/>
+      <c r="BW2" s="323"/>
+      <c r="BX2" s="323"/>
+      <c r="BY2" s="323"/>
+      <c r="BZ2" s="323"/>
+      <c r="CA2" s="323"/>
+      <c r="CB2" s="323"/>
+      <c r="CC2" s="323"/>
       <c r="CD2" s="170"/>
       <c r="CE2" s="170"/>
       <c r="CF2" s="170"/>
@@ -10886,18 +10946,18 @@
       <c r="DH2" s="170"/>
     </row>
     <row r="3" spans="2:113" s="129" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="324" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="286"/>
+      <c r="C3" s="325"/>
       <c r="D3" s="287">
         <v>3</v>
       </c>
       <c r="E3" s="287"/>
       <c r="F3" s="287"/>
       <c r="G3" s="287"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="289">
+      <c r="H3" s="326"/>
+      <c r="I3" s="311">
         <v>10</v>
       </c>
       <c r="J3" s="287"/>
@@ -10908,8 +10968,8 @@
       <c r="O3" s="287"/>
       <c r="P3" s="287"/>
       <c r="Q3" s="287"/>
-      <c r="R3" s="288"/>
-      <c r="S3" s="289">
+      <c r="R3" s="326"/>
+      <c r="S3" s="311">
         <v>13</v>
       </c>
       <c r="T3" s="287"/>
@@ -10920,8 +10980,8 @@
       <c r="Y3" s="287"/>
       <c r="Z3" s="287"/>
       <c r="AA3" s="287"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="289">
+      <c r="AB3" s="326"/>
+      <c r="AC3" s="311">
         <v>24</v>
       </c>
       <c r="AD3" s="287"/>
@@ -10942,8 +11002,8 @@
       <c r="AS3" s="287"/>
       <c r="AT3" s="287"/>
       <c r="AU3" s="287"/>
-      <c r="AV3" s="288"/>
-      <c r="AW3" s="289">
+      <c r="AV3" s="326"/>
+      <c r="AW3" s="311">
         <v>30</v>
       </c>
       <c r="AX3" s="287"/>
@@ -10954,43 +11014,43 @@
       <c r="BC3" s="287"/>
       <c r="BD3" s="287"/>
       <c r="BE3" s="287"/>
-      <c r="BF3" s="288"/>
-      <c r="BG3" s="290">
+      <c r="BF3" s="326"/>
+      <c r="BG3" s="310">
         <v>34</v>
       </c>
-      <c r="BH3" s="290"/>
-      <c r="BI3" s="289"/>
-      <c r="BJ3" s="289"/>
-      <c r="BK3" s="289"/>
-      <c r="BL3" s="289"/>
-      <c r="BM3" s="289"/>
-      <c r="BN3" s="289"/>
-      <c r="BO3" s="289"/>
-      <c r="BP3" s="289"/>
-      <c r="BQ3" s="290">
+      <c r="BH3" s="310"/>
+      <c r="BI3" s="311"/>
+      <c r="BJ3" s="311"/>
+      <c r="BK3" s="311"/>
+      <c r="BL3" s="311"/>
+      <c r="BM3" s="311"/>
+      <c r="BN3" s="311"/>
+      <c r="BO3" s="311"/>
+      <c r="BP3" s="311"/>
+      <c r="BQ3" s="310">
         <v>40</v>
       </c>
-      <c r="BR3" s="290"/>
-      <c r="BS3" s="289"/>
-      <c r="BT3" s="289"/>
-      <c r="BU3" s="289"/>
-      <c r="BV3" s="289"/>
-      <c r="BW3" s="289"/>
-      <c r="BX3" s="289"/>
-      <c r="BY3" s="289"/>
-      <c r="BZ3" s="289"/>
-      <c r="CA3" s="290">
+      <c r="BR3" s="310"/>
+      <c r="BS3" s="311"/>
+      <c r="BT3" s="311"/>
+      <c r="BU3" s="311"/>
+      <c r="BV3" s="311"/>
+      <c r="BW3" s="311"/>
+      <c r="BX3" s="311"/>
+      <c r="BY3" s="311"/>
+      <c r="BZ3" s="311"/>
+      <c r="CA3" s="310">
         <v>43</v>
       </c>
-      <c r="CB3" s="290"/>
-      <c r="CC3" s="289"/>
-      <c r="CD3" s="289"/>
-      <c r="CE3" s="289"/>
-      <c r="CF3" s="289"/>
-      <c r="CG3" s="289"/>
-      <c r="CH3" s="289"/>
-      <c r="CI3" s="289"/>
-      <c r="CJ3" s="290"/>
+      <c r="CB3" s="310"/>
+      <c r="CC3" s="311"/>
+      <c r="CD3" s="311"/>
+      <c r="CE3" s="311"/>
+      <c r="CF3" s="311"/>
+      <c r="CG3" s="311"/>
+      <c r="CH3" s="311"/>
+      <c r="CI3" s="311"/>
+      <c r="CJ3" s="310"/>
       <c r="CK3" s="287">
         <v>46</v>
       </c>
@@ -11007,403 +11067,403 @@
       <c r="CV3" s="287"/>
       <c r="CW3" s="287"/>
       <c r="CX3" s="287"/>
-      <c r="CY3" s="338"/>
+      <c r="CY3" s="288"/>
       <c r="CZ3" s="251"/>
       <c r="DA3" s="252"/>
     </row>
     <row r="4" spans="2:113" s="242" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="291"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="293">
+      <c r="B4" s="312"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="314">
         <v>43107</v>
       </c>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="295"/>
-      <c r="I4" s="305">
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="378">
         <v>43118</v>
       </c>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="296">
+      <c r="J4" s="379"/>
+      <c r="K4" s="379"/>
+      <c r="L4" s="379"/>
+      <c r="M4" s="379"/>
+      <c r="N4" s="379"/>
+      <c r="O4" s="379"/>
+      <c r="P4" s="379"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="380"/>
+      <c r="S4" s="317">
         <v>43125</v>
       </c>
-      <c r="T4" s="297"/>
-      <c r="U4" s="297"/>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="299">
+      <c r="T4" s="318"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="318"/>
+      <c r="X4" s="318"/>
+      <c r="Y4" s="318"/>
+      <c r="Z4" s="318"/>
+      <c r="AA4" s="318"/>
+      <c r="AB4" s="319"/>
+      <c r="AC4" s="284">
         <v>43144</v>
       </c>
-      <c r="AD4" s="300"/>
-      <c r="AE4" s="300"/>
-      <c r="AF4" s="300"/>
-      <c r="AG4" s="300"/>
-      <c r="AH4" s="300"/>
-      <c r="AI4" s="300"/>
-      <c r="AJ4" s="300"/>
-      <c r="AK4" s="300"/>
-      <c r="AL4" s="300"/>
-      <c r="AM4" s="300"/>
-      <c r="AN4" s="300"/>
-      <c r="AO4" s="300"/>
-      <c r="AP4" s="300"/>
-      <c r="AQ4" s="300"/>
-      <c r="AR4" s="300"/>
-      <c r="AS4" s="300"/>
-      <c r="AT4" s="300"/>
-      <c r="AU4" s="300"/>
-      <c r="AV4" s="301"/>
-      <c r="AW4" s="302">
+      <c r="AD4" s="285"/>
+      <c r="AE4" s="285"/>
+      <c r="AF4" s="285"/>
+      <c r="AG4" s="285"/>
+      <c r="AH4" s="285"/>
+      <c r="AI4" s="285"/>
+      <c r="AJ4" s="285"/>
+      <c r="AK4" s="285"/>
+      <c r="AL4" s="285"/>
+      <c r="AM4" s="285"/>
+      <c r="AN4" s="285"/>
+      <c r="AO4" s="285"/>
+      <c r="AP4" s="285"/>
+      <c r="AQ4" s="285"/>
+      <c r="AR4" s="285"/>
+      <c r="AS4" s="285"/>
+      <c r="AT4" s="285"/>
+      <c r="AU4" s="285"/>
+      <c r="AV4" s="286"/>
+      <c r="AW4" s="372">
         <v>43154</v>
       </c>
-      <c r="AX4" s="303"/>
-      <c r="AY4" s="303"/>
-      <c r="AZ4" s="303"/>
-      <c r="BA4" s="303"/>
-      <c r="BB4" s="303"/>
-      <c r="BC4" s="303"/>
-      <c r="BD4" s="303"/>
-      <c r="BE4" s="303"/>
-      <c r="BF4" s="304"/>
-      <c r="BG4" s="302">
+      <c r="AX4" s="373"/>
+      <c r="AY4" s="373"/>
+      <c r="AZ4" s="373"/>
+      <c r="BA4" s="373"/>
+      <c r="BB4" s="373"/>
+      <c r="BC4" s="373"/>
+      <c r="BD4" s="373"/>
+      <c r="BE4" s="373"/>
+      <c r="BF4" s="374"/>
+      <c r="BG4" s="307">
         <v>43162</v>
       </c>
-      <c r="BH4" s="303"/>
-      <c r="BI4" s="303"/>
-      <c r="BJ4" s="303"/>
-      <c r="BK4" s="303"/>
-      <c r="BL4" s="303"/>
-      <c r="BM4" s="303"/>
-      <c r="BN4" s="303"/>
-      <c r="BO4" s="303"/>
-      <c r="BP4" s="304"/>
-      <c r="BQ4" s="302">
+      <c r="BH4" s="308"/>
+      <c r="BI4" s="308"/>
+      <c r="BJ4" s="308"/>
+      <c r="BK4" s="308"/>
+      <c r="BL4" s="308"/>
+      <c r="BM4" s="308"/>
+      <c r="BN4" s="308"/>
+      <c r="BO4" s="308"/>
+      <c r="BP4" s="309"/>
+      <c r="BQ4" s="320">
         <v>43172</v>
       </c>
-      <c r="BR4" s="303"/>
-      <c r="BS4" s="303"/>
-      <c r="BT4" s="303"/>
-      <c r="BU4" s="303"/>
-      <c r="BV4" s="303"/>
-      <c r="BW4" s="303"/>
-      <c r="BX4" s="303"/>
-      <c r="BY4" s="303"/>
-      <c r="BZ4" s="304"/>
-      <c r="CA4" s="302">
+      <c r="BR4" s="321"/>
+      <c r="BS4" s="321"/>
+      <c r="BT4" s="321"/>
+      <c r="BU4" s="321"/>
+      <c r="BV4" s="321"/>
+      <c r="BW4" s="321"/>
+      <c r="BX4" s="321"/>
+      <c r="BY4" s="321"/>
+      <c r="BZ4" s="322"/>
+      <c r="CA4" s="378">
         <v>43179</v>
       </c>
-      <c r="CB4" s="303"/>
-      <c r="CC4" s="303"/>
-      <c r="CD4" s="303"/>
-      <c r="CE4" s="303"/>
-      <c r="CF4" s="303"/>
-      <c r="CG4" s="303"/>
-      <c r="CH4" s="303"/>
-      <c r="CI4" s="303"/>
-      <c r="CJ4" s="304"/>
-      <c r="CK4" s="299">
+      <c r="CB4" s="379"/>
+      <c r="CC4" s="379"/>
+      <c r="CD4" s="379"/>
+      <c r="CE4" s="379"/>
+      <c r="CF4" s="379"/>
+      <c r="CG4" s="379"/>
+      <c r="CH4" s="379"/>
+      <c r="CI4" s="379"/>
+      <c r="CJ4" s="380"/>
+      <c r="CK4" s="314">
         <v>43181</v>
       </c>
-      <c r="CL4" s="300"/>
-      <c r="CM4" s="300"/>
-      <c r="CN4" s="300"/>
-      <c r="CO4" s="300"/>
-      <c r="CP4" s="300"/>
-      <c r="CQ4" s="300"/>
-      <c r="CR4" s="300"/>
-      <c r="CS4" s="300"/>
-      <c r="CT4" s="300"/>
-      <c r="CU4" s="300"/>
-      <c r="CV4" s="300"/>
-      <c r="CW4" s="300"/>
-      <c r="CX4" s="300"/>
-      <c r="CY4" s="301"/>
+      <c r="CL4" s="315"/>
+      <c r="CM4" s="315"/>
+      <c r="CN4" s="315"/>
+      <c r="CO4" s="315"/>
+      <c r="CP4" s="315"/>
+      <c r="CQ4" s="315"/>
+      <c r="CR4" s="315"/>
+      <c r="CS4" s="315"/>
+      <c r="CT4" s="315"/>
+      <c r="CU4" s="315"/>
+      <c r="CV4" s="315"/>
+      <c r="CW4" s="315"/>
+      <c r="CX4" s="315"/>
+      <c r="CY4" s="316"/>
       <c r="CZ4" s="245"/>
       <c r="DA4" s="246"/>
     </row>
     <row r="5" spans="2:113" s="127" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314" t="s">
+      <c r="C5" s="298"/>
+      <c r="D5" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="326" t="s">
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="381" t="s">
         <v>373</v>
       </c>
-      <c r="J5" s="327"/>
-      <c r="K5" s="327"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="327"/>
-      <c r="N5" s="327"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="327"/>
-      <c r="Q5" s="327"/>
-      <c r="R5" s="328"/>
-      <c r="S5" s="317" t="s">
+      <c r="J5" s="382"/>
+      <c r="K5" s="382"/>
+      <c r="L5" s="382"/>
+      <c r="M5" s="382"/>
+      <c r="N5" s="382"/>
+      <c r="O5" s="382"/>
+      <c r="P5" s="382"/>
+      <c r="Q5" s="382"/>
+      <c r="R5" s="383"/>
+      <c r="S5" s="302" t="s">
         <v>374</v>
       </c>
-      <c r="T5" s="318"/>
-      <c r="U5" s="318"/>
-      <c r="V5" s="318"/>
-      <c r="W5" s="318"/>
-      <c r="X5" s="318"/>
-      <c r="Y5" s="318"/>
-      <c r="Z5" s="318"/>
-      <c r="AA5" s="318"/>
-      <c r="AB5" s="319"/>
-      <c r="AC5" s="332" t="s">
+      <c r="T5" s="303"/>
+      <c r="U5" s="303"/>
+      <c r="V5" s="303"/>
+      <c r="W5" s="303"/>
+      <c r="X5" s="303"/>
+      <c r="Y5" s="303"/>
+      <c r="Z5" s="303"/>
+      <c r="AA5" s="303"/>
+      <c r="AB5" s="304"/>
+      <c r="AC5" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="333"/>
-      <c r="AE5" s="333"/>
-      <c r="AF5" s="333"/>
-      <c r="AG5" s="333"/>
-      <c r="AH5" s="333"/>
-      <c r="AI5" s="333"/>
-      <c r="AJ5" s="333"/>
-      <c r="AK5" s="333"/>
-      <c r="AL5" s="333"/>
-      <c r="AM5" s="333"/>
-      <c r="AN5" s="333"/>
-      <c r="AO5" s="333"/>
-      <c r="AP5" s="333"/>
-      <c r="AQ5" s="333"/>
-      <c r="AR5" s="333"/>
-      <c r="AS5" s="333"/>
-      <c r="AT5" s="333"/>
-      <c r="AU5" s="333"/>
-      <c r="AV5" s="334"/>
-      <c r="AW5" s="308" t="s">
+      <c r="AD5" s="291"/>
+      <c r="AE5" s="291"/>
+      <c r="AF5" s="291"/>
+      <c r="AG5" s="291"/>
+      <c r="AH5" s="291"/>
+      <c r="AI5" s="291"/>
+      <c r="AJ5" s="291"/>
+      <c r="AK5" s="291"/>
+      <c r="AL5" s="291"/>
+      <c r="AM5" s="291"/>
+      <c r="AN5" s="291"/>
+      <c r="AO5" s="291"/>
+      <c r="AP5" s="291"/>
+      <c r="AQ5" s="291"/>
+      <c r="AR5" s="291"/>
+      <c r="AS5" s="291"/>
+      <c r="AT5" s="291"/>
+      <c r="AU5" s="291"/>
+      <c r="AV5" s="292"/>
+      <c r="AW5" s="387" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="309"/>
-      <c r="AY5" s="309"/>
-      <c r="AZ5" s="309"/>
-      <c r="BA5" s="309"/>
-      <c r="BB5" s="309"/>
-      <c r="BC5" s="309"/>
-      <c r="BD5" s="309"/>
-      <c r="BE5" s="309"/>
-      <c r="BF5" s="310"/>
-      <c r="BG5" s="308" t="s">
+      <c r="AX5" s="388"/>
+      <c r="AY5" s="388"/>
+      <c r="AZ5" s="388"/>
+      <c r="BA5" s="388"/>
+      <c r="BB5" s="388"/>
+      <c r="BC5" s="388"/>
+      <c r="BD5" s="388"/>
+      <c r="BE5" s="388"/>
+      <c r="BF5" s="389"/>
+      <c r="BG5" s="294" t="s">
         <v>375</v>
       </c>
-      <c r="BH5" s="309"/>
-      <c r="BI5" s="309"/>
-      <c r="BJ5" s="309"/>
-      <c r="BK5" s="309"/>
-      <c r="BL5" s="309"/>
-      <c r="BM5" s="309"/>
-      <c r="BN5" s="309"/>
-      <c r="BO5" s="309"/>
-      <c r="BP5" s="310"/>
-      <c r="BQ5" s="308" t="s">
+      <c r="BH5" s="295"/>
+      <c r="BI5" s="295"/>
+      <c r="BJ5" s="295"/>
+      <c r="BK5" s="295"/>
+      <c r="BL5" s="295"/>
+      <c r="BM5" s="295"/>
+      <c r="BN5" s="295"/>
+      <c r="BO5" s="295"/>
+      <c r="BP5" s="296"/>
+      <c r="BQ5" s="391" t="s">
         <v>376</v>
       </c>
-      <c r="BR5" s="309"/>
-      <c r="BS5" s="309"/>
-      <c r="BT5" s="309"/>
-      <c r="BU5" s="309"/>
-      <c r="BV5" s="309"/>
-      <c r="BW5" s="309"/>
-      <c r="BX5" s="309"/>
-      <c r="BY5" s="309"/>
-      <c r="BZ5" s="310"/>
-      <c r="CA5" s="308" t="s">
+      <c r="BR5" s="392"/>
+      <c r="BS5" s="392"/>
+      <c r="BT5" s="392"/>
+      <c r="BU5" s="392"/>
+      <c r="BV5" s="392"/>
+      <c r="BW5" s="392"/>
+      <c r="BX5" s="392"/>
+      <c r="BY5" s="392"/>
+      <c r="BZ5" s="393"/>
+      <c r="CA5" s="395" t="s">
         <v>377</v>
       </c>
-      <c r="CB5" s="309"/>
-      <c r="CC5" s="309"/>
-      <c r="CD5" s="309"/>
-      <c r="CE5" s="309"/>
-      <c r="CF5" s="309"/>
-      <c r="CG5" s="309"/>
-      <c r="CH5" s="309"/>
-      <c r="CI5" s="309"/>
-      <c r="CJ5" s="310"/>
-      <c r="CK5" s="335" t="s">
+      <c r="CB5" s="396"/>
+      <c r="CC5" s="396"/>
+      <c r="CD5" s="396"/>
+      <c r="CE5" s="396"/>
+      <c r="CF5" s="396"/>
+      <c r="CG5" s="396"/>
+      <c r="CH5" s="396"/>
+      <c r="CI5" s="396"/>
+      <c r="CJ5" s="397"/>
+      <c r="CK5" s="375" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="336"/>
-      <c r="CM5" s="336"/>
-      <c r="CN5" s="336"/>
-      <c r="CO5" s="336"/>
-      <c r="CP5" s="336"/>
-      <c r="CQ5" s="336"/>
-      <c r="CR5" s="336"/>
-      <c r="CS5" s="336"/>
-      <c r="CT5" s="336"/>
-      <c r="CU5" s="336"/>
-      <c r="CV5" s="336"/>
-      <c r="CW5" s="336"/>
-      <c r="CX5" s="336"/>
-      <c r="CY5" s="337"/>
+      <c r="CL5" s="376"/>
+      <c r="CM5" s="376"/>
+      <c r="CN5" s="376"/>
+      <c r="CO5" s="376"/>
+      <c r="CP5" s="376"/>
+      <c r="CQ5" s="376"/>
+      <c r="CR5" s="376"/>
+      <c r="CS5" s="376"/>
+      <c r="CT5" s="376"/>
+      <c r="CU5" s="376"/>
+      <c r="CV5" s="376"/>
+      <c r="CW5" s="376"/>
+      <c r="CX5" s="376"/>
+      <c r="CY5" s="377"/>
       <c r="CZ5" s="247"/>
       <c r="DA5" s="248"/>
     </row>
     <row r="6" spans="2:113" s="171" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="243"/>
       <c r="C6" s="244"/>
-      <c r="D6" s="320" t="s">
+      <c r="D6" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="320"/>
-      <c r="F6" s="320"/>
-      <c r="G6" s="320"/>
-      <c r="H6" s="320"/>
-      <c r="I6" s="321" t="s">
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="384" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="322"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="322"/>
-      <c r="M6" s="323"/>
-      <c r="N6" s="321" t="s">
+      <c r="J6" s="385"/>
+      <c r="K6" s="385"/>
+      <c r="L6" s="385"/>
+      <c r="M6" s="386"/>
+      <c r="N6" s="384" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="322"/>
-      <c r="P6" s="322"/>
-      <c r="Q6" s="322"/>
-      <c r="R6" s="323"/>
-      <c r="S6" s="324" t="s">
+      <c r="O6" s="385"/>
+      <c r="P6" s="385"/>
+      <c r="Q6" s="385"/>
+      <c r="R6" s="386"/>
+      <c r="S6" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="324"/>
-      <c r="U6" s="324"/>
-      <c r="V6" s="324"/>
-      <c r="W6" s="324"/>
-      <c r="X6" s="324" t="s">
+      <c r="T6" s="306"/>
+      <c r="U6" s="306"/>
+      <c r="V6" s="306"/>
+      <c r="W6" s="306"/>
+      <c r="X6" s="306" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" s="324"/>
-      <c r="Z6" s="324"/>
-      <c r="AA6" s="324"/>
-      <c r="AB6" s="324"/>
-      <c r="AC6" s="325" t="s">
+      <c r="Y6" s="306"/>
+      <c r="Z6" s="306"/>
+      <c r="AA6" s="306"/>
+      <c r="AB6" s="306"/>
+      <c r="AC6" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="325"/>
-      <c r="AE6" s="325"/>
-      <c r="AF6" s="325"/>
-      <c r="AG6" s="325"/>
-      <c r="AH6" s="325" t="s">
+      <c r="AD6" s="289"/>
+      <c r="AE6" s="289"/>
+      <c r="AF6" s="289"/>
+      <c r="AG6" s="289"/>
+      <c r="AH6" s="289" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="325"/>
-      <c r="AJ6" s="325"/>
-      <c r="AK6" s="325"/>
-      <c r="AL6" s="325"/>
-      <c r="AM6" s="325" t="s">
+      <c r="AI6" s="289"/>
+      <c r="AJ6" s="289"/>
+      <c r="AK6" s="289"/>
+      <c r="AL6" s="289"/>
+      <c r="AM6" s="289" t="s">
         <v>88</v>
       </c>
-      <c r="AN6" s="325"/>
-      <c r="AO6" s="325"/>
-      <c r="AP6" s="325"/>
-      <c r="AQ6" s="325"/>
-      <c r="AR6" s="325" t="s">
+      <c r="AN6" s="289"/>
+      <c r="AO6" s="289"/>
+      <c r="AP6" s="289"/>
+      <c r="AQ6" s="289"/>
+      <c r="AR6" s="289" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="325"/>
-      <c r="AT6" s="325"/>
-      <c r="AU6" s="325"/>
-      <c r="AV6" s="325"/>
-      <c r="AW6" s="311" t="s">
+      <c r="AS6" s="289"/>
+      <c r="AT6" s="289"/>
+      <c r="AU6" s="289"/>
+      <c r="AV6" s="289"/>
+      <c r="AW6" s="390" t="s">
         <v>86</v>
       </c>
-      <c r="AX6" s="311"/>
-      <c r="AY6" s="311"/>
-      <c r="AZ6" s="311"/>
-      <c r="BA6" s="311"/>
-      <c r="BB6" s="311" t="s">
+      <c r="AX6" s="390"/>
+      <c r="AY6" s="390"/>
+      <c r="AZ6" s="390"/>
+      <c r="BA6" s="390"/>
+      <c r="BB6" s="390" t="s">
         <v>87</v>
       </c>
-      <c r="BC6" s="311"/>
-      <c r="BD6" s="311"/>
-      <c r="BE6" s="311"/>
-      <c r="BF6" s="311"/>
-      <c r="BG6" s="311" t="s">
+      <c r="BC6" s="390"/>
+      <c r="BD6" s="390"/>
+      <c r="BE6" s="390"/>
+      <c r="BF6" s="390"/>
+      <c r="BG6" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="BH6" s="311"/>
-      <c r="BI6" s="311"/>
-      <c r="BJ6" s="311"/>
-      <c r="BK6" s="311"/>
-      <c r="BL6" s="311" t="s">
+      <c r="BH6" s="293"/>
+      <c r="BI6" s="293"/>
+      <c r="BJ6" s="293"/>
+      <c r="BK6" s="293"/>
+      <c r="BL6" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="BM6" s="311"/>
-      <c r="BN6" s="311"/>
-      <c r="BO6" s="311"/>
-      <c r="BP6" s="311"/>
-      <c r="BQ6" s="311" t="s">
+      <c r="BM6" s="293"/>
+      <c r="BN6" s="293"/>
+      <c r="BO6" s="293"/>
+      <c r="BP6" s="293"/>
+      <c r="BQ6" s="394" t="s">
         <v>86</v>
       </c>
-      <c r="BR6" s="311"/>
-      <c r="BS6" s="311"/>
-      <c r="BT6" s="311"/>
-      <c r="BU6" s="311"/>
-      <c r="BV6" s="311" t="s">
+      <c r="BR6" s="394"/>
+      <c r="BS6" s="394"/>
+      <c r="BT6" s="394"/>
+      <c r="BU6" s="394"/>
+      <c r="BV6" s="394" t="s">
         <v>87</v>
       </c>
-      <c r="BW6" s="311"/>
-      <c r="BX6" s="311"/>
-      <c r="BY6" s="311"/>
-      <c r="BZ6" s="311"/>
-      <c r="CA6" s="311" t="s">
+      <c r="BW6" s="394"/>
+      <c r="BX6" s="394"/>
+      <c r="BY6" s="394"/>
+      <c r="BZ6" s="394"/>
+      <c r="CA6" s="398" t="s">
         <v>86</v>
       </c>
-      <c r="CB6" s="311"/>
-      <c r="CC6" s="311"/>
-      <c r="CD6" s="311"/>
-      <c r="CE6" s="311"/>
-      <c r="CF6" s="311" t="s">
+      <c r="CB6" s="398"/>
+      <c r="CC6" s="398"/>
+      <c r="CD6" s="398"/>
+      <c r="CE6" s="398"/>
+      <c r="CF6" s="398" t="s">
         <v>87</v>
       </c>
-      <c r="CG6" s="311"/>
-      <c r="CH6" s="311"/>
-      <c r="CI6" s="311"/>
-      <c r="CJ6" s="311"/>
-      <c r="CK6" s="329" t="s">
+      <c r="CG6" s="398"/>
+      <c r="CH6" s="398"/>
+      <c r="CI6" s="398"/>
+      <c r="CJ6" s="398"/>
+      <c r="CK6" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="CL6" s="330"/>
-      <c r="CM6" s="330"/>
-      <c r="CN6" s="330"/>
-      <c r="CO6" s="331"/>
-      <c r="CP6" s="329" t="s">
+      <c r="CL6" s="400"/>
+      <c r="CM6" s="400"/>
+      <c r="CN6" s="400"/>
+      <c r="CO6" s="401"/>
+      <c r="CP6" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="CQ6" s="330"/>
-      <c r="CR6" s="330"/>
-      <c r="CS6" s="330"/>
-      <c r="CT6" s="331"/>
-      <c r="CU6" s="329" t="s">
+      <c r="CQ6" s="400"/>
+      <c r="CR6" s="400"/>
+      <c r="CS6" s="400"/>
+      <c r="CT6" s="401"/>
+      <c r="CU6" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="CV6" s="330"/>
-      <c r="CW6" s="330"/>
-      <c r="CX6" s="330"/>
-      <c r="CY6" s="331"/>
+      <c r="CV6" s="400"/>
+      <c r="CW6" s="400"/>
+      <c r="CX6" s="400"/>
+      <c r="CY6" s="401"/>
       <c r="CZ6" s="249" t="s">
         <v>85</v>
       </c>
@@ -11413,10 +11473,10 @@
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="192" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D7" s="181"/>
       <c r="E7" s="180"/>
@@ -11463,16 +11523,12 @@
       <c r="AT7" s="180"/>
       <c r="AU7" s="180"/>
       <c r="AV7" s="182"/>
-      <c r="AW7" s="180">
-        <v>100</v>
-      </c>
+      <c r="AW7" s="180"/>
       <c r="AX7" s="180"/>
       <c r="AY7" s="180"/>
       <c r="AZ7" s="180"/>
       <c r="BA7" s="180"/>
-      <c r="BB7" s="181">
-        <v>100</v>
-      </c>
+      <c r="BB7" s="181"/>
       <c r="BC7" s="180"/>
       <c r="BD7" s="180"/>
       <c r="BE7" s="180"/>
@@ -11538,12 +11594,8 @@
       <c r="DI7" s="128"/>
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="193" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="173" t="s">
-        <v>388</v>
-      </c>
+      <c r="B8" s="193"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="184"/>
       <c r="E8" s="183"/>
       <c r="F8" s="183"/>
@@ -11629,9 +11681,7 @@
       <c r="CH8" s="183"/>
       <c r="CI8" s="183"/>
       <c r="CJ8" s="185"/>
-      <c r="CK8" s="184">
-        <v>77</v>
-      </c>
+      <c r="CK8" s="184"/>
       <c r="CL8" s="183"/>
       <c r="CM8" s="183"/>
       <c r="CN8" s="183"/>
@@ -11666,15 +11716,9 @@
       <c r="DI8" s="128"/>
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="193" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="173" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="184">
-        <v>55</v>
-      </c>
+      <c r="B9" s="193"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="184"/>
       <c r="E9" s="183"/>
       <c r="F9" s="183"/>
       <c r="G9" s="183"/>
@@ -11729,16 +11773,12 @@
       <c r="BD9" s="183"/>
       <c r="BE9" s="183"/>
       <c r="BF9" s="185"/>
-      <c r="BG9" s="184">
-        <v>77</v>
-      </c>
+      <c r="BG9" s="184"/>
       <c r="BH9" s="183"/>
       <c r="BI9" s="183"/>
       <c r="BJ9" s="183"/>
       <c r="BK9" s="185"/>
-      <c r="BL9" s="184">
-        <v>77</v>
-      </c>
+      <c r="BL9" s="184"/>
       <c r="BM9" s="183"/>
       <c r="BN9" s="183"/>
       <c r="BO9" s="183"/>
@@ -11794,18 +11834,10 @@
       <c r="DI9" s="128"/>
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="193" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" s="173" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="184">
-        <v>44</v>
-      </c>
-      <c r="E10" s="183">
-        <v>33</v>
-      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="183"/>
       <c r="F10" s="183"/>
       <c r="G10" s="183"/>
       <c r="H10" s="185"/>
@@ -11849,16 +11881,12 @@
       <c r="AT10" s="183"/>
       <c r="AU10" s="183"/>
       <c r="AV10" s="185"/>
-      <c r="AW10" s="183">
-        <v>33</v>
-      </c>
+      <c r="AW10" s="183"/>
       <c r="AX10" s="183"/>
       <c r="AY10" s="183"/>
       <c r="AZ10" s="183"/>
       <c r="BA10" s="183"/>
-      <c r="BB10" s="184">
-        <v>44</v>
-      </c>
+      <c r="BB10" s="184"/>
       <c r="BC10" s="183"/>
       <c r="BD10" s="183"/>
       <c r="BE10" s="183"/>
@@ -11883,16 +11911,12 @@
       <c r="BX10" s="183"/>
       <c r="BY10" s="183"/>
       <c r="BZ10" s="185"/>
-      <c r="CA10" s="184">
-        <v>23</v>
-      </c>
+      <c r="CA10" s="184"/>
       <c r="CB10" s="183"/>
       <c r="CC10" s="183"/>
       <c r="CD10" s="183"/>
       <c r="CE10" s="185"/>
-      <c r="CF10" s="184">
-        <v>22</v>
-      </c>
+      <c r="CF10" s="184"/>
       <c r="CG10" s="183"/>
       <c r="CH10" s="183"/>
       <c r="CI10" s="183"/>
@@ -11928,12 +11952,8 @@
       <c r="DI10" s="128"/>
     </row>
     <row r="11" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="193" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="173" t="s">
-        <v>386</v>
-      </c>
+      <c r="B11" s="193"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="184"/>
       <c r="E11" s="183"/>
       <c r="F11" s="183"/>
@@ -15171,25 +15191,41 @@
       <c r="EJ53" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <sortState ref="B7:DA35">
     <sortCondition descending="1" ref="CZ13"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="52">
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="S5:AB5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:R5"/>
     <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="BL6:BP6"/>
     <mergeCell ref="AW5:BF5"/>
@@ -15199,36 +15235,20 @@
     <mergeCell ref="BG6:BK6"/>
     <mergeCell ref="BQ5:BZ5"/>
     <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
     <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -15372,8 +15392,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15392,32 +15437,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16679,14 +16699,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="330" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="341"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="332"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16731,14 +16751,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="330" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="332"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16751,11 +16771,11 @@
       <c r="C8" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="342" t="s">
+      <c r="D8" s="333" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="343"/>
-      <c r="F8" s="344"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="335"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16779,27 +16799,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="330" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="340"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="340"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="341"/>
+      <c r="B11" s="331"/>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="332"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="345" t="s">
+      <c r="B12" s="336" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="346"/>
-      <c r="D12" s="346"/>
-      <c r="E12" s="346"/>
-      <c r="F12" s="347"/>
+      <c r="C12" s="337"/>
+      <c r="D12" s="337"/>
+      <c r="E12" s="337"/>
+      <c r="F12" s="338"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16815,25 +16835,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="339" t="s">
+      <c r="A15" s="330" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="340"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="341"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="332"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="348"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="350"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="328"/>
+      <c r="D16" s="328"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="329"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16849,25 +16869,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="330" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="340"/>
-      <c r="C19" s="340"/>
-      <c r="D19" s="340"/>
-      <c r="E19" s="340"/>
-      <c r="F19" s="341"/>
+      <c r="B19" s="331"/>
+      <c r="C19" s="331"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="332"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="348"/>
-      <c r="C20" s="349"/>
-      <c r="D20" s="349"/>
-      <c r="E20" s="349"/>
-      <c r="F20" s="350"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="329"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16883,25 +16903,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="339" t="s">
+      <c r="A23" s="330" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="340"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="341"/>
+      <c r="B23" s="331"/>
+      <c r="C23" s="331"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="332"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="348"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="350"/>
+      <c r="B24" s="327"/>
+      <c r="C24" s="328"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="329"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16917,27 +16937,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="339" t="s">
+      <c r="A27" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="340"/>
-      <c r="C27" s="340"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="340"/>
-      <c r="F27" s="341"/>
+      <c r="B27" s="331"/>
+      <c r="C27" s="331"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
+      <c r="F27" s="332"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="348" t="s">
+      <c r="B28" s="327" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="349"/>
-      <c r="D28" s="349"/>
-      <c r="E28" s="349"/>
-      <c r="F28" s="350"/>
+      <c r="C28" s="328"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="329"/>
       <c r="H28" s="74" t="s">
         <v>331</v>
       </c>
@@ -16953,6 +16973,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16960,12 +16986,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -17009,10 +17029,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="354" t="s">
+      <c r="C3" s="342" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="354"/>
+      <c r="D3" s="342"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17074,35 +17094,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="343" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="357"/>
-      <c r="C11" s="358"/>
+      <c r="B11" s="345"/>
+      <c r="C11" s="346"/>
       <c r="D11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="361"/>
-      <c r="F11" s="362"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="350"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="356"/>
-      <c r="B12" s="359"/>
-      <c r="C12" s="360"/>
+      <c r="A12" s="344"/>
+      <c r="B12" s="347"/>
+      <c r="C12" s="348"/>
       <c r="D12" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="361"/>
-      <c r="F12" s="362"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="350"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="351" t="s">
+      <c r="B14" s="339" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="352"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="353"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="341"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17168,30 +17188,30 @@
         <v>184</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="375">
+      <c r="E3" s="352">
         <v>5665</v>
       </c>
-      <c r="F3" s="375"/>
+      <c r="F3" s="352"/>
       <c r="G3" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="375" t="s">
+      <c r="I3" s="352" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375"/>
-      <c r="M3" s="375"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
       <c r="N3" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="375" t="s">
+      <c r="P3" s="352" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="375"/>
-      <c r="R3" s="375"/>
-      <c r="S3" s="375"/>
-      <c r="T3" s="375"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
       <c r="V3" s="96" t="s">
         <v>163</v>
       </c>
@@ -17202,10 +17222,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="374" t="s">
+      <c r="AF3" s="351" t="s">
         <v>328</v>
       </c>
-      <c r="AG3" s="374"/>
+      <c r="AG3" s="351"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -17798,153 +17818,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="366" t="s">
+      <c r="B18" s="356" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="367"/>
-      <c r="D18" s="363" t="s">
+      <c r="C18" s="357"/>
+      <c r="D18" s="353" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="364"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="364"/>
-      <c r="H18" s="364"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="364"/>
-      <c r="L18" s="364"/>
-      <c r="M18" s="364"/>
-      <c r="N18" s="364"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="364"/>
-      <c r="V18" s="364"/>
-      <c r="W18" s="365"/>
+      <c r="E18" s="354"/>
+      <c r="F18" s="354"/>
+      <c r="G18" s="354"/>
+      <c r="H18" s="354"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="354"/>
+      <c r="K18" s="354"/>
+      <c r="L18" s="354"/>
+      <c r="M18" s="354"/>
+      <c r="N18" s="354"/>
+      <c r="O18" s="354"/>
+      <c r="P18" s="354"/>
+      <c r="Q18" s="354"/>
+      <c r="R18" s="354"/>
+      <c r="S18" s="354"/>
+      <c r="T18" s="354"/>
+      <c r="U18" s="354"/>
+      <c r="V18" s="354"/>
+      <c r="W18" s="355"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="368">
+      <c r="B19" s="358">
         <v>2</v>
       </c>
-      <c r="C19" s="369"/>
-      <c r="D19" s="363" t="s">
+      <c r="C19" s="359"/>
+      <c r="D19" s="353" t="s">
         <v>203</v>
       </c>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="364"/>
-      <c r="H19" s="364"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="364"/>
-      <c r="L19" s="364"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="364"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="364"/>
-      <c r="V19" s="364"/>
-      <c r="W19" s="365"/>
+      <c r="E19" s="354"/>
+      <c r="F19" s="354"/>
+      <c r="G19" s="354"/>
+      <c r="H19" s="354"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="354"/>
+      <c r="K19" s="354"/>
+      <c r="L19" s="354"/>
+      <c r="M19" s="354"/>
+      <c r="N19" s="354"/>
+      <c r="O19" s="354"/>
+      <c r="P19" s="354"/>
+      <c r="Q19" s="354"/>
+      <c r="R19" s="354"/>
+      <c r="S19" s="354"/>
+      <c r="T19" s="354"/>
+      <c r="U19" s="354"/>
+      <c r="V19" s="354"/>
+      <c r="W19" s="355"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="370">
+      <c r="B20" s="360">
         <v>3</v>
       </c>
-      <c r="C20" s="371"/>
-      <c r="D20" s="363" t="s">
+      <c r="C20" s="361"/>
+      <c r="D20" s="353" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="364"/>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="364"/>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="365"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="354"/>
+      <c r="J20" s="354"/>
+      <c r="K20" s="354"/>
+      <c r="L20" s="354"/>
+      <c r="M20" s="354"/>
+      <c r="N20" s="354"/>
+      <c r="O20" s="354"/>
+      <c r="P20" s="354"/>
+      <c r="Q20" s="354"/>
+      <c r="R20" s="354"/>
+      <c r="S20" s="354"/>
+      <c r="T20" s="354"/>
+      <c r="U20" s="354"/>
+      <c r="V20" s="354"/>
+      <c r="W20" s="355"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="372">
+      <c r="B21" s="362">
         <v>4</v>
       </c>
-      <c r="C21" s="373"/>
-      <c r="D21" s="363" t="s">
+      <c r="C21" s="363"/>
+      <c r="D21" s="353" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="364"/>
-      <c r="F21" s="364"/>
-      <c r="G21" s="364"/>
-      <c r="H21" s="364"/>
-      <c r="I21" s="364"/>
-      <c r="J21" s="364"/>
-      <c r="K21" s="364"/>
-      <c r="L21" s="364"/>
-      <c r="M21" s="364"/>
-      <c r="N21" s="364"/>
-      <c r="O21" s="364"/>
-      <c r="P21" s="364"/>
-      <c r="Q21" s="364"/>
-      <c r="R21" s="364"/>
-      <c r="S21" s="364"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="364"/>
-      <c r="V21" s="364"/>
-      <c r="W21" s="365"/>
+      <c r="E21" s="354"/>
+      <c r="F21" s="354"/>
+      <c r="G21" s="354"/>
+      <c r="H21" s="354"/>
+      <c r="I21" s="354"/>
+      <c r="J21" s="354"/>
+      <c r="K21" s="354"/>
+      <c r="L21" s="354"/>
+      <c r="M21" s="354"/>
+      <c r="N21" s="354"/>
+      <c r="O21" s="354"/>
+      <c r="P21" s="354"/>
+      <c r="Q21" s="354"/>
+      <c r="R21" s="354"/>
+      <c r="S21" s="354"/>
+      <c r="T21" s="354"/>
+      <c r="U21" s="354"/>
+      <c r="V21" s="354"/>
+      <c r="W21" s="355"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="372">
+      <c r="B22" s="362">
         <v>5</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="363" t="s">
+      <c r="C22" s="363"/>
+      <c r="D22" s="353" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="364"/>
-      <c r="H22" s="364"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
-      <c r="K22" s="364"/>
-      <c r="L22" s="364"/>
-      <c r="M22" s="364"/>
-      <c r="N22" s="364"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="364"/>
-      <c r="V22" s="364"/>
-      <c r="W22" s="365"/>
+      <c r="E22" s="354"/>
+      <c r="F22" s="354"/>
+      <c r="G22" s="354"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="354"/>
+      <c r="J22" s="354"/>
+      <c r="K22" s="354"/>
+      <c r="L22" s="354"/>
+      <c r="M22" s="354"/>
+      <c r="N22" s="354"/>
+      <c r="O22" s="354"/>
+      <c r="P22" s="354"/>
+      <c r="Q22" s="354"/>
+      <c r="R22" s="354"/>
+      <c r="S22" s="354"/>
+      <c r="T22" s="354"/>
+      <c r="U22" s="354"/>
+      <c r="V22" s="354"/>
+      <c r="W22" s="355"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17954,6 +17969,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -18100,14 +18120,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="376" t="s">
+      <c r="N28" s="364" t="s">
         <v>197</v>
       </c>
-      <c r="O28" s="376"/>
-      <c r="P28" s="376"/>
-      <c r="Q28" s="376"/>
-      <c r="R28" s="376"/>
-      <c r="S28" s="376"/>
+      <c r="O28" s="364"/>
+      <c r="P28" s="364"/>
+      <c r="Q28" s="364"/>
+      <c r="R28" s="364"/>
+      <c r="S28" s="364"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -18130,14 +18150,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="376" t="s">
+      <c r="N36" s="364" t="s">
         <v>199</v>
       </c>
-      <c r="O36" s="376"/>
-      <c r="P36" s="376"/>
-      <c r="Q36" s="376"/>
-      <c r="R36" s="376"/>
-      <c r="S36" s="376"/>
+      <c r="O36" s="364"/>
+      <c r="P36" s="364"/>
+      <c r="Q36" s="364"/>
+      <c r="R36" s="364"/>
+      <c r="S36" s="364"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -54,6 +54,7 @@
     <definedName name="Divisions" localSheetId="3">Lists!$A$1:$D$3</definedName>
     <definedName name="Divisions">#REF!</definedName>
     <definedName name="DL_Assessor">'Daily Log'!$B$9</definedName>
+    <definedName name="DL_Clear_Area">'Daily Logs'!$B$6:$AY$34</definedName>
     <definedName name="DL_Comments1">'Daily Log'!$B$12</definedName>
     <definedName name="DL_Comments2">'Daily Log'!$B$16</definedName>
     <definedName name="DL_Comments3">'Daily Log'!$B$20</definedName>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="391">
   <si>
     <t>DAY</t>
   </si>
@@ -1288,12 +1289,6 @@
   </si>
   <si>
     <t>Jeff Bloom</t>
-  </si>
-  <si>
-    <t>5696</t>
-  </si>
-  <si>
-    <t>John Ashby</t>
   </si>
 </sst>
 </file>
@@ -4431,6 +4426,51 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="26" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="167" fontId="31" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4440,125 +4480,197 @@
     <xf numFmtId="167" fontId="31" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="19" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="26" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4569,33 +4681,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4632,158 +4717,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="19" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="19" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="19" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6298,8 +6293,8 @@
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>33618</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -6332,15 +6327,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>128083</xdr:colOff>
+      <xdr:colOff>128077</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>70350</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>179673</xdr:colOff>
+      <xdr:colOff>11132</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.ShowCourseFrm">
       <xdr:nvPicPr>
@@ -6356,8 +6351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5137112" y="70350"/>
-          <a:ext cx="679120" cy="718249"/>
+          <a:off x="5047459" y="162385"/>
+          <a:ext cx="510585" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6369,15 +6364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>80923</xdr:colOff>
+      <xdr:colOff>46793</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64747</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>71097</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193843</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.ShowCandidateFrm">
       <xdr:nvPicPr>
@@ -6393,8 +6388,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6064864" y="64747"/>
-          <a:ext cx="617704" cy="723852"/>
+          <a:off x="5907469" y="162385"/>
+          <a:ext cx="460815" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6406,15 +6401,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297318</xdr:colOff>
+      <xdr:colOff>229503</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68599</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>230683</xdr:colOff>
+      <xdr:colOff>22649</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.ShowDailyLogFrm">
       <xdr:nvPicPr>
@@ -6430,8 +6425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6931200" y="68599"/>
-          <a:ext cx="560894" cy="720000"/>
+          <a:off x="6717709" y="162385"/>
+          <a:ext cx="420675" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6443,15 +6438,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>131932</xdr:colOff>
+      <xdr:colOff>58309</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127671</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>153743</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>275079</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.ShowDevelopmentPlanFrm">
       <xdr:nvPicPr>
@@ -6467,8 +6462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7740726" y="127671"/>
-          <a:ext cx="649340" cy="660928"/>
+          <a:off x="7487809" y="162385"/>
+          <a:ext cx="530535" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6479,16 +6474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54992</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>310740</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57043</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>305923</xdr:colOff>
+      <xdr:colOff>100045</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.RunSupervisionFile">
       <xdr:nvPicPr>
@@ -6504,8 +6499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8638698" y="57043"/>
-          <a:ext cx="564696" cy="731556"/>
+          <a:off x="8367769" y="162385"/>
+          <a:ext cx="416835" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6558,15 +6553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>218379</xdr:colOff>
+      <xdr:colOff>135705</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>194688</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>160765</xdr:colOff>
+      <xdr:colOff>26351</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.ShowAdminForm">
       <xdr:nvPicPr>
@@ -6594,8 +6589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9452026" y="194688"/>
-          <a:ext cx="569915" cy="593911"/>
+          <a:off x="9134029" y="162385"/>
+          <a:ext cx="518175" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6609,13 +6604,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>62013</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>267727</xdr:rowOff>
+      <xdr:rowOff>162385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>290568</xdr:colOff>
+      <xdr:colOff>310479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>788599</xdr:rowOff>
+      <xdr:rowOff>702385</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="[0]!ShtCourse.SendSupportMail">
       <xdr:nvPicPr>
@@ -6643,8 +6638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10270572" y="267727"/>
-          <a:ext cx="542319" cy="520872"/>
+          <a:off x="10001631" y="162385"/>
+          <a:ext cx="562230" cy="540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7849,7 +7844,7 @@
   <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8"/>
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8497,9 +8492,7 @@
       <c r="AJ7" s="153"/>
       <c r="AK7" s="150"/>
       <c r="AL7" s="153"/>
-      <c r="AM7" s="153">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="153"/>
       <c r="AN7" s="153"/>
       <c r="AO7" s="153"/>
       <c r="AP7" s="153"/>
@@ -8563,9 +8556,7 @@
       <c r="AJ8" s="153"/>
       <c r="AK8" s="150"/>
       <c r="AL8" s="153"/>
-      <c r="AM8" s="153">
-        <v>2</v>
-      </c>
+      <c r="AM8" s="153"/>
       <c r="AN8" s="153"/>
       <c r="AO8" s="153"/>
       <c r="AP8" s="153"/>
@@ -8625,9 +8616,7 @@
       <c r="AL9" s="153">
         <v>1.5</v>
       </c>
-      <c r="AM9" s="153">
-        <v>3</v>
-      </c>
+      <c r="AM9" s="153"/>
       <c r="AN9" s="153"/>
       <c r="AO9" s="153"/>
       <c r="AP9" s="153"/>
@@ -9619,9 +9608,7 @@
       <c r="AJ28" s="153"/>
       <c r="AK28" s="150"/>
       <c r="AL28" s="153"/>
-      <c r="AM28" s="153">
-        <v>4</v>
-      </c>
+      <c r="AM28" s="153"/>
       <c r="AN28" s="153"/>
       <c r="AO28" s="153"/>
       <c r="AP28" s="153"/>
@@ -9673,9 +9660,7 @@
       <c r="AJ29" s="153"/>
       <c r="AK29" s="150"/>
       <c r="AL29" s="153"/>
-      <c r="AM29" s="153">
-        <v>5</v>
-      </c>
+      <c r="AM29" s="153"/>
       <c r="AN29" s="153"/>
       <c r="AO29" s="153"/>
       <c r="AP29" s="153"/>
@@ -10005,7 +9990,7 @@
       <c r="A52" s="131"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="O1:T1"/>
@@ -10058,8 +10043,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId5" name="BtnReset">
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId7" name="CmoCourseNo">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId7" name="CmoCourseNo"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId9" name="BtnReset">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>24</xdr:col>
@@ -10078,57 +10113,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId7" name="CmoCourseNo">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>371475</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId7" name="CmoCourseNo"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10253,30 +10238,30 @@
       <c r="C4" s="213">
         <v>9</v>
       </c>
-      <c r="D4" s="365">
+      <c r="D4" s="401">
         <v>11</v>
       </c>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365">
+      <c r="E4" s="401"/>
+      <c r="F4" s="401">
         <v>17</v>
       </c>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365">
+      <c r="G4" s="401"/>
+      <c r="H4" s="401">
         <v>20</v>
       </c>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="365">
+      <c r="I4" s="401"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401">
         <v>27</v>
       </c>
-      <c r="M4" s="365"/>
-      <c r="N4" s="365">
+      <c r="M4" s="401"/>
+      <c r="N4" s="401">
         <v>28</v>
       </c>
-      <c r="O4" s="365"/>
-      <c r="P4" s="365"/>
-      <c r="Q4" s="365"/>
+      <c r="O4" s="401"/>
+      <c r="P4" s="401"/>
+      <c r="Q4" s="401"/>
       <c r="R4" s="213">
         <v>29</v>
       </c>
@@ -10290,30 +10275,30 @@
       <c r="C5" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="371" t="s">
+      <c r="D5" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="371"/>
-      <c r="F5" s="366" t="s">
+      <c r="E5" s="400"/>
+      <c r="F5" s="395" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366" t="s">
+      <c r="G5" s="395"/>
+      <c r="H5" s="395" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="366"/>
-      <c r="J5" s="366"/>
-      <c r="K5" s="366"/>
-      <c r="L5" s="367" t="s">
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="396" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="367"/>
-      <c r="N5" s="367" t="s">
+      <c r="M5" s="396"/>
+      <c r="N5" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="367"/>
-      <c r="P5" s="367"/>
-      <c r="Q5" s="367"/>
+      <c r="O5" s="396"/>
+      <c r="P5" s="396"/>
+      <c r="Q5" s="396"/>
       <c r="R5" s="209" t="s">
         <v>17</v>
       </c>
@@ -10327,30 +10312,30 @@
       <c r="C6" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="368" t="s">
+      <c r="D6" s="397" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="368"/>
-      <c r="F6" s="369" t="s">
+      <c r="E6" s="397"/>
+      <c r="F6" s="398" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369" t="s">
+      <c r="G6" s="398"/>
+      <c r="H6" s="398" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="369"/>
-      <c r="J6" s="369"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="370" t="s">
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="399" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="370"/>
-      <c r="N6" s="370" t="s">
+      <c r="M6" s="399"/>
+      <c r="N6" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="370"/>
-      <c r="P6" s="370"/>
-      <c r="Q6" s="370"/>
+      <c r="O6" s="399"/>
+      <c r="P6" s="399"/>
+      <c r="Q6" s="399"/>
       <c r="R6" s="212" t="s">
         <v>227</v>
       </c>
@@ -10592,6 +10577,11 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -10602,11 +10592,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
@@ -10715,7 +10700,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BM11" sqref="BM11"/>
+      <selection pane="bottomRight" activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10878,41 +10863,41 @@
       <c r="AU2" s="281"/>
       <c r="AV2" s="281"/>
       <c r="AW2" s="281"/>
-      <c r="AX2" s="323" t="str">
+      <c r="AX2" s="284" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2018</v>
       </c>
-      <c r="AY2" s="323"/>
-      <c r="AZ2" s="323"/>
-      <c r="BA2" s="323"/>
-      <c r="BB2" s="323"/>
-      <c r="BC2" s="323"/>
-      <c r="BD2" s="323"/>
-      <c r="BE2" s="323"/>
-      <c r="BF2" s="323"/>
-      <c r="BG2" s="323"/>
-      <c r="BH2" s="323"/>
-      <c r="BI2" s="323"/>
-      <c r="BJ2" s="323"/>
-      <c r="BK2" s="323"/>
-      <c r="BL2" s="323"/>
-      <c r="BM2" s="323"/>
-      <c r="BN2" s="323"/>
-      <c r="BO2" s="323"/>
-      <c r="BP2" s="323"/>
-      <c r="BQ2" s="323"/>
-      <c r="BR2" s="323"/>
-      <c r="BS2" s="323"/>
-      <c r="BT2" s="323"/>
-      <c r="BU2" s="323"/>
-      <c r="BV2" s="323"/>
-      <c r="BW2" s="323"/>
-      <c r="BX2" s="323"/>
-      <c r="BY2" s="323"/>
-      <c r="BZ2" s="323"/>
-      <c r="CA2" s="323"/>
-      <c r="CB2" s="323"/>
-      <c r="CC2" s="323"/>
+      <c r="AY2" s="284"/>
+      <c r="AZ2" s="284"/>
+      <c r="BA2" s="284"/>
+      <c r="BB2" s="284"/>
+      <c r="BC2" s="284"/>
+      <c r="BD2" s="284"/>
+      <c r="BE2" s="284"/>
+      <c r="BF2" s="284"/>
+      <c r="BG2" s="284"/>
+      <c r="BH2" s="284"/>
+      <c r="BI2" s="284"/>
+      <c r="BJ2" s="284"/>
+      <c r="BK2" s="284"/>
+      <c r="BL2" s="284"/>
+      <c r="BM2" s="284"/>
+      <c r="BN2" s="284"/>
+      <c r="BO2" s="284"/>
+      <c r="BP2" s="284"/>
+      <c r="BQ2" s="284"/>
+      <c r="BR2" s="284"/>
+      <c r="BS2" s="284"/>
+      <c r="BT2" s="284"/>
+      <c r="BU2" s="284"/>
+      <c r="BV2" s="284"/>
+      <c r="BW2" s="284"/>
+      <c r="BX2" s="284"/>
+      <c r="BY2" s="284"/>
+      <c r="BZ2" s="284"/>
+      <c r="CA2" s="284"/>
+      <c r="CB2" s="284"/>
+      <c r="CC2" s="284"/>
       <c r="CD2" s="170"/>
       <c r="CE2" s="170"/>
       <c r="CF2" s="170"/>
@@ -10946,18 +10931,18 @@
       <c r="DH2" s="170"/>
     </row>
     <row r="3" spans="2:113" s="129" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="325"/>
+      <c r="C3" s="286"/>
       <c r="D3" s="287">
         <v>3</v>
       </c>
       <c r="E3" s="287"/>
       <c r="F3" s="287"/>
       <c r="G3" s="287"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="311">
+      <c r="H3" s="288"/>
+      <c r="I3" s="289">
         <v>10</v>
       </c>
       <c r="J3" s="287"/>
@@ -10968,8 +10953,8 @@
       <c r="O3" s="287"/>
       <c r="P3" s="287"/>
       <c r="Q3" s="287"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="311">
+      <c r="R3" s="288"/>
+      <c r="S3" s="289">
         <v>13</v>
       </c>
       <c r="T3" s="287"/>
@@ -10980,8 +10965,8 @@
       <c r="Y3" s="287"/>
       <c r="Z3" s="287"/>
       <c r="AA3" s="287"/>
-      <c r="AB3" s="326"/>
-      <c r="AC3" s="311">
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="289">
         <v>24</v>
       </c>
       <c r="AD3" s="287"/>
@@ -11002,8 +10987,8 @@
       <c r="AS3" s="287"/>
       <c r="AT3" s="287"/>
       <c r="AU3" s="287"/>
-      <c r="AV3" s="326"/>
-      <c r="AW3" s="311">
+      <c r="AV3" s="288"/>
+      <c r="AW3" s="289">
         <v>30</v>
       </c>
       <c r="AX3" s="287"/>
@@ -11014,43 +10999,43 @@
       <c r="BC3" s="287"/>
       <c r="BD3" s="287"/>
       <c r="BE3" s="287"/>
-      <c r="BF3" s="326"/>
-      <c r="BG3" s="310">
+      <c r="BF3" s="288"/>
+      <c r="BG3" s="290">
         <v>34</v>
       </c>
-      <c r="BH3" s="310"/>
-      <c r="BI3" s="311"/>
-      <c r="BJ3" s="311"/>
-      <c r="BK3" s="311"/>
-      <c r="BL3" s="311"/>
-      <c r="BM3" s="311"/>
-      <c r="BN3" s="311"/>
-      <c r="BO3" s="311"/>
-      <c r="BP3" s="311"/>
-      <c r="BQ3" s="310">
+      <c r="BH3" s="290"/>
+      <c r="BI3" s="289"/>
+      <c r="BJ3" s="289"/>
+      <c r="BK3" s="289"/>
+      <c r="BL3" s="289"/>
+      <c r="BM3" s="289"/>
+      <c r="BN3" s="289"/>
+      <c r="BO3" s="289"/>
+      <c r="BP3" s="289"/>
+      <c r="BQ3" s="290">
         <v>40</v>
       </c>
-      <c r="BR3" s="310"/>
-      <c r="BS3" s="311"/>
-      <c r="BT3" s="311"/>
-      <c r="BU3" s="311"/>
-      <c r="BV3" s="311"/>
-      <c r="BW3" s="311"/>
-      <c r="BX3" s="311"/>
-      <c r="BY3" s="311"/>
-      <c r="BZ3" s="311"/>
-      <c r="CA3" s="310">
+      <c r="BR3" s="290"/>
+      <c r="BS3" s="289"/>
+      <c r="BT3" s="289"/>
+      <c r="BU3" s="289"/>
+      <c r="BV3" s="289"/>
+      <c r="BW3" s="289"/>
+      <c r="BX3" s="289"/>
+      <c r="BY3" s="289"/>
+      <c r="BZ3" s="289"/>
+      <c r="CA3" s="290">
         <v>43</v>
       </c>
-      <c r="CB3" s="310"/>
-      <c r="CC3" s="311"/>
-      <c r="CD3" s="311"/>
-      <c r="CE3" s="311"/>
-      <c r="CF3" s="311"/>
-      <c r="CG3" s="311"/>
-      <c r="CH3" s="311"/>
-      <c r="CI3" s="311"/>
-      <c r="CJ3" s="310"/>
+      <c r="CB3" s="290"/>
+      <c r="CC3" s="289"/>
+      <c r="CD3" s="289"/>
+      <c r="CE3" s="289"/>
+      <c r="CF3" s="289"/>
+      <c r="CG3" s="289"/>
+      <c r="CH3" s="289"/>
+      <c r="CI3" s="289"/>
+      <c r="CJ3" s="290"/>
       <c r="CK3" s="287">
         <v>46</v>
       </c>
@@ -11067,403 +11052,403 @@
       <c r="CV3" s="287"/>
       <c r="CW3" s="287"/>
       <c r="CX3" s="287"/>
-      <c r="CY3" s="288"/>
+      <c r="CY3" s="353"/>
       <c r="CZ3" s="251"/>
       <c r="DA3" s="252"/>
     </row>
     <row r="4" spans="2:113" s="242" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="312"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="314">
+      <c r="B4" s="291"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="293">
         <v>43107</v>
       </c>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="316"/>
-      <c r="I4" s="378">
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="305">
         <v>43118</v>
       </c>
-      <c r="J4" s="379"/>
-      <c r="K4" s="379"/>
-      <c r="L4" s="379"/>
-      <c r="M4" s="379"/>
-      <c r="N4" s="379"/>
-      <c r="O4" s="379"/>
-      <c r="P4" s="379"/>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="380"/>
-      <c r="S4" s="317">
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="296">
         <v>43125</v>
       </c>
-      <c r="T4" s="318"/>
-      <c r="U4" s="318"/>
-      <c r="V4" s="318"/>
-      <c r="W4" s="318"/>
-      <c r="X4" s="318"/>
-      <c r="Y4" s="318"/>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="318"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="284">
+      <c r="T4" s="297"/>
+      <c r="U4" s="297"/>
+      <c r="V4" s="297"/>
+      <c r="W4" s="297"/>
+      <c r="X4" s="297"/>
+      <c r="Y4" s="297"/>
+      <c r="Z4" s="297"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="299">
         <v>43144</v>
       </c>
-      <c r="AD4" s="285"/>
-      <c r="AE4" s="285"/>
-      <c r="AF4" s="285"/>
-      <c r="AG4" s="285"/>
-      <c r="AH4" s="285"/>
-      <c r="AI4" s="285"/>
-      <c r="AJ4" s="285"/>
-      <c r="AK4" s="285"/>
-      <c r="AL4" s="285"/>
-      <c r="AM4" s="285"/>
-      <c r="AN4" s="285"/>
-      <c r="AO4" s="285"/>
-      <c r="AP4" s="285"/>
-      <c r="AQ4" s="285"/>
-      <c r="AR4" s="285"/>
-      <c r="AS4" s="285"/>
-      <c r="AT4" s="285"/>
-      <c r="AU4" s="285"/>
-      <c r="AV4" s="286"/>
-      <c r="AW4" s="372">
+      <c r="AD4" s="300"/>
+      <c r="AE4" s="300"/>
+      <c r="AF4" s="300"/>
+      <c r="AG4" s="300"/>
+      <c r="AH4" s="300"/>
+      <c r="AI4" s="300"/>
+      <c r="AJ4" s="300"/>
+      <c r="AK4" s="300"/>
+      <c r="AL4" s="300"/>
+      <c r="AM4" s="300"/>
+      <c r="AN4" s="300"/>
+      <c r="AO4" s="300"/>
+      <c r="AP4" s="300"/>
+      <c r="AQ4" s="300"/>
+      <c r="AR4" s="300"/>
+      <c r="AS4" s="300"/>
+      <c r="AT4" s="300"/>
+      <c r="AU4" s="300"/>
+      <c r="AV4" s="301"/>
+      <c r="AW4" s="302">
         <v>43154</v>
       </c>
-      <c r="AX4" s="373"/>
-      <c r="AY4" s="373"/>
-      <c r="AZ4" s="373"/>
-      <c r="BA4" s="373"/>
-      <c r="BB4" s="373"/>
-      <c r="BC4" s="373"/>
-      <c r="BD4" s="373"/>
-      <c r="BE4" s="373"/>
-      <c r="BF4" s="374"/>
-      <c r="BG4" s="307">
+      <c r="AX4" s="303"/>
+      <c r="AY4" s="303"/>
+      <c r="AZ4" s="303"/>
+      <c r="BA4" s="303"/>
+      <c r="BB4" s="303"/>
+      <c r="BC4" s="303"/>
+      <c r="BD4" s="303"/>
+      <c r="BE4" s="303"/>
+      <c r="BF4" s="304"/>
+      <c r="BG4" s="308">
         <v>43162</v>
       </c>
-      <c r="BH4" s="308"/>
-      <c r="BI4" s="308"/>
-      <c r="BJ4" s="308"/>
-      <c r="BK4" s="308"/>
-      <c r="BL4" s="308"/>
-      <c r="BM4" s="308"/>
-      <c r="BN4" s="308"/>
-      <c r="BO4" s="308"/>
-      <c r="BP4" s="309"/>
-      <c r="BQ4" s="320">
+      <c r="BH4" s="309"/>
+      <c r="BI4" s="309"/>
+      <c r="BJ4" s="309"/>
+      <c r="BK4" s="309"/>
+      <c r="BL4" s="309"/>
+      <c r="BM4" s="309"/>
+      <c r="BN4" s="309"/>
+      <c r="BO4" s="309"/>
+      <c r="BP4" s="310"/>
+      <c r="BQ4" s="311">
         <v>43172</v>
       </c>
-      <c r="BR4" s="321"/>
-      <c r="BS4" s="321"/>
-      <c r="BT4" s="321"/>
-      <c r="BU4" s="321"/>
-      <c r="BV4" s="321"/>
-      <c r="BW4" s="321"/>
-      <c r="BX4" s="321"/>
-      <c r="BY4" s="321"/>
-      <c r="BZ4" s="322"/>
-      <c r="CA4" s="378">
+      <c r="BR4" s="312"/>
+      <c r="BS4" s="312"/>
+      <c r="BT4" s="312"/>
+      <c r="BU4" s="312"/>
+      <c r="BV4" s="312"/>
+      <c r="BW4" s="312"/>
+      <c r="BX4" s="312"/>
+      <c r="BY4" s="312"/>
+      <c r="BZ4" s="313"/>
+      <c r="CA4" s="305">
         <v>43179</v>
       </c>
-      <c r="CB4" s="379"/>
-      <c r="CC4" s="379"/>
-      <c r="CD4" s="379"/>
-      <c r="CE4" s="379"/>
-      <c r="CF4" s="379"/>
-      <c r="CG4" s="379"/>
-      <c r="CH4" s="379"/>
-      <c r="CI4" s="379"/>
-      <c r="CJ4" s="380"/>
-      <c r="CK4" s="314">
+      <c r="CB4" s="306"/>
+      <c r="CC4" s="306"/>
+      <c r="CD4" s="306"/>
+      <c r="CE4" s="306"/>
+      <c r="CF4" s="306"/>
+      <c r="CG4" s="306"/>
+      <c r="CH4" s="306"/>
+      <c r="CI4" s="306"/>
+      <c r="CJ4" s="307"/>
+      <c r="CK4" s="293">
         <v>43181</v>
       </c>
-      <c r="CL4" s="315"/>
-      <c r="CM4" s="315"/>
-      <c r="CN4" s="315"/>
-      <c r="CO4" s="315"/>
-      <c r="CP4" s="315"/>
-      <c r="CQ4" s="315"/>
-      <c r="CR4" s="315"/>
-      <c r="CS4" s="315"/>
-      <c r="CT4" s="315"/>
-      <c r="CU4" s="315"/>
-      <c r="CV4" s="315"/>
-      <c r="CW4" s="315"/>
-      <c r="CX4" s="315"/>
-      <c r="CY4" s="316"/>
+      <c r="CL4" s="294"/>
+      <c r="CM4" s="294"/>
+      <c r="CN4" s="294"/>
+      <c r="CO4" s="294"/>
+      <c r="CP4" s="294"/>
+      <c r="CQ4" s="294"/>
+      <c r="CR4" s="294"/>
+      <c r="CS4" s="294"/>
+      <c r="CT4" s="294"/>
+      <c r="CU4" s="294"/>
+      <c r="CV4" s="294"/>
+      <c r="CW4" s="294"/>
+      <c r="CX4" s="294"/>
+      <c r="CY4" s="295"/>
       <c r="CZ4" s="245"/>
       <c r="DA4" s="246"/>
     </row>
     <row r="5" spans="2:113" s="127" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="299" t="s">
+      <c r="C5" s="315"/>
+      <c r="D5" s="316" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="381" t="s">
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="327" t="s">
         <v>373</v>
       </c>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
-      <c r="L5" s="382"/>
-      <c r="M5" s="382"/>
-      <c r="N5" s="382"/>
-      <c r="O5" s="382"/>
-      <c r="P5" s="382"/>
-      <c r="Q5" s="382"/>
-      <c r="R5" s="383"/>
-      <c r="S5" s="302" t="s">
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="328"/>
+      <c r="Q5" s="328"/>
+      <c r="R5" s="329"/>
+      <c r="S5" s="319" t="s">
         <v>374</v>
       </c>
-      <c r="T5" s="303"/>
-      <c r="U5" s="303"/>
-      <c r="V5" s="303"/>
-      <c r="W5" s="303"/>
-      <c r="X5" s="303"/>
-      <c r="Y5" s="303"/>
-      <c r="Z5" s="303"/>
-      <c r="AA5" s="303"/>
-      <c r="AB5" s="304"/>
-      <c r="AC5" s="290" t="s">
+      <c r="T5" s="320"/>
+      <c r="U5" s="320"/>
+      <c r="V5" s="320"/>
+      <c r="W5" s="320"/>
+      <c r="X5" s="320"/>
+      <c r="Y5" s="320"/>
+      <c r="Z5" s="320"/>
+      <c r="AA5" s="320"/>
+      <c r="AB5" s="321"/>
+      <c r="AC5" s="346" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="291"/>
-      <c r="AE5" s="291"/>
-      <c r="AF5" s="291"/>
-      <c r="AG5" s="291"/>
-      <c r="AH5" s="291"/>
-      <c r="AI5" s="291"/>
-      <c r="AJ5" s="291"/>
-      <c r="AK5" s="291"/>
-      <c r="AL5" s="291"/>
-      <c r="AM5" s="291"/>
-      <c r="AN5" s="291"/>
-      <c r="AO5" s="291"/>
-      <c r="AP5" s="291"/>
-      <c r="AQ5" s="291"/>
-      <c r="AR5" s="291"/>
-      <c r="AS5" s="291"/>
-      <c r="AT5" s="291"/>
-      <c r="AU5" s="291"/>
-      <c r="AV5" s="292"/>
-      <c r="AW5" s="387" t="s">
+      <c r="AD5" s="347"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="347"/>
+      <c r="AH5" s="347"/>
+      <c r="AI5" s="347"/>
+      <c r="AJ5" s="347"/>
+      <c r="AK5" s="347"/>
+      <c r="AL5" s="347"/>
+      <c r="AM5" s="347"/>
+      <c r="AN5" s="347"/>
+      <c r="AO5" s="347"/>
+      <c r="AP5" s="347"/>
+      <c r="AQ5" s="347"/>
+      <c r="AR5" s="347"/>
+      <c r="AS5" s="347"/>
+      <c r="AT5" s="347"/>
+      <c r="AU5" s="347"/>
+      <c r="AV5" s="348"/>
+      <c r="AW5" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="388"/>
-      <c r="AY5" s="388"/>
-      <c r="AZ5" s="388"/>
-      <c r="BA5" s="388"/>
-      <c r="BB5" s="388"/>
-      <c r="BC5" s="388"/>
-      <c r="BD5" s="388"/>
-      <c r="BE5" s="388"/>
-      <c r="BF5" s="389"/>
-      <c r="BG5" s="294" t="s">
+      <c r="AX5" s="333"/>
+      <c r="AY5" s="333"/>
+      <c r="AZ5" s="333"/>
+      <c r="BA5" s="333"/>
+      <c r="BB5" s="333"/>
+      <c r="BC5" s="333"/>
+      <c r="BD5" s="333"/>
+      <c r="BE5" s="333"/>
+      <c r="BF5" s="334"/>
+      <c r="BG5" s="338" t="s">
         <v>375</v>
       </c>
-      <c r="BH5" s="295"/>
-      <c r="BI5" s="295"/>
-      <c r="BJ5" s="295"/>
-      <c r="BK5" s="295"/>
-      <c r="BL5" s="295"/>
-      <c r="BM5" s="295"/>
-      <c r="BN5" s="295"/>
-      <c r="BO5" s="295"/>
-      <c r="BP5" s="296"/>
-      <c r="BQ5" s="391" t="s">
+      <c r="BH5" s="339"/>
+      <c r="BI5" s="339"/>
+      <c r="BJ5" s="339"/>
+      <c r="BK5" s="339"/>
+      <c r="BL5" s="339"/>
+      <c r="BM5" s="339"/>
+      <c r="BN5" s="339"/>
+      <c r="BO5" s="339"/>
+      <c r="BP5" s="340"/>
+      <c r="BQ5" s="341" t="s">
         <v>376</v>
       </c>
-      <c r="BR5" s="392"/>
-      <c r="BS5" s="392"/>
-      <c r="BT5" s="392"/>
-      <c r="BU5" s="392"/>
-      <c r="BV5" s="392"/>
-      <c r="BW5" s="392"/>
-      <c r="BX5" s="392"/>
-      <c r="BY5" s="392"/>
-      <c r="BZ5" s="393"/>
-      <c r="CA5" s="395" t="s">
+      <c r="BR5" s="342"/>
+      <c r="BS5" s="342"/>
+      <c r="BT5" s="342"/>
+      <c r="BU5" s="342"/>
+      <c r="BV5" s="342"/>
+      <c r="BW5" s="342"/>
+      <c r="BX5" s="342"/>
+      <c r="BY5" s="342"/>
+      <c r="BZ5" s="343"/>
+      <c r="CA5" s="335" t="s">
         <v>377</v>
       </c>
-      <c r="CB5" s="396"/>
-      <c r="CC5" s="396"/>
-      <c r="CD5" s="396"/>
-      <c r="CE5" s="396"/>
-      <c r="CF5" s="396"/>
-      <c r="CG5" s="396"/>
-      <c r="CH5" s="396"/>
-      <c r="CI5" s="396"/>
-      <c r="CJ5" s="397"/>
-      <c r="CK5" s="375" t="s">
+      <c r="CB5" s="336"/>
+      <c r="CC5" s="336"/>
+      <c r="CD5" s="336"/>
+      <c r="CE5" s="336"/>
+      <c r="CF5" s="336"/>
+      <c r="CG5" s="336"/>
+      <c r="CH5" s="336"/>
+      <c r="CI5" s="336"/>
+      <c r="CJ5" s="337"/>
+      <c r="CK5" s="350" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="376"/>
-      <c r="CM5" s="376"/>
-      <c r="CN5" s="376"/>
-      <c r="CO5" s="376"/>
-      <c r="CP5" s="376"/>
-      <c r="CQ5" s="376"/>
-      <c r="CR5" s="376"/>
-      <c r="CS5" s="376"/>
-      <c r="CT5" s="376"/>
-      <c r="CU5" s="376"/>
-      <c r="CV5" s="376"/>
-      <c r="CW5" s="376"/>
-      <c r="CX5" s="376"/>
-      <c r="CY5" s="377"/>
+      <c r="CL5" s="351"/>
+      <c r="CM5" s="351"/>
+      <c r="CN5" s="351"/>
+      <c r="CO5" s="351"/>
+      <c r="CP5" s="351"/>
+      <c r="CQ5" s="351"/>
+      <c r="CR5" s="351"/>
+      <c r="CS5" s="351"/>
+      <c r="CT5" s="351"/>
+      <c r="CU5" s="351"/>
+      <c r="CV5" s="351"/>
+      <c r="CW5" s="351"/>
+      <c r="CX5" s="351"/>
+      <c r="CY5" s="352"/>
       <c r="CZ5" s="247"/>
       <c r="DA5" s="248"/>
     </row>
     <row r="6" spans="2:113" s="171" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="243"/>
       <c r="C6" s="244"/>
-      <c r="D6" s="305" t="s">
+      <c r="D6" s="322" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="384" t="s">
+      <c r="E6" s="322"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="323" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="385"/>
-      <c r="K6" s="385"/>
-      <c r="L6" s="385"/>
-      <c r="M6" s="386"/>
-      <c r="N6" s="384" t="s">
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="325"/>
+      <c r="N6" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="385"/>
-      <c r="P6" s="385"/>
-      <c r="Q6" s="385"/>
-      <c r="R6" s="386"/>
-      <c r="S6" s="306" t="s">
+      <c r="O6" s="324"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="325"/>
+      <c r="S6" s="326" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="306"/>
-      <c r="U6" s="306"/>
-      <c r="V6" s="306"/>
-      <c r="W6" s="306"/>
-      <c r="X6" s="306" t="s">
+      <c r="T6" s="326"/>
+      <c r="U6" s="326"/>
+      <c r="V6" s="326"/>
+      <c r="W6" s="326"/>
+      <c r="X6" s="326" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" s="306"/>
-      <c r="Z6" s="306"/>
-      <c r="AA6" s="306"/>
-      <c r="AB6" s="306"/>
-      <c r="AC6" s="289" t="s">
+      <c r="Y6" s="326"/>
+      <c r="Z6" s="326"/>
+      <c r="AA6" s="326"/>
+      <c r="AB6" s="326"/>
+      <c r="AC6" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="AD6" s="289"/>
-      <c r="AE6" s="289"/>
-      <c r="AF6" s="289"/>
-      <c r="AG6" s="289"/>
-      <c r="AH6" s="289" t="s">
+      <c r="AD6" s="345"/>
+      <c r="AE6" s="345"/>
+      <c r="AF6" s="345"/>
+      <c r="AG6" s="345"/>
+      <c r="AH6" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="289"/>
-      <c r="AJ6" s="289"/>
-      <c r="AK6" s="289"/>
-      <c r="AL6" s="289"/>
-      <c r="AM6" s="289" t="s">
+      <c r="AI6" s="345"/>
+      <c r="AJ6" s="345"/>
+      <c r="AK6" s="345"/>
+      <c r="AL6" s="345"/>
+      <c r="AM6" s="345" t="s">
         <v>88</v>
       </c>
-      <c r="AN6" s="289"/>
-      <c r="AO6" s="289"/>
-      <c r="AP6" s="289"/>
-      <c r="AQ6" s="289"/>
-      <c r="AR6" s="289" t="s">
+      <c r="AN6" s="345"/>
+      <c r="AO6" s="345"/>
+      <c r="AP6" s="345"/>
+      <c r="AQ6" s="345"/>
+      <c r="AR6" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="289"/>
-      <c r="AT6" s="289"/>
-      <c r="AU6" s="289"/>
-      <c r="AV6" s="289"/>
-      <c r="AW6" s="390" t="s">
+      <c r="AS6" s="345"/>
+      <c r="AT6" s="345"/>
+      <c r="AU6" s="345"/>
+      <c r="AV6" s="345"/>
+      <c r="AW6" s="349" t="s">
         <v>86</v>
       </c>
-      <c r="AX6" s="390"/>
-      <c r="AY6" s="390"/>
-      <c r="AZ6" s="390"/>
-      <c r="BA6" s="390"/>
-      <c r="BB6" s="390" t="s">
+      <c r="AX6" s="349"/>
+      <c r="AY6" s="349"/>
+      <c r="AZ6" s="349"/>
+      <c r="BA6" s="349"/>
+      <c r="BB6" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="BC6" s="390"/>
-      <c r="BD6" s="390"/>
-      <c r="BE6" s="390"/>
-      <c r="BF6" s="390"/>
-      <c r="BG6" s="293" t="s">
+      <c r="BC6" s="349"/>
+      <c r="BD6" s="349"/>
+      <c r="BE6" s="349"/>
+      <c r="BF6" s="349"/>
+      <c r="BG6" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="BH6" s="293"/>
-      <c r="BI6" s="293"/>
-      <c r="BJ6" s="293"/>
-      <c r="BK6" s="293"/>
-      <c r="BL6" s="293" t="s">
+      <c r="BH6" s="331"/>
+      <c r="BI6" s="331"/>
+      <c r="BJ6" s="331"/>
+      <c r="BK6" s="331"/>
+      <c r="BL6" s="331" t="s">
         <v>87</v>
       </c>
-      <c r="BM6" s="293"/>
-      <c r="BN6" s="293"/>
-      <c r="BO6" s="293"/>
-      <c r="BP6" s="293"/>
-      <c r="BQ6" s="394" t="s">
+      <c r="BM6" s="331"/>
+      <c r="BN6" s="331"/>
+      <c r="BO6" s="331"/>
+      <c r="BP6" s="331"/>
+      <c r="BQ6" s="344" t="s">
         <v>86</v>
       </c>
-      <c r="BR6" s="394"/>
-      <c r="BS6" s="394"/>
-      <c r="BT6" s="394"/>
-      <c r="BU6" s="394"/>
-      <c r="BV6" s="394" t="s">
+      <c r="BR6" s="344"/>
+      <c r="BS6" s="344"/>
+      <c r="BT6" s="344"/>
+      <c r="BU6" s="344"/>
+      <c r="BV6" s="344" t="s">
         <v>87</v>
       </c>
-      <c r="BW6" s="394"/>
-      <c r="BX6" s="394"/>
-      <c r="BY6" s="394"/>
-      <c r="BZ6" s="394"/>
-      <c r="CA6" s="398" t="s">
+      <c r="BW6" s="344"/>
+      <c r="BX6" s="344"/>
+      <c r="BY6" s="344"/>
+      <c r="BZ6" s="344"/>
+      <c r="CA6" s="330" t="s">
         <v>86</v>
       </c>
-      <c r="CB6" s="398"/>
-      <c r="CC6" s="398"/>
-      <c r="CD6" s="398"/>
-      <c r="CE6" s="398"/>
-      <c r="CF6" s="398" t="s">
+      <c r="CB6" s="330"/>
+      <c r="CC6" s="330"/>
+      <c r="CD6" s="330"/>
+      <c r="CE6" s="330"/>
+      <c r="CF6" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="CG6" s="398"/>
-      <c r="CH6" s="398"/>
-      <c r="CI6" s="398"/>
-      <c r="CJ6" s="398"/>
-      <c r="CK6" s="399" t="s">
+      <c r="CG6" s="330"/>
+      <c r="CH6" s="330"/>
+      <c r="CI6" s="330"/>
+      <c r="CJ6" s="330"/>
+      <c r="CK6" s="354" t="s">
         <v>86</v>
       </c>
-      <c r="CL6" s="400"/>
-      <c r="CM6" s="400"/>
-      <c r="CN6" s="400"/>
-      <c r="CO6" s="401"/>
-      <c r="CP6" s="399" t="s">
+      <c r="CL6" s="355"/>
+      <c r="CM6" s="355"/>
+      <c r="CN6" s="355"/>
+      <c r="CO6" s="356"/>
+      <c r="CP6" s="354" t="s">
         <v>90</v>
       </c>
-      <c r="CQ6" s="400"/>
-      <c r="CR6" s="400"/>
-      <c r="CS6" s="400"/>
-      <c r="CT6" s="401"/>
-      <c r="CU6" s="399" t="s">
+      <c r="CQ6" s="355"/>
+      <c r="CR6" s="355"/>
+      <c r="CS6" s="355"/>
+      <c r="CT6" s="356"/>
+      <c r="CU6" s="354" t="s">
         <v>87</v>
       </c>
-      <c r="CV6" s="400"/>
-      <c r="CW6" s="400"/>
-      <c r="CX6" s="400"/>
-      <c r="CY6" s="401"/>
+      <c r="CV6" s="355"/>
+      <c r="CW6" s="355"/>
+      <c r="CX6" s="355"/>
+      <c r="CY6" s="356"/>
       <c r="CZ6" s="249" t="s">
         <v>85</v>
       </c>
@@ -11473,10 +11458,10 @@
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="192" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D7" s="181"/>
       <c r="E7" s="180"/>
@@ -11493,8 +11478,12 @@
       <c r="P7" s="180"/>
       <c r="Q7" s="180"/>
       <c r="R7" s="182"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
+      <c r="S7" s="180">
+        <v>44</v>
+      </c>
+      <c r="T7" s="180">
+        <v>33</v>
+      </c>
       <c r="U7" s="180"/>
       <c r="V7" s="180"/>
       <c r="W7" s="180"/>
@@ -11523,12 +11512,16 @@
       <c r="AT7" s="180"/>
       <c r="AU7" s="180"/>
       <c r="AV7" s="182"/>
-      <c r="AW7" s="180"/>
+      <c r="AW7" s="180">
+        <v>33</v>
+      </c>
       <c r="AX7" s="180"/>
       <c r="AY7" s="180"/>
       <c r="AZ7" s="180"/>
       <c r="BA7" s="180"/>
-      <c r="BB7" s="181"/>
+      <c r="BB7" s="181">
+        <v>44</v>
+      </c>
       <c r="BC7" s="180"/>
       <c r="BD7" s="180"/>
       <c r="BE7" s="180"/>
@@ -11553,18 +11546,26 @@
       <c r="BX7" s="180"/>
       <c r="BY7" s="180"/>
       <c r="BZ7" s="182"/>
-      <c r="CA7" s="181"/>
+      <c r="CA7" s="181">
+        <v>23</v>
+      </c>
       <c r="CB7" s="180"/>
       <c r="CC7" s="180"/>
       <c r="CD7" s="180"/>
       <c r="CE7" s="182"/>
-      <c r="CF7" s="181"/>
+      <c r="CF7" s="181">
+        <v>22</v>
+      </c>
       <c r="CG7" s="180"/>
       <c r="CH7" s="180"/>
       <c r="CI7" s="180"/>
       <c r="CJ7" s="182"/>
-      <c r="CK7" s="181"/>
-      <c r="CL7" s="180"/>
+      <c r="CK7" s="181">
+        <v>33.200000762939453</v>
+      </c>
+      <c r="CL7" s="180">
+        <v>1</v>
+      </c>
       <c r="CM7" s="180"/>
       <c r="CN7" s="180"/>
       <c r="CO7" s="182"/>
@@ -11594,8 +11595,12 @@
       <c r="DI7" s="128"/>
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="193"/>
-      <c r="C8" s="173"/>
+      <c r="B8" s="193" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="173" t="s">
+        <v>384</v>
+      </c>
       <c r="D8" s="184"/>
       <c r="E8" s="183"/>
       <c r="F8" s="183"/>
@@ -11611,7 +11616,9 @@
       <c r="P8" s="183"/>
       <c r="Q8" s="183"/>
       <c r="R8" s="185"/>
-      <c r="S8" s="183"/>
+      <c r="S8" s="183">
+        <v>55</v>
+      </c>
       <c r="T8" s="183"/>
       <c r="U8" s="183"/>
       <c r="V8" s="183"/>
@@ -11651,12 +11658,16 @@
       <c r="BD8" s="183"/>
       <c r="BE8" s="183"/>
       <c r="BF8" s="185"/>
-      <c r="BG8" s="184"/>
+      <c r="BG8" s="184">
+        <v>77</v>
+      </c>
       <c r="BH8" s="183"/>
       <c r="BI8" s="183"/>
       <c r="BJ8" s="183"/>
       <c r="BK8" s="185"/>
-      <c r="BL8" s="184"/>
+      <c r="BL8" s="184">
+        <v>77</v>
+      </c>
       <c r="BM8" s="183"/>
       <c r="BN8" s="183"/>
       <c r="BO8" s="183"/>
@@ -11681,8 +11692,12 @@
       <c r="CH8" s="183"/>
       <c r="CI8" s="183"/>
       <c r="CJ8" s="185"/>
-      <c r="CK8" s="184"/>
-      <c r="CL8" s="183"/>
+      <c r="CK8" s="184">
+        <v>69.666664123535156</v>
+      </c>
+      <c r="CL8" s="183">
+        <v>3</v>
+      </c>
       <c r="CM8" s="183"/>
       <c r="CN8" s="183"/>
       <c r="CO8" s="185"/>
@@ -11716,8 +11731,12 @@
       <c r="DI8" s="128"/>
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="193"/>
-      <c r="C9" s="173"/>
+      <c r="B9" s="193" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="173" t="s">
+        <v>386</v>
+      </c>
       <c r="D9" s="184"/>
       <c r="E9" s="183"/>
       <c r="F9" s="183"/>
@@ -11803,8 +11822,12 @@
       <c r="CH9" s="183"/>
       <c r="CI9" s="183"/>
       <c r="CJ9" s="185"/>
-      <c r="CK9" s="184"/>
-      <c r="CL9" s="183"/>
+      <c r="CK9" s="184">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="183">
+        <v>2</v>
+      </c>
       <c r="CM9" s="183"/>
       <c r="CN9" s="183"/>
       <c r="CO9" s="185"/>
@@ -11834,8 +11857,12 @@
       <c r="DI9" s="128"/>
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="193"/>
-      <c r="C10" s="173"/>
+      <c r="B10" s="193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="173" t="s">
+        <v>388</v>
+      </c>
       <c r="D10" s="184"/>
       <c r="E10" s="183"/>
       <c r="F10" s="183"/>
@@ -15197,6 +15224,49 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="52">
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="AW5:BF5"/>
+    <mergeCell ref="CA5:CJ5"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="BG5:BP5"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BQ5:BZ5"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="S5:AB5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:R4"/>
     <mergeCell ref="AX2:CC2"/>
     <mergeCell ref="AC2:AW2"/>
     <mergeCell ref="B3:C3"/>
@@ -15206,49 +15276,6 @@
     <mergeCell ref="AW3:BF3"/>
     <mergeCell ref="CA3:CJ3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="AW5:BF5"/>
-    <mergeCell ref="CA5:CJ5"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="BG5:BP5"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BQ5:BZ5"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -15392,8 +15419,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15412,32 +15464,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16699,14 +16726,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="357" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="332"/>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358"/>
+      <c r="F3" s="359"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16751,14 +16778,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="357" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="332"/>
+      <c r="B7" s="358"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="358"/>
+      <c r="F7" s="359"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16771,11 +16798,11 @@
       <c r="C8" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="333" t="s">
+      <c r="D8" s="360" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="334"/>
-      <c r="F8" s="335"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="362"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16799,27 +16826,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="330" t="s">
+      <c r="A11" s="357" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="331"/>
-      <c r="C11" s="331"/>
-      <c r="D11" s="331"/>
-      <c r="E11" s="331"/>
-      <c r="F11" s="332"/>
+      <c r="B11" s="358"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
+      <c r="F11" s="359"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="336" t="s">
+      <c r="B12" s="363" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337"/>
-      <c r="E12" s="337"/>
-      <c r="F12" s="338"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="365"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16835,25 +16862,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="357" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="331"/>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="332"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="358"/>
+      <c r="F15" s="359"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="327"/>
-      <c r="C16" s="328"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="328"/>
-      <c r="F16" s="329"/>
+      <c r="B16" s="366"/>
+      <c r="C16" s="367"/>
+      <c r="D16" s="367"/>
+      <c r="E16" s="367"/>
+      <c r="F16" s="368"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16869,25 +16896,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="357" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="331"/>
-      <c r="C19" s="331"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
-      <c r="F19" s="332"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="358"/>
+      <c r="F19" s="359"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="327"/>
-      <c r="C20" s="328"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="328"/>
-      <c r="F20" s="329"/>
+      <c r="B20" s="366"/>
+      <c r="C20" s="367"/>
+      <c r="D20" s="367"/>
+      <c r="E20" s="367"/>
+      <c r="F20" s="368"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16903,25 +16930,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="357" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="331"/>
-      <c r="C23" s="331"/>
-      <c r="D23" s="331"/>
-      <c r="E23" s="331"/>
-      <c r="F23" s="332"/>
+      <c r="B23" s="358"/>
+      <c r="C23" s="358"/>
+      <c r="D23" s="358"/>
+      <c r="E23" s="358"/>
+      <c r="F23" s="359"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="327"/>
-      <c r="C24" s="328"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="329"/>
+      <c r="B24" s="366"/>
+      <c r="C24" s="367"/>
+      <c r="D24" s="367"/>
+      <c r="E24" s="367"/>
+      <c r="F24" s="368"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16937,27 +16964,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="330" t="s">
+      <c r="A27" s="357" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="331"/>
-      <c r="C27" s="331"/>
-      <c r="D27" s="331"/>
-      <c r="E27" s="331"/>
-      <c r="F27" s="332"/>
+      <c r="B27" s="358"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="358"/>
+      <c r="E27" s="358"/>
+      <c r="F27" s="359"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="327" t="s">
+      <c r="B28" s="366" t="s">
         <v>331</v>
       </c>
-      <c r="C28" s="328"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="329"/>
+      <c r="C28" s="367"/>
+      <c r="D28" s="367"/>
+      <c r="E28" s="367"/>
+      <c r="F28" s="368"/>
       <c r="H28" s="74" t="s">
         <v>331</v>
       </c>
@@ -16973,12 +17000,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16986,6 +17007,12 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -17029,10 +17056,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="342" t="s">
+      <c r="C3" s="372" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="342"/>
+      <c r="D3" s="372"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17094,35 +17121,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="373" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="346"/>
+      <c r="B11" s="375"/>
+      <c r="C11" s="376"/>
       <c r="D11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="349"/>
-      <c r="F11" s="350"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="380"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="344"/>
-      <c r="B12" s="347"/>
-      <c r="C12" s="348"/>
+      <c r="A12" s="374"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="378"/>
       <c r="D12" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="349"/>
-      <c r="F12" s="350"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="339" t="s">
+      <c r="B14" s="369" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="341"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="371"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17188,30 +17215,30 @@
         <v>184</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="352">
+      <c r="E3" s="393">
         <v>5665</v>
       </c>
-      <c r="F3" s="352"/>
+      <c r="F3" s="393"/>
       <c r="G3" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="352" t="s">
+      <c r="I3" s="393" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="352"/>
-      <c r="K3" s="352"/>
-      <c r="L3" s="352"/>
-      <c r="M3" s="352"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="393"/>
       <c r="N3" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="352" t="s">
+      <c r="P3" s="393" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="352"/>
-      <c r="R3" s="352"/>
-      <c r="S3" s="352"/>
-      <c r="T3" s="352"/>
+      <c r="Q3" s="393"/>
+      <c r="R3" s="393"/>
+      <c r="S3" s="393"/>
+      <c r="T3" s="393"/>
       <c r="V3" s="96" t="s">
         <v>163</v>
       </c>
@@ -17222,10 +17249,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="351" t="s">
+      <c r="AF3" s="392" t="s">
         <v>328</v>
       </c>
-      <c r="AG3" s="351"/>
+      <c r="AG3" s="392"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -17818,148 +17845,153 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="384" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="357"/>
-      <c r="D18" s="353" t="s">
+      <c r="C18" s="385"/>
+      <c r="D18" s="381" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="354"/>
-      <c r="F18" s="354"/>
-      <c r="G18" s="354"/>
-      <c r="H18" s="354"/>
-      <c r="I18" s="354"/>
-      <c r="J18" s="354"/>
-      <c r="K18" s="354"/>
-      <c r="L18" s="354"/>
-      <c r="M18" s="354"/>
-      <c r="N18" s="354"/>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="354"/>
-      <c r="S18" s="354"/>
-      <c r="T18" s="354"/>
-      <c r="U18" s="354"/>
-      <c r="V18" s="354"/>
-      <c r="W18" s="355"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="382"/>
+      <c r="K18" s="382"/>
+      <c r="L18" s="382"/>
+      <c r="M18" s="382"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="382"/>
+      <c r="P18" s="382"/>
+      <c r="Q18" s="382"/>
+      <c r="R18" s="382"/>
+      <c r="S18" s="382"/>
+      <c r="T18" s="382"/>
+      <c r="U18" s="382"/>
+      <c r="V18" s="382"/>
+      <c r="W18" s="383"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="358">
+      <c r="B19" s="386">
         <v>2</v>
       </c>
-      <c r="C19" s="359"/>
-      <c r="D19" s="353" t="s">
+      <c r="C19" s="387"/>
+      <c r="D19" s="381" t="s">
         <v>203</v>
       </c>
-      <c r="E19" s="354"/>
-      <c r="F19" s="354"/>
-      <c r="G19" s="354"/>
-      <c r="H19" s="354"/>
-      <c r="I19" s="354"/>
-      <c r="J19" s="354"/>
-      <c r="K19" s="354"/>
-      <c r="L19" s="354"/>
-      <c r="M19" s="354"/>
-      <c r="N19" s="354"/>
-      <c r="O19" s="354"/>
-      <c r="P19" s="354"/>
-      <c r="Q19" s="354"/>
-      <c r="R19" s="354"/>
-      <c r="S19" s="354"/>
-      <c r="T19" s="354"/>
-      <c r="U19" s="354"/>
-      <c r="V19" s="354"/>
-      <c r="W19" s="355"/>
+      <c r="E19" s="382"/>
+      <c r="F19" s="382"/>
+      <c r="G19" s="382"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="382"/>
+      <c r="K19" s="382"/>
+      <c r="L19" s="382"/>
+      <c r="M19" s="382"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="382"/>
+      <c r="P19" s="382"/>
+      <c r="Q19" s="382"/>
+      <c r="R19" s="382"/>
+      <c r="S19" s="382"/>
+      <c r="T19" s="382"/>
+      <c r="U19" s="382"/>
+      <c r="V19" s="382"/>
+      <c r="W19" s="383"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="360">
+      <c r="B20" s="388">
         <v>3</v>
       </c>
-      <c r="C20" s="361"/>
-      <c r="D20" s="353" t="s">
+      <c r="C20" s="389"/>
+      <c r="D20" s="381" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="354"/>
-      <c r="J20" s="354"/>
-      <c r="K20" s="354"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="354"/>
-      <c r="N20" s="354"/>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="354"/>
-      <c r="S20" s="354"/>
-      <c r="T20" s="354"/>
-      <c r="U20" s="354"/>
-      <c r="V20" s="354"/>
-      <c r="W20" s="355"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="382"/>
+      <c r="I20" s="382"/>
+      <c r="J20" s="382"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="382"/>
+      <c r="N20" s="382"/>
+      <c r="O20" s="382"/>
+      <c r="P20" s="382"/>
+      <c r="Q20" s="382"/>
+      <c r="R20" s="382"/>
+      <c r="S20" s="382"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="382"/>
+      <c r="V20" s="382"/>
+      <c r="W20" s="383"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="362">
+      <c r="B21" s="390">
         <v>4</v>
       </c>
-      <c r="C21" s="363"/>
-      <c r="D21" s="353" t="s">
+      <c r="C21" s="391"/>
+      <c r="D21" s="381" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="354"/>
-      <c r="F21" s="354"/>
-      <c r="G21" s="354"/>
-      <c r="H21" s="354"/>
-      <c r="I21" s="354"/>
-      <c r="J21" s="354"/>
-      <c r="K21" s="354"/>
-      <c r="L21" s="354"/>
-      <c r="M21" s="354"/>
-      <c r="N21" s="354"/>
-      <c r="O21" s="354"/>
-      <c r="P21" s="354"/>
-      <c r="Q21" s="354"/>
-      <c r="R21" s="354"/>
-      <c r="S21" s="354"/>
-      <c r="T21" s="354"/>
-      <c r="U21" s="354"/>
-      <c r="V21" s="354"/>
-      <c r="W21" s="355"/>
+      <c r="E21" s="382"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="382"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="382"/>
+      <c r="J21" s="382"/>
+      <c r="K21" s="382"/>
+      <c r="L21" s="382"/>
+      <c r="M21" s="382"/>
+      <c r="N21" s="382"/>
+      <c r="O21" s="382"/>
+      <c r="P21" s="382"/>
+      <c r="Q21" s="382"/>
+      <c r="R21" s="382"/>
+      <c r="S21" s="382"/>
+      <c r="T21" s="382"/>
+      <c r="U21" s="382"/>
+      <c r="V21" s="382"/>
+      <c r="W21" s="383"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="362">
+      <c r="B22" s="390">
         <v>5</v>
       </c>
-      <c r="C22" s="363"/>
-      <c r="D22" s="353" t="s">
+      <c r="C22" s="391"/>
+      <c r="D22" s="381" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="354"/>
-      <c r="F22" s="354"/>
-      <c r="G22" s="354"/>
-      <c r="H22" s="354"/>
-      <c r="I22" s="354"/>
-      <c r="J22" s="354"/>
-      <c r="K22" s="354"/>
-      <c r="L22" s="354"/>
-      <c r="M22" s="354"/>
-      <c r="N22" s="354"/>
-      <c r="O22" s="354"/>
-      <c r="P22" s="354"/>
-      <c r="Q22" s="354"/>
-      <c r="R22" s="354"/>
-      <c r="S22" s="354"/>
-      <c r="T22" s="354"/>
-      <c r="U22" s="354"/>
-      <c r="V22" s="354"/>
-      <c r="W22" s="355"/>
+      <c r="E22" s="382"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="382"/>
+      <c r="H22" s="382"/>
+      <c r="I22" s="382"/>
+      <c r="J22" s="382"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
+      <c r="M22" s="382"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="382"/>
+      <c r="P22" s="382"/>
+      <c r="Q22" s="382"/>
+      <c r="R22" s="382"/>
+      <c r="S22" s="382"/>
+      <c r="T22" s="382"/>
+      <c r="U22" s="382"/>
+      <c r="V22" s="382"/>
+      <c r="W22" s="383"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17969,11 +18001,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -18120,14 +18147,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="364" t="s">
+      <c r="N28" s="394" t="s">
         <v>197</v>
       </c>
-      <c r="O28" s="364"/>
-      <c r="P28" s="364"/>
-      <c r="Q28" s="364"/>
-      <c r="R28" s="364"/>
-      <c r="S28" s="364"/>
+      <c r="O28" s="394"/>
+      <c r="P28" s="394"/>
+      <c r="Q28" s="394"/>
+      <c r="R28" s="394"/>
+      <c r="S28" s="394"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -18150,14 +18177,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="364" t="s">
+      <c r="N36" s="394" t="s">
         <v>199</v>
       </c>
-      <c r="O36" s="364"/>
-      <c r="P36" s="364"/>
-      <c r="Q36" s="364"/>
-      <c r="R36" s="364"/>
-      <c r="S36" s="364"/>
+      <c r="O36" s="394"/>
+      <c r="P36" s="394"/>
+      <c r="Q36" s="394"/>
+      <c r="R36" s="394"/>
+      <c r="S36" s="394"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Logs" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="296">
   <si>
     <t>DAY</t>
   </si>
@@ -978,43 +978,31 @@
     <t>ART Assessment</t>
   </si>
   <si>
-    <t>WT2018</t>
-  </si>
-  <si>
     <t>Course Director - Julian Turner</t>
   </si>
   <si>
-    <t>Status - Planned</t>
-  </si>
-  <si>
-    <t>5398</t>
-  </si>
-  <si>
-    <t>Julian Turner</t>
-  </si>
-  <si>
-    <t>3453</t>
-  </si>
-  <si>
-    <t>Andy Long</t>
-  </si>
-  <si>
-    <t>9434</t>
-  </si>
-  <si>
-    <t>Grapes Fred</t>
-  </si>
-  <si>
-    <t>4345</t>
-  </si>
-  <si>
-    <t>Der Brain</t>
-  </si>
-  <si>
-    <t>5675</t>
-  </si>
-  <si>
-    <t>Jeff Bloom</t>
+    <t>WT2019</t>
+  </si>
+  <si>
+    <t>Status - In Progress</t>
+  </si>
+  <si>
+    <t>8333</t>
+  </si>
+  <si>
+    <t>Fred Perry</t>
+  </si>
+  <si>
+    <t>5233</t>
+  </si>
+  <si>
+    <t>Brain Child</t>
+  </si>
+  <si>
+    <t>7233</t>
+  </si>
+  <si>
+    <t>Frank Muhr</t>
   </si>
 </sst>
 </file>
@@ -7536,8 +7524,8 @@
   </sheetPr>
   <dimension ref="A1:AY52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7605,7 +7593,7 @@
       <c r="N2" s="273"/>
       <c r="O2" s="273"/>
       <c r="P2" s="274" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="274"/>
       <c r="R2" s="274"/>
@@ -7621,7 +7609,7 @@
       <c r="Z2" s="275"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="272" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC2" s="272"/>
       <c r="AD2" s="272"/>
@@ -8089,9 +8077,7 @@
       <c r="D6" s="137"/>
       <c r="E6" s="138"/>
       <c r="F6" s="139"/>
-      <c r="G6" s="140">
-        <v>4</v>
-      </c>
+      <c r="G6" s="140"/>
       <c r="H6" s="141"/>
       <c r="I6" s="141"/>
       <c r="J6" s="142"/>
@@ -8135,9 +8121,7 @@
       <c r="AV6" s="142"/>
       <c r="AW6" s="139"/>
       <c r="AX6" s="142"/>
-      <c r="AY6" s="142">
-        <v>5</v>
-      </c>
+      <c r="AY6" s="142"/>
     </row>
     <row r="7" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="188" t="s">
@@ -8151,24 +8135,22 @@
       <c r="F7" s="145"/>
       <c r="G7" s="146"/>
       <c r="H7" s="147"/>
-      <c r="I7" s="147">
-        <v>4</v>
-      </c>
+      <c r="I7" s="147"/>
       <c r="J7" s="148"/>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
       <c r="M7" s="145"/>
       <c r="N7" s="148"/>
-      <c r="O7" s="148">
-        <v>5</v>
-      </c>
+      <c r="O7" s="148"/>
       <c r="P7" s="145"/>
       <c r="Q7" s="148"/>
       <c r="R7" s="148"/>
       <c r="S7" s="148"/>
       <c r="T7" s="148"/>
       <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
+      <c r="V7" s="148">
+        <v>5</v>
+      </c>
       <c r="W7" s="148"/>
       <c r="X7" s="148"/>
       <c r="Y7" s="148"/>
@@ -8197,9 +8179,7 @@
       <c r="AV7" s="148"/>
       <c r="AW7" s="145"/>
       <c r="AX7" s="148"/>
-      <c r="AY7" s="148">
-        <v>4</v>
-      </c>
+      <c r="AY7" s="148"/>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="188" t="s">
@@ -8210,16 +8190,10 @@
       </c>
       <c r="D8" s="143"/>
       <c r="E8" s="144"/>
-      <c r="F8" s="145">
-        <v>1.25</v>
-      </c>
-      <c r="G8" s="146">
-        <v>1.5</v>
-      </c>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="148"/>
-      <c r="I8" s="148">
-        <v>5</v>
-      </c>
+      <c r="I8" s="148"/>
       <c r="J8" s="148"/>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>
@@ -8264,12 +8238,8 @@
       <c r="AY8" s="148"/>
     </row>
     <row r="9" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>297</v>
-      </c>
+      <c r="B9" s="188"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="143"/>
       <c r="E9" s="144"/>
       <c r="F9" s="145"/>
@@ -8278,9 +8248,7 @@
       <c r="I9" s="148"/>
       <c r="J9" s="148"/>
       <c r="K9" s="148"/>
-      <c r="L9" s="148">
-        <v>5</v>
-      </c>
+      <c r="L9" s="148"/>
       <c r="M9" s="145"/>
       <c r="N9" s="148"/>
       <c r="O9" s="148"/>
@@ -8306,9 +8274,7 @@
       <c r="AI9" s="148"/>
       <c r="AJ9" s="148"/>
       <c r="AK9" s="145"/>
-      <c r="AL9" s="148">
-        <v>1.5</v>
-      </c>
+      <c r="AL9" s="148"/>
       <c r="AM9" s="148"/>
       <c r="AN9" s="148"/>
       <c r="AO9" s="148"/>
@@ -8324,12 +8290,8 @@
       <c r="AY9" s="148"/>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="188" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="155" t="s">
-        <v>299</v>
-      </c>
+      <c r="B10" s="188"/>
+      <c r="C10" s="155"/>
       <c r="D10" s="143"/>
       <c r="E10" s="144"/>
       <c r="F10" s="145"/>
@@ -9876,11 +9838,11 @@
   </sheetPr>
   <dimension ref="A1:EJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BB11" sqref="BB11"/>
+      <selection pane="bottomRight" activeCell="CW8" sqref="CW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10045,7 +10007,7 @@
       <c r="AW2" s="273"/>
       <c r="AX2" s="345" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
-        <v>Course No - WT2018</v>
+        <v>Course No - WT2019</v>
       </c>
       <c r="AY2" s="345"/>
       <c r="AZ2" s="345"/>
@@ -10638,10 +10600,10 @@
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="184" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C7" s="174" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D7" s="176"/>
       <c r="E7" s="175"/>
@@ -10688,16 +10650,12 @@
       <c r="AT7" s="175"/>
       <c r="AU7" s="175"/>
       <c r="AV7" s="177"/>
-      <c r="AW7" s="175">
-        <v>100</v>
-      </c>
+      <c r="AW7" s="175"/>
       <c r="AX7" s="175"/>
       <c r="AY7" s="175"/>
       <c r="AZ7" s="175"/>
       <c r="BA7" s="175"/>
-      <c r="BB7" s="176">
-        <v>100</v>
-      </c>
+      <c r="BB7" s="176"/>
       <c r="BC7" s="175"/>
       <c r="BD7" s="175"/>
       <c r="BE7" s="175"/>
@@ -10732,23 +10690,29 @@
       <c r="CH7" s="175"/>
       <c r="CI7" s="175"/>
       <c r="CJ7" s="177"/>
-      <c r="CK7" s="176"/>
+      <c r="CK7" s="176">
+        <v>55</v>
+      </c>
       <c r="CL7" s="175"/>
       <c r="CM7" s="175"/>
       <c r="CN7" s="175"/>
       <c r="CO7" s="177"/>
-      <c r="CP7" s="176"/>
+      <c r="CP7" s="176">
+        <v>66</v>
+      </c>
       <c r="CQ7" s="175"/>
       <c r="CR7" s="175"/>
       <c r="CS7" s="175"/>
       <c r="CT7" s="177"/>
-      <c r="CU7" s="175"/>
+      <c r="CU7" s="175">
+        <v>77</v>
+      </c>
       <c r="CV7" s="175"/>
       <c r="CW7" s="175"/>
       <c r="CX7" s="175"/>
       <c r="CY7" s="175"/>
       <c r="CZ7" s="172">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="DA7" s="170">
         <v>0</v>
@@ -10764,10 +10728,10 @@
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="185" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" s="179"/>
       <c r="E8" s="178"/>
@@ -10855,31 +10819,43 @@
       <c r="CI8" s="178"/>
       <c r="CJ8" s="180"/>
       <c r="CK8" s="179">
-        <v>77</v>
-      </c>
-      <c r="CL8" s="178"/>
-      <c r="CM8" s="178"/>
+        <v>45</v>
+      </c>
+      <c r="CL8" s="178">
+        <v>57</v>
+      </c>
+      <c r="CM8" s="178">
+        <v>0</v>
+      </c>
       <c r="CN8" s="178"/>
       <c r="CO8" s="180"/>
       <c r="CP8" s="179">
-        <v>88</v>
-      </c>
-      <c r="CQ8" s="178"/>
-      <c r="CR8" s="178"/>
+        <v>44</v>
+      </c>
+      <c r="CQ8" s="178">
+        <v>77</v>
+      </c>
+      <c r="CR8" s="178">
+        <v>55</v>
+      </c>
       <c r="CS8" s="178"/>
       <c r="CT8" s="180"/>
       <c r="CU8" s="178">
+        <v>23</v>
+      </c>
+      <c r="CV8" s="178">
         <v>99</v>
       </c>
-      <c r="CV8" s="178"/>
-      <c r="CW8" s="178"/>
+      <c r="CW8" s="178">
+        <v>0</v>
+      </c>
       <c r="CX8" s="178"/>
       <c r="CY8" s="178"/>
       <c r="CZ8" s="172">
-        <v>88</v>
+        <v>37.333332061767578</v>
       </c>
       <c r="DA8" s="170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DB8" s="123"/>
       <c r="DC8" s="123"/>
@@ -10982,32 +10958,26 @@
       <c r="CH9" s="178"/>
       <c r="CI9" s="178"/>
       <c r="CJ9" s="180"/>
-      <c r="CK9" s="179">
-        <v>34</v>
-      </c>
+      <c r="CK9" s="179"/>
       <c r="CL9" s="178"/>
       <c r="CM9" s="178"/>
       <c r="CN9" s="178"/>
       <c r="CO9" s="180"/>
-      <c r="CP9" s="179">
-        <v>78</v>
-      </c>
+      <c r="CP9" s="179"/>
       <c r="CQ9" s="178"/>
       <c r="CR9" s="178"/>
       <c r="CS9" s="178"/>
       <c r="CT9" s="180"/>
-      <c r="CU9" s="178">
-        <v>99</v>
-      </c>
+      <c r="CU9" s="178"/>
       <c r="CV9" s="178"/>
       <c r="CW9" s="178"/>
       <c r="CX9" s="178"/>
       <c r="CY9" s="178"/>
       <c r="CZ9" s="172">
-        <v>70.333335876464844</v>
+        <v>0</v>
       </c>
       <c r="DA9" s="170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB9" s="123"/>
       <c r="DC9" s="123"/>
@@ -11019,12 +10989,8 @@
       <c r="DI9" s="123"/>
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="168" t="s">
-        <v>293</v>
-      </c>
+      <c r="B10" s="185"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="179"/>
       <c r="E10" s="178"/>
       <c r="F10" s="178"/>
@@ -11040,9 +11006,7 @@
       <c r="P10" s="178"/>
       <c r="Q10" s="178"/>
       <c r="R10" s="180"/>
-      <c r="S10" s="178">
-        <v>55</v>
-      </c>
+      <c r="S10" s="178"/>
       <c r="T10" s="178"/>
       <c r="U10" s="178"/>
       <c r="V10" s="178"/>
@@ -11082,16 +11046,12 @@
       <c r="BD10" s="178"/>
       <c r="BE10" s="178"/>
       <c r="BF10" s="180"/>
-      <c r="BG10" s="179">
-        <v>77</v>
-      </c>
+      <c r="BG10" s="179"/>
       <c r="BH10" s="178"/>
       <c r="BI10" s="178"/>
       <c r="BJ10" s="178"/>
       <c r="BK10" s="180"/>
-      <c r="BL10" s="179">
-        <v>77</v>
-      </c>
+      <c r="BL10" s="179"/>
       <c r="BM10" s="178"/>
       <c r="BN10" s="178"/>
       <c r="BO10" s="178"/>
@@ -11121,26 +11081,18 @@
       <c r="CM10" s="178"/>
       <c r="CN10" s="178"/>
       <c r="CO10" s="180"/>
-      <c r="CP10" s="179">
-        <v>88</v>
-      </c>
+      <c r="CP10" s="179"/>
       <c r="CQ10" s="178"/>
       <c r="CR10" s="178"/>
       <c r="CS10" s="178"/>
       <c r="CT10" s="180"/>
-      <c r="CU10" s="178">
-        <v>99</v>
-      </c>
+      <c r="CU10" s="178"/>
       <c r="CV10" s="178"/>
       <c r="CW10" s="178"/>
       <c r="CX10" s="178"/>
       <c r="CY10" s="178"/>
-      <c r="CZ10" s="172">
-        <v>69.666664123535156</v>
-      </c>
-      <c r="DA10" s="170">
-        <v>3</v>
-      </c>
+      <c r="CZ10" s="172"/>
+      <c r="DA10" s="170"/>
       <c r="DB10" s="123"/>
       <c r="DC10" s="123"/>
       <c r="DD10" s="123"/>
@@ -11151,12 +11103,8 @@
       <c r="DI10" s="123"/>
     </row>
     <row r="11" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="185" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="168" t="s">
-        <v>291</v>
-      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="179"/>
       <c r="E11" s="178"/>
       <c r="F11" s="178"/>
@@ -11172,12 +11120,8 @@
       <c r="P11" s="178"/>
       <c r="Q11" s="178"/>
       <c r="R11" s="180"/>
-      <c r="S11" s="178">
-        <v>44</v>
-      </c>
-      <c r="T11" s="178">
-        <v>33</v>
-      </c>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
       <c r="U11" s="178"/>
       <c r="V11" s="178"/>
       <c r="W11" s="178"/>
@@ -11206,16 +11150,12 @@
       <c r="AT11" s="178"/>
       <c r="AU11" s="178"/>
       <c r="AV11" s="180"/>
-      <c r="AW11" s="178">
-        <v>33</v>
-      </c>
+      <c r="AW11" s="178"/>
       <c r="AX11" s="178"/>
       <c r="AY11" s="178"/>
       <c r="AZ11" s="178"/>
       <c r="BA11" s="178"/>
-      <c r="BB11" s="179">
-        <v>44</v>
-      </c>
+      <c r="BB11" s="179"/>
       <c r="BC11" s="178"/>
       <c r="BD11" s="178"/>
       <c r="BE11" s="178"/>
@@ -11240,16 +11180,12 @@
       <c r="BX11" s="178"/>
       <c r="BY11" s="178"/>
       <c r="BZ11" s="180"/>
-      <c r="CA11" s="179">
-        <v>23</v>
-      </c>
+      <c r="CA11" s="179"/>
       <c r="CB11" s="178"/>
       <c r="CC11" s="178"/>
       <c r="CD11" s="178"/>
       <c r="CE11" s="180"/>
-      <c r="CF11" s="179">
-        <v>22</v>
-      </c>
+      <c r="CF11" s="179"/>
       <c r="CG11" s="178"/>
       <c r="CH11" s="178"/>
       <c r="CI11" s="178"/>
@@ -11269,12 +11205,8 @@
       <c r="CW11" s="178"/>
       <c r="CX11" s="178"/>
       <c r="CY11" s="178"/>
-      <c r="CZ11" s="172">
-        <v>33.200000762939453</v>
-      </c>
-      <c r="DA11" s="170">
-        <v>1</v>
-      </c>
+      <c r="CZ11" s="172"/>
+      <c r="DA11" s="170"/>
       <c r="DB11" s="123"/>
       <c r="DC11" s="123"/>
       <c r="DD11" s="123"/>

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Logs" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
   <si>
     <t>DAY</t>
   </si>
@@ -985,24 +985,6 @@
   </si>
   <si>
     <t>Status - In Progress</t>
-  </si>
-  <si>
-    <t>8333</t>
-  </si>
-  <si>
-    <t>Fred Perry</t>
-  </si>
-  <si>
-    <t>5233</t>
-  </si>
-  <si>
-    <t>Brain Child</t>
-  </si>
-  <si>
-    <t>7233</t>
-  </si>
-  <si>
-    <t>Frank Muhr</t>
   </si>
 </sst>
 </file>
@@ -4107,6 +4089,33 @@
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4116,6 +4125,168 @@
     <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4125,9 +4296,6 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4140,191 +4308,32 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4335,33 +4344,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4398,68 +4380,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7524,8 +7506,8 @@
   </sheetPr>
   <dimension ref="A1:AY52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8068,12 +8050,8 @@
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="187" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="154" t="s">
-        <v>291</v>
-      </c>
+      <c r="B6" s="187"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="137"/>
       <c r="E6" s="138"/>
       <c r="F6" s="139"/>
@@ -8124,12 +8102,8 @@
       <c r="AY6" s="142"/>
     </row>
     <row r="7" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="155" t="s">
-        <v>293</v>
-      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="143"/>
       <c r="E7" s="144"/>
       <c r="F7" s="145"/>
@@ -8148,9 +8122,7 @@
       <c r="S7" s="148"/>
       <c r="T7" s="148"/>
       <c r="U7" s="148"/>
-      <c r="V7" s="148">
-        <v>5</v>
-      </c>
+      <c r="V7" s="148"/>
       <c r="W7" s="148"/>
       <c r="X7" s="148"/>
       <c r="Y7" s="148"/>
@@ -8182,12 +8154,8 @@
       <c r="AY7" s="148"/>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="188" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="155" t="s">
-        <v>295</v>
-      </c>
+      <c r="B8" s="188"/>
+      <c r="C8" s="155"/>
       <c r="D8" s="143"/>
       <c r="E8" s="144"/>
       <c r="F8" s="145"/>
@@ -9698,27 +9666,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId5" name="BtnReset">
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9748,27 +9716,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId9" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9838,11 +9806,11 @@
   </sheetPr>
   <dimension ref="A1:EJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CW8" sqref="CW8"/>
+      <selection pane="bottomRight" activeCell="CK15" sqref="CK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10005,41 +9973,41 @@
       <c r="AU2" s="273"/>
       <c r="AV2" s="273"/>
       <c r="AW2" s="273"/>
-      <c r="AX2" s="345" t="str">
+      <c r="AX2" s="276" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="345"/>
-      <c r="AZ2" s="345"/>
-      <c r="BA2" s="345"/>
-      <c r="BB2" s="345"/>
-      <c r="BC2" s="345"/>
-      <c r="BD2" s="345"/>
-      <c r="BE2" s="345"/>
-      <c r="BF2" s="345"/>
-      <c r="BG2" s="345"/>
-      <c r="BH2" s="345"/>
-      <c r="BI2" s="345"/>
-      <c r="BJ2" s="345"/>
-      <c r="BK2" s="345"/>
-      <c r="BL2" s="345"/>
-      <c r="BM2" s="345"/>
-      <c r="BN2" s="345"/>
-      <c r="BO2" s="345"/>
-      <c r="BP2" s="345"/>
-      <c r="BQ2" s="345"/>
-      <c r="BR2" s="345"/>
-      <c r="BS2" s="345"/>
-      <c r="BT2" s="345"/>
-      <c r="BU2" s="345"/>
-      <c r="BV2" s="345"/>
-      <c r="BW2" s="345"/>
-      <c r="BX2" s="345"/>
-      <c r="BY2" s="345"/>
-      <c r="BZ2" s="345"/>
-      <c r="CA2" s="345"/>
-      <c r="CB2" s="345"/>
-      <c r="CC2" s="345"/>
+      <c r="AY2" s="276"/>
+      <c r="AZ2" s="276"/>
+      <c r="BA2" s="276"/>
+      <c r="BB2" s="276"/>
+      <c r="BC2" s="276"/>
+      <c r="BD2" s="276"/>
+      <c r="BE2" s="276"/>
+      <c r="BF2" s="276"/>
+      <c r="BG2" s="276"/>
+      <c r="BH2" s="276"/>
+      <c r="BI2" s="276"/>
+      <c r="BJ2" s="276"/>
+      <c r="BK2" s="276"/>
+      <c r="BL2" s="276"/>
+      <c r="BM2" s="276"/>
+      <c r="BN2" s="276"/>
+      <c r="BO2" s="276"/>
+      <c r="BP2" s="276"/>
+      <c r="BQ2" s="276"/>
+      <c r="BR2" s="276"/>
+      <c r="BS2" s="276"/>
+      <c r="BT2" s="276"/>
+      <c r="BU2" s="276"/>
+      <c r="BV2" s="276"/>
+      <c r="BW2" s="276"/>
+      <c r="BX2" s="276"/>
+      <c r="BY2" s="276"/>
+      <c r="BZ2" s="276"/>
+      <c r="CA2" s="276"/>
+      <c r="CB2" s="276"/>
+      <c r="CC2" s="276"/>
       <c r="CD2" s="165"/>
       <c r="CE2" s="165"/>
       <c r="CF2" s="165"/>
@@ -10073,524 +10041,524 @@
       <c r="DH2" s="165"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="282">
+      <c r="C3" s="278"/>
+      <c r="D3" s="279">
         <v>3</v>
       </c>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="330">
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="281">
         <v>10</v>
       </c>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="348"/>
-      <c r="S3" s="330">
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="281">
         <v>13</v>
       </c>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="348"/>
-      <c r="AC3" s="330">
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="279"/>
+      <c r="AA3" s="279"/>
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="281">
         <v>24</v>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="282"/>
-      <c r="AK3" s="282"/>
-      <c r="AL3" s="282"/>
-      <c r="AM3" s="282"/>
-      <c r="AN3" s="282"/>
-      <c r="AO3" s="282"/>
-      <c r="AP3" s="282"/>
-      <c r="AQ3" s="282"/>
-      <c r="AR3" s="282"/>
-      <c r="AS3" s="282"/>
-      <c r="AT3" s="282"/>
-      <c r="AU3" s="282"/>
-      <c r="AV3" s="348"/>
-      <c r="AW3" s="330">
+      <c r="AD3" s="279"/>
+      <c r="AE3" s="279"/>
+      <c r="AF3" s="279"/>
+      <c r="AG3" s="279"/>
+      <c r="AH3" s="279"/>
+      <c r="AI3" s="279"/>
+      <c r="AJ3" s="279"/>
+      <c r="AK3" s="279"/>
+      <c r="AL3" s="279"/>
+      <c r="AM3" s="279"/>
+      <c r="AN3" s="279"/>
+      <c r="AO3" s="279"/>
+      <c r="AP3" s="279"/>
+      <c r="AQ3" s="279"/>
+      <c r="AR3" s="279"/>
+      <c r="AS3" s="279"/>
+      <c r="AT3" s="279"/>
+      <c r="AU3" s="279"/>
+      <c r="AV3" s="280"/>
+      <c r="AW3" s="281">
         <v>30</v>
       </c>
-      <c r="AX3" s="282"/>
-      <c r="AY3" s="282"/>
-      <c r="AZ3" s="282"/>
-      <c r="BA3" s="282"/>
-      <c r="BB3" s="282"/>
-      <c r="BC3" s="282"/>
-      <c r="BD3" s="282"/>
-      <c r="BE3" s="282"/>
-      <c r="BF3" s="348"/>
-      <c r="BG3" s="329">
+      <c r="AX3" s="279"/>
+      <c r="AY3" s="279"/>
+      <c r="AZ3" s="279"/>
+      <c r="BA3" s="279"/>
+      <c r="BB3" s="279"/>
+      <c r="BC3" s="279"/>
+      <c r="BD3" s="279"/>
+      <c r="BE3" s="279"/>
+      <c r="BF3" s="280"/>
+      <c r="BG3" s="282">
         <v>34</v>
       </c>
-      <c r="BH3" s="329"/>
-      <c r="BI3" s="330"/>
-      <c r="BJ3" s="330"/>
-      <c r="BK3" s="330"/>
-      <c r="BL3" s="330"/>
-      <c r="BM3" s="330"/>
-      <c r="BN3" s="330"/>
-      <c r="BO3" s="330"/>
-      <c r="BP3" s="330"/>
-      <c r="BQ3" s="329">
+      <c r="BH3" s="282"/>
+      <c r="BI3" s="281"/>
+      <c r="BJ3" s="281"/>
+      <c r="BK3" s="281"/>
+      <c r="BL3" s="281"/>
+      <c r="BM3" s="281"/>
+      <c r="BN3" s="281"/>
+      <c r="BO3" s="281"/>
+      <c r="BP3" s="281"/>
+      <c r="BQ3" s="282">
         <v>40</v>
       </c>
-      <c r="BR3" s="329"/>
-      <c r="BS3" s="330"/>
-      <c r="BT3" s="330"/>
-      <c r="BU3" s="330"/>
-      <c r="BV3" s="330"/>
-      <c r="BW3" s="330"/>
-      <c r="BX3" s="330"/>
-      <c r="BY3" s="330"/>
-      <c r="BZ3" s="330"/>
-      <c r="CA3" s="329">
+      <c r="BR3" s="282"/>
+      <c r="BS3" s="281"/>
+      <c r="BT3" s="281"/>
+      <c r="BU3" s="281"/>
+      <c r="BV3" s="281"/>
+      <c r="BW3" s="281"/>
+      <c r="BX3" s="281"/>
+      <c r="BY3" s="281"/>
+      <c r="BZ3" s="281"/>
+      <c r="CA3" s="282">
         <v>43</v>
       </c>
-      <c r="CB3" s="329"/>
-      <c r="CC3" s="330"/>
-      <c r="CD3" s="330"/>
-      <c r="CE3" s="330"/>
-      <c r="CF3" s="330"/>
-      <c r="CG3" s="330"/>
-      <c r="CH3" s="330"/>
-      <c r="CI3" s="330"/>
-      <c r="CJ3" s="329"/>
-      <c r="CK3" s="282">
+      <c r="CB3" s="282"/>
+      <c r="CC3" s="281"/>
+      <c r="CD3" s="281"/>
+      <c r="CE3" s="281"/>
+      <c r="CF3" s="281"/>
+      <c r="CG3" s="281"/>
+      <c r="CH3" s="281"/>
+      <c r="CI3" s="281"/>
+      <c r="CJ3" s="282"/>
+      <c r="CK3" s="279">
         <v>46</v>
       </c>
-      <c r="CL3" s="282"/>
-      <c r="CM3" s="282"/>
-      <c r="CN3" s="282"/>
-      <c r="CO3" s="282"/>
-      <c r="CP3" s="282"/>
-      <c r="CQ3" s="282"/>
-      <c r="CR3" s="282"/>
-      <c r="CS3" s="282"/>
-      <c r="CT3" s="282"/>
-      <c r="CU3" s="282"/>
-      <c r="CV3" s="282"/>
-      <c r="CW3" s="282"/>
-      <c r="CX3" s="282"/>
-      <c r="CY3" s="283"/>
+      <c r="CL3" s="279"/>
+      <c r="CM3" s="279"/>
+      <c r="CN3" s="279"/>
+      <c r="CO3" s="279"/>
+      <c r="CP3" s="279"/>
+      <c r="CQ3" s="279"/>
+      <c r="CR3" s="279"/>
+      <c r="CS3" s="279"/>
+      <c r="CT3" s="279"/>
+      <c r="CU3" s="279"/>
+      <c r="CV3" s="279"/>
+      <c r="CW3" s="279"/>
+      <c r="CX3" s="279"/>
+      <c r="CY3" s="345"/>
       <c r="CZ3" s="243"/>
       <c r="DA3" s="244"/>
     </row>
     <row r="4" spans="2:113" s="234" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="334"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="276">
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="285">
         <v>43107</v>
       </c>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="323">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="297">
         <v>43118</v>
       </c>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="325"/>
-      <c r="S4" s="336">
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="298"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="288">
         <v>43125</v>
       </c>
-      <c r="T4" s="337"/>
-      <c r="U4" s="337"/>
-      <c r="V4" s="337"/>
-      <c r="W4" s="337"/>
-      <c r="X4" s="337"/>
-      <c r="Y4" s="337"/>
-      <c r="Z4" s="337"/>
-      <c r="AA4" s="337"/>
-      <c r="AB4" s="338"/>
-      <c r="AC4" s="339">
+      <c r="T4" s="289"/>
+      <c r="U4" s="289"/>
+      <c r="V4" s="289"/>
+      <c r="W4" s="289"/>
+      <c r="X4" s="289"/>
+      <c r="Y4" s="289"/>
+      <c r="Z4" s="289"/>
+      <c r="AA4" s="289"/>
+      <c r="AB4" s="290"/>
+      <c r="AC4" s="291">
         <v>43144</v>
       </c>
-      <c r="AD4" s="340"/>
-      <c r="AE4" s="340"/>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="340"/>
-      <c r="AH4" s="340"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="340"/>
-      <c r="AK4" s="340"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="340"/>
-      <c r="AN4" s="340"/>
-      <c r="AO4" s="340"/>
-      <c r="AP4" s="340"/>
-      <c r="AQ4" s="340"/>
-      <c r="AR4" s="340"/>
-      <c r="AS4" s="340"/>
-      <c r="AT4" s="340"/>
-      <c r="AU4" s="340"/>
-      <c r="AV4" s="341"/>
-      <c r="AW4" s="342">
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
+      <c r="AI4" s="292"/>
+      <c r="AJ4" s="292"/>
+      <c r="AK4" s="292"/>
+      <c r="AL4" s="292"/>
+      <c r="AM4" s="292"/>
+      <c r="AN4" s="292"/>
+      <c r="AO4" s="292"/>
+      <c r="AP4" s="292"/>
+      <c r="AQ4" s="292"/>
+      <c r="AR4" s="292"/>
+      <c r="AS4" s="292"/>
+      <c r="AT4" s="292"/>
+      <c r="AU4" s="292"/>
+      <c r="AV4" s="293"/>
+      <c r="AW4" s="294">
         <v>43154</v>
       </c>
-      <c r="AX4" s="343"/>
-      <c r="AY4" s="343"/>
-      <c r="AZ4" s="343"/>
-      <c r="BA4" s="343"/>
-      <c r="BB4" s="343"/>
-      <c r="BC4" s="343"/>
-      <c r="BD4" s="343"/>
-      <c r="BE4" s="343"/>
-      <c r="BF4" s="344"/>
-      <c r="BG4" s="326">
+      <c r="AX4" s="295"/>
+      <c r="AY4" s="295"/>
+      <c r="AZ4" s="295"/>
+      <c r="BA4" s="295"/>
+      <c r="BB4" s="295"/>
+      <c r="BC4" s="295"/>
+      <c r="BD4" s="295"/>
+      <c r="BE4" s="295"/>
+      <c r="BF4" s="296"/>
+      <c r="BG4" s="300">
         <v>43162</v>
       </c>
-      <c r="BH4" s="327"/>
-      <c r="BI4" s="327"/>
-      <c r="BJ4" s="327"/>
-      <c r="BK4" s="327"/>
-      <c r="BL4" s="327"/>
-      <c r="BM4" s="327"/>
-      <c r="BN4" s="327"/>
-      <c r="BO4" s="327"/>
-      <c r="BP4" s="328"/>
-      <c r="BQ4" s="331">
+      <c r="BH4" s="301"/>
+      <c r="BI4" s="301"/>
+      <c r="BJ4" s="301"/>
+      <c r="BK4" s="301"/>
+      <c r="BL4" s="301"/>
+      <c r="BM4" s="301"/>
+      <c r="BN4" s="301"/>
+      <c r="BO4" s="301"/>
+      <c r="BP4" s="302"/>
+      <c r="BQ4" s="303">
         <v>43172</v>
       </c>
-      <c r="BR4" s="332"/>
-      <c r="BS4" s="332"/>
-      <c r="BT4" s="332"/>
-      <c r="BU4" s="332"/>
-      <c r="BV4" s="332"/>
-      <c r="BW4" s="332"/>
-      <c r="BX4" s="332"/>
-      <c r="BY4" s="332"/>
-      <c r="BZ4" s="333"/>
-      <c r="CA4" s="323">
+      <c r="BR4" s="304"/>
+      <c r="BS4" s="304"/>
+      <c r="BT4" s="304"/>
+      <c r="BU4" s="304"/>
+      <c r="BV4" s="304"/>
+      <c r="BW4" s="304"/>
+      <c r="BX4" s="304"/>
+      <c r="BY4" s="304"/>
+      <c r="BZ4" s="305"/>
+      <c r="CA4" s="297">
         <v>43179</v>
       </c>
-      <c r="CB4" s="324"/>
-      <c r="CC4" s="324"/>
-      <c r="CD4" s="324"/>
-      <c r="CE4" s="324"/>
-      <c r="CF4" s="324"/>
-      <c r="CG4" s="324"/>
-      <c r="CH4" s="324"/>
-      <c r="CI4" s="324"/>
-      <c r="CJ4" s="325"/>
-      <c r="CK4" s="276">
+      <c r="CB4" s="298"/>
+      <c r="CC4" s="298"/>
+      <c r="CD4" s="298"/>
+      <c r="CE4" s="298"/>
+      <c r="CF4" s="298"/>
+      <c r="CG4" s="298"/>
+      <c r="CH4" s="298"/>
+      <c r="CI4" s="298"/>
+      <c r="CJ4" s="299"/>
+      <c r="CK4" s="285">
         <v>43181</v>
       </c>
-      <c r="CL4" s="277"/>
-      <c r="CM4" s="277"/>
-      <c r="CN4" s="277"/>
-      <c r="CO4" s="277"/>
-      <c r="CP4" s="277"/>
-      <c r="CQ4" s="277"/>
-      <c r="CR4" s="277"/>
-      <c r="CS4" s="277"/>
-      <c r="CT4" s="277"/>
-      <c r="CU4" s="277"/>
-      <c r="CV4" s="277"/>
-      <c r="CW4" s="277"/>
-      <c r="CX4" s="277"/>
-      <c r="CY4" s="278"/>
+      <c r="CL4" s="286"/>
+      <c r="CM4" s="286"/>
+      <c r="CN4" s="286"/>
+      <c r="CO4" s="286"/>
+      <c r="CP4" s="286"/>
+      <c r="CQ4" s="286"/>
+      <c r="CR4" s="286"/>
+      <c r="CS4" s="286"/>
+      <c r="CT4" s="286"/>
+      <c r="CU4" s="286"/>
+      <c r="CV4" s="286"/>
+      <c r="CW4" s="286"/>
+      <c r="CX4" s="286"/>
+      <c r="CY4" s="287"/>
       <c r="CZ4" s="237"/>
       <c r="DA4" s="238"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="308"/>
-      <c r="D5" s="309" t="s">
+      <c r="C5" s="307"/>
+      <c r="D5" s="308" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="320" t="s">
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="319" t="s">
         <v>282</v>
       </c>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="321"/>
-      <c r="O5" s="321"/>
-      <c r="P5" s="321"/>
-      <c r="Q5" s="321"/>
-      <c r="R5" s="322"/>
-      <c r="S5" s="312" t="s">
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="320"/>
+      <c r="P5" s="320"/>
+      <c r="Q5" s="320"/>
+      <c r="R5" s="321"/>
+      <c r="S5" s="311" t="s">
         <v>283</v>
       </c>
-      <c r="T5" s="313"/>
-      <c r="U5" s="313"/>
-      <c r="V5" s="313"/>
-      <c r="W5" s="313"/>
-      <c r="X5" s="313"/>
-      <c r="Y5" s="313"/>
-      <c r="Z5" s="313"/>
-      <c r="AA5" s="313"/>
-      <c r="AB5" s="314"/>
-      <c r="AC5" s="288" t="s">
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="312"/>
+      <c r="W5" s="312"/>
+      <c r="X5" s="312"/>
+      <c r="Y5" s="312"/>
+      <c r="Z5" s="312"/>
+      <c r="AA5" s="312"/>
+      <c r="AB5" s="313"/>
+      <c r="AC5" s="338" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="289"/>
-      <c r="AE5" s="289"/>
-      <c r="AF5" s="289"/>
-      <c r="AG5" s="289"/>
-      <c r="AH5" s="289"/>
-      <c r="AI5" s="289"/>
-      <c r="AJ5" s="289"/>
-      <c r="AK5" s="289"/>
-      <c r="AL5" s="289"/>
-      <c r="AM5" s="289"/>
-      <c r="AN5" s="289"/>
-      <c r="AO5" s="289"/>
-      <c r="AP5" s="289"/>
-      <c r="AQ5" s="289"/>
-      <c r="AR5" s="289"/>
-      <c r="AS5" s="289"/>
-      <c r="AT5" s="289"/>
-      <c r="AU5" s="289"/>
-      <c r="AV5" s="290"/>
-      <c r="AW5" s="295" t="s">
+      <c r="AD5" s="339"/>
+      <c r="AE5" s="339"/>
+      <c r="AF5" s="339"/>
+      <c r="AG5" s="339"/>
+      <c r="AH5" s="339"/>
+      <c r="AI5" s="339"/>
+      <c r="AJ5" s="339"/>
+      <c r="AK5" s="339"/>
+      <c r="AL5" s="339"/>
+      <c r="AM5" s="339"/>
+      <c r="AN5" s="339"/>
+      <c r="AO5" s="339"/>
+      <c r="AP5" s="339"/>
+      <c r="AQ5" s="339"/>
+      <c r="AR5" s="339"/>
+      <c r="AS5" s="339"/>
+      <c r="AT5" s="339"/>
+      <c r="AU5" s="339"/>
+      <c r="AV5" s="340"/>
+      <c r="AW5" s="324" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="296"/>
-      <c r="AY5" s="296"/>
-      <c r="AZ5" s="296"/>
-      <c r="BA5" s="296"/>
-      <c r="BB5" s="296"/>
-      <c r="BC5" s="296"/>
-      <c r="BD5" s="296"/>
-      <c r="BE5" s="296"/>
-      <c r="BF5" s="297"/>
-      <c r="BG5" s="301" t="s">
+      <c r="AX5" s="325"/>
+      <c r="AY5" s="325"/>
+      <c r="AZ5" s="325"/>
+      <c r="BA5" s="325"/>
+      <c r="BB5" s="325"/>
+      <c r="BC5" s="325"/>
+      <c r="BD5" s="325"/>
+      <c r="BE5" s="325"/>
+      <c r="BF5" s="326"/>
+      <c r="BG5" s="330" t="s">
         <v>284</v>
       </c>
-      <c r="BH5" s="302"/>
-      <c r="BI5" s="302"/>
-      <c r="BJ5" s="302"/>
-      <c r="BK5" s="302"/>
-      <c r="BL5" s="302"/>
-      <c r="BM5" s="302"/>
-      <c r="BN5" s="302"/>
-      <c r="BO5" s="302"/>
-      <c r="BP5" s="303"/>
-      <c r="BQ5" s="304" t="s">
+      <c r="BH5" s="331"/>
+      <c r="BI5" s="331"/>
+      <c r="BJ5" s="331"/>
+      <c r="BK5" s="331"/>
+      <c r="BL5" s="331"/>
+      <c r="BM5" s="331"/>
+      <c r="BN5" s="331"/>
+      <c r="BO5" s="331"/>
+      <c r="BP5" s="332"/>
+      <c r="BQ5" s="333" t="s">
         <v>285</v>
       </c>
-      <c r="BR5" s="305"/>
-      <c r="BS5" s="305"/>
-      <c r="BT5" s="305"/>
-      <c r="BU5" s="305"/>
-      <c r="BV5" s="305"/>
-      <c r="BW5" s="305"/>
-      <c r="BX5" s="305"/>
-      <c r="BY5" s="305"/>
-      <c r="BZ5" s="306"/>
-      <c r="CA5" s="298" t="s">
+      <c r="BR5" s="334"/>
+      <c r="BS5" s="334"/>
+      <c r="BT5" s="334"/>
+      <c r="BU5" s="334"/>
+      <c r="BV5" s="334"/>
+      <c r="BW5" s="334"/>
+      <c r="BX5" s="334"/>
+      <c r="BY5" s="334"/>
+      <c r="BZ5" s="335"/>
+      <c r="CA5" s="327" t="s">
         <v>286</v>
       </c>
-      <c r="CB5" s="299"/>
-      <c r="CC5" s="299"/>
-      <c r="CD5" s="299"/>
-      <c r="CE5" s="299"/>
-      <c r="CF5" s="299"/>
-      <c r="CG5" s="299"/>
-      <c r="CH5" s="299"/>
-      <c r="CI5" s="299"/>
-      <c r="CJ5" s="300"/>
-      <c r="CK5" s="279" t="s">
+      <c r="CB5" s="328"/>
+      <c r="CC5" s="328"/>
+      <c r="CD5" s="328"/>
+      <c r="CE5" s="328"/>
+      <c r="CF5" s="328"/>
+      <c r="CG5" s="328"/>
+      <c r="CH5" s="328"/>
+      <c r="CI5" s="328"/>
+      <c r="CJ5" s="329"/>
+      <c r="CK5" s="342" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="280"/>
-      <c r="CM5" s="280"/>
-      <c r="CN5" s="280"/>
-      <c r="CO5" s="280"/>
-      <c r="CP5" s="280"/>
-      <c r="CQ5" s="280"/>
-      <c r="CR5" s="280"/>
-      <c r="CS5" s="280"/>
-      <c r="CT5" s="280"/>
-      <c r="CU5" s="280"/>
-      <c r="CV5" s="280"/>
-      <c r="CW5" s="280"/>
-      <c r="CX5" s="280"/>
-      <c r="CY5" s="281"/>
+      <c r="CL5" s="343"/>
+      <c r="CM5" s="343"/>
+      <c r="CN5" s="343"/>
+      <c r="CO5" s="343"/>
+      <c r="CP5" s="343"/>
+      <c r="CQ5" s="343"/>
+      <c r="CR5" s="343"/>
+      <c r="CS5" s="343"/>
+      <c r="CT5" s="343"/>
+      <c r="CU5" s="343"/>
+      <c r="CV5" s="343"/>
+      <c r="CW5" s="343"/>
+      <c r="CX5" s="343"/>
+      <c r="CY5" s="344"/>
       <c r="CZ5" s="239"/>
       <c r="DA5" s="240"/>
     </row>
     <row r="6" spans="2:113" s="166" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="235"/>
       <c r="C6" s="236"/>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="316" t="s">
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="314"/>
+      <c r="H6" s="314"/>
+      <c r="I6" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="316" t="s">
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="315" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="318"/>
-      <c r="S6" s="319" t="s">
+      <c r="O6" s="316"/>
+      <c r="P6" s="316"/>
+      <c r="Q6" s="316"/>
+      <c r="R6" s="317"/>
+      <c r="S6" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="319"/>
-      <c r="U6" s="319"/>
-      <c r="V6" s="319"/>
-      <c r="W6" s="319"/>
-      <c r="X6" s="319" t="s">
+      <c r="T6" s="318"/>
+      <c r="U6" s="318"/>
+      <c r="V6" s="318"/>
+      <c r="W6" s="318"/>
+      <c r="X6" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="319"/>
-      <c r="Z6" s="319"/>
-      <c r="AA6" s="319"/>
-      <c r="AB6" s="319"/>
-      <c r="AC6" s="287" t="s">
+      <c r="Y6" s="318"/>
+      <c r="Z6" s="318"/>
+      <c r="AA6" s="318"/>
+      <c r="AB6" s="318"/>
+      <c r="AC6" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="287" t="s">
+      <c r="AD6" s="337"/>
+      <c r="AE6" s="337"/>
+      <c r="AF6" s="337"/>
+      <c r="AG6" s="337"/>
+      <c r="AH6" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="287"/>
-      <c r="AK6" s="287"/>
-      <c r="AL6" s="287"/>
-      <c r="AM6" s="287" t="s">
+      <c r="AI6" s="337"/>
+      <c r="AJ6" s="337"/>
+      <c r="AK6" s="337"/>
+      <c r="AL6" s="337"/>
+      <c r="AM6" s="337" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="287"/>
-      <c r="AO6" s="287"/>
-      <c r="AP6" s="287"/>
-      <c r="AQ6" s="287"/>
-      <c r="AR6" s="287" t="s">
+      <c r="AN6" s="337"/>
+      <c r="AO6" s="337"/>
+      <c r="AP6" s="337"/>
+      <c r="AQ6" s="337"/>
+      <c r="AR6" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="287"/>
-      <c r="AT6" s="287"/>
-      <c r="AU6" s="287"/>
-      <c r="AV6" s="287"/>
-      <c r="AW6" s="292" t="s">
+      <c r="AS6" s="337"/>
+      <c r="AT6" s="337"/>
+      <c r="AU6" s="337"/>
+      <c r="AV6" s="337"/>
+      <c r="AW6" s="341" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="292"/>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="292"/>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="292" t="s">
+      <c r="AX6" s="341"/>
+      <c r="AY6" s="341"/>
+      <c r="AZ6" s="341"/>
+      <c r="BA6" s="341"/>
+      <c r="BB6" s="341" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="292"/>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="292"/>
-      <c r="BG6" s="294" t="s">
+      <c r="BC6" s="341"/>
+      <c r="BD6" s="341"/>
+      <c r="BE6" s="341"/>
+      <c r="BF6" s="341"/>
+      <c r="BG6" s="323" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="294"/>
-      <c r="BI6" s="294"/>
-      <c r="BJ6" s="294"/>
-      <c r="BK6" s="294"/>
-      <c r="BL6" s="294" t="s">
+      <c r="BH6" s="323"/>
+      <c r="BI6" s="323"/>
+      <c r="BJ6" s="323"/>
+      <c r="BK6" s="323"/>
+      <c r="BL6" s="323" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="294"/>
-      <c r="BN6" s="294"/>
-      <c r="BO6" s="294"/>
-      <c r="BP6" s="294"/>
-      <c r="BQ6" s="291" t="s">
+      <c r="BM6" s="323"/>
+      <c r="BN6" s="323"/>
+      <c r="BO6" s="323"/>
+      <c r="BP6" s="323"/>
+      <c r="BQ6" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="291"/>
-      <c r="BS6" s="291"/>
-      <c r="BT6" s="291"/>
-      <c r="BU6" s="291"/>
-      <c r="BV6" s="291" t="s">
+      <c r="BR6" s="336"/>
+      <c r="BS6" s="336"/>
+      <c r="BT6" s="336"/>
+      <c r="BU6" s="336"/>
+      <c r="BV6" s="336" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="291"/>
-      <c r="BX6" s="291"/>
-      <c r="BY6" s="291"/>
-      <c r="BZ6" s="291"/>
-      <c r="CA6" s="293" t="s">
+      <c r="BW6" s="336"/>
+      <c r="BX6" s="336"/>
+      <c r="BY6" s="336"/>
+      <c r="BZ6" s="336"/>
+      <c r="CA6" s="322" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="293"/>
-      <c r="CC6" s="293"/>
-      <c r="CD6" s="293"/>
-      <c r="CE6" s="293"/>
-      <c r="CF6" s="293" t="s">
+      <c r="CB6" s="322"/>
+      <c r="CC6" s="322"/>
+      <c r="CD6" s="322"/>
+      <c r="CE6" s="322"/>
+      <c r="CF6" s="322" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="293"/>
-      <c r="CH6" s="293"/>
-      <c r="CI6" s="293"/>
-      <c r="CJ6" s="293"/>
-      <c r="CK6" s="284" t="s">
+      <c r="CG6" s="322"/>
+      <c r="CH6" s="322"/>
+      <c r="CI6" s="322"/>
+      <c r="CJ6" s="322"/>
+      <c r="CK6" s="346" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="285"/>
-      <c r="CM6" s="285"/>
-      <c r="CN6" s="285"/>
-      <c r="CO6" s="286"/>
-      <c r="CP6" s="284" t="s">
+      <c r="CL6" s="347"/>
+      <c r="CM6" s="347"/>
+      <c r="CN6" s="347"/>
+      <c r="CO6" s="348"/>
+      <c r="CP6" s="346" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="285"/>
-      <c r="CR6" s="285"/>
-      <c r="CS6" s="285"/>
-      <c r="CT6" s="286"/>
-      <c r="CU6" s="284" t="s">
+      <c r="CQ6" s="347"/>
+      <c r="CR6" s="347"/>
+      <c r="CS6" s="347"/>
+      <c r="CT6" s="348"/>
+      <c r="CU6" s="346" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="285"/>
-      <c r="CW6" s="285"/>
-      <c r="CX6" s="285"/>
-      <c r="CY6" s="286"/>
+      <c r="CV6" s="347"/>
+      <c r="CW6" s="347"/>
+      <c r="CX6" s="347"/>
+      <c r="CY6" s="348"/>
       <c r="CZ6" s="241" t="s">
         <v>77</v>
       </c>
@@ -10599,12 +10567,8 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="184" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="174" t="s">
-        <v>291</v>
-      </c>
+      <c r="B7" s="184"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="176"/>
       <c r="E7" s="175"/>
       <c r="F7" s="175"/>
@@ -10690,33 +10654,23 @@
       <c r="CH7" s="175"/>
       <c r="CI7" s="175"/>
       <c r="CJ7" s="177"/>
-      <c r="CK7" s="176">
-        <v>55</v>
-      </c>
+      <c r="CK7" s="176"/>
       <c r="CL7" s="175"/>
       <c r="CM7" s="175"/>
       <c r="CN7" s="175"/>
       <c r="CO7" s="177"/>
-      <c r="CP7" s="176">
-        <v>66</v>
-      </c>
+      <c r="CP7" s="176"/>
       <c r="CQ7" s="175"/>
       <c r="CR7" s="175"/>
       <c r="CS7" s="175"/>
       <c r="CT7" s="177"/>
-      <c r="CU7" s="175">
-        <v>77</v>
-      </c>
+      <c r="CU7" s="175"/>
       <c r="CV7" s="175"/>
       <c r="CW7" s="175"/>
       <c r="CX7" s="175"/>
       <c r="CY7" s="175"/>
-      <c r="CZ7" s="172">
-        <v>66</v>
-      </c>
-      <c r="DA7" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ7" s="172"/>
+      <c r="DA7" s="170"/>
       <c r="DB7" s="123"/>
       <c r="DC7" s="123"/>
       <c r="DD7" s="123"/>
@@ -10727,12 +10681,8 @@
       <c r="DI7" s="123"/>
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="168" t="s">
-        <v>293</v>
-      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="179"/>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
@@ -10818,45 +10768,23 @@
       <c r="CH8" s="178"/>
       <c r="CI8" s="178"/>
       <c r="CJ8" s="180"/>
-      <c r="CK8" s="179">
-        <v>45</v>
-      </c>
-      <c r="CL8" s="178">
-        <v>57</v>
-      </c>
-      <c r="CM8" s="178">
-        <v>0</v>
-      </c>
+      <c r="CK8" s="179"/>
+      <c r="CL8" s="178"/>
+      <c r="CM8" s="178"/>
       <c r="CN8" s="178"/>
       <c r="CO8" s="180"/>
-      <c r="CP8" s="179">
-        <v>44</v>
-      </c>
-      <c r="CQ8" s="178">
-        <v>77</v>
-      </c>
-      <c r="CR8" s="178">
-        <v>55</v>
-      </c>
+      <c r="CP8" s="179"/>
+      <c r="CQ8" s="178"/>
+      <c r="CR8" s="178"/>
       <c r="CS8" s="178"/>
       <c r="CT8" s="180"/>
-      <c r="CU8" s="178">
-        <v>23</v>
-      </c>
-      <c r="CV8" s="178">
-        <v>99</v>
-      </c>
-      <c r="CW8" s="178">
-        <v>0</v>
-      </c>
+      <c r="CU8" s="178"/>
+      <c r="CV8" s="178"/>
+      <c r="CW8" s="178"/>
       <c r="CX8" s="178"/>
       <c r="CY8" s="178"/>
-      <c r="CZ8" s="172">
-        <v>37.333332061767578</v>
-      </c>
-      <c r="DA8" s="170">
-        <v>3</v>
-      </c>
+      <c r="CZ8" s="172"/>
+      <c r="DA8" s="170"/>
       <c r="DB8" s="123"/>
       <c r="DC8" s="123"/>
       <c r="DD8" s="123"/>
@@ -10867,12 +10795,8 @@
       <c r="DI8" s="123"/>
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>295</v>
-      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="179"/>
       <c r="E9" s="178"/>
       <c r="F9" s="178"/>
@@ -10973,12 +10897,8 @@
       <c r="CW9" s="178"/>
       <c r="CX9" s="178"/>
       <c r="CY9" s="178"/>
-      <c r="CZ9" s="172">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ9" s="172"/>
+      <c r="DA9" s="170"/>
       <c r="DB9" s="123"/>
       <c r="DC9" s="123"/>
       <c r="DD9" s="123"/>
@@ -14338,12 +14258,55 @@
       <c r="EJ53" s="123"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <sortState ref="B7:DA35">
     <sortCondition descending="1" ref="CZ13"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="52">
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="AW5:BF5"/>
+    <mergeCell ref="CA5:CJ5"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="BG5:BP5"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BQ5:BZ5"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="S5:AB5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:R4"/>
     <mergeCell ref="AX2:CC2"/>
     <mergeCell ref="AC2:AW2"/>
     <mergeCell ref="B3:C3"/>
@@ -14353,49 +14316,6 @@
     <mergeCell ref="AW3:BF3"/>
     <mergeCell ref="CA3:CJ3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="AW5:BF5"/>
-    <mergeCell ref="CA5:CJ5"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="BG5:BP5"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BQ5:BZ5"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -14539,8 +14459,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14559,32 +14504,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15208,14 +15128,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="349" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="354"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="351"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15260,14 +15180,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="349" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="353"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="353"/>
-      <c r="F7" s="354"/>
+      <c r="B7" s="350"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="351"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15280,11 +15200,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="352" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="356"/>
-      <c r="F8" s="357"/>
+      <c r="E8" s="353"/>
+      <c r="F8" s="354"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -15308,27 +15228,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="349" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="353"/>
-      <c r="C11" s="353"/>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="354"/>
+      <c r="B11" s="350"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="350"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="351"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="358" t="s">
+      <c r="B12" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
-      <c r="F12" s="360"/>
+      <c r="C12" s="356"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="357"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -15344,25 +15264,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="353"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="353"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="354"/>
+      <c r="B15" s="350"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="350"/>
+      <c r="E15" s="350"/>
+      <c r="F15" s="351"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="349"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="351"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="360"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -15378,25 +15298,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="352" t="s">
+      <c r="A19" s="349" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="353"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="354"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="350"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="350"/>
+      <c r="F19" s="351"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="349"/>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="351"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="360"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -15412,25 +15332,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="352" t="s">
+      <c r="A23" s="349" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="353"/>
-      <c r="C23" s="353"/>
-      <c r="D23" s="353"/>
-      <c r="E23" s="353"/>
-      <c r="F23" s="354"/>
+      <c r="B23" s="350"/>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="350"/>
+      <c r="F23" s="351"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="349"/>
-      <c r="C24" s="350"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="351"/>
+      <c r="B24" s="358"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="359"/>
+      <c r="F24" s="360"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -15446,27 +15366,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="352" t="s">
+      <c r="A27" s="349" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="353"/>
-      <c r="C27" s="353"/>
-      <c r="D27" s="353"/>
-      <c r="E27" s="353"/>
-      <c r="F27" s="354"/>
+      <c r="B27" s="350"/>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="351"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="358" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="350"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="350"/>
-      <c r="F28" s="351"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="360"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -15482,12 +15402,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -15495,6 +15409,12 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15697,30 +15617,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="374">
+      <c r="E3" s="385">
         <v>5665</v>
       </c>
-      <c r="F3" s="374"/>
+      <c r="F3" s="385"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="374" t="s">
+      <c r="I3" s="385" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
+      <c r="J3" s="385"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="385"/>
+      <c r="M3" s="385"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="374" t="s">
+      <c r="P3" s="385" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="374"/>
-      <c r="R3" s="374"/>
-      <c r="S3" s="374"/>
-      <c r="T3" s="374"/>
+      <c r="Q3" s="385"/>
+      <c r="R3" s="385"/>
+      <c r="S3" s="385"/>
+      <c r="T3" s="385"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -15731,10 +15651,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="373" t="s">
+      <c r="AF3" s="384" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="373"/>
+      <c r="AG3" s="384"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -16327,148 +16247,153 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="378" t="s">
+      <c r="B18" s="376" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="379"/>
-      <c r="D18" s="375" t="s">
+      <c r="C18" s="377"/>
+      <c r="D18" s="373" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="376"/>
-      <c r="L18" s="376"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="376"/>
-      <c r="P18" s="376"/>
-      <c r="Q18" s="376"/>
-      <c r="R18" s="376"/>
-      <c r="S18" s="376"/>
-      <c r="T18" s="376"/>
-      <c r="U18" s="376"/>
-      <c r="V18" s="376"/>
-      <c r="W18" s="377"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="374"/>
+      <c r="H18" s="374"/>
+      <c r="I18" s="374"/>
+      <c r="J18" s="374"/>
+      <c r="K18" s="374"/>
+      <c r="L18" s="374"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="374"/>
+      <c r="O18" s="374"/>
+      <c r="P18" s="374"/>
+      <c r="Q18" s="374"/>
+      <c r="R18" s="374"/>
+      <c r="S18" s="374"/>
+      <c r="T18" s="374"/>
+      <c r="U18" s="374"/>
+      <c r="V18" s="374"/>
+      <c r="W18" s="375"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="380">
+      <c r="B19" s="378">
         <v>2</v>
       </c>
-      <c r="C19" s="381"/>
-      <c r="D19" s="375" t="s">
+      <c r="C19" s="379"/>
+      <c r="D19" s="373" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="376"/>
-      <c r="F19" s="376"/>
-      <c r="G19" s="376"/>
-      <c r="H19" s="376"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="376"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="376"/>
-      <c r="P19" s="376"/>
-      <c r="Q19" s="376"/>
-      <c r="R19" s="376"/>
-      <c r="S19" s="376"/>
-      <c r="T19" s="376"/>
-      <c r="U19" s="376"/>
-      <c r="V19" s="376"/>
-      <c r="W19" s="377"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="374"/>
+      <c r="H19" s="374"/>
+      <c r="I19" s="374"/>
+      <c r="J19" s="374"/>
+      <c r="K19" s="374"/>
+      <c r="L19" s="374"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="374"/>
+      <c r="O19" s="374"/>
+      <c r="P19" s="374"/>
+      <c r="Q19" s="374"/>
+      <c r="R19" s="374"/>
+      <c r="S19" s="374"/>
+      <c r="T19" s="374"/>
+      <c r="U19" s="374"/>
+      <c r="V19" s="374"/>
+      <c r="W19" s="375"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="382">
+      <c r="B20" s="380">
         <v>3</v>
       </c>
-      <c r="C20" s="383"/>
-      <c r="D20" s="375" t="s">
+      <c r="C20" s="381"/>
+      <c r="D20" s="373" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="376"/>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="376"/>
-      <c r="P20" s="376"/>
-      <c r="Q20" s="376"/>
-      <c r="R20" s="376"/>
-      <c r="S20" s="376"/>
-      <c r="T20" s="376"/>
-      <c r="U20" s="376"/>
-      <c r="V20" s="376"/>
-      <c r="W20" s="377"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
+      <c r="G20" s="374"/>
+      <c r="H20" s="374"/>
+      <c r="I20" s="374"/>
+      <c r="J20" s="374"/>
+      <c r="K20" s="374"/>
+      <c r="L20" s="374"/>
+      <c r="M20" s="374"/>
+      <c r="N20" s="374"/>
+      <c r="O20" s="374"/>
+      <c r="P20" s="374"/>
+      <c r="Q20" s="374"/>
+      <c r="R20" s="374"/>
+      <c r="S20" s="374"/>
+      <c r="T20" s="374"/>
+      <c r="U20" s="374"/>
+      <c r="V20" s="374"/>
+      <c r="W20" s="375"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="384">
+      <c r="B21" s="382">
         <v>4</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="375" t="s">
+      <c r="C21" s="383"/>
+      <c r="D21" s="373" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="376"/>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="376"/>
-      <c r="K21" s="376"/>
-      <c r="L21" s="376"/>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="377"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="374"/>
+      <c r="H21" s="374"/>
+      <c r="I21" s="374"/>
+      <c r="J21" s="374"/>
+      <c r="K21" s="374"/>
+      <c r="L21" s="374"/>
+      <c r="M21" s="374"/>
+      <c r="N21" s="374"/>
+      <c r="O21" s="374"/>
+      <c r="P21" s="374"/>
+      <c r="Q21" s="374"/>
+      <c r="R21" s="374"/>
+      <c r="S21" s="374"/>
+      <c r="T21" s="374"/>
+      <c r="U21" s="374"/>
+      <c r="V21" s="374"/>
+      <c r="W21" s="375"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="384">
+      <c r="B22" s="382">
         <v>5</v>
       </c>
-      <c r="C22" s="385"/>
-      <c r="D22" s="375" t="s">
+      <c r="C22" s="383"/>
+      <c r="D22" s="373" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="377"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="374"/>
+      <c r="I22" s="374"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="374"/>
+      <c r="L22" s="374"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="374"/>
+      <c r="P22" s="374"/>
+      <c r="Q22" s="374"/>
+      <c r="R22" s="374"/>
+      <c r="S22" s="374"/>
+      <c r="T22" s="374"/>
+      <c r="U22" s="374"/>
+      <c r="V22" s="374"/>
+      <c r="W22" s="375"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -16478,11 +16403,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -16817,30 +16737,30 @@
       <c r="C4" s="205">
         <v>9</v>
       </c>
-      <c r="D4" s="387">
+      <c r="D4" s="393">
         <v>11</v>
       </c>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387">
+      <c r="E4" s="393"/>
+      <c r="F4" s="393">
         <v>17</v>
       </c>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387">
+      <c r="G4" s="393"/>
+      <c r="H4" s="393">
         <v>20</v>
       </c>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387">
+      <c r="I4" s="393"/>
+      <c r="J4" s="393"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="393">
         <v>27</v>
       </c>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387">
+      <c r="M4" s="393"/>
+      <c r="N4" s="393">
         <v>28</v>
       </c>
-      <c r="O4" s="387"/>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="387"/>
+      <c r="O4" s="393"/>
+      <c r="P4" s="393"/>
+      <c r="Q4" s="393"/>
       <c r="R4" s="205">
         <v>29</v>
       </c>
@@ -16854,30 +16774,30 @@
       <c r="C5" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="393" t="s">
+      <c r="D5" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="393"/>
-      <c r="F5" s="388" t="s">
+      <c r="E5" s="392"/>
+      <c r="F5" s="387" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="388"/>
-      <c r="H5" s="388" t="s">
+      <c r="G5" s="387"/>
+      <c r="H5" s="387" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="389" t="s">
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="387"/>
+      <c r="L5" s="388" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389" t="s">
+      <c r="M5" s="388"/>
+      <c r="N5" s="388" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="389"/>
-      <c r="P5" s="389"/>
-      <c r="Q5" s="389"/>
+      <c r="O5" s="388"/>
+      <c r="P5" s="388"/>
+      <c r="Q5" s="388"/>
       <c r="R5" s="201" t="s">
         <v>17</v>
       </c>
@@ -16891,30 +16811,30 @@
       <c r="C6" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="390" t="s">
+      <c r="D6" s="389" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="390"/>
-      <c r="F6" s="391" t="s">
+      <c r="E6" s="389"/>
+      <c r="F6" s="390" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391" t="s">
+      <c r="G6" s="390"/>
+      <c r="H6" s="390" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="392" t="s">
+      <c r="I6" s="390"/>
+      <c r="J6" s="390"/>
+      <c r="K6" s="390"/>
+      <c r="L6" s="391" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="392"/>
-      <c r="N6" s="392" t="s">
+      <c r="M6" s="391"/>
+      <c r="N6" s="391" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="392"/>
-      <c r="P6" s="392"/>
-      <c r="Q6" s="392"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
       <c r="R6" s="204" t="s">
         <v>152</v>
       </c>
@@ -17156,6 +17076,11 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17166,11 +17091,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="312">
   <si>
     <t>DAY</t>
   </si>
@@ -855,12 +855,6 @@
     <t>Hose - Day 3</t>
   </si>
   <si>
-    <t>HR Input</t>
-  </si>
-  <si>
-    <t>Ladders</t>
-  </si>
-  <si>
     <t>Assessment Day</t>
   </si>
   <si>
@@ -885,9 +879,6 @@
     <t>BA - Day 4</t>
   </si>
   <si>
-    <t>Fire Science</t>
-  </si>
-  <si>
     <t>BA Search and Rescue</t>
   </si>
   <si>
@@ -978,13 +969,88 @@
     <t>ART Assessment</t>
   </si>
   <si>
-    <t>Course Director - Julian Turner</t>
-  </si>
-  <si>
     <t>WT2019</t>
   </si>
   <si>
     <t>Status - In Progress</t>
+  </si>
+  <si>
+    <t>Ladders - Day 1</t>
+  </si>
+  <si>
+    <t>Ladders - Day 2</t>
+  </si>
+  <si>
+    <t>Course Director - Kyle Campbell</t>
+  </si>
+  <si>
+    <t>5760</t>
+  </si>
+  <si>
+    <t>James Harrison</t>
+  </si>
+  <si>
+    <t>5755</t>
+  </si>
+  <si>
+    <t>jake Marshall</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>Wesley Stones</t>
+  </si>
+  <si>
+    <t>5756</t>
+  </si>
+  <si>
+    <t>Alex Fitzpatrick</t>
+  </si>
+  <si>
+    <t>5761</t>
+  </si>
+  <si>
+    <t>Oliver Baldam</t>
+  </si>
+  <si>
+    <t>5479</t>
+  </si>
+  <si>
+    <t>Max Tunmore</t>
+  </si>
+  <si>
+    <t>5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Clarke </t>
+  </si>
+  <si>
+    <t>5306</t>
+  </si>
+  <si>
+    <t>Phill Marriott</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>Daniel Cheetham</t>
+  </si>
+  <si>
+    <t>5759</t>
+  </si>
+  <si>
+    <t>Richard Stephens</t>
+  </si>
+  <si>
+    <t>5548</t>
+  </si>
+  <si>
+    <t>Kelvin Brookes</t>
+  </si>
+  <si>
+    <t>Ladders Adv/Time Cr. Res.</t>
   </si>
 </sst>
 </file>
@@ -4089,6 +4155,213 @@
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4098,215 +4371,17 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4335,15 +4410,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4380,6 +4446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4413,15 +4485,12 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4439,9 +4508,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7507,7 +7573,7 @@
   <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7575,14 +7641,14 @@
       <c r="N2" s="273"/>
       <c r="O2" s="273"/>
       <c r="P2" s="274" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="274"/>
       <c r="R2" s="274"/>
       <c r="S2" s="274"/>
       <c r="T2" s="129"/>
       <c r="U2" s="275" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="V2" s="275"/>
       <c r="W2" s="275"/>
@@ -7591,7 +7657,7 @@
       <c r="Z2" s="275"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="272" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC2" s="272"/>
       <c r="AD2" s="272"/>
@@ -7926,139 +7992,157 @@
         <v>245</v>
       </c>
       <c r="K5" s="222" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" s="222" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" s="249" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="N5" s="256" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="249" t="s">
+      <c r="O5" s="224" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="256" t="s">
+      <c r="P5" s="224" t="s">
         <v>249</v>
       </c>
-      <c r="O5" s="224" t="s">
+      <c r="Q5" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="P5" s="224" t="s">
+      <c r="R5" s="257" t="s">
         <v>251</v>
       </c>
-      <c r="Q5" s="132" t="s">
+      <c r="S5" s="258" t="s">
         <v>252</v>
       </c>
-      <c r="R5" s="257" t="s">
+      <c r="T5" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="S5" s="258" t="s">
+      <c r="U5" s="132" t="s">
+        <v>311</v>
+      </c>
+      <c r="V5" s="133" t="s">
         <v>254</v>
-      </c>
-      <c r="T5" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="U5" s="132" t="s">
-        <v>256</v>
-      </c>
-      <c r="V5" s="133" t="s">
-        <v>257</v>
       </c>
       <c r="W5" s="259" t="s">
         <v>49</v>
       </c>
       <c r="X5" s="258" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y5" s="133" t="s">
         <v>48</v>
       </c>
       <c r="Z5" s="133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AA5" s="133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AB5" s="259" t="s">
         <v>151</v>
       </c>
       <c r="AC5" s="260" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD5" s="223" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE5" s="223" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF5" s="223" t="s">
         <v>261</v>
       </c>
-      <c r="AD5" s="223" t="s">
+      <c r="AG5" s="261" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH5" s="262" t="s">
         <v>262</v>
       </c>
-      <c r="AE5" s="223" t="s">
+      <c r="AI5" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="AF5" s="223" t="s">
+      <c r="AJ5" s="131" t="s">
         <v>264</v>
       </c>
-      <c r="AG5" s="261" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH5" s="262" t="s">
+      <c r="AK5" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL5" s="263" t="s">
         <v>265</v>
       </c>
-      <c r="AI5" s="131" t="s">
+      <c r="AM5" s="264" t="s">
         <v>266</v>
       </c>
-      <c r="AJ5" s="131" t="s">
+      <c r="AN5" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="AK5" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL5" s="263" t="s">
+      <c r="AO5" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="AM5" s="264" t="s">
+      <c r="AP5" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="AN5" s="134" t="s">
+      <c r="AQ5" s="265" t="s">
         <v>270</v>
       </c>
-      <c r="AO5" s="134" t="s">
+      <c r="AR5" s="255" t="s">
         <v>271</v>
       </c>
-      <c r="AP5" s="134" t="s">
+      <c r="AS5" s="222" t="s">
         <v>272</v>
       </c>
-      <c r="AQ5" s="265" t="s">
+      <c r="AT5" s="222" t="s">
         <v>273</v>
       </c>
-      <c r="AR5" s="255" t="s">
+      <c r="AU5" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="AS5" s="222" t="s">
+      <c r="AV5" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="AT5" s="222" t="s">
+      <c r="AW5" s="266" t="s">
         <v>276</v>
       </c>
-      <c r="AU5" s="135" t="s">
+      <c r="AX5" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="AV5" s="136" t="s">
+      <c r="AY5" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="AW5" s="266" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX5" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY5" s="136" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="187"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="B6" s="187" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="137">
+        <v>2</v>
+      </c>
+      <c r="E6" s="138">
+        <v>2</v>
+      </c>
+      <c r="F6" s="139">
+        <v>2</v>
+      </c>
+      <c r="G6" s="140">
+        <v>2</v>
+      </c>
+      <c r="H6" s="141">
+        <v>2</v>
+      </c>
+      <c r="I6" s="141">
+        <v>2</v>
+      </c>
+      <c r="J6" s="142">
+        <v>2</v>
+      </c>
       <c r="K6" s="142"/>
       <c r="L6" s="142"/>
       <c r="M6" s="139"/>
@@ -8102,15 +8186,33 @@
       <c r="AY6" s="142"/>
     </row>
     <row r="7" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="B7" s="188" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="143">
+        <v>2</v>
+      </c>
+      <c r="E7" s="144">
+        <v>2</v>
+      </c>
+      <c r="F7" s="145">
+        <v>2</v>
+      </c>
+      <c r="G7" s="146">
+        <v>2</v>
+      </c>
+      <c r="H7" s="147">
+        <v>2</v>
+      </c>
+      <c r="I7" s="147">
+        <v>2</v>
+      </c>
+      <c r="J7" s="148">
+        <v>2</v>
+      </c>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
       <c r="M7" s="145"/>
@@ -8154,15 +8256,33 @@
       <c r="AY7" s="148"/>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="188"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
+      <c r="B8" s="188" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="143">
+        <v>2</v>
+      </c>
+      <c r="E8" s="144">
+        <v>2</v>
+      </c>
+      <c r="F8" s="145">
+        <v>2</v>
+      </c>
+      <c r="G8" s="146">
+        <v>2</v>
+      </c>
+      <c r="H8" s="148">
+        <v>2</v>
+      </c>
+      <c r="I8" s="148">
+        <v>2</v>
+      </c>
+      <c r="J8" s="148">
+        <v>2</v>
+      </c>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>
       <c r="M8" s="145"/>
@@ -8206,20 +8326,40 @@
       <c r="AY8" s="148"/>
     </row>
     <row r="9" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
+      <c r="B9" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="143">
+        <v>2</v>
+      </c>
+      <c r="E9" s="144">
+        <v>2</v>
+      </c>
+      <c r="F9" s="145">
+        <v>2</v>
+      </c>
+      <c r="G9" s="146">
+        <v>2</v>
+      </c>
+      <c r="H9" s="148">
+        <v>2</v>
+      </c>
+      <c r="I9" s="148">
+        <v>2</v>
+      </c>
+      <c r="J9" s="148">
+        <v>2</v>
+      </c>
       <c r="K9" s="148"/>
       <c r="L9" s="148"/>
       <c r="M9" s="145"/>
       <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
+      <c r="O9" s="148">
+        <v>3</v>
+      </c>
       <c r="P9" s="145"/>
       <c r="Q9" s="148"/>
       <c r="R9" s="148"/>
@@ -8258,15 +8398,33 @@
       <c r="AY9" s="148"/>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="188"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
+      <c r="B10" s="188" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="143">
+        <v>2</v>
+      </c>
+      <c r="E10" s="144">
+        <v>2</v>
+      </c>
+      <c r="F10" s="145">
+        <v>2</v>
+      </c>
+      <c r="G10" s="146">
+        <v>2</v>
+      </c>
+      <c r="H10" s="148">
+        <v>2</v>
+      </c>
+      <c r="I10" s="148">
+        <v>2</v>
+      </c>
+      <c r="J10" s="148">
+        <v>2</v>
+      </c>
       <c r="K10" s="148"/>
       <c r="L10" s="148"/>
       <c r="M10" s="145"/>
@@ -8310,15 +8468,33 @@
       <c r="AY10" s="148"/>
     </row>
     <row r="11" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="188"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
+      <c r="B11" s="188" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="143">
+        <v>2</v>
+      </c>
+      <c r="E11" s="144">
+        <v>2</v>
+      </c>
+      <c r="F11" s="145">
+        <v>2</v>
+      </c>
+      <c r="G11" s="146">
+        <v>2</v>
+      </c>
+      <c r="H11" s="148">
+        <v>2</v>
+      </c>
+      <c r="I11" s="148">
+        <v>2</v>
+      </c>
+      <c r="J11" s="148">
+        <v>2</v>
+      </c>
       <c r="K11" s="148"/>
       <c r="L11" s="148"/>
       <c r="M11" s="145"/>
@@ -8362,15 +8538,33 @@
       <c r="AY11" s="148"/>
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="188"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
+      <c r="B12" s="188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="143">
+        <v>2</v>
+      </c>
+      <c r="E12" s="144">
+        <v>2</v>
+      </c>
+      <c r="F12" s="145">
+        <v>2</v>
+      </c>
+      <c r="G12" s="146">
+        <v>2</v>
+      </c>
+      <c r="H12" s="148">
+        <v>2</v>
+      </c>
+      <c r="I12" s="148">
+        <v>2</v>
+      </c>
+      <c r="J12" s="148">
+        <v>2</v>
+      </c>
       <c r="K12" s="148"/>
       <c r="L12" s="148"/>
       <c r="M12" s="145"/>
@@ -8414,15 +8608,33 @@
       <c r="AY12" s="148"/>
     </row>
     <row r="13" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="188"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
+      <c r="B13" s="188" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="143">
+        <v>2</v>
+      </c>
+      <c r="E13" s="144">
+        <v>2</v>
+      </c>
+      <c r="F13" s="145">
+        <v>2</v>
+      </c>
+      <c r="G13" s="146">
+        <v>2</v>
+      </c>
+      <c r="H13" s="148">
+        <v>2</v>
+      </c>
+      <c r="I13" s="148">
+        <v>2</v>
+      </c>
+      <c r="J13" s="148">
+        <v>2</v>
+      </c>
       <c r="K13" s="148"/>
       <c r="L13" s="148"/>
       <c r="M13" s="145"/>
@@ -8466,18 +8678,38 @@
       <c r="AY13" s="148"/>
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="188"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
+      <c r="B14" s="188" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="143">
+        <v>2</v>
+      </c>
+      <c r="E14" s="144">
+        <v>2</v>
+      </c>
+      <c r="F14" s="145">
+        <v>2</v>
+      </c>
+      <c r="G14" s="146">
+        <v>2</v>
+      </c>
+      <c r="H14" s="148">
+        <v>2</v>
+      </c>
+      <c r="I14" s="148">
+        <v>2</v>
+      </c>
+      <c r="J14" s="148">
+        <v>2</v>
+      </c>
       <c r="K14" s="148"/>
       <c r="L14" s="148"/>
-      <c r="M14" s="145"/>
+      <c r="M14" s="145">
+        <v>3</v>
+      </c>
       <c r="N14" s="148"/>
       <c r="O14" s="148"/>
       <c r="P14" s="145"/>
@@ -8518,15 +8750,33 @@
       <c r="AY14" s="148"/>
     </row>
     <row r="15" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="188"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
+      <c r="B15" s="188" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="143">
+        <v>2</v>
+      </c>
+      <c r="E15" s="144">
+        <v>2</v>
+      </c>
+      <c r="F15" s="145">
+        <v>2</v>
+      </c>
+      <c r="G15" s="146">
+        <v>2</v>
+      </c>
+      <c r="H15" s="148">
+        <v>3</v>
+      </c>
+      <c r="I15" s="148">
+        <v>3</v>
+      </c>
+      <c r="J15" s="148">
+        <v>4</v>
+      </c>
       <c r="K15" s="148"/>
       <c r="L15" s="148"/>
       <c r="M15" s="145"/>
@@ -8570,15 +8820,33 @@
       <c r="AY15" s="148"/>
     </row>
     <row r="16" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="188"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
+      <c r="B16" s="188" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="143">
+        <v>2</v>
+      </c>
+      <c r="E16" s="144">
+        <v>2</v>
+      </c>
+      <c r="F16" s="145">
+        <v>2</v>
+      </c>
+      <c r="G16" s="146">
+        <v>2</v>
+      </c>
+      <c r="H16" s="148">
+        <v>2</v>
+      </c>
+      <c r="I16" s="148">
+        <v>2</v>
+      </c>
+      <c r="J16" s="148">
+        <v>2</v>
+      </c>
       <c r="K16" s="148"/>
       <c r="L16" s="148"/>
       <c r="M16" s="145"/>
@@ -9613,7 +9881,7 @@
       <c r="A52" s="126"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="O1:T1"/>
@@ -9666,27 +9934,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9716,27 +9984,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9973,41 +10241,41 @@
       <c r="AU2" s="273"/>
       <c r="AV2" s="273"/>
       <c r="AW2" s="273"/>
-      <c r="AX2" s="276" t="str">
+      <c r="AX2" s="345" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="276"/>
-      <c r="AZ2" s="276"/>
-      <c r="BA2" s="276"/>
-      <c r="BB2" s="276"/>
-      <c r="BC2" s="276"/>
-      <c r="BD2" s="276"/>
-      <c r="BE2" s="276"/>
-      <c r="BF2" s="276"/>
-      <c r="BG2" s="276"/>
-      <c r="BH2" s="276"/>
-      <c r="BI2" s="276"/>
-      <c r="BJ2" s="276"/>
-      <c r="BK2" s="276"/>
-      <c r="BL2" s="276"/>
-      <c r="BM2" s="276"/>
-      <c r="BN2" s="276"/>
-      <c r="BO2" s="276"/>
-      <c r="BP2" s="276"/>
-      <c r="BQ2" s="276"/>
-      <c r="BR2" s="276"/>
-      <c r="BS2" s="276"/>
-      <c r="BT2" s="276"/>
-      <c r="BU2" s="276"/>
-      <c r="BV2" s="276"/>
-      <c r="BW2" s="276"/>
-      <c r="BX2" s="276"/>
-      <c r="BY2" s="276"/>
-      <c r="BZ2" s="276"/>
-      <c r="CA2" s="276"/>
-      <c r="CB2" s="276"/>
-      <c r="CC2" s="276"/>
+      <c r="AY2" s="345"/>
+      <c r="AZ2" s="345"/>
+      <c r="BA2" s="345"/>
+      <c r="BB2" s="345"/>
+      <c r="BC2" s="345"/>
+      <c r="BD2" s="345"/>
+      <c r="BE2" s="345"/>
+      <c r="BF2" s="345"/>
+      <c r="BG2" s="345"/>
+      <c r="BH2" s="345"/>
+      <c r="BI2" s="345"/>
+      <c r="BJ2" s="345"/>
+      <c r="BK2" s="345"/>
+      <c r="BL2" s="345"/>
+      <c r="BM2" s="345"/>
+      <c r="BN2" s="345"/>
+      <c r="BO2" s="345"/>
+      <c r="BP2" s="345"/>
+      <c r="BQ2" s="345"/>
+      <c r="BR2" s="345"/>
+      <c r="BS2" s="345"/>
+      <c r="BT2" s="345"/>
+      <c r="BU2" s="345"/>
+      <c r="BV2" s="345"/>
+      <c r="BW2" s="345"/>
+      <c r="BX2" s="345"/>
+      <c r="BY2" s="345"/>
+      <c r="BZ2" s="345"/>
+      <c r="CA2" s="345"/>
+      <c r="CB2" s="345"/>
+      <c r="CC2" s="345"/>
       <c r="CD2" s="165"/>
       <c r="CE2" s="165"/>
       <c r="CF2" s="165"/>
@@ -10041,524 +10309,524 @@
       <c r="DH2" s="165"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="346" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="279">
+      <c r="C3" s="347"/>
+      <c r="D3" s="282">
         <v>3</v>
       </c>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="281">
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="348"/>
+      <c r="I3" s="330">
         <v>10</v>
       </c>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="281">
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="282"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="348"/>
+      <c r="S3" s="330">
         <v>13</v>
       </c>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279"/>
-      <c r="W3" s="279"/>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="279"/>
-      <c r="AA3" s="279"/>
-      <c r="AB3" s="280"/>
-      <c r="AC3" s="281">
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="348"/>
+      <c r="AC3" s="330">
         <v>24</v>
       </c>
-      <c r="AD3" s="279"/>
-      <c r="AE3" s="279"/>
-      <c r="AF3" s="279"/>
-      <c r="AG3" s="279"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="279"/>
-      <c r="AK3" s="279"/>
-      <c r="AL3" s="279"/>
-      <c r="AM3" s="279"/>
-      <c r="AN3" s="279"/>
-      <c r="AO3" s="279"/>
-      <c r="AP3" s="279"/>
-      <c r="AQ3" s="279"/>
-      <c r="AR3" s="279"/>
-      <c r="AS3" s="279"/>
-      <c r="AT3" s="279"/>
-      <c r="AU3" s="279"/>
-      <c r="AV3" s="280"/>
-      <c r="AW3" s="281">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="282"/>
+      <c r="AJ3" s="282"/>
+      <c r="AK3" s="282"/>
+      <c r="AL3" s="282"/>
+      <c r="AM3" s="282"/>
+      <c r="AN3" s="282"/>
+      <c r="AO3" s="282"/>
+      <c r="AP3" s="282"/>
+      <c r="AQ3" s="282"/>
+      <c r="AR3" s="282"/>
+      <c r="AS3" s="282"/>
+      <c r="AT3" s="282"/>
+      <c r="AU3" s="282"/>
+      <c r="AV3" s="348"/>
+      <c r="AW3" s="330">
         <v>30</v>
       </c>
-      <c r="AX3" s="279"/>
-      <c r="AY3" s="279"/>
-      <c r="AZ3" s="279"/>
-      <c r="BA3" s="279"/>
-      <c r="BB3" s="279"/>
-      <c r="BC3" s="279"/>
-      <c r="BD3" s="279"/>
-      <c r="BE3" s="279"/>
-      <c r="BF3" s="280"/>
-      <c r="BG3" s="282">
+      <c r="AX3" s="282"/>
+      <c r="AY3" s="282"/>
+      <c r="AZ3" s="282"/>
+      <c r="BA3" s="282"/>
+      <c r="BB3" s="282"/>
+      <c r="BC3" s="282"/>
+      <c r="BD3" s="282"/>
+      <c r="BE3" s="282"/>
+      <c r="BF3" s="348"/>
+      <c r="BG3" s="329">
         <v>34</v>
       </c>
-      <c r="BH3" s="282"/>
-      <c r="BI3" s="281"/>
-      <c r="BJ3" s="281"/>
-      <c r="BK3" s="281"/>
-      <c r="BL3" s="281"/>
-      <c r="BM3" s="281"/>
-      <c r="BN3" s="281"/>
-      <c r="BO3" s="281"/>
-      <c r="BP3" s="281"/>
-      <c r="BQ3" s="282">
+      <c r="BH3" s="329"/>
+      <c r="BI3" s="330"/>
+      <c r="BJ3" s="330"/>
+      <c r="BK3" s="330"/>
+      <c r="BL3" s="330"/>
+      <c r="BM3" s="330"/>
+      <c r="BN3" s="330"/>
+      <c r="BO3" s="330"/>
+      <c r="BP3" s="330"/>
+      <c r="BQ3" s="329">
         <v>40</v>
       </c>
-      <c r="BR3" s="282"/>
-      <c r="BS3" s="281"/>
-      <c r="BT3" s="281"/>
-      <c r="BU3" s="281"/>
-      <c r="BV3" s="281"/>
-      <c r="BW3" s="281"/>
-      <c r="BX3" s="281"/>
-      <c r="BY3" s="281"/>
-      <c r="BZ3" s="281"/>
-      <c r="CA3" s="282">
+      <c r="BR3" s="329"/>
+      <c r="BS3" s="330"/>
+      <c r="BT3" s="330"/>
+      <c r="BU3" s="330"/>
+      <c r="BV3" s="330"/>
+      <c r="BW3" s="330"/>
+      <c r="BX3" s="330"/>
+      <c r="BY3" s="330"/>
+      <c r="BZ3" s="330"/>
+      <c r="CA3" s="329">
         <v>43</v>
       </c>
-      <c r="CB3" s="282"/>
-      <c r="CC3" s="281"/>
-      <c r="CD3" s="281"/>
-      <c r="CE3" s="281"/>
-      <c r="CF3" s="281"/>
-      <c r="CG3" s="281"/>
-      <c r="CH3" s="281"/>
-      <c r="CI3" s="281"/>
-      <c r="CJ3" s="282"/>
-      <c r="CK3" s="279">
+      <c r="CB3" s="329"/>
+      <c r="CC3" s="330"/>
+      <c r="CD3" s="330"/>
+      <c r="CE3" s="330"/>
+      <c r="CF3" s="330"/>
+      <c r="CG3" s="330"/>
+      <c r="CH3" s="330"/>
+      <c r="CI3" s="330"/>
+      <c r="CJ3" s="329"/>
+      <c r="CK3" s="282">
         <v>46</v>
       </c>
-      <c r="CL3" s="279"/>
-      <c r="CM3" s="279"/>
-      <c r="CN3" s="279"/>
-      <c r="CO3" s="279"/>
-      <c r="CP3" s="279"/>
-      <c r="CQ3" s="279"/>
-      <c r="CR3" s="279"/>
-      <c r="CS3" s="279"/>
-      <c r="CT3" s="279"/>
-      <c r="CU3" s="279"/>
-      <c r="CV3" s="279"/>
-      <c r="CW3" s="279"/>
-      <c r="CX3" s="279"/>
-      <c r="CY3" s="345"/>
+      <c r="CL3" s="282"/>
+      <c r="CM3" s="282"/>
+      <c r="CN3" s="282"/>
+      <c r="CO3" s="282"/>
+      <c r="CP3" s="282"/>
+      <c r="CQ3" s="282"/>
+      <c r="CR3" s="282"/>
+      <c r="CS3" s="282"/>
+      <c r="CT3" s="282"/>
+      <c r="CU3" s="282"/>
+      <c r="CV3" s="282"/>
+      <c r="CW3" s="282"/>
+      <c r="CX3" s="282"/>
+      <c r="CY3" s="283"/>
       <c r="CZ3" s="243"/>
       <c r="DA3" s="244"/>
     </row>
     <row r="4" spans="2:113" s="234" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="285">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="276">
         <v>43107</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="287"/>
-      <c r="I4" s="297">
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="323">
         <v>43118</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="288">
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="324"/>
+      <c r="N4" s="324"/>
+      <c r="O4" s="324"/>
+      <c r="P4" s="324"/>
+      <c r="Q4" s="324"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="336">
         <v>43125</v>
       </c>
-      <c r="T4" s="289"/>
-      <c r="U4" s="289"/>
-      <c r="V4" s="289"/>
-      <c r="W4" s="289"/>
-      <c r="X4" s="289"/>
-      <c r="Y4" s="289"/>
-      <c r="Z4" s="289"/>
-      <c r="AA4" s="289"/>
-      <c r="AB4" s="290"/>
-      <c r="AC4" s="291">
+      <c r="T4" s="337"/>
+      <c r="U4" s="337"/>
+      <c r="V4" s="337"/>
+      <c r="W4" s="337"/>
+      <c r="X4" s="337"/>
+      <c r="Y4" s="337"/>
+      <c r="Z4" s="337"/>
+      <c r="AA4" s="337"/>
+      <c r="AB4" s="338"/>
+      <c r="AC4" s="339">
         <v>43144</v>
       </c>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
-      <c r="AI4" s="292"/>
-      <c r="AJ4" s="292"/>
-      <c r="AK4" s="292"/>
-      <c r="AL4" s="292"/>
-      <c r="AM4" s="292"/>
-      <c r="AN4" s="292"/>
-      <c r="AO4" s="292"/>
-      <c r="AP4" s="292"/>
-      <c r="AQ4" s="292"/>
-      <c r="AR4" s="292"/>
-      <c r="AS4" s="292"/>
-      <c r="AT4" s="292"/>
-      <c r="AU4" s="292"/>
-      <c r="AV4" s="293"/>
-      <c r="AW4" s="294">
+      <c r="AD4" s="340"/>
+      <c r="AE4" s="340"/>
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
+      <c r="AH4" s="340"/>
+      <c r="AI4" s="340"/>
+      <c r="AJ4" s="340"/>
+      <c r="AK4" s="340"/>
+      <c r="AL4" s="340"/>
+      <c r="AM4" s="340"/>
+      <c r="AN4" s="340"/>
+      <c r="AO4" s="340"/>
+      <c r="AP4" s="340"/>
+      <c r="AQ4" s="340"/>
+      <c r="AR4" s="340"/>
+      <c r="AS4" s="340"/>
+      <c r="AT4" s="340"/>
+      <c r="AU4" s="340"/>
+      <c r="AV4" s="341"/>
+      <c r="AW4" s="342">
         <v>43154</v>
       </c>
-      <c r="AX4" s="295"/>
-      <c r="AY4" s="295"/>
-      <c r="AZ4" s="295"/>
-      <c r="BA4" s="295"/>
-      <c r="BB4" s="295"/>
-      <c r="BC4" s="295"/>
-      <c r="BD4" s="295"/>
-      <c r="BE4" s="295"/>
-      <c r="BF4" s="296"/>
-      <c r="BG4" s="300">
+      <c r="AX4" s="343"/>
+      <c r="AY4" s="343"/>
+      <c r="AZ4" s="343"/>
+      <c r="BA4" s="343"/>
+      <c r="BB4" s="343"/>
+      <c r="BC4" s="343"/>
+      <c r="BD4" s="343"/>
+      <c r="BE4" s="343"/>
+      <c r="BF4" s="344"/>
+      <c r="BG4" s="326">
         <v>43162</v>
       </c>
-      <c r="BH4" s="301"/>
-      <c r="BI4" s="301"/>
-      <c r="BJ4" s="301"/>
-      <c r="BK4" s="301"/>
-      <c r="BL4" s="301"/>
-      <c r="BM4" s="301"/>
-      <c r="BN4" s="301"/>
-      <c r="BO4" s="301"/>
-      <c r="BP4" s="302"/>
-      <c r="BQ4" s="303">
+      <c r="BH4" s="327"/>
+      <c r="BI4" s="327"/>
+      <c r="BJ4" s="327"/>
+      <c r="BK4" s="327"/>
+      <c r="BL4" s="327"/>
+      <c r="BM4" s="327"/>
+      <c r="BN4" s="327"/>
+      <c r="BO4" s="327"/>
+      <c r="BP4" s="328"/>
+      <c r="BQ4" s="331">
         <v>43172</v>
       </c>
-      <c r="BR4" s="304"/>
-      <c r="BS4" s="304"/>
-      <c r="BT4" s="304"/>
-      <c r="BU4" s="304"/>
-      <c r="BV4" s="304"/>
-      <c r="BW4" s="304"/>
-      <c r="BX4" s="304"/>
-      <c r="BY4" s="304"/>
-      <c r="BZ4" s="305"/>
-      <c r="CA4" s="297">
+      <c r="BR4" s="332"/>
+      <c r="BS4" s="332"/>
+      <c r="BT4" s="332"/>
+      <c r="BU4" s="332"/>
+      <c r="BV4" s="332"/>
+      <c r="BW4" s="332"/>
+      <c r="BX4" s="332"/>
+      <c r="BY4" s="332"/>
+      <c r="BZ4" s="333"/>
+      <c r="CA4" s="323">
         <v>43179</v>
       </c>
-      <c r="CB4" s="298"/>
-      <c r="CC4" s="298"/>
-      <c r="CD4" s="298"/>
-      <c r="CE4" s="298"/>
-      <c r="CF4" s="298"/>
-      <c r="CG4" s="298"/>
-      <c r="CH4" s="298"/>
-      <c r="CI4" s="298"/>
-      <c r="CJ4" s="299"/>
-      <c r="CK4" s="285">
+      <c r="CB4" s="324"/>
+      <c r="CC4" s="324"/>
+      <c r="CD4" s="324"/>
+      <c r="CE4" s="324"/>
+      <c r="CF4" s="324"/>
+      <c r="CG4" s="324"/>
+      <c r="CH4" s="324"/>
+      <c r="CI4" s="324"/>
+      <c r="CJ4" s="325"/>
+      <c r="CK4" s="276">
         <v>43181</v>
       </c>
-      <c r="CL4" s="286"/>
-      <c r="CM4" s="286"/>
-      <c r="CN4" s="286"/>
-      <c r="CO4" s="286"/>
-      <c r="CP4" s="286"/>
-      <c r="CQ4" s="286"/>
-      <c r="CR4" s="286"/>
-      <c r="CS4" s="286"/>
-      <c r="CT4" s="286"/>
-      <c r="CU4" s="286"/>
-      <c r="CV4" s="286"/>
-      <c r="CW4" s="286"/>
-      <c r="CX4" s="286"/>
-      <c r="CY4" s="287"/>
+      <c r="CL4" s="277"/>
+      <c r="CM4" s="277"/>
+      <c r="CN4" s="277"/>
+      <c r="CO4" s="277"/>
+      <c r="CP4" s="277"/>
+      <c r="CQ4" s="277"/>
+      <c r="CR4" s="277"/>
+      <c r="CS4" s="277"/>
+      <c r="CT4" s="277"/>
+      <c r="CU4" s="277"/>
+      <c r="CV4" s="277"/>
+      <c r="CW4" s="277"/>
+      <c r="CX4" s="277"/>
+      <c r="CY4" s="278"/>
       <c r="CZ4" s="237"/>
       <c r="DA4" s="238"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="306" t="s">
+      <c r="B5" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="307"/>
-      <c r="D5" s="308" t="s">
+      <c r="C5" s="308"/>
+      <c r="D5" s="309" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="319" t="s">
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="320" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="321"/>
+      <c r="O5" s="321"/>
+      <c r="P5" s="321"/>
+      <c r="Q5" s="321"/>
+      <c r="R5" s="322"/>
+      <c r="S5" s="312" t="s">
+        <v>280</v>
+      </c>
+      <c r="T5" s="313"/>
+      <c r="U5" s="313"/>
+      <c r="V5" s="313"/>
+      <c r="W5" s="313"/>
+      <c r="X5" s="313"/>
+      <c r="Y5" s="313"/>
+      <c r="Z5" s="313"/>
+      <c r="AA5" s="313"/>
+      <c r="AB5" s="314"/>
+      <c r="AC5" s="288" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="289"/>
+      <c r="AE5" s="289"/>
+      <c r="AF5" s="289"/>
+      <c r="AG5" s="289"/>
+      <c r="AH5" s="289"/>
+      <c r="AI5" s="289"/>
+      <c r="AJ5" s="289"/>
+      <c r="AK5" s="289"/>
+      <c r="AL5" s="289"/>
+      <c r="AM5" s="289"/>
+      <c r="AN5" s="289"/>
+      <c r="AO5" s="289"/>
+      <c r="AP5" s="289"/>
+      <c r="AQ5" s="289"/>
+      <c r="AR5" s="289"/>
+      <c r="AS5" s="289"/>
+      <c r="AT5" s="289"/>
+      <c r="AU5" s="289"/>
+      <c r="AV5" s="290"/>
+      <c r="AW5" s="295" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX5" s="296"/>
+      <c r="AY5" s="296"/>
+      <c r="AZ5" s="296"/>
+      <c r="BA5" s="296"/>
+      <c r="BB5" s="296"/>
+      <c r="BC5" s="296"/>
+      <c r="BD5" s="296"/>
+      <c r="BE5" s="296"/>
+      <c r="BF5" s="297"/>
+      <c r="BG5" s="301" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH5" s="302"/>
+      <c r="BI5" s="302"/>
+      <c r="BJ5" s="302"/>
+      <c r="BK5" s="302"/>
+      <c r="BL5" s="302"/>
+      <c r="BM5" s="302"/>
+      <c r="BN5" s="302"/>
+      <c r="BO5" s="302"/>
+      <c r="BP5" s="303"/>
+      <c r="BQ5" s="304" t="s">
         <v>282</v>
       </c>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="320"/>
-      <c r="O5" s="320"/>
-      <c r="P5" s="320"/>
-      <c r="Q5" s="320"/>
-      <c r="R5" s="321"/>
-      <c r="S5" s="311" t="s">
+      <c r="BR5" s="305"/>
+      <c r="BS5" s="305"/>
+      <c r="BT5" s="305"/>
+      <c r="BU5" s="305"/>
+      <c r="BV5" s="305"/>
+      <c r="BW5" s="305"/>
+      <c r="BX5" s="305"/>
+      <c r="BY5" s="305"/>
+      <c r="BZ5" s="306"/>
+      <c r="CA5" s="298" t="s">
         <v>283</v>
       </c>
-      <c r="T5" s="312"/>
-      <c r="U5" s="312"/>
-      <c r="V5" s="312"/>
-      <c r="W5" s="312"/>
-      <c r="X5" s="312"/>
-      <c r="Y5" s="312"/>
-      <c r="Z5" s="312"/>
-      <c r="AA5" s="312"/>
-      <c r="AB5" s="313"/>
-      <c r="AC5" s="338" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="339"/>
-      <c r="AE5" s="339"/>
-      <c r="AF5" s="339"/>
-      <c r="AG5" s="339"/>
-      <c r="AH5" s="339"/>
-      <c r="AI5" s="339"/>
-      <c r="AJ5" s="339"/>
-      <c r="AK5" s="339"/>
-      <c r="AL5" s="339"/>
-      <c r="AM5" s="339"/>
-      <c r="AN5" s="339"/>
-      <c r="AO5" s="339"/>
-      <c r="AP5" s="339"/>
-      <c r="AQ5" s="339"/>
-      <c r="AR5" s="339"/>
-      <c r="AS5" s="339"/>
-      <c r="AT5" s="339"/>
-      <c r="AU5" s="339"/>
-      <c r="AV5" s="340"/>
-      <c r="AW5" s="324" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX5" s="325"/>
-      <c r="AY5" s="325"/>
-      <c r="AZ5" s="325"/>
-      <c r="BA5" s="325"/>
-      <c r="BB5" s="325"/>
-      <c r="BC5" s="325"/>
-      <c r="BD5" s="325"/>
-      <c r="BE5" s="325"/>
-      <c r="BF5" s="326"/>
-      <c r="BG5" s="330" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH5" s="331"/>
-      <c r="BI5" s="331"/>
-      <c r="BJ5" s="331"/>
-      <c r="BK5" s="331"/>
-      <c r="BL5" s="331"/>
-      <c r="BM5" s="331"/>
-      <c r="BN5" s="331"/>
-      <c r="BO5" s="331"/>
-      <c r="BP5" s="332"/>
-      <c r="BQ5" s="333" t="s">
-        <v>285</v>
-      </c>
-      <c r="BR5" s="334"/>
-      <c r="BS5" s="334"/>
-      <c r="BT5" s="334"/>
-      <c r="BU5" s="334"/>
-      <c r="BV5" s="334"/>
-      <c r="BW5" s="334"/>
-      <c r="BX5" s="334"/>
-      <c r="BY5" s="334"/>
-      <c r="BZ5" s="335"/>
-      <c r="CA5" s="327" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB5" s="328"/>
-      <c r="CC5" s="328"/>
-      <c r="CD5" s="328"/>
-      <c r="CE5" s="328"/>
-      <c r="CF5" s="328"/>
-      <c r="CG5" s="328"/>
-      <c r="CH5" s="328"/>
-      <c r="CI5" s="328"/>
-      <c r="CJ5" s="329"/>
-      <c r="CK5" s="342" t="s">
+      <c r="CB5" s="299"/>
+      <c r="CC5" s="299"/>
+      <c r="CD5" s="299"/>
+      <c r="CE5" s="299"/>
+      <c r="CF5" s="299"/>
+      <c r="CG5" s="299"/>
+      <c r="CH5" s="299"/>
+      <c r="CI5" s="299"/>
+      <c r="CJ5" s="300"/>
+      <c r="CK5" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="343"/>
-      <c r="CM5" s="343"/>
-      <c r="CN5" s="343"/>
-      <c r="CO5" s="343"/>
-      <c r="CP5" s="343"/>
-      <c r="CQ5" s="343"/>
-      <c r="CR5" s="343"/>
-      <c r="CS5" s="343"/>
-      <c r="CT5" s="343"/>
-      <c r="CU5" s="343"/>
-      <c r="CV5" s="343"/>
-      <c r="CW5" s="343"/>
-      <c r="CX5" s="343"/>
-      <c r="CY5" s="344"/>
+      <c r="CL5" s="280"/>
+      <c r="CM5" s="280"/>
+      <c r="CN5" s="280"/>
+      <c r="CO5" s="280"/>
+      <c r="CP5" s="280"/>
+      <c r="CQ5" s="280"/>
+      <c r="CR5" s="280"/>
+      <c r="CS5" s="280"/>
+      <c r="CT5" s="280"/>
+      <c r="CU5" s="280"/>
+      <c r="CV5" s="280"/>
+      <c r="CW5" s="280"/>
+      <c r="CX5" s="280"/>
+      <c r="CY5" s="281"/>
       <c r="CZ5" s="239"/>
       <c r="DA5" s="240"/>
     </row>
     <row r="6" spans="2:113" s="166" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="235"/>
       <c r="C6" s="236"/>
-      <c r="D6" s="314" t="s">
+      <c r="D6" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="314"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="314"/>
-      <c r="H6" s="314"/>
-      <c r="I6" s="315" t="s">
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="316" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="315" t="s">
+      <c r="J6" s="317"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="318"/>
+      <c r="N6" s="316" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="316"/>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="316"/>
-      <c r="R6" s="317"/>
-      <c r="S6" s="318" t="s">
+      <c r="O6" s="317"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="317"/>
+      <c r="R6" s="318"/>
+      <c r="S6" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="318"/>
-      <c r="U6" s="318"/>
-      <c r="V6" s="318"/>
-      <c r="W6" s="318"/>
-      <c r="X6" s="318" t="s">
+      <c r="T6" s="319"/>
+      <c r="U6" s="319"/>
+      <c r="V6" s="319"/>
+      <c r="W6" s="319"/>
+      <c r="X6" s="319" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="318"/>
-      <c r="Z6" s="318"/>
-      <c r="AA6" s="318"/>
-      <c r="AB6" s="318"/>
-      <c r="AC6" s="337" t="s">
+      <c r="Y6" s="319"/>
+      <c r="Z6" s="319"/>
+      <c r="AA6" s="319"/>
+      <c r="AB6" s="319"/>
+      <c r="AC6" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="337"/>
-      <c r="AE6" s="337"/>
-      <c r="AF6" s="337"/>
-      <c r="AG6" s="337"/>
-      <c r="AH6" s="337" t="s">
+      <c r="AD6" s="287"/>
+      <c r="AE6" s="287"/>
+      <c r="AF6" s="287"/>
+      <c r="AG6" s="287"/>
+      <c r="AH6" s="287" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="337"/>
-      <c r="AJ6" s="337"/>
-      <c r="AK6" s="337"/>
-      <c r="AL6" s="337"/>
-      <c r="AM6" s="337" t="s">
+      <c r="AI6" s="287"/>
+      <c r="AJ6" s="287"/>
+      <c r="AK6" s="287"/>
+      <c r="AL6" s="287"/>
+      <c r="AM6" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="337"/>
-      <c r="AO6" s="337"/>
-      <c r="AP6" s="337"/>
-      <c r="AQ6" s="337"/>
-      <c r="AR6" s="337" t="s">
+      <c r="AN6" s="287"/>
+      <c r="AO6" s="287"/>
+      <c r="AP6" s="287"/>
+      <c r="AQ6" s="287"/>
+      <c r="AR6" s="287" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="337"/>
-      <c r="AT6" s="337"/>
-      <c r="AU6" s="337"/>
-      <c r="AV6" s="337"/>
-      <c r="AW6" s="341" t="s">
+      <c r="AS6" s="287"/>
+      <c r="AT6" s="287"/>
+      <c r="AU6" s="287"/>
+      <c r="AV6" s="287"/>
+      <c r="AW6" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="341"/>
-      <c r="AY6" s="341"/>
-      <c r="AZ6" s="341"/>
-      <c r="BA6" s="341"/>
-      <c r="BB6" s="341" t="s">
+      <c r="AX6" s="292"/>
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="292"/>
+      <c r="BA6" s="292"/>
+      <c r="BB6" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="341"/>
-      <c r="BD6" s="341"/>
-      <c r="BE6" s="341"/>
-      <c r="BF6" s="341"/>
-      <c r="BG6" s="323" t="s">
+      <c r="BC6" s="292"/>
+      <c r="BD6" s="292"/>
+      <c r="BE6" s="292"/>
+      <c r="BF6" s="292"/>
+      <c r="BG6" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="323"/>
-      <c r="BI6" s="323"/>
-      <c r="BJ6" s="323"/>
-      <c r="BK6" s="323"/>
-      <c r="BL6" s="323" t="s">
+      <c r="BH6" s="294"/>
+      <c r="BI6" s="294"/>
+      <c r="BJ6" s="294"/>
+      <c r="BK6" s="294"/>
+      <c r="BL6" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="323"/>
-      <c r="BN6" s="323"/>
-      <c r="BO6" s="323"/>
-      <c r="BP6" s="323"/>
-      <c r="BQ6" s="336" t="s">
+      <c r="BM6" s="294"/>
+      <c r="BN6" s="294"/>
+      <c r="BO6" s="294"/>
+      <c r="BP6" s="294"/>
+      <c r="BQ6" s="291" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="336"/>
-      <c r="BS6" s="336"/>
-      <c r="BT6" s="336"/>
-      <c r="BU6" s="336"/>
-      <c r="BV6" s="336" t="s">
+      <c r="BR6" s="291"/>
+      <c r="BS6" s="291"/>
+      <c r="BT6" s="291"/>
+      <c r="BU6" s="291"/>
+      <c r="BV6" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="336"/>
-      <c r="BX6" s="336"/>
-      <c r="BY6" s="336"/>
-      <c r="BZ6" s="336"/>
-      <c r="CA6" s="322" t="s">
+      <c r="BW6" s="291"/>
+      <c r="BX6" s="291"/>
+      <c r="BY6" s="291"/>
+      <c r="BZ6" s="291"/>
+      <c r="CA6" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="322"/>
-      <c r="CC6" s="322"/>
-      <c r="CD6" s="322"/>
-      <c r="CE6" s="322"/>
-      <c r="CF6" s="322" t="s">
+      <c r="CB6" s="293"/>
+      <c r="CC6" s="293"/>
+      <c r="CD6" s="293"/>
+      <c r="CE6" s="293"/>
+      <c r="CF6" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="322"/>
-      <c r="CH6" s="322"/>
-      <c r="CI6" s="322"/>
-      <c r="CJ6" s="322"/>
-      <c r="CK6" s="346" t="s">
+      <c r="CG6" s="293"/>
+      <c r="CH6" s="293"/>
+      <c r="CI6" s="293"/>
+      <c r="CJ6" s="293"/>
+      <c r="CK6" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="347"/>
-      <c r="CM6" s="347"/>
-      <c r="CN6" s="347"/>
-      <c r="CO6" s="348"/>
-      <c r="CP6" s="346" t="s">
+      <c r="CL6" s="285"/>
+      <c r="CM6" s="285"/>
+      <c r="CN6" s="285"/>
+      <c r="CO6" s="286"/>
+      <c r="CP6" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="347"/>
-      <c r="CR6" s="347"/>
-      <c r="CS6" s="347"/>
-      <c r="CT6" s="348"/>
-      <c r="CU6" s="346" t="s">
+      <c r="CQ6" s="285"/>
+      <c r="CR6" s="285"/>
+      <c r="CS6" s="285"/>
+      <c r="CT6" s="286"/>
+      <c r="CU6" s="284" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="347"/>
-      <c r="CW6" s="347"/>
-      <c r="CX6" s="347"/>
-      <c r="CY6" s="348"/>
+      <c r="CV6" s="285"/>
+      <c r="CW6" s="285"/>
+      <c r="CX6" s="285"/>
+      <c r="CY6" s="286"/>
       <c r="CZ6" s="241" t="s">
         <v>77</v>
       </c>
@@ -10567,9 +10835,15 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="184"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="176"/>
+      <c r="B7" s="184" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="176">
+        <v>100</v>
+      </c>
       <c r="E7" s="175"/>
       <c r="F7" s="175"/>
       <c r="G7" s="175"/>
@@ -10669,8 +10943,12 @@
       <c r="CW7" s="175"/>
       <c r="CX7" s="175"/>
       <c r="CY7" s="175"/>
-      <c r="CZ7" s="172"/>
-      <c r="DA7" s="170"/>
+      <c r="CZ7" s="172">
+        <v>100</v>
+      </c>
+      <c r="DA7" s="170">
+        <v>0</v>
+      </c>
       <c r="DB7" s="123"/>
       <c r="DC7" s="123"/>
       <c r="DD7" s="123"/>
@@ -10681,9 +10959,15 @@
       <c r="DI7" s="123"/>
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="185"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="179"/>
+      <c r="B8" s="185" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="168" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="179">
+        <v>100</v>
+      </c>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
       <c r="G8" s="178"/>
@@ -10783,8 +11067,12 @@
       <c r="CW8" s="178"/>
       <c r="CX8" s="178"/>
       <c r="CY8" s="178"/>
-      <c r="CZ8" s="172"/>
-      <c r="DA8" s="170"/>
+      <c r="CZ8" s="172">
+        <v>100</v>
+      </c>
+      <c r="DA8" s="170">
+        <v>0</v>
+      </c>
       <c r="DB8" s="123"/>
       <c r="DC8" s="123"/>
       <c r="DD8" s="123"/>
@@ -10795,9 +11083,15 @@
       <c r="DI8" s="123"/>
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="179"/>
+      <c r="B9" s="185" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="168" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="179">
+        <v>100</v>
+      </c>
       <c r="E9" s="178"/>
       <c r="F9" s="178"/>
       <c r="G9" s="178"/>
@@ -10897,8 +11191,12 @@
       <c r="CW9" s="178"/>
       <c r="CX9" s="178"/>
       <c r="CY9" s="178"/>
-      <c r="CZ9" s="172"/>
-      <c r="DA9" s="170"/>
+      <c r="CZ9" s="172">
+        <v>100</v>
+      </c>
+      <c r="DA9" s="170">
+        <v>0</v>
+      </c>
       <c r="DB9" s="123"/>
       <c r="DC9" s="123"/>
       <c r="DD9" s="123"/>
@@ -10909,9 +11207,15 @@
       <c r="DI9" s="123"/>
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="185"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="179"/>
+      <c r="B10" s="185" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="168" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="179">
+        <v>99</v>
+      </c>
       <c r="E10" s="178"/>
       <c r="F10" s="178"/>
       <c r="G10" s="178"/>
@@ -11011,8 +11315,12 @@
       <c r="CW10" s="178"/>
       <c r="CX10" s="178"/>
       <c r="CY10" s="178"/>
-      <c r="CZ10" s="172"/>
-      <c r="DA10" s="170"/>
+      <c r="CZ10" s="172">
+        <v>99</v>
+      </c>
+      <c r="DA10" s="170">
+        <v>0</v>
+      </c>
       <c r="DB10" s="123"/>
       <c r="DC10" s="123"/>
       <c r="DD10" s="123"/>
@@ -11023,9 +11331,15 @@
       <c r="DI10" s="123"/>
     </row>
     <row r="11" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="185"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="179"/>
+      <c r="B11" s="185" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="168" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="179">
+        <v>97</v>
+      </c>
       <c r="E11" s="178"/>
       <c r="F11" s="178"/>
       <c r="G11" s="178"/>
@@ -11125,8 +11439,12 @@
       <c r="CW11" s="178"/>
       <c r="CX11" s="178"/>
       <c r="CY11" s="178"/>
-      <c r="CZ11" s="172"/>
-      <c r="DA11" s="170"/>
+      <c r="CZ11" s="172">
+        <v>97</v>
+      </c>
+      <c r="DA11" s="170">
+        <v>0</v>
+      </c>
       <c r="DB11" s="123"/>
       <c r="DC11" s="123"/>
       <c r="DD11" s="123"/>
@@ -11137,9 +11455,15 @@
       <c r="DI11" s="123"/>
     </row>
     <row r="12" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="185"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="179"/>
+      <c r="B12" s="185" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="168" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="179">
+        <v>97</v>
+      </c>
       <c r="E12" s="178"/>
       <c r="F12" s="178"/>
       <c r="G12" s="178"/>
@@ -11239,8 +11563,12 @@
       <c r="CW12" s="178"/>
       <c r="CX12" s="178"/>
       <c r="CY12" s="178"/>
-      <c r="CZ12" s="172"/>
-      <c r="DA12" s="170"/>
+      <c r="CZ12" s="172">
+        <v>97</v>
+      </c>
+      <c r="DA12" s="170">
+        <v>0</v>
+      </c>
       <c r="DB12" s="123"/>
       <c r="DC12" s="123"/>
       <c r="DD12" s="123"/>
@@ -11251,9 +11579,15 @@
       <c r="DI12" s="123"/>
     </row>
     <row r="13" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="185"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="179"/>
+      <c r="B13" s="185" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="168" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="179">
+        <v>97</v>
+      </c>
       <c r="E13" s="178"/>
       <c r="F13" s="178"/>
       <c r="G13" s="178"/>
@@ -11353,8 +11687,12 @@
       <c r="CW13" s="178"/>
       <c r="CX13" s="178"/>
       <c r="CY13" s="178"/>
-      <c r="CZ13" s="172"/>
-      <c r="DA13" s="170"/>
+      <c r="CZ13" s="172">
+        <v>97</v>
+      </c>
+      <c r="DA13" s="170">
+        <v>0</v>
+      </c>
       <c r="DB13" s="123"/>
       <c r="DC13" s="123"/>
       <c r="DD13" s="123"/>
@@ -11365,9 +11703,15 @@
       <c r="DI13" s="123"/>
     </row>
     <row r="14" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="185"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="179"/>
+      <c r="B14" s="185" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="179">
+        <v>96</v>
+      </c>
       <c r="E14" s="178"/>
       <c r="F14" s="178"/>
       <c r="G14" s="178"/>
@@ -11467,8 +11811,12 @@
       <c r="CW14" s="178"/>
       <c r="CX14" s="178"/>
       <c r="CY14" s="178"/>
-      <c r="CZ14" s="172"/>
-      <c r="DA14" s="170"/>
+      <c r="CZ14" s="172">
+        <v>96</v>
+      </c>
+      <c r="DA14" s="170">
+        <v>0</v>
+      </c>
       <c r="DB14" s="123"/>
       <c r="DC14" s="123"/>
       <c r="DD14" s="123"/>
@@ -11479,9 +11827,15 @@
       <c r="DI14" s="123"/>
     </row>
     <row r="15" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="185"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="179"/>
+      <c r="B15" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="168" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="179">
+        <v>96</v>
+      </c>
       <c r="E15" s="178"/>
       <c r="F15" s="178"/>
       <c r="G15" s="178"/>
@@ -11581,8 +11935,12 @@
       <c r="CW15" s="178"/>
       <c r="CX15" s="178"/>
       <c r="CY15" s="178"/>
-      <c r="CZ15" s="172"/>
-      <c r="DA15" s="170"/>
+      <c r="CZ15" s="172">
+        <v>96</v>
+      </c>
+      <c r="DA15" s="170">
+        <v>0</v>
+      </c>
       <c r="DB15" s="123"/>
       <c r="DC15" s="123"/>
       <c r="DD15" s="123"/>
@@ -11593,9 +11951,15 @@
       <c r="DI15" s="123"/>
     </row>
     <row r="16" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="179"/>
+      <c r="B16" s="185" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="179">
+        <v>96</v>
+      </c>
       <c r="E16" s="178"/>
       <c r="F16" s="178"/>
       <c r="G16" s="178"/>
@@ -11695,8 +12059,12 @@
       <c r="CW16" s="178"/>
       <c r="CX16" s="178"/>
       <c r="CY16" s="178"/>
-      <c r="CZ16" s="172"/>
-      <c r="DA16" s="170"/>
+      <c r="CZ16" s="172">
+        <v>96</v>
+      </c>
+      <c r="DA16" s="170">
+        <v>0</v>
+      </c>
       <c r="DB16" s="123"/>
       <c r="DC16" s="123"/>
       <c r="DD16" s="123"/>
@@ -11707,9 +12075,15 @@
       <c r="DI16" s="123"/>
     </row>
     <row r="17" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="185"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="179"/>
+      <c r="B17" s="185" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="168" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="179">
+        <v>93</v>
+      </c>
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
       <c r="G17" s="178"/>
@@ -11809,8 +12183,12 @@
       <c r="CW17" s="178"/>
       <c r="CX17" s="178"/>
       <c r="CY17" s="178"/>
-      <c r="CZ17" s="172"/>
-      <c r="DA17" s="170"/>
+      <c r="CZ17" s="172">
+        <v>93</v>
+      </c>
+      <c r="DA17" s="170">
+        <v>0</v>
+      </c>
       <c r="DB17" s="123"/>
       <c r="DC17" s="123"/>
       <c r="DD17" s="123"/>
@@ -14258,26 +14636,41 @@
       <c r="EJ53" s="123"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="B7:DA35">
     <sortCondition descending="1" ref="CZ13"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="52">
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="S5:AB5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:R5"/>
     <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="BL6:BP6"/>
     <mergeCell ref="AW5:BF5"/>
@@ -14287,35 +14680,20 @@
     <mergeCell ref="BG6:BK6"/>
     <mergeCell ref="BQ5:BZ5"/>
     <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -14459,8 +14837,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -14479,32 +14882,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15128,14 +15506,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="352" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="351"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="354"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15180,14 +15558,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="349" t="s">
+      <c r="A7" s="352" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="350"/>
-      <c r="C7" s="350"/>
-      <c r="D7" s="350"/>
-      <c r="E7" s="350"/>
-      <c r="F7" s="351"/>
+      <c r="B7" s="353"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="353"/>
+      <c r="F7" s="354"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15200,11 +15578,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="352" t="s">
+      <c r="D8" s="355" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="353"/>
-      <c r="F8" s="354"/>
+      <c r="E8" s="356"/>
+      <c r="F8" s="357"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -15228,27 +15606,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="349" t="s">
+      <c r="A11" s="352" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="350"/>
-      <c r="C11" s="350"/>
-      <c r="D11" s="350"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="351"/>
+      <c r="B11" s="353"/>
+      <c r="C11" s="353"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="354"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="355" t="s">
+      <c r="B12" s="358" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="356"/>
-      <c r="D12" s="356"/>
-      <c r="E12" s="356"/>
-      <c r="F12" s="357"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="360"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -15264,25 +15642,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="349" t="s">
+      <c r="A15" s="352" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="350"/>
-      <c r="C15" s="350"/>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="351"/>
+      <c r="B15" s="353"/>
+      <c r="C15" s="353"/>
+      <c r="D15" s="353"/>
+      <c r="E15" s="353"/>
+      <c r="F15" s="354"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="358"/>
-      <c r="C16" s="359"/>
-      <c r="D16" s="359"/>
-      <c r="E16" s="359"/>
-      <c r="F16" s="360"/>
+      <c r="B16" s="349"/>
+      <c r="C16" s="350"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="351"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -15298,25 +15676,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="349" t="s">
+      <c r="A19" s="352" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="350"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="351"/>
+      <c r="B19" s="353"/>
+      <c r="C19" s="353"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="353"/>
+      <c r="F19" s="354"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="358"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="359"/>
-      <c r="E20" s="359"/>
-      <c r="F20" s="360"/>
+      <c r="B20" s="349"/>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="351"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -15332,25 +15710,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="352" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="350"/>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="351"/>
+      <c r="B23" s="353"/>
+      <c r="C23" s="353"/>
+      <c r="D23" s="353"/>
+      <c r="E23" s="353"/>
+      <c r="F23" s="354"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="358"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="359"/>
-      <c r="E24" s="359"/>
-      <c r="F24" s="360"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="350"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="350"/>
+      <c r="F24" s="351"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -15366,27 +15744,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="349" t="s">
+      <c r="A27" s="352" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="350"/>
-      <c r="C27" s="350"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="350"/>
-      <c r="F27" s="351"/>
+      <c r="B27" s="353"/>
+      <c r="C27" s="353"/>
+      <c r="D27" s="353"/>
+      <c r="E27" s="353"/>
+      <c r="F27" s="354"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="358" t="s">
+      <c r="B28" s="349" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="359"/>
-      <c r="D28" s="359"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="360"/>
+      <c r="C28" s="350"/>
+      <c r="D28" s="350"/>
+      <c r="E28" s="350"/>
+      <c r="F28" s="351"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -15402,6 +15780,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -15409,12 +15793,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15617,30 +15995,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="385">
+      <c r="E3" s="374">
         <v>5665</v>
       </c>
-      <c r="F3" s="385"/>
+      <c r="F3" s="374"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="385" t="s">
+      <c r="I3" s="374" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
+      <c r="J3" s="374"/>
+      <c r="K3" s="374"/>
+      <c r="L3" s="374"/>
+      <c r="M3" s="374"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="385" t="s">
+      <c r="P3" s="374" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="385"/>
-      <c r="R3" s="385"/>
-      <c r="S3" s="385"/>
-      <c r="T3" s="385"/>
+      <c r="Q3" s="374"/>
+      <c r="R3" s="374"/>
+      <c r="S3" s="374"/>
+      <c r="T3" s="374"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -15651,10 +16029,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="384" t="s">
+      <c r="AF3" s="373" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="384"/>
+      <c r="AG3" s="373"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -16247,153 +16625,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="376" t="s">
+      <c r="B18" s="378" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="377"/>
-      <c r="D18" s="373" t="s">
+      <c r="C18" s="379"/>
+      <c r="D18" s="375" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374"/>
-      <c r="H18" s="374"/>
-      <c r="I18" s="374"/>
-      <c r="J18" s="374"/>
-      <c r="K18" s="374"/>
-      <c r="L18" s="374"/>
-      <c r="M18" s="374"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="374"/>
-      <c r="P18" s="374"/>
-      <c r="Q18" s="374"/>
-      <c r="R18" s="374"/>
-      <c r="S18" s="374"/>
-      <c r="T18" s="374"/>
-      <c r="U18" s="374"/>
-      <c r="V18" s="374"/>
-      <c r="W18" s="375"/>
+      <c r="E18" s="376"/>
+      <c r="F18" s="376"/>
+      <c r="G18" s="376"/>
+      <c r="H18" s="376"/>
+      <c r="I18" s="376"/>
+      <c r="J18" s="376"/>
+      <c r="K18" s="376"/>
+      <c r="L18" s="376"/>
+      <c r="M18" s="376"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="376"/>
+      <c r="P18" s="376"/>
+      <c r="Q18" s="376"/>
+      <c r="R18" s="376"/>
+      <c r="S18" s="376"/>
+      <c r="T18" s="376"/>
+      <c r="U18" s="376"/>
+      <c r="V18" s="376"/>
+      <c r="W18" s="377"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="378">
+      <c r="B19" s="380">
         <v>2</v>
       </c>
-      <c r="C19" s="379"/>
-      <c r="D19" s="373" t="s">
+      <c r="C19" s="381"/>
+      <c r="D19" s="375" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
-      <c r="H19" s="374"/>
-      <c r="I19" s="374"/>
-      <c r="J19" s="374"/>
-      <c r="K19" s="374"/>
-      <c r="L19" s="374"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="374"/>
-      <c r="P19" s="374"/>
-      <c r="Q19" s="374"/>
-      <c r="R19" s="374"/>
-      <c r="S19" s="374"/>
-      <c r="T19" s="374"/>
-      <c r="U19" s="374"/>
-      <c r="V19" s="374"/>
-      <c r="W19" s="375"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
+      <c r="H19" s="376"/>
+      <c r="I19" s="376"/>
+      <c r="J19" s="376"/>
+      <c r="K19" s="376"/>
+      <c r="L19" s="376"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="376"/>
+      <c r="P19" s="376"/>
+      <c r="Q19" s="376"/>
+      <c r="R19" s="376"/>
+      <c r="S19" s="376"/>
+      <c r="T19" s="376"/>
+      <c r="U19" s="376"/>
+      <c r="V19" s="376"/>
+      <c r="W19" s="377"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="380">
+      <c r="B20" s="382">
         <v>3</v>
       </c>
-      <c r="C20" s="381"/>
-      <c r="D20" s="373" t="s">
+      <c r="C20" s="383"/>
+      <c r="D20" s="375" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
-      <c r="I20" s="374"/>
-      <c r="J20" s="374"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="374"/>
-      <c r="M20" s="374"/>
-      <c r="N20" s="374"/>
-      <c r="O20" s="374"/>
-      <c r="P20" s="374"/>
-      <c r="Q20" s="374"/>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
-      <c r="T20" s="374"/>
-      <c r="U20" s="374"/>
-      <c r="V20" s="374"/>
-      <c r="W20" s="375"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
+      <c r="H20" s="376"/>
+      <c r="I20" s="376"/>
+      <c r="J20" s="376"/>
+      <c r="K20" s="376"/>
+      <c r="L20" s="376"/>
+      <c r="M20" s="376"/>
+      <c r="N20" s="376"/>
+      <c r="O20" s="376"/>
+      <c r="P20" s="376"/>
+      <c r="Q20" s="376"/>
+      <c r="R20" s="376"/>
+      <c r="S20" s="376"/>
+      <c r="T20" s="376"/>
+      <c r="U20" s="376"/>
+      <c r="V20" s="376"/>
+      <c r="W20" s="377"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="382">
+      <c r="B21" s="384">
         <v>4</v>
       </c>
-      <c r="C21" s="383"/>
-      <c r="D21" s="373" t="s">
+      <c r="C21" s="385"/>
+      <c r="D21" s="375" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="374"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="374"/>
-      <c r="M21" s="374"/>
-      <c r="N21" s="374"/>
-      <c r="O21" s="374"/>
-      <c r="P21" s="374"/>
-      <c r="Q21" s="374"/>
-      <c r="R21" s="374"/>
-      <c r="S21" s="374"/>
-      <c r="T21" s="374"/>
-      <c r="U21" s="374"/>
-      <c r="V21" s="374"/>
-      <c r="W21" s="375"/>
+      <c r="E21" s="376"/>
+      <c r="F21" s="376"/>
+      <c r="G21" s="376"/>
+      <c r="H21" s="376"/>
+      <c r="I21" s="376"/>
+      <c r="J21" s="376"/>
+      <c r="K21" s="376"/>
+      <c r="L21" s="376"/>
+      <c r="M21" s="376"/>
+      <c r="N21" s="376"/>
+      <c r="O21" s="376"/>
+      <c r="P21" s="376"/>
+      <c r="Q21" s="376"/>
+      <c r="R21" s="376"/>
+      <c r="S21" s="376"/>
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="376"/>
+      <c r="W21" s="377"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="382">
+      <c r="B22" s="384">
         <v>5</v>
       </c>
-      <c r="C22" s="383"/>
-      <c r="D22" s="373" t="s">
+      <c r="C22" s="385"/>
+      <c r="D22" s="375" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="374"/>
-      <c r="K22" s="374"/>
-      <c r="L22" s="374"/>
-      <c r="M22" s="374"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
-      <c r="Q22" s="374"/>
-      <c r="R22" s="374"/>
-      <c r="S22" s="374"/>
-      <c r="T22" s="374"/>
-      <c r="U22" s="374"/>
-      <c r="V22" s="374"/>
-      <c r="W22" s="375"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="376"/>
+      <c r="G22" s="376"/>
+      <c r="H22" s="376"/>
+      <c r="I22" s="376"/>
+      <c r="J22" s="376"/>
+      <c r="K22" s="376"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="376"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="376"/>
+      <c r="P22" s="376"/>
+      <c r="Q22" s="376"/>
+      <c r="R22" s="376"/>
+      <c r="S22" s="376"/>
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="376"/>
+      <c r="W22" s="377"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -16403,6 +16776,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -16737,30 +17115,30 @@
       <c r="C4" s="205">
         <v>9</v>
       </c>
-      <c r="D4" s="393">
+      <c r="D4" s="387">
         <v>11</v>
       </c>
-      <c r="E4" s="393"/>
-      <c r="F4" s="393">
+      <c r="E4" s="387"/>
+      <c r="F4" s="387">
         <v>17</v>
       </c>
-      <c r="G4" s="393"/>
-      <c r="H4" s="393">
+      <c r="G4" s="387"/>
+      <c r="H4" s="387">
         <v>20</v>
       </c>
-      <c r="I4" s="393"/>
-      <c r="J4" s="393"/>
-      <c r="K4" s="393"/>
-      <c r="L4" s="393">
+      <c r="I4" s="387"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="387"/>
+      <c r="L4" s="387">
         <v>27</v>
       </c>
-      <c r="M4" s="393"/>
-      <c r="N4" s="393">
+      <c r="M4" s="387"/>
+      <c r="N4" s="387">
         <v>28</v>
       </c>
-      <c r="O4" s="393"/>
-      <c r="P4" s="393"/>
-      <c r="Q4" s="393"/>
+      <c r="O4" s="387"/>
+      <c r="P4" s="387"/>
+      <c r="Q4" s="387"/>
       <c r="R4" s="205">
         <v>29</v>
       </c>
@@ -16774,30 +17152,30 @@
       <c r="C5" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="392" t="s">
+      <c r="D5" s="393" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="392"/>
-      <c r="F5" s="387" t="s">
+      <c r="E5" s="393"/>
+      <c r="F5" s="388" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387" t="s">
+      <c r="G5" s="388"/>
+      <c r="H5" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="388" t="s">
+      <c r="I5" s="388"/>
+      <c r="J5" s="388"/>
+      <c r="K5" s="388"/>
+      <c r="L5" s="389" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="388"/>
-      <c r="N5" s="388" t="s">
+      <c r="M5" s="389"/>
+      <c r="N5" s="389" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="388"/>
-      <c r="P5" s="388"/>
-      <c r="Q5" s="388"/>
+      <c r="O5" s="389"/>
+      <c r="P5" s="389"/>
+      <c r="Q5" s="389"/>
       <c r="R5" s="201" t="s">
         <v>17</v>
       </c>
@@ -16811,30 +17189,30 @@
       <c r="C6" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="389" t="s">
+      <c r="D6" s="390" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="389"/>
-      <c r="F6" s="390" t="s">
+      <c r="E6" s="390"/>
+      <c r="F6" s="391" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="390"/>
-      <c r="H6" s="390" t="s">
+      <c r="G6" s="391"/>
+      <c r="H6" s="391" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="390"/>
-      <c r="J6" s="390"/>
-      <c r="K6" s="390"/>
-      <c r="L6" s="391" t="s">
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="392" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391" t="s">
+      <c r="M6" s="392"/>
+      <c r="N6" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
+      <c r="O6" s="392"/>
+      <c r="P6" s="392"/>
+      <c r="Q6" s="392"/>
       <c r="R6" s="204" t="s">
         <v>152</v>
       </c>
@@ -17076,11 +17454,6 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17091,6 +17464,11 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="316">
   <si>
     <t>DAY</t>
   </si>
@@ -864,9 +864,6 @@
     <t>Pumps - Day 2</t>
   </si>
   <si>
-    <t>Pumps - Day 3</t>
-  </si>
-  <si>
     <t>BA - Day 1</t>
   </si>
   <si>
@@ -954,12 +951,6 @@
     <t>Phase II Folder</t>
   </si>
   <si>
-    <t>Basic Core Skills</t>
-  </si>
-  <si>
-    <t>Pump Ops</t>
-  </si>
-  <si>
     <t>Rope Assessment</t>
   </si>
   <si>
@@ -1051,6 +1042,27 @@
   </si>
   <si>
     <t>Ladders Adv/Time Cr. Res.</t>
+  </si>
+  <si>
+    <t>Pumps/ BCS Assessments</t>
+  </si>
+  <si>
+    <t>Fire Science</t>
+  </si>
+  <si>
+    <t>BCS Written %</t>
+  </si>
+  <si>
+    <t>BCS/ Pump Assessment</t>
+  </si>
+  <si>
+    <t>BCS Practical %</t>
+  </si>
+  <si>
+    <t>Pump Written %</t>
+  </si>
+  <si>
+    <t>Pump Practical %</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="148">
+  <borders count="150">
     <border>
       <left/>
       <right/>
@@ -3311,6 +3323,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF484A47"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF484A47"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF484A47"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF484A47"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3318,7 +3352,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
@@ -4155,6 +4189,33 @@
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4164,6 +4225,147 @@
     <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4173,9 +4375,6 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4188,191 +4387,32 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="21" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4383,33 +4423,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4446,67 +4459,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -7573,7 +7604,7 @@
   <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7641,14 +7672,14 @@
       <c r="N2" s="273"/>
       <c r="O2" s="273"/>
       <c r="P2" s="274" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="274"/>
       <c r="R2" s="274"/>
       <c r="S2" s="274"/>
       <c r="T2" s="129"/>
       <c r="U2" s="275" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V2" s="275"/>
       <c r="W2" s="275"/>
@@ -7657,7 +7688,7 @@
       <c r="Z2" s="275"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="272" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AC2" s="272"/>
       <c r="AD2" s="272"/>
@@ -7992,13 +8023,13 @@
         <v>245</v>
       </c>
       <c r="K5" s="222" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L5" s="222" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M5" s="249" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="N5" s="256" t="s">
         <v>247</v>
@@ -8007,120 +8038,120 @@
         <v>248</v>
       </c>
       <c r="P5" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="Q5" s="132" t="s">
+      <c r="R5" s="257" t="s">
         <v>250</v>
       </c>
-      <c r="R5" s="257" t="s">
+      <c r="S5" s="258" t="s">
         <v>251</v>
       </c>
-      <c r="S5" s="258" t="s">
+      <c r="T5" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="T5" s="133" t="s">
+      <c r="U5" s="132" t="s">
+        <v>310</v>
+      </c>
+      <c r="V5" s="133" t="s">
         <v>253</v>
-      </c>
-      <c r="U5" s="132" t="s">
-        <v>311</v>
-      </c>
-      <c r="V5" s="133" t="s">
-        <v>254</v>
       </c>
       <c r="W5" s="259" t="s">
         <v>49</v>
       </c>
       <c r="X5" s="258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y5" s="133" t="s">
         <v>48</v>
       </c>
       <c r="Z5" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA5" s="133" t="s">
         <v>256</v>
-      </c>
-      <c r="AA5" s="133" t="s">
-        <v>257</v>
       </c>
       <c r="AB5" s="259" t="s">
         <v>151</v>
       </c>
       <c r="AC5" s="260" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD5" s="223" t="s">
         <v>258</v>
       </c>
-      <c r="AD5" s="223" t="s">
+      <c r="AE5" s="223" t="s">
         <v>259</v>
       </c>
-      <c r="AE5" s="223" t="s">
+      <c r="AF5" s="223" t="s">
         <v>260</v>
-      </c>
-      <c r="AF5" s="223" t="s">
-        <v>261</v>
       </c>
       <c r="AG5" s="261" t="s">
         <v>246</v>
       </c>
       <c r="AH5" s="262" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI5" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="AI5" s="131" t="s">
+      <c r="AJ5" s="131" t="s">
         <v>263</v>
-      </c>
-      <c r="AJ5" s="131" t="s">
-        <v>264</v>
       </c>
       <c r="AK5" s="131" t="s">
         <v>246</v>
       </c>
       <c r="AL5" s="263" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM5" s="264" t="s">
         <v>265</v>
       </c>
-      <c r="AM5" s="264" t="s">
+      <c r="AN5" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="AN5" s="134" t="s">
+      <c r="AO5" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="AO5" s="134" t="s">
+      <c r="AP5" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="AP5" s="134" t="s">
+      <c r="AQ5" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="AQ5" s="265" t="s">
+      <c r="AR5" s="255" t="s">
         <v>270</v>
       </c>
-      <c r="AR5" s="255" t="s">
+      <c r="AS5" s="222" t="s">
         <v>271</v>
       </c>
-      <c r="AS5" s="222" t="s">
+      <c r="AT5" s="222" t="s">
         <v>272</v>
       </c>
-      <c r="AT5" s="222" t="s">
+      <c r="AU5" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="AU5" s="135" t="s">
+      <c r="AV5" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="AV5" s="136" t="s">
+      <c r="AW5" s="266" t="s">
         <v>275</v>
       </c>
-      <c r="AW5" s="266" t="s">
+      <c r="AX5" s="135" t="s">
         <v>276</v>
       </c>
-      <c r="AX5" s="135" t="s">
+      <c r="AY5" s="136" t="s">
         <v>277</v>
-      </c>
-      <c r="AY5" s="136" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="187" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D6" s="137">
         <v>2</v>
@@ -8145,7 +8176,7 @@
       </c>
       <c r="K6" s="142"/>
       <c r="L6" s="142"/>
-      <c r="M6" s="139"/>
+      <c r="M6" s="142"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
       <c r="P6" s="139"/>
@@ -8187,10 +8218,10 @@
     </row>
     <row r="7" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="188" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C7" s="155" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D7" s="143">
         <v>2</v>
@@ -8215,7 +8246,7 @@
       </c>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
-      <c r="M7" s="145"/>
+      <c r="M7" s="148"/>
       <c r="N7" s="148"/>
       <c r="O7" s="148"/>
       <c r="P7" s="145"/>
@@ -8257,10 +8288,10 @@
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="188" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D8" s="143">
         <v>2</v>
@@ -8285,7 +8316,9 @@
       </c>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>
-      <c r="M8" s="145"/>
+      <c r="M8" s="148">
+        <v>1</v>
+      </c>
       <c r="N8" s="148"/>
       <c r="O8" s="148"/>
       <c r="P8" s="145"/>
@@ -8327,10 +8360,10 @@
     </row>
     <row r="9" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="188" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" s="143">
         <v>2</v>
@@ -8355,7 +8388,7 @@
       </c>
       <c r="K9" s="148"/>
       <c r="L9" s="148"/>
-      <c r="M9" s="145"/>
+      <c r="M9" s="148"/>
       <c r="N9" s="148"/>
       <c r="O9" s="148">
         <v>3</v>
@@ -8399,10 +8432,10 @@
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="188" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C10" s="155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D10" s="143">
         <v>2</v>
@@ -8427,7 +8460,7 @@
       </c>
       <c r="K10" s="148"/>
       <c r="L10" s="148"/>
-      <c r="M10" s="145"/>
+      <c r="M10" s="148"/>
       <c r="N10" s="148"/>
       <c r="O10" s="148"/>
       <c r="P10" s="145"/>
@@ -8469,10 +8502,10 @@
     </row>
     <row r="11" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="188" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D11" s="143">
         <v>2</v>
@@ -8497,7 +8530,7 @@
       </c>
       <c r="K11" s="148"/>
       <c r="L11" s="148"/>
-      <c r="M11" s="145"/>
+      <c r="M11" s="148"/>
       <c r="N11" s="148"/>
       <c r="O11" s="148"/>
       <c r="P11" s="145"/>
@@ -8539,10 +8572,10 @@
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="188" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C12" s="155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D12" s="143">
         <v>2</v>
@@ -8567,7 +8600,7 @@
       </c>
       <c r="K12" s="148"/>
       <c r="L12" s="148"/>
-      <c r="M12" s="145"/>
+      <c r="M12" s="148"/>
       <c r="N12" s="148"/>
       <c r="O12" s="148"/>
       <c r="P12" s="145"/>
@@ -8609,10 +8642,10 @@
     </row>
     <row r="13" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="188" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D13" s="143">
         <v>2</v>
@@ -8637,7 +8670,7 @@
       </c>
       <c r="K13" s="148"/>
       <c r="L13" s="148"/>
-      <c r="M13" s="145"/>
+      <c r="M13" s="148"/>
       <c r="N13" s="148"/>
       <c r="O13" s="148"/>
       <c r="P13" s="145"/>
@@ -8679,10 +8712,10 @@
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="188" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D14" s="143">
         <v>2</v>
@@ -8707,7 +8740,7 @@
       </c>
       <c r="K14" s="148"/>
       <c r="L14" s="148"/>
-      <c r="M14" s="145">
+      <c r="M14" s="148">
         <v>3</v>
       </c>
       <c r="N14" s="148"/>
@@ -8751,10 +8784,10 @@
     </row>
     <row r="15" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="188" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D15" s="143">
         <v>2</v>
@@ -8779,7 +8812,7 @@
       </c>
       <c r="K15" s="148"/>
       <c r="L15" s="148"/>
-      <c r="M15" s="145"/>
+      <c r="M15" s="148"/>
       <c r="N15" s="148"/>
       <c r="O15" s="148"/>
       <c r="P15" s="145"/>
@@ -8821,10 +8854,10 @@
     </row>
     <row r="16" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="188" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C16" s="155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D16" s="143">
         <v>2</v>
@@ -8849,7 +8882,7 @@
       </c>
       <c r="K16" s="148"/>
       <c r="L16" s="148"/>
-      <c r="M16" s="145"/>
+      <c r="M16" s="148"/>
       <c r="N16" s="148"/>
       <c r="O16" s="148"/>
       <c r="P16" s="145"/>
@@ -8901,7 +8934,7 @@
       <c r="J17" s="148"/>
       <c r="K17" s="148"/>
       <c r="L17" s="148"/>
-      <c r="M17" s="145"/>
+      <c r="M17" s="148"/>
       <c r="N17" s="148"/>
       <c r="O17" s="148"/>
       <c r="P17" s="145"/>
@@ -8953,7 +8986,7 @@
       <c r="J18" s="148"/>
       <c r="K18" s="148"/>
       <c r="L18" s="148"/>
-      <c r="M18" s="145"/>
+      <c r="M18" s="148"/>
       <c r="N18" s="148"/>
       <c r="O18" s="148"/>
       <c r="P18" s="145"/>
@@ -9005,7 +9038,7 @@
       <c r="J19" s="148"/>
       <c r="K19" s="148"/>
       <c r="L19" s="148"/>
-      <c r="M19" s="145"/>
+      <c r="M19" s="148"/>
       <c r="N19" s="148"/>
       <c r="O19" s="148"/>
       <c r="P19" s="145"/>
@@ -9057,7 +9090,7 @@
       <c r="J20" s="148"/>
       <c r="K20" s="148"/>
       <c r="L20" s="148"/>
-      <c r="M20" s="145"/>
+      <c r="M20" s="148"/>
       <c r="N20" s="148"/>
       <c r="O20" s="148"/>
       <c r="P20" s="145"/>
@@ -9109,7 +9142,7 @@
       <c r="J21" s="148"/>
       <c r="K21" s="148"/>
       <c r="L21" s="148"/>
-      <c r="M21" s="145"/>
+      <c r="M21" s="148"/>
       <c r="N21" s="148"/>
       <c r="O21" s="148"/>
       <c r="P21" s="145"/>
@@ -9161,7 +9194,7 @@
       <c r="J22" s="148"/>
       <c r="K22" s="148"/>
       <c r="L22" s="148"/>
-      <c r="M22" s="145"/>
+      <c r="M22" s="148"/>
       <c r="N22" s="148"/>
       <c r="O22" s="148"/>
       <c r="P22" s="145"/>
@@ -9213,7 +9246,7 @@
       <c r="J23" s="148"/>
       <c r="K23" s="148"/>
       <c r="L23" s="148"/>
-      <c r="M23" s="145"/>
+      <c r="M23" s="148"/>
       <c r="N23" s="148"/>
       <c r="O23" s="148"/>
       <c r="P23" s="145"/>
@@ -9265,7 +9298,7 @@
       <c r="J24" s="148"/>
       <c r="K24" s="148"/>
       <c r="L24" s="148"/>
-      <c r="M24" s="145"/>
+      <c r="M24" s="148"/>
       <c r="N24" s="148"/>
       <c r="O24" s="148"/>
       <c r="P24" s="145"/>
@@ -9317,7 +9350,7 @@
       <c r="J25" s="148"/>
       <c r="K25" s="148"/>
       <c r="L25" s="148"/>
-      <c r="M25" s="145"/>
+      <c r="M25" s="148"/>
       <c r="N25" s="148"/>
       <c r="O25" s="148"/>
       <c r="P25" s="145"/>
@@ -9369,7 +9402,7 @@
       <c r="J26" s="148"/>
       <c r="K26" s="148"/>
       <c r="L26" s="148"/>
-      <c r="M26" s="145"/>
+      <c r="M26" s="148"/>
       <c r="N26" s="148"/>
       <c r="O26" s="148"/>
       <c r="P26" s="145"/>
@@ -9421,7 +9454,7 @@
       <c r="J27" s="148"/>
       <c r="K27" s="148"/>
       <c r="L27" s="148"/>
-      <c r="M27" s="145"/>
+      <c r="M27" s="148"/>
       <c r="N27" s="148"/>
       <c r="O27" s="148"/>
       <c r="P27" s="145"/>
@@ -9473,7 +9506,7 @@
       <c r="J28" s="148"/>
       <c r="K28" s="148"/>
       <c r="L28" s="148"/>
-      <c r="M28" s="145"/>
+      <c r="M28" s="148"/>
       <c r="N28" s="148"/>
       <c r="O28" s="148"/>
       <c r="P28" s="145"/>
@@ -9525,7 +9558,7 @@
       <c r="J29" s="148"/>
       <c r="K29" s="148"/>
       <c r="L29" s="148"/>
-      <c r="M29" s="145"/>
+      <c r="M29" s="148"/>
       <c r="N29" s="148"/>
       <c r="O29" s="148"/>
       <c r="P29" s="145"/>
@@ -9577,7 +9610,7 @@
       <c r="J30" s="148"/>
       <c r="K30" s="148"/>
       <c r="L30" s="148"/>
-      <c r="M30" s="145"/>
+      <c r="M30" s="148"/>
       <c r="N30" s="148"/>
       <c r="O30" s="148"/>
       <c r="P30" s="145"/>
@@ -9629,7 +9662,7 @@
       <c r="J31" s="148"/>
       <c r="K31" s="148"/>
       <c r="L31" s="148"/>
-      <c r="M31" s="145"/>
+      <c r="M31" s="148"/>
       <c r="N31" s="148"/>
       <c r="O31" s="148"/>
       <c r="P31" s="145"/>
@@ -9681,7 +9714,7 @@
       <c r="J32" s="148"/>
       <c r="K32" s="148"/>
       <c r="L32" s="148"/>
-      <c r="M32" s="145"/>
+      <c r="M32" s="148"/>
       <c r="N32" s="148"/>
       <c r="O32" s="148"/>
       <c r="P32" s="145"/>
@@ -9733,7 +9766,7 @@
       <c r="J33" s="148"/>
       <c r="K33" s="148"/>
       <c r="L33" s="148"/>
-      <c r="M33" s="145"/>
+      <c r="M33" s="148"/>
       <c r="N33" s="148"/>
       <c r="O33" s="148"/>
       <c r="P33" s="145"/>
@@ -9785,7 +9818,7 @@
       <c r="J34" s="153"/>
       <c r="K34" s="153"/>
       <c r="L34" s="153"/>
-      <c r="M34" s="151"/>
+      <c r="M34" s="153"/>
       <c r="N34" s="153"/>
       <c r="O34" s="153"/>
       <c r="P34" s="151"/>
@@ -9881,7 +9914,7 @@
       <c r="A52" s="126"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="O1:T1"/>
@@ -9934,27 +9967,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId5" name="BtnReset">
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9984,27 +10017,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId9" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10078,7 +10111,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CK15" sqref="CK15"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10241,41 +10274,41 @@
       <c r="AU2" s="273"/>
       <c r="AV2" s="273"/>
       <c r="AW2" s="273"/>
-      <c r="AX2" s="345" t="str">
+      <c r="AX2" s="276" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="345"/>
-      <c r="AZ2" s="345"/>
-      <c r="BA2" s="345"/>
-      <c r="BB2" s="345"/>
-      <c r="BC2" s="345"/>
-      <c r="BD2" s="345"/>
-      <c r="BE2" s="345"/>
-      <c r="BF2" s="345"/>
-      <c r="BG2" s="345"/>
-      <c r="BH2" s="345"/>
-      <c r="BI2" s="345"/>
-      <c r="BJ2" s="345"/>
-      <c r="BK2" s="345"/>
-      <c r="BL2" s="345"/>
-      <c r="BM2" s="345"/>
-      <c r="BN2" s="345"/>
-      <c r="BO2" s="345"/>
-      <c r="BP2" s="345"/>
-      <c r="BQ2" s="345"/>
-      <c r="BR2" s="345"/>
-      <c r="BS2" s="345"/>
-      <c r="BT2" s="345"/>
-      <c r="BU2" s="345"/>
-      <c r="BV2" s="345"/>
-      <c r="BW2" s="345"/>
-      <c r="BX2" s="345"/>
-      <c r="BY2" s="345"/>
-      <c r="BZ2" s="345"/>
-      <c r="CA2" s="345"/>
-      <c r="CB2" s="345"/>
-      <c r="CC2" s="345"/>
+      <c r="AY2" s="276"/>
+      <c r="AZ2" s="276"/>
+      <c r="BA2" s="276"/>
+      <c r="BB2" s="276"/>
+      <c r="BC2" s="276"/>
+      <c r="BD2" s="276"/>
+      <c r="BE2" s="276"/>
+      <c r="BF2" s="276"/>
+      <c r="BG2" s="276"/>
+      <c r="BH2" s="276"/>
+      <c r="BI2" s="276"/>
+      <c r="BJ2" s="276"/>
+      <c r="BK2" s="276"/>
+      <c r="BL2" s="276"/>
+      <c r="BM2" s="276"/>
+      <c r="BN2" s="276"/>
+      <c r="BO2" s="276"/>
+      <c r="BP2" s="276"/>
+      <c r="BQ2" s="276"/>
+      <c r="BR2" s="276"/>
+      <c r="BS2" s="276"/>
+      <c r="BT2" s="276"/>
+      <c r="BU2" s="276"/>
+      <c r="BV2" s="276"/>
+      <c r="BW2" s="276"/>
+      <c r="BX2" s="276"/>
+      <c r="BY2" s="276"/>
+      <c r="BZ2" s="276"/>
+      <c r="CA2" s="276"/>
+      <c r="CB2" s="276"/>
+      <c r="CC2" s="276"/>
       <c r="CD2" s="165"/>
       <c r="CE2" s="165"/>
       <c r="CF2" s="165"/>
@@ -10309,282 +10342,276 @@
       <c r="DH2" s="165"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="282">
+      <c r="C3" s="278"/>
+      <c r="D3" s="279">
         <v>3</v>
       </c>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="330">
-        <v>10</v>
-      </c>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="348"/>
-      <c r="S3" s="330">
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="387">
         <v>13</v>
       </c>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="348"/>
-      <c r="AC3" s="330">
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="388"/>
+      <c r="Q3" s="388"/>
+      <c r="R3" s="388"/>
+      <c r="S3" s="388"/>
+      <c r="T3" s="388"/>
+      <c r="U3" s="388"/>
+      <c r="V3" s="388"/>
+      <c r="W3" s="388"/>
+      <c r="X3" s="388"/>
+      <c r="Y3" s="388"/>
+      <c r="Z3" s="388"/>
+      <c r="AA3" s="388"/>
+      <c r="AB3" s="389"/>
+      <c r="AC3" s="281">
         <v>24</v>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="282"/>
-      <c r="AK3" s="282"/>
-      <c r="AL3" s="282"/>
-      <c r="AM3" s="282"/>
-      <c r="AN3" s="282"/>
-      <c r="AO3" s="282"/>
-      <c r="AP3" s="282"/>
-      <c r="AQ3" s="282"/>
-      <c r="AR3" s="282"/>
-      <c r="AS3" s="282"/>
-      <c r="AT3" s="282"/>
-      <c r="AU3" s="282"/>
-      <c r="AV3" s="348"/>
-      <c r="AW3" s="330">
+      <c r="AD3" s="279"/>
+      <c r="AE3" s="279"/>
+      <c r="AF3" s="279"/>
+      <c r="AG3" s="279"/>
+      <c r="AH3" s="279"/>
+      <c r="AI3" s="279"/>
+      <c r="AJ3" s="279"/>
+      <c r="AK3" s="279"/>
+      <c r="AL3" s="279"/>
+      <c r="AM3" s="279"/>
+      <c r="AN3" s="279"/>
+      <c r="AO3" s="279"/>
+      <c r="AP3" s="279"/>
+      <c r="AQ3" s="279"/>
+      <c r="AR3" s="279"/>
+      <c r="AS3" s="279"/>
+      <c r="AT3" s="279"/>
+      <c r="AU3" s="279"/>
+      <c r="AV3" s="280"/>
+      <c r="AW3" s="281">
         <v>30</v>
       </c>
-      <c r="AX3" s="282"/>
-      <c r="AY3" s="282"/>
-      <c r="AZ3" s="282"/>
-      <c r="BA3" s="282"/>
-      <c r="BB3" s="282"/>
-      <c r="BC3" s="282"/>
-      <c r="BD3" s="282"/>
-      <c r="BE3" s="282"/>
-      <c r="BF3" s="348"/>
-      <c r="BG3" s="329">
+      <c r="AX3" s="279"/>
+      <c r="AY3" s="279"/>
+      <c r="AZ3" s="279"/>
+      <c r="BA3" s="279"/>
+      <c r="BB3" s="279"/>
+      <c r="BC3" s="279"/>
+      <c r="BD3" s="279"/>
+      <c r="BE3" s="279"/>
+      <c r="BF3" s="280"/>
+      <c r="BG3" s="282">
         <v>34</v>
       </c>
-      <c r="BH3" s="329"/>
-      <c r="BI3" s="330"/>
-      <c r="BJ3" s="330"/>
-      <c r="BK3" s="330"/>
-      <c r="BL3" s="330"/>
-      <c r="BM3" s="330"/>
-      <c r="BN3" s="330"/>
-      <c r="BO3" s="330"/>
-      <c r="BP3" s="330"/>
-      <c r="BQ3" s="329">
+      <c r="BH3" s="282"/>
+      <c r="BI3" s="281"/>
+      <c r="BJ3" s="281"/>
+      <c r="BK3" s="281"/>
+      <c r="BL3" s="281"/>
+      <c r="BM3" s="281"/>
+      <c r="BN3" s="281"/>
+      <c r="BO3" s="281"/>
+      <c r="BP3" s="281"/>
+      <c r="BQ3" s="282">
         <v>40</v>
       </c>
-      <c r="BR3" s="329"/>
-      <c r="BS3" s="330"/>
-      <c r="BT3" s="330"/>
-      <c r="BU3" s="330"/>
-      <c r="BV3" s="330"/>
-      <c r="BW3" s="330"/>
-      <c r="BX3" s="330"/>
-      <c r="BY3" s="330"/>
-      <c r="BZ3" s="330"/>
-      <c r="CA3" s="329">
+      <c r="BR3" s="282"/>
+      <c r="BS3" s="281"/>
+      <c r="BT3" s="281"/>
+      <c r="BU3" s="281"/>
+      <c r="BV3" s="281"/>
+      <c r="BW3" s="281"/>
+      <c r="BX3" s="281"/>
+      <c r="BY3" s="281"/>
+      <c r="BZ3" s="281"/>
+      <c r="CA3" s="282">
         <v>43</v>
       </c>
-      <c r="CB3" s="329"/>
-      <c r="CC3" s="330"/>
-      <c r="CD3" s="330"/>
-      <c r="CE3" s="330"/>
-      <c r="CF3" s="330"/>
-      <c r="CG3" s="330"/>
-      <c r="CH3" s="330"/>
-      <c r="CI3" s="330"/>
-      <c r="CJ3" s="329"/>
-      <c r="CK3" s="282">
+      <c r="CB3" s="282"/>
+      <c r="CC3" s="281"/>
+      <c r="CD3" s="281"/>
+      <c r="CE3" s="281"/>
+      <c r="CF3" s="281"/>
+      <c r="CG3" s="281"/>
+      <c r="CH3" s="281"/>
+      <c r="CI3" s="281"/>
+      <c r="CJ3" s="282"/>
+      <c r="CK3" s="279">
         <v>46</v>
       </c>
-      <c r="CL3" s="282"/>
-      <c r="CM3" s="282"/>
-      <c r="CN3" s="282"/>
-      <c r="CO3" s="282"/>
-      <c r="CP3" s="282"/>
-      <c r="CQ3" s="282"/>
-      <c r="CR3" s="282"/>
-      <c r="CS3" s="282"/>
-      <c r="CT3" s="282"/>
-      <c r="CU3" s="282"/>
-      <c r="CV3" s="282"/>
-      <c r="CW3" s="282"/>
-      <c r="CX3" s="282"/>
-      <c r="CY3" s="283"/>
+      <c r="CL3" s="279"/>
+      <c r="CM3" s="279"/>
+      <c r="CN3" s="279"/>
+      <c r="CO3" s="279"/>
+      <c r="CP3" s="279"/>
+      <c r="CQ3" s="279"/>
+      <c r="CR3" s="279"/>
+      <c r="CS3" s="279"/>
+      <c r="CT3" s="279"/>
+      <c r="CU3" s="279"/>
+      <c r="CV3" s="279"/>
+      <c r="CW3" s="279"/>
+      <c r="CX3" s="279"/>
+      <c r="CY3" s="338"/>
       <c r="CZ3" s="243"/>
       <c r="DA3" s="244"/>
     </row>
     <row r="4" spans="2:113" s="234" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="334"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="276">
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="285">
         <v>43107</v>
       </c>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="323">
-        <v>43118</v>
-      </c>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="325"/>
-      <c r="S4" s="336">
-        <v>43125</v>
-      </c>
-      <c r="T4" s="337"/>
-      <c r="U4" s="337"/>
-      <c r="V4" s="337"/>
-      <c r="W4" s="337"/>
-      <c r="X4" s="337"/>
-      <c r="Y4" s="337"/>
-      <c r="Z4" s="337"/>
-      <c r="AA4" s="337"/>
-      <c r="AB4" s="338"/>
-      <c r="AC4" s="339">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="390">
+        <v>43490</v>
+      </c>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="391"/>
+      <c r="T4" s="391"/>
+      <c r="U4" s="391"/>
+      <c r="V4" s="391"/>
+      <c r="W4" s="391"/>
+      <c r="X4" s="391"/>
+      <c r="Y4" s="391"/>
+      <c r="Z4" s="391"/>
+      <c r="AA4" s="391"/>
+      <c r="AB4" s="392"/>
+      <c r="AC4" s="288">
         <v>43144</v>
       </c>
-      <c r="AD4" s="340"/>
-      <c r="AE4" s="340"/>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="340"/>
-      <c r="AH4" s="340"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="340"/>
-      <c r="AK4" s="340"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="340"/>
-      <c r="AN4" s="340"/>
-      <c r="AO4" s="340"/>
-      <c r="AP4" s="340"/>
-      <c r="AQ4" s="340"/>
-      <c r="AR4" s="340"/>
-      <c r="AS4" s="340"/>
-      <c r="AT4" s="340"/>
-      <c r="AU4" s="340"/>
-      <c r="AV4" s="341"/>
-      <c r="AW4" s="342">
+      <c r="AD4" s="289"/>
+      <c r="AE4" s="289"/>
+      <c r="AF4" s="289"/>
+      <c r="AG4" s="289"/>
+      <c r="AH4" s="289"/>
+      <c r="AI4" s="289"/>
+      <c r="AJ4" s="289"/>
+      <c r="AK4" s="289"/>
+      <c r="AL4" s="289"/>
+      <c r="AM4" s="289"/>
+      <c r="AN4" s="289"/>
+      <c r="AO4" s="289"/>
+      <c r="AP4" s="289"/>
+      <c r="AQ4" s="289"/>
+      <c r="AR4" s="289"/>
+      <c r="AS4" s="289"/>
+      <c r="AT4" s="289"/>
+      <c r="AU4" s="289"/>
+      <c r="AV4" s="290"/>
+      <c r="AW4" s="291">
         <v>43154</v>
       </c>
-      <c r="AX4" s="343"/>
-      <c r="AY4" s="343"/>
-      <c r="AZ4" s="343"/>
-      <c r="BA4" s="343"/>
-      <c r="BB4" s="343"/>
-      <c r="BC4" s="343"/>
-      <c r="BD4" s="343"/>
-      <c r="BE4" s="343"/>
-      <c r="BF4" s="344"/>
-      <c r="BG4" s="326">
+      <c r="AX4" s="292"/>
+      <c r="AY4" s="292"/>
+      <c r="AZ4" s="292"/>
+      <c r="BA4" s="292"/>
+      <c r="BB4" s="292"/>
+      <c r="BC4" s="292"/>
+      <c r="BD4" s="292"/>
+      <c r="BE4" s="292"/>
+      <c r="BF4" s="293"/>
+      <c r="BG4" s="297">
         <v>43162</v>
       </c>
-      <c r="BH4" s="327"/>
-      <c r="BI4" s="327"/>
-      <c r="BJ4" s="327"/>
-      <c r="BK4" s="327"/>
-      <c r="BL4" s="327"/>
-      <c r="BM4" s="327"/>
-      <c r="BN4" s="327"/>
-      <c r="BO4" s="327"/>
-      <c r="BP4" s="328"/>
-      <c r="BQ4" s="331">
+      <c r="BH4" s="298"/>
+      <c r="BI4" s="298"/>
+      <c r="BJ4" s="298"/>
+      <c r="BK4" s="298"/>
+      <c r="BL4" s="298"/>
+      <c r="BM4" s="298"/>
+      <c r="BN4" s="298"/>
+      <c r="BO4" s="298"/>
+      <c r="BP4" s="299"/>
+      <c r="BQ4" s="300">
         <v>43172</v>
       </c>
-      <c r="BR4" s="332"/>
-      <c r="BS4" s="332"/>
-      <c r="BT4" s="332"/>
-      <c r="BU4" s="332"/>
-      <c r="BV4" s="332"/>
-      <c r="BW4" s="332"/>
-      <c r="BX4" s="332"/>
-      <c r="BY4" s="332"/>
-      <c r="BZ4" s="333"/>
-      <c r="CA4" s="323">
+      <c r="BR4" s="301"/>
+      <c r="BS4" s="301"/>
+      <c r="BT4" s="301"/>
+      <c r="BU4" s="301"/>
+      <c r="BV4" s="301"/>
+      <c r="BW4" s="301"/>
+      <c r="BX4" s="301"/>
+      <c r="BY4" s="301"/>
+      <c r="BZ4" s="302"/>
+      <c r="CA4" s="294">
         <v>43179</v>
       </c>
-      <c r="CB4" s="324"/>
-      <c r="CC4" s="324"/>
-      <c r="CD4" s="324"/>
-      <c r="CE4" s="324"/>
-      <c r="CF4" s="324"/>
-      <c r="CG4" s="324"/>
-      <c r="CH4" s="324"/>
-      <c r="CI4" s="324"/>
-      <c r="CJ4" s="325"/>
-      <c r="CK4" s="276">
+      <c r="CB4" s="295"/>
+      <c r="CC4" s="295"/>
+      <c r="CD4" s="295"/>
+      <c r="CE4" s="295"/>
+      <c r="CF4" s="295"/>
+      <c r="CG4" s="295"/>
+      <c r="CH4" s="295"/>
+      <c r="CI4" s="295"/>
+      <c r="CJ4" s="296"/>
+      <c r="CK4" s="285">
         <v>43181</v>
       </c>
-      <c r="CL4" s="277"/>
-      <c r="CM4" s="277"/>
-      <c r="CN4" s="277"/>
-      <c r="CO4" s="277"/>
-      <c r="CP4" s="277"/>
-      <c r="CQ4" s="277"/>
-      <c r="CR4" s="277"/>
-      <c r="CS4" s="277"/>
-      <c r="CT4" s="277"/>
-      <c r="CU4" s="277"/>
-      <c r="CV4" s="277"/>
-      <c r="CW4" s="277"/>
-      <c r="CX4" s="277"/>
-      <c r="CY4" s="278"/>
+      <c r="CL4" s="286"/>
+      <c r="CM4" s="286"/>
+      <c r="CN4" s="286"/>
+      <c r="CO4" s="286"/>
+      <c r="CP4" s="286"/>
+      <c r="CQ4" s="286"/>
+      <c r="CR4" s="286"/>
+      <c r="CS4" s="286"/>
+      <c r="CT4" s="286"/>
+      <c r="CU4" s="286"/>
+      <c r="CV4" s="286"/>
+      <c r="CW4" s="286"/>
+      <c r="CX4" s="286"/>
+      <c r="CY4" s="287"/>
       <c r="CZ4" s="237"/>
       <c r="DA4" s="238"/>
     </row>
-    <row r="5" spans="2:113" s="122" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="307" t="s">
+    <row r="5" spans="2:113" s="122" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="308"/>
-      <c r="D5" s="309" t="s">
+      <c r="C5" s="304"/>
+      <c r="D5" s="305" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="320" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="321"/>
-      <c r="O5" s="321"/>
-      <c r="P5" s="321"/>
-      <c r="Q5" s="321"/>
-      <c r="R5" s="322"/>
-      <c r="S5" s="312" t="s">
-        <v>280</v>
-      </c>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="307"/>
+      <c r="I5" s="312" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="313"/>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="313"/>
+      <c r="N5" s="313"/>
+      <c r="O5" s="313"/>
+      <c r="P5" s="313"/>
+      <c r="Q5" s="313"/>
+      <c r="R5" s="313"/>
+      <c r="S5" s="313"/>
       <c r="T5" s="313"/>
       <c r="U5" s="313"/>
       <c r="V5" s="313"/>
@@ -10594,239 +10621,239 @@
       <c r="Z5" s="313"/>
       <c r="AA5" s="313"/>
       <c r="AB5" s="314"/>
-      <c r="AC5" s="288" t="s">
+      <c r="AC5" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="289"/>
-      <c r="AE5" s="289"/>
-      <c r="AF5" s="289"/>
-      <c r="AG5" s="289"/>
-      <c r="AH5" s="289"/>
-      <c r="AI5" s="289"/>
-      <c r="AJ5" s="289"/>
-      <c r="AK5" s="289"/>
-      <c r="AL5" s="289"/>
-      <c r="AM5" s="289"/>
-      <c r="AN5" s="289"/>
-      <c r="AO5" s="289"/>
-      <c r="AP5" s="289"/>
-      <c r="AQ5" s="289"/>
-      <c r="AR5" s="289"/>
-      <c r="AS5" s="289"/>
-      <c r="AT5" s="289"/>
-      <c r="AU5" s="289"/>
-      <c r="AV5" s="290"/>
-      <c r="AW5" s="295" t="s">
+      <c r="AD5" s="332"/>
+      <c r="AE5" s="332"/>
+      <c r="AF5" s="332"/>
+      <c r="AG5" s="332"/>
+      <c r="AH5" s="332"/>
+      <c r="AI5" s="332"/>
+      <c r="AJ5" s="332"/>
+      <c r="AK5" s="332"/>
+      <c r="AL5" s="332"/>
+      <c r="AM5" s="332"/>
+      <c r="AN5" s="332"/>
+      <c r="AO5" s="332"/>
+      <c r="AP5" s="332"/>
+      <c r="AQ5" s="332"/>
+      <c r="AR5" s="332"/>
+      <c r="AS5" s="332"/>
+      <c r="AT5" s="332"/>
+      <c r="AU5" s="332"/>
+      <c r="AV5" s="333"/>
+      <c r="AW5" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="296"/>
-      <c r="AY5" s="296"/>
-      <c r="AZ5" s="296"/>
-      <c r="BA5" s="296"/>
-      <c r="BB5" s="296"/>
-      <c r="BC5" s="296"/>
-      <c r="BD5" s="296"/>
-      <c r="BE5" s="296"/>
-      <c r="BF5" s="297"/>
-      <c r="BG5" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="BH5" s="302"/>
-      <c r="BI5" s="302"/>
-      <c r="BJ5" s="302"/>
-      <c r="BK5" s="302"/>
-      <c r="BL5" s="302"/>
-      <c r="BM5" s="302"/>
-      <c r="BN5" s="302"/>
-      <c r="BO5" s="302"/>
-      <c r="BP5" s="303"/>
-      <c r="BQ5" s="304" t="s">
-        <v>282</v>
-      </c>
-      <c r="BR5" s="305"/>
-      <c r="BS5" s="305"/>
-      <c r="BT5" s="305"/>
-      <c r="BU5" s="305"/>
-      <c r="BV5" s="305"/>
-      <c r="BW5" s="305"/>
-      <c r="BX5" s="305"/>
-      <c r="BY5" s="305"/>
-      <c r="BZ5" s="306"/>
-      <c r="CA5" s="298" t="s">
-        <v>283</v>
-      </c>
-      <c r="CB5" s="299"/>
-      <c r="CC5" s="299"/>
-      <c r="CD5" s="299"/>
-      <c r="CE5" s="299"/>
-      <c r="CF5" s="299"/>
-      <c r="CG5" s="299"/>
-      <c r="CH5" s="299"/>
-      <c r="CI5" s="299"/>
-      <c r="CJ5" s="300"/>
-      <c r="CK5" s="279" t="s">
+      <c r="AX5" s="318"/>
+      <c r="AY5" s="318"/>
+      <c r="AZ5" s="318"/>
+      <c r="BA5" s="318"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="318"/>
+      <c r="BD5" s="318"/>
+      <c r="BE5" s="318"/>
+      <c r="BF5" s="319"/>
+      <c r="BG5" s="323" t="s">
+        <v>278</v>
+      </c>
+      <c r="BH5" s="324"/>
+      <c r="BI5" s="324"/>
+      <c r="BJ5" s="324"/>
+      <c r="BK5" s="324"/>
+      <c r="BL5" s="324"/>
+      <c r="BM5" s="324"/>
+      <c r="BN5" s="324"/>
+      <c r="BO5" s="324"/>
+      <c r="BP5" s="325"/>
+      <c r="BQ5" s="326" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR5" s="327"/>
+      <c r="BS5" s="327"/>
+      <c r="BT5" s="327"/>
+      <c r="BU5" s="327"/>
+      <c r="BV5" s="327"/>
+      <c r="BW5" s="327"/>
+      <c r="BX5" s="327"/>
+      <c r="BY5" s="327"/>
+      <c r="BZ5" s="328"/>
+      <c r="CA5" s="320" t="s">
+        <v>280</v>
+      </c>
+      <c r="CB5" s="321"/>
+      <c r="CC5" s="321"/>
+      <c r="CD5" s="321"/>
+      <c r="CE5" s="321"/>
+      <c r="CF5" s="321"/>
+      <c r="CG5" s="321"/>
+      <c r="CH5" s="321"/>
+      <c r="CI5" s="321"/>
+      <c r="CJ5" s="322"/>
+      <c r="CK5" s="335" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="280"/>
-      <c r="CM5" s="280"/>
-      <c r="CN5" s="280"/>
-      <c r="CO5" s="280"/>
-      <c r="CP5" s="280"/>
-      <c r="CQ5" s="280"/>
-      <c r="CR5" s="280"/>
-      <c r="CS5" s="280"/>
-      <c r="CT5" s="280"/>
-      <c r="CU5" s="280"/>
-      <c r="CV5" s="280"/>
-      <c r="CW5" s="280"/>
-      <c r="CX5" s="280"/>
-      <c r="CY5" s="281"/>
+      <c r="CL5" s="336"/>
+      <c r="CM5" s="336"/>
+      <c r="CN5" s="336"/>
+      <c r="CO5" s="336"/>
+      <c r="CP5" s="336"/>
+      <c r="CQ5" s="336"/>
+      <c r="CR5" s="336"/>
+      <c r="CS5" s="336"/>
+      <c r="CT5" s="336"/>
+      <c r="CU5" s="336"/>
+      <c r="CV5" s="336"/>
+      <c r="CW5" s="336"/>
+      <c r="CX5" s="336"/>
+      <c r="CY5" s="337"/>
       <c r="CZ5" s="239"/>
       <c r="DA5" s="240"/>
     </row>
     <row r="6" spans="2:113" s="166" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="235"/>
       <c r="C6" s="236"/>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="316" t="s">
+      <c r="E6" s="308"/>
+      <c r="F6" s="308"/>
+      <c r="G6" s="308"/>
+      <c r="H6" s="308"/>
+      <c r="I6" s="309" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="310"/>
+      <c r="K6" s="310"/>
+      <c r="L6" s="310"/>
+      <c r="M6" s="311"/>
+      <c r="N6" s="309" t="s">
+        <v>313</v>
+      </c>
+      <c r="O6" s="310"/>
+      <c r="P6" s="310"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="309" t="s">
+        <v>314</v>
+      </c>
+      <c r="T6" s="310"/>
+      <c r="U6" s="310"/>
+      <c r="V6" s="310"/>
+      <c r="W6" s="311"/>
+      <c r="X6" s="309" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y6" s="310"/>
+      <c r="Z6" s="310"/>
+      <c r="AA6" s="310"/>
+      <c r="AB6" s="311"/>
+      <c r="AC6" s="330" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="316" t="s">
+      <c r="AD6" s="330"/>
+      <c r="AE6" s="330"/>
+      <c r="AF6" s="330"/>
+      <c r="AG6" s="330"/>
+      <c r="AH6" s="330" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="318"/>
-      <c r="S6" s="319" t="s">
+      <c r="AI6" s="330"/>
+      <c r="AJ6" s="330"/>
+      <c r="AK6" s="330"/>
+      <c r="AL6" s="330"/>
+      <c r="AM6" s="330" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN6" s="330"/>
+      <c r="AO6" s="330"/>
+      <c r="AP6" s="330"/>
+      <c r="AQ6" s="330"/>
+      <c r="AR6" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS6" s="330"/>
+      <c r="AT6" s="330"/>
+      <c r="AU6" s="330"/>
+      <c r="AV6" s="330"/>
+      <c r="AW6" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="319"/>
-      <c r="U6" s="319"/>
-      <c r="V6" s="319"/>
-      <c r="W6" s="319"/>
-      <c r="X6" s="319" t="s">
+      <c r="AX6" s="334"/>
+      <c r="AY6" s="334"/>
+      <c r="AZ6" s="334"/>
+      <c r="BA6" s="334"/>
+      <c r="BB6" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="319"/>
-      <c r="Z6" s="319"/>
-      <c r="AA6" s="319"/>
-      <c r="AB6" s="319"/>
-      <c r="AC6" s="287" t="s">
+      <c r="BC6" s="334"/>
+      <c r="BD6" s="334"/>
+      <c r="BE6" s="334"/>
+      <c r="BF6" s="334"/>
+      <c r="BG6" s="316" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="287"/>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="287" t="s">
+      <c r="BH6" s="316"/>
+      <c r="BI6" s="316"/>
+      <c r="BJ6" s="316"/>
+      <c r="BK6" s="316"/>
+      <c r="BL6" s="316" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="287"/>
-      <c r="AK6" s="287"/>
-      <c r="AL6" s="287"/>
-      <c r="AM6" s="287" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN6" s="287"/>
-      <c r="AO6" s="287"/>
-      <c r="AP6" s="287"/>
-      <c r="AQ6" s="287"/>
-      <c r="AR6" s="287" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS6" s="287"/>
-      <c r="AT6" s="287"/>
-      <c r="AU6" s="287"/>
-      <c r="AV6" s="287"/>
-      <c r="AW6" s="292" t="s">
+      <c r="BM6" s="316"/>
+      <c r="BN6" s="316"/>
+      <c r="BO6" s="316"/>
+      <c r="BP6" s="316"/>
+      <c r="BQ6" s="329" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="292"/>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="292"/>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="292" t="s">
+      <c r="BR6" s="329"/>
+      <c r="BS6" s="329"/>
+      <c r="BT6" s="329"/>
+      <c r="BU6" s="329"/>
+      <c r="BV6" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="292"/>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="292"/>
-      <c r="BG6" s="294" t="s">
+      <c r="BW6" s="329"/>
+      <c r="BX6" s="329"/>
+      <c r="BY6" s="329"/>
+      <c r="BZ6" s="329"/>
+      <c r="CA6" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="294"/>
-      <c r="BI6" s="294"/>
-      <c r="BJ6" s="294"/>
-      <c r="BK6" s="294"/>
-      <c r="BL6" s="294" t="s">
+      <c r="CB6" s="315"/>
+      <c r="CC6" s="315"/>
+      <c r="CD6" s="315"/>
+      <c r="CE6" s="315"/>
+      <c r="CF6" s="315" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="294"/>
-      <c r="BN6" s="294"/>
-      <c r="BO6" s="294"/>
-      <c r="BP6" s="294"/>
-      <c r="BQ6" s="291" t="s">
+      <c r="CG6" s="315"/>
+      <c r="CH6" s="315"/>
+      <c r="CI6" s="315"/>
+      <c r="CJ6" s="315"/>
+      <c r="CK6" s="339" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="291"/>
-      <c r="BS6" s="291"/>
-      <c r="BT6" s="291"/>
-      <c r="BU6" s="291"/>
-      <c r="BV6" s="291" t="s">
+      <c r="CL6" s="340"/>
+      <c r="CM6" s="340"/>
+      <c r="CN6" s="340"/>
+      <c r="CO6" s="341"/>
+      <c r="CP6" s="339" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ6" s="340"/>
+      <c r="CR6" s="340"/>
+      <c r="CS6" s="340"/>
+      <c r="CT6" s="341"/>
+      <c r="CU6" s="339" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="291"/>
-      <c r="BX6" s="291"/>
-      <c r="BY6" s="291"/>
-      <c r="BZ6" s="291"/>
-      <c r="CA6" s="293" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB6" s="293"/>
-      <c r="CC6" s="293"/>
-      <c r="CD6" s="293"/>
-      <c r="CE6" s="293"/>
-      <c r="CF6" s="293" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG6" s="293"/>
-      <c r="CH6" s="293"/>
-      <c r="CI6" s="293"/>
-      <c r="CJ6" s="293"/>
-      <c r="CK6" s="284" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL6" s="285"/>
-      <c r="CM6" s="285"/>
-      <c r="CN6" s="285"/>
-      <c r="CO6" s="286"/>
-      <c r="CP6" s="284" t="s">
-        <v>82</v>
-      </c>
-      <c r="CQ6" s="285"/>
-      <c r="CR6" s="285"/>
-      <c r="CS6" s="285"/>
-      <c r="CT6" s="286"/>
-      <c r="CU6" s="284" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV6" s="285"/>
-      <c r="CW6" s="285"/>
-      <c r="CX6" s="285"/>
-      <c r="CY6" s="286"/>
+      <c r="CV6" s="340"/>
+      <c r="CW6" s="340"/>
+      <c r="CX6" s="340"/>
+      <c r="CY6" s="341"/>
       <c r="CZ6" s="241" t="s">
         <v>77</v>
       </c>
@@ -10836,10 +10863,10 @@
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="184" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C7" s="174" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D7" s="176">
         <v>100</v>
@@ -10960,10 +10987,10 @@
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="185" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D8" s="179">
         <v>100</v>
@@ -11084,10 +11111,10 @@
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="185" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C9" s="168" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D9" s="179">
         <v>100</v>
@@ -11208,10 +11235,10 @@
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="185" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" s="168" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D10" s="179">
         <v>99</v>
@@ -11332,10 +11359,10 @@
     </row>
     <row r="11" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="185" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C11" s="168" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D11" s="179">
         <v>97</v>
@@ -11456,10 +11483,10 @@
     </row>
     <row r="12" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="185" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C12" s="168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="179">
         <v>97</v>
@@ -11580,10 +11607,10 @@
     </row>
     <row r="13" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="185" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="168" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="179">
         <v>97</v>
@@ -11704,10 +11731,10 @@
     </row>
     <row r="14" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="185" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" s="168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D14" s="179">
         <v>96</v>
@@ -11828,10 +11855,10 @@
     </row>
     <row r="15" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="185" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C15" s="168" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D15" s="179">
         <v>96</v>
@@ -11952,13 +11979,13 @@
     </row>
     <row r="16" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="185" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C16" s="168" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D16" s="179">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="178"/>
       <c r="F16" s="178"/>
@@ -12060,7 +12087,7 @@
       <c r="CX16" s="178"/>
       <c r="CY16" s="178"/>
       <c r="CZ16" s="172">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DA16" s="170">
         <v>0</v>
@@ -12076,35 +12103,51 @@
     </row>
     <row r="17" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="185" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C17" s="168" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D17" s="179">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
       <c r="G17" s="178"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="178"/>
+      <c r="I17" s="179">
+        <v>12</v>
+      </c>
+      <c r="J17" s="178">
+        <v>44</v>
+      </c>
       <c r="K17" s="178"/>
       <c r="L17" s="178"/>
       <c r="M17" s="180"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="178"/>
+      <c r="N17" s="179">
+        <v>55</v>
+      </c>
+      <c r="O17" s="178">
+        <v>88</v>
+      </c>
       <c r="P17" s="178"/>
       <c r="Q17" s="178"/>
       <c r="R17" s="180"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
+      <c r="S17" s="178">
+        <v>6</v>
+      </c>
+      <c r="T17" s="178">
+        <v>90</v>
+      </c>
       <c r="U17" s="178"/>
       <c r="V17" s="178"/>
       <c r="W17" s="178"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="178"/>
+      <c r="X17" s="179">
+        <v>89</v>
+      </c>
+      <c r="Y17" s="178">
+        <v>34</v>
+      </c>
       <c r="Z17" s="178"/>
       <c r="AA17" s="178"/>
       <c r="AB17" s="180"/>
@@ -12138,53 +12181,71 @@
       <c r="BD17" s="178"/>
       <c r="BE17" s="178"/>
       <c r="BF17" s="180"/>
-      <c r="BG17" s="179"/>
+      <c r="BG17" s="179">
+        <v>12</v>
+      </c>
       <c r="BH17" s="178"/>
       <c r="BI17" s="178"/>
       <c r="BJ17" s="178"/>
       <c r="BK17" s="180"/>
-      <c r="BL17" s="179"/>
+      <c r="BL17" s="179">
+        <v>1</v>
+      </c>
       <c r="BM17" s="178"/>
       <c r="BN17" s="178"/>
       <c r="BO17" s="178"/>
       <c r="BP17" s="180"/>
-      <c r="BQ17" s="179"/>
+      <c r="BQ17" s="179">
+        <v>67</v>
+      </c>
       <c r="BR17" s="178"/>
       <c r="BS17" s="178"/>
       <c r="BT17" s="178"/>
       <c r="BU17" s="180"/>
-      <c r="BV17" s="179"/>
+      <c r="BV17" s="179">
+        <v>99</v>
+      </c>
       <c r="BW17" s="178"/>
       <c r="BX17" s="178"/>
       <c r="BY17" s="178"/>
       <c r="BZ17" s="180"/>
-      <c r="CA17" s="179"/>
+      <c r="CA17" s="179">
+        <v>67</v>
+      </c>
       <c r="CB17" s="178"/>
       <c r="CC17" s="178"/>
       <c r="CD17" s="178"/>
       <c r="CE17" s="180"/>
-      <c r="CF17" s="179"/>
+      <c r="CF17" s="179">
+        <v>99</v>
+      </c>
       <c r="CG17" s="178"/>
       <c r="CH17" s="178"/>
       <c r="CI17" s="178"/>
       <c r="CJ17" s="180"/>
-      <c r="CK17" s="179"/>
+      <c r="CK17" s="179">
+        <v>67</v>
+      </c>
       <c r="CL17" s="178"/>
       <c r="CM17" s="178"/>
       <c r="CN17" s="178"/>
       <c r="CO17" s="180"/>
-      <c r="CP17" s="179"/>
+      <c r="CP17" s="179">
+        <v>99</v>
+      </c>
       <c r="CQ17" s="178"/>
       <c r="CR17" s="178"/>
       <c r="CS17" s="178"/>
       <c r="CT17" s="180"/>
-      <c r="CU17" s="178"/>
+      <c r="CU17" s="178">
+        <v>44</v>
+      </c>
       <c r="CV17" s="178"/>
       <c r="CW17" s="178"/>
       <c r="CX17" s="178"/>
       <c r="CY17" s="178"/>
       <c r="CZ17" s="172">
-        <v>93</v>
+        <v>58.071430206298828</v>
       </c>
       <c r="DA17" s="170">
         <v>0</v>
@@ -14641,36 +14702,21 @@
     <sortCondition descending="1" ref="CZ13"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="52">
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:R5"/>
+  <mergeCells count="49">
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AC6:AG6"/>
     <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="BL6:BP6"/>
     <mergeCell ref="AW5:BF5"/>
@@ -14680,20 +14726,32 @@
     <mergeCell ref="BG6:BK6"/>
     <mergeCell ref="BQ5:BZ5"/>
     <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:AB5"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:AB4"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:AB3"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -14837,8 +14895,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14857,32 +14940,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15506,14 +15564,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="342" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="354"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="344"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15558,14 +15616,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="352" t="s">
+      <c r="A7" s="342" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="353"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="353"/>
-      <c r="F7" s="354"/>
+      <c r="B7" s="343"/>
+      <c r="C7" s="343"/>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="344"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15578,11 +15636,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="345" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="356"/>
-      <c r="F8" s="357"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="347"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -15606,27 +15664,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="352" t="s">
+      <c r="A11" s="342" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="353"/>
-      <c r="C11" s="353"/>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="354"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="344"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="358" t="s">
+      <c r="B12" s="348" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
-      <c r="F12" s="360"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="350"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -15642,25 +15700,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="352" t="s">
+      <c r="A15" s="342" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="353"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="353"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="354"/>
+      <c r="B15" s="343"/>
+      <c r="C15" s="343"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="343"/>
+      <c r="F15" s="344"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="349"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="351"/>
+      <c r="B16" s="351"/>
+      <c r="C16" s="352"/>
+      <c r="D16" s="352"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="353"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -15676,25 +15734,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="352" t="s">
+      <c r="A19" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="353"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="354"/>
+      <c r="B19" s="343"/>
+      <c r="C19" s="343"/>
+      <c r="D19" s="343"/>
+      <c r="E19" s="343"/>
+      <c r="F19" s="344"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="349"/>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="351"/>
+      <c r="B20" s="351"/>
+      <c r="C20" s="352"/>
+      <c r="D20" s="352"/>
+      <c r="E20" s="352"/>
+      <c r="F20" s="353"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -15710,25 +15768,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="352" t="s">
+      <c r="A23" s="342" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="353"/>
-      <c r="C23" s="353"/>
-      <c r="D23" s="353"/>
-      <c r="E23" s="353"/>
-      <c r="F23" s="354"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="343"/>
+      <c r="D23" s="343"/>
+      <c r="E23" s="343"/>
+      <c r="F23" s="344"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="349"/>
-      <c r="C24" s="350"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="351"/>
+      <c r="B24" s="351"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="352"/>
+      <c r="F24" s="353"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -15744,27 +15802,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="352" t="s">
+      <c r="A27" s="342" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="353"/>
-      <c r="C27" s="353"/>
-      <c r="D27" s="353"/>
-      <c r="E27" s="353"/>
-      <c r="F27" s="354"/>
+      <c r="B27" s="343"/>
+      <c r="C27" s="343"/>
+      <c r="D27" s="343"/>
+      <c r="E27" s="343"/>
+      <c r="F27" s="344"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="351" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="350"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="350"/>
-      <c r="F28" s="351"/>
+      <c r="C28" s="352"/>
+      <c r="D28" s="352"/>
+      <c r="E28" s="352"/>
+      <c r="F28" s="353"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -15780,12 +15838,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -15793,6 +15845,12 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15836,10 +15894,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="364" t="s">
+      <c r="C3" s="357" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="364"/>
+      <c r="D3" s="357"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15901,35 +15959,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="365" t="s">
+      <c r="A11" s="358" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="367"/>
-      <c r="C11" s="368"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="361"/>
       <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="371"/>
-      <c r="F11" s="372"/>
+      <c r="E11" s="364"/>
+      <c r="F11" s="365"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="366"/>
-      <c r="B12" s="369"/>
-      <c r="C12" s="370"/>
+      <c r="A12" s="359"/>
+      <c r="B12" s="362"/>
+      <c r="C12" s="363"/>
       <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="371"/>
-      <c r="F12" s="372"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="365"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="361" t="s">
+      <c r="B14" s="354" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="362"/>
-      <c r="D14" s="362"/>
-      <c r="E14" s="363"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="355"/>
+      <c r="E14" s="356"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15995,30 +16053,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="374">
+      <c r="E3" s="378">
         <v>5665</v>
       </c>
-      <c r="F3" s="374"/>
+      <c r="F3" s="378"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="374" t="s">
+      <c r="I3" s="378" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="374"/>
-      <c r="K3" s="374"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="374" t="s">
+      <c r="P3" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="374"/>
-      <c r="R3" s="374"/>
-      <c r="S3" s="374"/>
-      <c r="T3" s="374"/>
+      <c r="Q3" s="378"/>
+      <c r="R3" s="378"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -16029,10 +16087,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="373" t="s">
+      <c r="AF3" s="377" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="373"/>
+      <c r="AG3" s="377"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -16625,148 +16683,153 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="378" t="s">
+      <c r="B18" s="369" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="379"/>
-      <c r="D18" s="375" t="s">
+      <c r="C18" s="370"/>
+      <c r="D18" s="366" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="376"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="376"/>
-      <c r="L18" s="376"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="376"/>
-      <c r="P18" s="376"/>
-      <c r="Q18" s="376"/>
-      <c r="R18" s="376"/>
-      <c r="S18" s="376"/>
-      <c r="T18" s="376"/>
-      <c r="U18" s="376"/>
-      <c r="V18" s="376"/>
-      <c r="W18" s="377"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
+      <c r="J18" s="367"/>
+      <c r="K18" s="367"/>
+      <c r="L18" s="367"/>
+      <c r="M18" s="367"/>
+      <c r="N18" s="367"/>
+      <c r="O18" s="367"/>
+      <c r="P18" s="367"/>
+      <c r="Q18" s="367"/>
+      <c r="R18" s="367"/>
+      <c r="S18" s="367"/>
+      <c r="T18" s="367"/>
+      <c r="U18" s="367"/>
+      <c r="V18" s="367"/>
+      <c r="W18" s="368"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="380">
+      <c r="B19" s="371">
         <v>2</v>
       </c>
-      <c r="C19" s="381"/>
-      <c r="D19" s="375" t="s">
+      <c r="C19" s="372"/>
+      <c r="D19" s="366" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="376"/>
-      <c r="F19" s="376"/>
-      <c r="G19" s="376"/>
-      <c r="H19" s="376"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="376"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="376"/>
-      <c r="P19" s="376"/>
-      <c r="Q19" s="376"/>
-      <c r="R19" s="376"/>
-      <c r="S19" s="376"/>
-      <c r="T19" s="376"/>
-      <c r="U19" s="376"/>
-      <c r="V19" s="376"/>
-      <c r="W19" s="377"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="367"/>
+      <c r="G19" s="367"/>
+      <c r="H19" s="367"/>
+      <c r="I19" s="367"/>
+      <c r="J19" s="367"/>
+      <c r="K19" s="367"/>
+      <c r="L19" s="367"/>
+      <c r="M19" s="367"/>
+      <c r="N19" s="367"/>
+      <c r="O19" s="367"/>
+      <c r="P19" s="367"/>
+      <c r="Q19" s="367"/>
+      <c r="R19" s="367"/>
+      <c r="S19" s="367"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="367"/>
+      <c r="V19" s="367"/>
+      <c r="W19" s="368"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="382">
+      <c r="B20" s="373">
         <v>3</v>
       </c>
-      <c r="C20" s="383"/>
-      <c r="D20" s="375" t="s">
+      <c r="C20" s="374"/>
+      <c r="D20" s="366" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="376"/>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="376"/>
-      <c r="P20" s="376"/>
-      <c r="Q20" s="376"/>
-      <c r="R20" s="376"/>
-      <c r="S20" s="376"/>
-      <c r="T20" s="376"/>
-      <c r="U20" s="376"/>
-      <c r="V20" s="376"/>
-      <c r="W20" s="377"/>
+      <c r="E20" s="367"/>
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="367"/>
+      <c r="I20" s="367"/>
+      <c r="J20" s="367"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="367"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="367"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="367"/>
+      <c r="U20" s="367"/>
+      <c r="V20" s="367"/>
+      <c r="W20" s="368"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="384">
+      <c r="B21" s="375">
         <v>4</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="375" t="s">
+      <c r="C21" s="376"/>
+      <c r="D21" s="366" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="376"/>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="376"/>
-      <c r="K21" s="376"/>
-      <c r="L21" s="376"/>
-      <c r="M21" s="376"/>
-      <c r="N21" s="376"/>
-      <c r="O21" s="376"/>
-      <c r="P21" s="376"/>
-      <c r="Q21" s="376"/>
-      <c r="R21" s="376"/>
-      <c r="S21" s="376"/>
-      <c r="T21" s="376"/>
-      <c r="U21" s="376"/>
-      <c r="V21" s="376"/>
-      <c r="W21" s="377"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="367"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="367"/>
+      <c r="I21" s="367"/>
+      <c r="J21" s="367"/>
+      <c r="K21" s="367"/>
+      <c r="L21" s="367"/>
+      <c r="M21" s="367"/>
+      <c r="N21" s="367"/>
+      <c r="O21" s="367"/>
+      <c r="P21" s="367"/>
+      <c r="Q21" s="367"/>
+      <c r="R21" s="367"/>
+      <c r="S21" s="367"/>
+      <c r="T21" s="367"/>
+      <c r="U21" s="367"/>
+      <c r="V21" s="367"/>
+      <c r="W21" s="368"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="384">
+      <c r="B22" s="375">
         <v>5</v>
       </c>
-      <c r="C22" s="385"/>
-      <c r="D22" s="375" t="s">
+      <c r="C22" s="376"/>
+      <c r="D22" s="366" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="376"/>
-      <c r="K22" s="376"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="376"/>
-      <c r="P22" s="376"/>
-      <c r="Q22" s="376"/>
-      <c r="R22" s="376"/>
-      <c r="S22" s="376"/>
-      <c r="T22" s="376"/>
-      <c r="U22" s="376"/>
-      <c r="V22" s="376"/>
-      <c r="W22" s="377"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="367"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="367"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
+      <c r="K22" s="367"/>
+      <c r="L22" s="367"/>
+      <c r="M22" s="367"/>
+      <c r="N22" s="367"/>
+      <c r="O22" s="367"/>
+      <c r="P22" s="367"/>
+      <c r="Q22" s="367"/>
+      <c r="R22" s="367"/>
+      <c r="S22" s="367"/>
+      <c r="T22" s="367"/>
+      <c r="U22" s="367"/>
+      <c r="V22" s="367"/>
+      <c r="W22" s="368"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -16776,11 +16839,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -16927,14 +16985,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="386" t="s">
+      <c r="N28" s="379" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="386"/>
-      <c r="P28" s="386"/>
-      <c r="Q28" s="386"/>
-      <c r="R28" s="386"/>
-      <c r="S28" s="386"/>
+      <c r="O28" s="379"/>
+      <c r="P28" s="379"/>
+      <c r="Q28" s="379"/>
+      <c r="R28" s="379"/>
+      <c r="S28" s="379"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -16957,14 +17015,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="386" t="s">
+      <c r="N36" s="379" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="386"/>
-      <c r="P36" s="386"/>
-      <c r="Q36" s="386"/>
-      <c r="R36" s="386"/>
-      <c r="S36" s="386"/>
+      <c r="O36" s="379"/>
+      <c r="P36" s="379"/>
+      <c r="Q36" s="379"/>
+      <c r="R36" s="379"/>
+      <c r="S36" s="379"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">
@@ -17115,30 +17173,30 @@
       <c r="C4" s="205">
         <v>9</v>
       </c>
-      <c r="D4" s="387">
+      <c r="D4" s="386">
         <v>11</v>
       </c>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387">
+      <c r="E4" s="386"/>
+      <c r="F4" s="386">
         <v>17</v>
       </c>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387">
+      <c r="G4" s="386"/>
+      <c r="H4" s="386">
         <v>20</v>
       </c>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387">
+      <c r="I4" s="386"/>
+      <c r="J4" s="386"/>
+      <c r="K4" s="386"/>
+      <c r="L4" s="386">
         <v>27</v>
       </c>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387">
+      <c r="M4" s="386"/>
+      <c r="N4" s="386">
         <v>28</v>
       </c>
-      <c r="O4" s="387"/>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="387"/>
+      <c r="O4" s="386"/>
+      <c r="P4" s="386"/>
+      <c r="Q4" s="386"/>
       <c r="R4" s="205">
         <v>29</v>
       </c>
@@ -17152,30 +17210,30 @@
       <c r="C5" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="393" t="s">
+      <c r="D5" s="385" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="393"/>
-      <c r="F5" s="388" t="s">
+      <c r="E5" s="385"/>
+      <c r="F5" s="380" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="388"/>
-      <c r="H5" s="388" t="s">
+      <c r="G5" s="380"/>
+      <c r="H5" s="380" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="389" t="s">
+      <c r="I5" s="380"/>
+      <c r="J5" s="380"/>
+      <c r="K5" s="380"/>
+      <c r="L5" s="381" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389" t="s">
+      <c r="M5" s="381"/>
+      <c r="N5" s="381" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="389"/>
-      <c r="P5" s="389"/>
-      <c r="Q5" s="389"/>
+      <c r="O5" s="381"/>
+      <c r="P5" s="381"/>
+      <c r="Q5" s="381"/>
       <c r="R5" s="201" t="s">
         <v>17</v>
       </c>
@@ -17189,30 +17247,30 @@
       <c r="C6" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="390" t="s">
+      <c r="D6" s="382" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="390"/>
-      <c r="F6" s="391" t="s">
+      <c r="E6" s="382"/>
+      <c r="F6" s="383" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391" t="s">
+      <c r="G6" s="383"/>
+      <c r="H6" s="383" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="392" t="s">
+      <c r="I6" s="383"/>
+      <c r="J6" s="383"/>
+      <c r="K6" s="383"/>
+      <c r="L6" s="384" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="392"/>
-      <c r="N6" s="392" t="s">
+      <c r="M6" s="384"/>
+      <c r="N6" s="384" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="392"/>
-      <c r="P6" s="392"/>
-      <c r="Q6" s="392"/>
+      <c r="O6" s="384"/>
+      <c r="P6" s="384"/>
+      <c r="Q6" s="384"/>
       <c r="R6" s="204" t="s">
         <v>152</v>
       </c>
@@ -17454,6 +17512,11 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17464,11 +17527,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="294">
   <si>
     <t>DAY</t>
   </si>
@@ -963,9 +963,6 @@
     <t>WT2019</t>
   </si>
   <si>
-    <t>Status - In Progress</t>
-  </si>
-  <si>
     <t>Ladders - Day 1</t>
   </si>
   <si>
@@ -975,72 +972,6 @@
     <t>Course Director - Kyle Campbell</t>
   </si>
   <si>
-    <t>5760</t>
-  </si>
-  <si>
-    <t>James Harrison</t>
-  </si>
-  <si>
-    <t>5755</t>
-  </si>
-  <si>
-    <t>jake Marshall</t>
-  </si>
-  <si>
-    <t>5757</t>
-  </si>
-  <si>
-    <t>Wesley Stones</t>
-  </si>
-  <si>
-    <t>5756</t>
-  </si>
-  <si>
-    <t>Alex Fitzpatrick</t>
-  </si>
-  <si>
-    <t>5761</t>
-  </si>
-  <si>
-    <t>Oliver Baldam</t>
-  </si>
-  <si>
-    <t>5479</t>
-  </si>
-  <si>
-    <t>Max Tunmore</t>
-  </si>
-  <si>
-    <t>5758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Clarke </t>
-  </si>
-  <si>
-    <t>5306</t>
-  </si>
-  <si>
-    <t>Phill Marriott</t>
-  </si>
-  <si>
-    <t>5400</t>
-  </si>
-  <si>
-    <t>Daniel Cheetham</t>
-  </si>
-  <si>
-    <t>5759</t>
-  </si>
-  <si>
-    <t>Richard Stephens</t>
-  </si>
-  <si>
-    <t>5548</t>
-  </si>
-  <si>
-    <t>Kelvin Brookes</t>
-  </si>
-  <si>
     <t>Ladders Adv/Time Cr. Res.</t>
   </si>
   <si>
@@ -1063,6 +994,9 @@
   </si>
   <si>
     <t>Pump Practical %</t>
+  </si>
+  <si>
+    <t>Status - Planned</t>
   </si>
 </sst>
 </file>
@@ -4189,6 +4123,201 @@
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4198,194 +4327,26 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4414,15 +4375,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4459,6 +4411,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4492,15 +4450,12 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -4517,27 +4472,6 @@
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -7604,7 +7538,7 @@
   <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7679,7 +7613,7 @@
       <c r="S2" s="274"/>
       <c r="T2" s="129"/>
       <c r="U2" s="275" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="V2" s="275"/>
       <c r="W2" s="275"/>
@@ -7688,7 +7622,7 @@
       <c r="Z2" s="275"/>
       <c r="AA2" s="129"/>
       <c r="AB2" s="272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC2" s="272"/>
       <c r="AD2" s="272"/>
@@ -8023,13 +7957,13 @@
         <v>245</v>
       </c>
       <c r="K5" s="222" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="222" t="s">
         <v>283</v>
       </c>
-      <c r="L5" s="222" t="s">
-        <v>284</v>
-      </c>
       <c r="M5" s="249" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="N5" s="256" t="s">
         <v>247</v>
@@ -8038,7 +7972,7 @@
         <v>248</v>
       </c>
       <c r="P5" s="224" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="132" t="s">
         <v>249</v>
@@ -8053,7 +7987,7 @@
         <v>252</v>
       </c>
       <c r="U5" s="132" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="V5" s="133" t="s">
         <v>253</v>
@@ -8147,33 +8081,15 @@
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="187" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="154" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="137">
-        <v>2</v>
-      </c>
-      <c r="E6" s="138">
-        <v>2</v>
-      </c>
-      <c r="F6" s="139">
-        <v>2</v>
-      </c>
-      <c r="G6" s="140">
-        <v>2</v>
-      </c>
-      <c r="H6" s="141">
-        <v>2</v>
-      </c>
-      <c r="I6" s="141">
-        <v>2</v>
-      </c>
-      <c r="J6" s="142">
-        <v>2</v>
-      </c>
+      <c r="B6" s="187"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
       <c r="K6" s="142"/>
       <c r="L6" s="142"/>
       <c r="M6" s="142"/>
@@ -8217,33 +8133,15 @@
       <c r="AY6" s="142"/>
     </row>
     <row r="7" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="188" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="155" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="143">
-        <v>2</v>
-      </c>
-      <c r="E7" s="144">
-        <v>2</v>
-      </c>
-      <c r="F7" s="145">
-        <v>2</v>
-      </c>
-      <c r="G7" s="146">
-        <v>2</v>
-      </c>
-      <c r="H7" s="147">
-        <v>2</v>
-      </c>
-      <c r="I7" s="147">
-        <v>2</v>
-      </c>
-      <c r="J7" s="148">
-        <v>2</v>
-      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
       <c r="M7" s="148"/>
@@ -8287,38 +8185,18 @@
       <c r="AY7" s="148"/>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="188" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="155" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="143">
-        <v>2</v>
-      </c>
-      <c r="E8" s="144">
-        <v>2</v>
-      </c>
-      <c r="F8" s="145">
-        <v>2</v>
-      </c>
-      <c r="G8" s="146">
-        <v>2</v>
-      </c>
-      <c r="H8" s="148">
-        <v>2</v>
-      </c>
-      <c r="I8" s="148">
-        <v>2</v>
-      </c>
-      <c r="J8" s="148">
-        <v>2</v>
-      </c>
+      <c r="B8" s="188"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>
-      <c r="M8" s="148">
-        <v>1</v>
-      </c>
+      <c r="M8" s="148"/>
       <c r="N8" s="148"/>
       <c r="O8" s="148"/>
       <c r="P8" s="145"/>
@@ -8359,40 +8237,20 @@
       <c r="AY8" s="148"/>
     </row>
     <row r="9" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="143">
-        <v>2</v>
-      </c>
-      <c r="E9" s="144">
-        <v>2</v>
-      </c>
-      <c r="F9" s="145">
-        <v>2</v>
-      </c>
-      <c r="G9" s="146">
-        <v>2</v>
-      </c>
-      <c r="H9" s="148">
-        <v>2</v>
-      </c>
-      <c r="I9" s="148">
-        <v>2</v>
-      </c>
-      <c r="J9" s="148">
-        <v>2</v>
-      </c>
+      <c r="B9" s="188"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="148"/>
       <c r="L9" s="148"/>
       <c r="M9" s="148"/>
       <c r="N9" s="148"/>
-      <c r="O9" s="148">
-        <v>3</v>
-      </c>
+      <c r="O9" s="148"/>
       <c r="P9" s="145"/>
       <c r="Q9" s="148"/>
       <c r="R9" s="148"/>
@@ -8431,33 +8289,15 @@
       <c r="AY9" s="148"/>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="188" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="155" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="143">
-        <v>2</v>
-      </c>
-      <c r="E10" s="144">
-        <v>2</v>
-      </c>
-      <c r="F10" s="145">
-        <v>2</v>
-      </c>
-      <c r="G10" s="146">
-        <v>2</v>
-      </c>
-      <c r="H10" s="148">
-        <v>2</v>
-      </c>
-      <c r="I10" s="148">
-        <v>2</v>
-      </c>
-      <c r="J10" s="148">
-        <v>2</v>
-      </c>
+      <c r="B10" s="188"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="148"/>
       <c r="L10" s="148"/>
       <c r="M10" s="148"/>
@@ -8501,33 +8341,15 @@
       <c r="AY10" s="148"/>
     </row>
     <row r="11" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="188" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="155" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="143">
-        <v>2</v>
-      </c>
-      <c r="E11" s="144">
-        <v>2</v>
-      </c>
-      <c r="F11" s="145">
-        <v>2</v>
-      </c>
-      <c r="G11" s="146">
-        <v>2</v>
-      </c>
-      <c r="H11" s="148">
-        <v>2</v>
-      </c>
-      <c r="I11" s="148">
-        <v>2</v>
-      </c>
-      <c r="J11" s="148">
-        <v>2</v>
-      </c>
+      <c r="B11" s="188"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="148"/>
       <c r="L11" s="148"/>
       <c r="M11" s="148"/>
@@ -8571,33 +8393,15 @@
       <c r="AY11" s="148"/>
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="188" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="143">
-        <v>2</v>
-      </c>
-      <c r="E12" s="144">
-        <v>2</v>
-      </c>
-      <c r="F12" s="145">
-        <v>2</v>
-      </c>
-      <c r="G12" s="146">
-        <v>2</v>
-      </c>
-      <c r="H12" s="148">
-        <v>2</v>
-      </c>
-      <c r="I12" s="148">
-        <v>2</v>
-      </c>
-      <c r="J12" s="148">
-        <v>2</v>
-      </c>
+      <c r="B12" s="188"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
       <c r="K12" s="148"/>
       <c r="L12" s="148"/>
       <c r="M12" s="148"/>
@@ -8641,33 +8445,15 @@
       <c r="AY12" s="148"/>
     </row>
     <row r="13" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="188" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="155" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="143">
-        <v>2</v>
-      </c>
-      <c r="E13" s="144">
-        <v>2</v>
-      </c>
-      <c r="F13" s="145">
-        <v>2</v>
-      </c>
-      <c r="G13" s="146">
-        <v>2</v>
-      </c>
-      <c r="H13" s="148">
-        <v>2</v>
-      </c>
-      <c r="I13" s="148">
-        <v>2</v>
-      </c>
-      <c r="J13" s="148">
-        <v>2</v>
-      </c>
+      <c r="B13" s="188"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="148"/>
       <c r="L13" s="148"/>
       <c r="M13" s="148"/>
@@ -8711,38 +8497,18 @@
       <c r="AY13" s="148"/>
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="188" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="155" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="143">
-        <v>2</v>
-      </c>
-      <c r="E14" s="144">
-        <v>2</v>
-      </c>
-      <c r="F14" s="145">
-        <v>2</v>
-      </c>
-      <c r="G14" s="146">
-        <v>2</v>
-      </c>
-      <c r="H14" s="148">
-        <v>2</v>
-      </c>
-      <c r="I14" s="148">
-        <v>2</v>
-      </c>
-      <c r="J14" s="148">
-        <v>2</v>
-      </c>
+      <c r="B14" s="188"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
       <c r="K14" s="148"/>
       <c r="L14" s="148"/>
-      <c r="M14" s="148">
-        <v>3</v>
-      </c>
+      <c r="M14" s="148"/>
       <c r="N14" s="148"/>
       <c r="O14" s="148"/>
       <c r="P14" s="145"/>
@@ -8783,33 +8549,15 @@
       <c r="AY14" s="148"/>
     </row>
     <row r="15" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="188" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="155" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="143">
-        <v>2</v>
-      </c>
-      <c r="E15" s="144">
-        <v>2</v>
-      </c>
-      <c r="F15" s="145">
-        <v>2</v>
-      </c>
-      <c r="G15" s="146">
-        <v>2</v>
-      </c>
-      <c r="H15" s="148">
-        <v>3</v>
-      </c>
-      <c r="I15" s="148">
-        <v>3</v>
-      </c>
-      <c r="J15" s="148">
-        <v>4</v>
-      </c>
+      <c r="B15" s="188"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="148"/>
       <c r="L15" s="148"/>
       <c r="M15" s="148"/>
@@ -8853,33 +8601,15 @@
       <c r="AY15" s="148"/>
     </row>
     <row r="16" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="188" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="155" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="143">
-        <v>2</v>
-      </c>
-      <c r="E16" s="144">
-        <v>2</v>
-      </c>
-      <c r="F16" s="145">
-        <v>2</v>
-      </c>
-      <c r="G16" s="146">
-        <v>2</v>
-      </c>
-      <c r="H16" s="148">
-        <v>2</v>
-      </c>
-      <c r="I16" s="148">
-        <v>2</v>
-      </c>
-      <c r="J16" s="148">
-        <v>2</v>
-      </c>
+      <c r="B16" s="188"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
       <c r="K16" s="148"/>
       <c r="L16" s="148"/>
       <c r="M16" s="148"/>
@@ -9967,27 +9697,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10017,27 +9747,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10111,7 +9841,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="CQ15" sqref="CQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10274,41 +10004,41 @@
       <c r="AU2" s="273"/>
       <c r="AV2" s="273"/>
       <c r="AW2" s="273"/>
-      <c r="AX2" s="276" t="str">
+      <c r="AX2" s="341" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="276"/>
-      <c r="AZ2" s="276"/>
-      <c r="BA2" s="276"/>
-      <c r="BB2" s="276"/>
-      <c r="BC2" s="276"/>
-      <c r="BD2" s="276"/>
-      <c r="BE2" s="276"/>
-      <c r="BF2" s="276"/>
-      <c r="BG2" s="276"/>
-      <c r="BH2" s="276"/>
-      <c r="BI2" s="276"/>
-      <c r="BJ2" s="276"/>
-      <c r="BK2" s="276"/>
-      <c r="BL2" s="276"/>
-      <c r="BM2" s="276"/>
-      <c r="BN2" s="276"/>
-      <c r="BO2" s="276"/>
-      <c r="BP2" s="276"/>
-      <c r="BQ2" s="276"/>
-      <c r="BR2" s="276"/>
-      <c r="BS2" s="276"/>
-      <c r="BT2" s="276"/>
-      <c r="BU2" s="276"/>
-      <c r="BV2" s="276"/>
-      <c r="BW2" s="276"/>
-      <c r="BX2" s="276"/>
-      <c r="BY2" s="276"/>
-      <c r="BZ2" s="276"/>
-      <c r="CA2" s="276"/>
-      <c r="CB2" s="276"/>
-      <c r="CC2" s="276"/>
+      <c r="AY2" s="341"/>
+      <c r="AZ2" s="341"/>
+      <c r="BA2" s="341"/>
+      <c r="BB2" s="341"/>
+      <c r="BC2" s="341"/>
+      <c r="BD2" s="341"/>
+      <c r="BE2" s="341"/>
+      <c r="BF2" s="341"/>
+      <c r="BG2" s="341"/>
+      <c r="BH2" s="341"/>
+      <c r="BI2" s="341"/>
+      <c r="BJ2" s="341"/>
+      <c r="BK2" s="341"/>
+      <c r="BL2" s="341"/>
+      <c r="BM2" s="341"/>
+      <c r="BN2" s="341"/>
+      <c r="BO2" s="341"/>
+      <c r="BP2" s="341"/>
+      <c r="BQ2" s="341"/>
+      <c r="BR2" s="341"/>
+      <c r="BS2" s="341"/>
+      <c r="BT2" s="341"/>
+      <c r="BU2" s="341"/>
+      <c r="BV2" s="341"/>
+      <c r="BW2" s="341"/>
+      <c r="BX2" s="341"/>
+      <c r="BY2" s="341"/>
+      <c r="BZ2" s="341"/>
+      <c r="CA2" s="341"/>
+      <c r="CB2" s="341"/>
+      <c r="CC2" s="341"/>
       <c r="CD2" s="165"/>
       <c r="CE2" s="165"/>
       <c r="CF2" s="165"/>
@@ -10342,518 +10072,518 @@
       <c r="DH2" s="165"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="279">
+      <c r="C3" s="343"/>
+      <c r="D3" s="282">
         <v>3</v>
       </c>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="387">
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="345">
         <v>13</v>
       </c>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="388"/>
-      <c r="M3" s="388"/>
-      <c r="N3" s="388"/>
-      <c r="O3" s="388"/>
-      <c r="P3" s="388"/>
-      <c r="Q3" s="388"/>
-      <c r="R3" s="388"/>
-      <c r="S3" s="388"/>
-      <c r="T3" s="388"/>
-      <c r="U3" s="388"/>
-      <c r="V3" s="388"/>
-      <c r="W3" s="388"/>
-      <c r="X3" s="388"/>
-      <c r="Y3" s="388"/>
-      <c r="Z3" s="388"/>
-      <c r="AA3" s="388"/>
-      <c r="AB3" s="389"/>
-      <c r="AC3" s="281">
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="346"/>
+      <c r="AB3" s="347"/>
+      <c r="AC3" s="326">
         <v>24</v>
       </c>
-      <c r="AD3" s="279"/>
-      <c r="AE3" s="279"/>
-      <c r="AF3" s="279"/>
-      <c r="AG3" s="279"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="279"/>
-      <c r="AK3" s="279"/>
-      <c r="AL3" s="279"/>
-      <c r="AM3" s="279"/>
-      <c r="AN3" s="279"/>
-      <c r="AO3" s="279"/>
-      <c r="AP3" s="279"/>
-      <c r="AQ3" s="279"/>
-      <c r="AR3" s="279"/>
-      <c r="AS3" s="279"/>
-      <c r="AT3" s="279"/>
-      <c r="AU3" s="279"/>
-      <c r="AV3" s="280"/>
-      <c r="AW3" s="281">
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="282"/>
+      <c r="AJ3" s="282"/>
+      <c r="AK3" s="282"/>
+      <c r="AL3" s="282"/>
+      <c r="AM3" s="282"/>
+      <c r="AN3" s="282"/>
+      <c r="AO3" s="282"/>
+      <c r="AP3" s="282"/>
+      <c r="AQ3" s="282"/>
+      <c r="AR3" s="282"/>
+      <c r="AS3" s="282"/>
+      <c r="AT3" s="282"/>
+      <c r="AU3" s="282"/>
+      <c r="AV3" s="344"/>
+      <c r="AW3" s="326">
         <v>30</v>
       </c>
-      <c r="AX3" s="279"/>
-      <c r="AY3" s="279"/>
-      <c r="AZ3" s="279"/>
-      <c r="BA3" s="279"/>
-      <c r="BB3" s="279"/>
-      <c r="BC3" s="279"/>
-      <c r="BD3" s="279"/>
-      <c r="BE3" s="279"/>
-      <c r="BF3" s="280"/>
-      <c r="BG3" s="282">
+      <c r="AX3" s="282"/>
+      <c r="AY3" s="282"/>
+      <c r="AZ3" s="282"/>
+      <c r="BA3" s="282"/>
+      <c r="BB3" s="282"/>
+      <c r="BC3" s="282"/>
+      <c r="BD3" s="282"/>
+      <c r="BE3" s="282"/>
+      <c r="BF3" s="344"/>
+      <c r="BG3" s="325">
         <v>34</v>
       </c>
-      <c r="BH3" s="282"/>
-      <c r="BI3" s="281"/>
-      <c r="BJ3" s="281"/>
-      <c r="BK3" s="281"/>
-      <c r="BL3" s="281"/>
-      <c r="BM3" s="281"/>
-      <c r="BN3" s="281"/>
-      <c r="BO3" s="281"/>
-      <c r="BP3" s="281"/>
-      <c r="BQ3" s="282">
+      <c r="BH3" s="325"/>
+      <c r="BI3" s="326"/>
+      <c r="BJ3" s="326"/>
+      <c r="BK3" s="326"/>
+      <c r="BL3" s="326"/>
+      <c r="BM3" s="326"/>
+      <c r="BN3" s="326"/>
+      <c r="BO3" s="326"/>
+      <c r="BP3" s="326"/>
+      <c r="BQ3" s="325">
         <v>40</v>
       </c>
-      <c r="BR3" s="282"/>
-      <c r="BS3" s="281"/>
-      <c r="BT3" s="281"/>
-      <c r="BU3" s="281"/>
-      <c r="BV3" s="281"/>
-      <c r="BW3" s="281"/>
-      <c r="BX3" s="281"/>
-      <c r="BY3" s="281"/>
-      <c r="BZ3" s="281"/>
-      <c r="CA3" s="282">
+      <c r="BR3" s="325"/>
+      <c r="BS3" s="326"/>
+      <c r="BT3" s="326"/>
+      <c r="BU3" s="326"/>
+      <c r="BV3" s="326"/>
+      <c r="BW3" s="326"/>
+      <c r="BX3" s="326"/>
+      <c r="BY3" s="326"/>
+      <c r="BZ3" s="326"/>
+      <c r="CA3" s="325">
         <v>43</v>
       </c>
-      <c r="CB3" s="282"/>
-      <c r="CC3" s="281"/>
-      <c r="CD3" s="281"/>
-      <c r="CE3" s="281"/>
-      <c r="CF3" s="281"/>
-      <c r="CG3" s="281"/>
-      <c r="CH3" s="281"/>
-      <c r="CI3" s="281"/>
-      <c r="CJ3" s="282"/>
-      <c r="CK3" s="279">
+      <c r="CB3" s="325"/>
+      <c r="CC3" s="326"/>
+      <c r="CD3" s="326"/>
+      <c r="CE3" s="326"/>
+      <c r="CF3" s="326"/>
+      <c r="CG3" s="326"/>
+      <c r="CH3" s="326"/>
+      <c r="CI3" s="326"/>
+      <c r="CJ3" s="325"/>
+      <c r="CK3" s="282">
         <v>46</v>
       </c>
-      <c r="CL3" s="279"/>
-      <c r="CM3" s="279"/>
-      <c r="CN3" s="279"/>
-      <c r="CO3" s="279"/>
-      <c r="CP3" s="279"/>
-      <c r="CQ3" s="279"/>
-      <c r="CR3" s="279"/>
-      <c r="CS3" s="279"/>
-      <c r="CT3" s="279"/>
-      <c r="CU3" s="279"/>
-      <c r="CV3" s="279"/>
-      <c r="CW3" s="279"/>
-      <c r="CX3" s="279"/>
-      <c r="CY3" s="338"/>
+      <c r="CL3" s="282"/>
+      <c r="CM3" s="282"/>
+      <c r="CN3" s="282"/>
+      <c r="CO3" s="282"/>
+      <c r="CP3" s="282"/>
+      <c r="CQ3" s="282"/>
+      <c r="CR3" s="282"/>
+      <c r="CS3" s="282"/>
+      <c r="CT3" s="282"/>
+      <c r="CU3" s="282"/>
+      <c r="CV3" s="282"/>
+      <c r="CW3" s="282"/>
+      <c r="CX3" s="282"/>
+      <c r="CY3" s="283"/>
       <c r="CZ3" s="243"/>
       <c r="DA3" s="244"/>
     </row>
     <row r="4" spans="2:113" s="234" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="285">
+      <c r="B4" s="330"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="276">
         <v>43107</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="287"/>
-      <c r="I4" s="390">
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="338">
         <v>43490</v>
       </c>
-      <c r="J4" s="391"/>
-      <c r="K4" s="391"/>
-      <c r="L4" s="391"/>
-      <c r="M4" s="391"/>
-      <c r="N4" s="391"/>
-      <c r="O4" s="391"/>
-      <c r="P4" s="391"/>
-      <c r="Q4" s="391"/>
-      <c r="R4" s="391"/>
-      <c r="S4" s="391"/>
-      <c r="T4" s="391"/>
-      <c r="U4" s="391"/>
-      <c r="V4" s="391"/>
-      <c r="W4" s="391"/>
-      <c r="X4" s="391"/>
-      <c r="Y4" s="391"/>
-      <c r="Z4" s="391"/>
-      <c r="AA4" s="391"/>
-      <c r="AB4" s="392"/>
-      <c r="AC4" s="288">
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="339"/>
+      <c r="T4" s="339"/>
+      <c r="U4" s="339"/>
+      <c r="V4" s="339"/>
+      <c r="W4" s="339"/>
+      <c r="X4" s="339"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
+      <c r="AA4" s="339"/>
+      <c r="AB4" s="340"/>
+      <c r="AC4" s="332">
         <v>43144</v>
       </c>
-      <c r="AD4" s="289"/>
-      <c r="AE4" s="289"/>
-      <c r="AF4" s="289"/>
-      <c r="AG4" s="289"/>
-      <c r="AH4" s="289"/>
-      <c r="AI4" s="289"/>
-      <c r="AJ4" s="289"/>
-      <c r="AK4" s="289"/>
-      <c r="AL4" s="289"/>
-      <c r="AM4" s="289"/>
-      <c r="AN4" s="289"/>
-      <c r="AO4" s="289"/>
-      <c r="AP4" s="289"/>
-      <c r="AQ4" s="289"/>
-      <c r="AR4" s="289"/>
-      <c r="AS4" s="289"/>
-      <c r="AT4" s="289"/>
-      <c r="AU4" s="289"/>
-      <c r="AV4" s="290"/>
-      <c r="AW4" s="291">
+      <c r="AD4" s="333"/>
+      <c r="AE4" s="333"/>
+      <c r="AF4" s="333"/>
+      <c r="AG4" s="333"/>
+      <c r="AH4" s="333"/>
+      <c r="AI4" s="333"/>
+      <c r="AJ4" s="333"/>
+      <c r="AK4" s="333"/>
+      <c r="AL4" s="333"/>
+      <c r="AM4" s="333"/>
+      <c r="AN4" s="333"/>
+      <c r="AO4" s="333"/>
+      <c r="AP4" s="333"/>
+      <c r="AQ4" s="333"/>
+      <c r="AR4" s="333"/>
+      <c r="AS4" s="333"/>
+      <c r="AT4" s="333"/>
+      <c r="AU4" s="333"/>
+      <c r="AV4" s="334"/>
+      <c r="AW4" s="335">
         <v>43154</v>
       </c>
-      <c r="AX4" s="292"/>
-      <c r="AY4" s="292"/>
-      <c r="AZ4" s="292"/>
-      <c r="BA4" s="292"/>
-      <c r="BB4" s="292"/>
-      <c r="BC4" s="292"/>
-      <c r="BD4" s="292"/>
-      <c r="BE4" s="292"/>
-      <c r="BF4" s="293"/>
-      <c r="BG4" s="297">
+      <c r="AX4" s="336"/>
+      <c r="AY4" s="336"/>
+      <c r="AZ4" s="336"/>
+      <c r="BA4" s="336"/>
+      <c r="BB4" s="336"/>
+      <c r="BC4" s="336"/>
+      <c r="BD4" s="336"/>
+      <c r="BE4" s="336"/>
+      <c r="BF4" s="337"/>
+      <c r="BG4" s="322">
         <v>43162</v>
       </c>
-      <c r="BH4" s="298"/>
-      <c r="BI4" s="298"/>
-      <c r="BJ4" s="298"/>
-      <c r="BK4" s="298"/>
-      <c r="BL4" s="298"/>
-      <c r="BM4" s="298"/>
-      <c r="BN4" s="298"/>
-      <c r="BO4" s="298"/>
-      <c r="BP4" s="299"/>
-      <c r="BQ4" s="300">
+      <c r="BH4" s="323"/>
+      <c r="BI4" s="323"/>
+      <c r="BJ4" s="323"/>
+      <c r="BK4" s="323"/>
+      <c r="BL4" s="323"/>
+      <c r="BM4" s="323"/>
+      <c r="BN4" s="323"/>
+      <c r="BO4" s="323"/>
+      <c r="BP4" s="324"/>
+      <c r="BQ4" s="327">
         <v>43172</v>
       </c>
-      <c r="BR4" s="301"/>
-      <c r="BS4" s="301"/>
-      <c r="BT4" s="301"/>
-      <c r="BU4" s="301"/>
-      <c r="BV4" s="301"/>
-      <c r="BW4" s="301"/>
-      <c r="BX4" s="301"/>
-      <c r="BY4" s="301"/>
-      <c r="BZ4" s="302"/>
-      <c r="CA4" s="294">
+      <c r="BR4" s="328"/>
+      <c r="BS4" s="328"/>
+      <c r="BT4" s="328"/>
+      <c r="BU4" s="328"/>
+      <c r="BV4" s="328"/>
+      <c r="BW4" s="328"/>
+      <c r="BX4" s="328"/>
+      <c r="BY4" s="328"/>
+      <c r="BZ4" s="329"/>
+      <c r="CA4" s="319">
         <v>43179</v>
       </c>
-      <c r="CB4" s="295"/>
-      <c r="CC4" s="295"/>
-      <c r="CD4" s="295"/>
-      <c r="CE4" s="295"/>
-      <c r="CF4" s="295"/>
-      <c r="CG4" s="295"/>
-      <c r="CH4" s="295"/>
-      <c r="CI4" s="295"/>
-      <c r="CJ4" s="296"/>
-      <c r="CK4" s="285">
+      <c r="CB4" s="320"/>
+      <c r="CC4" s="320"/>
+      <c r="CD4" s="320"/>
+      <c r="CE4" s="320"/>
+      <c r="CF4" s="320"/>
+      <c r="CG4" s="320"/>
+      <c r="CH4" s="320"/>
+      <c r="CI4" s="320"/>
+      <c r="CJ4" s="321"/>
+      <c r="CK4" s="276">
         <v>43181</v>
       </c>
-      <c r="CL4" s="286"/>
-      <c r="CM4" s="286"/>
-      <c r="CN4" s="286"/>
-      <c r="CO4" s="286"/>
-      <c r="CP4" s="286"/>
-      <c r="CQ4" s="286"/>
-      <c r="CR4" s="286"/>
-      <c r="CS4" s="286"/>
-      <c r="CT4" s="286"/>
-      <c r="CU4" s="286"/>
-      <c r="CV4" s="286"/>
-      <c r="CW4" s="286"/>
-      <c r="CX4" s="286"/>
-      <c r="CY4" s="287"/>
+      <c r="CL4" s="277"/>
+      <c r="CM4" s="277"/>
+      <c r="CN4" s="277"/>
+      <c r="CO4" s="277"/>
+      <c r="CP4" s="277"/>
+      <c r="CQ4" s="277"/>
+      <c r="CR4" s="277"/>
+      <c r="CS4" s="277"/>
+      <c r="CT4" s="277"/>
+      <c r="CU4" s="277"/>
+      <c r="CV4" s="277"/>
+      <c r="CW4" s="277"/>
+      <c r="CX4" s="277"/>
+      <c r="CY4" s="278"/>
       <c r="CZ4" s="237"/>
       <c r="DA4" s="238"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="305" t="s">
+      <c r="C5" s="308"/>
+      <c r="D5" s="309" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="307"/>
-      <c r="I5" s="312" t="s">
-        <v>312</v>
-      </c>
-      <c r="J5" s="313"/>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="313"/>
-      <c r="Q5" s="313"/>
-      <c r="R5" s="313"/>
-      <c r="S5" s="313"/>
-      <c r="T5" s="313"/>
-      <c r="U5" s="313"/>
-      <c r="V5" s="313"/>
-      <c r="W5" s="313"/>
-      <c r="X5" s="313"/>
-      <c r="Y5" s="313"/>
-      <c r="Z5" s="313"/>
-      <c r="AA5" s="313"/>
-      <c r="AB5" s="314"/>
-      <c r="AC5" s="331" t="s">
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="316" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="317"/>
+      <c r="S5" s="317"/>
+      <c r="T5" s="317"/>
+      <c r="U5" s="317"/>
+      <c r="V5" s="317"/>
+      <c r="W5" s="317"/>
+      <c r="X5" s="317"/>
+      <c r="Y5" s="317"/>
+      <c r="Z5" s="317"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="318"/>
+      <c r="AC5" s="288" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="332"/>
-      <c r="AE5" s="332"/>
-      <c r="AF5" s="332"/>
-      <c r="AG5" s="332"/>
-      <c r="AH5" s="332"/>
-      <c r="AI5" s="332"/>
-      <c r="AJ5" s="332"/>
-      <c r="AK5" s="332"/>
-      <c r="AL5" s="332"/>
-      <c r="AM5" s="332"/>
-      <c r="AN5" s="332"/>
-      <c r="AO5" s="332"/>
-      <c r="AP5" s="332"/>
-      <c r="AQ5" s="332"/>
-      <c r="AR5" s="332"/>
-      <c r="AS5" s="332"/>
-      <c r="AT5" s="332"/>
-      <c r="AU5" s="332"/>
-      <c r="AV5" s="333"/>
-      <c r="AW5" s="317" t="s">
+      <c r="AD5" s="289"/>
+      <c r="AE5" s="289"/>
+      <c r="AF5" s="289"/>
+      <c r="AG5" s="289"/>
+      <c r="AH5" s="289"/>
+      <c r="AI5" s="289"/>
+      <c r="AJ5" s="289"/>
+      <c r="AK5" s="289"/>
+      <c r="AL5" s="289"/>
+      <c r="AM5" s="289"/>
+      <c r="AN5" s="289"/>
+      <c r="AO5" s="289"/>
+      <c r="AP5" s="289"/>
+      <c r="AQ5" s="289"/>
+      <c r="AR5" s="289"/>
+      <c r="AS5" s="289"/>
+      <c r="AT5" s="289"/>
+      <c r="AU5" s="289"/>
+      <c r="AV5" s="290"/>
+      <c r="AW5" s="295" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="318"/>
-      <c r="AY5" s="318"/>
-      <c r="AZ5" s="318"/>
-      <c r="BA5" s="318"/>
-      <c r="BB5" s="318"/>
-      <c r="BC5" s="318"/>
-      <c r="BD5" s="318"/>
-      <c r="BE5" s="318"/>
-      <c r="BF5" s="319"/>
-      <c r="BG5" s="323" t="s">
+      <c r="AX5" s="296"/>
+      <c r="AY5" s="296"/>
+      <c r="AZ5" s="296"/>
+      <c r="BA5" s="296"/>
+      <c r="BB5" s="296"/>
+      <c r="BC5" s="296"/>
+      <c r="BD5" s="296"/>
+      <c r="BE5" s="296"/>
+      <c r="BF5" s="297"/>
+      <c r="BG5" s="301" t="s">
         <v>278</v>
       </c>
-      <c r="BH5" s="324"/>
-      <c r="BI5" s="324"/>
-      <c r="BJ5" s="324"/>
-      <c r="BK5" s="324"/>
-      <c r="BL5" s="324"/>
-      <c r="BM5" s="324"/>
-      <c r="BN5" s="324"/>
-      <c r="BO5" s="324"/>
-      <c r="BP5" s="325"/>
-      <c r="BQ5" s="326" t="s">
+      <c r="BH5" s="302"/>
+      <c r="BI5" s="302"/>
+      <c r="BJ5" s="302"/>
+      <c r="BK5" s="302"/>
+      <c r="BL5" s="302"/>
+      <c r="BM5" s="302"/>
+      <c r="BN5" s="302"/>
+      <c r="BO5" s="302"/>
+      <c r="BP5" s="303"/>
+      <c r="BQ5" s="304" t="s">
         <v>279</v>
       </c>
-      <c r="BR5" s="327"/>
-      <c r="BS5" s="327"/>
-      <c r="BT5" s="327"/>
-      <c r="BU5" s="327"/>
-      <c r="BV5" s="327"/>
-      <c r="BW5" s="327"/>
-      <c r="BX5" s="327"/>
-      <c r="BY5" s="327"/>
-      <c r="BZ5" s="328"/>
-      <c r="CA5" s="320" t="s">
+      <c r="BR5" s="305"/>
+      <c r="BS5" s="305"/>
+      <c r="BT5" s="305"/>
+      <c r="BU5" s="305"/>
+      <c r="BV5" s="305"/>
+      <c r="BW5" s="305"/>
+      <c r="BX5" s="305"/>
+      <c r="BY5" s="305"/>
+      <c r="BZ5" s="306"/>
+      <c r="CA5" s="298" t="s">
         <v>280</v>
       </c>
-      <c r="CB5" s="321"/>
-      <c r="CC5" s="321"/>
-      <c r="CD5" s="321"/>
-      <c r="CE5" s="321"/>
-      <c r="CF5" s="321"/>
-      <c r="CG5" s="321"/>
-      <c r="CH5" s="321"/>
-      <c r="CI5" s="321"/>
-      <c r="CJ5" s="322"/>
-      <c r="CK5" s="335" t="s">
+      <c r="CB5" s="299"/>
+      <c r="CC5" s="299"/>
+      <c r="CD5" s="299"/>
+      <c r="CE5" s="299"/>
+      <c r="CF5" s="299"/>
+      <c r="CG5" s="299"/>
+      <c r="CH5" s="299"/>
+      <c r="CI5" s="299"/>
+      <c r="CJ5" s="300"/>
+      <c r="CK5" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="336"/>
-      <c r="CM5" s="336"/>
-      <c r="CN5" s="336"/>
-      <c r="CO5" s="336"/>
-      <c r="CP5" s="336"/>
-      <c r="CQ5" s="336"/>
-      <c r="CR5" s="336"/>
-      <c r="CS5" s="336"/>
-      <c r="CT5" s="336"/>
-      <c r="CU5" s="336"/>
-      <c r="CV5" s="336"/>
-      <c r="CW5" s="336"/>
-      <c r="CX5" s="336"/>
-      <c r="CY5" s="337"/>
+      <c r="CL5" s="280"/>
+      <c r="CM5" s="280"/>
+      <c r="CN5" s="280"/>
+      <c r="CO5" s="280"/>
+      <c r="CP5" s="280"/>
+      <c r="CQ5" s="280"/>
+      <c r="CR5" s="280"/>
+      <c r="CS5" s="280"/>
+      <c r="CT5" s="280"/>
+      <c r="CU5" s="280"/>
+      <c r="CV5" s="280"/>
+      <c r="CW5" s="280"/>
+      <c r="CX5" s="280"/>
+      <c r="CY5" s="281"/>
       <c r="CZ5" s="239"/>
       <c r="DA5" s="240"/>
     </row>
     <row r="6" spans="2:113" s="166" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="235"/>
       <c r="C6" s="236"/>
-      <c r="D6" s="308" t="s">
+      <c r="D6" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="308"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="309" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6" s="310"/>
-      <c r="K6" s="310"/>
-      <c r="L6" s="310"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="309" t="s">
-        <v>313</v>
-      </c>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="309" t="s">
-        <v>314</v>
-      </c>
-      <c r="T6" s="310"/>
-      <c r="U6" s="310"/>
-      <c r="V6" s="310"/>
-      <c r="W6" s="311"/>
-      <c r="X6" s="309" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y6" s="310"/>
-      <c r="Z6" s="310"/>
-      <c r="AA6" s="310"/>
-      <c r="AB6" s="311"/>
-      <c r="AC6" s="330" t="s">
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="312"/>
+      <c r="I6" s="313" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" s="314"/>
+      <c r="K6" s="314"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="313" t="s">
+        <v>290</v>
+      </c>
+      <c r="O6" s="314"/>
+      <c r="P6" s="314"/>
+      <c r="Q6" s="314"/>
+      <c r="R6" s="315"/>
+      <c r="S6" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="T6" s="314"/>
+      <c r="U6" s="314"/>
+      <c r="V6" s="314"/>
+      <c r="W6" s="315"/>
+      <c r="X6" s="313" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y6" s="314"/>
+      <c r="Z6" s="314"/>
+      <c r="AA6" s="314"/>
+      <c r="AB6" s="315"/>
+      <c r="AC6" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="330"/>
-      <c r="AE6" s="330"/>
-      <c r="AF6" s="330"/>
-      <c r="AG6" s="330"/>
-      <c r="AH6" s="330" t="s">
+      <c r="AD6" s="287"/>
+      <c r="AE6" s="287"/>
+      <c r="AF6" s="287"/>
+      <c r="AG6" s="287"/>
+      <c r="AH6" s="287" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="330"/>
-      <c r="AJ6" s="330"/>
-      <c r="AK6" s="330"/>
-      <c r="AL6" s="330"/>
-      <c r="AM6" s="330" t="s">
+      <c r="AI6" s="287"/>
+      <c r="AJ6" s="287"/>
+      <c r="AK6" s="287"/>
+      <c r="AL6" s="287"/>
+      <c r="AM6" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="330"/>
-      <c r="AO6" s="330"/>
-      <c r="AP6" s="330"/>
-      <c r="AQ6" s="330"/>
-      <c r="AR6" s="330" t="s">
+      <c r="AN6" s="287"/>
+      <c r="AO6" s="287"/>
+      <c r="AP6" s="287"/>
+      <c r="AQ6" s="287"/>
+      <c r="AR6" s="287" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="330"/>
-      <c r="AT6" s="330"/>
-      <c r="AU6" s="330"/>
-      <c r="AV6" s="330"/>
-      <c r="AW6" s="334" t="s">
+      <c r="AS6" s="287"/>
+      <c r="AT6" s="287"/>
+      <c r="AU6" s="287"/>
+      <c r="AV6" s="287"/>
+      <c r="AW6" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="334"/>
-      <c r="AY6" s="334"/>
-      <c r="AZ6" s="334"/>
-      <c r="BA6" s="334"/>
-      <c r="BB6" s="334" t="s">
+      <c r="AX6" s="292"/>
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="292"/>
+      <c r="BA6" s="292"/>
+      <c r="BB6" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="334"/>
-      <c r="BD6" s="334"/>
-      <c r="BE6" s="334"/>
-      <c r="BF6" s="334"/>
-      <c r="BG6" s="316" t="s">
+      <c r="BC6" s="292"/>
+      <c r="BD6" s="292"/>
+      <c r="BE6" s="292"/>
+      <c r="BF6" s="292"/>
+      <c r="BG6" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="316"/>
-      <c r="BI6" s="316"/>
-      <c r="BJ6" s="316"/>
-      <c r="BK6" s="316"/>
-      <c r="BL6" s="316" t="s">
+      <c r="BH6" s="294"/>
+      <c r="BI6" s="294"/>
+      <c r="BJ6" s="294"/>
+      <c r="BK6" s="294"/>
+      <c r="BL6" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="316"/>
-      <c r="BN6" s="316"/>
-      <c r="BO6" s="316"/>
-      <c r="BP6" s="316"/>
-      <c r="BQ6" s="329" t="s">
+      <c r="BM6" s="294"/>
+      <c r="BN6" s="294"/>
+      <c r="BO6" s="294"/>
+      <c r="BP6" s="294"/>
+      <c r="BQ6" s="291" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="329"/>
-      <c r="BS6" s="329"/>
-      <c r="BT6" s="329"/>
-      <c r="BU6" s="329"/>
-      <c r="BV6" s="329" t="s">
+      <c r="BR6" s="291"/>
+      <c r="BS6" s="291"/>
+      <c r="BT6" s="291"/>
+      <c r="BU6" s="291"/>
+      <c r="BV6" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="329"/>
-      <c r="BX6" s="329"/>
-      <c r="BY6" s="329"/>
-      <c r="BZ6" s="329"/>
-      <c r="CA6" s="315" t="s">
+      <c r="BW6" s="291"/>
+      <c r="BX6" s="291"/>
+      <c r="BY6" s="291"/>
+      <c r="BZ6" s="291"/>
+      <c r="CA6" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="315"/>
-      <c r="CC6" s="315"/>
-      <c r="CD6" s="315"/>
-      <c r="CE6" s="315"/>
-      <c r="CF6" s="315" t="s">
+      <c r="CB6" s="293"/>
+      <c r="CC6" s="293"/>
+      <c r="CD6" s="293"/>
+      <c r="CE6" s="293"/>
+      <c r="CF6" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="315"/>
-      <c r="CH6" s="315"/>
-      <c r="CI6" s="315"/>
-      <c r="CJ6" s="315"/>
-      <c r="CK6" s="339" t="s">
+      <c r="CG6" s="293"/>
+      <c r="CH6" s="293"/>
+      <c r="CI6" s="293"/>
+      <c r="CJ6" s="293"/>
+      <c r="CK6" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="340"/>
-      <c r="CM6" s="340"/>
-      <c r="CN6" s="340"/>
-      <c r="CO6" s="341"/>
-      <c r="CP6" s="339" t="s">
+      <c r="CL6" s="285"/>
+      <c r="CM6" s="285"/>
+      <c r="CN6" s="285"/>
+      <c r="CO6" s="286"/>
+      <c r="CP6" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="340"/>
-      <c r="CR6" s="340"/>
-      <c r="CS6" s="340"/>
-      <c r="CT6" s="341"/>
-      <c r="CU6" s="339" t="s">
+      <c r="CQ6" s="285"/>
+      <c r="CR6" s="285"/>
+      <c r="CS6" s="285"/>
+      <c r="CT6" s="286"/>
+      <c r="CU6" s="284" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="340"/>
-      <c r="CW6" s="340"/>
-      <c r="CX6" s="340"/>
-      <c r="CY6" s="341"/>
+      <c r="CV6" s="285"/>
+      <c r="CW6" s="285"/>
+      <c r="CX6" s="285"/>
+      <c r="CY6" s="286"/>
       <c r="CZ6" s="241" t="s">
         <v>77</v>
       </c>
@@ -10862,15 +10592,9 @@
       </c>
     </row>
     <row r="7" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="184" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="174" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="176">
-        <v>100</v>
-      </c>
+      <c r="B7" s="184"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="175"/>
       <c r="F7" s="175"/>
       <c r="G7" s="175"/>
@@ -10970,12 +10694,8 @@
       <c r="CW7" s="175"/>
       <c r="CX7" s="175"/>
       <c r="CY7" s="175"/>
-      <c r="CZ7" s="172">
-        <v>100</v>
-      </c>
-      <c r="DA7" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ7" s="172"/>
+      <c r="DA7" s="170"/>
       <c r="DB7" s="123"/>
       <c r="DC7" s="123"/>
       <c r="DD7" s="123"/>
@@ -10986,15 +10706,9 @@
       <c r="DI7" s="123"/>
     </row>
     <row r="8" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="185" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="168" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="179">
-        <v>100</v>
-      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
       <c r="G8" s="178"/>
@@ -11094,12 +10808,8 @@
       <c r="CW8" s="178"/>
       <c r="CX8" s="178"/>
       <c r="CY8" s="178"/>
-      <c r="CZ8" s="172">
-        <v>100</v>
-      </c>
-      <c r="DA8" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ8" s="172"/>
+      <c r="DA8" s="170"/>
       <c r="DB8" s="123"/>
       <c r="DC8" s="123"/>
       <c r="DD8" s="123"/>
@@ -11110,15 +10820,9 @@
       <c r="DI8" s="123"/>
     </row>
     <row r="9" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="185" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="179">
-        <v>100</v>
-      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="178"/>
       <c r="F9" s="178"/>
       <c r="G9" s="178"/>
@@ -11218,12 +10922,8 @@
       <c r="CW9" s="178"/>
       <c r="CX9" s="178"/>
       <c r="CY9" s="178"/>
-      <c r="CZ9" s="172">
-        <v>100</v>
-      </c>
-      <c r="DA9" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ9" s="172"/>
+      <c r="DA9" s="170"/>
       <c r="DB9" s="123"/>
       <c r="DC9" s="123"/>
       <c r="DD9" s="123"/>
@@ -11234,15 +10934,9 @@
       <c r="DI9" s="123"/>
     </row>
     <row r="10" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="185" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="168" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="179">
-        <v>99</v>
-      </c>
+      <c r="B10" s="185"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="178"/>
       <c r="F10" s="178"/>
       <c r="G10" s="178"/>
@@ -11342,12 +11036,8 @@
       <c r="CW10" s="178"/>
       <c r="CX10" s="178"/>
       <c r="CY10" s="178"/>
-      <c r="CZ10" s="172">
-        <v>99</v>
-      </c>
-      <c r="DA10" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ10" s="172"/>
+      <c r="DA10" s="170"/>
       <c r="DB10" s="123"/>
       <c r="DC10" s="123"/>
       <c r="DD10" s="123"/>
@@ -11358,15 +11048,9 @@
       <c r="DI10" s="123"/>
     </row>
     <row r="11" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="185" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="168" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="179">
-        <v>97</v>
-      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="178"/>
       <c r="F11" s="178"/>
       <c r="G11" s="178"/>
@@ -11466,12 +11150,8 @@
       <c r="CW11" s="178"/>
       <c r="CX11" s="178"/>
       <c r="CY11" s="178"/>
-      <c r="CZ11" s="172">
-        <v>97</v>
-      </c>
-      <c r="DA11" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ11" s="172"/>
+      <c r="DA11" s="170"/>
       <c r="DB11" s="123"/>
       <c r="DC11" s="123"/>
       <c r="DD11" s="123"/>
@@ -11482,15 +11162,9 @@
       <c r="DI11" s="123"/>
     </row>
     <row r="12" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="179">
-        <v>97</v>
-      </c>
+      <c r="B12" s="185"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="178"/>
       <c r="F12" s="178"/>
       <c r="G12" s="178"/>
@@ -11590,12 +11264,8 @@
       <c r="CW12" s="178"/>
       <c r="CX12" s="178"/>
       <c r="CY12" s="178"/>
-      <c r="CZ12" s="172">
-        <v>97</v>
-      </c>
-      <c r="DA12" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ12" s="172"/>
+      <c r="DA12" s="170"/>
       <c r="DB12" s="123"/>
       <c r="DC12" s="123"/>
       <c r="DD12" s="123"/>
@@ -11606,15 +11276,9 @@
       <c r="DI12" s="123"/>
     </row>
     <row r="13" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="185" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="168" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13" s="179">
-        <v>97</v>
-      </c>
+      <c r="B13" s="185"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="178"/>
       <c r="F13" s="178"/>
       <c r="G13" s="178"/>
@@ -11714,12 +11378,8 @@
       <c r="CW13" s="178"/>
       <c r="CX13" s="178"/>
       <c r="CY13" s="178"/>
-      <c r="CZ13" s="172">
-        <v>97</v>
-      </c>
-      <c r="DA13" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ13" s="172"/>
+      <c r="DA13" s="170"/>
       <c r="DB13" s="123"/>
       <c r="DC13" s="123"/>
       <c r="DD13" s="123"/>
@@ -11730,15 +11390,9 @@
       <c r="DI13" s="123"/>
     </row>
     <row r="14" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="185" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="168" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="179">
-        <v>96</v>
-      </c>
+      <c r="B14" s="185"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="178"/>
       <c r="F14" s="178"/>
       <c r="G14" s="178"/>
@@ -11838,12 +11492,8 @@
       <c r="CW14" s="178"/>
       <c r="CX14" s="178"/>
       <c r="CY14" s="178"/>
-      <c r="CZ14" s="172">
-        <v>96</v>
-      </c>
-      <c r="DA14" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ14" s="172"/>
+      <c r="DA14" s="170"/>
       <c r="DB14" s="123"/>
       <c r="DC14" s="123"/>
       <c r="DD14" s="123"/>
@@ -11854,15 +11504,9 @@
       <c r="DI14" s="123"/>
     </row>
     <row r="15" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="185" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="168" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="179">
-        <v>96</v>
-      </c>
+      <c r="B15" s="185"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="178"/>
       <c r="F15" s="178"/>
       <c r="G15" s="178"/>
@@ -11962,12 +11606,8 @@
       <c r="CW15" s="178"/>
       <c r="CX15" s="178"/>
       <c r="CY15" s="178"/>
-      <c r="CZ15" s="172">
-        <v>96</v>
-      </c>
-      <c r="DA15" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ15" s="172"/>
+      <c r="DA15" s="170"/>
       <c r="DB15" s="123"/>
       <c r="DC15" s="123"/>
       <c r="DD15" s="123"/>
@@ -11978,15 +11618,9 @@
       <c r="DI15" s="123"/>
     </row>
     <row r="16" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="185" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="168" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="179">
-        <v>93</v>
-      </c>
+      <c r="B16" s="185"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="178"/>
       <c r="F16" s="178"/>
       <c r="G16" s="178"/>
@@ -12086,12 +11720,8 @@
       <c r="CW16" s="178"/>
       <c r="CX16" s="178"/>
       <c r="CY16" s="178"/>
-      <c r="CZ16" s="172">
-        <v>93</v>
-      </c>
-      <c r="DA16" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ16" s="172"/>
+      <c r="DA16" s="170"/>
       <c r="DB16" s="123"/>
       <c r="DC16" s="123"/>
       <c r="DD16" s="123"/>
@@ -12102,52 +11732,30 @@
       <c r="DI16" s="123"/>
     </row>
     <row r="17" spans="2:113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="185" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="168" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="179">
-        <v>96</v>
-      </c>
+      <c r="B17" s="185"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
       <c r="G17" s="178"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="179">
-        <v>12</v>
-      </c>
-      <c r="J17" s="178">
-        <v>44</v>
-      </c>
+      <c r="I17" s="179"/>
+      <c r="J17" s="178"/>
       <c r="K17" s="178"/>
       <c r="L17" s="178"/>
       <c r="M17" s="180"/>
-      <c r="N17" s="179">
-        <v>55</v>
-      </c>
-      <c r="O17" s="178">
-        <v>88</v>
-      </c>
+      <c r="N17" s="179"/>
+      <c r="O17" s="178"/>
       <c r="P17" s="178"/>
       <c r="Q17" s="178"/>
       <c r="R17" s="180"/>
-      <c r="S17" s="178">
-        <v>6</v>
-      </c>
-      <c r="T17" s="178">
-        <v>90</v>
-      </c>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
       <c r="U17" s="178"/>
       <c r="V17" s="178"/>
       <c r="W17" s="178"/>
-      <c r="X17" s="179">
-        <v>89</v>
-      </c>
-      <c r="Y17" s="178">
-        <v>34</v>
-      </c>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="178"/>
       <c r="Z17" s="178"/>
       <c r="AA17" s="178"/>
       <c r="AB17" s="180"/>
@@ -12181,75 +11789,53 @@
       <c r="BD17" s="178"/>
       <c r="BE17" s="178"/>
       <c r="BF17" s="180"/>
-      <c r="BG17" s="179">
-        <v>12</v>
-      </c>
+      <c r="BG17" s="179"/>
       <c r="BH17" s="178"/>
       <c r="BI17" s="178"/>
       <c r="BJ17" s="178"/>
       <c r="BK17" s="180"/>
-      <c r="BL17" s="179">
-        <v>1</v>
-      </c>
+      <c r="BL17" s="179"/>
       <c r="BM17" s="178"/>
       <c r="BN17" s="178"/>
       <c r="BO17" s="178"/>
       <c r="BP17" s="180"/>
-      <c r="BQ17" s="179">
-        <v>67</v>
-      </c>
+      <c r="BQ17" s="179"/>
       <c r="BR17" s="178"/>
       <c r="BS17" s="178"/>
       <c r="BT17" s="178"/>
       <c r="BU17" s="180"/>
-      <c r="BV17" s="179">
-        <v>99</v>
-      </c>
+      <c r="BV17" s="179"/>
       <c r="BW17" s="178"/>
       <c r="BX17" s="178"/>
       <c r="BY17" s="178"/>
       <c r="BZ17" s="180"/>
-      <c r="CA17" s="179">
-        <v>67</v>
-      </c>
+      <c r="CA17" s="179"/>
       <c r="CB17" s="178"/>
       <c r="CC17" s="178"/>
       <c r="CD17" s="178"/>
       <c r="CE17" s="180"/>
-      <c r="CF17" s="179">
-        <v>99</v>
-      </c>
+      <c r="CF17" s="179"/>
       <c r="CG17" s="178"/>
       <c r="CH17" s="178"/>
       <c r="CI17" s="178"/>
       <c r="CJ17" s="180"/>
-      <c r="CK17" s="179">
-        <v>67</v>
-      </c>
+      <c r="CK17" s="179"/>
       <c r="CL17" s="178"/>
       <c r="CM17" s="178"/>
       <c r="CN17" s="178"/>
       <c r="CO17" s="180"/>
-      <c r="CP17" s="179">
-        <v>99</v>
-      </c>
+      <c r="CP17" s="179"/>
       <c r="CQ17" s="178"/>
       <c r="CR17" s="178"/>
       <c r="CS17" s="178"/>
       <c r="CT17" s="180"/>
-      <c r="CU17" s="178">
-        <v>44</v>
-      </c>
+      <c r="CU17" s="178"/>
       <c r="CV17" s="178"/>
       <c r="CW17" s="178"/>
       <c r="CX17" s="178"/>
       <c r="CY17" s="178"/>
-      <c r="CZ17" s="172">
-        <v>58.071430206298828</v>
-      </c>
-      <c r="DA17" s="170">
-        <v>0</v>
-      </c>
+      <c r="CZ17" s="172"/>
+      <c r="DA17" s="170"/>
       <c r="DB17" s="123"/>
       <c r="DC17" s="123"/>
       <c r="DD17" s="123"/>
@@ -14697,26 +14283,38 @@
       <c r="EJ53" s="123"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <sortState ref="B7:DA35">
     <sortCondition descending="1" ref="CZ13"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="49">
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:AB3"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="BQ4:BZ4"/>
+    <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:AB4"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I5:AB5"/>
+    <mergeCell ref="CA4:CJ4"/>
+    <mergeCell ref="BG4:BP4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
     <mergeCell ref="CA6:CE6"/>
     <mergeCell ref="BL6:BP6"/>
     <mergeCell ref="AW5:BF5"/>
@@ -14726,32 +14324,20 @@
     <mergeCell ref="BG6:BK6"/>
     <mergeCell ref="BQ5:BZ5"/>
     <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I5:AB5"/>
-    <mergeCell ref="CA4:CJ4"/>
-    <mergeCell ref="BG4:BP4"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="BQ4:BZ4"/>
-    <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:AB4"/>
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:AB3"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -14895,8 +14481,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -14915,32 +14526,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -15564,14 +15150,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="351" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="344"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="353"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15616,14 +15202,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="342" t="s">
+      <c r="A7" s="351" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="343"/>
-      <c r="C7" s="343"/>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="344"/>
+      <c r="B7" s="352"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="352"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="353"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15636,11 +15222,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="345" t="s">
+      <c r="D8" s="354" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="346"/>
-      <c r="F8" s="347"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="356"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -15664,27 +15250,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="342" t="s">
+      <c r="A11" s="351" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="343"/>
-      <c r="C11" s="343"/>
-      <c r="D11" s="343"/>
-      <c r="E11" s="343"/>
-      <c r="F11" s="344"/>
+      <c r="B11" s="352"/>
+      <c r="C11" s="352"/>
+      <c r="D11" s="352"/>
+      <c r="E11" s="352"/>
+      <c r="F11" s="353"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="348" t="s">
+      <c r="B12" s="357" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="350"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="359"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -15700,25 +15286,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="342" t="s">
+      <c r="A15" s="351" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="343"/>
-      <c r="C15" s="343"/>
-      <c r="D15" s="343"/>
-      <c r="E15" s="343"/>
-      <c r="F15" s="344"/>
+      <c r="B15" s="352"/>
+      <c r="C15" s="352"/>
+      <c r="D15" s="352"/>
+      <c r="E15" s="352"/>
+      <c r="F15" s="353"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="351"/>
-      <c r="C16" s="352"/>
-      <c r="D16" s="352"/>
-      <c r="E16" s="352"/>
-      <c r="F16" s="353"/>
+      <c r="B16" s="348"/>
+      <c r="C16" s="349"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
+      <c r="F16" s="350"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -15734,25 +15320,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="342" t="s">
+      <c r="A19" s="351" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="343"/>
-      <c r="C19" s="343"/>
-      <c r="D19" s="343"/>
-      <c r="E19" s="343"/>
-      <c r="F19" s="344"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="352"/>
+      <c r="D19" s="352"/>
+      <c r="E19" s="352"/>
+      <c r="F19" s="353"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="351"/>
-      <c r="C20" s="352"/>
-      <c r="D20" s="352"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="353"/>
+      <c r="B20" s="348"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="350"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -15768,25 +15354,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="342" t="s">
+      <c r="A23" s="351" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="343"/>
-      <c r="C23" s="343"/>
-      <c r="D23" s="343"/>
-      <c r="E23" s="343"/>
-      <c r="F23" s="344"/>
+      <c r="B23" s="352"/>
+      <c r="C23" s="352"/>
+      <c r="D23" s="352"/>
+      <c r="E23" s="352"/>
+      <c r="F23" s="353"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="351"/>
-      <c r="C24" s="352"/>
-      <c r="D24" s="352"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="353"/>
+      <c r="B24" s="348"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="350"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -15802,27 +15388,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="342" t="s">
+      <c r="A27" s="351" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="343"/>
-      <c r="C27" s="343"/>
-      <c r="D27" s="343"/>
-      <c r="E27" s="343"/>
-      <c r="F27" s="344"/>
+      <c r="B27" s="352"/>
+      <c r="C27" s="352"/>
+      <c r="D27" s="352"/>
+      <c r="E27" s="352"/>
+      <c r="F27" s="353"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="348" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="352"/>
-      <c r="E28" s="352"/>
-      <c r="F28" s="353"/>
+      <c r="C28" s="349"/>
+      <c r="D28" s="349"/>
+      <c r="E28" s="349"/>
+      <c r="F28" s="350"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -15838,6 +15424,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -15845,12 +15437,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15894,10 +15480,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="357" t="s">
+      <c r="C3" s="363" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="357"/>
+      <c r="D3" s="363"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15959,35 +15545,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="358" t="s">
+      <c r="A11" s="364" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="361"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="367"/>
       <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="364"/>
-      <c r="F11" s="365"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="371"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="359"/>
-      <c r="B12" s="362"/>
-      <c r="C12" s="363"/>
+      <c r="A12" s="365"/>
+      <c r="B12" s="368"/>
+      <c r="C12" s="369"/>
       <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="364"/>
-      <c r="F12" s="365"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="371"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="354" t="s">
+      <c r="B14" s="360" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="356"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="362"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16053,30 +15639,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="378">
+      <c r="E3" s="373">
         <v>5665</v>
       </c>
-      <c r="F3" s="378"/>
+      <c r="F3" s="373"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="378" t="s">
+      <c r="I3" s="373" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="373"/>
+      <c r="M3" s="373"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="378" t="s">
+      <c r="P3" s="373" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="378"/>
-      <c r="R3" s="378"/>
-      <c r="S3" s="378"/>
-      <c r="T3" s="378"/>
+      <c r="Q3" s="373"/>
+      <c r="R3" s="373"/>
+      <c r="S3" s="373"/>
+      <c r="T3" s="373"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -16087,10 +15673,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="377" t="s">
+      <c r="AF3" s="372" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="377"/>
+      <c r="AG3" s="372"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -16683,153 +16269,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="369" t="s">
+      <c r="B18" s="377" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="370"/>
-      <c r="D18" s="366" t="s">
+      <c r="C18" s="378"/>
+      <c r="D18" s="374" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="367"/>
-      <c r="F18" s="367"/>
-      <c r="G18" s="367"/>
-      <c r="H18" s="367"/>
-      <c r="I18" s="367"/>
-      <c r="J18" s="367"/>
-      <c r="K18" s="367"/>
-      <c r="L18" s="367"/>
-      <c r="M18" s="367"/>
-      <c r="N18" s="367"/>
-      <c r="O18" s="367"/>
-      <c r="P18" s="367"/>
-      <c r="Q18" s="367"/>
-      <c r="R18" s="367"/>
-      <c r="S18" s="367"/>
-      <c r="T18" s="367"/>
-      <c r="U18" s="367"/>
-      <c r="V18" s="367"/>
-      <c r="W18" s="368"/>
+      <c r="E18" s="375"/>
+      <c r="F18" s="375"/>
+      <c r="G18" s="375"/>
+      <c r="H18" s="375"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="375"/>
+      <c r="K18" s="375"/>
+      <c r="L18" s="375"/>
+      <c r="M18" s="375"/>
+      <c r="N18" s="375"/>
+      <c r="O18" s="375"/>
+      <c r="P18" s="375"/>
+      <c r="Q18" s="375"/>
+      <c r="R18" s="375"/>
+      <c r="S18" s="375"/>
+      <c r="T18" s="375"/>
+      <c r="U18" s="375"/>
+      <c r="V18" s="375"/>
+      <c r="W18" s="376"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="371">
+      <c r="B19" s="379">
         <v>2</v>
       </c>
-      <c r="C19" s="372"/>
-      <c r="D19" s="366" t="s">
+      <c r="C19" s="380"/>
+      <c r="D19" s="374" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="367"/>
-      <c r="F19" s="367"/>
-      <c r="G19" s="367"/>
-      <c r="H19" s="367"/>
-      <c r="I19" s="367"/>
-      <c r="J19" s="367"/>
-      <c r="K19" s="367"/>
-      <c r="L19" s="367"/>
-      <c r="M19" s="367"/>
-      <c r="N19" s="367"/>
-      <c r="O19" s="367"/>
-      <c r="P19" s="367"/>
-      <c r="Q19" s="367"/>
-      <c r="R19" s="367"/>
-      <c r="S19" s="367"/>
-      <c r="T19" s="367"/>
-      <c r="U19" s="367"/>
-      <c r="V19" s="367"/>
-      <c r="W19" s="368"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
+      <c r="H19" s="375"/>
+      <c r="I19" s="375"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="375"/>
+      <c r="L19" s="375"/>
+      <c r="M19" s="375"/>
+      <c r="N19" s="375"/>
+      <c r="O19" s="375"/>
+      <c r="P19" s="375"/>
+      <c r="Q19" s="375"/>
+      <c r="R19" s="375"/>
+      <c r="S19" s="375"/>
+      <c r="T19" s="375"/>
+      <c r="U19" s="375"/>
+      <c r="V19" s="375"/>
+      <c r="W19" s="376"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="373">
+      <c r="B20" s="381">
         <v>3</v>
       </c>
-      <c r="C20" s="374"/>
-      <c r="D20" s="366" t="s">
+      <c r="C20" s="382"/>
+      <c r="D20" s="374" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="367"/>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="367"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="367"/>
-      <c r="K20" s="367"/>
-      <c r="L20" s="367"/>
-      <c r="M20" s="367"/>
-      <c r="N20" s="367"/>
-      <c r="O20" s="367"/>
-      <c r="P20" s="367"/>
-      <c r="Q20" s="367"/>
-      <c r="R20" s="367"/>
-      <c r="S20" s="367"/>
-      <c r="T20" s="367"/>
-      <c r="U20" s="367"/>
-      <c r="V20" s="367"/>
-      <c r="W20" s="368"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="375"/>
+      <c r="G20" s="375"/>
+      <c r="H20" s="375"/>
+      <c r="I20" s="375"/>
+      <c r="J20" s="375"/>
+      <c r="K20" s="375"/>
+      <c r="L20" s="375"/>
+      <c r="M20" s="375"/>
+      <c r="N20" s="375"/>
+      <c r="O20" s="375"/>
+      <c r="P20" s="375"/>
+      <c r="Q20" s="375"/>
+      <c r="R20" s="375"/>
+      <c r="S20" s="375"/>
+      <c r="T20" s="375"/>
+      <c r="U20" s="375"/>
+      <c r="V20" s="375"/>
+      <c r="W20" s="376"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="375">
+      <c r="B21" s="383">
         <v>4</v>
       </c>
-      <c r="C21" s="376"/>
-      <c r="D21" s="366" t="s">
+      <c r="C21" s="384"/>
+      <c r="D21" s="374" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="367"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="367"/>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="367"/>
-      <c r="K21" s="367"/>
-      <c r="L21" s="367"/>
-      <c r="M21" s="367"/>
-      <c r="N21" s="367"/>
-      <c r="O21" s="367"/>
-      <c r="P21" s="367"/>
-      <c r="Q21" s="367"/>
-      <c r="R21" s="367"/>
-      <c r="S21" s="367"/>
-      <c r="T21" s="367"/>
-      <c r="U21" s="367"/>
-      <c r="V21" s="367"/>
-      <c r="W21" s="368"/>
+      <c r="E21" s="375"/>
+      <c r="F21" s="375"/>
+      <c r="G21" s="375"/>
+      <c r="H21" s="375"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="375"/>
+      <c r="K21" s="375"/>
+      <c r="L21" s="375"/>
+      <c r="M21" s="375"/>
+      <c r="N21" s="375"/>
+      <c r="O21" s="375"/>
+      <c r="P21" s="375"/>
+      <c r="Q21" s="375"/>
+      <c r="R21" s="375"/>
+      <c r="S21" s="375"/>
+      <c r="T21" s="375"/>
+      <c r="U21" s="375"/>
+      <c r="V21" s="375"/>
+      <c r="W21" s="376"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="375">
+      <c r="B22" s="383">
         <v>5</v>
       </c>
-      <c r="C22" s="376"/>
-      <c r="D22" s="366" t="s">
+      <c r="C22" s="384"/>
+      <c r="D22" s="374" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="367"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="367"/>
-      <c r="H22" s="367"/>
-      <c r="I22" s="367"/>
-      <c r="J22" s="367"/>
-      <c r="K22" s="367"/>
-      <c r="L22" s="367"/>
-      <c r="M22" s="367"/>
-      <c r="N22" s="367"/>
-      <c r="O22" s="367"/>
-      <c r="P22" s="367"/>
-      <c r="Q22" s="367"/>
-      <c r="R22" s="367"/>
-      <c r="S22" s="367"/>
-      <c r="T22" s="367"/>
-      <c r="U22" s="367"/>
-      <c r="V22" s="367"/>
-      <c r="W22" s="368"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="375"/>
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="375"/>
+      <c r="M22" s="375"/>
+      <c r="N22" s="375"/>
+      <c r="O22" s="375"/>
+      <c r="P22" s="375"/>
+      <c r="Q22" s="375"/>
+      <c r="R22" s="375"/>
+      <c r="S22" s="375"/>
+      <c r="T22" s="375"/>
+      <c r="U22" s="375"/>
+      <c r="V22" s="375"/>
+      <c r="W22" s="376"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -16839,6 +16420,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -16985,14 +16571,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="379" t="s">
+      <c r="N28" s="385" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="379"/>
-      <c r="P28" s="379"/>
-      <c r="Q28" s="379"/>
-      <c r="R28" s="379"/>
-      <c r="S28" s="379"/>
+      <c r="O28" s="385"/>
+      <c r="P28" s="385"/>
+      <c r="Q28" s="385"/>
+      <c r="R28" s="385"/>
+      <c r="S28" s="385"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -17015,14 +16601,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="379" t="s">
+      <c r="N36" s="385" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="379"/>
-      <c r="P36" s="379"/>
-      <c r="Q36" s="379"/>
-      <c r="R36" s="379"/>
-      <c r="S36" s="379"/>
+      <c r="O36" s="385"/>
+      <c r="P36" s="385"/>
+      <c r="Q36" s="385"/>
+      <c r="R36" s="385"/>
+      <c r="S36" s="385"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">
@@ -17210,30 +16796,30 @@
       <c r="C5" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="385" t="s">
+      <c r="D5" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="385"/>
-      <c r="F5" s="380" t="s">
+      <c r="E5" s="392"/>
+      <c r="F5" s="387" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380" t="s">
+      <c r="G5" s="387"/>
+      <c r="H5" s="387" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="380"/>
-      <c r="J5" s="380"/>
-      <c r="K5" s="380"/>
-      <c r="L5" s="381" t="s">
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="387"/>
+      <c r="L5" s="388" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="381"/>
-      <c r="N5" s="381" t="s">
+      <c r="M5" s="388"/>
+      <c r="N5" s="388" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="381"/>
-      <c r="P5" s="381"/>
-      <c r="Q5" s="381"/>
+      <c r="O5" s="388"/>
+      <c r="P5" s="388"/>
+      <c r="Q5" s="388"/>
       <c r="R5" s="201" t="s">
         <v>17</v>
       </c>
@@ -17247,30 +16833,30 @@
       <c r="C6" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="382" t="s">
+      <c r="D6" s="389" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="383" t="s">
+      <c r="E6" s="389"/>
+      <c r="F6" s="390" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="383"/>
-      <c r="H6" s="383" t="s">
+      <c r="G6" s="390"/>
+      <c r="H6" s="390" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="384" t="s">
+      <c r="I6" s="390"/>
+      <c r="J6" s="390"/>
+      <c r="K6" s="390"/>
+      <c r="L6" s="391" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="384"/>
-      <c r="N6" s="384" t="s">
+      <c r="M6" s="391"/>
+      <c r="N6" s="391" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="384"/>
-      <c r="P6" s="384"/>
-      <c r="Q6" s="384"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
       <c r="R6" s="204" t="s">
         <v>152</v>
       </c>
@@ -17512,11 +17098,6 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17527,6 +17108,11 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4206,384 +4206,6 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4613,6 +4235,384 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7705,12 +7705,12 @@
       <c r="L1" s="125"/>
       <c r="M1" s="125"/>
       <c r="N1" s="125"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
       <c r="U1" s="125"/>
       <c r="V1" s="125"/>
       <c r="W1" s="125"/>
@@ -7727,56 +7727,56 @@
       <c r="AH1" s="125"/>
     </row>
     <row r="2" spans="2:53" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
       <c r="J2" s="127"/>
       <c r="K2" s="128"/>
-      <c r="L2" s="270" t="s">
+      <c r="L2" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="271" t="s">
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279" t="s">
         <v>266</v>
       </c>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="279"/>
+      <c r="S2" s="279"/>
       <c r="T2" s="129"/>
-      <c r="U2" s="272" t="s">
+      <c r="U2" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
+      <c r="V2" s="280"/>
+      <c r="W2" s="280"/>
+      <c r="X2" s="280"/>
+      <c r="Y2" s="280"/>
+      <c r="Z2" s="280"/>
       <c r="AA2" s="129"/>
-      <c r="AB2" s="269" t="s">
+      <c r="AB2" s="277" t="s">
         <v>269</v>
       </c>
-      <c r="AC2" s="269"/>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="269"/>
-      <c r="AG2" s="269"/>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="2:53" s="124" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="268"/>
+      <c r="C3" s="276"/>
       <c r="D3" s="249">
         <v>1</v>
       </c>
@@ -8083,10 +8083,10 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="122" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="266"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="251" t="s">
         <v>241</v>
       </c>
@@ -8219,10 +8219,10 @@
       <c r="AU5" s="135" t="s">
         <v>308</v>
       </c>
-      <c r="AV5" s="393" t="s">
+      <c r="AV5" s="267" t="s">
         <v>309</v>
       </c>
-      <c r="AW5" s="397" t="s">
+      <c r="AW5" s="271" t="s">
         <v>72</v>
       </c>
       <c r="AX5" s="223" t="s">
@@ -8234,7 +8234,7 @@
       <c r="AZ5" s="223" t="s">
         <v>313</v>
       </c>
-      <c r="BA5" s="393" t="s">
+      <c r="BA5" s="267" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8327,10 +8327,10 @@
       <c r="AU6" s="141"/>
       <c r="AV6" s="141"/>
       <c r="AW6" s="138"/>
-      <c r="AX6" s="390"/>
-      <c r="AY6" s="390"/>
+      <c r="AX6" s="264"/>
+      <c r="AY6" s="264"/>
       <c r="AZ6" s="141"/>
-      <c r="BA6" s="394"/>
+      <c r="BA6" s="268"/>
     </row>
     <row r="7" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="187" t="s">
@@ -8421,10 +8421,10 @@
       <c r="AU7" s="147"/>
       <c r="AV7" s="147"/>
       <c r="AW7" s="144"/>
-      <c r="AX7" s="391"/>
-      <c r="AY7" s="391"/>
+      <c r="AX7" s="265"/>
+      <c r="AY7" s="265"/>
       <c r="AZ7" s="147"/>
-      <c r="BA7" s="395"/>
+      <c r="BA7" s="269"/>
     </row>
     <row r="8" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="187" t="s">
@@ -8515,10 +8515,10 @@
       <c r="AU8" s="147"/>
       <c r="AV8" s="147"/>
       <c r="AW8" s="144"/>
-      <c r="AX8" s="391"/>
-      <c r="AY8" s="391"/>
+      <c r="AX8" s="265"/>
+      <c r="AY8" s="265"/>
       <c r="AZ8" s="147"/>
-      <c r="BA8" s="395"/>
+      <c r="BA8" s="269"/>
     </row>
     <row r="9" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="187" t="s">
@@ -8609,10 +8609,10 @@
       <c r="AU9" s="147"/>
       <c r="AV9" s="147"/>
       <c r="AW9" s="144"/>
-      <c r="AX9" s="391"/>
-      <c r="AY9" s="391"/>
+      <c r="AX9" s="265"/>
+      <c r="AY9" s="265"/>
       <c r="AZ9" s="147"/>
-      <c r="BA9" s="395"/>
+      <c r="BA9" s="269"/>
     </row>
     <row r="10" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="187" t="s">
@@ -8703,10 +8703,10 @@
       <c r="AU10" s="147"/>
       <c r="AV10" s="147"/>
       <c r="AW10" s="144"/>
-      <c r="AX10" s="391"/>
-      <c r="AY10" s="391"/>
+      <c r="AX10" s="265"/>
+      <c r="AY10" s="265"/>
       <c r="AZ10" s="147"/>
-      <c r="BA10" s="395"/>
+      <c r="BA10" s="269"/>
     </row>
     <row r="11" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="187" t="s">
@@ -8797,10 +8797,10 @@
       <c r="AU11" s="147"/>
       <c r="AV11" s="147"/>
       <c r="AW11" s="144"/>
-      <c r="AX11" s="391"/>
-      <c r="AY11" s="391"/>
+      <c r="AX11" s="265"/>
+      <c r="AY11" s="265"/>
       <c r="AZ11" s="147"/>
-      <c r="BA11" s="395"/>
+      <c r="BA11" s="269"/>
     </row>
     <row r="12" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="187" t="s">
@@ -8891,10 +8891,10 @@
       <c r="AU12" s="147"/>
       <c r="AV12" s="147"/>
       <c r="AW12" s="144"/>
-      <c r="AX12" s="391"/>
-      <c r="AY12" s="391"/>
+      <c r="AX12" s="265"/>
+      <c r="AY12" s="265"/>
       <c r="AZ12" s="147"/>
-      <c r="BA12" s="395"/>
+      <c r="BA12" s="269"/>
     </row>
     <row r="13" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="187" t="s">
@@ -8985,10 +8985,10 @@
       <c r="AU13" s="147"/>
       <c r="AV13" s="147"/>
       <c r="AW13" s="144"/>
-      <c r="AX13" s="391"/>
-      <c r="AY13" s="391"/>
+      <c r="AX13" s="265"/>
+      <c r="AY13" s="265"/>
       <c r="AZ13" s="147"/>
-      <c r="BA13" s="395"/>
+      <c r="BA13" s="269"/>
     </row>
     <row r="14" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="187" t="s">
@@ -9079,10 +9079,10 @@
       <c r="AU14" s="147"/>
       <c r="AV14" s="147"/>
       <c r="AW14" s="144"/>
-      <c r="AX14" s="391"/>
-      <c r="AY14" s="391"/>
+      <c r="AX14" s="265"/>
+      <c r="AY14" s="265"/>
       <c r="AZ14" s="147"/>
-      <c r="BA14" s="395"/>
+      <c r="BA14" s="269"/>
     </row>
     <row r="15" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="187" t="s">
@@ -9173,10 +9173,10 @@
       <c r="AU15" s="147"/>
       <c r="AV15" s="147"/>
       <c r="AW15" s="144"/>
-      <c r="AX15" s="391"/>
-      <c r="AY15" s="391"/>
+      <c r="AX15" s="265"/>
+      <c r="AY15" s="265"/>
       <c r="AZ15" s="147"/>
-      <c r="BA15" s="395"/>
+      <c r="BA15" s="269"/>
     </row>
     <row r="16" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="187" t="s">
@@ -9267,10 +9267,10 @@
       <c r="AU16" s="147"/>
       <c r="AV16" s="147"/>
       <c r="AW16" s="144"/>
-      <c r="AX16" s="391"/>
-      <c r="AY16" s="391"/>
+      <c r="AX16" s="265"/>
+      <c r="AY16" s="265"/>
       <c r="AZ16" s="147"/>
-      <c r="BA16" s="395"/>
+      <c r="BA16" s="269"/>
     </row>
     <row r="17" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="187"/>
@@ -9321,10 +9321,10 @@
       <c r="AU17" s="147"/>
       <c r="AV17" s="147"/>
       <c r="AW17" s="144"/>
-      <c r="AX17" s="391"/>
-      <c r="AY17" s="391"/>
+      <c r="AX17" s="265"/>
+      <c r="AY17" s="265"/>
       <c r="AZ17" s="147"/>
-      <c r="BA17" s="395"/>
+      <c r="BA17" s="269"/>
     </row>
     <row r="18" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="187"/>
@@ -9375,10 +9375,10 @@
       <c r="AU18" s="147"/>
       <c r="AV18" s="147"/>
       <c r="AW18" s="144"/>
-      <c r="AX18" s="391"/>
-      <c r="AY18" s="391"/>
+      <c r="AX18" s="265"/>
+      <c r="AY18" s="265"/>
       <c r="AZ18" s="147"/>
-      <c r="BA18" s="395"/>
+      <c r="BA18" s="269"/>
     </row>
     <row r="19" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="187"/>
@@ -9429,10 +9429,10 @@
       <c r="AU19" s="147"/>
       <c r="AV19" s="147"/>
       <c r="AW19" s="144"/>
-      <c r="AX19" s="391"/>
-      <c r="AY19" s="391"/>
+      <c r="AX19" s="265"/>
+      <c r="AY19" s="265"/>
       <c r="AZ19" s="147"/>
-      <c r="BA19" s="395"/>
+      <c r="BA19" s="269"/>
     </row>
     <row r="20" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="187"/>
@@ -9483,10 +9483,10 @@
       <c r="AU20" s="147"/>
       <c r="AV20" s="147"/>
       <c r="AW20" s="144"/>
-      <c r="AX20" s="391"/>
-      <c r="AY20" s="391"/>
+      <c r="AX20" s="265"/>
+      <c r="AY20" s="265"/>
       <c r="AZ20" s="147"/>
-      <c r="BA20" s="395"/>
+      <c r="BA20" s="269"/>
     </row>
     <row r="21" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="187"/>
@@ -9537,10 +9537,10 @@
       <c r="AU21" s="147"/>
       <c r="AV21" s="147"/>
       <c r="AW21" s="144"/>
-      <c r="AX21" s="391"/>
-      <c r="AY21" s="391"/>
+      <c r="AX21" s="265"/>
+      <c r="AY21" s="265"/>
       <c r="AZ21" s="147"/>
-      <c r="BA21" s="395"/>
+      <c r="BA21" s="269"/>
     </row>
     <row r="22" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="187"/>
@@ -9591,10 +9591,10 @@
       <c r="AU22" s="147"/>
       <c r="AV22" s="147"/>
       <c r="AW22" s="144"/>
-      <c r="AX22" s="391"/>
-      <c r="AY22" s="391"/>
+      <c r="AX22" s="265"/>
+      <c r="AY22" s="265"/>
       <c r="AZ22" s="147"/>
-      <c r="BA22" s="395"/>
+      <c r="BA22" s="269"/>
     </row>
     <row r="23" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="187"/>
@@ -9645,10 +9645,10 @@
       <c r="AU23" s="147"/>
       <c r="AV23" s="147"/>
       <c r="AW23" s="144"/>
-      <c r="AX23" s="391"/>
-      <c r="AY23" s="391"/>
+      <c r="AX23" s="265"/>
+      <c r="AY23" s="265"/>
       <c r="AZ23" s="147"/>
-      <c r="BA23" s="395"/>
+      <c r="BA23" s="269"/>
     </row>
     <row r="24" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="187"/>
@@ -9699,10 +9699,10 @@
       <c r="AU24" s="147"/>
       <c r="AV24" s="147"/>
       <c r="AW24" s="144"/>
-      <c r="AX24" s="391"/>
-      <c r="AY24" s="391"/>
+      <c r="AX24" s="265"/>
+      <c r="AY24" s="265"/>
       <c r="AZ24" s="147"/>
-      <c r="BA24" s="395"/>
+      <c r="BA24" s="269"/>
     </row>
     <row r="25" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="187"/>
@@ -9753,10 +9753,10 @@
       <c r="AU25" s="147"/>
       <c r="AV25" s="147"/>
       <c r="AW25" s="144"/>
-      <c r="AX25" s="391"/>
-      <c r="AY25" s="391"/>
+      <c r="AX25" s="265"/>
+      <c r="AY25" s="265"/>
       <c r="AZ25" s="147"/>
-      <c r="BA25" s="395"/>
+      <c r="BA25" s="269"/>
     </row>
     <row r="26" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="187"/>
@@ -9807,10 +9807,10 @@
       <c r="AU26" s="147"/>
       <c r="AV26" s="147"/>
       <c r="AW26" s="144"/>
-      <c r="AX26" s="391"/>
-      <c r="AY26" s="391"/>
+      <c r="AX26" s="265"/>
+      <c r="AY26" s="265"/>
       <c r="AZ26" s="147"/>
-      <c r="BA26" s="395"/>
+      <c r="BA26" s="269"/>
     </row>
     <row r="27" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="187"/>
@@ -9861,10 +9861,10 @@
       <c r="AU27" s="147"/>
       <c r="AV27" s="147"/>
       <c r="AW27" s="144"/>
-      <c r="AX27" s="391"/>
-      <c r="AY27" s="391"/>
+      <c r="AX27" s="265"/>
+      <c r="AY27" s="265"/>
       <c r="AZ27" s="147"/>
-      <c r="BA27" s="395"/>
+      <c r="BA27" s="269"/>
     </row>
     <row r="28" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="187"/>
@@ -9915,10 +9915,10 @@
       <c r="AU28" s="147"/>
       <c r="AV28" s="147"/>
       <c r="AW28" s="144"/>
-      <c r="AX28" s="391"/>
-      <c r="AY28" s="391"/>
+      <c r="AX28" s="265"/>
+      <c r="AY28" s="265"/>
       <c r="AZ28" s="147"/>
-      <c r="BA28" s="395"/>
+      <c r="BA28" s="269"/>
     </row>
     <row r="29" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="187"/>
@@ -9969,10 +9969,10 @@
       <c r="AU29" s="147"/>
       <c r="AV29" s="147"/>
       <c r="AW29" s="144"/>
-      <c r="AX29" s="391"/>
-      <c r="AY29" s="391"/>
+      <c r="AX29" s="265"/>
+      <c r="AY29" s="265"/>
       <c r="AZ29" s="147"/>
-      <c r="BA29" s="395"/>
+      <c r="BA29" s="269"/>
     </row>
     <row r="30" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="187"/>
@@ -10023,10 +10023,10 @@
       <c r="AU30" s="147"/>
       <c r="AV30" s="147"/>
       <c r="AW30" s="144"/>
-      <c r="AX30" s="391"/>
-      <c r="AY30" s="391"/>
+      <c r="AX30" s="265"/>
+      <c r="AY30" s="265"/>
       <c r="AZ30" s="147"/>
-      <c r="BA30" s="395"/>
+      <c r="BA30" s="269"/>
     </row>
     <row r="31" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="187"/>
@@ -10077,10 +10077,10 @@
       <c r="AU31" s="147"/>
       <c r="AV31" s="147"/>
       <c r="AW31" s="144"/>
-      <c r="AX31" s="391"/>
-      <c r="AY31" s="391"/>
+      <c r="AX31" s="265"/>
+      <c r="AY31" s="265"/>
       <c r="AZ31" s="147"/>
-      <c r="BA31" s="395"/>
+      <c r="BA31" s="269"/>
     </row>
     <row r="32" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="187"/>
@@ -10131,10 +10131,10 @@
       <c r="AU32" s="147"/>
       <c r="AV32" s="147"/>
       <c r="AW32" s="144"/>
-      <c r="AX32" s="391"/>
-      <c r="AY32" s="391"/>
+      <c r="AX32" s="265"/>
+      <c r="AY32" s="265"/>
       <c r="AZ32" s="147"/>
-      <c r="BA32" s="395"/>
+      <c r="BA32" s="269"/>
     </row>
     <row r="33" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="187"/>
@@ -10185,10 +10185,10 @@
       <c r="AU33" s="147"/>
       <c r="AV33" s="147"/>
       <c r="AW33" s="144"/>
-      <c r="AX33" s="391"/>
-      <c r="AY33" s="391"/>
+      <c r="AX33" s="265"/>
+      <c r="AY33" s="265"/>
       <c r="AZ33" s="147"/>
-      <c r="BA33" s="395"/>
+      <c r="BA33" s="269"/>
     </row>
     <row r="34" spans="1:53" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="188"/>
@@ -10239,10 +10239,10 @@
       <c r="AU34" s="152"/>
       <c r="AV34" s="152"/>
       <c r="AW34" s="150"/>
-      <c r="AX34" s="392"/>
-      <c r="AY34" s="392"/>
+      <c r="AX34" s="266"/>
+      <c r="AY34" s="266"/>
       <c r="AZ34" s="152"/>
-      <c r="BA34" s="396"/>
+      <c r="BA34" s="270"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="AH37" s="161" t="s">
@@ -10300,7 +10300,7 @@
       <c r="A52" s="126"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="O1:T1"/>
@@ -10353,27 +10353,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10403,27 +10403,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10637,64 +10637,64 @@
       <c r="Z2" s="163"/>
       <c r="AA2" s="163"/>
       <c r="AB2" s="163"/>
-      <c r="AC2" s="270" t="s">
+      <c r="AC2" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
-      <c r="AP2" s="270"/>
-      <c r="AQ2" s="270"/>
-      <c r="AR2" s="270"/>
-      <c r="AS2" s="270"/>
-      <c r="AT2" s="270"/>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="270"/>
-      <c r="AW2" s="270"/>
-      <c r="AX2" s="273" t="str">
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
+      <c r="AR2" s="278"/>
+      <c r="AS2" s="278"/>
+      <c r="AT2" s="278"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="278"/>
+      <c r="AW2" s="278"/>
+      <c r="AX2" s="346" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="273"/>
-      <c r="AZ2" s="273"/>
-      <c r="BA2" s="273"/>
-      <c r="BB2" s="273"/>
-      <c r="BC2" s="273"/>
-      <c r="BD2" s="273"/>
-      <c r="BE2" s="273"/>
-      <c r="BF2" s="273"/>
-      <c r="BG2" s="273"/>
-      <c r="BH2" s="273"/>
-      <c r="BI2" s="273"/>
-      <c r="BJ2" s="273"/>
-      <c r="BK2" s="273"/>
-      <c r="BL2" s="273"/>
-      <c r="BM2" s="273"/>
-      <c r="BN2" s="273"/>
-      <c r="BO2" s="273"/>
-      <c r="BP2" s="273"/>
-      <c r="BQ2" s="273"/>
-      <c r="BR2" s="273"/>
-      <c r="BS2" s="273"/>
-      <c r="BT2" s="273"/>
-      <c r="BU2" s="273"/>
-      <c r="BV2" s="273"/>
-      <c r="BW2" s="273"/>
-      <c r="BX2" s="273"/>
-      <c r="BY2" s="273"/>
-      <c r="BZ2" s="273"/>
-      <c r="CA2" s="273"/>
-      <c r="CB2" s="273"/>
-      <c r="CC2" s="273"/>
+      <c r="AY2" s="346"/>
+      <c r="AZ2" s="346"/>
+      <c r="BA2" s="346"/>
+      <c r="BB2" s="346"/>
+      <c r="BC2" s="346"/>
+      <c r="BD2" s="346"/>
+      <c r="BE2" s="346"/>
+      <c r="BF2" s="346"/>
+      <c r="BG2" s="346"/>
+      <c r="BH2" s="346"/>
+      <c r="BI2" s="346"/>
+      <c r="BJ2" s="346"/>
+      <c r="BK2" s="346"/>
+      <c r="BL2" s="346"/>
+      <c r="BM2" s="346"/>
+      <c r="BN2" s="346"/>
+      <c r="BO2" s="346"/>
+      <c r="BP2" s="346"/>
+      <c r="BQ2" s="346"/>
+      <c r="BR2" s="346"/>
+      <c r="BS2" s="346"/>
+      <c r="BT2" s="346"/>
+      <c r="BU2" s="346"/>
+      <c r="BV2" s="346"/>
+      <c r="BW2" s="346"/>
+      <c r="BX2" s="346"/>
+      <c r="BY2" s="346"/>
+      <c r="BZ2" s="346"/>
+      <c r="CA2" s="346"/>
+      <c r="CB2" s="346"/>
+      <c r="CC2" s="346"/>
       <c r="CD2" s="164"/>
       <c r="CE2" s="164"/>
       <c r="CF2" s="164"/>
@@ -10728,518 +10728,518 @@
       <c r="DH2" s="164"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276">
+      <c r="C3" s="348"/>
+      <c r="D3" s="288">
         <v>3</v>
       </c>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="280">
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="349"/>
+      <c r="I3" s="350">
         <v>13</v>
       </c>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="281"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="278">
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="351"/>
+      <c r="R3" s="351"/>
+      <c r="S3" s="351"/>
+      <c r="T3" s="351"/>
+      <c r="U3" s="351"/>
+      <c r="V3" s="351"/>
+      <c r="W3" s="351"/>
+      <c r="X3" s="351"/>
+      <c r="Y3" s="351"/>
+      <c r="Z3" s="351"/>
+      <c r="AA3" s="351"/>
+      <c r="AB3" s="352"/>
+      <c r="AC3" s="334">
         <v>24</v>
       </c>
-      <c r="AD3" s="276"/>
-      <c r="AE3" s="276"/>
-      <c r="AF3" s="276"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="276"/>
-      <c r="AJ3" s="276"/>
-      <c r="AK3" s="276"/>
-      <c r="AL3" s="276"/>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="276"/>
-      <c r="AO3" s="276"/>
-      <c r="AP3" s="276"/>
-      <c r="AQ3" s="276"/>
-      <c r="AR3" s="276"/>
-      <c r="AS3" s="276"/>
-      <c r="AT3" s="276"/>
-      <c r="AU3" s="276"/>
-      <c r="AV3" s="277"/>
-      <c r="AW3" s="278">
+      <c r="AD3" s="288"/>
+      <c r="AE3" s="288"/>
+      <c r="AF3" s="288"/>
+      <c r="AG3" s="288"/>
+      <c r="AH3" s="288"/>
+      <c r="AI3" s="288"/>
+      <c r="AJ3" s="288"/>
+      <c r="AK3" s="288"/>
+      <c r="AL3" s="288"/>
+      <c r="AM3" s="288"/>
+      <c r="AN3" s="288"/>
+      <c r="AO3" s="288"/>
+      <c r="AP3" s="288"/>
+      <c r="AQ3" s="288"/>
+      <c r="AR3" s="288"/>
+      <c r="AS3" s="288"/>
+      <c r="AT3" s="288"/>
+      <c r="AU3" s="288"/>
+      <c r="AV3" s="349"/>
+      <c r="AW3" s="334">
         <v>30</v>
       </c>
-      <c r="AX3" s="276"/>
-      <c r="AY3" s="276"/>
-      <c r="AZ3" s="276"/>
-      <c r="BA3" s="276"/>
-      <c r="BB3" s="276"/>
-      <c r="BC3" s="276"/>
-      <c r="BD3" s="276"/>
-      <c r="BE3" s="276"/>
-      <c r="BF3" s="277"/>
-      <c r="BG3" s="279">
+      <c r="AX3" s="288"/>
+      <c r="AY3" s="288"/>
+      <c r="AZ3" s="288"/>
+      <c r="BA3" s="288"/>
+      <c r="BB3" s="288"/>
+      <c r="BC3" s="288"/>
+      <c r="BD3" s="288"/>
+      <c r="BE3" s="288"/>
+      <c r="BF3" s="349"/>
+      <c r="BG3" s="333">
         <v>34</v>
       </c>
-      <c r="BH3" s="279"/>
-      <c r="BI3" s="278"/>
-      <c r="BJ3" s="278"/>
-      <c r="BK3" s="278"/>
-      <c r="BL3" s="278"/>
-      <c r="BM3" s="278"/>
-      <c r="BN3" s="278"/>
-      <c r="BO3" s="278"/>
-      <c r="BP3" s="278"/>
-      <c r="BQ3" s="279">
+      <c r="BH3" s="333"/>
+      <c r="BI3" s="334"/>
+      <c r="BJ3" s="334"/>
+      <c r="BK3" s="334"/>
+      <c r="BL3" s="334"/>
+      <c r="BM3" s="334"/>
+      <c r="BN3" s="334"/>
+      <c r="BO3" s="334"/>
+      <c r="BP3" s="334"/>
+      <c r="BQ3" s="333">
         <v>40</v>
       </c>
-      <c r="BR3" s="279"/>
-      <c r="BS3" s="278"/>
-      <c r="BT3" s="278"/>
-      <c r="BU3" s="278"/>
-      <c r="BV3" s="278"/>
-      <c r="BW3" s="278"/>
-      <c r="BX3" s="278"/>
-      <c r="BY3" s="278"/>
-      <c r="BZ3" s="278"/>
-      <c r="CA3" s="279">
+      <c r="BR3" s="333"/>
+      <c r="BS3" s="334"/>
+      <c r="BT3" s="334"/>
+      <c r="BU3" s="334"/>
+      <c r="BV3" s="334"/>
+      <c r="BW3" s="334"/>
+      <c r="BX3" s="334"/>
+      <c r="BY3" s="334"/>
+      <c r="BZ3" s="334"/>
+      <c r="CA3" s="333">
         <v>43</v>
       </c>
-      <c r="CB3" s="279"/>
-      <c r="CC3" s="278"/>
-      <c r="CD3" s="278"/>
-      <c r="CE3" s="278"/>
-      <c r="CF3" s="278"/>
-      <c r="CG3" s="278"/>
-      <c r="CH3" s="278"/>
-      <c r="CI3" s="278"/>
-      <c r="CJ3" s="279"/>
-      <c r="CK3" s="276">
+      <c r="CB3" s="333"/>
+      <c r="CC3" s="334"/>
+      <c r="CD3" s="334"/>
+      <c r="CE3" s="334"/>
+      <c r="CF3" s="334"/>
+      <c r="CG3" s="334"/>
+      <c r="CH3" s="334"/>
+      <c r="CI3" s="334"/>
+      <c r="CJ3" s="333"/>
+      <c r="CK3" s="288">
         <v>46</v>
       </c>
-      <c r="CL3" s="276"/>
-      <c r="CM3" s="276"/>
-      <c r="CN3" s="276"/>
-      <c r="CO3" s="276"/>
-      <c r="CP3" s="276"/>
-      <c r="CQ3" s="276"/>
-      <c r="CR3" s="276"/>
-      <c r="CS3" s="276"/>
-      <c r="CT3" s="276"/>
-      <c r="CU3" s="276"/>
-      <c r="CV3" s="276"/>
-      <c r="CW3" s="276"/>
-      <c r="CX3" s="276"/>
-      <c r="CY3" s="341"/>
+      <c r="CL3" s="288"/>
+      <c r="CM3" s="288"/>
+      <c r="CN3" s="288"/>
+      <c r="CO3" s="288"/>
+      <c r="CP3" s="288"/>
+      <c r="CQ3" s="288"/>
+      <c r="CR3" s="288"/>
+      <c r="CS3" s="288"/>
+      <c r="CT3" s="288"/>
+      <c r="CU3" s="288"/>
+      <c r="CV3" s="288"/>
+      <c r="CW3" s="288"/>
+      <c r="CX3" s="288"/>
+      <c r="CY3" s="289"/>
       <c r="CZ3" s="242"/>
       <c r="DA3" s="243"/>
     </row>
     <row r="4" spans="2:113" s="233" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="286"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="288">
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="282">
         <v>43107</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="297">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="343">
         <v>43490</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
-      <c r="Z4" s="298"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="299"/>
-      <c r="AC4" s="291">
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="344"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="344"/>
+      <c r="V4" s="344"/>
+      <c r="W4" s="344"/>
+      <c r="X4" s="344"/>
+      <c r="Y4" s="344"/>
+      <c r="Z4" s="344"/>
+      <c r="AA4" s="344"/>
+      <c r="AB4" s="345"/>
+      <c r="AC4" s="337">
         <v>43144</v>
       </c>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
-      <c r="AI4" s="292"/>
-      <c r="AJ4" s="292"/>
-      <c r="AK4" s="292"/>
-      <c r="AL4" s="292"/>
-      <c r="AM4" s="292"/>
-      <c r="AN4" s="292"/>
-      <c r="AO4" s="292"/>
-      <c r="AP4" s="292"/>
-      <c r="AQ4" s="292"/>
-      <c r="AR4" s="292"/>
-      <c r="AS4" s="292"/>
-      <c r="AT4" s="292"/>
-      <c r="AU4" s="292"/>
-      <c r="AV4" s="293"/>
-      <c r="AW4" s="294">
+      <c r="AD4" s="338"/>
+      <c r="AE4" s="338"/>
+      <c r="AF4" s="338"/>
+      <c r="AG4" s="338"/>
+      <c r="AH4" s="338"/>
+      <c r="AI4" s="338"/>
+      <c r="AJ4" s="338"/>
+      <c r="AK4" s="338"/>
+      <c r="AL4" s="338"/>
+      <c r="AM4" s="338"/>
+      <c r="AN4" s="338"/>
+      <c r="AO4" s="338"/>
+      <c r="AP4" s="338"/>
+      <c r="AQ4" s="338"/>
+      <c r="AR4" s="338"/>
+      <c r="AS4" s="338"/>
+      <c r="AT4" s="338"/>
+      <c r="AU4" s="338"/>
+      <c r="AV4" s="339"/>
+      <c r="AW4" s="340">
         <v>43154</v>
       </c>
-      <c r="AX4" s="295"/>
-      <c r="AY4" s="295"/>
-      <c r="AZ4" s="295"/>
-      <c r="BA4" s="295"/>
-      <c r="BB4" s="295"/>
-      <c r="BC4" s="295"/>
-      <c r="BD4" s="295"/>
-      <c r="BE4" s="295"/>
-      <c r="BF4" s="296"/>
-      <c r="BG4" s="309">
+      <c r="AX4" s="341"/>
+      <c r="AY4" s="341"/>
+      <c r="AZ4" s="341"/>
+      <c r="BA4" s="341"/>
+      <c r="BB4" s="341"/>
+      <c r="BC4" s="341"/>
+      <c r="BD4" s="341"/>
+      <c r="BE4" s="341"/>
+      <c r="BF4" s="342"/>
+      <c r="BG4" s="310">
         <v>43162</v>
       </c>
-      <c r="BH4" s="310"/>
-      <c r="BI4" s="310"/>
-      <c r="BJ4" s="310"/>
-      <c r="BK4" s="310"/>
-      <c r="BL4" s="310"/>
-      <c r="BM4" s="310"/>
-      <c r="BN4" s="310"/>
-      <c r="BO4" s="310"/>
-      <c r="BP4" s="311"/>
-      <c r="BQ4" s="283">
+      <c r="BH4" s="311"/>
+      <c r="BI4" s="311"/>
+      <c r="BJ4" s="311"/>
+      <c r="BK4" s="311"/>
+      <c r="BL4" s="311"/>
+      <c r="BM4" s="311"/>
+      <c r="BN4" s="311"/>
+      <c r="BO4" s="311"/>
+      <c r="BP4" s="312"/>
+      <c r="BQ4" s="330">
         <v>43172</v>
       </c>
-      <c r="BR4" s="284"/>
-      <c r="BS4" s="284"/>
-      <c r="BT4" s="284"/>
-      <c r="BU4" s="284"/>
-      <c r="BV4" s="284"/>
-      <c r="BW4" s="284"/>
-      <c r="BX4" s="284"/>
-      <c r="BY4" s="284"/>
-      <c r="BZ4" s="285"/>
-      <c r="CA4" s="306">
+      <c r="BR4" s="331"/>
+      <c r="BS4" s="331"/>
+      <c r="BT4" s="331"/>
+      <c r="BU4" s="331"/>
+      <c r="BV4" s="331"/>
+      <c r="BW4" s="331"/>
+      <c r="BX4" s="331"/>
+      <c r="BY4" s="331"/>
+      <c r="BZ4" s="332"/>
+      <c r="CA4" s="307">
         <v>43179</v>
       </c>
-      <c r="CB4" s="307"/>
-      <c r="CC4" s="307"/>
-      <c r="CD4" s="307"/>
-      <c r="CE4" s="307"/>
-      <c r="CF4" s="307"/>
-      <c r="CG4" s="307"/>
-      <c r="CH4" s="307"/>
-      <c r="CI4" s="307"/>
-      <c r="CJ4" s="308"/>
-      <c r="CK4" s="288">
+      <c r="CB4" s="308"/>
+      <c r="CC4" s="308"/>
+      <c r="CD4" s="308"/>
+      <c r="CE4" s="308"/>
+      <c r="CF4" s="308"/>
+      <c r="CG4" s="308"/>
+      <c r="CH4" s="308"/>
+      <c r="CI4" s="308"/>
+      <c r="CJ4" s="309"/>
+      <c r="CK4" s="282">
         <v>43181</v>
       </c>
-      <c r="CL4" s="289"/>
-      <c r="CM4" s="289"/>
-      <c r="CN4" s="289"/>
-      <c r="CO4" s="289"/>
-      <c r="CP4" s="289"/>
-      <c r="CQ4" s="289"/>
-      <c r="CR4" s="289"/>
-      <c r="CS4" s="289"/>
-      <c r="CT4" s="289"/>
-      <c r="CU4" s="289"/>
-      <c r="CV4" s="289"/>
-      <c r="CW4" s="289"/>
-      <c r="CX4" s="289"/>
-      <c r="CY4" s="290"/>
+      <c r="CL4" s="283"/>
+      <c r="CM4" s="283"/>
+      <c r="CN4" s="283"/>
+      <c r="CO4" s="283"/>
+      <c r="CP4" s="283"/>
+      <c r="CQ4" s="283"/>
+      <c r="CR4" s="283"/>
+      <c r="CS4" s="283"/>
+      <c r="CT4" s="283"/>
+      <c r="CU4" s="283"/>
+      <c r="CV4" s="283"/>
+      <c r="CW4" s="283"/>
+      <c r="CX4" s="283"/>
+      <c r="CY4" s="284"/>
       <c r="CZ4" s="236"/>
       <c r="DA4" s="237"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="295" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314" t="s">
+      <c r="C5" s="296"/>
+      <c r="D5" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="303" t="s">
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="304" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
-      <c r="T5" s="304"/>
-      <c r="U5" s="304"/>
-      <c r="V5" s="304"/>
-      <c r="W5" s="304"/>
-      <c r="X5" s="304"/>
-      <c r="Y5" s="304"/>
-      <c r="Z5" s="304"/>
-      <c r="AA5" s="304"/>
-      <c r="AB5" s="305"/>
-      <c r="AC5" s="334" t="s">
+      <c r="J5" s="305"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="305"/>
+      <c r="R5" s="305"/>
+      <c r="S5" s="305"/>
+      <c r="T5" s="305"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="305"/>
+      <c r="X5" s="305"/>
+      <c r="Y5" s="305"/>
+      <c r="Z5" s="305"/>
+      <c r="AA5" s="305"/>
+      <c r="AB5" s="306"/>
+      <c r="AC5" s="327" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="335"/>
-      <c r="AE5" s="335"/>
-      <c r="AF5" s="335"/>
-      <c r="AG5" s="335"/>
-      <c r="AH5" s="335"/>
-      <c r="AI5" s="335"/>
-      <c r="AJ5" s="335"/>
-      <c r="AK5" s="335"/>
-      <c r="AL5" s="335"/>
-      <c r="AM5" s="335"/>
-      <c r="AN5" s="335"/>
-      <c r="AO5" s="335"/>
-      <c r="AP5" s="335"/>
-      <c r="AQ5" s="335"/>
-      <c r="AR5" s="335"/>
-      <c r="AS5" s="335"/>
-      <c r="AT5" s="335"/>
-      <c r="AU5" s="335"/>
-      <c r="AV5" s="336"/>
-      <c r="AW5" s="320" t="s">
+      <c r="AD5" s="328"/>
+      <c r="AE5" s="328"/>
+      <c r="AF5" s="328"/>
+      <c r="AG5" s="328"/>
+      <c r="AH5" s="328"/>
+      <c r="AI5" s="328"/>
+      <c r="AJ5" s="328"/>
+      <c r="AK5" s="328"/>
+      <c r="AL5" s="328"/>
+      <c r="AM5" s="328"/>
+      <c r="AN5" s="328"/>
+      <c r="AO5" s="328"/>
+      <c r="AP5" s="328"/>
+      <c r="AQ5" s="328"/>
+      <c r="AR5" s="328"/>
+      <c r="AS5" s="328"/>
+      <c r="AT5" s="328"/>
+      <c r="AU5" s="328"/>
+      <c r="AV5" s="329"/>
+      <c r="AW5" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="321"/>
-      <c r="AY5" s="321"/>
-      <c r="AZ5" s="321"/>
-      <c r="BA5" s="321"/>
-      <c r="BB5" s="321"/>
-      <c r="BC5" s="321"/>
-      <c r="BD5" s="321"/>
-      <c r="BE5" s="321"/>
-      <c r="BF5" s="322"/>
-      <c r="BG5" s="326" t="s">
+      <c r="AX5" s="316"/>
+      <c r="AY5" s="316"/>
+      <c r="AZ5" s="316"/>
+      <c r="BA5" s="316"/>
+      <c r="BB5" s="316"/>
+      <c r="BC5" s="316"/>
+      <c r="BD5" s="316"/>
+      <c r="BE5" s="316"/>
+      <c r="BF5" s="317"/>
+      <c r="BG5" s="321" t="s">
         <v>263</v>
       </c>
-      <c r="BH5" s="327"/>
-      <c r="BI5" s="327"/>
-      <c r="BJ5" s="327"/>
-      <c r="BK5" s="327"/>
-      <c r="BL5" s="327"/>
-      <c r="BM5" s="327"/>
-      <c r="BN5" s="327"/>
-      <c r="BO5" s="327"/>
-      <c r="BP5" s="328"/>
-      <c r="BQ5" s="329" t="s">
+      <c r="BH5" s="322"/>
+      <c r="BI5" s="322"/>
+      <c r="BJ5" s="322"/>
+      <c r="BK5" s="322"/>
+      <c r="BL5" s="322"/>
+      <c r="BM5" s="322"/>
+      <c r="BN5" s="322"/>
+      <c r="BO5" s="322"/>
+      <c r="BP5" s="323"/>
+      <c r="BQ5" s="324" t="s">
         <v>264</v>
       </c>
-      <c r="BR5" s="330"/>
-      <c r="BS5" s="330"/>
-      <c r="BT5" s="330"/>
-      <c r="BU5" s="330"/>
-      <c r="BV5" s="330"/>
-      <c r="BW5" s="330"/>
-      <c r="BX5" s="330"/>
-      <c r="BY5" s="330"/>
-      <c r="BZ5" s="331"/>
-      <c r="CA5" s="323" t="s">
+      <c r="BR5" s="325"/>
+      <c r="BS5" s="325"/>
+      <c r="BT5" s="325"/>
+      <c r="BU5" s="325"/>
+      <c r="BV5" s="325"/>
+      <c r="BW5" s="325"/>
+      <c r="BX5" s="325"/>
+      <c r="BY5" s="325"/>
+      <c r="BZ5" s="326"/>
+      <c r="CA5" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="CB5" s="324"/>
-      <c r="CC5" s="324"/>
-      <c r="CD5" s="324"/>
-      <c r="CE5" s="324"/>
-      <c r="CF5" s="324"/>
-      <c r="CG5" s="324"/>
-      <c r="CH5" s="324"/>
-      <c r="CI5" s="324"/>
-      <c r="CJ5" s="325"/>
-      <c r="CK5" s="338" t="s">
+      <c r="CB5" s="319"/>
+      <c r="CC5" s="319"/>
+      <c r="CD5" s="319"/>
+      <c r="CE5" s="319"/>
+      <c r="CF5" s="319"/>
+      <c r="CG5" s="319"/>
+      <c r="CH5" s="319"/>
+      <c r="CI5" s="319"/>
+      <c r="CJ5" s="320"/>
+      <c r="CK5" s="285" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="339"/>
-      <c r="CM5" s="339"/>
-      <c r="CN5" s="339"/>
-      <c r="CO5" s="339"/>
-      <c r="CP5" s="339"/>
-      <c r="CQ5" s="339"/>
-      <c r="CR5" s="339"/>
-      <c r="CS5" s="339"/>
-      <c r="CT5" s="339"/>
-      <c r="CU5" s="339"/>
-      <c r="CV5" s="339"/>
-      <c r="CW5" s="339"/>
-      <c r="CX5" s="339"/>
-      <c r="CY5" s="340"/>
+      <c r="CL5" s="286"/>
+      <c r="CM5" s="286"/>
+      <c r="CN5" s="286"/>
+      <c r="CO5" s="286"/>
+      <c r="CP5" s="286"/>
+      <c r="CQ5" s="286"/>
+      <c r="CR5" s="286"/>
+      <c r="CS5" s="286"/>
+      <c r="CT5" s="286"/>
+      <c r="CU5" s="286"/>
+      <c r="CV5" s="286"/>
+      <c r="CW5" s="286"/>
+      <c r="CX5" s="286"/>
+      <c r="CY5" s="287"/>
       <c r="CZ5" s="238"/>
       <c r="DA5" s="239"/>
     </row>
     <row r="6" spans="2:113" s="165" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="234"/>
       <c r="C6" s="235"/>
-      <c r="D6" s="317" t="s">
+      <c r="D6" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="300" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="301" t="s">
         <v>271</v>
       </c>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="300" t="s">
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="300" t="s">
+      <c r="O6" s="302"/>
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="301" t="s">
         <v>274</v>
       </c>
-      <c r="T6" s="301"/>
-      <c r="U6" s="301"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="302"/>
-      <c r="X6" s="300" t="s">
+      <c r="T6" s="302"/>
+      <c r="U6" s="302"/>
+      <c r="V6" s="302"/>
+      <c r="W6" s="303"/>
+      <c r="X6" s="301" t="s">
         <v>275</v>
       </c>
-      <c r="Y6" s="301"/>
-      <c r="Z6" s="301"/>
-      <c r="AA6" s="301"/>
-      <c r="AB6" s="302"/>
-      <c r="AC6" s="333" t="s">
+      <c r="Y6" s="302"/>
+      <c r="Z6" s="302"/>
+      <c r="AA6" s="302"/>
+      <c r="AB6" s="303"/>
+      <c r="AC6" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="333"/>
-      <c r="AE6" s="333"/>
-      <c r="AF6" s="333"/>
-      <c r="AG6" s="333"/>
-      <c r="AH6" s="333" t="s">
+      <c r="AD6" s="281"/>
+      <c r="AE6" s="281"/>
+      <c r="AF6" s="281"/>
+      <c r="AG6" s="281"/>
+      <c r="AH6" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="333"/>
-      <c r="AJ6" s="333"/>
-      <c r="AK6" s="333"/>
-      <c r="AL6" s="333"/>
-      <c r="AM6" s="333" t="s">
+      <c r="AI6" s="281"/>
+      <c r="AJ6" s="281"/>
+      <c r="AK6" s="281"/>
+      <c r="AL6" s="281"/>
+      <c r="AM6" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="333"/>
-      <c r="AQ6" s="333"/>
-      <c r="AR6" s="333" t="s">
+      <c r="AN6" s="281"/>
+      <c r="AO6" s="281"/>
+      <c r="AP6" s="281"/>
+      <c r="AQ6" s="281"/>
+      <c r="AR6" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="333"/>
-      <c r="AT6" s="333"/>
-      <c r="AU6" s="333"/>
-      <c r="AV6" s="333"/>
-      <c r="AW6" s="337" t="s">
+      <c r="AS6" s="281"/>
+      <c r="AT6" s="281"/>
+      <c r="AU6" s="281"/>
+      <c r="AV6" s="281"/>
+      <c r="AW6" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="337"/>
-      <c r="AY6" s="337"/>
-      <c r="AZ6" s="337"/>
-      <c r="BA6" s="337"/>
-      <c r="BB6" s="337" t="s">
+      <c r="AX6" s="294"/>
+      <c r="AY6" s="294"/>
+      <c r="AZ6" s="294"/>
+      <c r="BA6" s="294"/>
+      <c r="BB6" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="337"/>
-      <c r="BD6" s="337"/>
-      <c r="BE6" s="337"/>
-      <c r="BF6" s="337"/>
-      <c r="BG6" s="319" t="s">
+      <c r="BC6" s="294"/>
+      <c r="BD6" s="294"/>
+      <c r="BE6" s="294"/>
+      <c r="BF6" s="294"/>
+      <c r="BG6" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="319"/>
-      <c r="BI6" s="319"/>
-      <c r="BJ6" s="319"/>
-      <c r="BK6" s="319"/>
-      <c r="BL6" s="319" t="s">
+      <c r="BH6" s="314"/>
+      <c r="BI6" s="314"/>
+      <c r="BJ6" s="314"/>
+      <c r="BK6" s="314"/>
+      <c r="BL6" s="314" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="319"/>
-      <c r="BN6" s="319"/>
-      <c r="BO6" s="319"/>
-      <c r="BP6" s="319"/>
-      <c r="BQ6" s="332" t="s">
+      <c r="BM6" s="314"/>
+      <c r="BN6" s="314"/>
+      <c r="BO6" s="314"/>
+      <c r="BP6" s="314"/>
+      <c r="BQ6" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="332"/>
-      <c r="BS6" s="332"/>
-      <c r="BT6" s="332"/>
-      <c r="BU6" s="332"/>
-      <c r="BV6" s="332" t="s">
+      <c r="BR6" s="293"/>
+      <c r="BS6" s="293"/>
+      <c r="BT6" s="293"/>
+      <c r="BU6" s="293"/>
+      <c r="BV6" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="332"/>
-      <c r="BX6" s="332"/>
-      <c r="BY6" s="332"/>
-      <c r="BZ6" s="332"/>
-      <c r="CA6" s="318" t="s">
+      <c r="BW6" s="293"/>
+      <c r="BX6" s="293"/>
+      <c r="BY6" s="293"/>
+      <c r="BZ6" s="293"/>
+      <c r="CA6" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="318"/>
-      <c r="CC6" s="318"/>
-      <c r="CD6" s="318"/>
-      <c r="CE6" s="318"/>
-      <c r="CF6" s="318" t="s">
+      <c r="CB6" s="313"/>
+      <c r="CC6" s="313"/>
+      <c r="CD6" s="313"/>
+      <c r="CE6" s="313"/>
+      <c r="CF6" s="313" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="318"/>
-      <c r="CH6" s="318"/>
-      <c r="CI6" s="318"/>
-      <c r="CJ6" s="318"/>
-      <c r="CK6" s="342" t="s">
+      <c r="CG6" s="313"/>
+      <c r="CH6" s="313"/>
+      <c r="CI6" s="313"/>
+      <c r="CJ6" s="313"/>
+      <c r="CK6" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="343"/>
-      <c r="CM6" s="343"/>
-      <c r="CN6" s="343"/>
-      <c r="CO6" s="344"/>
-      <c r="CP6" s="342" t="s">
+      <c r="CL6" s="291"/>
+      <c r="CM6" s="291"/>
+      <c r="CN6" s="291"/>
+      <c r="CO6" s="292"/>
+      <c r="CP6" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="343"/>
-      <c r="CR6" s="343"/>
-      <c r="CS6" s="343"/>
-      <c r="CT6" s="344"/>
-      <c r="CU6" s="342" t="s">
+      <c r="CQ6" s="291"/>
+      <c r="CR6" s="291"/>
+      <c r="CS6" s="291"/>
+      <c r="CT6" s="292"/>
+      <c r="CU6" s="290" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="343"/>
-      <c r="CW6" s="343"/>
-      <c r="CX6" s="343"/>
-      <c r="CY6" s="344"/>
+      <c r="CV6" s="291"/>
+      <c r="CW6" s="291"/>
+      <c r="CX6" s="291"/>
+      <c r="CY6" s="292"/>
       <c r="CZ6" s="240" t="s">
         <v>77</v>
       </c>
@@ -15143,23 +15143,20 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="49">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:AB3"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:AB4"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I5:AB5"/>
@@ -15176,22 +15173,25 @@
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="AH6:AL6"/>
     <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
     <mergeCell ref="BQ4:BZ4"/>
     <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:AB4"/>
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:AB3"/>
-    <mergeCell ref="BG3:BP3"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -15335,8 +15335,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15355,32 +15380,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16004,14 +16004,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="356" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="358"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16056,14 +16056,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="345" t="s">
+      <c r="A7" s="356" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="347"/>
+      <c r="B7" s="357"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16076,11 +16076,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="348" t="s">
+      <c r="D8" s="359" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="349"/>
-      <c r="F8" s="350"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16104,27 +16104,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="346"/>
-      <c r="C11" s="346"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="346"/>
-      <c r="F11" s="347"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="358"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="362" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="353"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="364"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16140,25 +16140,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="356" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="346"/>
-      <c r="C15" s="346"/>
-      <c r="D15" s="346"/>
-      <c r="E15" s="346"/>
-      <c r="F15" s="347"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="354"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="E16" s="355"/>
-      <c r="F16" s="356"/>
+      <c r="B16" s="353"/>
+      <c r="C16" s="354"/>
+      <c r="D16" s="354"/>
+      <c r="E16" s="354"/>
+      <c r="F16" s="355"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16174,25 +16174,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="345" t="s">
+      <c r="A19" s="356" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="346"/>
-      <c r="C19" s="346"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="346"/>
-      <c r="F19" s="347"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="358"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="354"/>
-      <c r="C20" s="355"/>
-      <c r="D20" s="355"/>
-      <c r="E20" s="355"/>
-      <c r="F20" s="356"/>
+      <c r="B20" s="353"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="355"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16208,25 +16208,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="345" t="s">
+      <c r="A23" s="356" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="346"/>
-      <c r="C23" s="346"/>
-      <c r="D23" s="346"/>
-      <c r="E23" s="346"/>
-      <c r="F23" s="347"/>
+      <c r="B23" s="357"/>
+      <c r="C23" s="357"/>
+      <c r="D23" s="357"/>
+      <c r="E23" s="357"/>
+      <c r="F23" s="358"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
-      <c r="D24" s="355"/>
-      <c r="E24" s="355"/>
-      <c r="F24" s="356"/>
+      <c r="B24" s="353"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="354"/>
+      <c r="F24" s="355"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16242,27 +16242,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="345" t="s">
+      <c r="A27" s="356" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="346"/>
-      <c r="C27" s="346"/>
-      <c r="D27" s="346"/>
-      <c r="E27" s="346"/>
-      <c r="F27" s="347"/>
+      <c r="B27" s="357"/>
+      <c r="C27" s="357"/>
+      <c r="D27" s="357"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="358"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="354" t="s">
+      <c r="B28" s="353" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="355"/>
-      <c r="F28" s="356"/>
+      <c r="C28" s="354"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="354"/>
+      <c r="F28" s="355"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -16278,6 +16278,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16285,12 +16291,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16334,10 +16334,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="360"/>
+      <c r="D3" s="368"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16399,35 +16399,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="369" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="363"/>
-      <c r="C11" s="364"/>
+      <c r="B11" s="371"/>
+      <c r="C11" s="372"/>
       <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="367"/>
-      <c r="F11" s="368"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="376"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="362"/>
-      <c r="B12" s="365"/>
-      <c r="C12" s="366"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="373"/>
+      <c r="C12" s="374"/>
       <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="367"/>
-      <c r="F12" s="368"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="376"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="357" t="s">
+      <c r="B14" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="359"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="367"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16493,30 +16493,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="381">
+      <c r="E3" s="378">
         <v>5665</v>
       </c>
-      <c r="F3" s="381"/>
+      <c r="F3" s="378"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="381" t="s">
+      <c r="I3" s="378" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="381" t="s">
+      <c r="P3" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="381"/>
-      <c r="R3" s="381"/>
-      <c r="S3" s="381"/>
-      <c r="T3" s="381"/>
+      <c r="Q3" s="378"/>
+      <c r="R3" s="378"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -16527,10 +16527,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="380" t="s">
+      <c r="AF3" s="377" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="380"/>
+      <c r="AG3" s="377"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -17123,153 +17123,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="372" t="s">
+      <c r="B18" s="382" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="373"/>
-      <c r="D18" s="369" t="s">
+      <c r="C18" s="383"/>
+      <c r="D18" s="379" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="370"/>
-      <c r="F18" s="370"/>
-      <c r="G18" s="370"/>
-      <c r="H18" s="370"/>
-      <c r="I18" s="370"/>
-      <c r="J18" s="370"/>
-      <c r="K18" s="370"/>
-      <c r="L18" s="370"/>
-      <c r="M18" s="370"/>
-      <c r="N18" s="370"/>
-      <c r="O18" s="370"/>
-      <c r="P18" s="370"/>
-      <c r="Q18" s="370"/>
-      <c r="R18" s="370"/>
-      <c r="S18" s="370"/>
-      <c r="T18" s="370"/>
-      <c r="U18" s="370"/>
-      <c r="V18" s="370"/>
-      <c r="W18" s="371"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="380"/>
+      <c r="K18" s="380"/>
+      <c r="L18" s="380"/>
+      <c r="M18" s="380"/>
+      <c r="N18" s="380"/>
+      <c r="O18" s="380"/>
+      <c r="P18" s="380"/>
+      <c r="Q18" s="380"/>
+      <c r="R18" s="380"/>
+      <c r="S18" s="380"/>
+      <c r="T18" s="380"/>
+      <c r="U18" s="380"/>
+      <c r="V18" s="380"/>
+      <c r="W18" s="381"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="374">
-        <v>2</v>
-      </c>
-      <c r="C19" s="375"/>
-      <c r="D19" s="369" t="s">
+      <c r="B19" s="384">
+        <v>2</v>
+      </c>
+      <c r="C19" s="385"/>
+      <c r="D19" s="379" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="370"/>
-      <c r="F19" s="370"/>
-      <c r="G19" s="370"/>
-      <c r="H19" s="370"/>
-      <c r="I19" s="370"/>
-      <c r="J19" s="370"/>
-      <c r="K19" s="370"/>
-      <c r="L19" s="370"/>
-      <c r="M19" s="370"/>
-      <c r="N19" s="370"/>
-      <c r="O19" s="370"/>
-      <c r="P19" s="370"/>
-      <c r="Q19" s="370"/>
-      <c r="R19" s="370"/>
-      <c r="S19" s="370"/>
-      <c r="T19" s="370"/>
-      <c r="U19" s="370"/>
-      <c r="V19" s="370"/>
-      <c r="W19" s="371"/>
+      <c r="E19" s="380"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="380"/>
+      <c r="H19" s="380"/>
+      <c r="I19" s="380"/>
+      <c r="J19" s="380"/>
+      <c r="K19" s="380"/>
+      <c r="L19" s="380"/>
+      <c r="M19" s="380"/>
+      <c r="N19" s="380"/>
+      <c r="O19" s="380"/>
+      <c r="P19" s="380"/>
+      <c r="Q19" s="380"/>
+      <c r="R19" s="380"/>
+      <c r="S19" s="380"/>
+      <c r="T19" s="380"/>
+      <c r="U19" s="380"/>
+      <c r="V19" s="380"/>
+      <c r="W19" s="381"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="376">
+      <c r="B20" s="386">
         <v>3</v>
       </c>
-      <c r="C20" s="377"/>
-      <c r="D20" s="369" t="s">
+      <c r="C20" s="387"/>
+      <c r="D20" s="379" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="370"/>
-      <c r="F20" s="370"/>
-      <c r="G20" s="370"/>
-      <c r="H20" s="370"/>
-      <c r="I20" s="370"/>
-      <c r="J20" s="370"/>
-      <c r="K20" s="370"/>
-      <c r="L20" s="370"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="370"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="370"/>
-      <c r="U20" s="370"/>
-      <c r="V20" s="370"/>
-      <c r="W20" s="371"/>
+      <c r="E20" s="380"/>
+      <c r="F20" s="380"/>
+      <c r="G20" s="380"/>
+      <c r="H20" s="380"/>
+      <c r="I20" s="380"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="380"/>
+      <c r="L20" s="380"/>
+      <c r="M20" s="380"/>
+      <c r="N20" s="380"/>
+      <c r="O20" s="380"/>
+      <c r="P20" s="380"/>
+      <c r="Q20" s="380"/>
+      <c r="R20" s="380"/>
+      <c r="S20" s="380"/>
+      <c r="T20" s="380"/>
+      <c r="U20" s="380"/>
+      <c r="V20" s="380"/>
+      <c r="W20" s="381"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="378">
+      <c r="B21" s="388">
         <v>4</v>
       </c>
-      <c r="C21" s="379"/>
-      <c r="D21" s="369" t="s">
+      <c r="C21" s="389"/>
+      <c r="D21" s="379" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="370"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="370"/>
-      <c r="H21" s="370"/>
-      <c r="I21" s="370"/>
-      <c r="J21" s="370"/>
-      <c r="K21" s="370"/>
-      <c r="L21" s="370"/>
-      <c r="M21" s="370"/>
-      <c r="N21" s="370"/>
-      <c r="O21" s="370"/>
-      <c r="P21" s="370"/>
-      <c r="Q21" s="370"/>
-      <c r="R21" s="370"/>
-      <c r="S21" s="370"/>
-      <c r="T21" s="370"/>
-      <c r="U21" s="370"/>
-      <c r="V21" s="370"/>
-      <c r="W21" s="371"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="380"/>
+      <c r="L21" s="380"/>
+      <c r="M21" s="380"/>
+      <c r="N21" s="380"/>
+      <c r="O21" s="380"/>
+      <c r="P21" s="380"/>
+      <c r="Q21" s="380"/>
+      <c r="R21" s="380"/>
+      <c r="S21" s="380"/>
+      <c r="T21" s="380"/>
+      <c r="U21" s="380"/>
+      <c r="V21" s="380"/>
+      <c r="W21" s="381"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="378">
+      <c r="B22" s="388">
         <v>5</v>
       </c>
-      <c r="C22" s="379"/>
-      <c r="D22" s="369" t="s">
+      <c r="C22" s="389"/>
+      <c r="D22" s="379" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="370"/>
-      <c r="H22" s="370"/>
-      <c r="I22" s="370"/>
-      <c r="J22" s="370"/>
-      <c r="K22" s="370"/>
-      <c r="L22" s="370"/>
-      <c r="M22" s="370"/>
-      <c r="N22" s="370"/>
-      <c r="O22" s="370"/>
-      <c r="P22" s="370"/>
-      <c r="Q22" s="370"/>
-      <c r="R22" s="370"/>
-      <c r="S22" s="370"/>
-      <c r="T22" s="370"/>
-      <c r="U22" s="370"/>
-      <c r="V22" s="370"/>
-      <c r="W22" s="371"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="380"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="380"/>
+      <c r="J22" s="380"/>
+      <c r="K22" s="380"/>
+      <c r="L22" s="380"/>
+      <c r="M22" s="380"/>
+      <c r="N22" s="380"/>
+      <c r="O22" s="380"/>
+      <c r="P22" s="380"/>
+      <c r="Q22" s="380"/>
+      <c r="R22" s="380"/>
+      <c r="S22" s="380"/>
+      <c r="T22" s="380"/>
+      <c r="U22" s="380"/>
+      <c r="V22" s="380"/>
+      <c r="W22" s="381"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17279,6 +17274,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -17425,14 +17425,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="382" t="s">
+      <c r="N28" s="390" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="382"/>
-      <c r="P28" s="382"/>
-      <c r="Q28" s="382"/>
-      <c r="R28" s="382"/>
-      <c r="S28" s="382"/>
+      <c r="O28" s="390"/>
+      <c r="P28" s="390"/>
+      <c r="Q28" s="390"/>
+      <c r="R28" s="390"/>
+      <c r="S28" s="390"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -17455,14 +17455,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="382" t="s">
+      <c r="N36" s="390" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="382"/>
-      <c r="P36" s="382"/>
-      <c r="Q36" s="382"/>
-      <c r="R36" s="382"/>
-      <c r="S36" s="382"/>
+      <c r="O36" s="390"/>
+      <c r="P36" s="390"/>
+      <c r="Q36" s="390"/>
+      <c r="R36" s="390"/>
+      <c r="S36" s="390"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">
@@ -17613,30 +17613,30 @@
       <c r="C4" s="204">
         <v>9</v>
       </c>
-      <c r="D4" s="389">
+      <c r="D4" s="391">
         <v>11</v>
       </c>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391">
         <v>17</v>
       </c>
-      <c r="G4" s="389"/>
-      <c r="H4" s="389">
+      <c r="G4" s="391"/>
+      <c r="H4" s="391">
         <v>20</v>
       </c>
-      <c r="I4" s="389"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389">
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391">
         <v>27</v>
       </c>
-      <c r="M4" s="389"/>
-      <c r="N4" s="389">
+      <c r="M4" s="391"/>
+      <c r="N4" s="391">
         <v>28</v>
       </c>
-      <c r="O4" s="389"/>
-      <c r="P4" s="389"/>
-      <c r="Q4" s="389"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
       <c r="R4" s="204">
         <v>29</v>
       </c>
@@ -17650,30 +17650,30 @@
       <c r="C5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="388" t="s">
+      <c r="D5" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="388"/>
-      <c r="F5" s="383" t="s">
+      <c r="E5" s="397"/>
+      <c r="F5" s="392" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="383"/>
-      <c r="H5" s="383" t="s">
+      <c r="G5" s="392"/>
+      <c r="H5" s="392" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="384" t="s">
+      <c r="I5" s="392"/>
+      <c r="J5" s="392"/>
+      <c r="K5" s="392"/>
+      <c r="L5" s="393" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="384"/>
-      <c r="N5" s="384" t="s">
+      <c r="M5" s="393"/>
+      <c r="N5" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="384"/>
-      <c r="P5" s="384"/>
-      <c r="Q5" s="384"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="393"/>
+      <c r="Q5" s="393"/>
       <c r="R5" s="200" t="s">
         <v>17</v>
       </c>
@@ -17687,30 +17687,30 @@
       <c r="C6" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="394" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="385"/>
-      <c r="F6" s="386" t="s">
+      <c r="E6" s="394"/>
+      <c r="F6" s="395" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="386"/>
-      <c r="H6" s="386" t="s">
+      <c r="G6" s="395"/>
+      <c r="H6" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="386"/>
-      <c r="J6" s="386"/>
-      <c r="K6" s="386"/>
-      <c r="L6" s="387" t="s">
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="396" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="387"/>
-      <c r="N6" s="387" t="s">
+      <c r="M6" s="396"/>
+      <c r="N6" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="387"/>
-      <c r="P6" s="387"/>
-      <c r="Q6" s="387"/>
+      <c r="O6" s="396"/>
+      <c r="P6" s="396"/>
+      <c r="Q6" s="396"/>
       <c r="R6" s="203" t="s">
         <v>152</v>
       </c>
@@ -17952,11 +17952,6 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17967,6 +17962,11 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4206,6 +4206,384 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4235,384 +4613,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7705,12 +7705,12 @@
       <c r="L1" s="125"/>
       <c r="M1" s="125"/>
       <c r="N1" s="125"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
       <c r="U1" s="125"/>
       <c r="V1" s="125"/>
       <c r="W1" s="125"/>
@@ -7727,56 +7727,56 @@
       <c r="AH1" s="125"/>
     </row>
     <row r="2" spans="2:53" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
       <c r="J2" s="127"/>
       <c r="K2" s="128"/>
-      <c r="L2" s="278" t="s">
+      <c r="L2" s="270" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="279" t="s">
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="271" t="s">
         <v>266</v>
       </c>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
       <c r="T2" s="129"/>
-      <c r="U2" s="280" t="s">
+      <c r="U2" s="272" t="s">
         <v>276</v>
       </c>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="280"/>
+      <c r="V2" s="272"/>
+      <c r="W2" s="272"/>
+      <c r="X2" s="272"/>
+      <c r="Y2" s="272"/>
+      <c r="Z2" s="272"/>
       <c r="AA2" s="129"/>
-      <c r="AB2" s="277" t="s">
+      <c r="AB2" s="269" t="s">
         <v>269</v>
       </c>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
+      <c r="AG2" s="269"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
     </row>
     <row r="3" spans="2:53" s="124" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="276"/>
+      <c r="C3" s="268"/>
       <c r="D3" s="249">
         <v>1</v>
       </c>
@@ -8083,10 +8083,10 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="122" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="274"/>
+      <c r="C5" s="266"/>
       <c r="D5" s="251" t="s">
         <v>241</v>
       </c>
@@ -8219,10 +8219,10 @@
       <c r="AU5" s="135" t="s">
         <v>308</v>
       </c>
-      <c r="AV5" s="267" t="s">
+      <c r="AV5" s="393" t="s">
         <v>309</v>
       </c>
-      <c r="AW5" s="271" t="s">
+      <c r="AW5" s="397" t="s">
         <v>72</v>
       </c>
       <c r="AX5" s="223" t="s">
@@ -8234,7 +8234,7 @@
       <c r="AZ5" s="223" t="s">
         <v>313</v>
       </c>
-      <c r="BA5" s="267" t="s">
+      <c r="BA5" s="393" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8327,10 +8327,10 @@
       <c r="AU6" s="141"/>
       <c r="AV6" s="141"/>
       <c r="AW6" s="138"/>
-      <c r="AX6" s="264"/>
-      <c r="AY6" s="264"/>
+      <c r="AX6" s="390"/>
+      <c r="AY6" s="390"/>
       <c r="AZ6" s="141"/>
-      <c r="BA6" s="268"/>
+      <c r="BA6" s="394"/>
     </row>
     <row r="7" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="187" t="s">
@@ -8421,10 +8421,10 @@
       <c r="AU7" s="147"/>
       <c r="AV7" s="147"/>
       <c r="AW7" s="144"/>
-      <c r="AX7" s="265"/>
-      <c r="AY7" s="265"/>
+      <c r="AX7" s="391"/>
+      <c r="AY7" s="391"/>
       <c r="AZ7" s="147"/>
-      <c r="BA7" s="269"/>
+      <c r="BA7" s="395"/>
     </row>
     <row r="8" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="187" t="s">
@@ -8515,10 +8515,10 @@
       <c r="AU8" s="147"/>
       <c r="AV8" s="147"/>
       <c r="AW8" s="144"/>
-      <c r="AX8" s="265"/>
-      <c r="AY8" s="265"/>
+      <c r="AX8" s="391"/>
+      <c r="AY8" s="391"/>
       <c r="AZ8" s="147"/>
-      <c r="BA8" s="269"/>
+      <c r="BA8" s="395"/>
     </row>
     <row r="9" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="187" t="s">
@@ -8609,10 +8609,10 @@
       <c r="AU9" s="147"/>
       <c r="AV9" s="147"/>
       <c r="AW9" s="144"/>
-      <c r="AX9" s="265"/>
-      <c r="AY9" s="265"/>
+      <c r="AX9" s="391"/>
+      <c r="AY9" s="391"/>
       <c r="AZ9" s="147"/>
-      <c r="BA9" s="269"/>
+      <c r="BA9" s="395"/>
     </row>
     <row r="10" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="187" t="s">
@@ -8703,10 +8703,10 @@
       <c r="AU10" s="147"/>
       <c r="AV10" s="147"/>
       <c r="AW10" s="144"/>
-      <c r="AX10" s="265"/>
-      <c r="AY10" s="265"/>
+      <c r="AX10" s="391"/>
+      <c r="AY10" s="391"/>
       <c r="AZ10" s="147"/>
-      <c r="BA10" s="269"/>
+      <c r="BA10" s="395"/>
     </row>
     <row r="11" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="187" t="s">
@@ -8797,10 +8797,10 @@
       <c r="AU11" s="147"/>
       <c r="AV11" s="147"/>
       <c r="AW11" s="144"/>
-      <c r="AX11" s="265"/>
-      <c r="AY11" s="265"/>
+      <c r="AX11" s="391"/>
+      <c r="AY11" s="391"/>
       <c r="AZ11" s="147"/>
-      <c r="BA11" s="269"/>
+      <c r="BA11" s="395"/>
     </row>
     <row r="12" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="187" t="s">
@@ -8891,10 +8891,10 @@
       <c r="AU12" s="147"/>
       <c r="AV12" s="147"/>
       <c r="AW12" s="144"/>
-      <c r="AX12" s="265"/>
-      <c r="AY12" s="265"/>
+      <c r="AX12" s="391"/>
+      <c r="AY12" s="391"/>
       <c r="AZ12" s="147"/>
-      <c r="BA12" s="269"/>
+      <c r="BA12" s="395"/>
     </row>
     <row r="13" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="187" t="s">
@@ -8985,10 +8985,10 @@
       <c r="AU13" s="147"/>
       <c r="AV13" s="147"/>
       <c r="AW13" s="144"/>
-      <c r="AX13" s="265"/>
-      <c r="AY13" s="265"/>
+      <c r="AX13" s="391"/>
+      <c r="AY13" s="391"/>
       <c r="AZ13" s="147"/>
-      <c r="BA13" s="269"/>
+      <c r="BA13" s="395"/>
     </row>
     <row r="14" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="187" t="s">
@@ -9079,10 +9079,10 @@
       <c r="AU14" s="147"/>
       <c r="AV14" s="147"/>
       <c r="AW14" s="144"/>
-      <c r="AX14" s="265"/>
-      <c r="AY14" s="265"/>
+      <c r="AX14" s="391"/>
+      <c r="AY14" s="391"/>
       <c r="AZ14" s="147"/>
-      <c r="BA14" s="269"/>
+      <c r="BA14" s="395"/>
     </row>
     <row r="15" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="187" t="s">
@@ -9173,10 +9173,10 @@
       <c r="AU15" s="147"/>
       <c r="AV15" s="147"/>
       <c r="AW15" s="144"/>
-      <c r="AX15" s="265"/>
-      <c r="AY15" s="265"/>
+      <c r="AX15" s="391"/>
+      <c r="AY15" s="391"/>
       <c r="AZ15" s="147"/>
-      <c r="BA15" s="269"/>
+      <c r="BA15" s="395"/>
     </row>
     <row r="16" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="187" t="s">
@@ -9267,10 +9267,10 @@
       <c r="AU16" s="147"/>
       <c r="AV16" s="147"/>
       <c r="AW16" s="144"/>
-      <c r="AX16" s="265"/>
-      <c r="AY16" s="265"/>
+      <c r="AX16" s="391"/>
+      <c r="AY16" s="391"/>
       <c r="AZ16" s="147"/>
-      <c r="BA16" s="269"/>
+      <c r="BA16" s="395"/>
     </row>
     <row r="17" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="187"/>
@@ -9321,10 +9321,10 @@
       <c r="AU17" s="147"/>
       <c r="AV17" s="147"/>
       <c r="AW17" s="144"/>
-      <c r="AX17" s="265"/>
-      <c r="AY17" s="265"/>
+      <c r="AX17" s="391"/>
+      <c r="AY17" s="391"/>
       <c r="AZ17" s="147"/>
-      <c r="BA17" s="269"/>
+      <c r="BA17" s="395"/>
     </row>
     <row r="18" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="187"/>
@@ -9375,10 +9375,10 @@
       <c r="AU18" s="147"/>
       <c r="AV18" s="147"/>
       <c r="AW18" s="144"/>
-      <c r="AX18" s="265"/>
-      <c r="AY18" s="265"/>
+      <c r="AX18" s="391"/>
+      <c r="AY18" s="391"/>
       <c r="AZ18" s="147"/>
-      <c r="BA18" s="269"/>
+      <c r="BA18" s="395"/>
     </row>
     <row r="19" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="187"/>
@@ -9429,10 +9429,10 @@
       <c r="AU19" s="147"/>
       <c r="AV19" s="147"/>
       <c r="AW19" s="144"/>
-      <c r="AX19" s="265"/>
-      <c r="AY19" s="265"/>
+      <c r="AX19" s="391"/>
+      <c r="AY19" s="391"/>
       <c r="AZ19" s="147"/>
-      <c r="BA19" s="269"/>
+      <c r="BA19" s="395"/>
     </row>
     <row r="20" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="187"/>
@@ -9483,10 +9483,10 @@
       <c r="AU20" s="147"/>
       <c r="AV20" s="147"/>
       <c r="AW20" s="144"/>
-      <c r="AX20" s="265"/>
-      <c r="AY20" s="265"/>
+      <c r="AX20" s="391"/>
+      <c r="AY20" s="391"/>
       <c r="AZ20" s="147"/>
-      <c r="BA20" s="269"/>
+      <c r="BA20" s="395"/>
     </row>
     <row r="21" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="187"/>
@@ -9537,10 +9537,10 @@
       <c r="AU21" s="147"/>
       <c r="AV21" s="147"/>
       <c r="AW21" s="144"/>
-      <c r="AX21" s="265"/>
-      <c r="AY21" s="265"/>
+      <c r="AX21" s="391"/>
+      <c r="AY21" s="391"/>
       <c r="AZ21" s="147"/>
-      <c r="BA21" s="269"/>
+      <c r="BA21" s="395"/>
     </row>
     <row r="22" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="187"/>
@@ -9591,10 +9591,10 @@
       <c r="AU22" s="147"/>
       <c r="AV22" s="147"/>
       <c r="AW22" s="144"/>
-      <c r="AX22" s="265"/>
-      <c r="AY22" s="265"/>
+      <c r="AX22" s="391"/>
+      <c r="AY22" s="391"/>
       <c r="AZ22" s="147"/>
-      <c r="BA22" s="269"/>
+      <c r="BA22" s="395"/>
     </row>
     <row r="23" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="187"/>
@@ -9645,10 +9645,10 @@
       <c r="AU23" s="147"/>
       <c r="AV23" s="147"/>
       <c r="AW23" s="144"/>
-      <c r="AX23" s="265"/>
-      <c r="AY23" s="265"/>
+      <c r="AX23" s="391"/>
+      <c r="AY23" s="391"/>
       <c r="AZ23" s="147"/>
-      <c r="BA23" s="269"/>
+      <c r="BA23" s="395"/>
     </row>
     <row r="24" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="187"/>
@@ -9699,10 +9699,10 @@
       <c r="AU24" s="147"/>
       <c r="AV24" s="147"/>
       <c r="AW24" s="144"/>
-      <c r="AX24" s="265"/>
-      <c r="AY24" s="265"/>
+      <c r="AX24" s="391"/>
+      <c r="AY24" s="391"/>
       <c r="AZ24" s="147"/>
-      <c r="BA24" s="269"/>
+      <c r="BA24" s="395"/>
     </row>
     <row r="25" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="187"/>
@@ -9753,10 +9753,10 @@
       <c r="AU25" s="147"/>
       <c r="AV25" s="147"/>
       <c r="AW25" s="144"/>
-      <c r="AX25" s="265"/>
-      <c r="AY25" s="265"/>
+      <c r="AX25" s="391"/>
+      <c r="AY25" s="391"/>
       <c r="AZ25" s="147"/>
-      <c r="BA25" s="269"/>
+      <c r="BA25" s="395"/>
     </row>
     <row r="26" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="187"/>
@@ -9807,10 +9807,10 @@
       <c r="AU26" s="147"/>
       <c r="AV26" s="147"/>
       <c r="AW26" s="144"/>
-      <c r="AX26" s="265"/>
-      <c r="AY26" s="265"/>
+      <c r="AX26" s="391"/>
+      <c r="AY26" s="391"/>
       <c r="AZ26" s="147"/>
-      <c r="BA26" s="269"/>
+      <c r="BA26" s="395"/>
     </row>
     <row r="27" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="187"/>
@@ -9861,10 +9861,10 @@
       <c r="AU27" s="147"/>
       <c r="AV27" s="147"/>
       <c r="AW27" s="144"/>
-      <c r="AX27" s="265"/>
-      <c r="AY27" s="265"/>
+      <c r="AX27" s="391"/>
+      <c r="AY27" s="391"/>
       <c r="AZ27" s="147"/>
-      <c r="BA27" s="269"/>
+      <c r="BA27" s="395"/>
     </row>
     <row r="28" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="187"/>
@@ -9915,10 +9915,10 @@
       <c r="AU28" s="147"/>
       <c r="AV28" s="147"/>
       <c r="AW28" s="144"/>
-      <c r="AX28" s="265"/>
-      <c r="AY28" s="265"/>
+      <c r="AX28" s="391"/>
+      <c r="AY28" s="391"/>
       <c r="AZ28" s="147"/>
-      <c r="BA28" s="269"/>
+      <c r="BA28" s="395"/>
     </row>
     <row r="29" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="187"/>
@@ -9969,10 +9969,10 @@
       <c r="AU29" s="147"/>
       <c r="AV29" s="147"/>
       <c r="AW29" s="144"/>
-      <c r="AX29" s="265"/>
-      <c r="AY29" s="265"/>
+      <c r="AX29" s="391"/>
+      <c r="AY29" s="391"/>
       <c r="AZ29" s="147"/>
-      <c r="BA29" s="269"/>
+      <c r="BA29" s="395"/>
     </row>
     <row r="30" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="187"/>
@@ -10023,10 +10023,10 @@
       <c r="AU30" s="147"/>
       <c r="AV30" s="147"/>
       <c r="AW30" s="144"/>
-      <c r="AX30" s="265"/>
-      <c r="AY30" s="265"/>
+      <c r="AX30" s="391"/>
+      <c r="AY30" s="391"/>
       <c r="AZ30" s="147"/>
-      <c r="BA30" s="269"/>
+      <c r="BA30" s="395"/>
     </row>
     <row r="31" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="187"/>
@@ -10077,10 +10077,10 @@
       <c r="AU31" s="147"/>
       <c r="AV31" s="147"/>
       <c r="AW31" s="144"/>
-      <c r="AX31" s="265"/>
-      <c r="AY31" s="265"/>
+      <c r="AX31" s="391"/>
+      <c r="AY31" s="391"/>
       <c r="AZ31" s="147"/>
-      <c r="BA31" s="269"/>
+      <c r="BA31" s="395"/>
     </row>
     <row r="32" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="187"/>
@@ -10131,10 +10131,10 @@
       <c r="AU32" s="147"/>
       <c r="AV32" s="147"/>
       <c r="AW32" s="144"/>
-      <c r="AX32" s="265"/>
-      <c r="AY32" s="265"/>
+      <c r="AX32" s="391"/>
+      <c r="AY32" s="391"/>
       <c r="AZ32" s="147"/>
-      <c r="BA32" s="269"/>
+      <c r="BA32" s="395"/>
     </row>
     <row r="33" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="187"/>
@@ -10185,10 +10185,10 @@
       <c r="AU33" s="147"/>
       <c r="AV33" s="147"/>
       <c r="AW33" s="144"/>
-      <c r="AX33" s="265"/>
-      <c r="AY33" s="265"/>
+      <c r="AX33" s="391"/>
+      <c r="AY33" s="391"/>
       <c r="AZ33" s="147"/>
-      <c r="BA33" s="269"/>
+      <c r="BA33" s="395"/>
     </row>
     <row r="34" spans="1:53" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="188"/>
@@ -10239,10 +10239,10 @@
       <c r="AU34" s="152"/>
       <c r="AV34" s="152"/>
       <c r="AW34" s="150"/>
-      <c r="AX34" s="266"/>
-      <c r="AY34" s="266"/>
+      <c r="AX34" s="392"/>
+      <c r="AY34" s="392"/>
       <c r="AZ34" s="152"/>
-      <c r="BA34" s="270"/>
+      <c r="BA34" s="396"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="AH37" s="161" t="s">
@@ -10300,7 +10300,7 @@
       <c r="A52" s="126"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="O1:T1"/>
@@ -10353,27 +10353,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId5" name="BtnReset">
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10403,27 +10403,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId9" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10637,64 +10637,64 @@
       <c r="Z2" s="163"/>
       <c r="AA2" s="163"/>
       <c r="AB2" s="163"/>
-      <c r="AC2" s="278" t="s">
+      <c r="AC2" s="270" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="278"/>
-      <c r="AE2" s="278"/>
-      <c r="AF2" s="278"/>
-      <c r="AG2" s="278"/>
-      <c r="AH2" s="278"/>
-      <c r="AI2" s="278"/>
-      <c r="AJ2" s="278"/>
-      <c r="AK2" s="278"/>
-      <c r="AL2" s="278"/>
-      <c r="AM2" s="278"/>
-      <c r="AN2" s="278"/>
-      <c r="AO2" s="278"/>
-      <c r="AP2" s="278"/>
-      <c r="AQ2" s="278"/>
-      <c r="AR2" s="278"/>
-      <c r="AS2" s="278"/>
-      <c r="AT2" s="278"/>
-      <c r="AU2" s="278"/>
-      <c r="AV2" s="278"/>
-      <c r="AW2" s="278"/>
-      <c r="AX2" s="346" t="str">
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="270"/>
+      <c r="AQ2" s="270"/>
+      <c r="AR2" s="270"/>
+      <c r="AS2" s="270"/>
+      <c r="AT2" s="270"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="270"/>
+      <c r="AW2" s="270"/>
+      <c r="AX2" s="273" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="346"/>
-      <c r="AZ2" s="346"/>
-      <c r="BA2" s="346"/>
-      <c r="BB2" s="346"/>
-      <c r="BC2" s="346"/>
-      <c r="BD2" s="346"/>
-      <c r="BE2" s="346"/>
-      <c r="BF2" s="346"/>
-      <c r="BG2" s="346"/>
-      <c r="BH2" s="346"/>
-      <c r="BI2" s="346"/>
-      <c r="BJ2" s="346"/>
-      <c r="BK2" s="346"/>
-      <c r="BL2" s="346"/>
-      <c r="BM2" s="346"/>
-      <c r="BN2" s="346"/>
-      <c r="BO2" s="346"/>
-      <c r="BP2" s="346"/>
-      <c r="BQ2" s="346"/>
-      <c r="BR2" s="346"/>
-      <c r="BS2" s="346"/>
-      <c r="BT2" s="346"/>
-      <c r="BU2" s="346"/>
-      <c r="BV2" s="346"/>
-      <c r="BW2" s="346"/>
-      <c r="BX2" s="346"/>
-      <c r="BY2" s="346"/>
-      <c r="BZ2" s="346"/>
-      <c r="CA2" s="346"/>
-      <c r="CB2" s="346"/>
-      <c r="CC2" s="346"/>
+      <c r="AY2" s="273"/>
+      <c r="AZ2" s="273"/>
+      <c r="BA2" s="273"/>
+      <c r="BB2" s="273"/>
+      <c r="BC2" s="273"/>
+      <c r="BD2" s="273"/>
+      <c r="BE2" s="273"/>
+      <c r="BF2" s="273"/>
+      <c r="BG2" s="273"/>
+      <c r="BH2" s="273"/>
+      <c r="BI2" s="273"/>
+      <c r="BJ2" s="273"/>
+      <c r="BK2" s="273"/>
+      <c r="BL2" s="273"/>
+      <c r="BM2" s="273"/>
+      <c r="BN2" s="273"/>
+      <c r="BO2" s="273"/>
+      <c r="BP2" s="273"/>
+      <c r="BQ2" s="273"/>
+      <c r="BR2" s="273"/>
+      <c r="BS2" s="273"/>
+      <c r="BT2" s="273"/>
+      <c r="BU2" s="273"/>
+      <c r="BV2" s="273"/>
+      <c r="BW2" s="273"/>
+      <c r="BX2" s="273"/>
+      <c r="BY2" s="273"/>
+      <c r="BZ2" s="273"/>
+      <c r="CA2" s="273"/>
+      <c r="CB2" s="273"/>
+      <c r="CC2" s="273"/>
       <c r="CD2" s="164"/>
       <c r="CE2" s="164"/>
       <c r="CF2" s="164"/>
@@ -10728,518 +10728,518 @@
       <c r="DH2" s="164"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="347" t="s">
+      <c r="B3" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="288">
+      <c r="C3" s="275"/>
+      <c r="D3" s="276">
         <v>3</v>
       </c>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="350">
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="280">
         <v>13</v>
       </c>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="351"/>
-      <c r="R3" s="351"/>
-      <c r="S3" s="351"/>
-      <c r="T3" s="351"/>
-      <c r="U3" s="351"/>
-      <c r="V3" s="351"/>
-      <c r="W3" s="351"/>
-      <c r="X3" s="351"/>
-      <c r="Y3" s="351"/>
-      <c r="Z3" s="351"/>
-      <c r="AA3" s="351"/>
-      <c r="AB3" s="352"/>
-      <c r="AC3" s="334">
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="282"/>
+      <c r="AC3" s="278">
         <v>24</v>
       </c>
-      <c r="AD3" s="288"/>
-      <c r="AE3" s="288"/>
-      <c r="AF3" s="288"/>
-      <c r="AG3" s="288"/>
-      <c r="AH3" s="288"/>
-      <c r="AI3" s="288"/>
-      <c r="AJ3" s="288"/>
-      <c r="AK3" s="288"/>
-      <c r="AL3" s="288"/>
-      <c r="AM3" s="288"/>
-      <c r="AN3" s="288"/>
-      <c r="AO3" s="288"/>
-      <c r="AP3" s="288"/>
-      <c r="AQ3" s="288"/>
-      <c r="AR3" s="288"/>
-      <c r="AS3" s="288"/>
-      <c r="AT3" s="288"/>
-      <c r="AU3" s="288"/>
-      <c r="AV3" s="349"/>
-      <c r="AW3" s="334">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276"/>
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276"/>
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="277"/>
+      <c r="AW3" s="278">
         <v>30</v>
       </c>
-      <c r="AX3" s="288"/>
-      <c r="AY3" s="288"/>
-      <c r="AZ3" s="288"/>
-      <c r="BA3" s="288"/>
-      <c r="BB3" s="288"/>
-      <c r="BC3" s="288"/>
-      <c r="BD3" s="288"/>
-      <c r="BE3" s="288"/>
-      <c r="BF3" s="349"/>
-      <c r="BG3" s="333">
+      <c r="AX3" s="276"/>
+      <c r="AY3" s="276"/>
+      <c r="AZ3" s="276"/>
+      <c r="BA3" s="276"/>
+      <c r="BB3" s="276"/>
+      <c r="BC3" s="276"/>
+      <c r="BD3" s="276"/>
+      <c r="BE3" s="276"/>
+      <c r="BF3" s="277"/>
+      <c r="BG3" s="279">
         <v>34</v>
       </c>
-      <c r="BH3" s="333"/>
-      <c r="BI3" s="334"/>
-      <c r="BJ3" s="334"/>
-      <c r="BK3" s="334"/>
-      <c r="BL3" s="334"/>
-      <c r="BM3" s="334"/>
-      <c r="BN3" s="334"/>
-      <c r="BO3" s="334"/>
-      <c r="BP3" s="334"/>
-      <c r="BQ3" s="333">
+      <c r="BH3" s="279"/>
+      <c r="BI3" s="278"/>
+      <c r="BJ3" s="278"/>
+      <c r="BK3" s="278"/>
+      <c r="BL3" s="278"/>
+      <c r="BM3" s="278"/>
+      <c r="BN3" s="278"/>
+      <c r="BO3" s="278"/>
+      <c r="BP3" s="278"/>
+      <c r="BQ3" s="279">
         <v>40</v>
       </c>
-      <c r="BR3" s="333"/>
-      <c r="BS3" s="334"/>
-      <c r="BT3" s="334"/>
-      <c r="BU3" s="334"/>
-      <c r="BV3" s="334"/>
-      <c r="BW3" s="334"/>
-      <c r="BX3" s="334"/>
-      <c r="BY3" s="334"/>
-      <c r="BZ3" s="334"/>
-      <c r="CA3" s="333">
+      <c r="BR3" s="279"/>
+      <c r="BS3" s="278"/>
+      <c r="BT3" s="278"/>
+      <c r="BU3" s="278"/>
+      <c r="BV3" s="278"/>
+      <c r="BW3" s="278"/>
+      <c r="BX3" s="278"/>
+      <c r="BY3" s="278"/>
+      <c r="BZ3" s="278"/>
+      <c r="CA3" s="279">
         <v>43</v>
       </c>
-      <c r="CB3" s="333"/>
-      <c r="CC3" s="334"/>
-      <c r="CD3" s="334"/>
-      <c r="CE3" s="334"/>
-      <c r="CF3" s="334"/>
-      <c r="CG3" s="334"/>
-      <c r="CH3" s="334"/>
-      <c r="CI3" s="334"/>
-      <c r="CJ3" s="333"/>
-      <c r="CK3" s="288">
+      <c r="CB3" s="279"/>
+      <c r="CC3" s="278"/>
+      <c r="CD3" s="278"/>
+      <c r="CE3" s="278"/>
+      <c r="CF3" s="278"/>
+      <c r="CG3" s="278"/>
+      <c r="CH3" s="278"/>
+      <c r="CI3" s="278"/>
+      <c r="CJ3" s="279"/>
+      <c r="CK3" s="276">
         <v>46</v>
       </c>
-      <c r="CL3" s="288"/>
-      <c r="CM3" s="288"/>
-      <c r="CN3" s="288"/>
-      <c r="CO3" s="288"/>
-      <c r="CP3" s="288"/>
-      <c r="CQ3" s="288"/>
-      <c r="CR3" s="288"/>
-      <c r="CS3" s="288"/>
-      <c r="CT3" s="288"/>
-      <c r="CU3" s="288"/>
-      <c r="CV3" s="288"/>
-      <c r="CW3" s="288"/>
-      <c r="CX3" s="288"/>
-      <c r="CY3" s="289"/>
+      <c r="CL3" s="276"/>
+      <c r="CM3" s="276"/>
+      <c r="CN3" s="276"/>
+      <c r="CO3" s="276"/>
+      <c r="CP3" s="276"/>
+      <c r="CQ3" s="276"/>
+      <c r="CR3" s="276"/>
+      <c r="CS3" s="276"/>
+      <c r="CT3" s="276"/>
+      <c r="CU3" s="276"/>
+      <c r="CV3" s="276"/>
+      <c r="CW3" s="276"/>
+      <c r="CX3" s="276"/>
+      <c r="CY3" s="341"/>
       <c r="CZ3" s="242"/>
       <c r="DA3" s="243"/>
     </row>
     <row r="4" spans="2:113" s="233" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="282">
+      <c r="B4" s="286"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="288">
         <v>43107</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="343">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="297">
         <v>43490</v>
       </c>
-      <c r="J4" s="344"/>
-      <c r="K4" s="344"/>
-      <c r="L4" s="344"/>
-      <c r="M4" s="344"/>
-      <c r="N4" s="344"/>
-      <c r="O4" s="344"/>
-      <c r="P4" s="344"/>
-      <c r="Q4" s="344"/>
-      <c r="R4" s="344"/>
-      <c r="S4" s="344"/>
-      <c r="T4" s="344"/>
-      <c r="U4" s="344"/>
-      <c r="V4" s="344"/>
-      <c r="W4" s="344"/>
-      <c r="X4" s="344"/>
-      <c r="Y4" s="344"/>
-      <c r="Z4" s="344"/>
-      <c r="AA4" s="344"/>
-      <c r="AB4" s="345"/>
-      <c r="AC4" s="337">
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="298"/>
+      <c r="R4" s="298"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
+      <c r="X4" s="298"/>
+      <c r="Y4" s="298"/>
+      <c r="Z4" s="298"/>
+      <c r="AA4" s="298"/>
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="291">
         <v>43144</v>
       </c>
-      <c r="AD4" s="338"/>
-      <c r="AE4" s="338"/>
-      <c r="AF4" s="338"/>
-      <c r="AG4" s="338"/>
-      <c r="AH4" s="338"/>
-      <c r="AI4" s="338"/>
-      <c r="AJ4" s="338"/>
-      <c r="AK4" s="338"/>
-      <c r="AL4" s="338"/>
-      <c r="AM4" s="338"/>
-      <c r="AN4" s="338"/>
-      <c r="AO4" s="338"/>
-      <c r="AP4" s="338"/>
-      <c r="AQ4" s="338"/>
-      <c r="AR4" s="338"/>
-      <c r="AS4" s="338"/>
-      <c r="AT4" s="338"/>
-      <c r="AU4" s="338"/>
-      <c r="AV4" s="339"/>
-      <c r="AW4" s="340">
+      <c r="AD4" s="292"/>
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
+      <c r="AI4" s="292"/>
+      <c r="AJ4" s="292"/>
+      <c r="AK4" s="292"/>
+      <c r="AL4" s="292"/>
+      <c r="AM4" s="292"/>
+      <c r="AN4" s="292"/>
+      <c r="AO4" s="292"/>
+      <c r="AP4" s="292"/>
+      <c r="AQ4" s="292"/>
+      <c r="AR4" s="292"/>
+      <c r="AS4" s="292"/>
+      <c r="AT4" s="292"/>
+      <c r="AU4" s="292"/>
+      <c r="AV4" s="293"/>
+      <c r="AW4" s="294">
         <v>43154</v>
       </c>
-      <c r="AX4" s="341"/>
-      <c r="AY4" s="341"/>
-      <c r="AZ4" s="341"/>
-      <c r="BA4" s="341"/>
-      <c r="BB4" s="341"/>
-      <c r="BC4" s="341"/>
-      <c r="BD4" s="341"/>
-      <c r="BE4" s="341"/>
-      <c r="BF4" s="342"/>
-      <c r="BG4" s="310">
+      <c r="AX4" s="295"/>
+      <c r="AY4" s="295"/>
+      <c r="AZ4" s="295"/>
+      <c r="BA4" s="295"/>
+      <c r="BB4" s="295"/>
+      <c r="BC4" s="295"/>
+      <c r="BD4" s="295"/>
+      <c r="BE4" s="295"/>
+      <c r="BF4" s="296"/>
+      <c r="BG4" s="309">
         <v>43162</v>
       </c>
-      <c r="BH4" s="311"/>
-      <c r="BI4" s="311"/>
-      <c r="BJ4" s="311"/>
-      <c r="BK4" s="311"/>
-      <c r="BL4" s="311"/>
-      <c r="BM4" s="311"/>
-      <c r="BN4" s="311"/>
-      <c r="BO4" s="311"/>
-      <c r="BP4" s="312"/>
-      <c r="BQ4" s="330">
+      <c r="BH4" s="310"/>
+      <c r="BI4" s="310"/>
+      <c r="BJ4" s="310"/>
+      <c r="BK4" s="310"/>
+      <c r="BL4" s="310"/>
+      <c r="BM4" s="310"/>
+      <c r="BN4" s="310"/>
+      <c r="BO4" s="310"/>
+      <c r="BP4" s="311"/>
+      <c r="BQ4" s="283">
         <v>43172</v>
       </c>
-      <c r="BR4" s="331"/>
-      <c r="BS4" s="331"/>
-      <c r="BT4" s="331"/>
-      <c r="BU4" s="331"/>
-      <c r="BV4" s="331"/>
-      <c r="BW4" s="331"/>
-      <c r="BX4" s="331"/>
-      <c r="BY4" s="331"/>
-      <c r="BZ4" s="332"/>
-      <c r="CA4" s="307">
+      <c r="BR4" s="284"/>
+      <c r="BS4" s="284"/>
+      <c r="BT4" s="284"/>
+      <c r="BU4" s="284"/>
+      <c r="BV4" s="284"/>
+      <c r="BW4" s="284"/>
+      <c r="BX4" s="284"/>
+      <c r="BY4" s="284"/>
+      <c r="BZ4" s="285"/>
+      <c r="CA4" s="306">
         <v>43179</v>
       </c>
-      <c r="CB4" s="308"/>
-      <c r="CC4" s="308"/>
-      <c r="CD4" s="308"/>
-      <c r="CE4" s="308"/>
-      <c r="CF4" s="308"/>
-      <c r="CG4" s="308"/>
-      <c r="CH4" s="308"/>
-      <c r="CI4" s="308"/>
-      <c r="CJ4" s="309"/>
-      <c r="CK4" s="282">
+      <c r="CB4" s="307"/>
+      <c r="CC4" s="307"/>
+      <c r="CD4" s="307"/>
+      <c r="CE4" s="307"/>
+      <c r="CF4" s="307"/>
+      <c r="CG4" s="307"/>
+      <c r="CH4" s="307"/>
+      <c r="CI4" s="307"/>
+      <c r="CJ4" s="308"/>
+      <c r="CK4" s="288">
         <v>43181</v>
       </c>
-      <c r="CL4" s="283"/>
-      <c r="CM4" s="283"/>
-      <c r="CN4" s="283"/>
-      <c r="CO4" s="283"/>
-      <c r="CP4" s="283"/>
-      <c r="CQ4" s="283"/>
-      <c r="CR4" s="283"/>
-      <c r="CS4" s="283"/>
-      <c r="CT4" s="283"/>
-      <c r="CU4" s="283"/>
-      <c r="CV4" s="283"/>
-      <c r="CW4" s="283"/>
-      <c r="CX4" s="283"/>
-      <c r="CY4" s="284"/>
+      <c r="CL4" s="289"/>
+      <c r="CM4" s="289"/>
+      <c r="CN4" s="289"/>
+      <c r="CO4" s="289"/>
+      <c r="CP4" s="289"/>
+      <c r="CQ4" s="289"/>
+      <c r="CR4" s="289"/>
+      <c r="CS4" s="289"/>
+      <c r="CT4" s="289"/>
+      <c r="CU4" s="289"/>
+      <c r="CV4" s="289"/>
+      <c r="CW4" s="289"/>
+      <c r="CX4" s="289"/>
+      <c r="CY4" s="290"/>
       <c r="CZ4" s="236"/>
       <c r="DA4" s="237"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="295" t="s">
+      <c r="B5" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="297" t="s">
+      <c r="C5" s="313"/>
+      <c r="D5" s="314" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="304" t="s">
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="303" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="305"/>
-      <c r="K5" s="305"/>
-      <c r="L5" s="305"/>
-      <c r="M5" s="305"/>
-      <c r="N5" s="305"/>
-      <c r="O5" s="305"/>
-      <c r="P5" s="305"/>
-      <c r="Q5" s="305"/>
-      <c r="R5" s="305"/>
-      <c r="S5" s="305"/>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="305"/>
-      <c r="W5" s="305"/>
-      <c r="X5" s="305"/>
-      <c r="Y5" s="305"/>
-      <c r="Z5" s="305"/>
-      <c r="AA5" s="305"/>
-      <c r="AB5" s="306"/>
-      <c r="AC5" s="327" t="s">
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="304"/>
+      <c r="R5" s="304"/>
+      <c r="S5" s="304"/>
+      <c r="T5" s="304"/>
+      <c r="U5" s="304"/>
+      <c r="V5" s="304"/>
+      <c r="W5" s="304"/>
+      <c r="X5" s="304"/>
+      <c r="Y5" s="304"/>
+      <c r="Z5" s="304"/>
+      <c r="AA5" s="304"/>
+      <c r="AB5" s="305"/>
+      <c r="AC5" s="334" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="328"/>
-      <c r="AE5" s="328"/>
-      <c r="AF5" s="328"/>
-      <c r="AG5" s="328"/>
-      <c r="AH5" s="328"/>
-      <c r="AI5" s="328"/>
-      <c r="AJ5" s="328"/>
-      <c r="AK5" s="328"/>
-      <c r="AL5" s="328"/>
-      <c r="AM5" s="328"/>
-      <c r="AN5" s="328"/>
-      <c r="AO5" s="328"/>
-      <c r="AP5" s="328"/>
-      <c r="AQ5" s="328"/>
-      <c r="AR5" s="328"/>
-      <c r="AS5" s="328"/>
-      <c r="AT5" s="328"/>
-      <c r="AU5" s="328"/>
-      <c r="AV5" s="329"/>
-      <c r="AW5" s="315" t="s">
+      <c r="AD5" s="335"/>
+      <c r="AE5" s="335"/>
+      <c r="AF5" s="335"/>
+      <c r="AG5" s="335"/>
+      <c r="AH5" s="335"/>
+      <c r="AI5" s="335"/>
+      <c r="AJ5" s="335"/>
+      <c r="AK5" s="335"/>
+      <c r="AL5" s="335"/>
+      <c r="AM5" s="335"/>
+      <c r="AN5" s="335"/>
+      <c r="AO5" s="335"/>
+      <c r="AP5" s="335"/>
+      <c r="AQ5" s="335"/>
+      <c r="AR5" s="335"/>
+      <c r="AS5" s="335"/>
+      <c r="AT5" s="335"/>
+      <c r="AU5" s="335"/>
+      <c r="AV5" s="336"/>
+      <c r="AW5" s="320" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="316"/>
-      <c r="AY5" s="316"/>
-      <c r="AZ5" s="316"/>
-      <c r="BA5" s="316"/>
-      <c r="BB5" s="316"/>
-      <c r="BC5" s="316"/>
-      <c r="BD5" s="316"/>
-      <c r="BE5" s="316"/>
-      <c r="BF5" s="317"/>
-      <c r="BG5" s="321" t="s">
+      <c r="AX5" s="321"/>
+      <c r="AY5" s="321"/>
+      <c r="AZ5" s="321"/>
+      <c r="BA5" s="321"/>
+      <c r="BB5" s="321"/>
+      <c r="BC5" s="321"/>
+      <c r="BD5" s="321"/>
+      <c r="BE5" s="321"/>
+      <c r="BF5" s="322"/>
+      <c r="BG5" s="326" t="s">
         <v>263</v>
       </c>
-      <c r="BH5" s="322"/>
-      <c r="BI5" s="322"/>
-      <c r="BJ5" s="322"/>
-      <c r="BK5" s="322"/>
-      <c r="BL5" s="322"/>
-      <c r="BM5" s="322"/>
-      <c r="BN5" s="322"/>
-      <c r="BO5" s="322"/>
-      <c r="BP5" s="323"/>
-      <c r="BQ5" s="324" t="s">
+      <c r="BH5" s="327"/>
+      <c r="BI5" s="327"/>
+      <c r="BJ5" s="327"/>
+      <c r="BK5" s="327"/>
+      <c r="BL5" s="327"/>
+      <c r="BM5" s="327"/>
+      <c r="BN5" s="327"/>
+      <c r="BO5" s="327"/>
+      <c r="BP5" s="328"/>
+      <c r="BQ5" s="329" t="s">
         <v>264</v>
       </c>
-      <c r="BR5" s="325"/>
-      <c r="BS5" s="325"/>
-      <c r="BT5" s="325"/>
-      <c r="BU5" s="325"/>
-      <c r="BV5" s="325"/>
-      <c r="BW5" s="325"/>
-      <c r="BX5" s="325"/>
-      <c r="BY5" s="325"/>
-      <c r="BZ5" s="326"/>
-      <c r="CA5" s="318" t="s">
+      <c r="BR5" s="330"/>
+      <c r="BS5" s="330"/>
+      <c r="BT5" s="330"/>
+      <c r="BU5" s="330"/>
+      <c r="BV5" s="330"/>
+      <c r="BW5" s="330"/>
+      <c r="BX5" s="330"/>
+      <c r="BY5" s="330"/>
+      <c r="BZ5" s="331"/>
+      <c r="CA5" s="323" t="s">
         <v>265</v>
       </c>
-      <c r="CB5" s="319"/>
-      <c r="CC5" s="319"/>
-      <c r="CD5" s="319"/>
-      <c r="CE5" s="319"/>
-      <c r="CF5" s="319"/>
-      <c r="CG5" s="319"/>
-      <c r="CH5" s="319"/>
-      <c r="CI5" s="319"/>
-      <c r="CJ5" s="320"/>
-      <c r="CK5" s="285" t="s">
+      <c r="CB5" s="324"/>
+      <c r="CC5" s="324"/>
+      <c r="CD5" s="324"/>
+      <c r="CE5" s="324"/>
+      <c r="CF5" s="324"/>
+      <c r="CG5" s="324"/>
+      <c r="CH5" s="324"/>
+      <c r="CI5" s="324"/>
+      <c r="CJ5" s="325"/>
+      <c r="CK5" s="338" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="286"/>
-      <c r="CM5" s="286"/>
-      <c r="CN5" s="286"/>
-      <c r="CO5" s="286"/>
-      <c r="CP5" s="286"/>
-      <c r="CQ5" s="286"/>
-      <c r="CR5" s="286"/>
-      <c r="CS5" s="286"/>
-      <c r="CT5" s="286"/>
-      <c r="CU5" s="286"/>
-      <c r="CV5" s="286"/>
-      <c r="CW5" s="286"/>
-      <c r="CX5" s="286"/>
-      <c r="CY5" s="287"/>
+      <c r="CL5" s="339"/>
+      <c r="CM5" s="339"/>
+      <c r="CN5" s="339"/>
+      <c r="CO5" s="339"/>
+      <c r="CP5" s="339"/>
+      <c r="CQ5" s="339"/>
+      <c r="CR5" s="339"/>
+      <c r="CS5" s="339"/>
+      <c r="CT5" s="339"/>
+      <c r="CU5" s="339"/>
+      <c r="CV5" s="339"/>
+      <c r="CW5" s="339"/>
+      <c r="CX5" s="339"/>
+      <c r="CY5" s="340"/>
       <c r="CZ5" s="238"/>
       <c r="DA5" s="239"/>
     </row>
     <row r="6" spans="2:113" s="165" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="234"/>
       <c r="C6" s="235"/>
-      <c r="D6" s="300" t="s">
+      <c r="D6" s="317" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="301" t="s">
+      <c r="E6" s="317"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="317"/>
+      <c r="H6" s="317"/>
+      <c r="I6" s="300" t="s">
         <v>271</v>
       </c>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="301" t="s">
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="300" t="s">
         <v>273</v>
       </c>
-      <c r="O6" s="302"/>
-      <c r="P6" s="302"/>
-      <c r="Q6" s="302"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="301" t="s">
+      <c r="O6" s="301"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="300" t="s">
         <v>274</v>
       </c>
-      <c r="T6" s="302"/>
-      <c r="U6" s="302"/>
-      <c r="V6" s="302"/>
-      <c r="W6" s="303"/>
-      <c r="X6" s="301" t="s">
+      <c r="T6" s="301"/>
+      <c r="U6" s="301"/>
+      <c r="V6" s="301"/>
+      <c r="W6" s="302"/>
+      <c r="X6" s="300" t="s">
         <v>275</v>
       </c>
-      <c r="Y6" s="302"/>
-      <c r="Z6" s="302"/>
-      <c r="AA6" s="302"/>
-      <c r="AB6" s="303"/>
-      <c r="AC6" s="281" t="s">
+      <c r="Y6" s="301"/>
+      <c r="Z6" s="301"/>
+      <c r="AA6" s="301"/>
+      <c r="AB6" s="302"/>
+      <c r="AC6" s="333" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="281"/>
-      <c r="AE6" s="281"/>
-      <c r="AF6" s="281"/>
-      <c r="AG6" s="281"/>
-      <c r="AH6" s="281" t="s">
+      <c r="AD6" s="333"/>
+      <c r="AE6" s="333"/>
+      <c r="AF6" s="333"/>
+      <c r="AG6" s="333"/>
+      <c r="AH6" s="333" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="281"/>
-      <c r="AJ6" s="281"/>
-      <c r="AK6" s="281"/>
-      <c r="AL6" s="281"/>
-      <c r="AM6" s="281" t="s">
+      <c r="AI6" s="333"/>
+      <c r="AJ6" s="333"/>
+      <c r="AK6" s="333"/>
+      <c r="AL6" s="333"/>
+      <c r="AM6" s="333" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="281"/>
-      <c r="AO6" s="281"/>
-      <c r="AP6" s="281"/>
-      <c r="AQ6" s="281"/>
-      <c r="AR6" s="281" t="s">
+      <c r="AN6" s="333"/>
+      <c r="AO6" s="333"/>
+      <c r="AP6" s="333"/>
+      <c r="AQ6" s="333"/>
+      <c r="AR6" s="333" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="281"/>
-      <c r="AT6" s="281"/>
-      <c r="AU6" s="281"/>
-      <c r="AV6" s="281"/>
-      <c r="AW6" s="294" t="s">
+      <c r="AS6" s="333"/>
+      <c r="AT6" s="333"/>
+      <c r="AU6" s="333"/>
+      <c r="AV6" s="333"/>
+      <c r="AW6" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="294"/>
-      <c r="AY6" s="294"/>
-      <c r="AZ6" s="294"/>
-      <c r="BA6" s="294"/>
-      <c r="BB6" s="294" t="s">
+      <c r="AX6" s="337"/>
+      <c r="AY6" s="337"/>
+      <c r="AZ6" s="337"/>
+      <c r="BA6" s="337"/>
+      <c r="BB6" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="294"/>
-      <c r="BD6" s="294"/>
-      <c r="BE6" s="294"/>
-      <c r="BF6" s="294"/>
-      <c r="BG6" s="314" t="s">
+      <c r="BC6" s="337"/>
+      <c r="BD6" s="337"/>
+      <c r="BE6" s="337"/>
+      <c r="BF6" s="337"/>
+      <c r="BG6" s="319" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="314"/>
-      <c r="BI6" s="314"/>
-      <c r="BJ6" s="314"/>
-      <c r="BK6" s="314"/>
-      <c r="BL6" s="314" t="s">
+      <c r="BH6" s="319"/>
+      <c r="BI6" s="319"/>
+      <c r="BJ6" s="319"/>
+      <c r="BK6" s="319"/>
+      <c r="BL6" s="319" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="314"/>
-      <c r="BN6" s="314"/>
-      <c r="BO6" s="314"/>
-      <c r="BP6" s="314"/>
-      <c r="BQ6" s="293" t="s">
+      <c r="BM6" s="319"/>
+      <c r="BN6" s="319"/>
+      <c r="BO6" s="319"/>
+      <c r="BP6" s="319"/>
+      <c r="BQ6" s="332" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="293"/>
-      <c r="BS6" s="293"/>
-      <c r="BT6" s="293"/>
-      <c r="BU6" s="293"/>
-      <c r="BV6" s="293" t="s">
+      <c r="BR6" s="332"/>
+      <c r="BS6" s="332"/>
+      <c r="BT6" s="332"/>
+      <c r="BU6" s="332"/>
+      <c r="BV6" s="332" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="293"/>
-      <c r="BX6" s="293"/>
-      <c r="BY6" s="293"/>
-      <c r="BZ6" s="293"/>
-      <c r="CA6" s="313" t="s">
+      <c r="BW6" s="332"/>
+      <c r="BX6" s="332"/>
+      <c r="BY6" s="332"/>
+      <c r="BZ6" s="332"/>
+      <c r="CA6" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="313"/>
-      <c r="CC6" s="313"/>
-      <c r="CD6" s="313"/>
-      <c r="CE6" s="313"/>
-      <c r="CF6" s="313" t="s">
+      <c r="CB6" s="318"/>
+      <c r="CC6" s="318"/>
+      <c r="CD6" s="318"/>
+      <c r="CE6" s="318"/>
+      <c r="CF6" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="313"/>
-      <c r="CH6" s="313"/>
-      <c r="CI6" s="313"/>
-      <c r="CJ6" s="313"/>
-      <c r="CK6" s="290" t="s">
+      <c r="CG6" s="318"/>
+      <c r="CH6" s="318"/>
+      <c r="CI6" s="318"/>
+      <c r="CJ6" s="318"/>
+      <c r="CK6" s="342" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="291"/>
-      <c r="CM6" s="291"/>
-      <c r="CN6" s="291"/>
-      <c r="CO6" s="292"/>
-      <c r="CP6" s="290" t="s">
+      <c r="CL6" s="343"/>
+      <c r="CM6" s="343"/>
+      <c r="CN6" s="343"/>
+      <c r="CO6" s="344"/>
+      <c r="CP6" s="342" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="291"/>
-      <c r="CR6" s="291"/>
-      <c r="CS6" s="291"/>
-      <c r="CT6" s="292"/>
-      <c r="CU6" s="290" t="s">
+      <c r="CQ6" s="343"/>
+      <c r="CR6" s="343"/>
+      <c r="CS6" s="343"/>
+      <c r="CT6" s="344"/>
+      <c r="CU6" s="342" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="291"/>
-      <c r="CW6" s="291"/>
-      <c r="CX6" s="291"/>
-      <c r="CY6" s="292"/>
+      <c r="CV6" s="343"/>
+      <c r="CW6" s="343"/>
+      <c r="CX6" s="343"/>
+      <c r="CY6" s="344"/>
       <c r="CZ6" s="240" t="s">
         <v>77</v>
       </c>
@@ -15143,20 +15143,23 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="49">
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:AB3"/>
-    <mergeCell ref="BG3:BP3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:AB4"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I5:AB5"/>
@@ -15173,25 +15176,22 @@
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="AH6:AL6"/>
     <mergeCell ref="AC5:AV5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
     <mergeCell ref="BQ4:BZ4"/>
     <mergeCell ref="BQ3:BZ3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:AB4"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:AB3"/>
+    <mergeCell ref="BG3:BP3"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
     <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
@@ -15335,8 +15335,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -15355,32 +15380,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
+        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16004,14 +16004,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="345" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="358"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="347"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16056,14 +16056,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="345" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="357"/>
-      <c r="C7" s="357"/>
-      <c r="D7" s="357"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="358"/>
+      <c r="B7" s="346"/>
+      <c r="C7" s="346"/>
+      <c r="D7" s="346"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="347"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16076,11 +16076,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="359" t="s">
+      <c r="D8" s="348" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="360"/>
-      <c r="F8" s="361"/>
+      <c r="E8" s="349"/>
+      <c r="F8" s="350"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16104,27 +16104,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="356" t="s">
+      <c r="A11" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="357"/>
-      <c r="C11" s="357"/>
-      <c r="D11" s="357"/>
-      <c r="E11" s="357"/>
-      <c r="F11" s="358"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="346"/>
+      <c r="D11" s="346"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="347"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="362" t="s">
+      <c r="B12" s="351" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="364"/>
+      <c r="C12" s="352"/>
+      <c r="D12" s="352"/>
+      <c r="E12" s="352"/>
+      <c r="F12" s="353"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16140,25 +16140,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="356" t="s">
+      <c r="A15" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="357"/>
-      <c r="C15" s="357"/>
-      <c r="D15" s="357"/>
-      <c r="E15" s="357"/>
-      <c r="F15" s="358"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="347"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="353"/>
-      <c r="C16" s="354"/>
-      <c r="D16" s="354"/>
-      <c r="E16" s="354"/>
-      <c r="F16" s="355"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="355"/>
+      <c r="D16" s="355"/>
+      <c r="E16" s="355"/>
+      <c r="F16" s="356"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16174,25 +16174,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="345" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="357"/>
-      <c r="C19" s="357"/>
-      <c r="D19" s="357"/>
-      <c r="E19" s="357"/>
-      <c r="F19" s="358"/>
+      <c r="B19" s="346"/>
+      <c r="C19" s="346"/>
+      <c r="D19" s="346"/>
+      <c r="E19" s="346"/>
+      <c r="F19" s="347"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="353"/>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="355"/>
+      <c r="B20" s="354"/>
+      <c r="C20" s="355"/>
+      <c r="D20" s="355"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="356"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16208,25 +16208,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="356" t="s">
+      <c r="A23" s="345" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="357"/>
-      <c r="C23" s="357"/>
-      <c r="D23" s="357"/>
-      <c r="E23" s="357"/>
-      <c r="F23" s="358"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="346"/>
+      <c r="D23" s="346"/>
+      <c r="E23" s="346"/>
+      <c r="F23" s="347"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="353"/>
-      <c r="C24" s="354"/>
-      <c r="D24" s="354"/>
-      <c r="E24" s="354"/>
-      <c r="F24" s="355"/>
+      <c r="B24" s="354"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="355"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="356"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16242,27 +16242,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="356" t="s">
+      <c r="A27" s="345" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="357"/>
-      <c r="C27" s="357"/>
-      <c r="D27" s="357"/>
-      <c r="E27" s="357"/>
-      <c r="F27" s="358"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="346"/>
+      <c r="D27" s="346"/>
+      <c r="E27" s="346"/>
+      <c r="F27" s="347"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="353" t="s">
+      <c r="B28" s="354" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="354"/>
-      <c r="D28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="F28" s="355"/>
+      <c r="C28" s="355"/>
+      <c r="D28" s="355"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="356"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -16278,12 +16278,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16291,6 +16285,12 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16334,10 +16334,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="368" t="s">
+      <c r="C3" s="360" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="368"/>
+      <c r="D3" s="360"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16399,35 +16399,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="369" t="s">
+      <c r="A11" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="371"/>
-      <c r="C11" s="372"/>
+      <c r="B11" s="363"/>
+      <c r="C11" s="364"/>
       <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="375"/>
-      <c r="F11" s="376"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="368"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="370"/>
-      <c r="B12" s="373"/>
-      <c r="C12" s="374"/>
+      <c r="A12" s="362"/>
+      <c r="B12" s="365"/>
+      <c r="C12" s="366"/>
       <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="375"/>
-      <c r="F12" s="376"/>
+      <c r="E12" s="367"/>
+      <c r="F12" s="368"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="357" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="367"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="359"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16493,30 +16493,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="378">
+      <c r="E3" s="381">
         <v>5665</v>
       </c>
-      <c r="F3" s="378"/>
+      <c r="F3" s="381"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="378" t="s">
+      <c r="I3" s="381" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
+      <c r="J3" s="381"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="381"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="378" t="s">
+      <c r="P3" s="381" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="378"/>
-      <c r="R3" s="378"/>
-      <c r="S3" s="378"/>
-      <c r="T3" s="378"/>
+      <c r="Q3" s="381"/>
+      <c r="R3" s="381"/>
+      <c r="S3" s="381"/>
+      <c r="T3" s="381"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -16527,10 +16527,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="377" t="s">
+      <c r="AF3" s="380" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="377"/>
+      <c r="AG3" s="380"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -17123,148 +17123,153 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="382" t="s">
+      <c r="B18" s="372" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="383"/>
-      <c r="D18" s="379" t="s">
+      <c r="C18" s="373"/>
+      <c r="D18" s="369" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="380"/>
-      <c r="K18" s="380"/>
-      <c r="L18" s="380"/>
-      <c r="M18" s="380"/>
-      <c r="N18" s="380"/>
-      <c r="O18" s="380"/>
-      <c r="P18" s="380"/>
-      <c r="Q18" s="380"/>
-      <c r="R18" s="380"/>
-      <c r="S18" s="380"/>
-      <c r="T18" s="380"/>
-      <c r="U18" s="380"/>
-      <c r="V18" s="380"/>
-      <c r="W18" s="381"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
+      <c r="G18" s="370"/>
+      <c r="H18" s="370"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="370"/>
+      <c r="K18" s="370"/>
+      <c r="L18" s="370"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="370"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="370"/>
+      <c r="U18" s="370"/>
+      <c r="V18" s="370"/>
+      <c r="W18" s="371"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="384">
-        <v>2</v>
-      </c>
-      <c r="C19" s="385"/>
-      <c r="D19" s="379" t="s">
+      <c r="B19" s="374">
+        <v>2</v>
+      </c>
+      <c r="C19" s="375"/>
+      <c r="D19" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="380"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="380"/>
-      <c r="N19" s="380"/>
-      <c r="O19" s="380"/>
-      <c r="P19" s="380"/>
-      <c r="Q19" s="380"/>
-      <c r="R19" s="380"/>
-      <c r="S19" s="380"/>
-      <c r="T19" s="380"/>
-      <c r="U19" s="380"/>
-      <c r="V19" s="380"/>
-      <c r="W19" s="381"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
+      <c r="G19" s="370"/>
+      <c r="H19" s="370"/>
+      <c r="I19" s="370"/>
+      <c r="J19" s="370"/>
+      <c r="K19" s="370"/>
+      <c r="L19" s="370"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="370"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="370"/>
+      <c r="U19" s="370"/>
+      <c r="V19" s="370"/>
+      <c r="W19" s="371"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="386">
+      <c r="B20" s="376">
         <v>3</v>
       </c>
-      <c r="C20" s="387"/>
-      <c r="D20" s="379" t="s">
+      <c r="C20" s="377"/>
+      <c r="D20" s="369" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="380"/>
-      <c r="F20" s="380"/>
-      <c r="G20" s="380"/>
-      <c r="H20" s="380"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="380"/>
-      <c r="M20" s="380"/>
-      <c r="N20" s="380"/>
-      <c r="O20" s="380"/>
-      <c r="P20" s="380"/>
-      <c r="Q20" s="380"/>
-      <c r="R20" s="380"/>
-      <c r="S20" s="380"/>
-      <c r="T20" s="380"/>
-      <c r="U20" s="380"/>
-      <c r="V20" s="380"/>
-      <c r="W20" s="381"/>
+      <c r="E20" s="370"/>
+      <c r="F20" s="370"/>
+      <c r="G20" s="370"/>
+      <c r="H20" s="370"/>
+      <c r="I20" s="370"/>
+      <c r="J20" s="370"/>
+      <c r="K20" s="370"/>
+      <c r="L20" s="370"/>
+      <c r="M20" s="370"/>
+      <c r="N20" s="370"/>
+      <c r="O20" s="370"/>
+      <c r="P20" s="370"/>
+      <c r="Q20" s="370"/>
+      <c r="R20" s="370"/>
+      <c r="S20" s="370"/>
+      <c r="T20" s="370"/>
+      <c r="U20" s="370"/>
+      <c r="V20" s="370"/>
+      <c r="W20" s="371"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="388">
+      <c r="B21" s="378">
         <v>4</v>
       </c>
-      <c r="C21" s="389"/>
-      <c r="D21" s="379" t="s">
+      <c r="C21" s="379"/>
+      <c r="D21" s="369" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="380"/>
-      <c r="K21" s="380"/>
-      <c r="L21" s="380"/>
-      <c r="M21" s="380"/>
-      <c r="N21" s="380"/>
-      <c r="O21" s="380"/>
-      <c r="P21" s="380"/>
-      <c r="Q21" s="380"/>
-      <c r="R21" s="380"/>
-      <c r="S21" s="380"/>
-      <c r="T21" s="380"/>
-      <c r="U21" s="380"/>
-      <c r="V21" s="380"/>
-      <c r="W21" s="381"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="370"/>
+      <c r="H21" s="370"/>
+      <c r="I21" s="370"/>
+      <c r="J21" s="370"/>
+      <c r="K21" s="370"/>
+      <c r="L21" s="370"/>
+      <c r="M21" s="370"/>
+      <c r="N21" s="370"/>
+      <c r="O21" s="370"/>
+      <c r="P21" s="370"/>
+      <c r="Q21" s="370"/>
+      <c r="R21" s="370"/>
+      <c r="S21" s="370"/>
+      <c r="T21" s="370"/>
+      <c r="U21" s="370"/>
+      <c r="V21" s="370"/>
+      <c r="W21" s="371"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="388">
+      <c r="B22" s="378">
         <v>5</v>
       </c>
-      <c r="C22" s="389"/>
-      <c r="D22" s="379" t="s">
+      <c r="C22" s="379"/>
+      <c r="D22" s="369" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="380"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="380"/>
-      <c r="H22" s="380"/>
-      <c r="I22" s="380"/>
-      <c r="J22" s="380"/>
-      <c r="K22" s="380"/>
-      <c r="L22" s="380"/>
-      <c r="M22" s="380"/>
-      <c r="N22" s="380"/>
-      <c r="O22" s="380"/>
-      <c r="P22" s="380"/>
-      <c r="Q22" s="380"/>
-      <c r="R22" s="380"/>
-      <c r="S22" s="380"/>
-      <c r="T22" s="380"/>
-      <c r="U22" s="380"/>
-      <c r="V22" s="380"/>
-      <c r="W22" s="381"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="370"/>
+      <c r="H22" s="370"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="370"/>
+      <c r="K22" s="370"/>
+      <c r="L22" s="370"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="370"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="370"/>
+      <c r="U22" s="370"/>
+      <c r="V22" s="370"/>
+      <c r="W22" s="371"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17274,11 +17279,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
@@ -17425,14 +17425,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="390" t="s">
+      <c r="N28" s="382" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="390"/>
-      <c r="P28" s="390"/>
-      <c r="Q28" s="390"/>
-      <c r="R28" s="390"/>
-      <c r="S28" s="390"/>
+      <c r="O28" s="382"/>
+      <c r="P28" s="382"/>
+      <c r="Q28" s="382"/>
+      <c r="R28" s="382"/>
+      <c r="S28" s="382"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -17455,14 +17455,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="390" t="s">
+      <c r="N36" s="382" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="390"/>
-      <c r="P36" s="390"/>
-      <c r="Q36" s="390"/>
-      <c r="R36" s="390"/>
-      <c r="S36" s="390"/>
+      <c r="O36" s="382"/>
+      <c r="P36" s="382"/>
+      <c r="Q36" s="382"/>
+      <c r="R36" s="382"/>
+      <c r="S36" s="382"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">
@@ -17613,30 +17613,30 @@
       <c r="C4" s="204">
         <v>9</v>
       </c>
-      <c r="D4" s="391">
+      <c r="D4" s="389">
         <v>11</v>
       </c>
-      <c r="E4" s="391"/>
-      <c r="F4" s="391">
+      <c r="E4" s="389"/>
+      <c r="F4" s="389">
         <v>17</v>
       </c>
-      <c r="G4" s="391"/>
-      <c r="H4" s="391">
+      <c r="G4" s="389"/>
+      <c r="H4" s="389">
         <v>20</v>
       </c>
-      <c r="I4" s="391"/>
-      <c r="J4" s="391"/>
-      <c r="K4" s="391"/>
-      <c r="L4" s="391">
+      <c r="I4" s="389"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
+      <c r="L4" s="389">
         <v>27</v>
       </c>
-      <c r="M4" s="391"/>
-      <c r="N4" s="391">
+      <c r="M4" s="389"/>
+      <c r="N4" s="389">
         <v>28</v>
       </c>
-      <c r="O4" s="391"/>
-      <c r="P4" s="391"/>
-      <c r="Q4" s="391"/>
+      <c r="O4" s="389"/>
+      <c r="P4" s="389"/>
+      <c r="Q4" s="389"/>
       <c r="R4" s="204">
         <v>29</v>
       </c>
@@ -17650,30 +17650,30 @@
       <c r="C5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="397" t="s">
+      <c r="D5" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="397"/>
-      <c r="F5" s="392" t="s">
+      <c r="E5" s="388"/>
+      <c r="F5" s="383" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392" t="s">
+      <c r="G5" s="383"/>
+      <c r="H5" s="383" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="392"/>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="393" t="s">
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="384" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="393"/>
-      <c r="N5" s="393" t="s">
+      <c r="M5" s="384"/>
+      <c r="N5" s="384" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="393"/>
-      <c r="P5" s="393"/>
-      <c r="Q5" s="393"/>
+      <c r="O5" s="384"/>
+      <c r="P5" s="384"/>
+      <c r="Q5" s="384"/>
       <c r="R5" s="200" t="s">
         <v>17</v>
       </c>
@@ -17687,30 +17687,30 @@
       <c r="C6" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="394" t="s">
+      <c r="D6" s="385" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="394"/>
-      <c r="F6" s="395" t="s">
+      <c r="E6" s="385"/>
+      <c r="F6" s="386" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="395"/>
-      <c r="H6" s="395" t="s">
+      <c r="G6" s="386"/>
+      <c r="H6" s="386" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="395"/>
-      <c r="J6" s="395"/>
-      <c r="K6" s="395"/>
-      <c r="L6" s="396" t="s">
+      <c r="I6" s="386"/>
+      <c r="J6" s="386"/>
+      <c r="K6" s="386"/>
+      <c r="L6" s="387" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="396"/>
-      <c r="N6" s="396" t="s">
+      <c r="M6" s="387"/>
+      <c r="N6" s="387" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="396"/>
-      <c r="P6" s="396"/>
-      <c r="Q6" s="396"/>
+      <c r="O6" s="387"/>
+      <c r="P6" s="387"/>
+      <c r="Q6" s="387"/>
       <c r="R6" s="203" t="s">
         <v>152</v>
       </c>
@@ -17952,6 +17952,11 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17962,11 +17967,6 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">

--- a/Phase 1 Candidate Database v2.xlsx
+++ b/Phase 1 Candidate Database v2.xlsx
@@ -4206,384 +4206,6 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4613,6 +4235,384 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="25" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="22" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="24" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="6" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="23" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="18" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="20" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4621,7 +4621,206 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006100"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006100"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006100"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006100"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8DDF9D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006100"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006100"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006100"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006100"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5BD171"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006100"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006100"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006100"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006100"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF39C754"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006100"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006100"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006100"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006100"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF30A646"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -7677,8 +7876,8 @@
   </sheetPr>
   <dimension ref="A1:BA52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AV12" sqref="AV12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7705,12 +7904,12 @@
       <c r="L1" s="125"/>
       <c r="M1" s="125"/>
       <c r="N1" s="125"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
       <c r="U1" s="125"/>
       <c r="V1" s="125"/>
       <c r="W1" s="125"/>
@@ -7727,56 +7926,56 @@
       <c r="AH1" s="125"/>
     </row>
     <row r="2" spans="2:53" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
       <c r="J2" s="127"/>
       <c r="K2" s="128"/>
-      <c r="L2" s="270" t="s">
+      <c r="L2" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="271" t="s">
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279" t="s">
         <v>266</v>
       </c>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="279"/>
+      <c r="S2" s="279"/>
       <c r="T2" s="129"/>
-      <c r="U2" s="272" t="s">
+      <c r="U2" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
+      <c r="V2" s="280"/>
+      <c r="W2" s="280"/>
+      <c r="X2" s="280"/>
+      <c r="Y2" s="280"/>
+      <c r="Z2" s="280"/>
       <c r="AA2" s="129"/>
-      <c r="AB2" s="269" t="s">
+      <c r="AB2" s="277" t="s">
         <v>269</v>
       </c>
-      <c r="AC2" s="269"/>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="269"/>
-      <c r="AG2" s="269"/>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
     </row>
     <row r="3" spans="2:53" s="124" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="268"/>
+      <c r="C3" s="276"/>
       <c r="D3" s="249">
         <v>1</v>
       </c>
@@ -8083,10 +8282,10 @@
       </c>
     </row>
     <row r="5" spans="2:53" s="122" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="266"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="251" t="s">
         <v>241</v>
       </c>
@@ -8219,10 +8418,10 @@
       <c r="AU5" s="135" t="s">
         <v>308</v>
       </c>
-      <c r="AV5" s="393" t="s">
+      <c r="AV5" s="267" t="s">
         <v>309</v>
       </c>
-      <c r="AW5" s="397" t="s">
+      <c r="AW5" s="271" t="s">
         <v>72</v>
       </c>
       <c r="AX5" s="223" t="s">
@@ -8234,7 +8433,7 @@
       <c r="AZ5" s="223" t="s">
         <v>313</v>
       </c>
-      <c r="BA5" s="393" t="s">
+      <c r="BA5" s="267" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8327,10 +8526,10 @@
       <c r="AU6" s="141"/>
       <c r="AV6" s="141"/>
       <c r="AW6" s="138"/>
-      <c r="AX6" s="390"/>
-      <c r="AY6" s="390"/>
+      <c r="AX6" s="264"/>
+      <c r="AY6" s="138"/>
       <c r="AZ6" s="141"/>
-      <c r="BA6" s="394"/>
+      <c r="BA6" s="268"/>
     </row>
     <row r="7" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="187" t="s">
@@ -8421,10 +8620,10 @@
       <c r="AU7" s="147"/>
       <c r="AV7" s="147"/>
       <c r="AW7" s="144"/>
-      <c r="AX7" s="391"/>
-      <c r="AY7" s="391"/>
+      <c r="AX7" s="265"/>
+      <c r="AY7" s="144"/>
       <c r="AZ7" s="147"/>
-      <c r="BA7" s="395"/>
+      <c r="BA7" s="269"/>
     </row>
     <row r="8" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="187" t="s">
@@ -8515,10 +8714,10 @@
       <c r="AU8" s="147"/>
       <c r="AV8" s="147"/>
       <c r="AW8" s="144"/>
-      <c r="AX8" s="391"/>
-      <c r="AY8" s="391"/>
+      <c r="AX8" s="265"/>
+      <c r="AY8" s="144"/>
       <c r="AZ8" s="147"/>
-      <c r="BA8" s="395"/>
+      <c r="BA8" s="269"/>
     </row>
     <row r="9" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="187" t="s">
@@ -8609,10 +8808,10 @@
       <c r="AU9" s="147"/>
       <c r="AV9" s="147"/>
       <c r="AW9" s="144"/>
-      <c r="AX9" s="391"/>
-      <c r="AY9" s="391"/>
+      <c r="AX9" s="265"/>
+      <c r="AY9" s="144"/>
       <c r="AZ9" s="147"/>
-      <c r="BA9" s="395"/>
+      <c r="BA9" s="269"/>
     </row>
     <row r="10" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="187" t="s">
@@ -8703,10 +8902,10 @@
       <c r="AU10" s="147"/>
       <c r="AV10" s="147"/>
       <c r="AW10" s="144"/>
-      <c r="AX10" s="391"/>
-      <c r="AY10" s="391"/>
+      <c r="AX10" s="265"/>
+      <c r="AY10" s="144"/>
       <c r="AZ10" s="147"/>
-      <c r="BA10" s="395"/>
+      <c r="BA10" s="269"/>
     </row>
     <row r="11" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="187" t="s">
@@ -8797,10 +8996,10 @@
       <c r="AU11" s="147"/>
       <c r="AV11" s="147"/>
       <c r="AW11" s="144"/>
-      <c r="AX11" s="391"/>
-      <c r="AY11" s="391"/>
+      <c r="AX11" s="265"/>
+      <c r="AY11" s="144"/>
       <c r="AZ11" s="147"/>
-      <c r="BA11" s="395"/>
+      <c r="BA11" s="269"/>
     </row>
     <row r="12" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="187" t="s">
@@ -8891,10 +9090,10 @@
       <c r="AU12" s="147"/>
       <c r="AV12" s="147"/>
       <c r="AW12" s="144"/>
-      <c r="AX12" s="391"/>
-      <c r="AY12" s="391"/>
+      <c r="AX12" s="265"/>
+      <c r="AY12" s="144"/>
       <c r="AZ12" s="147"/>
-      <c r="BA12" s="395"/>
+      <c r="BA12" s="269"/>
     </row>
     <row r="13" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="187" t="s">
@@ -8985,10 +9184,10 @@
       <c r="AU13" s="147"/>
       <c r="AV13" s="147"/>
       <c r="AW13" s="144"/>
-      <c r="AX13" s="391"/>
-      <c r="AY13" s="391"/>
+      <c r="AX13" s="265"/>
+      <c r="AY13" s="144"/>
       <c r="AZ13" s="147"/>
-      <c r="BA13" s="395"/>
+      <c r="BA13" s="269"/>
     </row>
     <row r="14" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="187" t="s">
@@ -9079,10 +9278,10 @@
       <c r="AU14" s="147"/>
       <c r="AV14" s="147"/>
       <c r="AW14" s="144"/>
-      <c r="AX14" s="391"/>
-      <c r="AY14" s="391"/>
+      <c r="AX14" s="265"/>
+      <c r="AY14" s="144"/>
       <c r="AZ14" s="147"/>
-      <c r="BA14" s="395"/>
+      <c r="BA14" s="269"/>
     </row>
     <row r="15" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="187" t="s">
@@ -9173,10 +9372,10 @@
       <c r="AU15" s="147"/>
       <c r="AV15" s="147"/>
       <c r="AW15" s="144"/>
-      <c r="AX15" s="391"/>
-      <c r="AY15" s="391"/>
+      <c r="AX15" s="265"/>
+      <c r="AY15" s="144"/>
       <c r="AZ15" s="147"/>
-      <c r="BA15" s="395"/>
+      <c r="BA15" s="269"/>
     </row>
     <row r="16" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="187" t="s">
@@ -9267,10 +9466,10 @@
       <c r="AU16" s="147"/>
       <c r="AV16" s="147"/>
       <c r="AW16" s="144"/>
-      <c r="AX16" s="391"/>
-      <c r="AY16" s="391"/>
+      <c r="AX16" s="265"/>
+      <c r="AY16" s="144"/>
       <c r="AZ16" s="147"/>
-      <c r="BA16" s="395"/>
+      <c r="BA16" s="269"/>
     </row>
     <row r="17" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="187"/>
@@ -9321,10 +9520,10 @@
       <c r="AU17" s="147"/>
       <c r="AV17" s="147"/>
       <c r="AW17" s="144"/>
-      <c r="AX17" s="391"/>
-      <c r="AY17" s="391"/>
+      <c r="AX17" s="265"/>
+      <c r="AY17" s="144"/>
       <c r="AZ17" s="147"/>
-      <c r="BA17" s="395"/>
+      <c r="BA17" s="269"/>
     </row>
     <row r="18" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="187"/>
@@ -9375,10 +9574,10 @@
       <c r="AU18" s="147"/>
       <c r="AV18" s="147"/>
       <c r="AW18" s="144"/>
-      <c r="AX18" s="391"/>
-      <c r="AY18" s="391"/>
+      <c r="AX18" s="265"/>
+      <c r="AY18" s="144"/>
       <c r="AZ18" s="147"/>
-      <c r="BA18" s="395"/>
+      <c r="BA18" s="269"/>
     </row>
     <row r="19" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="187"/>
@@ -9429,10 +9628,10 @@
       <c r="AU19" s="147"/>
       <c r="AV19" s="147"/>
       <c r="AW19" s="144"/>
-      <c r="AX19" s="391"/>
-      <c r="AY19" s="391"/>
+      <c r="AX19" s="265"/>
+      <c r="AY19" s="144"/>
       <c r="AZ19" s="147"/>
-      <c r="BA19" s="395"/>
+      <c r="BA19" s="269"/>
     </row>
     <row r="20" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="187"/>
@@ -9483,10 +9682,10 @@
       <c r="AU20" s="147"/>
       <c r="AV20" s="147"/>
       <c r="AW20" s="144"/>
-      <c r="AX20" s="391"/>
-      <c r="AY20" s="391"/>
+      <c r="AX20" s="265"/>
+      <c r="AY20" s="144"/>
       <c r="AZ20" s="147"/>
-      <c r="BA20" s="395"/>
+      <c r="BA20" s="269"/>
     </row>
     <row r="21" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="187"/>
@@ -9537,10 +9736,10 @@
       <c r="AU21" s="147"/>
       <c r="AV21" s="147"/>
       <c r="AW21" s="144"/>
-      <c r="AX21" s="391"/>
-      <c r="AY21" s="391"/>
+      <c r="AX21" s="265"/>
+      <c r="AY21" s="144"/>
       <c r="AZ21" s="147"/>
-      <c r="BA21" s="395"/>
+      <c r="BA21" s="269"/>
     </row>
     <row r="22" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="187"/>
@@ -9591,10 +9790,10 @@
       <c r="AU22" s="147"/>
       <c r="AV22" s="147"/>
       <c r="AW22" s="144"/>
-      <c r="AX22" s="391"/>
-      <c r="AY22" s="391"/>
+      <c r="AX22" s="265"/>
+      <c r="AY22" s="144"/>
       <c r="AZ22" s="147"/>
-      <c r="BA22" s="395"/>
+      <c r="BA22" s="269"/>
     </row>
     <row r="23" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="187"/>
@@ -9645,10 +9844,10 @@
       <c r="AU23" s="147"/>
       <c r="AV23" s="147"/>
       <c r="AW23" s="144"/>
-      <c r="AX23" s="391"/>
-      <c r="AY23" s="391"/>
+      <c r="AX23" s="265"/>
+      <c r="AY23" s="144"/>
       <c r="AZ23" s="147"/>
-      <c r="BA23" s="395"/>
+      <c r="BA23" s="269"/>
     </row>
     <row r="24" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="187"/>
@@ -9699,10 +9898,10 @@
       <c r="AU24" s="147"/>
       <c r="AV24" s="147"/>
       <c r="AW24" s="144"/>
-      <c r="AX24" s="391"/>
-      <c r="AY24" s="391"/>
+      <c r="AX24" s="265"/>
+      <c r="AY24" s="144"/>
       <c r="AZ24" s="147"/>
-      <c r="BA24" s="395"/>
+      <c r="BA24" s="269"/>
     </row>
     <row r="25" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="187"/>
@@ -9753,10 +9952,10 @@
       <c r="AU25" s="147"/>
       <c r="AV25" s="147"/>
       <c r="AW25" s="144"/>
-      <c r="AX25" s="391"/>
-      <c r="AY25" s="391"/>
+      <c r="AX25" s="265"/>
+      <c r="AY25" s="144"/>
       <c r="AZ25" s="147"/>
-      <c r="BA25" s="395"/>
+      <c r="BA25" s="269"/>
     </row>
     <row r="26" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="187"/>
@@ -9807,10 +10006,10 @@
       <c r="AU26" s="147"/>
       <c r="AV26" s="147"/>
       <c r="AW26" s="144"/>
-      <c r="AX26" s="391"/>
-      <c r="AY26" s="391"/>
+      <c r="AX26" s="265"/>
+      <c r="AY26" s="144"/>
       <c r="AZ26" s="147"/>
-      <c r="BA26" s="395"/>
+      <c r="BA26" s="269"/>
     </row>
     <row r="27" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="187"/>
@@ -9861,10 +10060,10 @@
       <c r="AU27" s="147"/>
       <c r="AV27" s="147"/>
       <c r="AW27" s="144"/>
-      <c r="AX27" s="391"/>
-      <c r="AY27" s="391"/>
+      <c r="AX27" s="265"/>
+      <c r="AY27" s="144"/>
       <c r="AZ27" s="147"/>
-      <c r="BA27" s="395"/>
+      <c r="BA27" s="269"/>
     </row>
     <row r="28" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="187"/>
@@ -9915,10 +10114,10 @@
       <c r="AU28" s="147"/>
       <c r="AV28" s="147"/>
       <c r="AW28" s="144"/>
-      <c r="AX28" s="391"/>
-      <c r="AY28" s="391"/>
+      <c r="AX28" s="265"/>
+      <c r="AY28" s="144"/>
       <c r="AZ28" s="147"/>
-      <c r="BA28" s="395"/>
+      <c r="BA28" s="269"/>
     </row>
     <row r="29" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="187"/>
@@ -9969,10 +10168,10 @@
       <c r="AU29" s="147"/>
       <c r="AV29" s="147"/>
       <c r="AW29" s="144"/>
-      <c r="AX29" s="391"/>
-      <c r="AY29" s="391"/>
+      <c r="AX29" s="265"/>
+      <c r="AY29" s="144"/>
       <c r="AZ29" s="147"/>
-      <c r="BA29" s="395"/>
+      <c r="BA29" s="269"/>
     </row>
     <row r="30" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="187"/>
@@ -10023,10 +10222,10 @@
       <c r="AU30" s="147"/>
       <c r="AV30" s="147"/>
       <c r="AW30" s="144"/>
-      <c r="AX30" s="391"/>
-      <c r="AY30" s="391"/>
+      <c r="AX30" s="265"/>
+      <c r="AY30" s="144"/>
       <c r="AZ30" s="147"/>
-      <c r="BA30" s="395"/>
+      <c r="BA30" s="269"/>
     </row>
     <row r="31" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="187"/>
@@ -10077,10 +10276,10 @@
       <c r="AU31" s="147"/>
       <c r="AV31" s="147"/>
       <c r="AW31" s="144"/>
-      <c r="AX31" s="391"/>
-      <c r="AY31" s="391"/>
+      <c r="AX31" s="265"/>
+      <c r="AY31" s="144"/>
       <c r="AZ31" s="147"/>
-      <c r="BA31" s="395"/>
+      <c r="BA31" s="269"/>
     </row>
     <row r="32" spans="2:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="187"/>
@@ -10131,10 +10330,10 @@
       <c r="AU32" s="147"/>
       <c r="AV32" s="147"/>
       <c r="AW32" s="144"/>
-      <c r="AX32" s="391"/>
-      <c r="AY32" s="391"/>
+      <c r="AX32" s="265"/>
+      <c r="AY32" s="144"/>
       <c r="AZ32" s="147"/>
-      <c r="BA32" s="395"/>
+      <c r="BA32" s="269"/>
     </row>
     <row r="33" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="187"/>
@@ -10185,10 +10384,10 @@
       <c r="AU33" s="147"/>
       <c r="AV33" s="147"/>
       <c r="AW33" s="144"/>
-      <c r="AX33" s="391"/>
-      <c r="AY33" s="391"/>
+      <c r="AX33" s="265"/>
+      <c r="AY33" s="144"/>
       <c r="AZ33" s="147"/>
-      <c r="BA33" s="395"/>
+      <c r="BA33" s="269"/>
     </row>
     <row r="34" spans="1:53" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="188"/>
@@ -10239,10 +10438,10 @@
       <c r="AU34" s="152"/>
       <c r="AV34" s="152"/>
       <c r="AW34" s="150"/>
-      <c r="AX34" s="392"/>
-      <c r="AY34" s="392"/>
+      <c r="AX34" s="266"/>
+      <c r="AY34" s="150"/>
       <c r="AZ34" s="152"/>
-      <c r="BA34" s="396"/>
+      <c r="BA34" s="270"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="AH37" s="161" t="s">
@@ -10314,26 +10513,26 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D6:BA34">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>1.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="between">
       <formula>4</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10353,27 +10552,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB">
+        <control shapeId="1036" r:id="rId5" name="BtnReset">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId5" name="BtnConnectDB"/>
+        <control shapeId="1036" r:id="rId5" name="BtnReset"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10403,27 +10602,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId9" name="BtnReset">
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId9" name="BtnReset"/>
+        <control shapeId="1031" r:id="rId9" name="BtnConnectDB"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10637,64 +10836,64 @@
       <c r="Z2" s="163"/>
       <c r="AA2" s="163"/>
       <c r="AB2" s="163"/>
-      <c r="AC2" s="270" t="s">
+      <c r="AC2" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
-      <c r="AP2" s="270"/>
-      <c r="AQ2" s="270"/>
-      <c r="AR2" s="270"/>
-      <c r="AS2" s="270"/>
-      <c r="AT2" s="270"/>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="270"/>
-      <c r="AW2" s="270"/>
-      <c r="AX2" s="273" t="str">
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
+      <c r="AR2" s="278"/>
+      <c r="AS2" s="278"/>
+      <c r="AT2" s="278"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="278"/>
+      <c r="AW2" s="278"/>
+      <c r="AX2" s="346" t="str">
         <f>CONCATENATE("Course No - ", CourseNo)</f>
         <v>Course No - WT2019</v>
       </c>
-      <c r="AY2" s="273"/>
-      <c r="AZ2" s="273"/>
-      <c r="BA2" s="273"/>
-      <c r="BB2" s="273"/>
-      <c r="BC2" s="273"/>
-      <c r="BD2" s="273"/>
-      <c r="BE2" s="273"/>
-      <c r="BF2" s="273"/>
-      <c r="BG2" s="273"/>
-      <c r="BH2" s="273"/>
-      <c r="BI2" s="273"/>
-      <c r="BJ2" s="273"/>
-      <c r="BK2" s="273"/>
-      <c r="BL2" s="273"/>
-      <c r="BM2" s="273"/>
-      <c r="BN2" s="273"/>
-      <c r="BO2" s="273"/>
-      <c r="BP2" s="273"/>
-      <c r="BQ2" s="273"/>
-      <c r="BR2" s="273"/>
-      <c r="BS2" s="273"/>
-      <c r="BT2" s="273"/>
-      <c r="BU2" s="273"/>
-      <c r="BV2" s="273"/>
-      <c r="BW2" s="273"/>
-      <c r="BX2" s="273"/>
-      <c r="BY2" s="273"/>
-      <c r="BZ2" s="273"/>
-      <c r="CA2" s="273"/>
-      <c r="CB2" s="273"/>
-      <c r="CC2" s="273"/>
+      <c r="AY2" s="346"/>
+      <c r="AZ2" s="346"/>
+      <c r="BA2" s="346"/>
+      <c r="BB2" s="346"/>
+      <c r="BC2" s="346"/>
+      <c r="BD2" s="346"/>
+      <c r="BE2" s="346"/>
+      <c r="BF2" s="346"/>
+      <c r="BG2" s="346"/>
+      <c r="BH2" s="346"/>
+      <c r="BI2" s="346"/>
+      <c r="BJ2" s="346"/>
+      <c r="BK2" s="346"/>
+      <c r="BL2" s="346"/>
+      <c r="BM2" s="346"/>
+      <c r="BN2" s="346"/>
+      <c r="BO2" s="346"/>
+      <c r="BP2" s="346"/>
+      <c r="BQ2" s="346"/>
+      <c r="BR2" s="346"/>
+      <c r="BS2" s="346"/>
+      <c r="BT2" s="346"/>
+      <c r="BU2" s="346"/>
+      <c r="BV2" s="346"/>
+      <c r="BW2" s="346"/>
+      <c r="BX2" s="346"/>
+      <c r="BY2" s="346"/>
+      <c r="BZ2" s="346"/>
+      <c r="CA2" s="346"/>
+      <c r="CB2" s="346"/>
+      <c r="CC2" s="346"/>
       <c r="CD2" s="164"/>
       <c r="CE2" s="164"/>
       <c r="CF2" s="164"/>
@@ -10728,518 +10927,518 @@
       <c r="DH2" s="164"/>
     </row>
     <row r="3" spans="2:113" s="124" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276">
+      <c r="C3" s="348"/>
+      <c r="D3" s="288">
         <v>3</v>
       </c>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="280">
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="349"/>
+      <c r="I3" s="350">
         <v>13</v>
       </c>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="281"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="278">
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="351"/>
+      <c r="R3" s="351"/>
+      <c r="S3" s="351"/>
+      <c r="T3" s="351"/>
+      <c r="U3" s="351"/>
+      <c r="V3" s="351"/>
+      <c r="W3" s="351"/>
+      <c r="X3" s="351"/>
+      <c r="Y3" s="351"/>
+      <c r="Z3" s="351"/>
+      <c r="AA3" s="351"/>
+      <c r="AB3" s="352"/>
+      <c r="AC3" s="334">
         <v>24</v>
       </c>
-      <c r="AD3" s="276"/>
-      <c r="AE3" s="276"/>
-      <c r="AF3" s="276"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="276"/>
-      <c r="AI3" s="276"/>
-      <c r="AJ3" s="276"/>
-      <c r="AK3" s="276"/>
-      <c r="AL3" s="276"/>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="276"/>
-      <c r="AO3" s="276"/>
-      <c r="AP3" s="276"/>
-      <c r="AQ3" s="276"/>
-      <c r="AR3" s="276"/>
-      <c r="AS3" s="276"/>
-      <c r="AT3" s="276"/>
-      <c r="AU3" s="276"/>
-      <c r="AV3" s="277"/>
-      <c r="AW3" s="278">
+      <c r="AD3" s="288"/>
+      <c r="AE3" s="288"/>
+      <c r="AF3" s="288"/>
+      <c r="AG3" s="288"/>
+      <c r="AH3" s="288"/>
+      <c r="AI3" s="288"/>
+      <c r="AJ3" s="288"/>
+      <c r="AK3" s="288"/>
+      <c r="AL3" s="288"/>
+      <c r="AM3" s="288"/>
+      <c r="AN3" s="288"/>
+      <c r="AO3" s="288"/>
+      <c r="AP3" s="288"/>
+      <c r="AQ3" s="288"/>
+      <c r="AR3" s="288"/>
+      <c r="AS3" s="288"/>
+      <c r="AT3" s="288"/>
+      <c r="AU3" s="288"/>
+      <c r="AV3" s="349"/>
+      <c r="AW3" s="334">
         <v>30</v>
       </c>
-      <c r="AX3" s="276"/>
-      <c r="AY3" s="276"/>
-      <c r="AZ3" s="276"/>
-      <c r="BA3" s="276"/>
-      <c r="BB3" s="276"/>
-      <c r="BC3" s="276"/>
-      <c r="BD3" s="276"/>
-      <c r="BE3" s="276"/>
-      <c r="BF3" s="277"/>
-      <c r="BG3" s="279">
+      <c r="AX3" s="288"/>
+      <c r="AY3" s="288"/>
+      <c r="AZ3" s="288"/>
+      <c r="BA3" s="288"/>
+      <c r="BB3" s="288"/>
+      <c r="BC3" s="288"/>
+      <c r="BD3" s="288"/>
+      <c r="BE3" s="288"/>
+      <c r="BF3" s="349"/>
+      <c r="BG3" s="333">
         <v>34</v>
       </c>
-      <c r="BH3" s="279"/>
-      <c r="BI3" s="278"/>
-      <c r="BJ3" s="278"/>
-      <c r="BK3" s="278"/>
-      <c r="BL3" s="278"/>
-      <c r="BM3" s="278"/>
-      <c r="BN3" s="278"/>
-      <c r="BO3" s="278"/>
-      <c r="BP3" s="278"/>
-      <c r="BQ3" s="279">
+      <c r="BH3" s="333"/>
+      <c r="BI3" s="334"/>
+      <c r="BJ3" s="334"/>
+      <c r="BK3" s="334"/>
+      <c r="BL3" s="334"/>
+      <c r="BM3" s="334"/>
+      <c r="BN3" s="334"/>
+      <c r="BO3" s="334"/>
+      <c r="BP3" s="334"/>
+      <c r="BQ3" s="333">
         <v>40</v>
       </c>
-      <c r="BR3" s="279"/>
-      <c r="BS3" s="278"/>
-      <c r="BT3" s="278"/>
-      <c r="BU3" s="278"/>
-      <c r="BV3" s="278"/>
-      <c r="BW3" s="278"/>
-      <c r="BX3" s="278"/>
-      <c r="BY3" s="278"/>
-      <c r="BZ3" s="278"/>
-      <c r="CA3" s="279">
+      <c r="BR3" s="333"/>
+      <c r="BS3" s="334"/>
+      <c r="BT3" s="334"/>
+      <c r="BU3" s="334"/>
+      <c r="BV3" s="334"/>
+      <c r="BW3" s="334"/>
+      <c r="BX3" s="334"/>
+      <c r="BY3" s="334"/>
+      <c r="BZ3" s="334"/>
+      <c r="CA3" s="333">
         <v>43</v>
       </c>
-      <c r="CB3" s="279"/>
-      <c r="CC3" s="278"/>
-      <c r="CD3" s="278"/>
-      <c r="CE3" s="278"/>
-      <c r="CF3" s="278"/>
-      <c r="CG3" s="278"/>
-      <c r="CH3" s="278"/>
-      <c r="CI3" s="278"/>
-      <c r="CJ3" s="279"/>
-      <c r="CK3" s="276">
+      <c r="CB3" s="333"/>
+      <c r="CC3" s="334"/>
+      <c r="CD3" s="334"/>
+      <c r="CE3" s="334"/>
+      <c r="CF3" s="334"/>
+      <c r="CG3" s="334"/>
+      <c r="CH3" s="334"/>
+      <c r="CI3" s="334"/>
+      <c r="CJ3" s="333"/>
+      <c r="CK3" s="288">
         <v>46</v>
       </c>
-      <c r="CL3" s="276"/>
-      <c r="CM3" s="276"/>
-      <c r="CN3" s="276"/>
-      <c r="CO3" s="276"/>
-      <c r="CP3" s="276"/>
-      <c r="CQ3" s="276"/>
-      <c r="CR3" s="276"/>
-      <c r="CS3" s="276"/>
-      <c r="CT3" s="276"/>
-      <c r="CU3" s="276"/>
-      <c r="CV3" s="276"/>
-      <c r="CW3" s="276"/>
-      <c r="CX3" s="276"/>
-      <c r="CY3" s="341"/>
+      <c r="CL3" s="288"/>
+      <c r="CM3" s="288"/>
+      <c r="CN3" s="288"/>
+      <c r="CO3" s="288"/>
+      <c r="CP3" s="288"/>
+      <c r="CQ3" s="288"/>
+      <c r="CR3" s="288"/>
+      <c r="CS3" s="288"/>
+      <c r="CT3" s="288"/>
+      <c r="CU3" s="288"/>
+      <c r="CV3" s="288"/>
+      <c r="CW3" s="288"/>
+      <c r="CX3" s="288"/>
+      <c r="CY3" s="289"/>
       <c r="CZ3" s="242"/>
       <c r="DA3" s="243"/>
     </row>
     <row r="4" spans="2:113" s="233" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="286"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="288">
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="282">
         <v>43107</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="297">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="343">
         <v>43490</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
-      <c r="Z4" s="298"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="299"/>
-      <c r="AC4" s="291">
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="344"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="344"/>
+      <c r="V4" s="344"/>
+      <c r="W4" s="344"/>
+      <c r="X4" s="344"/>
+      <c r="Y4" s="344"/>
+      <c r="Z4" s="344"/>
+      <c r="AA4" s="344"/>
+      <c r="AB4" s="345"/>
+      <c r="AC4" s="337">
         <v>43144</v>
       </c>
-      <c r="AD4" s="292"/>
-      <c r="AE4" s="292"/>
-      <c r="AF4" s="292"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="292"/>
-      <c r="AI4" s="292"/>
-      <c r="AJ4" s="292"/>
-      <c r="AK4" s="292"/>
-      <c r="AL4" s="292"/>
-      <c r="AM4" s="292"/>
-      <c r="AN4" s="292"/>
-      <c r="AO4" s="292"/>
-      <c r="AP4" s="292"/>
-      <c r="AQ4" s="292"/>
-      <c r="AR4" s="292"/>
-      <c r="AS4" s="292"/>
-      <c r="AT4" s="292"/>
-      <c r="AU4" s="292"/>
-      <c r="AV4" s="293"/>
-      <c r="AW4" s="294">
+      <c r="AD4" s="338"/>
+      <c r="AE4" s="338"/>
+      <c r="AF4" s="338"/>
+      <c r="AG4" s="338"/>
+      <c r="AH4" s="338"/>
+      <c r="AI4" s="338"/>
+      <c r="AJ4" s="338"/>
+      <c r="AK4" s="338"/>
+      <c r="AL4" s="338"/>
+      <c r="AM4" s="338"/>
+      <c r="AN4" s="338"/>
+      <c r="AO4" s="338"/>
+      <c r="AP4" s="338"/>
+      <c r="AQ4" s="338"/>
+      <c r="AR4" s="338"/>
+      <c r="AS4" s="338"/>
+      <c r="AT4" s="338"/>
+      <c r="AU4" s="338"/>
+      <c r="AV4" s="339"/>
+      <c r="AW4" s="340">
         <v>43154</v>
       </c>
-      <c r="AX4" s="295"/>
-      <c r="AY4" s="295"/>
-      <c r="AZ4" s="295"/>
-      <c r="BA4" s="295"/>
-      <c r="BB4" s="295"/>
-      <c r="BC4" s="295"/>
-      <c r="BD4" s="295"/>
-      <c r="BE4" s="295"/>
-      <c r="BF4" s="296"/>
-      <c r="BG4" s="309">
+      <c r="AX4" s="341"/>
+      <c r="AY4" s="341"/>
+      <c r="AZ4" s="341"/>
+      <c r="BA4" s="341"/>
+      <c r="BB4" s="341"/>
+      <c r="BC4" s="341"/>
+      <c r="BD4" s="341"/>
+      <c r="BE4" s="341"/>
+      <c r="BF4" s="342"/>
+      <c r="BG4" s="310">
         <v>43162</v>
       </c>
-      <c r="BH4" s="310"/>
-      <c r="BI4" s="310"/>
-      <c r="BJ4" s="310"/>
-      <c r="BK4" s="310"/>
-      <c r="BL4" s="310"/>
-      <c r="BM4" s="310"/>
-      <c r="BN4" s="310"/>
-      <c r="BO4" s="310"/>
-      <c r="BP4" s="311"/>
-      <c r="BQ4" s="283">
+      <c r="BH4" s="311"/>
+      <c r="BI4" s="311"/>
+      <c r="BJ4" s="311"/>
+      <c r="BK4" s="311"/>
+      <c r="BL4" s="311"/>
+      <c r="BM4" s="311"/>
+      <c r="BN4" s="311"/>
+      <c r="BO4" s="311"/>
+      <c r="BP4" s="312"/>
+      <c r="BQ4" s="330">
         <v>43172</v>
       </c>
-      <c r="BR4" s="284"/>
-      <c r="BS4" s="284"/>
-      <c r="BT4" s="284"/>
-      <c r="BU4" s="284"/>
-      <c r="BV4" s="284"/>
-      <c r="BW4" s="284"/>
-      <c r="BX4" s="284"/>
-      <c r="BY4" s="284"/>
-      <c r="BZ4" s="285"/>
-      <c r="CA4" s="306">
+      <c r="BR4" s="331"/>
+      <c r="BS4" s="331"/>
+      <c r="BT4" s="331"/>
+      <c r="BU4" s="331"/>
+      <c r="BV4" s="331"/>
+      <c r="BW4" s="331"/>
+      <c r="BX4" s="331"/>
+      <c r="BY4" s="331"/>
+      <c r="BZ4" s="332"/>
+      <c r="CA4" s="307">
         <v>43179</v>
       </c>
-      <c r="CB4" s="307"/>
-      <c r="CC4" s="307"/>
-      <c r="CD4" s="307"/>
-      <c r="CE4" s="307"/>
-      <c r="CF4" s="307"/>
-      <c r="CG4" s="307"/>
-      <c r="CH4" s="307"/>
-      <c r="CI4" s="307"/>
-      <c r="CJ4" s="308"/>
-      <c r="CK4" s="288">
+      <c r="CB4" s="308"/>
+      <c r="CC4" s="308"/>
+      <c r="CD4" s="308"/>
+      <c r="CE4" s="308"/>
+      <c r="CF4" s="308"/>
+      <c r="CG4" s="308"/>
+      <c r="CH4" s="308"/>
+      <c r="CI4" s="308"/>
+      <c r="CJ4" s="309"/>
+      <c r="CK4" s="282">
         <v>43181</v>
       </c>
-      <c r="CL4" s="289"/>
-      <c r="CM4" s="289"/>
-      <c r="CN4" s="289"/>
-      <c r="CO4" s="289"/>
-      <c r="CP4" s="289"/>
-      <c r="CQ4" s="289"/>
-      <c r="CR4" s="289"/>
-      <c r="CS4" s="289"/>
-      <c r="CT4" s="289"/>
-      <c r="CU4" s="289"/>
-      <c r="CV4" s="289"/>
-      <c r="CW4" s="289"/>
-      <c r="CX4" s="289"/>
-      <c r="CY4" s="290"/>
+      <c r="CL4" s="283"/>
+      <c r="CM4" s="283"/>
+      <c r="CN4" s="283"/>
+      <c r="CO4" s="283"/>
+      <c r="CP4" s="283"/>
+      <c r="CQ4" s="283"/>
+      <c r="CR4" s="283"/>
+      <c r="CS4" s="283"/>
+      <c r="CT4" s="283"/>
+      <c r="CU4" s="283"/>
+      <c r="CV4" s="283"/>
+      <c r="CW4" s="283"/>
+      <c r="CX4" s="283"/>
+      <c r="CY4" s="284"/>
       <c r="CZ4" s="236"/>
       <c r="DA4" s="237"/>
     </row>
     <row r="5" spans="2:113" s="122" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="295" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314" t="s">
+      <c r="C5" s="296"/>
+      <c r="D5" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="303" t="s">
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="304" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
-      <c r="T5" s="304"/>
-      <c r="U5" s="304"/>
-      <c r="V5" s="304"/>
-      <c r="W5" s="304"/>
-      <c r="X5" s="304"/>
-      <c r="Y5" s="304"/>
-      <c r="Z5" s="304"/>
-      <c r="AA5" s="304"/>
-      <c r="AB5" s="305"/>
-      <c r="AC5" s="334" t="s">
+      <c r="J5" s="305"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="305"/>
+      <c r="R5" s="305"/>
+      <c r="S5" s="305"/>
+      <c r="T5" s="305"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="305"/>
+      <c r="X5" s="305"/>
+      <c r="Y5" s="305"/>
+      <c r="Z5" s="305"/>
+      <c r="AA5" s="305"/>
+      <c r="AB5" s="306"/>
+      <c r="AC5" s="327" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="335"/>
-      <c r="AE5" s="335"/>
-      <c r="AF5" s="335"/>
-      <c r="AG5" s="335"/>
-      <c r="AH5" s="335"/>
-      <c r="AI5" s="335"/>
-      <c r="AJ5" s="335"/>
-      <c r="AK5" s="335"/>
-      <c r="AL5" s="335"/>
-      <c r="AM5" s="335"/>
-      <c r="AN5" s="335"/>
-      <c r="AO5" s="335"/>
-      <c r="AP5" s="335"/>
-      <c r="AQ5" s="335"/>
-      <c r="AR5" s="335"/>
-      <c r="AS5" s="335"/>
-      <c r="AT5" s="335"/>
-      <c r="AU5" s="335"/>
-      <c r="AV5" s="336"/>
-      <c r="AW5" s="320" t="s">
+      <c r="AD5" s="328"/>
+      <c r="AE5" s="328"/>
+      <c r="AF5" s="328"/>
+      <c r="AG5" s="328"/>
+      <c r="AH5" s="328"/>
+      <c r="AI5" s="328"/>
+      <c r="AJ5" s="328"/>
+      <c r="AK5" s="328"/>
+      <c r="AL5" s="328"/>
+      <c r="AM5" s="328"/>
+      <c r="AN5" s="328"/>
+      <c r="AO5" s="328"/>
+      <c r="AP5" s="328"/>
+      <c r="AQ5" s="328"/>
+      <c r="AR5" s="328"/>
+      <c r="AS5" s="328"/>
+      <c r="AT5" s="328"/>
+      <c r="AU5" s="328"/>
+      <c r="AV5" s="329"/>
+      <c r="AW5" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" s="321"/>
-      <c r="AY5" s="321"/>
-      <c r="AZ5" s="321"/>
-      <c r="BA5" s="321"/>
-      <c r="BB5" s="321"/>
-      <c r="BC5" s="321"/>
-      <c r="BD5" s="321"/>
-      <c r="BE5" s="321"/>
-      <c r="BF5" s="322"/>
-      <c r="BG5" s="326" t="s">
+      <c r="AX5" s="316"/>
+      <c r="AY5" s="316"/>
+      <c r="AZ5" s="316"/>
+      <c r="BA5" s="316"/>
+      <c r="BB5" s="316"/>
+      <c r="BC5" s="316"/>
+      <c r="BD5" s="316"/>
+      <c r="BE5" s="316"/>
+      <c r="BF5" s="317"/>
+      <c r="BG5" s="321" t="s">
         <v>263</v>
       </c>
-      <c r="BH5" s="327"/>
-      <c r="BI5" s="327"/>
-      <c r="BJ5" s="327"/>
-      <c r="BK5" s="327"/>
-      <c r="BL5" s="327"/>
-      <c r="BM5" s="327"/>
-      <c r="BN5" s="327"/>
-      <c r="BO5" s="327"/>
-      <c r="BP5" s="328"/>
-      <c r="BQ5" s="329" t="s">
+      <c r="BH5" s="322"/>
+      <c r="BI5" s="322"/>
+      <c r="BJ5" s="322"/>
+      <c r="BK5" s="322"/>
+      <c r="BL5" s="322"/>
+      <c r="BM5" s="322"/>
+      <c r="BN5" s="322"/>
+      <c r="BO5" s="322"/>
+      <c r="BP5" s="323"/>
+      <c r="BQ5" s="324" t="s">
         <v>264</v>
       </c>
-      <c r="BR5" s="330"/>
-      <c r="BS5" s="330"/>
-      <c r="BT5" s="330"/>
-      <c r="BU5" s="330"/>
-      <c r="BV5" s="330"/>
-      <c r="BW5" s="330"/>
-      <c r="BX5" s="330"/>
-      <c r="BY5" s="330"/>
-      <c r="BZ5" s="331"/>
-      <c r="CA5" s="323" t="s">
+      <c r="BR5" s="325"/>
+      <c r="BS5" s="325"/>
+      <c r="BT5" s="325"/>
+      <c r="BU5" s="325"/>
+      <c r="BV5" s="325"/>
+      <c r="BW5" s="325"/>
+      <c r="BX5" s="325"/>
+      <c r="BY5" s="325"/>
+      <c r="BZ5" s="326"/>
+      <c r="CA5" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="CB5" s="324"/>
-      <c r="CC5" s="324"/>
-      <c r="CD5" s="324"/>
-      <c r="CE5" s="324"/>
-      <c r="CF5" s="324"/>
-      <c r="CG5" s="324"/>
-      <c r="CH5" s="324"/>
-      <c r="CI5" s="324"/>
-      <c r="CJ5" s="325"/>
-      <c r="CK5" s="338" t="s">
+      <c r="CB5" s="319"/>
+      <c r="CC5" s="319"/>
+      <c r="CD5" s="319"/>
+      <c r="CE5" s="319"/>
+      <c r="CF5" s="319"/>
+      <c r="CG5" s="319"/>
+      <c r="CH5" s="319"/>
+      <c r="CI5" s="319"/>
+      <c r="CJ5" s="320"/>
+      <c r="CK5" s="285" t="s">
         <v>72</v>
       </c>
-      <c r="CL5" s="339"/>
-      <c r="CM5" s="339"/>
-      <c r="CN5" s="339"/>
-      <c r="CO5" s="339"/>
-      <c r="CP5" s="339"/>
-      <c r="CQ5" s="339"/>
-      <c r="CR5" s="339"/>
-      <c r="CS5" s="339"/>
-      <c r="CT5" s="339"/>
-      <c r="CU5" s="339"/>
-      <c r="CV5" s="339"/>
-      <c r="CW5" s="339"/>
-      <c r="CX5" s="339"/>
-      <c r="CY5" s="340"/>
+      <c r="CL5" s="286"/>
+      <c r="CM5" s="286"/>
+      <c r="CN5" s="286"/>
+      <c r="CO5" s="286"/>
+      <c r="CP5" s="286"/>
+      <c r="CQ5" s="286"/>
+      <c r="CR5" s="286"/>
+      <c r="CS5" s="286"/>
+      <c r="CT5" s="286"/>
+      <c r="CU5" s="286"/>
+      <c r="CV5" s="286"/>
+      <c r="CW5" s="286"/>
+      <c r="CX5" s="286"/>
+      <c r="CY5" s="287"/>
       <c r="CZ5" s="238"/>
       <c r="DA5" s="239"/>
     </row>
     <row r="6" spans="2:113" s="165" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="234"/>
       <c r="C6" s="235"/>
-      <c r="D6" s="317" t="s">
+      <c r="D6" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="300" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="301" t="s">
         <v>271</v>
       </c>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="300" t="s">
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="300" t="s">
+      <c r="O6" s="302"/>
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="301" t="s">
         <v>274</v>
       </c>
-      <c r="T6" s="301"/>
-      <c r="U6" s="301"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="302"/>
-      <c r="X6" s="300" t="s">
+      <c r="T6" s="302"/>
+      <c r="U6" s="302"/>
+      <c r="V6" s="302"/>
+      <c r="W6" s="303"/>
+      <c r="X6" s="301" t="s">
         <v>275</v>
       </c>
-      <c r="Y6" s="301"/>
-      <c r="Z6" s="301"/>
-      <c r="AA6" s="301"/>
-      <c r="AB6" s="302"/>
-      <c r="AC6" s="333" t="s">
+      <c r="Y6" s="302"/>
+      <c r="Z6" s="302"/>
+      <c r="AA6" s="302"/>
+      <c r="AB6" s="303"/>
+      <c r="AC6" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="333"/>
-      <c r="AE6" s="333"/>
-      <c r="AF6" s="333"/>
-      <c r="AG6" s="333"/>
-      <c r="AH6" s="333" t="s">
+      <c r="AD6" s="281"/>
+      <c r="AE6" s="281"/>
+      <c r="AF6" s="281"/>
+      <c r="AG6" s="281"/>
+      <c r="AH6" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" s="333"/>
-      <c r="AJ6" s="333"/>
-      <c r="AK6" s="333"/>
-      <c r="AL6" s="333"/>
-      <c r="AM6" s="333" t="s">
+      <c r="AI6" s="281"/>
+      <c r="AJ6" s="281"/>
+      <c r="AK6" s="281"/>
+      <c r="AL6" s="281"/>
+      <c r="AM6" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="333"/>
-      <c r="AQ6" s="333"/>
-      <c r="AR6" s="333" t="s">
+      <c r="AN6" s="281"/>
+      <c r="AO6" s="281"/>
+      <c r="AP6" s="281"/>
+      <c r="AQ6" s="281"/>
+      <c r="AR6" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="AS6" s="333"/>
-      <c r="AT6" s="333"/>
-      <c r="AU6" s="333"/>
-      <c r="AV6" s="333"/>
-      <c r="AW6" s="337" t="s">
+      <c r="AS6" s="281"/>
+      <c r="AT6" s="281"/>
+      <c r="AU6" s="281"/>
+      <c r="AV6" s="281"/>
+      <c r="AW6" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="AX6" s="337"/>
-      <c r="AY6" s="337"/>
-      <c r="AZ6" s="337"/>
-      <c r="BA6" s="337"/>
-      <c r="BB6" s="337" t="s">
+      <c r="AX6" s="294"/>
+      <c r="AY6" s="294"/>
+      <c r="AZ6" s="294"/>
+      <c r="BA6" s="294"/>
+      <c r="BB6" s="294" t="s">
         <v>79</v>
       </c>
-      <c r="BC6" s="337"/>
-      <c r="BD6" s="337"/>
-      <c r="BE6" s="337"/>
-      <c r="BF6" s="337"/>
-      <c r="BG6" s="319" t="s">
+      <c r="BC6" s="294"/>
+      <c r="BD6" s="294"/>
+      <c r="BE6" s="294"/>
+      <c r="BF6" s="294"/>
+      <c r="BG6" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="BH6" s="319"/>
-      <c r="BI6" s="319"/>
-      <c r="BJ6" s="319"/>
-      <c r="BK6" s="319"/>
-      <c r="BL6" s="319" t="s">
+      <c r="BH6" s="314"/>
+      <c r="BI6" s="314"/>
+      <c r="BJ6" s="314"/>
+      <c r="BK6" s="314"/>
+      <c r="BL6" s="314" t="s">
         <v>79</v>
       </c>
-      <c r="BM6" s="319"/>
-      <c r="BN6" s="319"/>
-      <c r="BO6" s="319"/>
-      <c r="BP6" s="319"/>
-      <c r="BQ6" s="332" t="s">
+      <c r="BM6" s="314"/>
+      <c r="BN6" s="314"/>
+      <c r="BO6" s="314"/>
+      <c r="BP6" s="314"/>
+      <c r="BQ6" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="332"/>
-      <c r="BS6" s="332"/>
-      <c r="BT6" s="332"/>
-      <c r="BU6" s="332"/>
-      <c r="BV6" s="332" t="s">
+      <c r="BR6" s="293"/>
+      <c r="BS6" s="293"/>
+      <c r="BT6" s="293"/>
+      <c r="BU6" s="293"/>
+      <c r="BV6" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="BW6" s="332"/>
-      <c r="BX6" s="332"/>
-      <c r="BY6" s="332"/>
-      <c r="BZ6" s="332"/>
-      <c r="CA6" s="318" t="s">
+      <c r="BW6" s="293"/>
+      <c r="BX6" s="293"/>
+      <c r="BY6" s="293"/>
+      <c r="BZ6" s="293"/>
+      <c r="CA6" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="CB6" s="318"/>
-      <c r="CC6" s="318"/>
-      <c r="CD6" s="318"/>
-      <c r="CE6" s="318"/>
-      <c r="CF6" s="318" t="s">
+      <c r="CB6" s="313"/>
+      <c r="CC6" s="313"/>
+      <c r="CD6" s="313"/>
+      <c r="CE6" s="313"/>
+      <c r="CF6" s="313" t="s">
         <v>79</v>
       </c>
-      <c r="CG6" s="318"/>
-      <c r="CH6" s="318"/>
-      <c r="CI6" s="318"/>
-      <c r="CJ6" s="318"/>
-      <c r="CK6" s="342" t="s">
+      <c r="CG6" s="313"/>
+      <c r="CH6" s="313"/>
+      <c r="CI6" s="313"/>
+      <c r="CJ6" s="313"/>
+      <c r="CK6" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="CL6" s="343"/>
-      <c r="CM6" s="343"/>
-      <c r="CN6" s="343"/>
-      <c r="CO6" s="344"/>
-      <c r="CP6" s="342" t="s">
+      <c r="CL6" s="291"/>
+      <c r="CM6" s="291"/>
+      <c r="CN6" s="291"/>
+      <c r="CO6" s="292"/>
+      <c r="CP6" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="CQ6" s="343"/>
-      <c r="CR6" s="343"/>
-      <c r="CS6" s="343"/>
-      <c r="CT6" s="344"/>
-      <c r="CU6" s="342" t="s">
+      <c r="CQ6" s="291"/>
+      <c r="CR6" s="291"/>
+      <c r="CS6" s="291"/>
+      <c r="CT6" s="292"/>
+      <c r="CU6" s="290" t="s">
         <v>79</v>
       </c>
-      <c r="CV6" s="343"/>
-      <c r="CW6" s="343"/>
-      <c r="CX6" s="343"/>
-      <c r="CY6" s="344"/>
+      <c r="CV6" s="291"/>
+      <c r="CW6" s="291"/>
+      <c r="CX6" s="291"/>
+      <c r="CY6" s="292"/>
       <c r="CZ6" s="240" t="s">
         <v>77</v>
       </c>
@@ -15143,23 +15342,20 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="49">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="CK4:CY4"/>
-    <mergeCell ref="CK5:CY5"/>
-    <mergeCell ref="CK3:CY3"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AX2:CC2"/>
+    <mergeCell ref="AC2:AW2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="AC3:AV3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="CA3:CJ3"/>
+    <mergeCell ref="I3:AB3"/>
+    <mergeCell ref="BG3:BP3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="AC4:AV4"/>
+    <mergeCell ref="AW4:BF4"/>
+    <mergeCell ref="I4:AB4"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I5:AB5"/>
@@ -15176,152 +15372,155 @@
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="AH6:AL6"/>
     <mergeCell ref="AC5:AV5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="CK4:CY4"/>
+    <mergeCell ref="CK5:CY5"/>
+    <mergeCell ref="CK3:CY3"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
     <mergeCell ref="BQ4:BZ4"/>
     <mergeCell ref="BQ3:BZ3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="AC4:AV4"/>
-    <mergeCell ref="AW4:BF4"/>
-    <mergeCell ref="I4:AB4"/>
-    <mergeCell ref="AX2:CC2"/>
-    <mergeCell ref="AC2:AW2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="AC3:AV3"/>
-    <mergeCell ref="AW3:BF3"/>
-    <mergeCell ref="CA3:CJ3"/>
-    <mergeCell ref="I3:AB3"/>
-    <mergeCell ref="BG3:BP3"/>
   </mergeCells>
   <conditionalFormatting sqref="CZ35">
-    <cfRule type="top10" dxfId="45" priority="58" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="44" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="58" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="59" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AB35">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="47" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AL35">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AG35">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR7:AV35">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BF35">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="29" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="30" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF7:CJ35">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:BF35 CF7:CJ35 CU7:CY35">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R35">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R35">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:CE35">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:CE35">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK7:CT35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK7:CT35">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
@@ -15335,8 +15534,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess">
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BtnAddAssess"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15355,32 +15579,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId4" name="BtnEditAssess"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="BtnAddAssess"/>
+        <control shapeId="3075" r:id="rId6" name="BtnEditAssess"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -16004,14 +16203,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="356" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="358"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16056,14 +16255,14 @@
     </row>
     <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="345" t="s">
+      <c r="A7" s="356" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="347"/>
+      <c r="B7" s="357"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16076,11 +16275,11 @@
       <c r="C8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="348" t="s">
+      <c r="D8" s="359" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="349"/>
-      <c r="F8" s="350"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
@@ -16104,27 +16303,27 @@
     </row>
     <row r="10" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="346"/>
-      <c r="C11" s="346"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="346"/>
-      <c r="F11" s="347"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="358"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="362" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="353"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="364"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
@@ -16140,25 +16339,25 @@
     </row>
     <row r="14" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="345" t="s">
+      <c r="A15" s="356" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="346"/>
-      <c r="C15" s="346"/>
-      <c r="D15" s="346"/>
-      <c r="E15" s="346"/>
-      <c r="F15" s="347"/>
+      <c r="B15" s="357"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="354"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="E16" s="355"/>
-      <c r="F16" s="356"/>
+      <c r="B16" s="353"/>
+      <c r="C16" s="354"/>
+      <c r="D16" s="354"/>
+      <c r="E16" s="354"/>
+      <c r="F16" s="355"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
@@ -16174,25 +16373,25 @@
     </row>
     <row r="18" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="345" t="s">
+      <c r="A19" s="356" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="346"/>
-      <c r="C19" s="346"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="346"/>
-      <c r="F19" s="347"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="358"/>
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="354"/>
-      <c r="C20" s="355"/>
-      <c r="D20" s="355"/>
-      <c r="E20" s="355"/>
-      <c r="F20" s="356"/>
+      <c r="B20" s="353"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="355"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
@@ -16208,25 +16407,25 @@
     </row>
     <row r="22" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="345" t="s">
+      <c r="A23" s="356" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="346"/>
-      <c r="C23" s="346"/>
-      <c r="D23" s="346"/>
-      <c r="E23" s="346"/>
-      <c r="F23" s="347"/>
+      <c r="B23" s="357"/>
+      <c r="C23" s="357"/>
+      <c r="D23" s="357"/>
+      <c r="E23" s="357"/>
+      <c r="F23" s="358"/>
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
-      <c r="D24" s="355"/>
-      <c r="E24" s="355"/>
-      <c r="F24" s="356"/>
+      <c r="B24" s="353"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="354"/>
+      <c r="F24" s="355"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
@@ -16242,27 +16441,27 @@
     </row>
     <row r="26" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:8" s="50" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="345" t="s">
+      <c r="A27" s="356" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="346"/>
-      <c r="C27" s="346"/>
-      <c r="D27" s="346"/>
-      <c r="E27" s="346"/>
-      <c r="F27" s="347"/>
+      <c r="B27" s="357"/>
+      <c r="C27" s="357"/>
+      <c r="D27" s="357"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="358"/>
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="354" t="s">
+      <c r="B28" s="353" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="355"/>
-      <c r="F28" s="356"/>
+      <c r="C28" s="354"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="354"/>
+      <c r="F28" s="355"/>
       <c r="H28" s="74" t="s">
         <v>240</v>
       </c>
@@ -16278,6 +16477,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A19:F19"/>
@@ -16285,12 +16490,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16334,10 +16533,10 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="360"/>
+      <c r="D3" s="368"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16399,35 +16598,35 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="369" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="363"/>
-      <c r="C11" s="364"/>
+      <c r="B11" s="371"/>
+      <c r="C11" s="372"/>
       <c r="D11" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="367"/>
-      <c r="F11" s="368"/>
+      <c r="E11" s="375"/>
+      <c r="F11" s="376"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="362"/>
-      <c r="B12" s="365"/>
-      <c r="C12" s="366"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="373"/>
+      <c r="C12" s="374"/>
       <c r="D12" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="367"/>
-      <c r="F12" s="368"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="376"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="357" t="s">
+      <c r="B14" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="359"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="367"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16493,30 +16692,30 @@
         <v>121</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="E3" s="381">
+      <c r="E3" s="378">
         <v>5665</v>
       </c>
-      <c r="F3" s="381"/>
+      <c r="F3" s="378"/>
       <c r="G3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="381" t="s">
+      <c r="I3" s="378" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
       <c r="N3" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="381" t="s">
+      <c r="P3" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="381"/>
-      <c r="R3" s="381"/>
-      <c r="S3" s="381"/>
-      <c r="T3" s="381"/>
+      <c r="Q3" s="378"/>
+      <c r="R3" s="378"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
       <c r="V3" s="96" t="s">
         <v>110</v>
       </c>
@@ -16527,10 +16726,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="99"/>
-      <c r="AF3" s="380" t="s">
+      <c r="AF3" s="377" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="380"/>
+      <c r="AG3" s="377"/>
     </row>
     <row r="5" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
@@ -17123,153 +17322,148 @@
     </row>
     <row r="17" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="372" t="s">
+      <c r="B18" s="382" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="373"/>
-      <c r="D18" s="369" t="s">
+      <c r="C18" s="383"/>
+      <c r="D18" s="379" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="370"/>
-      <c r="F18" s="370"/>
-      <c r="G18" s="370"/>
-      <c r="H18" s="370"/>
-      <c r="I18" s="370"/>
-      <c r="J18" s="370"/>
-      <c r="K18" s="370"/>
-      <c r="L18" s="370"/>
-      <c r="M18" s="370"/>
-      <c r="N18" s="370"/>
-      <c r="O18" s="370"/>
-      <c r="P18" s="370"/>
-      <c r="Q18" s="370"/>
-      <c r="R18" s="370"/>
-      <c r="S18" s="370"/>
-      <c r="T18" s="370"/>
-      <c r="U18" s="370"/>
-      <c r="V18" s="370"/>
-      <c r="W18" s="371"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="380"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="380"/>
+      <c r="K18" s="380"/>
+      <c r="L18" s="380"/>
+      <c r="M18" s="380"/>
+      <c r="N18" s="380"/>
+      <c r="O18" s="380"/>
+      <c r="P18" s="380"/>
+      <c r="Q18" s="380"/>
+      <c r="R18" s="380"/>
+      <c r="S18" s="380"/>
+      <c r="T18" s="380"/>
+      <c r="U18" s="380"/>
+      <c r="V18" s="380"/>
+      <c r="W18" s="381"/>
     </row>
     <row r="19" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="374">
+      <c r="B19" s="384">
         <v>2</v>
       </c>
-      <c r="C19" s="375"/>
-      <c r="D19" s="369" t="s">
+      <c r="C19" s="385"/>
+      <c r="D19" s="379" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="370"/>
-      <c r="F19" s="370"/>
-      <c r="G19" s="370"/>
-      <c r="H19" s="370"/>
-      <c r="I19" s="370"/>
-      <c r="J19" s="370"/>
-      <c r="K19" s="370"/>
-      <c r="L19" s="370"/>
-      <c r="M19" s="370"/>
-      <c r="N19" s="370"/>
-      <c r="O19" s="370"/>
-      <c r="P19" s="370"/>
-      <c r="Q19" s="370"/>
-      <c r="R19" s="370"/>
-      <c r="S19" s="370"/>
-      <c r="T19" s="370"/>
-      <c r="U19" s="370"/>
-      <c r="V19" s="370"/>
-      <c r="W19" s="371"/>
+      <c r="E19" s="380"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="380"/>
+      <c r="H19" s="380"/>
+      <c r="I19" s="380"/>
+      <c r="J19" s="380"/>
+      <c r="K19" s="380"/>
+      <c r="L19" s="380"/>
+      <c r="M19" s="380"/>
+      <c r="N19" s="380"/>
+      <c r="O19" s="380"/>
+      <c r="P19" s="380"/>
+      <c r="Q19" s="380"/>
+      <c r="R19" s="380"/>
+      <c r="S19" s="380"/>
+      <c r="T19" s="380"/>
+      <c r="U19" s="380"/>
+      <c r="V19" s="380"/>
+      <c r="W19" s="381"/>
     </row>
     <row r="20" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="376">
+      <c r="B20" s="386">
         <v>3</v>
       </c>
-      <c r="C20" s="377"/>
-      <c r="D20" s="369" t="s">
+      <c r="C20" s="387"/>
+      <c r="D20" s="379" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="370"/>
-      <c r="F20" s="370"/>
-      <c r="G20" s="370"/>
-      <c r="H20" s="370"/>
-      <c r="I20" s="370"/>
-      <c r="J20" s="370"/>
-      <c r="K20" s="370"/>
-      <c r="L20" s="370"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="370"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="370"/>
-      <c r="U20" s="370"/>
-      <c r="V20" s="370"/>
-      <c r="W20" s="371"/>
+      <c r="E20" s="380"/>
+      <c r="F20" s="380"/>
+      <c r="G20" s="380"/>
+      <c r="H20" s="380"/>
+      <c r="I20" s="380"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="380"/>
+      <c r="L20" s="380"/>
+      <c r="M20" s="380"/>
+      <c r="N20" s="380"/>
+      <c r="O20" s="380"/>
+      <c r="P20" s="380"/>
+      <c r="Q20" s="380"/>
+      <c r="R20" s="380"/>
+      <c r="S20" s="380"/>
+      <c r="T20" s="380"/>
+      <c r="U20" s="380"/>
+      <c r="V20" s="380"/>
+      <c r="W20" s="381"/>
     </row>
     <row r="21" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="378">
+      <c r="B21" s="388">
         <v>4</v>
       </c>
-      <c r="C21" s="379"/>
-      <c r="D21" s="369" t="s">
+      <c r="C21" s="389"/>
+      <c r="D21" s="379" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="370"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="370"/>
-      <c r="H21" s="370"/>
-      <c r="I21" s="370"/>
-      <c r="J21" s="370"/>
-      <c r="K21" s="370"/>
-      <c r="L21" s="370"/>
-      <c r="M21" s="370"/>
-      <c r="N21" s="370"/>
-      <c r="O21" s="370"/>
-      <c r="P21" s="370"/>
-      <c r="Q21" s="370"/>
-      <c r="R21" s="370"/>
-      <c r="S21" s="370"/>
-      <c r="T21" s="370"/>
-      <c r="U21" s="370"/>
-      <c r="V21" s="370"/>
-      <c r="W21" s="371"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="380"/>
+      <c r="L21" s="380"/>
+      <c r="M21" s="380"/>
+      <c r="N21" s="380"/>
+      <c r="O21" s="380"/>
+      <c r="P21" s="380"/>
+      <c r="Q21" s="380"/>
+      <c r="R21" s="380"/>
+      <c r="S21" s="380"/>
+      <c r="T21" s="380"/>
+      <c r="U21" s="380"/>
+      <c r="V21" s="380"/>
+      <c r="W21" s="381"/>
     </row>
     <row r="22" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="378">
+      <c r="B22" s="388">
         <v>5</v>
       </c>
-      <c r="C22" s="379"/>
-      <c r="D22" s="369" t="s">
+      <c r="C22" s="389"/>
+      <c r="D22" s="379" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="370"/>
-      <c r="H22" s="370"/>
-      <c r="I22" s="370"/>
-      <c r="J22" s="370"/>
-      <c r="K22" s="370"/>
-      <c r="L22" s="370"/>
-      <c r="M22" s="370"/>
-      <c r="N22" s="370"/>
-      <c r="O22" s="370"/>
-      <c r="P22" s="370"/>
-      <c r="Q22" s="370"/>
-      <c r="R22" s="370"/>
-      <c r="S22" s="370"/>
-      <c r="T22" s="370"/>
-      <c r="U22" s="370"/>
-      <c r="V22" s="370"/>
-      <c r="W22" s="371"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="380"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="380"/>
+      <c r="J22" s="380"/>
+      <c r="K22" s="380"/>
+      <c r="L22" s="380"/>
+      <c r="M22" s="380"/>
+      <c r="N22" s="380"/>
+      <c r="O22" s="380"/>
+      <c r="P22" s="380"/>
+      <c r="Q22" s="380"/>
+      <c r="R22" s="380"/>
+      <c r="S22" s="380"/>
+      <c r="T22" s="380"/>
+      <c r="U22" s="380"/>
+      <c r="V22" s="380"/>
+      <c r="W22" s="381"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D18:W18"/>
     <mergeCell ref="D19:W19"/>
     <mergeCell ref="D20:W20"/>
     <mergeCell ref="D21:W21"/>
@@ -17279,28 +17473,33 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D18:W18"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:AG13">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>1.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="between">
       <formula>4</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17425,14 +17624,14 @@
       </c>
     </row>
     <row r="28" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="382" t="s">
+      <c r="N28" s="390" t="s">
         <v>133</v>
       </c>
-      <c r="O28" s="382"/>
-      <c r="P28" s="382"/>
-      <c r="Q28" s="382"/>
-      <c r="R28" s="382"/>
-      <c r="S28" s="382"/>
+      <c r="O28" s="390"/>
+      <c r="P28" s="390"/>
+      <c r="Q28" s="390"/>
+      <c r="R28" s="390"/>
+      <c r="S28" s="390"/>
     </row>
     <row r="30" spans="13:19" x14ac:dyDescent="0.2">
       <c r="N30" s="10" t="s">
@@ -17455,14 +17654,14 @@
       <c r="S33" s="106"/>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.2">
-      <c r="N36" s="382" t="s">
+      <c r="N36" s="390" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="382"/>
-      <c r="P36" s="382"/>
-      <c r="Q36" s="382"/>
-      <c r="R36" s="382"/>
-      <c r="S36" s="382"/>
+      <c r="O36" s="390"/>
+      <c r="P36" s="390"/>
+      <c r="Q36" s="390"/>
+      <c r="R36" s="390"/>
+      <c r="S36" s="390"/>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N38" s="10" t="s">
@@ -17613,30 +17812,30 @@
       <c r="C4" s="204">
         <v>9</v>
       </c>
-      <c r="D4" s="389">
+      <c r="D4" s="391">
         <v>11</v>
       </c>
-      <c r="E4" s="389"/>
-      <c r="F4" s="389">
+      <c r="E4" s="391"/>
+      <c r="F4" s="391">
         <v>17</v>
       </c>
-      <c r="G4" s="389"/>
-      <c r="H4" s="389">
+      <c r="G4" s="391"/>
+      <c r="H4" s="391">
         <v>20</v>
       </c>
-      <c r="I4" s="389"/>
-      <c r="J4" s="389"/>
-      <c r="K4" s="389"/>
-      <c r="L4" s="389">
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391">
         <v>27</v>
       </c>
-      <c r="M4" s="389"/>
-      <c r="N4" s="389">
+      <c r="M4" s="391"/>
+      <c r="N4" s="391">
         <v>28</v>
       </c>
-      <c r="O4" s="389"/>
-      <c r="P4" s="389"/>
-      <c r="Q4" s="389"/>
+      <c r="O4" s="391"/>
+      <c r="P4" s="391"/>
+      <c r="Q4" s="391"/>
       <c r="R4" s="204">
         <v>29</v>
       </c>
@@ -17650,30 +17849,30 @@
       <c r="C5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="388" t="s">
+      <c r="D5" s="397" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="388"/>
-      <c r="F5" s="383" t="s">
+      <c r="E5" s="397"/>
+      <c r="F5" s="392" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="383"/>
-      <c r="H5" s="383" t="s">
+      <c r="G5" s="392"/>
+      <c r="H5" s="392" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="384" t="s">
+      <c r="I5" s="392"/>
+      <c r="J5" s="392"/>
+      <c r="K5" s="392"/>
+      <c r="L5" s="393" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="384"/>
-      <c r="N5" s="384" t="s">
+      <c r="M5" s="393"/>
+      <c r="N5" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="384"/>
-      <c r="P5" s="384"/>
-      <c r="Q5" s="384"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="393"/>
+      <c r="Q5" s="393"/>
       <c r="R5" s="200" t="s">
         <v>17</v>
       </c>
@@ -17687,30 +17886,30 @@
       <c r="C6" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="394" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="385"/>
-      <c r="F6" s="386" t="s">
+      <c r="E6" s="394"/>
+      <c r="F6" s="395" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="386"/>
-      <c r="H6" s="386" t="s">
+      <c r="G6" s="395"/>
+      <c r="H6" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="386"/>
-      <c r="J6" s="386"/>
-      <c r="K6" s="386"/>
-      <c r="L6" s="387" t="s">
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="396" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="387"/>
-      <c r="N6" s="387" t="s">
+      <c r="M6" s="396"/>
+      <c r="N6" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="387"/>
-      <c r="P6" s="387"/>
-      <c r="Q6" s="387"/>
+      <c r="O6" s="396"/>
+      <c r="P6" s="396"/>
+      <c r="Q6" s="396"/>
       <c r="R6" s="203" t="s">
         <v>152</v>
       </c>
@@ -17952,11 +18151,6 @@
     <row r="13" spans="1:85" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="L5:M5"/>
@@ -17967,36 +18161,41 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 B8:D12 F8:J12 L8:R12">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K12">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>1</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>79</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E12">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>1</formula>
       <formula>74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:R12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
